--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -16518,18 +16518,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F45" s="15" t="inlineStr">
-        <is>
-          <t>Dữ liệu web: Đóng
-Dữ liệu excel: Mất kết nối
- Dòng: J6</t>
-        </is>
-      </c>
-      <c r="G45" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F45" s="15" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16791,16 +16781,8 @@
           <t>Chuyển đến trang: "1.3 Giám sát xe"</t>
         </is>
       </c>
-      <c r="F53" s="15" t="inlineStr">
-        <is>
-          <t>1.3 Giám sát xe</t>
-        </is>
-      </c>
-      <c r="G53" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F53" s="15" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr"/>
       <c r="H53" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16837,16 +16819,8 @@
           <t>Hiển thị xe có mã đàm đã nhập ở map</t>
         </is>
       </c>
-      <c r="F54" s="15" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="G54" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F54" s="15" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr"/>
       <c r="H54" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16882,16 +16856,8 @@
           <t>Hiển thị message: "Lưu thành công!"</t>
         </is>
       </c>
-      <c r="F55" s="15" t="inlineStr">
-        <is>
-          <t>Lưu thành công!</t>
-        </is>
-      </c>
-      <c r="G55" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F55" s="15" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr"/>
       <c r="H55" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16936,16 +16902,8 @@
 2."Hiển thị message: "Lưu thông tin thành công." và load lại trang</t>
         </is>
       </c>
-      <c r="F56" s="15" t="inlineStr">
-        <is>
-          <t>Cập nhật cấu hình khởi động</t>
-        </is>
-      </c>
-      <c r="G56" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F56" s="15" t="inlineStr"/>
+      <c r="G56" s="4" t="inlineStr"/>
       <c r="H56" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16981,16 +16939,8 @@
           <t xml:space="preserve"> Mở popup "Trợ giúp"</t>
         </is>
       </c>
-      <c r="F57" s="15" t="inlineStr">
-        <is>
-          <t>Trợ Giúp</t>
-        </is>
-      </c>
-      <c r="G57" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F57" s="15" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr"/>
       <c r="H57" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17029,16 +16979,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/RedCar.png"</t>
         </is>
       </c>
-      <c r="F58" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/RedCar.png</t>
-        </is>
-      </c>
-      <c r="G58" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F58" s="15" t="inlineStr"/>
+      <c r="G58" s="4" t="inlineStr"/>
       <c r="H58" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17077,16 +17019,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/BlueCar.png"</t>
         </is>
       </c>
-      <c r="F59" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/BlueCar.png</t>
-        </is>
-      </c>
-      <c r="G59" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F59" s="15" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr"/>
       <c r="H59" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17127,14 +17061,10 @@
       </c>
       <c r="F60" s="46" t="inlineStr">
         <is>
-          <t>https://app.staxi.vn/Content/themes/img/GreenCar.png</t>
-        </is>
-      </c>
-      <c r="G60" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+          <t>https://app.staxi.vn/Content/themes/img/WarGreenCar.png</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="inlineStr"/>
       <c r="H60" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17176,16 +17106,8 @@
 "/Content/themes/img/BlueCar.png" </t>
         </is>
       </c>
-      <c r="F61" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/RedCar.png</t>
-        </is>
-      </c>
-      <c r="G61" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F61" s="15" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr"/>
       <c r="H61" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17224,16 +17146,8 @@
           <t>Trống xe</t>
         </is>
       </c>
-      <c r="F62" s="15" t="inlineStr">
-        <is>
-          <t>0/82</t>
-        </is>
-      </c>
-      <c r="G62" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F62" s="15" t="inlineStr"/>
+      <c r="G62" s="4" t="inlineStr"/>
       <c r="H62" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17272,16 +17186,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/WarGreenCar.png"</t>
         </is>
       </c>
-      <c r="F63" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/WarGreenCar.png</t>
-        </is>
-      </c>
-      <c r="G63" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F63" s="15" t="inlineStr"/>
+      <c r="G63" s="4" t="inlineStr"/>
       <c r="H63" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17320,16 +17226,8 @@
           <t>Tất cả xe kết nối</t>
         </is>
       </c>
-      <c r="F64" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/RedCar.png</t>
-        </is>
-      </c>
-      <c r="G64" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F64" s="15" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr"/>
       <c r="H64" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17368,16 +17266,8 @@
           <t>Tất cả xe</t>
         </is>
       </c>
-      <c r="F65" s="15" t="inlineStr">
-        <is>
-          <t>82/82</t>
-        </is>
-      </c>
-      <c r="G65" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F65" s="15" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr"/>
       <c r="H65" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17416,17 +17306,8 @@
           <t>Hiển thị thông tin xe: "205 - 15A26857"</t>
         </is>
       </c>
-      <c r="F66" s="15" t="inlineStr">
-        <is>
-          <t>Biển số tìm kiếm: 205 - 15A26857
-Biển số popup: 205-15A26857</t>
-        </is>
-      </c>
-      <c r="G66" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F66" s="15" t="inlineStr"/>
+      <c r="G66" s="4" t="inlineStr"/>
       <c r="H66" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17466,16 +17347,8 @@
           <t>Mở tab mới với lộ trình xe vừa tìm kiếm, chuyển tới trang: "THEO DÕI LỘ TRÌNH - STAXI"</t>
         </is>
       </c>
-      <c r="F67" s="15" t="inlineStr">
-        <is>
-          <t>THEO DÕI LỘ TRÌNH - STAXI</t>
-        </is>
-      </c>
-      <c r="G67" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F67" s="15" t="inlineStr"/>
+      <c r="G67" s="4" t="inlineStr"/>
       <c r="H67" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17553,11 +17426,7 @@
         </is>
       </c>
       <c r="F70" s="15" t="inlineStr"/>
-      <c r="G70" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G70" s="4" t="inlineStr"/>
       <c r="H70" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17588,16 +17457,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F71" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 15A26611</t>
-        </is>
-      </c>
-      <c r="G71" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F71" s="15" t="inlineStr"/>
+      <c r="G71" s="4" t="inlineStr"/>
       <c r="H71" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17628,17 +17489,8 @@
           <t>So sánh: Popup Hiện trạng, Danh sách giám sát</t>
         </is>
       </c>
-      <c r="F72" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 202
-Danh sách giám sát: 202</t>
-        </is>
-      </c>
-      <c r="G72" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F72" s="15" t="inlineStr"/>
+      <c r="G72" s="4" t="inlineStr"/>
       <c r="H72" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17669,16 +17521,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F73" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 20.9573</t>
-        </is>
-      </c>
-      <c r="G73" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F73" s="15" t="inlineStr"/>
+      <c r="G73" s="4" t="inlineStr"/>
       <c r="H73" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17709,16 +17553,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F74" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 106.6261</t>
-        </is>
-      </c>
-      <c r="G74" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F74" s="15" t="inlineStr"/>
+      <c r="G74" s="4" t="inlineStr"/>
       <c r="H74" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17749,16 +17585,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F75" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: P. Lê Ích Mộc, , TP. Hải Phòng</t>
-        </is>
-      </c>
-      <c r="G75" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F75" s="15" t="inlineStr"/>
+      <c r="G75" s="4" t="inlineStr"/>
       <c r="H75" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17793,17 +17621,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F76" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 18:18:11
-Danh sách giám sát: 18:18:11</t>
-        </is>
-      </c>
-      <c r="G76" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F76" s="15" t="inlineStr"/>
+      <c r="G76" s="4" t="inlineStr"/>
       <c r="H76" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17838,17 +17657,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F77" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0
-Danh sách giám sát: 0</t>
-        </is>
-      </c>
-      <c r="G77" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F77" s="15" t="inlineStr"/>
+      <c r="G77" s="4" t="inlineStr"/>
       <c r="H77" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17883,16 +17693,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F78" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 5 chỗ Nguyễn Gia - VIOS</t>
-        </is>
-      </c>
-      <c r="G78" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F78" s="15" t="inlineStr"/>
+      <c r="G78" s="4" t="inlineStr"/>
       <c r="H78" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17923,17 +17725,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F79" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: Sẵn sàng
-Danh sách giám sát: Sẵn sàng</t>
-        </is>
-      </c>
-      <c r="G79" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F79" s="15" t="inlineStr"/>
+      <c r="G79" s="4" t="inlineStr"/>
       <c r="H79" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17964,16 +17757,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F80" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 1 (TTĐH:1;App:0;Vẫy:0)</t>
-        </is>
-      </c>
-      <c r="G80" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F80" s="15" t="inlineStr"/>
+      <c r="G80" s="4" t="inlineStr"/>
       <c r="H80" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18004,16 +17789,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F81" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 97000</t>
-        </is>
-      </c>
-      <c r="G81" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F81" s="15" t="inlineStr"/>
+      <c r="G81" s="4" t="inlineStr"/>
       <c r="H81" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18044,16 +17821,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F82" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: VŨ LONG AN</t>
-        </is>
-      </c>
-      <c r="G82" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F82" s="15" t="inlineStr"/>
+      <c r="G82" s="4" t="inlineStr"/>
       <c r="H82" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18084,16 +17853,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F83" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0866692456</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F83" s="15" t="inlineStr"/>
+      <c r="G83" s="4" t="inlineStr"/>
       <c r="H83" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18124,16 +17885,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F84" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: Kết nối</t>
-        </is>
-      </c>
-      <c r="G84" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F84" s="15" t="inlineStr"/>
+      <c r="G84" s="4" t="inlineStr"/>
       <c r="H84" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18164,16 +17917,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F85" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 609090</t>
-        </is>
-      </c>
-      <c r="G85" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F85" s="15" t="inlineStr"/>
+      <c r="G85" s="4" t="inlineStr"/>
       <c r="H85" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18313,18 +18058,8 @@
           <t>Hiển thị các trường: Thời gian, Trạng thái, Nguồn</t>
         </is>
       </c>
-      <c r="F91" s="15" t="inlineStr">
-        <is>
-          <t>Thời gian: 11:01:26
-Trạng thái: Nghỉ KD
-Nguồn: AppLx</t>
-        </is>
-      </c>
-      <c r="G91" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F91" s="15" t="inlineStr"/>
+      <c r="G91" s="4" t="inlineStr"/>
       <c r="H91" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18361,11 +18096,7 @@
         </is>
       </c>
       <c r="F92" s="15" t="inlineStr"/>
-      <c r="G92" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G92" s="4" t="inlineStr"/>
       <c r="H92" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18402,11 +18133,7 @@
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr"/>
-      <c r="G93" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G93" s="4" t="inlineStr"/>
       <c r="H93" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18443,11 +18170,7 @@
         </is>
       </c>
       <c r="F94" s="15" t="inlineStr"/>
-      <c r="G94" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G94" s="4" t="inlineStr"/>
       <c r="H94" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18484,11 +18207,7 @@
         </is>
       </c>
       <c r="F95" s="15" t="inlineStr"/>
-      <c r="G95" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G95" s="4" t="inlineStr"/>
       <c r="H95" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18525,11 +18244,7 @@
         </is>
       </c>
       <c r="F96" s="15" t="inlineStr"/>
-      <c r="G96" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G96" s="4" t="inlineStr"/>
       <c r="H96" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18566,11 +18281,7 @@
         </is>
       </c>
       <c r="F97" s="15" t="inlineStr"/>
-      <c r="G97" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G97" s="4" t="inlineStr"/>
       <c r="H97" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18607,17 +18318,8 @@
 2. Hiển thị: Biển số xe, thời gian</t>
         </is>
       </c>
-      <c r="F98" s="15" t="inlineStr">
-        <is>
-          <t>Biển số xe: Biển số xe: 17H03494
-Thời gian: Từ ngày: 09/12/2025 20:00 Đến ngày: 10/12/2025 18:19</t>
-        </is>
-      </c>
-      <c r="G98" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F98" s="15" t="inlineStr"/>
+      <c r="G98" s="4" t="inlineStr"/>
       <c r="H98" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18653,16 +18355,8 @@
           <t>Tải file Excel chứa danh sách lộ trình xe về máy(chỉ check tải)</t>
         </is>
       </c>
-      <c r="F99" s="15" t="inlineStr">
-        <is>
-          <t>_GiamSat_LoTrinh_XuatExcel.xls</t>
-        </is>
-      </c>
-      <c r="G99" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F99" s="15" t="inlineStr"/>
+      <c r="G99" s="4" t="inlineStr"/>
       <c r="H99" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18698,19 +18392,8 @@
           <t>Hiển thị popup các màu sắc cảnh báo: Cảnh báo, Sẵng sàng, Có khách, Nghỉ KD</t>
         </is>
       </c>
-      <c r="F100" s="15" t="inlineStr">
-        <is>
-          <t>Màu Vàng: Cảnh báo
-Màu đỏ: Sẵn sàng
-Màu xanh dương: Có khách
-Màu đen: Nghỉ KD</t>
-        </is>
-      </c>
-      <c r="G100" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F100" s="15" t="inlineStr"/>
+      <c r="G100" s="4" t="inlineStr"/>
       <c r="H100" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18804,16 +18487,8 @@
           <t>Chuyển đến trang: "1.9 Giám sát xe (nhóm)"</t>
         </is>
       </c>
-      <c r="F104" s="15" t="inlineStr">
-        <is>
-          <t>1.9 Giám sát xe (nhóm)</t>
-        </is>
-      </c>
-      <c r="G104" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F104" s="15" t="inlineStr"/>
+      <c r="G104" s="4" t="inlineStr"/>
       <c r="H104" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18937,16 +18612,8 @@
           <t>Hiển thị các trạng thái: Trực tuyến, Sẵn sàng, Có khách, Bận, Ngừng KD, Mất tín hiệu, Ngoại tuyến</t>
         </is>
       </c>
-      <c r="F107" s="15" t="inlineStr">
-        <is>
-          <t>Trực tuyến, Sẵn sàng, Có khách, Bận, Ngừng KD, Mất tín hiệu, Ngoại tuyến</t>
-        </is>
-      </c>
-      <c r="G107" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F107" s="15" t="inlineStr"/>
+      <c r="G107" s="4" t="inlineStr"/>
       <c r="H107" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18982,23 +18649,8 @@
           <t>Hiển thị tất cả các nhóm của công ty</t>
         </is>
       </c>
-      <c r="F108" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                        Tất cả
-                                            Binhnm Test
-                                            G7TaxiHN-Gán Xe
-                                            G7-Việt Thanh-Gán Xe
-                                            G7-Vĩnh Phúc-Gán Xe
-                                            IT-G7-Gán xe
-                                            IT-G7-Gán Lái
-                                    </t>
-        </is>
-      </c>
-      <c r="G108" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F108" s="15" t="inlineStr"/>
+      <c r="G108" s="4" t="inlineStr"/>
       <c r="H108" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19074,16 +18726,8 @@
           <t>Hiển thị đúng Xe đã nhập ở danh sách và popup Hiện trạng</t>
         </is>
       </c>
-      <c r="F111" s="15" t="inlineStr">
-        <is>
-          <t>30E03975</t>
-        </is>
-      </c>
-      <c r="G111" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F111" s="15" t="inlineStr"/>
+      <c r="G111" s="4" t="inlineStr"/>
       <c r="H111" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19093,11 +18737,7 @@
       <c r="J111" s="6" t="n"/>
       <c r="K111" s="6" t="n"/>
       <c r="L111" s="4" t="n"/>
-      <c r="M111" s="20" t="inlineStr">
-        <is>
-          <t>Minitor68_.png</t>
-        </is>
-      </c>
+      <c r="M111" s="20" t="inlineStr"/>
       <c r="N111" s="20" t="n"/>
     </row>
     <row r="112" ht="75" customHeight="1">
@@ -19118,16 +18758,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F112" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 30E03975</t>
-        </is>
-      </c>
-      <c r="G112" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F112" s="15" t="inlineStr"/>
+      <c r="G112" s="4" t="inlineStr"/>
       <c r="H112" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19158,16 +18790,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F113" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: - 05</t>
-        </is>
-      </c>
-      <c r="G113" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F113" s="15" t="inlineStr"/>
+      <c r="G113" s="4" t="inlineStr"/>
       <c r="H113" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19198,16 +18822,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F114" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 18:21:36 10/12/25</t>
-        </is>
-      </c>
-      <c r="G114" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F114" s="15" t="inlineStr"/>
+      <c r="G114" s="4" t="inlineStr"/>
       <c r="H114" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19238,16 +18854,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F115" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 21.04397</t>
-        </is>
-      </c>
-      <c r="G115" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F115" s="15" t="inlineStr"/>
+      <c r="G115" s="4" t="inlineStr"/>
       <c r="H115" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19278,16 +18886,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F116" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 105.843</t>
-        </is>
-      </c>
-      <c r="G116" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F116" s="15" t="inlineStr"/>
+      <c r="G116" s="4" t="inlineStr"/>
       <c r="H116" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19318,16 +18918,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F117" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 25, Cửa Bắc, P. Ba Đình, , TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="G117" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F117" s="15" t="inlineStr"/>
+      <c r="G117" s="4" t="inlineStr"/>
       <c r="H117" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19358,16 +18950,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F118" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0</t>
-        </is>
-      </c>
-      <c r="G118" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F118" s="15" t="inlineStr"/>
+      <c r="G118" s="4" t="inlineStr"/>
       <c r="H118" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19398,16 +18982,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F119" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: Đỗ Đức Long</t>
-        </is>
-      </c>
-      <c r="G119" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F119" s="15" t="inlineStr"/>
+      <c r="G119" s="4" t="inlineStr"/>
       <c r="H119" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19438,16 +19014,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F120" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0978251088</t>
-        </is>
-      </c>
-      <c r="G120" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F120" s="15" t="inlineStr"/>
+      <c r="G120" s="4" t="inlineStr"/>
       <c r="H120" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19478,16 +19046,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F121" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 4 Chỗ - I10 Sedan</t>
-        </is>
-      </c>
-      <c r="G121" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F121" s="15" t="inlineStr"/>
+      <c r="G121" s="4" t="inlineStr"/>
       <c r="H121" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19518,16 +19078,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F122" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 1 (TTĐH: 1; App: 0; Vẫy: 0)</t>
-        </is>
-      </c>
-      <c r="G122" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F122" s="15" t="inlineStr"/>
+      <c r="G122" s="4" t="inlineStr"/>
       <c r="H122" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19558,16 +19110,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F123" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 610222</t>
-        </is>
-      </c>
-      <c r="G123" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F123" s="15" t="inlineStr"/>
+      <c r="G123" s="4" t="inlineStr"/>
       <c r="H123" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19662,16 +19206,8 @@
           <t>Chuyển đến trang: "2.1 Xe"</t>
         </is>
       </c>
-      <c r="F127" s="15" t="inlineStr">
-        <is>
-          <t>2.1 Xe</t>
-        </is>
-      </c>
-      <c r="G127" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F127" s="15" t="inlineStr"/>
+      <c r="G127" s="4" t="inlineStr"/>
       <c r="H127" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19753,16 +19289,8 @@
           <t>Hiển thị "Biển số" đã nhập ở đầu danh sách tìm kiếm</t>
         </is>
       </c>
-      <c r="F129" s="15" t="inlineStr">
-        <is>
-          <t>30E68089</t>
-        </is>
-      </c>
-      <c r="G129" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F129" s="15" t="inlineStr"/>
+      <c r="G129" s="4" t="inlineStr"/>
       <c r="H129" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19800,16 +19328,8 @@
           <t>Hiển thị "Số hiệu" đã nhập ở đầu danh sách tìm kiếm</t>
         </is>
       </c>
-      <c r="F130" s="15" t="inlineStr">
-        <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="G130" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F130" s="15" t="inlineStr"/>
+      <c r="G130" s="4" t="inlineStr"/>
       <c r="H130" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20265,16 +19785,8 @@
 (Chỉ check tải)</t>
         </is>
       </c>
-      <c r="F142" s="15" t="inlineStr">
-        <is>
-          <t>xe_LaiXe.xls</t>
-        </is>
-      </c>
-      <c r="G142" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F142" s="15" t="inlineStr"/>
+      <c r="G142" s="4" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -20401,16 +19913,8 @@
 (biển số tạo ở ô ghi chú)</t>
         </is>
       </c>
-      <c r="F145" s="15" t="inlineStr">
-        <is>
-          <t>Thêm mới xe thành công.</t>
-        </is>
-      </c>
-      <c r="G145" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F145" s="15" t="inlineStr"/>
+      <c r="G145" s="4" t="inlineStr"/>
       <c r="H145" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20455,16 +19959,8 @@
           <t>Hiển thị message: "Hủy kết nối hộp đen thành công"</t>
         </is>
       </c>
-      <c r="F146" s="29" t="inlineStr">
-        <is>
-          <t>Hủy kết nối hộp đen thành công</t>
-        </is>
-      </c>
-      <c r="G146" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F146" s="29" t="inlineStr"/>
+      <c r="G146" s="4" t="inlineStr"/>
       <c r="H146" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20501,16 +19997,8 @@
           <t>Hiển thị message: "Kết nối hộp đen thành công"</t>
         </is>
       </c>
-      <c r="F147" s="29" t="inlineStr">
-        <is>
-          <t>Kết nối hộp đen thành công</t>
-        </is>
-      </c>
-      <c r="G147" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F147" s="29" t="inlineStr"/>
+      <c r="G147" s="4" t="inlineStr"/>
       <c r="H147" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20547,16 +20035,8 @@
           <t>Hiển thị message: "Cập nhật trạng thái kết nối đồng hồ thành công"</t>
         </is>
       </c>
-      <c r="F148" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật trạng thái kết nối đồng hồ thành công</t>
-        </is>
-      </c>
-      <c r="G148" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F148" s="29" t="inlineStr"/>
+      <c r="G148" s="4" t="inlineStr"/>
       <c r="H148" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20593,16 +20073,8 @@
           <t>Hiển thị message: "Cập nhật trạng thái kết nối đồng hồ thành công"</t>
         </is>
       </c>
-      <c r="F149" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật trạng thái kết nối đồng hồ thành công</t>
-        </is>
-      </c>
-      <c r="G149" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F149" s="29" t="inlineStr"/>
+      <c r="G149" s="4" t="inlineStr"/>
       <c r="H149" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20717,16 +20189,8 @@
           <t>Hiển thị message: "Khóa xe thành công."</t>
         </is>
       </c>
-      <c r="F152" s="29" t="inlineStr">
-        <is>
-          <t>Khóa xe thành công.</t>
-        </is>
-      </c>
-      <c r="G152" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F152" s="29" t="inlineStr"/>
+      <c r="G152" s="4" t="inlineStr"/>
       <c r="H152" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20763,16 +20227,8 @@
           <t>Hiển thị message: "Mở khóa xe thành công."</t>
         </is>
       </c>
-      <c r="F153" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa xe thành công.</t>
-        </is>
-      </c>
-      <c r="G153" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F153" s="29" t="inlineStr"/>
+      <c r="G153" s="4" t="inlineStr"/>
       <c r="H153" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20809,16 +20265,8 @@
           <t>Hiển thị message: "Cập nhật xe thành công."</t>
         </is>
       </c>
-      <c r="F154" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật xe thành công.</t>
-        </is>
-      </c>
-      <c r="G154" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F154" s="29" t="inlineStr"/>
+      <c r="G154" s="4" t="inlineStr"/>
       <c r="H154" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20855,16 +20303,8 @@
           <t>Hiển thị message: "Xóa xe thành công"</t>
         </is>
       </c>
-      <c r="F155" s="29" t="inlineStr">
-        <is>
-          <t>Xóa xe thành công</t>
-        </is>
-      </c>
-      <c r="G155" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F155" s="29" t="inlineStr"/>
+      <c r="G155" s="4" t="inlineStr"/>
       <c r="H155" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20980,16 +20420,8 @@
           <t>Chuyển đến trang: "2.2 Lái xe"</t>
         </is>
       </c>
-      <c r="F159" s="15" t="inlineStr">
-        <is>
-          <t>2.2 Lái xe</t>
-        </is>
-      </c>
-      <c r="G159" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F159" s="15" t="inlineStr"/>
+      <c r="G159" s="4" t="inlineStr"/>
       <c r="H159" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21109,10 +20541,14 @@
           <t>trường "Biển số" Hiển thị đúng dữ liệu "Biển số" đã nhập</t>
         </is>
       </c>
-      <c r="F162" s="29" t="inlineStr"/>
+      <c r="F162" s="29" t="inlineStr">
+        <is>
+          <t>XE24656</t>
+        </is>
+      </c>
       <c r="G162" s="4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="H162" s="6" t="inlineStr">
@@ -21234,10 +20670,14 @@
           <t>trường "Số điện thoại" Hiển thị đúng dữ liệu "Số điện thoại" đã nhập</t>
         </is>
       </c>
-      <c r="F165" s="29" t="inlineStr"/>
+      <c r="F165" s="29" t="inlineStr">
+        <is>
+          <t>0967303024</t>
+        </is>
+      </c>
       <c r="G165" s="4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="H165" s="6" t="inlineStr">
@@ -21249,11 +20689,7 @@
       <c r="J165" s="2" t="n"/>
       <c r="K165" s="2" t="n"/>
       <c r="L165" s="2" t="n"/>
-      <c r="M165" s="42" t="inlineStr">
-        <is>
-          <t>Vehicle37_XeLaiXe_TimKiem_SoDienThoai.png</t>
-        </is>
-      </c>
+      <c r="M165" s="42" t="inlineStr"/>
       <c r="N165" s="42" t="n"/>
     </row>
     <row r="166" ht="42.2" customHeight="1">
@@ -21433,10 +20869,14 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F170" s="15" t="inlineStr"/>
+      <c r="F170" s="15" t="inlineStr">
+        <is>
+          <t>_laixe.xls</t>
+        </is>
+      </c>
       <c r="G170" s="4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="H170" s="6" t="inlineStr">
@@ -21447,11 +20887,7 @@
       <c r="I170" s="2" t="n"/>
       <c r="J170" s="6" t="n"/>
       <c r="L170" s="4" t="n"/>
-      <c r="M170" s="20" t="inlineStr">
-        <is>
-          <t>Vehicle42_LaiXe_TaiExcel.png</t>
-        </is>
-      </c>
+      <c r="M170" s="20" t="inlineStr"/>
       <c r="N170" s="20" t="n"/>
     </row>
     <row r="171" ht="75" customHeight="1">
@@ -21573,16 +21009,8 @@
 (lái xe tạo ở ô ghi chú)</t>
         </is>
       </c>
-      <c r="F173" s="15" t="inlineStr">
-        <is>
-          <t>Thêm mới thành công</t>
-        </is>
-      </c>
-      <c r="G173" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F173" s="15" t="inlineStr"/>
+      <c r="G173" s="4" t="inlineStr"/>
       <c r="H173" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21725,16 +21153,8 @@
           <t>Hiển thị message: "Khóa lái xe thành công."</t>
         </is>
       </c>
-      <c r="F176" s="29" t="inlineStr">
-        <is>
-          <t>Khóa lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G176" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F176" s="29" t="inlineStr"/>
+      <c r="G176" s="4" t="inlineStr"/>
       <c r="H176" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21770,18 +21190,8 @@
           <t>Hiển thị lý do gồm các trường: STT, Lý do khóa, Ngày Khóa</t>
         </is>
       </c>
-      <c r="F177" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Lý do khóa: Trường test khóa xe
-Ngày khóa: 10/12/2025 18:34:27</t>
-        </is>
-      </c>
-      <c r="G177" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F177" s="29" t="inlineStr"/>
+      <c r="G177" s="4" t="inlineStr"/>
       <c r="H177" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21818,16 +21228,8 @@
           <t>Hiển thị message: "Mở khóa lái xe thành công."</t>
         </is>
       </c>
-      <c r="F178" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G178" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F178" s="29" t="inlineStr"/>
+      <c r="G178" s="4" t="inlineStr"/>
       <c r="H178" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21863,16 +21265,8 @@
           <t>Hiển thị message: "Khen thưởng thành công."</t>
         </is>
       </c>
-      <c r="F179" s="29" t="inlineStr">
-        <is>
-          <t>Khen thưởng thành công.</t>
-        </is>
-      </c>
-      <c r="G179" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F179" s="29" t="inlineStr"/>
+      <c r="G179" s="4" t="inlineStr"/>
       <c r="H179" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21908,16 +21302,8 @@
           <t>Hiển thị message: "Gán xe thành công."</t>
         </is>
       </c>
-      <c r="F180" s="29" t="inlineStr">
-        <is>
-          <t>Gán xe thành công</t>
-        </is>
-      </c>
-      <c r="G180" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F180" s="29" t="inlineStr"/>
+      <c r="G180" s="4" t="inlineStr"/>
       <c r="H180" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21954,16 +21340,8 @@
           <t>Hiển thị message: " Mã kích hoạt đã được cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F181" s="29" t="inlineStr">
-        <is>
-          <t>Mã kích hoạt đã được cập nhật thành công.</t>
-        </is>
-      </c>
-      <c r="G181" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F181" s="29" t="inlineStr"/>
+      <c r="G181" s="4" t="inlineStr"/>
       <c r="H181" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21999,16 +21377,8 @@
           <t>Hiển thị message: "Đổi mật khẩu thành công."</t>
         </is>
       </c>
-      <c r="F182" s="29" t="inlineStr">
-        <is>
-          <t>Đổi mật khẩu thành công.</t>
-        </is>
-      </c>
-      <c r="G182" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F182" s="29" t="inlineStr"/>
+      <c r="G182" s="4" t="inlineStr"/>
       <c r="H182" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22180,16 +21550,8 @@
           <t>Hiển thị message: "Xóa lái xe thành công"</t>
         </is>
       </c>
-      <c r="F187" s="29" t="inlineStr">
-        <is>
-          <t>Xóa lái xe thành công</t>
-        </is>
-      </c>
-      <c r="G187" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F187" s="29" t="inlineStr"/>
+      <c r="G187" s="4" t="inlineStr"/>
       <c r="H187" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22363,16 +21725,8 @@
           <t>Chuyển đến trang: "3.1 Danh sách ví lái xe"</t>
         </is>
       </c>
-      <c r="F193" s="15" t="inlineStr">
-        <is>
-          <t>3.1 Danh sách ví lái xe</t>
-        </is>
-      </c>
-      <c r="G193" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F193" s="15" t="inlineStr"/>
+      <c r="G193" s="4" t="inlineStr"/>
       <c r="H193" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22411,18 +21765,8 @@
           <t>Thanh tổng quan gồm các trường: TỔNG SỐ VÍ, SỐ DƯ VÍ TÀI KHOẢN, SỐ DƯ VÍ TIỀN MẶT(không được trống dữ liệu)</t>
         </is>
       </c>
-      <c r="F194" s="29" t="inlineStr">
-        <is>
-          <t>Tổng số ví:: 1
-Số dư ví tài khoản: 12.845.270 ₫
-Số dư ví tiền mặt: 453.700 ₫</t>
-        </is>
-      </c>
-      <c r="G194" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F194" s="29" t="inlineStr"/>
+      <c r="G194" s="4" t="inlineStr"/>
       <c r="H194" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22460,16 +21804,8 @@
           <t>trường "Tên lái xe" Hiển thị đúng dữ liệu "Lái xe" đã nhập</t>
         </is>
       </c>
-      <c r="F195" s="29" t="inlineStr">
-        <is>
-          <t>Phan Văn Khuyên</t>
-        </is>
-      </c>
-      <c r="G195" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F195" s="29" t="inlineStr"/>
+      <c r="G195" s="4" t="inlineStr"/>
       <c r="H195" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22507,16 +21843,8 @@
           <t>trường "Ví lái xe" Hiển thị đúng dữ liệu "SDT" đã nhập</t>
         </is>
       </c>
-      <c r="F196" s="29" t="inlineStr">
-        <is>
-          <t>0335735161</t>
-        </is>
-      </c>
-      <c r="G196" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F196" s="29" t="inlineStr"/>
+      <c r="G196" s="4" t="inlineStr"/>
       <c r="H196" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22644,24 +21972,8 @@
 - Nội dung: Trường test nạp tiền</t>
         </is>
       </c>
-      <c r="F199" s="29" t="inlineStr">
-        <is>
-          <t>Message: Đã lưu lại giao dịch, Chờ xác nhận.
-Số tiền: 1.000.000 VNĐ
-Tên ví: batonnt1
-Dịch vụ: Nạp tiền vào Ví Tài Khoản
-Số tiền: 1.000.000₫
-Nguồn tiền: Quầy thu tại hãng
-Thời gian: 18:39 - 10/12/2025
-Mã giao dịch: 8403
-Nội dung: Trường test nạp tiền</t>
-        </is>
-      </c>
-      <c r="G199" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F199" s="29" t="inlineStr"/>
+      <c r="G199" s="4" t="inlineStr"/>
       <c r="H199" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22708,22 +22020,8 @@
 - Nội dung: Trường test rút tiền</t>
         </is>
       </c>
-      <c r="F200" s="29" t="inlineStr">
-        <is>
-          <t>Message: Đã lưu lại giao dịch, Chờ xác nhận.
-Số tiền: 100 VNĐ
-Dịch vụ: Rút tiền Ví Tiền Mặt
-Nguồn : Rút tại quầy
-Thời gian: 18:40 - 10/12/2025
-Mã giao dịch: 8404
-Nội dung: Trường test rút tiền</t>
-        </is>
-      </c>
-      <c r="G200" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F200" s="29" t="inlineStr"/>
+      <c r="G200" s="4" t="inlineStr"/>
       <c r="H200" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22761,17 +22059,8 @@
 2. Hiển thị Tên lái xe: batonnt1</t>
         </is>
       </c>
-      <c r="F201" s="29" t="inlineStr">
-        <is>
-          <t>Chuyển tới trang: 3.5 Lịch sử ví tiền
-Tên lái xe: batonnt1</t>
-        </is>
-      </c>
-      <c r="G201" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F201" s="29" t="inlineStr"/>
+      <c r="G201" s="4" t="inlineStr"/>
       <c r="H201" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22847,16 +22136,8 @@
           <t>Chuyển đến trang: "3.2 Đóng tiền vào ví lái xe"</t>
         </is>
       </c>
-      <c r="F204" s="15" t="inlineStr">
-        <is>
-          <t>3.2 Đóng tiền vào ví lái xe</t>
-        </is>
-      </c>
-      <c r="G204" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F204" s="15" t="inlineStr"/>
+      <c r="G204" s="4" t="inlineStr"/>
       <c r="H204" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22897,16 +22178,8 @@
           <t>Hiển thị thông báo: "Tạo giao dịch đóng tiền thành công."</t>
         </is>
       </c>
-      <c r="F205" s="29" t="inlineStr">
-        <is>
-          <t>Tạo giao dịch đóng tiền thành công.</t>
-        </is>
-      </c>
-      <c r="G205" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F205" s="29" t="inlineStr"/>
+      <c r="G205" s="4" t="inlineStr"/>
       <c r="H205" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22982,16 +22255,8 @@
           <t>Chuyển đến trang: "3.3 Rút tiền từ ví lái xe"</t>
         </is>
       </c>
-      <c r="F208" s="15" t="inlineStr">
-        <is>
-          <t>3.3 Rút tiền từ ví lái xe</t>
-        </is>
-      </c>
-      <c r="G208" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F208" s="15" t="inlineStr"/>
+      <c r="G208" s="4" t="inlineStr"/>
       <c r="H208" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23032,16 +22297,8 @@
           <t>Hiển thị thông báo: "Tạo giao dịch rút tiền thành công."</t>
         </is>
       </c>
-      <c r="F209" s="29" t="inlineStr">
-        <is>
-          <t>Tạo giao dịch rút tiền thành công.</t>
-        </is>
-      </c>
-      <c r="G209" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F209" s="29" t="inlineStr"/>
+      <c r="G209" s="4" t="inlineStr"/>
       <c r="H209" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23117,16 +22374,8 @@
           <t>Chuyển đến trang: "3.4 Xác nhận giao dịch"</t>
         </is>
       </c>
-      <c r="F212" s="15" t="inlineStr">
-        <is>
-          <t>3.4 Xác nhận giao dịch</t>
-        </is>
-      </c>
-      <c r="G212" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F212" s="15" t="inlineStr"/>
+      <c r="G212" s="4" t="inlineStr"/>
       <c r="H212" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23249,16 +22498,8 @@
           <t>Trường " Tài khoản lái xe" hiển thị đúng tên lái xe đã nhập</t>
         </is>
       </c>
-      <c r="F215" s="29" t="inlineStr">
-        <is>
-          <t>batonnt1</t>
-        </is>
-      </c>
-      <c r="G215" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F215" s="29" t="inlineStr"/>
+      <c r="G215" s="4" t="inlineStr"/>
       <c r="H215" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23297,16 +22538,8 @@
           <t>Hiện không có trường SDT nên sẽ hiển thị Tài khoản lái xe là: "batonnt1"</t>
         </is>
       </c>
-      <c r="F216" s="29" t="inlineStr">
-        <is>
-          <t>0837393453</t>
-        </is>
-      </c>
-      <c r="G216" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F216" s="29" t="inlineStr"/>
+      <c r="G216" s="4" t="inlineStr"/>
       <c r="H216" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23381,16 +22614,8 @@
           <t>Mở popup: "VÍ LÁI XE"</t>
         </is>
       </c>
-      <c r="F218" s="29" t="inlineStr">
-        <is>
-          <t>VÍ LÁI XE</t>
-        </is>
-      </c>
-      <c r="G218" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F218" s="29" t="inlineStr"/>
+      <c r="G218" s="4" t="inlineStr"/>
       <c r="H218" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23427,16 +22652,8 @@
 2. Hiển thị lịch sử mã giao dịch</t>
         </is>
       </c>
-      <c r="F219" s="29" t="inlineStr">
-        <is>
-          <t>Chuyển tới trang: 3.11 Lịch sử thanh toán</t>
-        </is>
-      </c>
-      <c r="G219" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F219" s="29" t="inlineStr"/>
+      <c r="G219" s="4" t="inlineStr"/>
       <c r="H219" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23472,16 +22689,8 @@
           <t>Hiển thị message: "Xác nhận thành công."</t>
         </is>
       </c>
-      <c r="F220" s="29" t="inlineStr">
-        <is>
-          <t>Xác nhận thành công.</t>
-        </is>
-      </c>
-      <c r="G220" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F220" s="29" t="inlineStr"/>
+      <c r="G220" s="4" t="inlineStr"/>
       <c r="H220" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23517,16 +22726,8 @@
           <t>Hiển thị message: "Hủy giao dịch thành công."</t>
         </is>
       </c>
-      <c r="F221" s="29" t="inlineStr">
-        <is>
-          <t>Hủy giao dịch thành công.</t>
-        </is>
-      </c>
-      <c r="G221" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F221" s="29" t="inlineStr"/>
+      <c r="G221" s="4" t="inlineStr"/>
       <c r="H221" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23601,16 +22802,8 @@
           <t>Chuyển đến trang: "3.5 Lịch sử ví tiền"</t>
         </is>
       </c>
-      <c r="F224" s="15" t="inlineStr">
-        <is>
-          <t>3.5 Lịch sử ví tiền</t>
-        </is>
-      </c>
-      <c r="G224" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F224" s="15" t="inlineStr"/>
+      <c r="G224" s="4" t="inlineStr"/>
       <c r="H224" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23693,16 +22886,8 @@
           <t>Trường "Tên lái xe" hiện thị đúng với "Tên lái xe" đã nhập</t>
         </is>
       </c>
-      <c r="F226" s="29" t="inlineStr">
-        <is>
-          <t>batonnt1</t>
-        </is>
-      </c>
-      <c r="G226" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F226" s="29" t="inlineStr"/>
+      <c r="G226" s="4" t="inlineStr"/>
       <c r="H226" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24187,17 +23372,8 @@
 2. Hiển thị "Mã cuốc khách"</t>
         </is>
       </c>
-      <c r="F238" s="29" t="inlineStr">
-        <is>
-          <t>Chuyển tới trang: 8.4 Báo cáo doanh thu
-Mã quốc khách: 0011E6AA</t>
-        </is>
-      </c>
-      <c r="G238" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F238" s="29" t="inlineStr"/>
+      <c r="G238" s="4" t="inlineStr"/>
       <c r="H238" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24207,11 +23383,7 @@
       <c r="J238" s="2" t="n"/>
       <c r="K238" s="6" t="n"/>
       <c r="L238" s="2" t="n"/>
-      <c r="M238" s="42" t="inlineStr">
-        <is>
-          <t>Wallet38_LichSuViTien_ChiTiet.png</t>
-        </is>
-      </c>
+      <c r="M238" s="42" t="inlineStr"/>
       <c r="N238" s="42" t="n"/>
     </row>
     <row r="239" ht="75" customHeight="1">
@@ -24369,16 +23541,8 @@
           <t>Chuyển đến trang: "6.1 Danh sách khuyến mại"</t>
         </is>
       </c>
-      <c r="F244" s="15" t="inlineStr">
-        <is>
-          <t>6.1 Danh sách khuyến mại</t>
-        </is>
-      </c>
-      <c r="G244" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F244" s="15" t="inlineStr"/>
+      <c r="G244" s="4" t="inlineStr"/>
       <c r="H244" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24461,16 +23625,8 @@
           <t>Trường "Tên khuyến mại" hiện thị "Tên khuyến mại "giống với dữ liệu đã nhập"</t>
         </is>
       </c>
-      <c r="F246" s="29" t="inlineStr">
-        <is>
-          <t>KM chung 888A</t>
-        </is>
-      </c>
-      <c r="G246" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F246" s="29" t="inlineStr"/>
+      <c r="G246" s="4" t="inlineStr"/>
       <c r="H246" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25079,16 +24235,8 @@
           <t>Chuyển đến trang: "6.2 Danh sách tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F261" s="15" t="inlineStr">
-        <is>
-          <t>6.2 Danh sách tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G261" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F261" s="15" t="inlineStr"/>
+      <c r="G261" s="4" t="inlineStr"/>
       <c r="H261" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25181,16 +24329,8 @@
           <t>Trường "Tài khoản" hiện thị: "0913233801"</t>
         </is>
       </c>
-      <c r="F263" s="29" t="inlineStr">
-        <is>
-          <t>03596672589</t>
-        </is>
-      </c>
-      <c r="G263" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F263" s="29" t="inlineStr"/>
+      <c r="G263" s="4" t="inlineStr"/>
       <c r="H263" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25421,16 +24561,8 @@
 (Tài khoản thêm mới ở ghi chú)</t>
         </is>
       </c>
-      <c r="F268" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G268" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F268" s="29" t="inlineStr"/>
+      <c r="G268" s="4" t="inlineStr"/>
       <c r="H268" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25481,16 +24613,8 @@
 (Tài khoản thêm mới ở ghi chú)</t>
         </is>
       </c>
-      <c r="F269" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G269" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F269" s="29" t="inlineStr"/>
+      <c r="G269" s="4" t="inlineStr"/>
       <c r="H269" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25537,16 +24661,8 @@
 </t>
         </is>
       </c>
-      <c r="F270" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G270" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F270" s="29" t="inlineStr"/>
+      <c r="G270" s="4" t="inlineStr"/>
       <c r="H270" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25587,16 +24703,8 @@
           <t>Hiển thị messsage: "Xóa tài khoản giới thiệu thành công."</t>
         </is>
       </c>
-      <c r="F271" s="29" t="inlineStr">
-        <is>
-          <t>Xóa tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G271" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F271" s="29" t="inlineStr"/>
+      <c r="G271" s="4" t="inlineStr"/>
       <c r="H271" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25692,16 +24800,8 @@
           <t>Chuyển đến trang: "6.3.1 Cài app mới"</t>
         </is>
       </c>
-      <c r="F275" s="29" t="inlineStr">
-        <is>
-          <t>6.3.1 Cài app mới</t>
-        </is>
-      </c>
-      <c r="G275" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F275" s="29" t="inlineStr"/>
+      <c r="G275" s="4" t="inlineStr"/>
       <c r="H275" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25743,16 +24843,8 @@
           <t>Trường "Tên khuyến mại" hiện thị: Đúng "Tên" đã nhập</t>
         </is>
       </c>
-      <c r="F276" s="29" t="inlineStr">
-        <is>
-          <t>Auto_CaiAppMoi2515</t>
-        </is>
-      </c>
-      <c r="G276" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F276" s="29" t="inlineStr"/>
+      <c r="G276" s="4" t="inlineStr"/>
       <c r="H276" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26029,16 +25121,8 @@
           <t>Chuyển đến trang: "6.4.1 BC tổng hợp KM theo công ty"</t>
         </is>
       </c>
-      <c r="F284" s="29" t="inlineStr">
-        <is>
-          <t>6.4.1 BC tổng hợp KM theo công ty</t>
-        </is>
-      </c>
-      <c r="G284" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F284" s="29" t="inlineStr"/>
+      <c r="G284" s="4" t="inlineStr"/>
       <c r="H284" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26077,16 +25161,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Công ty, Mã KM, Tên KM, Phải thu, Phải trả, Chi tiết.</t>
         </is>
       </c>
-      <c r="F285" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi Hà Nội</t>
-        </is>
-      </c>
-      <c r="G285" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F285" s="29" t="inlineStr"/>
+      <c r="G285" s="4" t="inlineStr"/>
       <c r="H285" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26125,11 +25201,7 @@
         </is>
       </c>
       <c r="F286" s="29" t="inlineStr"/>
-      <c r="G286" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G286" s="4" t="inlineStr"/>
       <c r="H286" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26516,16 +25588,8 @@
           <t>Chuyển đến trang: "6.4.4 BC KM theo tháng"</t>
         </is>
       </c>
-      <c r="F299" s="29" t="inlineStr">
-        <is>
-          <t>6.4.4 BC KM theo tháng</t>
-        </is>
-      </c>
-      <c r="G299" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F299" s="29" t="inlineStr"/>
+      <c r="G299" s="4" t="inlineStr"/>
       <c r="H299" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26564,16 +25628,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Tên khuyến mại, Tổng tiền đã khuyến mại, Tổng số khuyến mại đã sử dụng, Tháng/Năm.</t>
         </is>
       </c>
-      <c r="F300" s="29" t="inlineStr">
-        <is>
-          <t>Km 30k</t>
-        </is>
-      </c>
-      <c r="G300" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F300" s="29" t="inlineStr"/>
+      <c r="G300" s="4" t="inlineStr"/>
       <c r="H300" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26612,11 +25668,7 @@
         </is>
       </c>
       <c r="F301" s="29" t="inlineStr"/>
-      <c r="G301" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G301" s="4" t="inlineStr"/>
       <c r="H301" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27480,16 +26532,8 @@
           <t>Chuyển đến trang: "6.11 Danh sách loại tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F329" s="15" t="inlineStr">
-        <is>
-          <t>6.11 Danh sách loại tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G329" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F329" s="15" t="inlineStr"/>
+      <c r="G329" s="4" t="inlineStr"/>
       <c r="H329" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27690,16 +26734,8 @@
           <t>Chuyển đến trang: "6.12 Danh sách nhóm tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F335" s="15" t="inlineStr">
-        <is>
-          <t>6.12 Danh sách nhóm tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G335" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F335" s="15" t="inlineStr"/>
+      <c r="G335" s="4" t="inlineStr"/>
       <c r="H335" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27922,16 +26958,8 @@
           <t>Chuyển đến trang: "7.1 Danh sách khách hàng"</t>
         </is>
       </c>
-      <c r="F342" s="15" t="inlineStr">
-        <is>
-          <t>7.1 Danh sách khách hàng</t>
-        </is>
-      </c>
-      <c r="G342" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F342" s="15" t="inlineStr"/>
+      <c r="G342" s="4" t="inlineStr"/>
       <c r="H342" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28020,16 +27048,8 @@
  "Trần Hà Miên"</t>
         </is>
       </c>
-      <c r="F344" s="29" t="inlineStr">
-        <is>
-          <t>Auto_customer_2518</t>
-        </is>
-      </c>
-      <c r="G344" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F344" s="29" t="inlineStr"/>
+      <c r="G344" s="4" t="inlineStr"/>
       <c r="H344" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -28704,16 +27724,8 @@
           <t>Chuyển đến trang: "7.7.1 Đối tác"</t>
         </is>
       </c>
-      <c r="F363" s="29" t="inlineStr">
-        <is>
-          <t>7.7.1 Đối tác</t>
-        </is>
-      </c>
-      <c r="G363" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F363" s="29" t="inlineStr"/>
+      <c r="G363" s="4" t="inlineStr"/>
       <c r="H363" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28756,16 +27768,8 @@
           <t>Trường "Tên đối tác" hiện thị: Phòng Marketing - Sale</t>
         </is>
       </c>
-      <c r="F364" s="29" t="inlineStr">
-        <is>
-          <t>TUSINHTUAPP</t>
-        </is>
-      </c>
-      <c r="G364" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F364" s="29" t="inlineStr"/>
+      <c r="G364" s="4" t="inlineStr"/>
       <c r="H364" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29047,16 +28051,8 @@
           <t>Chuyển đến trang: "7.7.2 Hợp đồng"</t>
         </is>
       </c>
-      <c r="F372" s="29" t="inlineStr">
-        <is>
-          <t>7.7.2 Hợp đồng</t>
-        </is>
-      </c>
-      <c r="G372" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F372" s="29" t="inlineStr"/>
+      <c r="G372" s="4" t="inlineStr"/>
       <c r="H372" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29099,16 +28095,8 @@
           <t>Trường "Mã hợp đồng" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F373" s="29" t="inlineStr">
-        <is>
-          <t>THAODTP3333</t>
-        </is>
-      </c>
-      <c r="G373" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F373" s="29" t="inlineStr"/>
+      <c r="G373" s="4" t="inlineStr"/>
       <c r="H373" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29284,16 +28272,8 @@
 </t>
         </is>
       </c>
-      <c r="F377" s="29" t="inlineStr">
-        <is>
-          <t>Thêm mới hợp đồng thành công</t>
-        </is>
-      </c>
-      <c r="G377" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F377" s="29" t="inlineStr"/>
+      <c r="G377" s="4" t="inlineStr"/>
       <c r="H377" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29412,16 +28392,8 @@
 </t>
         </is>
       </c>
-      <c r="F380" s="29" t="inlineStr">
-        <is>
-          <t>Xóa hợp đồng thành công</t>
-        </is>
-      </c>
-      <c r="G380" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F380" s="29" t="inlineStr"/>
+      <c r="G380" s="4" t="inlineStr"/>
       <c r="H380" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29496,16 +28468,8 @@
           <t>Chuyển đến trang: "7.7.3 Quản lý thẻ"</t>
         </is>
       </c>
-      <c r="F383" s="29" t="inlineStr">
-        <is>
-          <t>7.7.3 Quản lý thẻ</t>
-        </is>
-      </c>
-      <c r="G383" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F383" s="29" t="inlineStr"/>
+      <c r="G383" s="4" t="inlineStr"/>
       <c r="H383" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29588,16 +28552,8 @@
           <t>Trường "Số ĐT" hiện thị: 0972284850</t>
         </is>
       </c>
-      <c r="F385" s="29" t="inlineStr">
-        <is>
-          <t>0984075597</t>
-        </is>
-      </c>
-      <c r="G385" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F385" s="29" t="inlineStr"/>
+      <c r="G385" s="4" t="inlineStr"/>
       <c r="H385" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29676,16 +28632,8 @@
           <t>Trường " Tên khách hàng" hiện thị: Thái Dương Hoa</t>
         </is>
       </c>
-      <c r="F387" s="29" t="inlineStr">
-        <is>
-          <t>SEC_12345678910</t>
-        </is>
-      </c>
-      <c r="G387" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F387" s="29" t="inlineStr"/>
+      <c r="G387" s="4" t="inlineStr"/>
       <c r="H387" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30205,16 +29153,8 @@
 </t>
         </is>
       </c>
-      <c r="F400" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thông tin thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G400" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F400" s="29" t="inlineStr"/>
+      <c r="G400" s="4" t="inlineStr"/>
       <c r="H400" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30257,16 +29197,8 @@
 </t>
         </is>
       </c>
-      <c r="F401" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thông tin thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G401" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F401" s="29" t="inlineStr"/>
+      <c r="G401" s="4" t="inlineStr"/>
       <c r="H401" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30302,16 +29234,8 @@
           <t>Mở popup: "MÃ QRCODE"</t>
         </is>
       </c>
-      <c r="F402" s="29" t="inlineStr">
-        <is>
-          <t>MÃ QRCODE</t>
-        </is>
-      </c>
-      <c r="G402" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F402" s="29" t="inlineStr"/>
+      <c r="G402" s="4" t="inlineStr"/>
       <c r="H402" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30350,16 +29274,8 @@
 </t>
         </is>
       </c>
-      <c r="F403" s="29" t="inlineStr">
-        <is>
-          <t>Khóa thẻ thành công!</t>
-        </is>
-      </c>
-      <c r="G403" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F403" s="29" t="inlineStr"/>
+      <c r="G403" s="4" t="inlineStr"/>
       <c r="H403" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30397,16 +29313,8 @@
 </t>
         </is>
       </c>
-      <c r="F404" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa thẻ thành công!</t>
-        </is>
-      </c>
-      <c r="G404" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F404" s="29" t="inlineStr"/>
+      <c r="G404" s="4" t="inlineStr"/>
       <c r="H404" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30526,16 +29434,8 @@
 </t>
         </is>
       </c>
-      <c r="F407" s="29" t="inlineStr">
-        <is>
-          <t>Kích hoạt thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G407" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F407" s="29" t="inlineStr"/>
+      <c r="G407" s="4" t="inlineStr"/>
       <c r="H407" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30573,16 +29473,8 @@
 </t>
         </is>
       </c>
-      <c r="F408" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G408" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F408" s="29" t="inlineStr"/>
+      <c r="G408" s="4" t="inlineStr"/>
       <c r="H408" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30632,7 +29524,11 @@
         </is>
       </c>
       <c r="F409" s="29" t="inlineStr"/>
-      <c r="G409" s="4" t="inlineStr"/>
+      <c r="G409" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="H409" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30642,10 +29538,14 @@
       <c r="J409" s="2" t="n"/>
       <c r="K409" s="2" t="n"/>
       <c r="L409" s="2" t="n"/>
-      <c r="M409" s="42" t="inlineStr"/>
+      <c r="M409" s="42" t="inlineStr">
+        <is>
+          <t>Customer57_1_QuanLyThe_PhatHanhTheTrang.png</t>
+        </is>
+      </c>
       <c r="N409" s="42" t="inlineStr">
         <is>
-          <t>Auto_1929</t>
+          <t>Auto_2619</t>
         </is>
       </c>
     </row>
@@ -30673,16 +29573,8 @@
 </t>
         </is>
       </c>
-      <c r="F410" s="29" t="inlineStr">
-        <is>
-          <t>Cấp thẻ dùng 1 lần</t>
-        </is>
-      </c>
-      <c r="G410" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F410" s="29" t="inlineStr"/>
+      <c r="G410" s="4" t="inlineStr"/>
       <c r="H410" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -31679,16 +30571,8 @@
           <t>Chuyển đến trang: "7.7.12 Báo cáo cuốc đi thẻ theo lái xe"</t>
         </is>
       </c>
-      <c r="F439" s="29" t="inlineStr">
-        <is>
-          <t>7.7.12 Báo cáo cuốc đi thẻ theo lái xe</t>
-        </is>
-      </c>
-      <c r="G439" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F439" s="29" t="inlineStr"/>
+      <c r="G439" s="4" t="inlineStr"/>
       <c r="H439" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -31734,16 +30618,8 @@
 (Hiển thị Mã lái xe)</t>
         </is>
       </c>
-      <c r="F440" s="29" t="inlineStr">
-        <is>
-          <t>9999209984075597</t>
-        </is>
-      </c>
-      <c r="G440" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F440" s="29" t="inlineStr"/>
+      <c r="G440" s="4" t="inlineStr"/>
       <c r="H440" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -31781,18 +30657,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F441" s="29" t="inlineStr">
-        <is>
-          <t>Tên cột web: Serial
-Tên cột excel: Số Serial 
-Dòng: G5</t>
-        </is>
-      </c>
-      <c r="G441" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F441" s="29" t="inlineStr"/>
+      <c r="G441" s="4" t="inlineStr"/>
       <c r="H441" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32062,16 +30928,8 @@
           <t>Chuyển đến trang: "7.7.14 Báo cáo giao dịch thẻ"</t>
         </is>
       </c>
-      <c r="F450" s="29" t="inlineStr">
-        <is>
-          <t>7.7.14 Báo cáo giao dịch thẻ</t>
-        </is>
-      </c>
-      <c r="G450" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F450" s="29" t="inlineStr"/>
+      <c r="G450" s="4" t="inlineStr"/>
       <c r="H450" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32890,16 +31748,8 @@
           <t>Chuyển đến trang: "8.1.0 Báo cáo cuốc khách tổng"</t>
         </is>
       </c>
-      <c r="F469" s="29" t="inlineStr">
-        <is>
-          <t>8.1.0 Báo cáo cuốc khách tổng</t>
-        </is>
-      </c>
-      <c r="G469" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F469" s="29" t="inlineStr"/>
+      <c r="G469" s="4" t="inlineStr"/>
       <c r="H469" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33138,16 +31988,8 @@
           <t>Chuyển đến trang: "8.1.1 Tổng cuốc khách"</t>
         </is>
       </c>
-      <c r="F476" s="29" t="inlineStr">
-        <is>
-          <t>8.1.1 Tổng cuốc khách</t>
-        </is>
-      </c>
-      <c r="G476" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F476" s="29" t="inlineStr"/>
+      <c r="G476" s="4" t="inlineStr"/>
       <c r="H476" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33188,16 +32030,8 @@
 (Hiển thị Ngày)</t>
         </is>
       </c>
-      <c r="F477" s="29" t="inlineStr">
-        <is>
-          <t>28/10/2025</t>
-        </is>
-      </c>
-      <c r="G477" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F477" s="29" t="inlineStr"/>
+      <c r="G477" s="4" t="inlineStr"/>
       <c r="H477" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33234,16 +32068,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F478" s="29" t="inlineStr">
-        <is>
-          <t>_TongCuocKhach.xls</t>
-        </is>
-      </c>
-      <c r="G478" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F478" s="29" t="inlineStr"/>
+      <c r="G478" s="4" t="inlineStr"/>
       <c r="H478" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33280,27 +32106,8 @@
           <t>Số lượng cuốc mỗi nguồn = Số lương cuốc màn chi tiết</t>
         </is>
       </c>
-      <c r="F479" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None, 66/66
-, None, 27/27
-, None, 19/19
-, None, 18/18
-, None, 0/0
-, None, 0/0
-, None, 6/6
-, None, 3/3
-, None, 16/16
-, None, 39/39
-, None, 2/2
-</t>
-        </is>
-      </c>
-      <c r="G479" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F479" s="29" t="inlineStr"/>
+      <c r="G479" s="4" t="inlineStr"/>
       <c r="H479" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33337,27 +32144,8 @@
           <t>Số lượng cuốc mỗi nguồn = Số lương cuốc màn chi tiết</t>
         </is>
       </c>
-      <c r="F480" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None, 111/111
-, None, 61/61
-, None, 0/0
-, None, 28/28
-, None, 0/0
-, None, 0/0
-, None, 9/9
-, None, 8/8
-, None, 23/23
-, None, 49/49
-, None, 22/22
-</t>
-        </is>
-      </c>
-      <c r="G480" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F480" s="29" t="inlineStr"/>
+      <c r="G480" s="4" t="inlineStr"/>
       <c r="H480" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34061,16 +32849,8 @@
           <t>Chuyển đến trang: "THỐNG KÊ CHI TIẾT CUỐC KHÁCH"</t>
         </is>
       </c>
-      <c r="F503" s="29" t="inlineStr">
-        <is>
-          <t>THỐNG KÊ CHI TIẾT CUỐC KHÁCH</t>
-        </is>
-      </c>
-      <c r="G503" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F503" s="29" t="inlineStr"/>
+      <c r="G503" s="4" t="inlineStr"/>
       <c r="H503" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34116,16 +32896,8 @@
 (Hiển thị Nguồn)</t>
         </is>
       </c>
-      <c r="F504" s="29" t="inlineStr">
-        <is>
-          <t>Nguồn meter</t>
-        </is>
-      </c>
-      <c r="G504" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F504" s="29" t="inlineStr"/>
+      <c r="G504" s="4" t="inlineStr"/>
       <c r="H504" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34164,11 +32936,7 @@
         </is>
       </c>
       <c r="F505" s="29" t="inlineStr"/>
-      <c r="G505" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G505" s="4" t="inlineStr"/>
       <c r="H505" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34244,16 +33012,8 @@
           <t>Chuyển đến trang: "8.1.11 Thống kê cuốc khách theo lái xe "</t>
         </is>
       </c>
-      <c r="F508" s="29" t="inlineStr">
-        <is>
-          <t>8.1.11 Thống kê cuốc khách theo lái xe</t>
-        </is>
-      </c>
-      <c r="G508" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F508" s="29" t="inlineStr"/>
+      <c r="G508" s="4" t="inlineStr"/>
       <c r="H508" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34296,16 +33056,8 @@
 (Hiển thị Lái xe)</t>
         </is>
       </c>
-      <c r="F509" s="29" t="inlineStr">
-        <is>
-          <t>0399057371</t>
-        </is>
-      </c>
-      <c r="G509" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F509" s="29" t="inlineStr"/>
+      <c r="G509" s="4" t="inlineStr"/>
       <c r="H509" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34344,11 +33096,7 @@
         </is>
       </c>
       <c r="F510" s="29" t="inlineStr"/>
-      <c r="G510" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G510" s="4" t="inlineStr"/>
       <c r="H510" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35595,16 +34343,8 @@
           <t>Chuyển đến trang: "8.4.1 Báo cáo doanh thu theo lái xe"</t>
         </is>
       </c>
-      <c r="F550" s="29" t="inlineStr">
-        <is>
-          <t>8.4.1 Báo cáo doanh thu theo lái xe</t>
-        </is>
-      </c>
-      <c r="G550" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F550" s="29" t="inlineStr"/>
+      <c r="G550" s="4" t="inlineStr"/>
       <c r="H550" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35644,16 +34384,8 @@
 (Hiển thị Tên lái xe)</t>
         </is>
       </c>
-      <c r="F551" s="29" t="inlineStr">
-        <is>
-          <t>Vương Văn Thuận</t>
-        </is>
-      </c>
-      <c r="G551" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F551" s="29" t="inlineStr"/>
+      <c r="G551" s="4" t="inlineStr"/>
       <c r="H551" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35690,16 +34422,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F552" s="29" t="inlineStr">
-        <is>
-          <t>_BaoCaoDoanhThuTheoLaiXe.xlsx</t>
-        </is>
-      </c>
-      <c r="G552" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F552" s="29" t="inlineStr"/>
+      <c r="G552" s="4" t="inlineStr"/>
       <c r="H552" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35775,16 +34499,8 @@
           <t>Chuyển đến trang: "8.4.2 Chi tiết doanh thu từ app lái xe &amp; định vị"</t>
         </is>
       </c>
-      <c r="F555" s="4" t="inlineStr">
-        <is>
-          <t>8.4.2 Chi tiết doanh thu từ app lái xe &amp; định vị</t>
-        </is>
-      </c>
-      <c r="G555" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F555" s="4" t="inlineStr"/>
+      <c r="G555" s="4" t="inlineStr"/>
       <c r="H555" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35829,16 +34545,8 @@
 (Hiển thị Nguồn cuốc)</t>
         </is>
       </c>
-      <c r="F556" s="29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G556" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F556" s="29" t="inlineStr"/>
+      <c r="G556" s="4" t="inlineStr"/>
       <c r="H556" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35875,16 +34583,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F557" s="26" t="inlineStr">
-        <is>
-          <t>_ChiTietDoanhThuTuApp.xlsx</t>
-        </is>
-      </c>
-      <c r="G557" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F557" s="26" t="inlineStr"/>
+      <c r="G557" s="4" t="inlineStr"/>
       <c r="H557" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35998,16 +34698,8 @@
           <t>Chuyển đến trang: "8.4.3 Thanh toán cuốc khách cho lái xe"</t>
         </is>
       </c>
-      <c r="F561" s="29" t="inlineStr">
-        <is>
-          <t>8.4.3 Thanh toán cuốc khách cho lái xe</t>
-        </is>
-      </c>
-      <c r="G561" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F561" s="29" t="inlineStr"/>
+      <c r="G561" s="4" t="inlineStr"/>
       <c r="H561" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36048,16 +34740,8 @@
 (Hiển thị Tên lái xe)</t>
         </is>
       </c>
-      <c r="F562" s="29" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn Tuấn</t>
-        </is>
-      </c>
-      <c r="G562" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F562" s="29" t="inlineStr"/>
+      <c r="G562" s="4" t="inlineStr"/>
       <c r="H562" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36096,11 +34780,7 @@
         </is>
       </c>
       <c r="F563" s="29" t="inlineStr"/>
-      <c r="G563" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G563" s="4" t="inlineStr"/>
       <c r="H563" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36657,16 +35337,8 @@
           <t>Chuyển đến trang: "8.4.7 Chi tiết doanh thu từ app lái xe"</t>
         </is>
       </c>
-      <c r="F581" s="29" t="inlineStr">
-        <is>
-          <t>8.4.7 Chi tiết doanh thu từ app lái xe</t>
-        </is>
-      </c>
-      <c r="G581" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F581" s="29" t="inlineStr"/>
+      <c r="G581" s="4" t="inlineStr"/>
       <c r="H581" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36710,10 +35382,14 @@
 (Hiển thị Biển số)</t>
         </is>
       </c>
-      <c r="F582" s="29" t="inlineStr"/>
+      <c r="F582" s="29" t="inlineStr">
+        <is>
+          <t>hoalt209</t>
+        </is>
+      </c>
       <c r="G582" s="4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="H582" s="6" t="inlineStr">
@@ -36725,11 +35401,7 @@
       <c r="J582" s="2" t="n"/>
       <c r="K582" s="2" t="n"/>
       <c r="L582" s="2" t="n"/>
-      <c r="M582" s="42" t="inlineStr">
-        <is>
-          <t>Report67_ChiTietDoanhThuTuAppLaiXe_TimKiem.png</t>
-        </is>
-      </c>
+      <c r="M582" s="42" t="inlineStr"/>
       <c r="N582" s="42" t="n"/>
     </row>
     <row r="583" ht="75" customHeight="1">
@@ -36757,8 +35429,19 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F583" s="29" t="inlineStr"/>
-      <c r="G583" s="4" t="inlineStr"/>
+      <c r="F583" s="29" t="inlineStr">
+        <is>
+          <t>Tên cột web: Cước di chuyển 
+(1)
+Tên cột excel: Số Km 
+Dòng: N5</t>
+        </is>
+      </c>
+      <c r="G583" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H583" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -37581,16 +36264,8 @@
           <t>Chuyển đến trang: "10.1.1 Danh sách bộ phương pháp điều xe"</t>
         </is>
       </c>
-      <c r="F610" s="29" t="inlineStr">
-        <is>
-          <t>10.1.1 Danh sách bộ phương pháp điều xe</t>
-        </is>
-      </c>
-      <c r="G610" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F610" s="29" t="inlineStr"/>
+      <c r="G610" s="4" t="inlineStr"/>
       <c r="H610" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -37830,16 +36505,8 @@
           <t>Chuyển đến trang: "10.3.1 Thông tin công ty "</t>
         </is>
       </c>
-      <c r="F619" s="29" t="inlineStr">
-        <is>
-          <t>10.3.1 Thông tin công ty</t>
-        </is>
-      </c>
-      <c r="G619" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F619" s="29" t="inlineStr"/>
+      <c r="G619" s="4" t="inlineStr"/>
       <c r="H619" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -37897,16 +36564,8 @@
           <t>Hiển thị message: "Cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F620" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thành công.</t>
-        </is>
-      </c>
-      <c r="G620" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F620" s="29" t="inlineStr"/>
+      <c r="G620" s="4" t="inlineStr"/>
       <c r="H620" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -37953,16 +36612,8 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ lái xe thành công."</t>
         </is>
       </c>
-      <c r="F621" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật phiên bản đồng bộ lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G621" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F621" s="29" t="inlineStr"/>
+      <c r="G621" s="4" t="inlineStr"/>
       <c r="H621" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38008,16 +36659,8 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ khách hàng thành công."</t>
         </is>
       </c>
-      <c r="F622" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật phiên bản đồng bộ khách hàng thành công.</t>
-        </is>
-      </c>
-      <c r="G622" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F622" s="29" t="inlineStr"/>
+      <c r="G622" s="4" t="inlineStr"/>
       <c r="H622" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38130,16 +36773,8 @@
           <t>Chuyển đến trang: "10.3.5 Quản trị tên xe"</t>
         </is>
       </c>
-      <c r="F626" s="29" t="inlineStr">
-        <is>
-          <t>10.3.5 Quản trị tên xe</t>
-        </is>
-      </c>
-      <c r="G626" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F626" s="29" t="inlineStr"/>
+      <c r="G626" s="4" t="inlineStr"/>
       <c r="H626" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38372,16 +37007,8 @@
           <t>Chuyển đến trang: "10.3.6 Quản trị loại xe"</t>
         </is>
       </c>
-      <c r="F633" s="29" t="inlineStr">
-        <is>
-          <t>10.3.6 Quản trị loại xe</t>
-        </is>
-      </c>
-      <c r="G633" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F633" s="29" t="inlineStr"/>
+      <c r="G633" s="4" t="inlineStr"/>
       <c r="H633" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38751,16 +37378,8 @@
           <t>Chuyển đến trang: "10.5.5 Danh sách tài khoản"</t>
         </is>
       </c>
-      <c r="F643" s="29" t="inlineStr">
-        <is>
-          <t>10.5.5 Danh sách tài khoản</t>
-        </is>
-      </c>
-      <c r="G643" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F643" s="29" t="inlineStr"/>
+      <c r="G643" s="4" t="inlineStr"/>
       <c r="H643" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38800,16 +37419,8 @@
           <t>Trường "Tên tài khoản" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F644" s="29" t="inlineStr">
-        <is>
-          <t>auto2363</t>
-        </is>
-      </c>
-      <c r="G644" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F644" s="29" t="inlineStr"/>
+      <c r="G644" s="4" t="inlineStr"/>
       <c r="H644" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38896,16 +37507,8 @@
 (Tài khoản ở mục Ghi chú)</t>
         </is>
       </c>
-      <c r="F646" s="29" t="inlineStr">
-        <is>
-          <t>Tài khoản đã tạo thành công</t>
-        </is>
-      </c>
-      <c r="G646" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F646" s="29" t="inlineStr"/>
+      <c r="G646" s="4" t="inlineStr"/>
       <c r="H646" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38946,16 +37549,8 @@
           <t>Hiển thị message: "Tài khoản đã thay đổi thành công"</t>
         </is>
       </c>
-      <c r="F647" s="29" t="inlineStr">
-        <is>
-          <t>Tài khoản đã thay đổi thành công</t>
-        </is>
-      </c>
-      <c r="G647" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F647" s="29" t="inlineStr"/>
+      <c r="G647" s="4" t="inlineStr"/>
       <c r="H647" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38997,16 +37592,8 @@
 3.Lấy mã kích hoạt mới &gt; "Mã kích hoạt được cập nhật thành công"</t>
         </is>
       </c>
-      <c r="F648" s="29" t="inlineStr">
-        <is>
-          <t>Mã kích hoạt được cập nhật thành công</t>
-        </is>
-      </c>
-      <c r="G648" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F648" s="29" t="inlineStr"/>
+      <c r="G648" s="4" t="inlineStr"/>
       <c r="H648" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39042,16 +37629,8 @@
           <t>Chuyển đến trang: "GÁN VAI TRÒ NGƯỜI DÙNG"</t>
         </is>
       </c>
-      <c r="F649" s="29" t="inlineStr">
-        <is>
-          <t>GÁN VAI TRÒ NGƯỜI DÙNG</t>
-        </is>
-      </c>
-      <c r="G649" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F649" s="29" t="inlineStr"/>
+      <c r="G649" s="4" t="inlineStr"/>
       <c r="H649" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39088,16 +37667,8 @@
 DANH SÁCH QUYỀN ĐƯỢC GÁN"</t>
         </is>
       </c>
-      <c r="F650" s="29" t="inlineStr">
-        <is>
-          <t>DANH SÁCH QUYỀN ĐƯỢC GÁN</t>
-        </is>
-      </c>
-      <c r="G650" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F650" s="29" t="inlineStr"/>
+      <c r="G650" s="4" t="inlineStr"/>
       <c r="H650" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39134,16 +37705,8 @@
           <t>Hiển thị message: "Tài khoản đã thay đổi thành công."</t>
         </is>
       </c>
-      <c r="F651" s="29" t="inlineStr">
-        <is>
-          <t>Tài khoản đã thay đổi thành công.</t>
-        </is>
-      </c>
-      <c r="G651" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F651" s="29" t="inlineStr"/>
+      <c r="G651" s="4" t="inlineStr"/>
       <c r="H651" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39179,16 +37742,8 @@
           <t>Hiển thị message: "Khóa thành công."</t>
         </is>
       </c>
-      <c r="F652" s="29" t="inlineStr">
-        <is>
-          <t>Khóa thành công.</t>
-        </is>
-      </c>
-      <c r="G652" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F652" s="29" t="inlineStr"/>
+      <c r="G652" s="4" t="inlineStr"/>
       <c r="H652" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39224,16 +37779,8 @@
           <t>Hiển thị message: "Mở khóa thành công."</t>
         </is>
       </c>
-      <c r="F653" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa thành công.</t>
-        </is>
-      </c>
-      <c r="G653" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F653" s="29" t="inlineStr"/>
+      <c r="G653" s="4" t="inlineStr"/>
       <c r="H653" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39269,16 +37816,8 @@
           <t>Hiển thị message: "Xóa thành công."</t>
         </is>
       </c>
-      <c r="F654" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thành công.</t>
-        </is>
-      </c>
-      <c r="G654" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F654" s="29" t="inlineStr"/>
+      <c r="G654" s="4" t="inlineStr"/>
       <c r="H654" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39354,16 +37893,8 @@
           <t>Chuyển đến trang: "10.5.7 Lịch sử tài khoản"</t>
         </is>
       </c>
-      <c r="F657" s="29" t="inlineStr">
-        <is>
-          <t>10.5.7 Lịch sử tài khoản</t>
-        </is>
-      </c>
-      <c r="G657" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F657" s="29" t="inlineStr"/>
+      <c r="G657" s="4" t="inlineStr"/>
       <c r="H657" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39403,16 +37934,8 @@
           <t>Chuyển đến trang: "LỊCH SỬ HOẠT ĐỘNG"</t>
         </is>
       </c>
-      <c r="F658" s="29" t="inlineStr">
-        <is>
-          <t>LỊCH SỬ HOẠT ĐỘNG</t>
-        </is>
-      </c>
-      <c r="G658" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F658" s="29" t="inlineStr"/>
+      <c r="G658" s="4" t="inlineStr"/>
       <c r="H658" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39494,16 +38017,8 @@
           <t>Trường "Tên tài khoản" hiển thị: autoba</t>
         </is>
       </c>
-      <c r="F660" s="29" t="inlineStr">
-        <is>
-          <t>autoba</t>
-        </is>
-      </c>
-      <c r="G660" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F660" s="29" t="inlineStr"/>
+      <c r="G660" s="4" t="inlineStr"/>
       <c r="H660" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39714,16 +38229,8 @@
           <t>Chuyển đến trang: "10.6.1 Cấu hình lái xe"</t>
         </is>
       </c>
-      <c r="F667" s="29" t="inlineStr">
-        <is>
-          <t>10.6.1 Cấu hình lái xe</t>
-        </is>
-      </c>
-      <c r="G667" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F667" s="29" t="inlineStr"/>
+      <c r="G667" s="4" t="inlineStr"/>
       <c r="H667" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39760,20 +38267,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F668" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: WALLET
-Giá trị: {"isWallet":true, "min":20000, "isRecharge":true, "isDriverWallet":true, "isDriverRecharge": true,"isCreateCardTrip": true,"requiredPrice": 1, "RechargeType": 3}
-Kiểu dữ liệu: Kiểu chuỗi
-Ghi chú: {"isWallet":true =&gt; Hiện menu ví trên (Ví tài khoản) ,"min":50000, =&gt; Số tiền tối thiểu cho phép nạp "isRecharge":false, =&gt; Hiện nút nạp tiền ở màn hình ví trên hay không "isDriverWallet":true=&gt; Hiện menu ví dưới (Ví tiền mặt)</t>
-        </is>
-      </c>
-      <c r="G668" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F668" s="29" t="inlineStr"/>
+      <c r="G668" s="4" t="inlineStr"/>
       <c r="H668" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39849,16 +38344,8 @@
           <t>Chuyển đến trang: "10.6.2 Cấu hình khách hàng"</t>
         </is>
       </c>
-      <c r="F671" s="29" t="inlineStr">
-        <is>
-          <t>10.6.2 Cấu hình khách hàng</t>
-        </is>
-      </c>
-      <c r="G671" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F671" s="29" t="inlineStr"/>
+      <c r="G671" s="4" t="inlineStr"/>
       <c r="H671" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39895,21 +38382,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F672" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STT: 1
-Tên cấu hình: ZOOM_MAP
-Giá trị: {"android": 18, "iOS": 18, "minDistanceToMove": 15}
-Kiểu dữ liệu: Kiểu chuỗi
-Công ty: 
-Ghi chú: </t>
-        </is>
-      </c>
-      <c r="G672" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F672" s="29" t="inlineStr"/>
+      <c r="G672" s="4" t="inlineStr"/>
       <c r="H672" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39985,16 +38459,8 @@
           <t>Chuyển đến trang: "10.6.3 Cấu hình quản trị"</t>
         </is>
       </c>
-      <c r="F675" s="29" t="inlineStr">
-        <is>
-          <t>10.6.3 Cấu hình quản trị</t>
-        </is>
-      </c>
-      <c r="G675" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F675" s="29" t="inlineStr"/>
+      <c r="G675" s="4" t="inlineStr"/>
       <c r="H675" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40031,19 +38497,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F676" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: YEU_CAU_DOI_MAT_KHAU_THEO_CHU_KY
-Giá trị: False
-Ghi chú: Yêu cầu đổi mật khẩu theo chu kỳ</t>
-        </is>
-      </c>
-      <c r="G676" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F676" s="29" t="inlineStr"/>
+      <c r="G676" s="4" t="inlineStr"/>
       <c r="H676" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40119,16 +38574,8 @@
           <t>Chuyển đến trang: "10.6.4 Cấu hình server"</t>
         </is>
       </c>
-      <c r="F679" s="29" t="inlineStr">
-        <is>
-          <t>10.6.4 Cấu hình server</t>
-        </is>
-      </c>
-      <c r="G679" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F679" s="29" t="inlineStr"/>
+      <c r="G679" s="4" t="inlineStr"/>
       <c r="H679" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40165,19 +38612,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F680" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: YOUR_TRIP_DANG_DUOC_DIEU_HANH_HO_TRO_GOI_XE
-Giá trị: Điều hành đang hỗ trợ đặt xe cho bạn
-Ghi chú: Điều hành đang hỗ trợ đặt xe cho bạn</t>
-        </is>
-      </c>
-      <c r="G680" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F680" s="29" t="inlineStr"/>
+      <c r="G680" s="4" t="inlineStr"/>
       <c r="H680" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40794,16 +39230,8 @@
           <t>Chuyển đến trang: "10.6.10 Cấu hình hạng thẻ"</t>
         </is>
       </c>
-      <c r="F702" s="29" t="inlineStr">
-        <is>
-          <t>10.6.10 Cấu hình hạng thẻ</t>
-        </is>
-      </c>
-      <c r="G702" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F702" s="29" t="inlineStr"/>
+      <c r="G702" s="4" t="inlineStr"/>
       <c r="H702" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40840,19 +39268,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F703" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Loại thẻ: Hạng vàng
-Màu thẻ: #eacdf7
-Ghi chú: Thẻ vàng (gold) là loại thẻ tín dụng có hạn mức cao từ trên 50.000.000 đồng, được cấp cho những khách hàng có năng lực tài chính tốt và độ uy tín tín dụng cao. Chủ sở hữu thẻ vàng có cơ hội nhận được nhiều tiện ích và ưu đãi hấp dẫn hơn so với các loại th</t>
-        </is>
-      </c>
-      <c r="G703" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F703" s="29" t="inlineStr"/>
+      <c r="G703" s="4" t="inlineStr"/>
       <c r="H703" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40928,16 +39345,8 @@
           <t>Chuyển đến trang: "10.6.11 Kích hoạt dịch vụ"</t>
         </is>
       </c>
-      <c r="F706" s="29" t="inlineStr">
-        <is>
-          <t>10.6.11 Kích hoạt dịch vụ</t>
-        </is>
-      </c>
-      <c r="G706" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F706" s="29" t="inlineStr"/>
+      <c r="G706" s="4" t="inlineStr"/>
       <c r="H706" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41067,16 +39476,8 @@
           <t>Chuyển đến trang: "10.7.1 Quản trị thông báo lái xe"</t>
         </is>
       </c>
-      <c r="F711" s="29" t="inlineStr">
-        <is>
-          <t>10.7.1 Quản trị thông báo lái xe</t>
-        </is>
-      </c>
-      <c r="G711" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F711" s="29" t="inlineStr"/>
+      <c r="G711" s="4" t="inlineStr"/>
       <c r="H711" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41119,16 +39520,8 @@
           <t>Trường "Tiêu đề" hiện thị đúng "Tiêu đề" đã nhập</t>
         </is>
       </c>
-      <c r="F712" s="29" t="inlineStr">
-        <is>
-          <t>Cộng ví tiền mặt khi hoàn thành chuyến thanh toán thẻ. Số dư tài khoản: 95000đ</t>
-        </is>
-      </c>
-      <c r="G712" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F712" s="29" t="inlineStr"/>
+      <c r="G712" s="4" t="inlineStr"/>
       <c r="H712" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41718,16 +40111,8 @@
 (Thông báo tạo ở mục ghi chú)</t>
         </is>
       </c>
-      <c r="F727" s="56" t="inlineStr">
-        <is>
-          <t>Thông báo đã tạo thành công.</t>
-        </is>
-      </c>
-      <c r="G727" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F727" s="56" t="inlineStr"/>
+      <c r="G727" s="4" t="inlineStr"/>
       <c r="H727" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41768,16 +40153,8 @@
           <t>Hiển thị thông báo: "Thông báo đã được cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F728" s="29" t="inlineStr">
-        <is>
-          <t>Thông báo đã được cập nhật thành công.</t>
-        </is>
-      </c>
-      <c r="G728" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F728" s="29" t="inlineStr"/>
+      <c r="G728" s="4" t="inlineStr"/>
       <c r="H728" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41813,16 +40190,8 @@
           <t>Mở tab mới, Hiển thị nội dung của thông báo: "Test tạo thông báo theo lái xe"</t>
         </is>
       </c>
-      <c r="F729" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật số dư</t>
-        </is>
-      </c>
-      <c r="G729" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F729" s="29" t="inlineStr"/>
+      <c r="G729" s="4" t="inlineStr"/>
       <c r="H729" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41858,16 +40227,8 @@
           <t>Chuyển tới trang: "DANH SÁCH LÁI XE ĐÃ ĐỌC THÔNG BÁO"</t>
         </is>
       </c>
-      <c r="F730" s="29" t="inlineStr">
-        <is>
-          <t>DANH SÁCH LÁI XE ĐÃ ĐỌC THÔNG BÁO</t>
-        </is>
-      </c>
-      <c r="G730" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F730" s="29" t="inlineStr"/>
+      <c r="G730" s="4" t="inlineStr"/>
       <c r="H730" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41903,16 +40264,8 @@
           <t>Hiển thị message: "Xóa thông báo thành công."</t>
         </is>
       </c>
-      <c r="F731" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thông báo thành công.</t>
-        </is>
-      </c>
-      <c r="G731" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F731" s="29" t="inlineStr"/>
+      <c r="G731" s="4" t="inlineStr"/>
       <c r="H731" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41987,16 +40340,8 @@
           <t>Chuyển đến trang: "10.7.4 Quản trị thông báo lái xe v2"</t>
         </is>
       </c>
-      <c r="F734" s="29" t="inlineStr">
-        <is>
-          <t>10.7.4 Quản trị thông báo lái xe v2</t>
-        </is>
-      </c>
-      <c r="G734" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F734" s="29" t="inlineStr"/>
+      <c r="G734" s="4" t="inlineStr"/>
       <c r="H734" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42075,16 +40420,8 @@
           <t>Trường "Tiêu đề" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F736" s="29" t="inlineStr">
-        <is>
-          <t>TB lái xe 10</t>
-        </is>
-      </c>
-      <c r="G736" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F736" s="29" t="inlineStr"/>
+      <c r="G736" s="4" t="inlineStr"/>
       <c r="H736" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42122,16 +40459,8 @@
           <t>Trường "Kiểu thông báo" hiện thị: Thông báo</t>
         </is>
       </c>
-      <c r="F737" s="29" t="inlineStr">
-        <is>
-          <t>Thông báo</t>
-        </is>
-      </c>
-      <c r="G737" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F737" s="29" t="inlineStr"/>
+      <c r="G737" s="4" t="inlineStr"/>
       <c r="H737" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43050,16 +41379,8 @@
           <t>Chuyển đến trang: "10.10.2 Phụ phí loại hàng hóa"</t>
         </is>
       </c>
-      <c r="F762" s="29" t="inlineStr">
-        <is>
-          <t>10.10.2 Phụ phí loại hàng hóa</t>
-        </is>
-      </c>
-      <c r="G762" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F762" s="29" t="inlineStr"/>
+      <c r="G762" s="4" t="inlineStr"/>
       <c r="H762" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43181,16 +41502,8 @@
           <t>Hiển thị message: "Lưu loại hàng hóa thành công"</t>
         </is>
       </c>
-      <c r="F765" s="29" t="inlineStr">
-        <is>
-          <t>Lưu loại hàng hóa thành công</t>
-        </is>
-      </c>
-      <c r="G765" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F765" s="29" t="inlineStr"/>
+      <c r="G765" s="4" t="inlineStr"/>
       <c r="H765" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43268,16 +41581,8 @@
           <t>Hiển thị message: "Xóa loại hàng hóa thành công"</t>
         </is>
       </c>
-      <c r="F767" s="29" t="inlineStr">
-        <is>
-          <t>Xóa loại hàng hóa thành công</t>
-        </is>
-      </c>
-      <c r="G767" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F767" s="29" t="inlineStr"/>
+      <c r="G767" s="4" t="inlineStr"/>
       <c r="H767" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43357,16 +41662,8 @@
           <t>Chuyển đến trang: "10.10.3 Phụ phí theo thời gian"</t>
         </is>
       </c>
-      <c r="F770" s="29" t="inlineStr">
-        <is>
-          <t>10.10.3 Phụ phí theo thời gian</t>
-        </is>
-      </c>
-      <c r="G770" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F770" s="29" t="inlineStr"/>
+      <c r="G770" s="4" t="inlineStr"/>
       <c r="H770" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43452,16 +41749,8 @@
           <t>Hiển thị message: "Lưu cấu hình thời gian thành công"</t>
         </is>
       </c>
-      <c r="F772" s="29" t="inlineStr">
-        <is>
-          <t>Lưu cấu hình thời gian thành công</t>
-        </is>
-      </c>
-      <c r="G772" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F772" s="29" t="inlineStr"/>
+      <c r="G772" s="4" t="inlineStr"/>
       <c r="H772" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43539,16 +41828,8 @@
           <t>Hiển thị message: "Xóa cấu hình thời gian thành công"</t>
         </is>
       </c>
-      <c r="F774" s="29" t="inlineStr">
-        <is>
-          <t>Xóa cấu hình thời gian thành công</t>
-        </is>
-      </c>
-      <c r="G774" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F774" s="29" t="inlineStr"/>
+      <c r="G774" s="4" t="inlineStr"/>
       <c r="H774" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43627,16 +41908,8 @@
           <t>Chuyển đến trang: "10.10.4 Phụ phí thu hộ"</t>
         </is>
       </c>
-      <c r="F777" s="29" t="inlineStr">
-        <is>
-          <t>10.10.4 Phụ phí thu hộ</t>
-        </is>
-      </c>
-      <c r="G777" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F777" s="29" t="inlineStr"/>
+      <c r="G777" s="4" t="inlineStr"/>
       <c r="H777" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43838,16 +42111,8 @@
           <t>Hiển thị message: "Lưu phụ phí thành công"</t>
         </is>
       </c>
-      <c r="F782" s="29" t="inlineStr">
-        <is>
-          <t>Lưu phụ phí thành công</t>
-        </is>
-      </c>
-      <c r="G782" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F782" s="29" t="inlineStr"/>
+      <c r="G782" s="4" t="inlineStr"/>
       <c r="H782" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43925,16 +42190,8 @@
           <t>Hiển thị message: "Xóa phụ phí thành công"</t>
         </is>
       </c>
-      <c r="F784" s="29" t="inlineStr">
-        <is>
-          <t>Xóa phụ phí thành công</t>
-        </is>
-      </c>
-      <c r="G784" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F784" s="29" t="inlineStr"/>
+      <c r="G784" s="4" t="inlineStr"/>
       <c r="H784" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44013,16 +42270,8 @@
           <t>Chuyển đến trang: "10.10.5 Phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F787" s="29" t="inlineStr">
-        <is>
-          <t>10.10.5 Phụ phí theo thời tiết</t>
-        </is>
-      </c>
-      <c r="G787" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F787" s="29" t="inlineStr"/>
+      <c r="G787" s="4" t="inlineStr"/>
       <c r="H787" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44110,16 +42359,8 @@
           <t>Hiển thị message: "Lưu phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F789" s="29" t="inlineStr">
-        <is>
-          <t>Lưu phụ phí theo thời tiết</t>
-        </is>
-      </c>
-      <c r="G789" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F789" s="29" t="inlineStr"/>
+      <c r="G789" s="4" t="inlineStr"/>
       <c r="H789" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44197,16 +42438,8 @@
           <t>Hiển thị message: "Xóa phụ phí theo thời tiết thành công"</t>
         </is>
       </c>
-      <c r="F791" s="29" t="inlineStr">
-        <is>
-          <t>Xóa phụ phí theo thời tiết thành công</t>
-        </is>
-      </c>
-      <c r="G791" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F791" s="29" t="inlineStr"/>
+      <c r="G791" s="4" t="inlineStr"/>
       <c r="H791" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44651,16 +42884,8 @@
           <t>Chuyển đến trang: "14.1 Quản lý xuất hoá đơn"</t>
         </is>
       </c>
-      <c r="F806" s="29" t="inlineStr">
-        <is>
-          <t>14.1 Quản lý xuất hoá đơn</t>
-        </is>
-      </c>
-      <c r="G806" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F806" s="29" t="inlineStr"/>
+      <c r="G806" s="4" t="inlineStr"/>
       <c r="H806" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -44784,16 +43009,8 @@
           <t>Trường "Mã cuốc khách" hiện thị đúng Mã cuốc khách đã nhập</t>
         </is>
       </c>
-      <c r="F809" s="29" t="inlineStr">
-        <is>
-          <t>00072F03</t>
-        </is>
-      </c>
-      <c r="G809" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F809" s="29" t="inlineStr"/>
+      <c r="G809" s="4" t="inlineStr"/>
       <c r="H809" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -45526,16 +43743,8 @@
 2."Cuốc khách không đủ điều kiện xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F827" s="29" t="inlineStr">
-        <is>
-          <t>Cuốc khách không đủ điều kiện xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G827" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F827" s="29" t="inlineStr"/>
+      <c r="G827" s="4" t="inlineStr"/>
       <c r="H827" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -45577,16 +43786,8 @@
           <t>Hiển thị thông báo: "Xác nhận không xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F828" s="29" t="inlineStr">
-        <is>
-          <t>Xác nhận không xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G828" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F828" s="29" t="inlineStr"/>
+      <c r="G828" s="4" t="inlineStr"/>
       <c r="H828" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -45625,16 +43826,8 @@
 2."Cuốc khách không đủ điều kiện xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F829" s="29" t="inlineStr">
-        <is>
-          <t>Thông tin xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G829" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F829" s="29" t="inlineStr"/>
+      <c r="G829" s="4" t="inlineStr"/>
       <c r="H829" s="6" t="inlineStr">
         <is>
           <t>x</t>

--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Checklist'!$G$1:$L$853</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -14967,8 +14967,8 @@
   </sheetPr>
   <dimension ref="A1:AE901"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A619" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F627" sqref="F627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -14985,8 +14985,8 @@
     <col width="20.42578125" customWidth="1" style="21" min="13" max="13"/>
     <col width="27.140625" customWidth="1" style="21" min="14" max="14"/>
     <col width="14.7109375" customWidth="1" style="84" min="15" max="15"/>
-    <col width="9.140625" customWidth="1" style="84" min="16" max="3007"/>
-    <col width="9.140625" customWidth="1" style="84" min="3008" max="16384"/>
+    <col width="9.140625" customWidth="1" style="84" min="16" max="3008"/>
+    <col width="9.140625" customWidth="1" style="84" min="3009" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -38252,8 +38252,16 @@
           <t>Chuyển đến trang: "10.3.4 Quản trị nhóm đội"</t>
         </is>
       </c>
-      <c r="F626" s="29" t="n"/>
-      <c r="G626" s="4" t="n"/>
+      <c r="F626" s="29" t="inlineStr">
+        <is>
+          <t>10.3.4 Quản trị nhóm đội</t>
+        </is>
+      </c>
+      <c r="G626" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H626" s="2" t="n"/>
       <c r="I626" s="2" t="n"/>
       <c r="J626" s="2" t="n"/>

--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huonglt2\PycharmProjects\pythonProject\staxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truongtq.BA\PycharmProjects\pythonProject\s_taxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="2650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="2658">
   <si>
     <t>WEB STAXI - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -7205,6 +7205,9 @@
     <t>Chuyển đến trang: "10.3.4 Quản trị nhóm đội"</t>
   </si>
   <si>
+    <t>10.3.4 Quản trị nhóm đội</t>
+  </si>
+  <si>
     <t>Admin08_2</t>
   </si>
   <si>
@@ -7220,6 +7223,9 @@
     <t>Trường "Tên nhóm" hiển thị dữ liệu đã nhập</t>
   </si>
   <si>
+    <t>Test gán người dùng</t>
+  </si>
+  <si>
     <t>Admin08_3</t>
   </si>
   <si>
@@ -7235,6 +7241,9 @@
     <t>Trường "Tên hiển thị" hiển thị dữ liệu đã nhập</t>
   </si>
   <si>
+    <t>Hiển thị test gán người dùng</t>
+  </si>
+  <si>
     <t>Admin08_4</t>
   </si>
   <si>
@@ -7246,6 +7255,9 @@
     <t>Hiển thị message: "Lưu thông tin thành công."</t>
   </si>
   <si>
+    <t>Lưu thông tin thành công.</t>
+  </si>
+  <si>
     <t>Admin08_5</t>
   </si>
   <si>
@@ -7263,6 +7275,9 @@
   </si>
   <si>
     <t>Hiển thị message: "Xóa thông tin thành công"</t>
+  </si>
+  <si>
+    <t>Xóa nhóm thành công.</t>
   </si>
   <si>
     <t>Admin08_7</t>
@@ -7282,6 +7297,9 @@
 Có lái xe 0775111924 bên trường Danh sách lái xe đã gán cho nhóm </t>
   </si>
   <si>
+    <t>Gán nhóm thành công.</t>
+  </si>
+  <si>
     <t>Admin08_8</t>
   </si>
   <si>
@@ -7296,6 +7314,9 @@
 Có xe 20242393 bên trường Danh sách  xe đã gán cho nhóm </t>
   </si>
   <si>
+    <t>Gán xe vào nhóm thành công.</t>
+  </si>
+  <si>
     <t>Admin08_9</t>
   </si>
   <si>
@@ -7311,6 +7332,9 @@
   <si>
     <t>Mất thông tin người dùng ở bên trường Danh sách người dùng chưa gán
 Có người dùng batest3 bên trường Danh sách người dùng đã gán</t>
+  </si>
+  <si>
+    <t>Gán người dùng thành công.</t>
   </si>
   <si>
     <t>10.3.5 Quản trị tên xe</t>
@@ -25112,8 +25136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A637" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J633" sqref="J633"/>
+    <sheetView tabSelected="1" topLeftCell="A622" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L631" sqref="L631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -25130,8 +25154,8 @@
     <col min="13" max="13" width="20.42578125" style="21" customWidth="1"/>
     <col min="14" max="14" width="27.140625" style="21" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="78" customWidth="1"/>
-    <col min="16" max="3009" width="9.140625" style="78" customWidth="1"/>
-    <col min="3010" max="16384" width="9.140625" style="78"/>
+    <col min="16" max="3010" width="9.140625" style="78" customWidth="1"/>
+    <col min="3011" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25230,7 +25254,7 @@
       </c>
       <c r="D4" s="15">
         <f>COUNTIFS(G:G,"Pass",H:H,"x")</f>
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E4" s="15">
         <f>COUNTIFS(G:G,"Fail",H:H,"x")</f>
@@ -25269,7 +25293,7 @@
       </c>
       <c r="D5" s="15">
         <f>COUNTIFS(G:G,"Pass",I:I,"x")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E5" s="15">
         <f>COUNTIFS(G:G,"Fail",I:I,"x")</f>
@@ -40894,7 +40918,7 @@
       <c r="M625" s="53"/>
       <c r="N625" s="53"/>
     </row>
-    <row r="626" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="37" t="s">
         <v>1840</v>
       </c>
@@ -40908,8 +40932,12 @@
       <c r="E626" s="29" t="s">
         <v>1843</v>
       </c>
-      <c r="F626" s="29"/>
-      <c r="G626" s="4"/>
+      <c r="F626" s="29" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G626" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H626" s="2" t="s">
         <v>37</v>
       </c>
@@ -40920,22 +40948,26 @@
       <c r="M626" s="42"/>
       <c r="N626" s="42"/>
     </row>
-    <row r="627" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="37" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B627" s="37" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C627" s="26"/>
       <c r="D627" s="29" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E627" s="29" t="s">
-        <v>1847</v>
-      </c>
-      <c r="F627" s="29"/>
-      <c r="G627" s="4"/>
+        <v>1848</v>
+      </c>
+      <c r="F627" s="29" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G627" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H627" s="2" t="s">
         <v>37</v>
       </c>
@@ -40946,22 +40978,26 @@
       <c r="M627" s="42"/>
       <c r="N627" s="42"/>
     </row>
-    <row r="628" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="37" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="B628" s="37" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="C628" s="26"/>
       <c r="D628" s="29" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="E628" s="29" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F628" s="29"/>
-      <c r="G628" s="4"/>
+        <v>1853</v>
+      </c>
+      <c r="F628" s="29" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G628" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H628" s="2" t="s">
         <v>37</v>
       </c>
@@ -40972,22 +41008,26 @@
       <c r="M628" s="42"/>
       <c r="N628" s="42"/>
     </row>
-    <row r="629" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="37" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="B629" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C629" s="26"/>
       <c r="D629" s="29" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="E629" s="29" t="s">
-        <v>1854</v>
-      </c>
-      <c r="F629" s="29"/>
-      <c r="G629" s="4"/>
+        <v>1857</v>
+      </c>
+      <c r="F629" s="29" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G629" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H629" s="2"/>
       <c r="I629" s="2" t="s">
         <v>37</v>
@@ -40998,22 +41038,26 @@
       <c r="M629" s="42"/>
       <c r="N629" s="42"/>
     </row>
-    <row r="630" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="37" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="B630" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C630" s="26"/>
       <c r="D630" s="29" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="E630" s="29" t="s">
-        <v>1854</v>
-      </c>
-      <c r="F630" s="29"/>
-      <c r="G630" s="4"/>
+        <v>1857</v>
+      </c>
+      <c r="F630" s="29" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G630" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H630" s="2"/>
       <c r="I630" s="2" t="s">
         <v>37</v>
@@ -41024,22 +41068,26 @@
       <c r="M630" s="42"/>
       <c r="N630" s="42"/>
     </row>
-    <row r="631" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="37" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="B631" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C631" s="26"/>
       <c r="D631" s="29" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="E631" s="29" t="s">
-        <v>1859</v>
-      </c>
-      <c r="F631" s="29"/>
-      <c r="G631" s="4"/>
+        <v>1863</v>
+      </c>
+      <c r="F631" s="29" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G631" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H631" s="2"/>
       <c r="I631" s="2" t="s">
         <v>37</v>
@@ -41050,22 +41098,26 @@
       <c r="M631" s="42"/>
       <c r="N631" s="42"/>
     </row>
-    <row r="632" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="37" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B632" s="37" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="C632" s="26"/>
       <c r="D632" s="29" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="E632" s="29" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F632" s="29"/>
-      <c r="G632" s="4"/>
+        <v>1868</v>
+      </c>
+      <c r="F632" s="29" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G632" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H632" s="2"/>
       <c r="I632" s="2" t="s">
         <v>37</v>
@@ -41076,22 +41128,26 @@
       <c r="M632" s="42"/>
       <c r="N632" s="42"/>
     </row>
-    <row r="633" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="37" t="s">
-        <v>1864</v>
+        <v>1870</v>
       </c>
       <c r="B633" s="37" t="s">
         <v>631</v>
       </c>
       <c r="C633" s="26"/>
       <c r="D633" s="29" t="s">
-        <v>1865</v>
+        <v>1871</v>
       </c>
       <c r="E633" s="29" t="s">
-        <v>1866</v>
-      </c>
-      <c r="F633" s="29"/>
-      <c r="G633" s="4"/>
+        <v>1872</v>
+      </c>
+      <c r="F633" s="29" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G633" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H633" s="2"/>
       <c r="I633" s="2" t="s">
         <v>37</v>
@@ -41102,22 +41158,26 @@
       <c r="M633" s="42"/>
       <c r="N633" s="42"/>
     </row>
-    <row r="634" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="37" t="s">
-        <v>1867</v>
+        <v>1874</v>
       </c>
       <c r="B634" s="37" t="s">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="C634" s="26"/>
       <c r="D634" s="29" t="s">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="E634" s="29" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F634" s="29"/>
-      <c r="G634" s="4"/>
+        <v>1877</v>
+      </c>
+      <c r="F634" s="29" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G634" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H634" s="2"/>
       <c r="I634" s="2" t="s">
         <v>37</v>
@@ -41146,7 +41206,7 @@
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A636" s="49" t="s">
-        <v>1871</v>
+        <v>1879</v>
       </c>
       <c r="B636" s="49"/>
       <c r="C636" s="50" t="s">
@@ -41166,20 +41226,20 @@
     </row>
     <row r="637" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="37" t="s">
-        <v>1872</v>
+        <v>1880</v>
       </c>
       <c r="B637" s="39" t="s">
-        <v>1873</v>
+        <v>1881</v>
       </c>
       <c r="C637" s="26"/>
       <c r="D637" s="15" t="s">
-        <v>1874</v>
+        <v>1882</v>
       </c>
       <c r="E637" s="27" t="s">
-        <v>1875</v>
+        <v>1883</v>
       </c>
       <c r="F637" s="29" t="s">
-        <v>1876</v>
+        <v>1884</v>
       </c>
       <c r="G637" s="4" t="s">
         <v>4</v>
@@ -41198,17 +41258,17 @@
     </row>
     <row r="638" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="37" t="s">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="B638" s="37" t="s">
         <v>992</v>
       </c>
       <c r="C638" s="26"/>
       <c r="D638" s="29" t="s">
-        <v>1878</v>
+        <v>1886</v>
       </c>
       <c r="E638" s="29" t="s">
-        <v>1879</v>
+        <v>1887</v>
       </c>
       <c r="F638" s="29"/>
       <c r="G638" s="4"/>
@@ -41224,17 +41284,17 @@
     </row>
     <row r="639" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="37" t="s">
-        <v>1880</v>
+        <v>1888</v>
       </c>
       <c r="B639" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C639" s="26"/>
       <c r="D639" s="29" t="s">
-        <v>1881</v>
+        <v>1889</v>
       </c>
       <c r="E639" s="29" t="s">
-        <v>1882</v>
+        <v>1890</v>
       </c>
       <c r="F639" s="29"/>
       <c r="G639" s="4"/>
@@ -41250,17 +41310,17 @@
     </row>
     <row r="640" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="37" t="s">
-        <v>1883</v>
+        <v>1891</v>
       </c>
       <c r="B640" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C640" s="26"/>
       <c r="D640" s="29" t="s">
-        <v>1884</v>
+        <v>1892</v>
       </c>
       <c r="E640" s="29" t="s">
-        <v>1885</v>
+        <v>1893</v>
       </c>
       <c r="F640" s="29"/>
       <c r="G640" s="4"/>
@@ -41276,17 +41336,17 @@
     </row>
     <row r="641" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="37" t="s">
-        <v>1886</v>
+        <v>1894</v>
       </c>
       <c r="B641" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C641" s="26"/>
       <c r="D641" s="29" t="s">
-        <v>1887</v>
+        <v>1895</v>
       </c>
       <c r="E641" s="29" t="s">
-        <v>1888</v>
+        <v>1896</v>
       </c>
       <c r="F641" s="29"/>
       <c r="G641" s="4"/>
@@ -41318,7 +41378,7 @@
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A643" s="49" t="s">
-        <v>1889</v>
+        <v>1897</v>
       </c>
       <c r="B643" s="49"/>
       <c r="C643" s="50" t="s">
@@ -41338,20 +41398,20 @@
     </row>
     <row r="644" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="37" t="s">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="B644" s="39" t="s">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="C644" s="26"/>
       <c r="D644" s="15" t="s">
-        <v>1892</v>
+        <v>1900</v>
       </c>
       <c r="E644" s="27" t="s">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="F644" s="29" t="s">
-        <v>1894</v>
+        <v>1902</v>
       </c>
       <c r="G644" s="4" t="s">
         <v>4</v>
@@ -41370,17 +41430,17 @@
     </row>
     <row r="645" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="37" t="s">
-        <v>1895</v>
+        <v>1903</v>
       </c>
       <c r="B645" s="37" t="s">
-        <v>1896</v>
+        <v>1904</v>
       </c>
       <c r="C645" s="26"/>
       <c r="D645" s="29" t="s">
-        <v>1897</v>
+        <v>1905</v>
       </c>
       <c r="E645" s="29" t="s">
-        <v>1898</v>
+        <v>1906</v>
       </c>
       <c r="F645" s="29"/>
       <c r="G645" s="4"/>
@@ -41391,19 +41451,19 @@
       <c r="L645" s="2"/>
       <c r="M645" s="42"/>
       <c r="N645" s="66" t="s">
-        <v>1899</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="646" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="37" t="s">
-        <v>1900</v>
+        <v>1908</v>
       </c>
       <c r="B646" s="37" t="s">
         <v>1826</v>
       </c>
       <c r="C646" s="26"/>
       <c r="D646" s="29" t="s">
-        <v>1901</v>
+        <v>1909</v>
       </c>
       <c r="E646" s="29" t="s">
         <v>1828</v>
@@ -41422,14 +41482,14 @@
     </row>
     <row r="647" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="37" t="s">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="B647" s="37" t="s">
         <v>1831</v>
       </c>
       <c r="C647" s="26"/>
       <c r="D647" s="29" t="s">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="E647" s="29" t="s">
         <v>1833</v>
@@ -41448,17 +41508,17 @@
     </row>
     <row r="648" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="37" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="B648" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C648" s="26"/>
       <c r="D648" s="29" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="E648" s="29" t="s">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="F648" s="29"/>
       <c r="G648" s="4"/>
@@ -41474,17 +41534,17 @@
     </row>
     <row r="649" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="37" t="s">
-        <v>1907</v>
+        <v>1915</v>
       </c>
       <c r="B649" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C649" s="26"/>
       <c r="D649" s="29" t="s">
-        <v>1908</v>
+        <v>1916</v>
       </c>
       <c r="E649" s="29" t="s">
-        <v>1909</v>
+        <v>1917</v>
       </c>
       <c r="F649" s="29"/>
       <c r="G649" s="4"/>
@@ -41500,17 +41560,17 @@
     </row>
     <row r="650" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="37" t="s">
-        <v>1910</v>
+        <v>1918</v>
       </c>
       <c r="B650" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C650" s="26"/>
       <c r="D650" s="29" t="s">
-        <v>1911</v>
+        <v>1919</v>
       </c>
       <c r="E650" s="29" t="s">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="F650" s="29"/>
       <c r="G650" s="4"/>
@@ -41542,7 +41602,7 @@
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A652" s="36" t="s">
-        <v>1913</v>
+        <v>1921</v>
       </c>
       <c r="B652" s="35"/>
       <c r="C652" s="18"/>
@@ -41560,7 +41620,7 @@
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A653" s="49" t="s">
-        <v>1914</v>
+        <v>1922</v>
       </c>
       <c r="B653" s="49"/>
       <c r="C653" s="50" t="s">
@@ -41580,20 +41640,20 @@
     </row>
     <row r="654" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="37" t="s">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="B654" s="39" t="s">
-        <v>1916</v>
+        <v>1924</v>
       </c>
       <c r="C654" s="26"/>
       <c r="D654" s="15" t="s">
-        <v>1917</v>
+        <v>1925</v>
       </c>
       <c r="E654" s="27" t="s">
-        <v>1918</v>
+        <v>1926</v>
       </c>
       <c r="F654" s="29" t="s">
-        <v>1919</v>
+        <v>1927</v>
       </c>
       <c r="G654" s="4" t="s">
         <v>4</v>
@@ -41612,20 +41672,20 @@
     </row>
     <row r="655" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="37" t="s">
-        <v>1920</v>
+        <v>1928</v>
       </c>
       <c r="B655" s="37" t="s">
         <v>992</v>
       </c>
       <c r="C655" s="26"/>
       <c r="D655" s="29" t="s">
-        <v>1921</v>
+        <v>1929</v>
       </c>
       <c r="E655" s="29" t="s">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="F655" s="29" t="s">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="G655" s="4" t="s">
         <v>4</v>
@@ -41642,14 +41702,14 @@
     </row>
     <row r="656" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="37" t="s">
-        <v>1924</v>
+        <v>1932</v>
       </c>
       <c r="B656" s="37" t="s">
         <v>758</v>
       </c>
       <c r="C656" s="26"/>
       <c r="D656" s="15" t="s">
-        <v>1925</v>
+        <v>1933</v>
       </c>
       <c r="E656" s="15" t="s">
         <v>153</v>
@@ -41668,20 +41728,20 @@
     </row>
     <row r="657" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="37" t="s">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="B657" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C657" s="26"/>
       <c r="D657" s="29" t="s">
-        <v>1927</v>
+        <v>1935</v>
       </c>
       <c r="E657" s="29" t="s">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="F657" s="29" t="s">
-        <v>1929</v>
+        <v>1937</v>
       </c>
       <c r="G657" s="4" t="s">
         <v>4</v>
@@ -41695,25 +41755,25 @@
       <c r="L657" s="2"/>
       <c r="M657" s="42"/>
       <c r="N657" s="42" t="s">
-        <v>1930</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="658" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="37" t="s">
-        <v>1931</v>
+        <v>1939</v>
       </c>
       <c r="B658" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C658" s="26"/>
       <c r="D658" s="29" t="s">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="E658" s="29" t="s">
-        <v>1933</v>
+        <v>1941</v>
       </c>
       <c r="F658" s="29" t="s">
-        <v>1934</v>
+        <v>1942</v>
       </c>
       <c r="G658" s="4" t="s">
         <v>4</v>
@@ -41730,20 +41790,20 @@
     </row>
     <row r="659" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="37" t="s">
-        <v>1935</v>
+        <v>1943</v>
       </c>
       <c r="B659" s="37" t="s">
         <v>636</v>
       </c>
       <c r="C659" s="26"/>
       <c r="D659" s="29" t="s">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="E659" s="29" t="s">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="F659" s="29" t="s">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="G659" s="4" t="s">
         <v>4</v>
@@ -41760,20 +41820,20 @@
     </row>
     <row r="660" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="37" t="s">
-        <v>1939</v>
+        <v>1947</v>
       </c>
       <c r="B660" s="37" t="s">
-        <v>1940</v>
+        <v>1948</v>
       </c>
       <c r="C660" s="26"/>
       <c r="D660" s="29" t="s">
-        <v>1941</v>
+        <v>1949</v>
       </c>
       <c r="E660" s="29" t="s">
-        <v>1942</v>
+        <v>1950</v>
       </c>
       <c r="F660" s="29" t="s">
-        <v>1943</v>
+        <v>1951</v>
       </c>
       <c r="G660" s="4" t="s">
         <v>4</v>
@@ -41790,20 +41850,20 @@
     </row>
     <row r="661" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="37" t="s">
-        <v>1944</v>
+        <v>1952</v>
       </c>
       <c r="B661" s="37" t="s">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="C661" s="26"/>
       <c r="D661" s="29" t="s">
-        <v>1946</v>
+        <v>1954</v>
       </c>
       <c r="E661" s="29" t="s">
-        <v>1947</v>
+        <v>1955</v>
       </c>
       <c r="F661" s="29" t="s">
-        <v>1948</v>
+        <v>1956</v>
       </c>
       <c r="G661" s="4" t="s">
         <v>4</v>
@@ -41820,20 +41880,20 @@
     </row>
     <row r="662" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="37" t="s">
-        <v>1949</v>
+        <v>1957</v>
       </c>
       <c r="B662" s="37" t="s">
-        <v>1950</v>
+        <v>1958</v>
       </c>
       <c r="C662" s="26"/>
       <c r="D662" s="29" t="s">
-        <v>1951</v>
+        <v>1959</v>
       </c>
       <c r="E662" s="29" t="s">
-        <v>1952</v>
+        <v>1960</v>
       </c>
       <c r="F662" s="29" t="s">
-        <v>1953</v>
+        <v>1961</v>
       </c>
       <c r="G662" s="4" t="s">
         <v>4</v>
@@ -41850,20 +41910,20 @@
     </row>
     <row r="663" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="37" t="s">
-        <v>1954</v>
+        <v>1962</v>
       </c>
       <c r="B663" s="37" t="s">
         <v>516</v>
       </c>
       <c r="C663" s="26"/>
       <c r="D663" s="29" t="s">
-        <v>1955</v>
+        <v>1963</v>
       </c>
       <c r="E663" s="29" t="s">
-        <v>1956</v>
+        <v>1964</v>
       </c>
       <c r="F663" s="29" t="s">
-        <v>1957</v>
+        <v>1965</v>
       </c>
       <c r="G663" s="4" t="s">
         <v>4</v>
@@ -41880,20 +41940,20 @@
     </row>
     <row r="664" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="37" t="s">
-        <v>1958</v>
+        <v>1966</v>
       </c>
       <c r="B664" s="37" t="s">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="C664" s="26"/>
       <c r="D664" s="29" t="s">
-        <v>1960</v>
+        <v>1968</v>
       </c>
       <c r="E664" s="29" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="F664" s="29" t="s">
-        <v>1962</v>
+        <v>1970</v>
       </c>
       <c r="G664" s="4" t="s">
         <v>4</v>
@@ -41910,20 +41970,20 @@
     </row>
     <row r="665" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="37" t="s">
-        <v>1963</v>
+        <v>1971</v>
       </c>
       <c r="B665" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C665" s="26"/>
       <c r="D665" s="29" t="s">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="E665" s="29" t="s">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="F665" s="29" t="s">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="G665" s="4" t="s">
         <v>4</v>
@@ -41956,7 +42016,7 @@
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A667" s="49" t="s">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="B667" s="49"/>
       <c r="C667" s="50" t="s">
@@ -41976,20 +42036,20 @@
     </row>
     <row r="668" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="37" t="s">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="B668" s="39" t="s">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="C668" s="26"/>
       <c r="D668" s="15" t="s">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="E668" s="27" t="s">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="F668" s="29" t="s">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="G668" s="4" t="s">
         <v>4</v>
@@ -42008,20 +42068,20 @@
     </row>
     <row r="669" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="37" t="s">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="B669" s="37" t="s">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="C669" s="26"/>
       <c r="D669" s="29" t="s">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="E669" s="29" t="s">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="F669" s="29" t="s">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="G669" s="4" t="s">
         <v>4</v>
@@ -42040,17 +42100,17 @@
     </row>
     <row r="670" spans="1:14" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="37" t="s">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="B670" s="37" t="s">
         <v>417</v>
       </c>
       <c r="C670" s="26"/>
       <c r="D670" s="29" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="E670" s="29" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="F670" s="55"/>
       <c r="G670" s="4"/>
@@ -42066,20 +42126,20 @@
     </row>
     <row r="671" spans="1:14" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="37" t="s">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="B671" s="37" t="s">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="C671" s="26"/>
       <c r="D671" s="29" t="s">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="E671" s="29" t="s">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="F671" s="29" t="s">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="G671" s="4" t="s">
         <v>4</v>
@@ -42096,17 +42156,17 @@
     </row>
     <row r="672" spans="1:14" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="37" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="B672" s="37" t="s">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="C672" s="26"/>
       <c r="D672" s="29" t="s">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="E672" s="29" t="s">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="F672" s="29"/>
       <c r="G672" s="4"/>
@@ -42122,17 +42182,17 @@
     </row>
     <row r="673" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="37" t="s">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="B673" s="37" t="s">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="C673" s="26"/>
       <c r="D673" s="29" t="s">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="E673" s="29" t="s">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="F673" s="29"/>
       <c r="G673" s="4"/>
@@ -42148,17 +42208,17 @@
     </row>
     <row r="674" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="37" t="s">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B674" s="37" t="s">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="C674" s="26"/>
       <c r="D674" s="29" t="s">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E674" s="29" t="s">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="F674" s="29"/>
       <c r="G674" s="4"/>
@@ -42190,7 +42250,7 @@
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A676" s="36" t="s">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B676" s="35"/>
       <c r="C676" s="18"/>
@@ -42208,7 +42268,7 @@
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A677" s="49" t="s">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B677" s="49"/>
       <c r="C677" s="50" t="s">
@@ -42228,20 +42288,20 @@
     </row>
     <row r="678" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="37" t="s">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B678" s="39" t="s">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="C678" s="26"/>
       <c r="D678" s="15" t="s">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="E678" s="27" t="s">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="F678" s="29" t="s">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="G678" s="4" t="s">
         <v>4</v>
@@ -42258,20 +42318,20 @@
     </row>
     <row r="679" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="37" t="s">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="B679" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C679" s="26"/>
       <c r="D679" s="29" t="s">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E679" s="29" t="s">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="F679" s="29" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="G679" s="4" t="s">
         <v>4</v>
@@ -42304,7 +42364,7 @@
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A681" s="49" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B681" s="49"/>
       <c r="C681" s="50" t="s">
@@ -42324,20 +42384,20 @@
     </row>
     <row r="682" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="37" t="s">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="B682" s="39" t="s">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="C682" s="26"/>
       <c r="D682" s="15" t="s">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E682" s="27" t="s">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="F682" s="29" t="s">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="G682" s="4" t="s">
         <v>4</v>
@@ -42354,20 +42414,20 @@
     </row>
     <row r="683" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="37" t="s">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="B683" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C683" s="26"/>
       <c r="D683" s="29" t="s">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="E683" s="29" t="s">
-        <v>2018</v>
+        <v>2026</v>
       </c>
       <c r="F683" s="29" t="s">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="G683" s="4" t="s">
         <v>4</v>
@@ -42400,7 +42460,7 @@
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A685" s="49" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="B685" s="49"/>
       <c r="C685" s="50" t="s">
@@ -42420,20 +42480,20 @@
     </row>
     <row r="686" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="37" t="s">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="B686" s="39" t="s">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="C686" s="26"/>
       <c r="D686" s="15" t="s">
-        <v>2023</v>
+        <v>2031</v>
       </c>
       <c r="E686" s="27" t="s">
-        <v>2024</v>
+        <v>2032</v>
       </c>
       <c r="F686" s="29" t="s">
-        <v>2025</v>
+        <v>2033</v>
       </c>
       <c r="G686" s="4" t="s">
         <v>4</v>
@@ -42450,20 +42510,20 @@
     </row>
     <row r="687" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="37" t="s">
-        <v>2026</v>
+        <v>2034</v>
       </c>
       <c r="B687" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C687" s="26"/>
       <c r="D687" s="29" t="s">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E687" s="29" t="s">
-        <v>2028</v>
+        <v>2036</v>
       </c>
       <c r="F687" s="29" t="s">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="G687" s="4" t="s">
         <v>4</v>
@@ -42496,7 +42556,7 @@
     </row>
     <row r="689" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A689" s="49" t="s">
-        <v>2030</v>
+        <v>2038</v>
       </c>
       <c r="B689" s="49"/>
       <c r="C689" s="50" t="s">
@@ -42516,20 +42576,20 @@
     </row>
     <row r="690" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="37" t="s">
-        <v>2031</v>
+        <v>2039</v>
       </c>
       <c r="B690" s="39" t="s">
-        <v>2032</v>
+        <v>2040</v>
       </c>
       <c r="C690" s="26"/>
       <c r="D690" s="15" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="E690" s="27" t="s">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="F690" s="29" t="s">
-        <v>2035</v>
+        <v>2043</v>
       </c>
       <c r="G690" s="4" t="s">
         <v>4</v>
@@ -42546,20 +42606,20 @@
     </row>
     <row r="691" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="37" t="s">
-        <v>2036</v>
+        <v>2044</v>
       </c>
       <c r="B691" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C691" s="26"/>
       <c r="D691" s="29" t="s">
-        <v>2037</v>
+        <v>2045</v>
       </c>
       <c r="E691" s="29" t="s">
-        <v>2028</v>
+        <v>2036</v>
       </c>
       <c r="F691" s="29" t="s">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="G691" s="4" t="s">
         <v>4</v>
@@ -42592,7 +42652,7 @@
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A693" s="49" t="s">
-        <v>2039</v>
+        <v>2047</v>
       </c>
       <c r="B693" s="49"/>
       <c r="C693" s="50" t="s">
@@ -42612,17 +42672,17 @@
     </row>
     <row r="694" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="37" t="s">
-        <v>2040</v>
+        <v>2048</v>
       </c>
       <c r="B694" s="39" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="C694" s="26"/>
       <c r="D694" s="15" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="E694" s="27" t="s">
-        <v>2043</v>
+        <v>2051</v>
       </c>
       <c r="F694" s="29"/>
       <c r="G694" s="4"/>
@@ -42638,17 +42698,17 @@
     </row>
     <row r="695" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="37" t="s">
-        <v>2044</v>
+        <v>2052</v>
       </c>
       <c r="B695" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C695" s="26"/>
       <c r="D695" s="29" t="s">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="E695" s="29" t="s">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="F695" s="29"/>
       <c r="G695" s="4"/>
@@ -42661,7 +42721,7 @@
       <c r="L695" s="2"/>
       <c r="M695" s="42"/>
       <c r="N695" s="42" t="s">
-        <v>2046</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.3">
@@ -42682,7 +42742,7 @@
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A697" s="49" t="s">
-        <v>2047</v>
+        <v>2055</v>
       </c>
       <c r="B697" s="49"/>
       <c r="C697" s="50" t="s">
@@ -42702,17 +42762,17 @@
     </row>
     <row r="698" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="37" t="s">
-        <v>2048</v>
+        <v>2056</v>
       </c>
       <c r="B698" s="39" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="C698" s="26"/>
       <c r="D698" s="15" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="E698" s="27" t="s">
-        <v>2049</v>
+        <v>2057</v>
       </c>
       <c r="F698" s="29"/>
       <c r="G698" s="4"/>
@@ -42728,17 +42788,17 @@
     </row>
     <row r="699" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="37" t="s">
-        <v>2050</v>
+        <v>2058</v>
       </c>
       <c r="B699" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C699" s="26"/>
       <c r="D699" s="29" t="s">
-        <v>2051</v>
+        <v>2059</v>
       </c>
       <c r="E699" s="29" t="s">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="F699" s="29"/>
       <c r="G699" s="4"/>
@@ -42770,7 +42830,7 @@
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A701" s="49" t="s">
-        <v>2052</v>
+        <v>2060</v>
       </c>
       <c r="B701" s="49"/>
       <c r="C701" s="50" t="s">
@@ -42790,17 +42850,17 @@
     </row>
     <row r="702" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="37" t="s">
-        <v>2053</v>
+        <v>2061</v>
       </c>
       <c r="B702" s="39" t="s">
-        <v>2054</v>
+        <v>2062</v>
       </c>
       <c r="C702" s="26"/>
       <c r="D702" s="15" t="s">
-        <v>2055</v>
+        <v>2063</v>
       </c>
       <c r="E702" s="27" t="s">
-        <v>2056</v>
+        <v>2064</v>
       </c>
       <c r="F702" s="29"/>
       <c r="G702" s="4"/>
@@ -42816,17 +42876,17 @@
     </row>
     <row r="703" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="37" t="s">
-        <v>2057</v>
+        <v>2065</v>
       </c>
       <c r="B703" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C703" s="26"/>
       <c r="D703" s="29" t="s">
-        <v>2058</v>
+        <v>2066</v>
       </c>
       <c r="E703" s="29" t="s">
-        <v>2059</v>
+        <v>2067</v>
       </c>
       <c r="F703" s="29"/>
       <c r="G703" s="4"/>
@@ -42858,7 +42918,7 @@
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A705" s="49" t="s">
-        <v>2060</v>
+        <v>2068</v>
       </c>
       <c r="B705" s="49"/>
       <c r="C705" s="50" t="s">
@@ -42878,17 +42938,17 @@
     </row>
     <row r="706" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="37" t="s">
-        <v>2061</v>
+        <v>2069</v>
       </c>
       <c r="B706" s="39" t="s">
-        <v>2062</v>
+        <v>2070</v>
       </c>
       <c r="C706" s="26"/>
       <c r="D706" s="15" t="s">
-        <v>2063</v>
+        <v>2071</v>
       </c>
       <c r="E706" s="27" t="s">
-        <v>2064</v>
+        <v>2072</v>
       </c>
       <c r="F706" s="29"/>
       <c r="G706" s="4"/>
@@ -42920,7 +42980,7 @@
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A708" s="49" t="s">
-        <v>2065</v>
+        <v>2073</v>
       </c>
       <c r="B708" s="49"/>
       <c r="C708" s="50" t="s">
@@ -42940,17 +43000,17 @@
     </row>
     <row r="709" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="37" t="s">
-        <v>2066</v>
+        <v>2074</v>
       </c>
       <c r="B709" s="39" t="s">
-        <v>2067</v>
+        <v>2075</v>
       </c>
       <c r="C709" s="26"/>
       <c r="D709" s="15" t="s">
-        <v>2055</v>
+        <v>2063</v>
       </c>
       <c r="E709" s="27" t="s">
-        <v>2068</v>
+        <v>2076</v>
       </c>
       <c r="F709" s="29"/>
       <c r="G709" s="4"/>
@@ -42966,17 +43026,17 @@
     </row>
     <row r="710" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="37" t="s">
-        <v>2069</v>
+        <v>2077</v>
       </c>
       <c r="B710" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C710" s="26"/>
       <c r="D710" s="29" t="s">
-        <v>2070</v>
+        <v>2078</v>
       </c>
       <c r="E710" s="29" t="s">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="F710" s="29"/>
       <c r="G710" s="4"/>
@@ -43008,7 +43068,7 @@
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A712" s="49" t="s">
-        <v>2071</v>
+        <v>2079</v>
       </c>
       <c r="B712" s="49"/>
       <c r="C712" s="50" t="s">
@@ -43028,20 +43088,20 @@
     </row>
     <row r="713" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="37" t="s">
-        <v>2072</v>
+        <v>2080</v>
       </c>
       <c r="B713" s="39" t="s">
-        <v>2073</v>
+        <v>2081</v>
       </c>
       <c r="C713" s="26"/>
       <c r="D713" s="15" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="E713" s="27" t="s">
-        <v>2075</v>
+        <v>2083</v>
       </c>
       <c r="F713" s="29" t="s">
-        <v>2076</v>
+        <v>2084</v>
       </c>
       <c r="G713" s="4" t="s">
         <v>4</v>
@@ -43058,20 +43118,20 @@
     </row>
     <row r="714" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="37" t="s">
-        <v>2077</v>
+        <v>2085</v>
       </c>
       <c r="B714" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C714" s="26"/>
       <c r="D714" s="29" t="s">
-        <v>2078</v>
+        <v>2086</v>
       </c>
       <c r="E714" s="29" t="s">
-        <v>2079</v>
+        <v>2087</v>
       </c>
       <c r="F714" s="29" t="s">
-        <v>2080</v>
+        <v>2088</v>
       </c>
       <c r="G714" s="4" t="s">
         <v>4</v>
@@ -43104,7 +43164,7 @@
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A716" s="49" t="s">
-        <v>2081</v>
+        <v>2089</v>
       </c>
       <c r="B716" s="49"/>
       <c r="C716" s="50" t="s">
@@ -43124,20 +43184,20 @@
     </row>
     <row r="717" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="37" t="s">
-        <v>2082</v>
+        <v>2090</v>
       </c>
       <c r="B717" s="39" t="s">
-        <v>2067</v>
+        <v>2075</v>
       </c>
       <c r="C717" s="26"/>
       <c r="D717" s="15" t="s">
-        <v>2083</v>
+        <v>2091</v>
       </c>
       <c r="E717" s="27" t="s">
-        <v>2084</v>
+        <v>2092</v>
       </c>
       <c r="F717" s="29" t="s">
-        <v>2085</v>
+        <v>2093</v>
       </c>
       <c r="G717" s="4" t="s">
         <v>4</v>
@@ -43154,17 +43214,17 @@
     </row>
     <row r="718" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="37" t="s">
-        <v>2086</v>
+        <v>2094</v>
       </c>
       <c r="B718" s="37" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C718" s="26"/>
       <c r="D718" s="29" t="s">
-        <v>2087</v>
+        <v>2095</v>
       </c>
       <c r="E718" s="29" t="s">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="F718" s="29"/>
       <c r="G718" s="4"/>
@@ -43194,7 +43254,7 @@
     </row>
     <row r="720" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A720" s="36" t="s">
-        <v>2088</v>
+        <v>2096</v>
       </c>
       <c r="B720" s="35"/>
       <c r="C720" s="18"/>
@@ -43212,7 +43272,7 @@
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A721" s="49" t="s">
-        <v>2089</v>
+        <v>2097</v>
       </c>
       <c r="B721" s="49"/>
       <c r="C721" s="50" t="s">
@@ -43232,20 +43292,20 @@
     </row>
     <row r="722" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="37" t="s">
-        <v>2090</v>
+        <v>2098</v>
       </c>
       <c r="B722" s="39" t="s">
-        <v>2091</v>
+        <v>2099</v>
       </c>
       <c r="C722" s="26"/>
       <c r="D722" s="15" t="s">
-        <v>2092</v>
+        <v>2100</v>
       </c>
       <c r="E722" s="27" t="s">
-        <v>2093</v>
+        <v>2101</v>
       </c>
       <c r="F722" s="29" t="s">
-        <v>2094</v>
+        <v>2102</v>
       </c>
       <c r="G722" s="4" t="s">
         <v>4</v>
@@ -43264,20 +43324,20 @@
     </row>
     <row r="723" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="37" t="s">
-        <v>2095</v>
+        <v>2103</v>
       </c>
       <c r="B723" s="37" t="s">
-        <v>2096</v>
+        <v>2104</v>
       </c>
       <c r="C723" s="26"/>
       <c r="D723" s="15" t="s">
-        <v>2097</v>
+        <v>2105</v>
       </c>
       <c r="E723" s="29" t="s">
-        <v>2098</v>
+        <v>2106</v>
       </c>
       <c r="F723" s="29" t="s">
-        <v>2099</v>
+        <v>2107</v>
       </c>
       <c r="G723" s="4" t="s">
         <v>4</v>
@@ -43294,17 +43354,17 @@
     </row>
     <row r="724" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="37" t="s">
-        <v>2100</v>
+        <v>2108</v>
       </c>
       <c r="B724" s="37" t="s">
-        <v>2101</v>
+        <v>2109</v>
       </c>
       <c r="C724" s="26"/>
       <c r="D724" s="15" t="s">
-        <v>2102</v>
+        <v>2110</v>
       </c>
       <c r="E724" s="29" t="s">
-        <v>2103</v>
+        <v>2111</v>
       </c>
       <c r="F724" s="29"/>
       <c r="G724" s="4"/>
@@ -43320,17 +43380,17 @@
     </row>
     <row r="725" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="37" t="s">
-        <v>2104</v>
+        <v>2112</v>
       </c>
       <c r="B725" s="37" t="s">
-        <v>2105</v>
+        <v>2113</v>
       </c>
       <c r="C725" s="26"/>
       <c r="D725" s="15" t="s">
-        <v>2106</v>
+        <v>2114</v>
       </c>
       <c r="E725" s="29" t="s">
-        <v>2107</v>
+        <v>2115</v>
       </c>
       <c r="F725" s="29"/>
       <c r="G725" s="4"/>
@@ -43346,17 +43406,17 @@
     </row>
     <row r="726" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="37" t="s">
-        <v>2108</v>
+        <v>2116</v>
       </c>
       <c r="B726" s="37" t="s">
-        <v>2109</v>
+        <v>2117</v>
       </c>
       <c r="C726" s="26"/>
       <c r="D726" s="15" t="s">
-        <v>2110</v>
+        <v>2118</v>
       </c>
       <c r="E726" s="29" t="s">
-        <v>2111</v>
+        <v>2119</v>
       </c>
       <c r="F726" s="29"/>
       <c r="G726" s="4"/>
@@ -43372,17 +43432,17 @@
     </row>
     <row r="727" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="37" t="s">
-        <v>2112</v>
+        <v>2120</v>
       </c>
       <c r="B727" s="37" t="s">
-        <v>2113</v>
+        <v>2121</v>
       </c>
       <c r="C727" s="26"/>
       <c r="D727" s="15" t="s">
-        <v>2114</v>
+        <v>2122</v>
       </c>
       <c r="E727" s="29" t="s">
-        <v>2115</v>
+        <v>2123</v>
       </c>
       <c r="F727" s="29"/>
       <c r="G727" s="4"/>
@@ -43398,17 +43458,17 @@
     </row>
     <row r="728" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="37" t="s">
-        <v>2116</v>
+        <v>2124</v>
       </c>
       <c r="B728" s="37" t="s">
-        <v>2117</v>
+        <v>2125</v>
       </c>
       <c r="C728" s="26"/>
       <c r="D728" s="15" t="s">
-        <v>2118</v>
+        <v>2126</v>
       </c>
       <c r="E728" s="29" t="s">
-        <v>2119</v>
+        <v>2127</v>
       </c>
       <c r="F728" s="29"/>
       <c r="G728" s="4"/>
@@ -43424,17 +43484,17 @@
     </row>
     <row r="729" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="37" t="s">
-        <v>2120</v>
+        <v>2128</v>
       </c>
       <c r="B729" s="37" t="s">
-        <v>2121</v>
+        <v>2129</v>
       </c>
       <c r="C729" s="26"/>
       <c r="D729" s="15" t="s">
-        <v>2122</v>
+        <v>2130</v>
       </c>
       <c r="E729" s="29" t="s">
-        <v>2123</v>
+        <v>2131</v>
       </c>
       <c r="F729" s="29"/>
       <c r="G729" s="4"/>
@@ -43450,17 +43510,17 @@
     </row>
     <row r="730" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="37" t="s">
-        <v>2124</v>
+        <v>2132</v>
       </c>
       <c r="B730" s="37" t="s">
-        <v>2125</v>
+        <v>2133</v>
       </c>
       <c r="C730" s="26"/>
       <c r="D730" s="15" t="s">
-        <v>2126</v>
+        <v>2134</v>
       </c>
       <c r="E730" s="29" t="s">
-        <v>2127</v>
+        <v>2135</v>
       </c>
       <c r="F730" s="29"/>
       <c r="G730" s="4"/>
@@ -43476,17 +43536,17 @@
     </row>
     <row r="731" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="37" t="s">
-        <v>2128</v>
+        <v>2136</v>
       </c>
       <c r="B731" s="37" t="s">
-        <v>2129</v>
+        <v>2137</v>
       </c>
       <c r="C731" s="26"/>
       <c r="D731" s="15" t="s">
-        <v>2130</v>
+        <v>2138</v>
       </c>
       <c r="E731" s="29" t="s">
-        <v>2131</v>
+        <v>2139</v>
       </c>
       <c r="F731" s="29"/>
       <c r="G731" s="4"/>
@@ -43502,17 +43562,17 @@
     </row>
     <row r="732" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="37" t="s">
-        <v>2132</v>
+        <v>2140</v>
       </c>
       <c r="B732" s="37" t="s">
-        <v>2133</v>
+        <v>2141</v>
       </c>
       <c r="C732" s="26"/>
       <c r="D732" s="15" t="s">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="E732" s="29" t="s">
-        <v>2135</v>
+        <v>2143</v>
       </c>
       <c r="F732" s="29"/>
       <c r="G732" s="4"/>
@@ -43528,17 +43588,17 @@
     </row>
     <row r="733" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="37" t="s">
-        <v>2136</v>
+        <v>2144</v>
       </c>
       <c r="B733" s="37" t="s">
-        <v>2137</v>
+        <v>2145</v>
       </c>
       <c r="C733" s="26"/>
       <c r="D733" s="15" t="s">
-        <v>2138</v>
+        <v>2146</v>
       </c>
       <c r="E733" s="29" t="s">
-        <v>2139</v>
+        <v>2147</v>
       </c>
       <c r="F733" s="29"/>
       <c r="G733" s="4"/>
@@ -43554,17 +43614,17 @@
     </row>
     <row r="734" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="37" t="s">
-        <v>2140</v>
+        <v>2148</v>
       </c>
       <c r="B734" s="37" t="s">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="C734" s="26"/>
       <c r="D734" s="15" t="s">
-        <v>2142</v>
+        <v>2150</v>
       </c>
       <c r="E734" s="29" t="s">
-        <v>2143</v>
+        <v>2151</v>
       </c>
       <c r="F734" s="29"/>
       <c r="G734" s="4"/>
@@ -43580,17 +43640,17 @@
     </row>
     <row r="735" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="37" t="s">
-        <v>2144</v>
+        <v>2152</v>
       </c>
       <c r="B735" s="37" t="s">
-        <v>2145</v>
+        <v>2153</v>
       </c>
       <c r="C735" s="26"/>
       <c r="D735" s="15" t="s">
-        <v>2146</v>
+        <v>2154</v>
       </c>
       <c r="E735" s="29" t="s">
-        <v>2147</v>
+        <v>2155</v>
       </c>
       <c r="F735" s="29"/>
       <c r="G735" s="4"/>
@@ -43606,17 +43666,17 @@
     </row>
     <row r="736" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="37" t="s">
-        <v>2148</v>
+        <v>2156</v>
       </c>
       <c r="B736" s="37" t="s">
-        <v>2149</v>
+        <v>2157</v>
       </c>
       <c r="C736" s="26"/>
       <c r="D736" s="29" t="s">
-        <v>2150</v>
+        <v>2158</v>
       </c>
       <c r="E736" s="29" t="s">
-        <v>2151</v>
+        <v>2159</v>
       </c>
       <c r="F736" s="29"/>
       <c r="G736" s="4"/>
@@ -43632,17 +43692,17 @@
     </row>
     <row r="737" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="37" t="s">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="B737" s="37" t="s">
-        <v>2153</v>
+        <v>2161</v>
       </c>
       <c r="C737" s="26"/>
       <c r="D737" s="29" t="s">
-        <v>2154</v>
+        <v>2162</v>
       </c>
       <c r="E737" s="29" t="s">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="F737" s="29"/>
       <c r="G737" s="4"/>
@@ -43658,20 +43718,20 @@
     </row>
     <row r="738" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="37" t="s">
-        <v>2156</v>
+        <v>2164</v>
       </c>
       <c r="B738" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C738" s="26"/>
       <c r="D738" s="29" t="s">
-        <v>2157</v>
+        <v>2165</v>
       </c>
       <c r="E738" s="29" t="s">
-        <v>2158</v>
+        <v>2166</v>
       </c>
       <c r="F738" s="56" t="s">
-        <v>2159</v>
+        <v>2167</v>
       </c>
       <c r="G738" s="4" t="s">
         <v>4</v>
@@ -43685,25 +43745,25 @@
       <c r="L738" s="2"/>
       <c r="M738" s="42"/>
       <c r="N738" s="67" t="s">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="739" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="37" t="s">
-        <v>2161</v>
+        <v>2169</v>
       </c>
       <c r="B739" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C739" s="26"/>
       <c r="D739" s="29" t="s">
-        <v>2162</v>
+        <v>2170</v>
       </c>
       <c r="E739" s="29" t="s">
-        <v>2163</v>
+        <v>2171</v>
       </c>
       <c r="F739" s="29" t="s">
-        <v>2164</v>
+        <v>2172</v>
       </c>
       <c r="G739" s="4" t="s">
         <v>4</v>
@@ -43720,20 +43780,20 @@
     </row>
     <row r="740" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="37" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="B740" s="37" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="C740" s="26"/>
       <c r="D740" s="29" t="s">
-        <v>2167</v>
+        <v>2175</v>
       </c>
       <c r="E740" s="29" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="F740" s="29" t="s">
-        <v>2169</v>
+        <v>2177</v>
       </c>
       <c r="G740" s="4" t="s">
         <v>4</v>
@@ -43750,20 +43810,20 @@
     </row>
     <row r="741" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="37" t="s">
-        <v>2170</v>
+        <v>2178</v>
       </c>
       <c r="B741" s="37" t="s">
         <v>839</v>
       </c>
       <c r="C741" s="26"/>
       <c r="D741" s="29" t="s">
-        <v>2171</v>
+        <v>2179</v>
       </c>
       <c r="E741" s="29" t="s">
-        <v>2172</v>
+        <v>2180</v>
       </c>
       <c r="F741" s="29" t="s">
-        <v>2173</v>
+        <v>2181</v>
       </c>
       <c r="G741" s="4" t="s">
         <v>4</v>
@@ -43780,20 +43840,20 @@
     </row>
     <row r="742" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="37" t="s">
-        <v>2174</v>
+        <v>2182</v>
       </c>
       <c r="B742" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C742" s="26"/>
       <c r="D742" s="29" t="s">
-        <v>2175</v>
+        <v>2183</v>
       </c>
       <c r="E742" s="29" t="s">
-        <v>2176</v>
+        <v>2184</v>
       </c>
       <c r="F742" s="29" t="s">
-        <v>2177</v>
+        <v>2185</v>
       </c>
       <c r="G742" s="4" t="s">
         <v>4</v>
@@ -43825,7 +43885,7 @@
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A744" s="49" t="s">
-        <v>2178</v>
+        <v>2186</v>
       </c>
       <c r="B744" s="49"/>
       <c r="C744" s="50" t="s">
@@ -43845,20 +43905,20 @@
     </row>
     <row r="745" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="37" t="s">
-        <v>2179</v>
+        <v>2187</v>
       </c>
       <c r="B745" s="39" t="s">
-        <v>2180</v>
+        <v>2188</v>
       </c>
       <c r="C745" s="26"/>
       <c r="D745" s="15" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="E745" s="27" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="F745" s="29" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="G745" s="4" t="s">
         <v>4</v>
@@ -43875,17 +43935,17 @@
     </row>
     <row r="746" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="37" t="s">
-        <v>2184</v>
+        <v>2192</v>
       </c>
       <c r="B746" s="37" t="s">
         <v>417</v>
       </c>
       <c r="C746" s="26"/>
       <c r="D746" s="15" t="s">
-        <v>2185</v>
+        <v>2193</v>
       </c>
       <c r="E746" s="29" t="s">
-        <v>2186</v>
+        <v>2194</v>
       </c>
       <c r="F746" s="76"/>
       <c r="G746" s="4"/>
@@ -43901,17 +43961,17 @@
     </row>
     <row r="747" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="37" t="s">
-        <v>2187</v>
+        <v>2195</v>
       </c>
       <c r="B747" s="37" t="s">
-        <v>2188</v>
+        <v>2196</v>
       </c>
       <c r="C747" s="26"/>
       <c r="D747" s="15" t="s">
-        <v>2189</v>
+        <v>2197</v>
       </c>
       <c r="E747" s="29" t="s">
-        <v>2190</v>
+        <v>2198</v>
       </c>
       <c r="F747" s="29"/>
       <c r="G747" s="4"/>
@@ -43927,17 +43987,17 @@
     </row>
     <row r="748" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="37" t="s">
-        <v>2191</v>
+        <v>2199</v>
       </c>
       <c r="B748" s="37" t="s">
-        <v>2192</v>
+        <v>2200</v>
       </c>
       <c r="C748" s="26"/>
       <c r="D748" s="15" t="s">
-        <v>2193</v>
+        <v>2201</v>
       </c>
       <c r="E748" s="29" t="s">
-        <v>2194</v>
+        <v>2202</v>
       </c>
       <c r="F748" s="29"/>
       <c r="G748" s="4" t="s">
@@ -43951,23 +44011,23 @@
       <c r="K748" s="2"/>
       <c r="L748" s="2"/>
       <c r="M748" s="42" t="s">
-        <v>2195</v>
+        <v>2203</v>
       </c>
       <c r="N748" s="42"/>
     </row>
     <row r="749" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="37" t="s">
-        <v>2196</v>
+        <v>2204</v>
       </c>
       <c r="B749" s="37" t="s">
-        <v>2197</v>
+        <v>2205</v>
       </c>
       <c r="C749" s="26"/>
       <c r="D749" s="15" t="s">
-        <v>2198</v>
+        <v>2206</v>
       </c>
       <c r="E749" s="29" t="s">
-        <v>2199</v>
+        <v>2207</v>
       </c>
       <c r="F749" s="29"/>
       <c r="G749" s="4"/>
@@ -43983,17 +44043,17 @@
     </row>
     <row r="750" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="37" t="s">
-        <v>2200</v>
+        <v>2208</v>
       </c>
       <c r="B750" s="37" t="s">
-        <v>2201</v>
+        <v>2209</v>
       </c>
       <c r="C750" s="26"/>
       <c r="D750" s="15" t="s">
-        <v>2202</v>
+        <v>2210</v>
       </c>
       <c r="E750" s="29" t="s">
-        <v>2203</v>
+        <v>2211</v>
       </c>
       <c r="F750" s="29"/>
       <c r="G750" s="4"/>
@@ -44009,17 +44069,17 @@
     </row>
     <row r="751" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="37" t="s">
-        <v>2204</v>
+        <v>2212</v>
       </c>
       <c r="B751" s="37" t="s">
-        <v>2117</v>
+        <v>2125</v>
       </c>
       <c r="C751" s="26"/>
       <c r="D751" s="15" t="s">
-        <v>2205</v>
+        <v>2213</v>
       </c>
       <c r="E751" s="29" t="s">
-        <v>2119</v>
+        <v>2127</v>
       </c>
       <c r="F751" s="29"/>
       <c r="G751" s="4"/>
@@ -44035,17 +44095,17 @@
     </row>
     <row r="752" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="37" t="s">
-        <v>2206</v>
+        <v>2214</v>
       </c>
       <c r="B752" s="37" t="s">
-        <v>2121</v>
+        <v>2129</v>
       </c>
       <c r="C752" s="26"/>
       <c r="D752" s="15" t="s">
-        <v>2207</v>
+        <v>2215</v>
       </c>
       <c r="E752" s="29" t="s">
-        <v>2123</v>
+        <v>2131</v>
       </c>
       <c r="F752" s="29"/>
       <c r="G752" s="4"/>
@@ -44061,17 +44121,17 @@
     </row>
     <row r="753" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="37" t="s">
-        <v>2208</v>
+        <v>2216</v>
       </c>
       <c r="B753" s="37" t="s">
-        <v>2125</v>
+        <v>2133</v>
       </c>
       <c r="C753" s="26"/>
       <c r="D753" s="15" t="s">
-        <v>2209</v>
+        <v>2217</v>
       </c>
       <c r="E753" s="29" t="s">
-        <v>2127</v>
+        <v>2135</v>
       </c>
       <c r="F753" s="29"/>
       <c r="G753" s="4"/>
@@ -44087,17 +44147,17 @@
     </row>
     <row r="754" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="37" t="s">
-        <v>2210</v>
+        <v>2218</v>
       </c>
       <c r="B754" s="37" t="s">
-        <v>2129</v>
+        <v>2137</v>
       </c>
       <c r="C754" s="26"/>
       <c r="D754" s="15" t="s">
-        <v>2211</v>
+        <v>2219</v>
       </c>
       <c r="E754" s="29" t="s">
-        <v>2131</v>
+        <v>2139</v>
       </c>
       <c r="F754" s="29"/>
       <c r="G754" s="4"/>
@@ -44113,17 +44173,17 @@
     </row>
     <row r="755" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="37" t="s">
-        <v>2212</v>
+        <v>2220</v>
       </c>
       <c r="B755" s="37" t="s">
-        <v>2213</v>
+        <v>2221</v>
       </c>
       <c r="C755" s="26"/>
       <c r="D755" s="15" t="s">
-        <v>2214</v>
+        <v>2222</v>
       </c>
       <c r="E755" s="29" t="s">
-        <v>2215</v>
+        <v>2223</v>
       </c>
       <c r="F755" s="29"/>
       <c r="G755" s="4"/>
@@ -44139,17 +44199,17 @@
     </row>
     <row r="756" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="37" t="s">
-        <v>2216</v>
+        <v>2224</v>
       </c>
       <c r="B756" s="37" t="s">
-        <v>2217</v>
+        <v>2225</v>
       </c>
       <c r="C756" s="26"/>
       <c r="D756" s="15" t="s">
-        <v>2218</v>
+        <v>2226</v>
       </c>
       <c r="E756" s="29" t="s">
-        <v>2219</v>
+        <v>2227</v>
       </c>
       <c r="F756" s="29"/>
       <c r="G756" s="4"/>
@@ -44165,17 +44225,17 @@
     </row>
     <row r="757" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="37" t="s">
-        <v>2220</v>
+        <v>2228</v>
       </c>
       <c r="B757" s="37" t="s">
-        <v>2221</v>
+        <v>2229</v>
       </c>
       <c r="C757" s="26"/>
       <c r="D757" s="15" t="s">
-        <v>2222</v>
+        <v>2230</v>
       </c>
       <c r="E757" s="29" t="s">
-        <v>2223</v>
+        <v>2231</v>
       </c>
       <c r="F757" s="29"/>
       <c r="G757" s="4"/>
@@ -44188,22 +44248,22 @@
       <c r="L757" s="2"/>
       <c r="M757" s="42"/>
       <c r="N757" s="45" t="s">
-        <v>2224</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="758" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="37" t="s">
-        <v>2225</v>
+        <v>2233</v>
       </c>
       <c r="B758" s="37" t="s">
-        <v>2226</v>
+        <v>2234</v>
       </c>
       <c r="C758" s="26"/>
       <c r="D758" s="15" t="s">
-        <v>2227</v>
+        <v>2235</v>
       </c>
       <c r="E758" s="29" t="s">
-        <v>2228</v>
+        <v>2236</v>
       </c>
       <c r="F758" s="29"/>
       <c r="G758" s="4"/>
@@ -44219,17 +44279,17 @@
     </row>
     <row r="759" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="37" t="s">
-        <v>2229</v>
+        <v>2237</v>
       </c>
       <c r="B759" s="37" t="s">
-        <v>2230</v>
+        <v>2238</v>
       </c>
       <c r="C759" s="26"/>
       <c r="D759" s="15" t="s">
-        <v>2231</v>
+        <v>2239</v>
       </c>
       <c r="E759" s="29" t="s">
-        <v>2232</v>
+        <v>2240</v>
       </c>
       <c r="F759" s="29"/>
       <c r="G759" s="4"/>
@@ -44245,17 +44305,17 @@
     </row>
     <row r="760" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="37" t="s">
-        <v>2233</v>
+        <v>2241</v>
       </c>
       <c r="B760" s="37" t="s">
-        <v>2234</v>
+        <v>2242</v>
       </c>
       <c r="C760" s="26"/>
       <c r="D760" s="15" t="s">
-        <v>2235</v>
+        <v>2243</v>
       </c>
       <c r="E760" s="29" t="s">
-        <v>2236</v>
+        <v>2244</v>
       </c>
       <c r="F760" s="29"/>
       <c r="G760" s="4"/>
@@ -44271,17 +44331,17 @@
     </row>
     <row r="761" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="37" t="s">
-        <v>2237</v>
+        <v>2245</v>
       </c>
       <c r="B761" s="37" t="s">
-        <v>2149</v>
+        <v>2157</v>
       </c>
       <c r="C761" s="26"/>
       <c r="D761" s="29" t="s">
-        <v>2238</v>
+        <v>2246</v>
       </c>
       <c r="E761" s="29" t="s">
-        <v>2239</v>
+        <v>2247</v>
       </c>
       <c r="F761" s="29"/>
       <c r="G761" s="4"/>
@@ -44297,17 +44357,17 @@
     </row>
     <row r="762" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="37" t="s">
-        <v>2240</v>
+        <v>2248</v>
       </c>
       <c r="B762" s="37" t="s">
-        <v>2153</v>
+        <v>2161</v>
       </c>
       <c r="C762" s="26"/>
       <c r="D762" s="15" t="s">
-        <v>2241</v>
+        <v>2249</v>
       </c>
       <c r="E762" s="29" t="s">
-        <v>2242</v>
+        <v>2250</v>
       </c>
       <c r="F762" s="29"/>
       <c r="G762" s="4"/>
@@ -44323,17 +44383,17 @@
     </row>
     <row r="763" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="37" t="s">
-        <v>2243</v>
+        <v>2251</v>
       </c>
       <c r="B763" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C763" s="26"/>
       <c r="D763" s="29" t="s">
-        <v>2244</v>
+        <v>2252</v>
       </c>
       <c r="E763" s="29" t="s">
-        <v>2245</v>
+        <v>2253</v>
       </c>
       <c r="F763" s="29"/>
       <c r="G763" s="4"/>
@@ -44346,22 +44406,22 @@
       <c r="L763" s="2"/>
       <c r="M763" s="42"/>
       <c r="N763" s="42" t="s">
-        <v>2246</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="764" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="37" t="s">
-        <v>2247</v>
+        <v>2255</v>
       </c>
       <c r="B764" s="37" t="s">
-        <v>2248</v>
+        <v>2256</v>
       </c>
       <c r="C764" s="26"/>
       <c r="D764" s="29" t="s">
-        <v>2249</v>
+        <v>2257</v>
       </c>
       <c r="E764" s="29" t="s">
-        <v>2250</v>
+        <v>2258</v>
       </c>
       <c r="F764" s="29"/>
       <c r="G764" s="4"/>
@@ -44377,17 +44437,17 @@
     </row>
     <row r="765" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="37" t="s">
-        <v>2251</v>
+        <v>2259</v>
       </c>
       <c r="B765" s="37" t="s">
         <v>839</v>
       </c>
       <c r="C765" s="26"/>
       <c r="D765" s="29" t="s">
-        <v>2252</v>
+        <v>2260</v>
       </c>
       <c r="E765" s="29" t="s">
-        <v>2253</v>
+        <v>2261</v>
       </c>
       <c r="F765" s="29"/>
       <c r="G765" s="4"/>
@@ -44403,17 +44463,17 @@
     </row>
     <row r="766" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="37" t="s">
-        <v>2254</v>
+        <v>2262</v>
       </c>
       <c r="B766" s="37" t="s">
         <v>905</v>
       </c>
       <c r="C766" s="26"/>
       <c r="D766" s="29" t="s">
-        <v>2255</v>
+        <v>2263</v>
       </c>
       <c r="E766" s="29" t="s">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="F766" s="29"/>
       <c r="G766" s="4"/>
@@ -44429,17 +44489,17 @@
     </row>
     <row r="767" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="37" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="B767" s="37" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="C767" s="26"/>
       <c r="D767" s="29" t="s">
-        <v>2258</v>
+        <v>2266</v>
       </c>
       <c r="E767" s="29" t="s">
-        <v>2259</v>
+        <v>2267</v>
       </c>
       <c r="F767" s="29"/>
       <c r="G767" s="4"/>
@@ -44455,17 +44515,17 @@
     </row>
     <row r="768" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="37" t="s">
-        <v>2260</v>
+        <v>2268</v>
       </c>
       <c r="B768" s="37" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="C768" s="26"/>
       <c r="D768" s="29" t="s">
-        <v>2258</v>
+        <v>2266</v>
       </c>
       <c r="E768" s="29" t="s">
-        <v>2261</v>
+        <v>2269</v>
       </c>
       <c r="F768" s="29"/>
       <c r="G768" s="4"/>
@@ -44481,17 +44541,17 @@
     </row>
     <row r="769" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="37" t="s">
-        <v>2262</v>
+        <v>2270</v>
       </c>
       <c r="B769" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C769" s="26"/>
       <c r="D769" s="29" t="s">
-        <v>2263</v>
+        <v>2271</v>
       </c>
       <c r="E769" s="29" t="s">
-        <v>2264</v>
+        <v>2272</v>
       </c>
       <c r="F769" s="29"/>
       <c r="G769" s="4"/>
@@ -44523,7 +44583,7 @@
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A771" s="36" t="s">
-        <v>2265</v>
+        <v>2273</v>
       </c>
       <c r="B771" s="35"/>
       <c r="C771" s="18"/>
@@ -44541,7 +44601,7 @@
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A772" s="49" t="s">
-        <v>2266</v>
+        <v>2274</v>
       </c>
       <c r="B772" s="49"/>
       <c r="C772" s="50" t="s">
@@ -44561,20 +44621,20 @@
     </row>
     <row r="773" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="37" t="s">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="B773" s="39" t="s">
-        <v>2268</v>
+        <v>2276</v>
       </c>
       <c r="C773" s="26"/>
       <c r="D773" s="15" t="s">
-        <v>2269</v>
+        <v>2277</v>
       </c>
       <c r="E773" s="27" t="s">
-        <v>2270</v>
+        <v>2278</v>
       </c>
       <c r="F773" s="29" t="s">
-        <v>2271</v>
+        <v>2279</v>
       </c>
       <c r="G773" s="4" t="s">
         <v>4</v>
@@ -44593,17 +44653,17 @@
     </row>
     <row r="774" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="37" t="s">
-        <v>2272</v>
+        <v>2280</v>
       </c>
       <c r="B774" s="37" t="s">
-        <v>2273</v>
+        <v>2281</v>
       </c>
       <c r="C774" s="26"/>
       <c r="D774" s="15" t="s">
-        <v>2274</v>
+        <v>2282</v>
       </c>
       <c r="E774" s="29" t="s">
-        <v>2275</v>
+        <v>2283</v>
       </c>
       <c r="F774" s="29"/>
       <c r="G774" s="4"/>
@@ -44619,14 +44679,14 @@
     </row>
     <row r="775" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="37" t="s">
-        <v>2276</v>
+        <v>2284</v>
       </c>
       <c r="B775" s="37" t="s">
         <v>758</v>
       </c>
       <c r="C775" s="26"/>
       <c r="D775" s="15" t="s">
-        <v>2277</v>
+        <v>2285</v>
       </c>
       <c r="E775" s="15" t="s">
         <v>153</v>
@@ -44645,20 +44705,20 @@
     </row>
     <row r="776" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="37" t="s">
-        <v>2278</v>
+        <v>2286</v>
       </c>
       <c r="B776" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C776" s="26"/>
       <c r="D776" s="29" t="s">
-        <v>2279</v>
+        <v>2287</v>
       </c>
       <c r="E776" s="29" t="s">
-        <v>2280</v>
+        <v>2288</v>
       </c>
       <c r="F776" s="29" t="s">
-        <v>2281</v>
+        <v>2289</v>
       </c>
       <c r="G776" s="4" t="s">
         <v>4</v>
@@ -44677,17 +44737,17 @@
     </row>
     <row r="777" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="37" t="s">
-        <v>2282</v>
+        <v>2290</v>
       </c>
       <c r="B777" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C777" s="26"/>
       <c r="D777" s="29" t="s">
-        <v>2283</v>
+        <v>2291</v>
       </c>
       <c r="E777" s="29" t="s">
-        <v>2280</v>
+        <v>2288</v>
       </c>
       <c r="F777" s="29"/>
       <c r="G777" s="4"/>
@@ -44703,20 +44763,20 @@
     </row>
     <row r="778" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="37" t="s">
-        <v>2284</v>
+        <v>2292</v>
       </c>
       <c r="B778" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C778" s="26"/>
       <c r="D778" s="29" t="s">
-        <v>2285</v>
+        <v>2293</v>
       </c>
       <c r="E778" s="29" t="s">
-        <v>2286</v>
+        <v>2294</v>
       </c>
       <c r="F778" s="29" t="s">
-        <v>2287</v>
+        <v>2295</v>
       </c>
       <c r="G778" s="4" t="s">
         <v>4</v>
@@ -44751,7 +44811,7 @@
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A780" s="49" t="s">
-        <v>2288</v>
+        <v>2296</v>
       </c>
       <c r="B780" s="49"/>
       <c r="C780" s="50" t="s">
@@ -44771,20 +44831,20 @@
     </row>
     <row r="781" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="37" t="s">
-        <v>2289</v>
+        <v>2297</v>
       </c>
       <c r="B781" s="39" t="s">
-        <v>2290</v>
+        <v>2298</v>
       </c>
       <c r="C781" s="26"/>
       <c r="D781" s="15" t="s">
-        <v>2291</v>
+        <v>2299</v>
       </c>
       <c r="E781" s="27" t="s">
-        <v>2292</v>
+        <v>2300</v>
       </c>
       <c r="F781" s="29" t="s">
-        <v>2293</v>
+        <v>2301</v>
       </c>
       <c r="G781" s="4" t="s">
         <v>4</v>
@@ -44803,17 +44863,17 @@
     </row>
     <row r="782" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="37" t="s">
-        <v>2294</v>
+        <v>2302</v>
       </c>
       <c r="B782" s="37" t="s">
-        <v>2295</v>
+        <v>2303</v>
       </c>
       <c r="C782" s="26"/>
       <c r="D782" s="15" t="s">
-        <v>2296</v>
+        <v>2304</v>
       </c>
       <c r="E782" s="29" t="s">
-        <v>2297</v>
+        <v>2305</v>
       </c>
       <c r="F782" s="29"/>
       <c r="G782" s="4"/>
@@ -44829,20 +44889,20 @@
     </row>
     <row r="783" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="37" t="s">
-        <v>2298</v>
+        <v>2306</v>
       </c>
       <c r="B783" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C783" s="26"/>
       <c r="D783" s="29" t="s">
-        <v>2299</v>
+        <v>2307</v>
       </c>
       <c r="E783" s="29" t="s">
-        <v>2300</v>
+        <v>2308</v>
       </c>
       <c r="F783" s="29" t="s">
-        <v>2301</v>
+        <v>2309</v>
       </c>
       <c r="G783" s="4" t="s">
         <v>4</v>
@@ -44861,17 +44921,17 @@
     </row>
     <row r="784" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="37" t="s">
-        <v>2302</v>
+        <v>2310</v>
       </c>
       <c r="B784" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C784" s="26"/>
       <c r="D784" s="29" t="s">
-        <v>2303</v>
+        <v>2311</v>
       </c>
       <c r="E784" s="29" t="s">
-        <v>2300</v>
+        <v>2308</v>
       </c>
       <c r="F784" s="29"/>
       <c r="G784" s="4"/>
@@ -44887,20 +44947,20 @@
     </row>
     <row r="785" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="37" t="s">
-        <v>2304</v>
+        <v>2312</v>
       </c>
       <c r="B785" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C785" s="26"/>
       <c r="D785" s="29" t="s">
-        <v>2305</v>
+        <v>2313</v>
       </c>
       <c r="E785" s="29" t="s">
-        <v>2306</v>
+        <v>2314</v>
       </c>
       <c r="F785" s="29" t="s">
-        <v>2307</v>
+        <v>2315</v>
       </c>
       <c r="G785" s="4" t="s">
         <v>4</v>
@@ -44934,7 +44994,7 @@
     </row>
     <row r="787" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A787" s="49" t="s">
-        <v>2308</v>
+        <v>2316</v>
       </c>
       <c r="B787" s="49"/>
       <c r="C787" s="50" t="s">
@@ -44954,20 +45014,20 @@
     </row>
     <row r="788" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="37" t="s">
-        <v>2309</v>
+        <v>2317</v>
       </c>
       <c r="B788" s="39" t="s">
-        <v>2290</v>
+        <v>2298</v>
       </c>
       <c r="C788" s="26"/>
       <c r="D788" s="15" t="s">
-        <v>2310</v>
+        <v>2318</v>
       </c>
       <c r="E788" s="27" t="s">
-        <v>2311</v>
+        <v>2319</v>
       </c>
       <c r="F788" s="29" t="s">
-        <v>2312</v>
+        <v>2320</v>
       </c>
       <c r="G788" s="4" t="s">
         <v>4</v>
@@ -44986,17 +45046,17 @@
     </row>
     <row r="789" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="37" t="s">
-        <v>2313</v>
+        <v>2321</v>
       </c>
       <c r="B789" s="37" t="s">
-        <v>2314</v>
+        <v>2322</v>
       </c>
       <c r="C789" s="26"/>
       <c r="D789" s="15" t="s">
-        <v>2315</v>
+        <v>2323</v>
       </c>
       <c r="E789" s="29" t="s">
-        <v>2316</v>
+        <v>2324</v>
       </c>
       <c r="F789" s="29"/>
       <c r="G789" s="4"/>
@@ -45012,17 +45072,17 @@
     </row>
     <row r="790" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="37" t="s">
-        <v>2317</v>
+        <v>2325</v>
       </c>
       <c r="B790" s="37" t="s">
-        <v>2318</v>
+        <v>2326</v>
       </c>
       <c r="C790" s="26"/>
       <c r="D790" s="15" t="s">
-        <v>2319</v>
+        <v>2327</v>
       </c>
       <c r="E790" s="29" t="s">
-        <v>2320</v>
+        <v>2328</v>
       </c>
       <c r="F790" s="29"/>
       <c r="G790" s="4"/>
@@ -45038,17 +45098,17 @@
     </row>
     <row r="791" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="37" t="s">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="B791" s="37" t="s">
-        <v>2322</v>
+        <v>2330</v>
       </c>
       <c r="C791" s="26"/>
       <c r="D791" s="15" t="s">
-        <v>2323</v>
+        <v>2331</v>
       </c>
       <c r="E791" s="29" t="s">
-        <v>2324</v>
+        <v>2332</v>
       </c>
       <c r="F791" s="29"/>
       <c r="G791" s="4"/>
@@ -45064,14 +45124,14 @@
     </row>
     <row r="792" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="37" t="s">
-        <v>2325</v>
+        <v>2333</v>
       </c>
       <c r="B792" s="37" t="s">
         <v>758</v>
       </c>
       <c r="C792" s="26"/>
       <c r="D792" s="15" t="s">
-        <v>2326</v>
+        <v>2334</v>
       </c>
       <c r="E792" s="15" t="s">
         <v>153</v>
@@ -45090,20 +45150,20 @@
     </row>
     <row r="793" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="37" t="s">
-        <v>2327</v>
+        <v>2335</v>
       </c>
       <c r="B793" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C793" s="26"/>
       <c r="D793" s="15" t="s">
-        <v>2328</v>
+        <v>2336</v>
       </c>
       <c r="E793" s="29" t="s">
-        <v>2329</v>
+        <v>2337</v>
       </c>
       <c r="F793" s="29" t="s">
-        <v>2330</v>
+        <v>2338</v>
       </c>
       <c r="G793" s="4" t="s">
         <v>4</v>
@@ -45122,17 +45182,17 @@
     </row>
     <row r="794" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="37" t="s">
-        <v>2331</v>
+        <v>2339</v>
       </c>
       <c r="B794" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C794" s="26"/>
       <c r="D794" s="29" t="s">
-        <v>2332</v>
+        <v>2340</v>
       </c>
       <c r="E794" s="29" t="s">
-        <v>2329</v>
+        <v>2337</v>
       </c>
       <c r="F794" s="29"/>
       <c r="G794" s="4"/>
@@ -45148,20 +45208,20 @@
     </row>
     <row r="795" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="37" t="s">
-        <v>2333</v>
+        <v>2341</v>
       </c>
       <c r="B795" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C795" s="26"/>
       <c r="D795" s="29" t="s">
-        <v>2334</v>
+        <v>2342</v>
       </c>
       <c r="E795" s="29" t="s">
-        <v>2335</v>
+        <v>2343</v>
       </c>
       <c r="F795" s="29" t="s">
-        <v>2336</v>
+        <v>2344</v>
       </c>
       <c r="G795" s="4" t="s">
         <v>4</v>
@@ -45195,7 +45255,7 @@
     </row>
     <row r="797" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A797" s="49" t="s">
-        <v>2337</v>
+        <v>2345</v>
       </c>
       <c r="B797" s="49"/>
       <c r="C797" s="50" t="s">
@@ -45215,20 +45275,20 @@
     </row>
     <row r="798" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="37" t="s">
-        <v>2338</v>
+        <v>2346</v>
       </c>
       <c r="B798" s="39" t="s">
-        <v>2290</v>
+        <v>2298</v>
       </c>
       <c r="C798" s="26"/>
       <c r="D798" s="15" t="s">
-        <v>2339</v>
+        <v>2347</v>
       </c>
       <c r="E798" s="27" t="s">
-        <v>2340</v>
+        <v>2348</v>
       </c>
       <c r="F798" s="29" t="s">
-        <v>2341</v>
+        <v>2349</v>
       </c>
       <c r="G798" s="4" t="s">
         <v>4</v>
@@ -45247,17 +45307,17 @@
     </row>
     <row r="799" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="37" t="s">
-        <v>2342</v>
+        <v>2350</v>
       </c>
       <c r="B799" s="37" t="s">
-        <v>2343</v>
+        <v>2351</v>
       </c>
       <c r="C799" s="26"/>
       <c r="D799" s="15" t="s">
-        <v>2344</v>
+        <v>2352</v>
       </c>
       <c r="E799" s="29" t="s">
-        <v>2345</v>
+        <v>2353</v>
       </c>
       <c r="F799" s="29"/>
       <c r="G799" s="4"/>
@@ -45275,20 +45335,20 @@
     </row>
     <row r="800" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="37" t="s">
-        <v>2346</v>
+        <v>2354</v>
       </c>
       <c r="B800" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C800" s="26"/>
       <c r="D800" s="29" t="s">
-        <v>2347</v>
+        <v>2355</v>
       </c>
       <c r="E800" s="29" t="s">
-        <v>2348</v>
+        <v>2356</v>
       </c>
       <c r="F800" s="29" t="s">
-        <v>2349</v>
+        <v>2357</v>
       </c>
       <c r="G800" s="4" t="s">
         <v>4</v>
@@ -45307,17 +45367,17 @@
     </row>
     <row r="801" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="37" t="s">
-        <v>2350</v>
+        <v>2358</v>
       </c>
       <c r="B801" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C801" s="26"/>
       <c r="D801" s="29" t="s">
-        <v>2351</v>
+        <v>2359</v>
       </c>
       <c r="E801" s="29" t="s">
-        <v>2348</v>
+        <v>2356</v>
       </c>
       <c r="F801" s="29"/>
       <c r="G801" s="4"/>
@@ -45333,20 +45393,20 @@
     </row>
     <row r="802" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="37" t="s">
-        <v>2352</v>
+        <v>2360</v>
       </c>
       <c r="B802" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C802" s="26"/>
       <c r="D802" s="29" t="s">
-        <v>2353</v>
+        <v>2361</v>
       </c>
       <c r="E802" s="29" t="s">
-        <v>2354</v>
+        <v>2362</v>
       </c>
       <c r="F802" s="29" t="s">
-        <v>2355</v>
+        <v>2363</v>
       </c>
       <c r="G802" s="4" t="s">
         <v>4</v>
@@ -45381,7 +45441,7 @@
     </row>
     <row r="804" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="34" t="s">
-        <v>2356</v>
+        <v>2364</v>
       </c>
       <c r="B804" s="38"/>
       <c r="C804" s="17"/>
@@ -45399,7 +45459,7 @@
     </row>
     <row r="805" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A805" s="49" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
       <c r="B805" s="49"/>
       <c r="C805" s="50" t="s">
@@ -45419,17 +45479,17 @@
     </row>
     <row r="806" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="37" t="s">
-        <v>2358</v>
+        <v>2366</v>
       </c>
       <c r="B806" s="39" t="s">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="C806" s="26"/>
       <c r="D806" s="15" t="s">
-        <v>2360</v>
+        <v>2368</v>
       </c>
       <c r="E806" s="27" t="s">
-        <v>2361</v>
+        <v>2369</v>
       </c>
       <c r="F806" s="29"/>
       <c r="G806" s="4"/>
@@ -45445,14 +45505,14 @@
     </row>
     <row r="807" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="37" t="s">
-        <v>2362</v>
+        <v>2370</v>
       </c>
       <c r="B807" s="37" t="s">
         <v>992</v>
       </c>
       <c r="C807" s="26"/>
       <c r="D807" s="29" t="s">
-        <v>2363</v>
+        <v>2371</v>
       </c>
       <c r="E807" s="29" t="s">
         <v>1728</v>
@@ -45471,17 +45531,17 @@
     </row>
     <row r="808" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="37" t="s">
-        <v>2364</v>
+        <v>2372</v>
       </c>
       <c r="B808" s="37" t="s">
         <v>758</v>
       </c>
       <c r="C808" s="26"/>
       <c r="D808" s="15" t="s">
-        <v>2365</v>
+        <v>2373</v>
       </c>
       <c r="E808" s="15" t="s">
-        <v>2366</v>
+        <v>2374</v>
       </c>
       <c r="F808" s="29"/>
       <c r="G808" s="4"/>
@@ -45512,7 +45572,7 @@
     </row>
     <row r="810" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A810" s="49" t="s">
-        <v>2367</v>
+        <v>2375</v>
       </c>
       <c r="B810" s="49"/>
       <c r="C810" s="50" t="s">
@@ -45532,17 +45592,17 @@
     </row>
     <row r="811" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="37" t="s">
-        <v>2368</v>
+        <v>2376</v>
       </c>
       <c r="B811" s="39" t="s">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="C811" s="26"/>
       <c r="D811" s="15" t="s">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="E811" s="27" t="s">
-        <v>2370</v>
+        <v>2378</v>
       </c>
       <c r="F811" s="29"/>
       <c r="G811" s="4"/>
@@ -45558,14 +45618,14 @@
     </row>
     <row r="812" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="37" t="s">
-        <v>2371</v>
+        <v>2379</v>
       </c>
       <c r="B812" s="37" t="s">
         <v>992</v>
       </c>
       <c r="C812" s="26"/>
       <c r="D812" s="29" t="s">
-        <v>2372</v>
+        <v>2380</v>
       </c>
       <c r="E812" s="29" t="s">
         <v>1728</v>
@@ -45584,14 +45644,14 @@
     </row>
     <row r="813" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="37" t="s">
-        <v>2373</v>
+        <v>2381</v>
       </c>
       <c r="B813" s="37" t="s">
         <v>758</v>
       </c>
       <c r="C813" s="26"/>
       <c r="D813" s="15" t="s">
-        <v>2374</v>
+        <v>2382</v>
       </c>
       <c r="E813" s="15" t="s">
         <v>153</v>
@@ -45626,7 +45686,7 @@
     </row>
     <row r="815" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="34" t="s">
-        <v>2375</v>
+        <v>2383</v>
       </c>
       <c r="B815" s="38"/>
       <c r="C815" s="17"/>
@@ -45644,7 +45704,7 @@
     </row>
     <row r="816" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="36" t="s">
-        <v>2376</v>
+        <v>2384</v>
       </c>
       <c r="B816" s="35"/>
       <c r="C816" s="18" t="s">
@@ -45664,20 +45724,20 @@
     </row>
     <row r="817" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="37" t="s">
-        <v>2377</v>
+        <v>2385</v>
       </c>
       <c r="B817" s="39" t="s">
-        <v>2378</v>
+        <v>2386</v>
       </c>
       <c r="C817" s="26"/>
       <c r="D817" s="15" t="s">
-        <v>2379</v>
+        <v>2387</v>
       </c>
       <c r="E817" s="27" t="s">
-        <v>2380</v>
+        <v>2388</v>
       </c>
       <c r="F817" s="29" t="s">
-        <v>2381</v>
+        <v>2389</v>
       </c>
       <c r="G817" s="4" t="s">
         <v>4</v>
@@ -45696,17 +45756,17 @@
     </row>
     <row r="818" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="37" t="s">
-        <v>2382</v>
+        <v>2390</v>
       </c>
       <c r="B818" s="37" t="s">
-        <v>2383</v>
+        <v>2391</v>
       </c>
       <c r="C818" s="26"/>
       <c r="D818" s="29" t="s">
-        <v>2384</v>
+        <v>2392</v>
       </c>
       <c r="E818" s="29" t="s">
-        <v>2385</v>
+        <v>2393</v>
       </c>
       <c r="F818" s="29"/>
       <c r="G818" s="4"/>
@@ -45722,17 +45782,17 @@
     </row>
     <row r="819" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="37" t="s">
-        <v>2386</v>
+        <v>2394</v>
       </c>
       <c r="B819" s="37" t="s">
-        <v>2387</v>
+        <v>2395</v>
       </c>
       <c r="C819" s="26"/>
       <c r="D819" s="29" t="s">
-        <v>2388</v>
+        <v>2396</v>
       </c>
       <c r="E819" s="29" t="s">
-        <v>2389</v>
+        <v>2397</v>
       </c>
       <c r="F819" s="29"/>
       <c r="G819" s="4"/>
@@ -45748,20 +45808,20 @@
     </row>
     <row r="820" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="37" t="s">
-        <v>2390</v>
+        <v>2398</v>
       </c>
       <c r="B820" s="37" t="s">
-        <v>2391</v>
+        <v>2399</v>
       </c>
       <c r="C820" s="26"/>
       <c r="D820" s="29" t="s">
-        <v>2392</v>
+        <v>2400</v>
       </c>
       <c r="E820" s="29" t="s">
-        <v>2393</v>
+        <v>2401</v>
       </c>
       <c r="F820" s="29" t="s">
-        <v>2394</v>
+        <v>2402</v>
       </c>
       <c r="G820" s="4" t="s">
         <v>4</v>
@@ -45778,17 +45838,17 @@
     </row>
     <row r="821" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="37" t="s">
-        <v>2395</v>
+        <v>2403</v>
       </c>
       <c r="B821" s="37" t="s">
-        <v>2396</v>
+        <v>2404</v>
       </c>
       <c r="C821" s="26"/>
       <c r="D821" s="29" t="s">
-        <v>2397</v>
+        <v>2405</v>
       </c>
       <c r="E821" s="29" t="s">
-        <v>2398</v>
+        <v>2406</v>
       </c>
       <c r="F821" s="29"/>
       <c r="G821" s="4"/>
@@ -45801,22 +45861,22 @@
       <c r="L821" s="2"/>
       <c r="M821" s="42"/>
       <c r="N821" s="42" t="s">
-        <v>2399</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="822" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="37" t="s">
-        <v>2400</v>
+        <v>2408</v>
       </c>
       <c r="B822" s="37" t="s">
-        <v>2401</v>
+        <v>2409</v>
       </c>
       <c r="C822" s="26"/>
       <c r="D822" s="29" t="s">
-        <v>2402</v>
+        <v>2410</v>
       </c>
       <c r="E822" s="29" t="s">
-        <v>2403</v>
+        <v>2411</v>
       </c>
       <c r="F822" s="29"/>
       <c r="G822" s="4"/>
@@ -45832,17 +45892,17 @@
     </row>
     <row r="823" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="37" t="s">
-        <v>2404</v>
+        <v>2412</v>
       </c>
       <c r="B823" s="37" t="s">
-        <v>2405</v>
+        <v>2413</v>
       </c>
       <c r="C823" s="26"/>
       <c r="D823" s="29" t="s">
-        <v>2402</v>
+        <v>2410</v>
       </c>
       <c r="E823" s="29" t="s">
-        <v>2406</v>
+        <v>2414</v>
       </c>
       <c r="F823" s="29"/>
       <c r="G823" s="4"/>
@@ -45858,17 +45918,17 @@
     </row>
     <row r="824" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="37" t="s">
-        <v>2407</v>
+        <v>2415</v>
       </c>
       <c r="B824" s="37" t="s">
-        <v>2408</v>
+        <v>2416</v>
       </c>
       <c r="C824" s="26"/>
       <c r="D824" s="29" t="s">
-        <v>2409</v>
+        <v>2417</v>
       </c>
       <c r="E824" s="29" t="s">
-        <v>2410</v>
+        <v>2418</v>
       </c>
       <c r="F824" s="29"/>
       <c r="G824" s="4"/>
@@ -45884,17 +45944,17 @@
     </row>
     <row r="825" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="37" t="s">
-        <v>2411</v>
+        <v>2419</v>
       </c>
       <c r="B825" s="37" t="s">
-        <v>2412</v>
+        <v>2420</v>
       </c>
       <c r="C825" s="26"/>
       <c r="D825" s="29" t="s">
-        <v>2413</v>
+        <v>2421</v>
       </c>
       <c r="E825" s="29" t="s">
-        <v>2414</v>
+        <v>2422</v>
       </c>
       <c r="F825" s="29"/>
       <c r="G825" s="4"/>
@@ -45910,17 +45970,17 @@
     </row>
     <row r="826" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="37" t="s">
-        <v>2415</v>
+        <v>2423</v>
       </c>
       <c r="B826" s="37" t="s">
-        <v>2416</v>
+        <v>2424</v>
       </c>
       <c r="C826" s="26"/>
       <c r="D826" s="29" t="s">
-        <v>2417</v>
+        <v>2425</v>
       </c>
       <c r="E826" s="29" t="s">
-        <v>2418</v>
+        <v>2426</v>
       </c>
       <c r="F826" s="29"/>
       <c r="G826" s="4"/>
@@ -45936,17 +45996,17 @@
     </row>
     <row r="827" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="37" t="s">
-        <v>2419</v>
+        <v>2427</v>
       </c>
       <c r="B827" s="37" t="s">
-        <v>2420</v>
+        <v>2428</v>
       </c>
       <c r="C827" s="26"/>
       <c r="D827" s="29" t="s">
-        <v>2421</v>
+        <v>2429</v>
       </c>
       <c r="E827" s="29" t="s">
-        <v>2422</v>
+        <v>2430</v>
       </c>
       <c r="F827" s="29"/>
       <c r="G827" s="4"/>
@@ -45962,17 +46022,17 @@
     </row>
     <row r="828" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="37" t="s">
-        <v>2423</v>
+        <v>2431</v>
       </c>
       <c r="B828" s="37" t="s">
-        <v>2424</v>
+        <v>2432</v>
       </c>
       <c r="C828" s="26"/>
       <c r="D828" s="29" t="s">
-        <v>2425</v>
+        <v>2433</v>
       </c>
       <c r="E828" s="29" t="s">
-        <v>2426</v>
+        <v>2434</v>
       </c>
       <c r="F828" s="29"/>
       <c r="G828" s="4"/>
@@ -45988,17 +46048,17 @@
     </row>
     <row r="829" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="37" t="s">
-        <v>2427</v>
+        <v>2435</v>
       </c>
       <c r="B829" s="37" t="s">
-        <v>2428</v>
+        <v>2436</v>
       </c>
       <c r="C829" s="26"/>
       <c r="D829" s="29" t="s">
-        <v>2429</v>
+        <v>2437</v>
       </c>
       <c r="E829" s="29" t="s">
-        <v>2430</v>
+        <v>2438</v>
       </c>
       <c r="F829" s="29"/>
       <c r="G829" s="4"/>
@@ -46014,17 +46074,17 @@
     </row>
     <row r="830" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="37" t="s">
-        <v>2431</v>
+        <v>2439</v>
       </c>
       <c r="B830" s="37" t="s">
-        <v>2432</v>
+        <v>2440</v>
       </c>
       <c r="C830" s="26"/>
       <c r="D830" s="29" t="s">
-        <v>2433</v>
+        <v>2441</v>
       </c>
       <c r="E830" s="29" t="s">
-        <v>2434</v>
+        <v>2442</v>
       </c>
       <c r="F830" s="29"/>
       <c r="G830" s="4"/>
@@ -46040,17 +46100,17 @@
     </row>
     <row r="831" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="37" t="s">
-        <v>2435</v>
+        <v>2443</v>
       </c>
       <c r="B831" s="37" t="s">
-        <v>2436</v>
+        <v>2444</v>
       </c>
       <c r="C831" s="26"/>
       <c r="D831" s="29" t="s">
-        <v>2437</v>
+        <v>2445</v>
       </c>
       <c r="E831" s="29" t="s">
-        <v>2438</v>
+        <v>2446</v>
       </c>
       <c r="F831" s="29"/>
       <c r="G831" s="4"/>
@@ -46066,17 +46126,17 @@
     </row>
     <row r="832" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="37" t="s">
-        <v>2439</v>
+        <v>2447</v>
       </c>
       <c r="B832" s="37" t="s">
-        <v>2440</v>
+        <v>2448</v>
       </c>
       <c r="C832" s="26"/>
       <c r="D832" s="29" t="s">
-        <v>2441</v>
+        <v>2449</v>
       </c>
       <c r="E832" s="29" t="s">
-        <v>2442</v>
+        <v>2450</v>
       </c>
       <c r="F832" s="29"/>
       <c r="G832" s="4"/>
@@ -46092,17 +46152,17 @@
     </row>
     <row r="833" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="37" t="s">
-        <v>2443</v>
+        <v>2451</v>
       </c>
       <c r="B833" s="37" t="s">
-        <v>2444</v>
+        <v>2452</v>
       </c>
       <c r="C833" s="26"/>
       <c r="D833" s="29" t="s">
-        <v>2445</v>
+        <v>2453</v>
       </c>
       <c r="E833" s="29" t="s">
-        <v>2446</v>
+        <v>2454</v>
       </c>
       <c r="F833" s="29"/>
       <c r="G833" s="4"/>
@@ -46118,17 +46178,17 @@
     </row>
     <row r="834" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="37" t="s">
-        <v>2447</v>
+        <v>2455</v>
       </c>
       <c r="B834" s="37" t="s">
-        <v>2448</v>
+        <v>2456</v>
       </c>
       <c r="C834" s="26"/>
       <c r="D834" s="29" t="s">
-        <v>2449</v>
+        <v>2457</v>
       </c>
       <c r="E834" s="29" t="s">
-        <v>2450</v>
+        <v>2458</v>
       </c>
       <c r="F834" s="29"/>
       <c r="G834" s="4"/>
@@ -46144,17 +46204,17 @@
     </row>
     <row r="835" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="37" t="s">
-        <v>2451</v>
+        <v>2459</v>
       </c>
       <c r="B835" s="26" t="s">
         <v>1529</v>
       </c>
       <c r="C835" s="26"/>
       <c r="D835" s="29" t="s">
-        <v>2452</v>
+        <v>2460</v>
       </c>
       <c r="E835" s="29" t="s">
-        <v>2453</v>
+        <v>2461</v>
       </c>
       <c r="F835" s="29"/>
       <c r="G835" s="4"/>
@@ -46170,17 +46230,17 @@
     </row>
     <row r="836" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="37" t="s">
-        <v>2454</v>
+        <v>2462</v>
       </c>
       <c r="B836" s="37" t="s">
-        <v>2455</v>
+        <v>2463</v>
       </c>
       <c r="C836" s="26"/>
       <c r="D836" s="29" t="s">
-        <v>2456</v>
+        <v>2464</v>
       </c>
       <c r="E836" s="29" t="s">
-        <v>2457</v>
+        <v>2465</v>
       </c>
       <c r="F836" s="29"/>
       <c r="G836" s="4"/>
@@ -46196,17 +46256,17 @@
     </row>
     <row r="837" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="37" t="s">
-        <v>2458</v>
+        <v>2466</v>
       </c>
       <c r="B837" s="37" t="s">
         <v>758</v>
       </c>
       <c r="C837" s="26"/>
       <c r="D837" s="29" t="s">
-        <v>2459</v>
+        <v>2467</v>
       </c>
       <c r="E837" s="29" t="s">
-        <v>2460</v>
+        <v>2468</v>
       </c>
       <c r="F837" s="29"/>
       <c r="G837" s="4"/>
@@ -46222,20 +46282,20 @@
     </row>
     <row r="838" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="37" t="s">
-        <v>2461</v>
+        <v>2469</v>
       </c>
       <c r="B838" s="26" t="s">
-        <v>2462</v>
+        <v>2470</v>
       </c>
       <c r="C838" s="26"/>
       <c r="D838" s="29" t="s">
-        <v>2463</v>
+        <v>2471</v>
       </c>
       <c r="E838" s="29" t="s">
-        <v>2464</v>
+        <v>2472</v>
       </c>
       <c r="F838" s="29" t="s">
-        <v>2465</v>
+        <v>2473</v>
       </c>
       <c r="G838" s="4" t="s">
         <v>4</v>
@@ -46249,25 +46309,25 @@
       <c r="L838" s="2"/>
       <c r="M838" s="42"/>
       <c r="N838" s="77" t="s">
-        <v>2466</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="839" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="37" t="s">
-        <v>2467</v>
+        <v>2475</v>
       </c>
       <c r="B839" s="26" t="s">
-        <v>2468</v>
+        <v>2476</v>
       </c>
       <c r="C839" s="26"/>
       <c r="D839" s="29" t="s">
-        <v>2469</v>
+        <v>2477</v>
       </c>
       <c r="E839" s="29" t="s">
-        <v>2470</v>
+        <v>2478</v>
       </c>
       <c r="F839" s="29" t="s">
-        <v>2471</v>
+        <v>2479</v>
       </c>
       <c r="G839" s="4" t="s">
         <v>4</v>
@@ -46284,20 +46344,20 @@
     </row>
     <row r="840" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="37" t="s">
-        <v>2472</v>
+        <v>2480</v>
       </c>
       <c r="B840" s="26" t="s">
-        <v>2473</v>
+        <v>2481</v>
       </c>
       <c r="C840" s="26"/>
       <c r="D840" s="29" t="s">
-        <v>2474</v>
+        <v>2482</v>
       </c>
       <c r="E840" s="29" t="s">
-        <v>2475</v>
+        <v>2483</v>
       </c>
       <c r="F840" s="29" t="s">
-        <v>2476</v>
+        <v>2484</v>
       </c>
       <c r="G840" s="4" t="s">
         <v>4</v>
@@ -46314,17 +46374,17 @@
     </row>
     <row r="841" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="37" t="s">
-        <v>2477</v>
+        <v>2485</v>
       </c>
       <c r="B841" s="26" t="s">
-        <v>2478</v>
+        <v>2486</v>
       </c>
       <c r="C841" s="26"/>
       <c r="D841" s="29" t="s">
-        <v>2479</v>
+        <v>2487</v>
       </c>
       <c r="E841" s="29" t="s">
-        <v>2480</v>
+        <v>2488</v>
       </c>
       <c r="F841" s="29"/>
       <c r="G841" s="4"/>
@@ -46339,14 +46399,14 @@
     </row>
     <row r="842" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="37" t="s">
-        <v>2481</v>
+        <v>2489</v>
       </c>
       <c r="B842" s="37" t="s">
-        <v>2482</v>
+        <v>2490</v>
       </c>
       <c r="C842" s="26"/>
       <c r="D842" s="29" t="s">
-        <v>2483</v>
+        <v>2491</v>
       </c>
       <c r="E842" s="29"/>
       <c r="F842" s="29"/>
@@ -46360,19 +46420,19 @@
       <c r="L842" s="2"/>
       <c r="M842" s="42"/>
       <c r="N842" s="45" t="s">
-        <v>2484</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="843" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="37" t="s">
-        <v>2485</v>
+        <v>2493</v>
       </c>
       <c r="B843" s="37" t="s">
-        <v>2486</v>
+        <v>2494</v>
       </c>
       <c r="C843" s="26"/>
       <c r="D843" s="29" t="s">
-        <v>2487</v>
+        <v>2495</v>
       </c>
       <c r="E843" s="29"/>
       <c r="F843" s="29"/>
@@ -46386,19 +46446,19 @@
       <c r="L843" s="2"/>
       <c r="M843" s="42"/>
       <c r="N843" s="45" t="s">
-        <v>2484</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="844" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="37" t="s">
-        <v>2488</v>
+        <v>2496</v>
       </c>
       <c r="B844" s="37" t="s">
-        <v>2489</v>
+        <v>2497</v>
       </c>
       <c r="C844" s="26"/>
       <c r="D844" s="29" t="s">
-        <v>2487</v>
+        <v>2495</v>
       </c>
       <c r="E844" s="29"/>
       <c r="F844" s="29"/>
@@ -46412,22 +46472,22 @@
       <c r="L844" s="2"/>
       <c r="M844" s="42"/>
       <c r="N844" s="45" t="s">
-        <v>2484</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="845" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="37" t="s">
-        <v>2490</v>
+        <v>2498</v>
       </c>
       <c r="B845" s="37" t="s">
-        <v>2491</v>
+        <v>2499</v>
       </c>
       <c r="C845" s="26"/>
       <c r="D845" s="29" t="s">
-        <v>2492</v>
+        <v>2500</v>
       </c>
       <c r="E845" s="29" t="s">
-        <v>2493</v>
+        <v>2501</v>
       </c>
       <c r="F845" s="29"/>
       <c r="G845" s="4"/>
@@ -46443,17 +46503,17 @@
     </row>
     <row r="846" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="37" t="s">
-        <v>2494</v>
+        <v>2502</v>
       </c>
       <c r="B846" s="37" t="s">
-        <v>2495</v>
+        <v>2503</v>
       </c>
       <c r="C846" s="26"/>
       <c r="D846" s="29" t="s">
-        <v>2496</v>
+        <v>2504</v>
       </c>
       <c r="E846" s="29" t="s">
-        <v>2497</v>
+        <v>2505</v>
       </c>
       <c r="F846" s="29"/>
       <c r="G846" s="4"/>
@@ -46469,17 +46529,17 @@
     </row>
     <row r="847" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="37" t="s">
-        <v>2498</v>
+        <v>2506</v>
       </c>
       <c r="B847" s="37" t="s">
-        <v>2499</v>
+        <v>2507</v>
       </c>
       <c r="C847" s="26"/>
       <c r="D847" s="29" t="s">
-        <v>2500</v>
+        <v>2508</v>
       </c>
       <c r="E847" s="29" t="s">
-        <v>2501</v>
+        <v>2509</v>
       </c>
       <c r="F847" s="29"/>
       <c r="G847" s="4"/>
@@ -46495,17 +46555,17 @@
     </row>
     <row r="848" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="37" t="s">
-        <v>2502</v>
+        <v>2510</v>
       </c>
       <c r="B848" s="37" t="s">
-        <v>2503</v>
+        <v>2511</v>
       </c>
       <c r="C848" s="26"/>
       <c r="D848" s="29" t="s">
-        <v>2504</v>
+        <v>2512</v>
       </c>
       <c r="E848" s="29" t="s">
-        <v>2505</v>
+        <v>2513</v>
       </c>
       <c r="F848" s="29"/>
       <c r="G848" s="4"/>
@@ -46521,17 +46581,17 @@
     </row>
     <row r="849" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="37" t="s">
-        <v>2506</v>
+        <v>2514</v>
       </c>
       <c r="B849" s="37" t="s">
-        <v>2507</v>
+        <v>2515</v>
       </c>
       <c r="C849" s="26"/>
       <c r="D849" s="29" t="s">
-        <v>2508</v>
+        <v>2516</v>
       </c>
       <c r="E849" s="29" t="s">
-        <v>2509</v>
+        <v>2517</v>
       </c>
       <c r="F849" s="29"/>
       <c r="G849" s="4"/>
@@ -46547,17 +46607,17 @@
     </row>
     <row r="850" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="37" t="s">
-        <v>2510</v>
+        <v>2518</v>
       </c>
       <c r="B850" s="37" t="s">
-        <v>2511</v>
+        <v>2519</v>
       </c>
       <c r="C850" s="26"/>
       <c r="D850" s="29" t="s">
-        <v>2508</v>
+        <v>2516</v>
       </c>
       <c r="E850" s="29" t="s">
-        <v>2512</v>
+        <v>2520</v>
       </c>
       <c r="F850" s="29"/>
       <c r="G850" s="4"/>
@@ -46573,17 +46633,17 @@
     </row>
     <row r="851" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="37" t="s">
-        <v>2513</v>
+        <v>2521</v>
       </c>
       <c r="B851" s="37" t="s">
         <v>1168</v>
       </c>
       <c r="C851" s="29"/>
       <c r="D851" s="29" t="s">
-        <v>2514</v>
+        <v>2522</v>
       </c>
       <c r="E851" s="29" t="s">
-        <v>2515</v>
+        <v>2523</v>
       </c>
       <c r="F851" s="29"/>
       <c r="G851" s="4"/>
@@ -46599,17 +46659,17 @@
     </row>
     <row r="852" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="37" t="s">
-        <v>2516</v>
+        <v>2524</v>
       </c>
       <c r="B852" s="37" t="s">
-        <v>2517</v>
+        <v>2525</v>
       </c>
       <c r="C852" s="26"/>
       <c r="D852" s="29" t="s">
-        <v>2518</v>
+        <v>2526</v>
       </c>
       <c r="E852" s="29" t="s">
-        <v>2519</v>
+        <v>2527</v>
       </c>
       <c r="F852" s="29"/>
       <c r="G852" s="4"/>
@@ -46625,17 +46685,17 @@
     </row>
     <row r="853" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="37" t="s">
-        <v>2520</v>
+        <v>2528</v>
       </c>
       <c r="B853" s="37" t="s">
-        <v>2521</v>
+        <v>2529</v>
       </c>
       <c r="C853" s="26"/>
       <c r="D853" s="29" t="s">
-        <v>2522</v>
+        <v>2530</v>
       </c>
       <c r="E853" s="29" t="s">
-        <v>2523</v>
+        <v>2531</v>
       </c>
       <c r="F853" s="29"/>
       <c r="G853" s="4"/>
@@ -46666,7 +46726,7 @@
     </row>
     <row r="855" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="36" t="s">
-        <v>2524</v>
+        <v>2532</v>
       </c>
       <c r="B855" s="35"/>
       <c r="C855" s="18"/>
@@ -46684,7 +46744,7 @@
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A856" s="49" t="s">
-        <v>2525</v>
+        <v>2533</v>
       </c>
       <c r="B856" s="49"/>
       <c r="C856" s="50" t="s">
@@ -46704,17 +46764,17 @@
     </row>
     <row r="857" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="37" t="s">
-        <v>2526</v>
+        <v>2534</v>
       </c>
       <c r="B857" s="37" t="s">
-        <v>2527</v>
+        <v>2535</v>
       </c>
       <c r="C857" s="26"/>
       <c r="D857" s="29" t="s">
-        <v>2528</v>
+        <v>2536</v>
       </c>
       <c r="E857" s="29" t="s">
-        <v>2529</v>
+        <v>2537</v>
       </c>
       <c r="F857" s="29"/>
       <c r="G857" s="4"/>
@@ -46730,17 +46790,17 @@
     </row>
     <row r="858" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="37" t="s">
-        <v>2530</v>
+        <v>2538</v>
       </c>
       <c r="B858" s="37" t="s">
-        <v>2531</v>
+        <v>2539</v>
       </c>
       <c r="C858" s="26"/>
       <c r="D858" s="29" t="s">
-        <v>2532</v>
+        <v>2540</v>
       </c>
       <c r="E858" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F858" s="29"/>
       <c r="G858" s="4"/>
@@ -46756,17 +46816,17 @@
     </row>
     <row r="859" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="37" t="s">
-        <v>2534</v>
+        <v>2542</v>
       </c>
       <c r="B859" s="37" t="s">
-        <v>2535</v>
+        <v>2543</v>
       </c>
       <c r="C859" s="26"/>
       <c r="D859" s="29" t="s">
-        <v>2536</v>
+        <v>2544</v>
       </c>
       <c r="E859" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F859" s="29"/>
       <c r="G859" s="4"/>
@@ -46782,17 +46842,17 @@
     </row>
     <row r="860" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="37" t="s">
-        <v>2537</v>
+        <v>2545</v>
       </c>
       <c r="B860" s="37" t="s">
-        <v>2538</v>
+        <v>2546</v>
       </c>
       <c r="C860" s="26"/>
       <c r="D860" s="29" t="s">
-        <v>2539</v>
+        <v>2547</v>
       </c>
       <c r="E860" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F860" s="29"/>
       <c r="G860" s="4"/>
@@ -46808,17 +46868,17 @@
     </row>
     <row r="861" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="37" t="s">
-        <v>2540</v>
+        <v>2548</v>
       </c>
       <c r="B861" s="37" t="s">
-        <v>2541</v>
+        <v>2549</v>
       </c>
       <c r="C861" s="26"/>
       <c r="D861" s="29" t="s">
-        <v>2542</v>
+        <v>2550</v>
       </c>
       <c r="E861" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F861" s="29"/>
       <c r="G861" s="4"/>
@@ -46834,17 +46894,17 @@
     </row>
     <row r="862" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="37" t="s">
-        <v>2543</v>
+        <v>2551</v>
       </c>
       <c r="B862" s="37" t="s">
-        <v>2544</v>
+        <v>2552</v>
       </c>
       <c r="C862" s="26"/>
       <c r="D862" s="29" t="s">
-        <v>2545</v>
+        <v>2553</v>
       </c>
       <c r="E862" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F862" s="29"/>
       <c r="G862" s="4"/>
@@ -46860,17 +46920,17 @@
     </row>
     <row r="863" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="37" t="s">
-        <v>2546</v>
+        <v>2554</v>
       </c>
       <c r="B863" s="37" t="s">
-        <v>2547</v>
+        <v>2555</v>
       </c>
       <c r="C863" s="26"/>
       <c r="D863" s="29" t="s">
-        <v>2548</v>
+        <v>2556</v>
       </c>
       <c r="E863" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F863" s="29"/>
       <c r="G863" s="4"/>
@@ -46886,17 +46946,17 @@
     </row>
     <row r="864" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="37" t="s">
-        <v>2549</v>
+        <v>2557</v>
       </c>
       <c r="B864" s="37" t="s">
-        <v>2550</v>
+        <v>2558</v>
       </c>
       <c r="C864" s="26"/>
       <c r="D864" s="29" t="s">
-        <v>2551</v>
+        <v>2559</v>
       </c>
       <c r="E864" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F864" s="29"/>
       <c r="G864" s="4"/>
@@ -46912,17 +46972,17 @@
     </row>
     <row r="865" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="37" t="s">
-        <v>2552</v>
+        <v>2560</v>
       </c>
       <c r="B865" s="37" t="s">
-        <v>2553</v>
+        <v>2561</v>
       </c>
       <c r="C865" s="26"/>
       <c r="D865" s="29" t="s">
-        <v>2554</v>
+        <v>2562</v>
       </c>
       <c r="E865" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F865" s="29"/>
       <c r="G865" s="4"/>
@@ -46938,14 +46998,14 @@
     </row>
     <row r="866" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="37" t="s">
-        <v>2555</v>
+        <v>2563</v>
       </c>
       <c r="B866" s="37" t="s">
-        <v>2556</v>
+        <v>2564</v>
       </c>
       <c r="C866" s="26"/>
       <c r="D866" s="29" t="s">
-        <v>2557</v>
+        <v>2565</v>
       </c>
       <c r="E866" s="29" t="s">
         <v>374</v>
@@ -46964,17 +47024,17 @@
     </row>
     <row r="867" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="37" t="s">
-        <v>2558</v>
+        <v>2566</v>
       </c>
       <c r="B867" s="37" t="s">
-        <v>2559</v>
+        <v>2567</v>
       </c>
       <c r="C867" s="26"/>
       <c r="D867" s="29" t="s">
-        <v>2560</v>
+        <v>2568</v>
       </c>
       <c r="E867" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F867" s="29"/>
       <c r="G867" s="4"/>
@@ -46990,17 +47050,17 @@
     </row>
     <row r="868" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="37" t="s">
-        <v>2561</v>
+        <v>2569</v>
       </c>
       <c r="B868" s="37" t="s">
-        <v>2562</v>
+        <v>2570</v>
       </c>
       <c r="C868" s="26"/>
       <c r="D868" s="29" t="s">
-        <v>2563</v>
+        <v>2571</v>
       </c>
       <c r="E868" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F868" s="29"/>
       <c r="G868" s="4"/>
@@ -47016,14 +47076,14 @@
     </row>
     <row r="869" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="37" t="s">
-        <v>2564</v>
+        <v>2572</v>
       </c>
       <c r="B869" s="37" t="s">
-        <v>2565</v>
+        <v>2573</v>
       </c>
       <c r="C869" s="26"/>
       <c r="D869" s="29" t="s">
-        <v>2566</v>
+        <v>2574</v>
       </c>
       <c r="E869" s="29" t="s">
         <v>374</v>
@@ -47042,14 +47102,14 @@
     </row>
     <row r="870" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="37" t="s">
-        <v>2567</v>
+        <v>2575</v>
       </c>
       <c r="B870" s="37" t="s">
-        <v>2568</v>
+        <v>2576</v>
       </c>
       <c r="C870" s="26"/>
       <c r="D870" s="29" t="s">
-        <v>2569</v>
+        <v>2577</v>
       </c>
       <c r="E870" s="29" t="s">
         <v>374</v>
@@ -47068,17 +47128,17 @@
     </row>
     <row r="871" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="37" t="s">
-        <v>2570</v>
+        <v>2578</v>
       </c>
       <c r="B871" s="37" t="s">
-        <v>2571</v>
+        <v>2579</v>
       </c>
       <c r="C871" s="26"/>
       <c r="D871" s="29" t="s">
-        <v>2572</v>
+        <v>2580</v>
       </c>
       <c r="E871" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F871" s="29"/>
       <c r="G871" s="4"/>
@@ -47094,17 +47154,17 @@
     </row>
     <row r="872" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="37" t="s">
-        <v>2573</v>
+        <v>2581</v>
       </c>
       <c r="B872" s="47" t="s">
-        <v>2574</v>
+        <v>2582</v>
       </c>
       <c r="C872" s="26"/>
       <c r="D872" s="29" t="s">
-        <v>2575</v>
+        <v>2583</v>
       </c>
       <c r="E872" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F872" s="29"/>
       <c r="G872" s="4"/>
@@ -47120,17 +47180,17 @@
     </row>
     <row r="873" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="37" t="s">
-        <v>2576</v>
+        <v>2584</v>
       </c>
       <c r="B873" s="37" t="s">
-        <v>2577</v>
+        <v>2585</v>
       </c>
       <c r="C873" s="26"/>
       <c r="D873" s="29" t="s">
-        <v>2578</v>
+        <v>2586</v>
       </c>
       <c r="E873" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F873" s="29"/>
       <c r="G873" s="4"/>
@@ -47146,14 +47206,14 @@
     </row>
     <row r="874" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="37" t="s">
-        <v>2579</v>
+        <v>2587</v>
       </c>
       <c r="B874" s="37" t="s">
-        <v>2580</v>
+        <v>2588</v>
       </c>
       <c r="C874" s="26"/>
       <c r="D874" s="29" t="s">
-        <v>2581</v>
+        <v>2589</v>
       </c>
       <c r="E874" s="29" t="s">
         <v>374</v>
@@ -47172,14 +47232,14 @@
     </row>
     <row r="875" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="37" t="s">
-        <v>2582</v>
+        <v>2590</v>
       </c>
       <c r="B875" s="37" t="s">
-        <v>2583</v>
+        <v>2591</v>
       </c>
       <c r="C875" s="26"/>
       <c r="D875" s="29" t="s">
-        <v>2584</v>
+        <v>2592</v>
       </c>
       <c r="E875" s="29" t="s">
         <v>374</v>
@@ -47198,14 +47258,14 @@
     </row>
     <row r="876" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="37" t="s">
-        <v>2585</v>
+        <v>2593</v>
       </c>
       <c r="B876" s="37" t="s">
-        <v>2586</v>
+        <v>2594</v>
       </c>
       <c r="C876" s="26"/>
       <c r="D876" s="29" t="s">
-        <v>2587</v>
+        <v>2595</v>
       </c>
       <c r="E876" s="29" t="s">
         <v>374</v>
@@ -47224,14 +47284,14 @@
     </row>
     <row r="877" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="37" t="s">
-        <v>2588</v>
+        <v>2596</v>
       </c>
       <c r="B877" s="37" t="s">
-        <v>2589</v>
+        <v>2597</v>
       </c>
       <c r="C877" s="26"/>
       <c r="D877" s="29" t="s">
-        <v>2590</v>
+        <v>2598</v>
       </c>
       <c r="E877" s="29" t="s">
         <v>374</v>
@@ -47250,14 +47310,14 @@
     </row>
     <row r="878" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="37" t="s">
-        <v>2591</v>
+        <v>2599</v>
       </c>
       <c r="B878" s="37" t="s">
-        <v>2592</v>
+        <v>2600</v>
       </c>
       <c r="C878" s="26"/>
       <c r="D878" s="29" t="s">
-        <v>2593</v>
+        <v>2601</v>
       </c>
       <c r="E878" s="29" t="s">
         <v>374</v>
@@ -47276,14 +47336,14 @@
     </row>
     <row r="879" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="37" t="s">
-        <v>2594</v>
+        <v>2602</v>
       </c>
       <c r="B879" s="47" t="s">
-        <v>2595</v>
+        <v>2603</v>
       </c>
       <c r="C879" s="26"/>
       <c r="D879" s="29" t="s">
-        <v>2596</v>
+        <v>2604</v>
       </c>
       <c r="E879" s="29" t="s">
         <v>374</v>
@@ -47302,14 +47362,14 @@
     </row>
     <row r="880" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="37" t="s">
-        <v>2597</v>
+        <v>2605</v>
       </c>
       <c r="B880" s="47" t="s">
-        <v>2598</v>
+        <v>2606</v>
       </c>
       <c r="C880" s="26"/>
       <c r="D880" s="29" t="s">
-        <v>2599</v>
+        <v>2607</v>
       </c>
       <c r="E880" s="29" t="s">
         <v>374</v>
@@ -47328,14 +47388,14 @@
     </row>
     <row r="881" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="37" t="s">
-        <v>2600</v>
+        <v>2608</v>
       </c>
       <c r="B881" s="47" t="s">
-        <v>2601</v>
+        <v>2609</v>
       </c>
       <c r="C881" s="26"/>
       <c r="D881" s="29" t="s">
-        <v>2602</v>
+        <v>2610</v>
       </c>
       <c r="E881" s="29" t="s">
         <v>374</v>
@@ -47354,14 +47414,14 @@
     </row>
     <row r="882" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="37" t="s">
-        <v>2603</v>
+        <v>2611</v>
       </c>
       <c r="B882" s="37" t="s">
-        <v>2604</v>
+        <v>2612</v>
       </c>
       <c r="C882" s="26"/>
       <c r="D882" s="29" t="s">
-        <v>2605</v>
+        <v>2613</v>
       </c>
       <c r="E882" s="29" t="s">
         <v>374</v>
@@ -47380,14 +47440,14 @@
     </row>
     <row r="883" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="37" t="s">
-        <v>2606</v>
+        <v>2614</v>
       </c>
       <c r="B883" s="37" t="s">
-        <v>2607</v>
+        <v>2615</v>
       </c>
       <c r="C883" s="26"/>
       <c r="D883" s="29" t="s">
-        <v>2608</v>
+        <v>2616</v>
       </c>
       <c r="E883" s="29" t="s">
         <v>374</v>
@@ -47406,14 +47466,14 @@
     </row>
     <row r="884" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="37" t="s">
-        <v>2609</v>
+        <v>2617</v>
       </c>
       <c r="B884" s="37" t="s">
-        <v>2565</v>
+        <v>2573</v>
       </c>
       <c r="C884" s="26"/>
       <c r="D884" s="29" t="s">
-        <v>2566</v>
+        <v>2574</v>
       </c>
       <c r="E884" s="29" t="s">
         <v>374</v>
@@ -47432,14 +47492,14 @@
     </row>
     <row r="885" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="37" t="s">
-        <v>2610</v>
+        <v>2618</v>
       </c>
       <c r="B885" s="37" t="s">
-        <v>2611</v>
+        <v>2619</v>
       </c>
       <c r="C885" s="26"/>
       <c r="D885" s="29" t="s">
-        <v>2612</v>
+        <v>2620</v>
       </c>
       <c r="E885" s="29" t="s">
         <v>374</v>
@@ -47458,14 +47518,14 @@
     </row>
     <row r="886" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="37" t="s">
-        <v>2613</v>
+        <v>2621</v>
       </c>
       <c r="B886" s="37" t="s">
-        <v>2614</v>
+        <v>2622</v>
       </c>
       <c r="C886" s="26"/>
       <c r="D886" s="29" t="s">
-        <v>2615</v>
+        <v>2623</v>
       </c>
       <c r="E886" s="29" t="s">
         <v>374</v>
@@ -47484,14 +47544,14 @@
     </row>
     <row r="887" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="37" t="s">
-        <v>2616</v>
+        <v>2624</v>
       </c>
       <c r="B887" s="37" t="s">
-        <v>2535</v>
+        <v>2543</v>
       </c>
       <c r="C887" s="26"/>
       <c r="D887" s="29" t="s">
-        <v>2536</v>
+        <v>2544</v>
       </c>
       <c r="E887" s="29" t="s">
         <v>374</v>
@@ -47510,14 +47570,14 @@
     </row>
     <row r="888" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="37" t="s">
-        <v>2617</v>
+        <v>2625</v>
       </c>
       <c r="B888" s="37" t="s">
-        <v>2589</v>
+        <v>2597</v>
       </c>
       <c r="C888" s="26"/>
       <c r="D888" s="29" t="s">
-        <v>2590</v>
+        <v>2598</v>
       </c>
       <c r="E888" s="29" t="s">
         <v>374</v>
@@ -47536,14 +47596,14 @@
     </row>
     <row r="889" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="37" t="s">
-        <v>2618</v>
+        <v>2626</v>
       </c>
       <c r="B889" s="37" t="s">
-        <v>2619</v>
+        <v>2627</v>
       </c>
       <c r="C889" s="26"/>
       <c r="D889" s="29" t="s">
-        <v>2620</v>
+        <v>2628</v>
       </c>
       <c r="E889" s="29" t="s">
         <v>374</v>
@@ -47562,14 +47622,14 @@
     </row>
     <row r="890" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="37" t="s">
-        <v>2621</v>
+        <v>2629</v>
       </c>
       <c r="B890" s="37" t="s">
-        <v>2622</v>
+        <v>2630</v>
       </c>
       <c r="C890" s="26"/>
       <c r="D890" s="29" t="s">
-        <v>2623</v>
+        <v>2631</v>
       </c>
       <c r="E890" s="29" t="s">
         <v>374</v>
@@ -47588,14 +47648,14 @@
     </row>
     <row r="891" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="37" t="s">
-        <v>2624</v>
+        <v>2632</v>
       </c>
       <c r="B891" s="37" t="s">
-        <v>2625</v>
+        <v>2633</v>
       </c>
       <c r="C891" s="26"/>
       <c r="D891" s="29" t="s">
-        <v>2626</v>
+        <v>2634</v>
       </c>
       <c r="E891" s="29" t="s">
         <v>374</v>
@@ -47614,14 +47674,14 @@
     </row>
     <row r="892" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="37" t="s">
-        <v>2627</v>
+        <v>2635</v>
       </c>
       <c r="B892" s="37" t="s">
-        <v>2628</v>
+        <v>2636</v>
       </c>
       <c r="C892" s="26"/>
       <c r="D892" s="29" t="s">
-        <v>2629</v>
+        <v>2637</v>
       </c>
       <c r="E892" s="29" t="s">
         <v>374</v>
@@ -47640,14 +47700,14 @@
     </row>
     <row r="893" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="37" t="s">
-        <v>2630</v>
+        <v>2638</v>
       </c>
       <c r="B893" s="37" t="s">
-        <v>2631</v>
+        <v>2639</v>
       </c>
       <c r="C893" s="26"/>
       <c r="D893" s="29" t="s">
-        <v>2632</v>
+        <v>2640</v>
       </c>
       <c r="E893" s="29" t="s">
         <v>374</v>
@@ -47666,17 +47726,17 @@
     </row>
     <row r="894" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="37" t="s">
-        <v>2633</v>
+        <v>2641</v>
       </c>
       <c r="B894" s="37" t="s">
-        <v>2634</v>
+        <v>2642</v>
       </c>
       <c r="C894" s="26"/>
       <c r="D894" s="29" t="s">
-        <v>2635</v>
+        <v>2643</v>
       </c>
       <c r="E894" s="29" t="s">
-        <v>2636</v>
+        <v>2644</v>
       </c>
       <c r="F894" s="29"/>
       <c r="G894" s="4"/>
@@ -47692,17 +47752,17 @@
     </row>
     <row r="895" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="37" t="s">
-        <v>2637</v>
+        <v>2645</v>
       </c>
       <c r="B895" s="37" t="s">
-        <v>2638</v>
+        <v>2646</v>
       </c>
       <c r="C895" s="26"/>
       <c r="D895" s="29" t="s">
-        <v>2639</v>
+        <v>2647</v>
       </c>
       <c r="E895" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F895" s="29"/>
       <c r="G895" s="4"/>
@@ -47718,17 +47778,17 @@
     </row>
     <row r="896" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="37" t="s">
-        <v>2640</v>
+        <v>2648</v>
       </c>
       <c r="B896" s="37" t="s">
-        <v>2641</v>
+        <v>2649</v>
       </c>
       <c r="C896" s="26"/>
       <c r="D896" s="29" t="s">
-        <v>2642</v>
+        <v>2650</v>
       </c>
       <c r="E896" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F896" s="29"/>
       <c r="G896" s="4"/>
@@ -47744,17 +47804,17 @@
     </row>
     <row r="897" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="37" t="s">
-        <v>2643</v>
+        <v>2651</v>
       </c>
       <c r="B897" s="37" t="s">
-        <v>2644</v>
+        <v>2652</v>
       </c>
       <c r="C897" s="26"/>
       <c r="D897" s="29" t="s">
-        <v>2645</v>
+        <v>2653</v>
       </c>
       <c r="E897" s="29" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="F897" s="29"/>
       <c r="G897" s="4"/>
@@ -47785,7 +47845,7 @@
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A899" s="49" t="s">
-        <v>2646</v>
+        <v>2654</v>
       </c>
       <c r="B899" s="49"/>
       <c r="C899" s="50" t="s">
@@ -47805,17 +47865,17 @@
     </row>
     <row r="900" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="37" t="s">
-        <v>2647</v>
+        <v>2655</v>
       </c>
       <c r="B900" s="37" t="s">
-        <v>2527</v>
+        <v>2535</v>
       </c>
       <c r="C900" s="26"/>
       <c r="D900" s="29" t="s">
-        <v>2648</v>
+        <v>2656</v>
       </c>
       <c r="E900" s="29" t="s">
-        <v>2649</v>
+        <v>2657</v>
       </c>
       <c r="F900" s="29"/>
       <c r="G900" s="4"/>

--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -15025,7 +15025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5000"/>
+  <dimension ref="A1:AE915"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A200" sqref="A200"/>
@@ -16004,8 +16004,16 @@
           <t>Chuyển đến trang: "1.2 Xe online"</t>
         </is>
       </c>
-      <c r="F30" s="15" t="inlineStr"/>
-      <c r="G30" s="4" t="inlineStr"/>
+      <c r="F30" s="15" t="inlineStr">
+        <is>
+          <t>1.2 Xe online</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16049,7 +16057,7 @@
       </c>
       <c r="F31" s="15" t="inlineStr">
         <is>
-          <t>BATRINH</t>
+          <t>BATONNT</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
@@ -16134,7 +16142,7 @@
       </c>
       <c r="F33" s="15" t="inlineStr">
         <is>
-          <t>batrinh209a</t>
+          <t>batonnt</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -16602,8 +16610,8 @@
       </c>
       <c r="F45" s="15" t="inlineStr">
         <is>
-          <t>Dữ liệu web: Đóng
-Dữ liệu excel: Mất kết nối
+          <t>Dữ liệu web: Mở
+Dữ liệu excel: Kết nối tốt
  Dòng: J6</t>
         </is>
       </c>
@@ -17308,7 +17316,7 @@
       </c>
       <c r="F62" s="15" t="inlineStr">
         <is>
-          <t>0/79</t>
+          <t>0/77</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
@@ -17452,7 +17460,7 @@
       </c>
       <c r="F65" s="15" t="inlineStr">
         <is>
-          <t>79/79</t>
+          <t>77/77</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
@@ -17672,7 +17680,7 @@
       </c>
       <c r="F71" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 15A26611</t>
+          <t>Popup Hiện trạng: 15A32281</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
@@ -17712,8 +17720,8 @@
       </c>
       <c r="F72" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 202
-Danh sách giám sát: 202</t>
+          <t>Popup Hiện trạng: 219
+Danh sách giám sát: 219</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
@@ -17753,7 +17761,7 @@
       </c>
       <c r="F73" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 20.97534</t>
+          <t>Popup Hiện trạng: 20.7891</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
@@ -17793,7 +17801,7 @@
       </c>
       <c r="F74" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 106.5987</t>
+          <t>Popup Hiện trạng: 106.6517</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
@@ -17833,7 +17841,7 @@
       </c>
       <c r="F75" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: Việt Khê, X. Việt Khê, , TP. Hải Phòng</t>
+          <t>Popup Hiện trạng: 16, Ngõ 50 Xóm Đông, P. Phù Liễn, , TP. Hải Phòng</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
@@ -17877,8 +17885,8 @@
       </c>
       <c r="F76" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 18:16:12
-Danh sách giám sát: 18:16:12</t>
+          <t>Popup Hiện trạng: 18:16:58
+Danh sách giám sát: 18:16:58</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
@@ -18048,7 +18056,7 @@
       </c>
       <c r="F80" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 0 (TTĐH:0;App:0;Vẫy:0)</t>
+          <t>Popup Hiện trạng: 2 (TTĐH:2;App:0;Vẫy:0)</t>
         </is>
       </c>
       <c r="G80" s="4" t="inlineStr">
@@ -18128,7 +18136,7 @@
       </c>
       <c r="F82" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: VŨ LONG AN</t>
+          <t>Popup Hiện trạng: BÙI TIẾN KIẾM</t>
         </is>
       </c>
       <c r="G82" s="4" t="inlineStr">
@@ -18168,7 +18176,7 @@
       </c>
       <c r="F83" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 0866692456</t>
+          <t>Popup Hiện trạng: 0948317256</t>
         </is>
       </c>
       <c r="G83" s="4" t="inlineStr">
@@ -18248,7 +18256,7 @@
       </c>
       <c r="F85" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 609090</t>
+          <t>Popup Hiện trạng: 611030</t>
         </is>
       </c>
       <c r="G85" s="4" t="inlineStr">
@@ -18397,8 +18405,8 @@
       </c>
       <c r="F91" s="15" t="inlineStr">
         <is>
-          <t>Thời gian: 23:00:03
-Trạng thái: Có khách
+          <t>Thời gian: 10:42:29
+Trạng thái: Sẵn sàng
 Nguồn: AppLx</t>
         </is>
       </c>
@@ -18691,8 +18699,8 @@
       </c>
       <c r="F98" s="15" t="inlineStr">
         <is>
-          <t>Biển số xe: Biển số xe: 18E00314
-Thời gian: Từ ngày: 14/01/2026 20:00 Đến ngày: 15/1/2026 18:17</t>
+          <t>Biển số xe: Biển số xe: 17H03494
+Thời gian: Từ ngày: 20/01/2026 20:00 Đến ngày: 21/1/2026 18:18</t>
         </is>
       </c>
       <c r="G98" s="4" t="inlineStr">
@@ -19282,7 +19290,7 @@
       </c>
       <c r="F114" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 18:19:42 15/01/26</t>
+          <t>Popup Hiện trạng: 18:20:20 21/01/26</t>
         </is>
       </c>
       <c r="G114" s="4" t="inlineStr">
@@ -19322,7 +19330,7 @@
       </c>
       <c r="F115" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 21.01864</t>
+          <t>Popup Hiện trạng: 20.99813</t>
         </is>
       </c>
       <c r="G115" s="4" t="inlineStr">
@@ -19362,7 +19370,7 @@
       </c>
       <c r="F116" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 105.8641</t>
+          <t>Popup Hiện trạng: 105.9346</t>
         </is>
       </c>
       <c r="G116" s="4" t="inlineStr">
@@ -19402,7 +19410,7 @@
       </c>
       <c r="F117" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 518, Bạch Đằng, P. Hồng Hà, , TP. Hà Nội</t>
+          <t>Popup Hiện trạng: Lý Thánh Tông, X. Gia Lâm, , TP. Hà Nội</t>
         </is>
       </c>
       <c r="G117" s="4" t="inlineStr">
@@ -19442,7 +19450,7 @@
       </c>
       <c r="F118" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 0</t>
+          <t>Popup Hiện trạng: 4</t>
         </is>
       </c>
       <c r="G118" s="4" t="inlineStr">
@@ -19562,7 +19570,7 @@
       </c>
       <c r="F121" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 4 Chỗ - I10 Sedan</t>
+          <t>Popup Hiện trạng: 4 Chỗ - Hyundai i10 Sedan</t>
         </is>
       </c>
       <c r="G121" s="4" t="inlineStr">
@@ -19602,7 +19610,7 @@
       </c>
       <c r="F122" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 34 (TTĐH: 31; App: 0; Vẫy: 1)</t>
+          <t>Popup Hiện trạng: 37 (TTĐH: 37; App: 0; Vẫy: 0)</t>
         </is>
       </c>
       <c r="G122" s="4" t="inlineStr">
@@ -20509,7 +20517,7 @@
       <c r="M145" s="20" t="inlineStr"/>
       <c r="N145" s="20" t="inlineStr">
         <is>
-          <t>2024AUTO2216</t>
+          <t>2024AUTO2275</t>
         </is>
       </c>
     </row>
@@ -21655,8 +21663,16 @@
 (lái xe tạo ở ô ghi chú)</t>
         </is>
       </c>
-      <c r="F173" s="15" t="inlineStr"/>
-      <c r="G173" s="4" t="inlineStr"/>
+      <c r="F173" s="15" t="inlineStr">
+        <is>
+          <t>Thêm mới thành công</t>
+        </is>
+      </c>
+      <c r="G173" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H173" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21673,7 +21689,7 @@
       <c r="M173" s="20" t="inlineStr"/>
       <c r="N173" s="20" t="inlineStr">
         <is>
-          <t>auto2217</t>
+          <t>auto2276</t>
         </is>
       </c>
     </row>
@@ -21710,8 +21726,16 @@
           <t>Hiển thị message: "Thêm tài khoản ngân hàng thành công"</t>
         </is>
       </c>
-      <c r="F174" s="15" t="inlineStr"/>
-      <c r="G174" s="4" t="inlineStr"/>
+      <c r="F174" s="15" t="inlineStr">
+        <is>
+          <t>Thêm tài khoản ngân hàng thành công</t>
+        </is>
+      </c>
+      <c r="G174" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H174" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21759,8 +21783,16 @@
           <t>Hiển thị message: "Cập nhật lái xe thành công"</t>
         </is>
       </c>
-      <c r="F175" s="29" t="inlineStr"/>
-      <c r="G175" s="4" t="inlineStr"/>
+      <c r="F175" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật thành công</t>
+        </is>
+      </c>
+      <c r="G175" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H175" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21799,8 +21831,16 @@
           <t>Hiển thị message: "Khóa lái xe thành công."</t>
         </is>
       </c>
-      <c r="F176" s="29" t="inlineStr"/>
-      <c r="G176" s="4" t="inlineStr"/>
+      <c r="F176" s="29" t="inlineStr">
+        <is>
+          <t>Khóa lái xe thành công.</t>
+        </is>
+      </c>
+      <c r="G176" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H176" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21836,8 +21876,18 @@
           <t>Hiển thị lý do gồm các trường: STT, Lý do khóa, Ngày Khóa</t>
         </is>
       </c>
-      <c r="F177" s="29" t="inlineStr"/>
-      <c r="G177" s="4" t="inlineStr"/>
+      <c r="F177" s="29" t="inlineStr">
+        <is>
+          <t>STT: 1
+Lý do khóa: Trường test khóa xe
+Ngày khóa: 21/01/2026 18:33:11</t>
+        </is>
+      </c>
+      <c r="G177" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H177" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21874,8 +21924,16 @@
           <t>Hiển thị message: "Mở khóa lái xe thành công."</t>
         </is>
       </c>
-      <c r="F178" s="29" t="inlineStr"/>
-      <c r="G178" s="4" t="inlineStr"/>
+      <c r="F178" s="29" t="inlineStr">
+        <is>
+          <t>Mở khóa lái xe thành công.</t>
+        </is>
+      </c>
+      <c r="G178" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H178" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21911,8 +21969,16 @@
           <t>Hiển thị message: "Khen thưởng thành công."</t>
         </is>
       </c>
-      <c r="F179" s="29" t="inlineStr"/>
-      <c r="G179" s="4" t="inlineStr"/>
+      <c r="F179" s="29" t="inlineStr">
+        <is>
+          <t>Khen thưởng thành công.</t>
+        </is>
+      </c>
+      <c r="G179" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H179" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21986,8 +22052,16 @@
           <t>Hiển thị message: " Mã kích hoạt đã được cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F181" s="29" t="inlineStr"/>
-      <c r="G181" s="4" t="inlineStr"/>
+      <c r="F181" s="29" t="inlineStr">
+        <is>
+          <t>Mã kích hoạt đã được cập nhật thành công.</t>
+        </is>
+      </c>
+      <c r="G181" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H181" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22023,8 +22097,16 @@
           <t>Hiển thị message: "Đổi mật khẩu thành công."</t>
         </is>
       </c>
-      <c r="F182" s="29" t="inlineStr"/>
-      <c r="G182" s="4" t="inlineStr"/>
+      <c r="F182" s="29" t="inlineStr">
+        <is>
+          <t>Đổi mật khẩu thành công.</t>
+        </is>
+      </c>
+      <c r="G182" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H182" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22196,8 +22278,16 @@
           <t>Hiển thị message: "Xóa lái xe thành công"</t>
         </is>
       </c>
-      <c r="F187" s="29" t="inlineStr"/>
-      <c r="G187" s="4" t="inlineStr"/>
+      <c r="F187" s="29" t="inlineStr">
+        <is>
+          <t>Xóa lái xe thành công</t>
+        </is>
+      </c>
+      <c r="G187" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H187" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22347,14 +22437,26 @@
           <t>Chuyển đến trang: "2.6.3 Danh sách lái xe vi phạm"</t>
         </is>
       </c>
-      <c r="F192" s="15" t="inlineStr"/>
-      <c r="G192" s="4" t="inlineStr"/>
+      <c r="F192" s="15" t="inlineStr">
+        <is>
+          <t>2.6.3 Danh sách lái xe vi phạm</t>
+        </is>
+      </c>
+      <c r="G192" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H192" s="6" t="n"/>
       <c r="I192" s="6" t="n"/>
       <c r="J192" s="6" t="n"/>
       <c r="K192" s="6" t="n"/>
       <c r="L192" s="4" t="n"/>
-      <c r="M192" s="20" t="inlineStr"/>
+      <c r="M192" s="20" t="inlineStr">
+        <is>
+          <t>Vehicle61_XeLaiXe_DSLaiXeViPham.png</t>
+        </is>
+      </c>
       <c r="N192" s="20" t="n"/>
     </row>
     <row r="193" ht="39" customHeight="1">
@@ -22383,14 +22485,26 @@
           <t>Hiển thị dữ liệu trong khoảng thời gian: Từ ngày - Đến ngày</t>
         </is>
       </c>
-      <c r="F193" s="29" t="inlineStr"/>
-      <c r="G193" s="4" t="inlineStr"/>
+      <c r="F193" s="29" t="inlineStr">
+        <is>
+          <t>22/01/2026 14:20</t>
+        </is>
+      </c>
+      <c r="G193" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H193" s="6" t="n"/>
       <c r="I193" s="2" t="n"/>
       <c r="J193" s="2" t="n"/>
       <c r="K193" s="6" t="n"/>
       <c r="L193" s="2" t="n"/>
-      <c r="M193" s="42" t="inlineStr"/>
+      <c r="M193" s="42" t="inlineStr">
+        <is>
+          <t>Vehicle62_DanhSachLXViPham_TuNgayDenNgay.png</t>
+        </is>
+      </c>
       <c r="N193" s="45" t="n"/>
     </row>
     <row r="194" ht="39" customHeight="1">
@@ -22420,14 +22534,26 @@
           <t>Trường Tên lái xe có chứa từ khóa vừa nhập</t>
         </is>
       </c>
-      <c r="F194" s="29" t="inlineStr"/>
-      <c r="G194" s="4" t="inlineStr"/>
+      <c r="F194" s="29" t="inlineStr">
+        <is>
+          <t>BATHAOHN</t>
+        </is>
+      </c>
+      <c r="G194" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H194" s="6" t="n"/>
       <c r="I194" s="2" t="n"/>
       <c r="J194" s="2" t="n"/>
       <c r="K194" s="2" t="n"/>
       <c r="L194" s="2" t="n"/>
-      <c r="M194" s="42" t="inlineStr"/>
+      <c r="M194" s="42" t="inlineStr">
+        <is>
+          <t>Vehicle63_DanhSachLXViPham_TenLX.png</t>
+        </is>
+      </c>
       <c r="N194" s="42" t="n"/>
     </row>
     <row r="195" ht="39" customHeight="1">
@@ -22458,13 +22584,21 @@
         </is>
       </c>
       <c r="F195" s="29" t="inlineStr"/>
-      <c r="G195" s="4" t="inlineStr"/>
+      <c r="G195" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="H195" s="2" t="n"/>
       <c r="I195" s="2" t="n"/>
       <c r="J195" s="2" t="n"/>
       <c r="K195" s="6" t="n"/>
       <c r="L195" s="2" t="n"/>
-      <c r="M195" s="42" t="inlineStr"/>
+      <c r="M195" s="42" t="inlineStr">
+        <is>
+          <t>Vehicle64_DanhSachLXViPham_BSX.png</t>
+        </is>
+      </c>
       <c r="N195" s="42" t="n"/>
     </row>
     <row r="196" ht="39" customHeight="1">
@@ -22495,13 +22629,21 @@
         </is>
       </c>
       <c r="F196" s="29" t="inlineStr"/>
-      <c r="G196" s="4" t="inlineStr"/>
+      <c r="G196" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="H196" s="2" t="n"/>
       <c r="I196" s="2" t="n"/>
       <c r="J196" s="2" t="n"/>
       <c r="K196" s="6" t="n"/>
       <c r="L196" s="2" t="n"/>
-      <c r="M196" s="42" t="inlineStr"/>
+      <c r="M196" s="42" t="inlineStr">
+        <is>
+          <t>Vehicle65_DanhSachLXViPham_BSX.png</t>
+        </is>
+      </c>
       <c r="N196" s="42" t="n"/>
     </row>
     <row r="197">
@@ -22587,8 +22729,16 @@
           <t>Chuyển đến trang: "3.1 Danh sách ví lái xe"</t>
         </is>
       </c>
-      <c r="F200" s="15" t="inlineStr"/>
-      <c r="G200" s="4" t="inlineStr"/>
+      <c r="F200" s="15" t="inlineStr">
+        <is>
+          <t>3.1 Danh sách ví lái xe</t>
+        </is>
+      </c>
+      <c r="G200" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H200" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22627,8 +22777,18 @@
           <t>Thanh tổng quan gồm các trường: TỔNG SỐ VÍ, SỐ DƯ VÍ TÀI KHOẢN, SỐ DƯ VÍ TIỀN MẶT(không được trống dữ liệu)</t>
         </is>
       </c>
-      <c r="F201" s="29" t="inlineStr"/>
-      <c r="G201" s="4" t="inlineStr"/>
+      <c r="F201" s="29" t="inlineStr">
+        <is>
+          <t>Tổng số ví:: 1
+Số dư ví tài khoản: 14.876.270 ₫
+Số dư ví tiền mặt: 453.200 ₫</t>
+        </is>
+      </c>
+      <c r="G201" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H201" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22666,8 +22826,16 @@
           <t>trường "Tên lái xe" Hiển thị đúng dữ liệu "Lái xe" đã nhập</t>
         </is>
       </c>
-      <c r="F202" s="29" t="inlineStr"/>
-      <c r="G202" s="4" t="inlineStr"/>
+      <c r="F202" s="29" t="inlineStr">
+        <is>
+          <t>Phan Văn Khuyên</t>
+        </is>
+      </c>
+      <c r="G202" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H202" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22705,8 +22873,16 @@
           <t>trường "Ví lái xe" Hiển thị đúng dữ liệu "SDT" đã nhập</t>
         </is>
       </c>
-      <c r="F203" s="29" t="inlineStr"/>
-      <c r="G203" s="4" t="inlineStr"/>
+      <c r="F203" s="29" t="inlineStr">
+        <is>
+          <t>0335735161</t>
+        </is>
+      </c>
+      <c r="G203" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H203" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22834,8 +23010,24 @@
 - Nội dung: Trường test nạp tiền</t>
         </is>
       </c>
-      <c r="F206" s="29" t="inlineStr"/>
-      <c r="G206" s="4" t="inlineStr"/>
+      <c r="F206" s="29" t="inlineStr">
+        <is>
+          <t>Message: Đã lưu lại giao dịch, Chờ xác nhận.
+Số tiền: 1.000.000 VNĐ
+Tên ví: batonnt1
+Dịch vụ: Nạp tiền vào Ví Tài Khoản
+Số tiền: 1.000.000₫
+Nguồn tiền: Quầy thu tại hãng
+Thời gian: 18:39 - 21/01/2026
+Mã giao dịch: 9431
+Nội dung: Trường test nạp tiền</t>
+        </is>
+      </c>
+      <c r="G206" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H206" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22882,8 +23074,22 @@
 - Nội dung: Trường test rút tiền</t>
         </is>
       </c>
-      <c r="F207" s="29" t="inlineStr"/>
-      <c r="G207" s="4" t="inlineStr"/>
+      <c r="F207" s="29" t="inlineStr">
+        <is>
+          <t>Message: Đã lưu lại giao dịch, Chờ xác nhận.
+Số tiền: 100 VNĐ
+Dịch vụ: Rút tiền Ví Tiền Mặt
+Nguồn : Rút tại quầy
+Thời gian: 18:39 - 21/01/2026
+Mã giao dịch: 9432
+Nội dung: Trường test rút tiền</t>
+        </is>
+      </c>
+      <c r="G207" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H207" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22921,8 +23127,17 @@
 2. Hiển thị Tên lái xe: batonnt1</t>
         </is>
       </c>
-      <c r="F208" s="29" t="inlineStr"/>
-      <c r="G208" s="4" t="inlineStr"/>
+      <c r="F208" s="29" t="inlineStr">
+        <is>
+          <t>Chuyển tới trang: 3.5 Lịch sử ví tiền
+Tên lái xe: batonnt1</t>
+        </is>
+      </c>
+      <c r="G208" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H208" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22998,8 +23213,16 @@
           <t>Chuyển đến trang: "3.2 Đóng tiền vào ví lái xe"</t>
         </is>
       </c>
-      <c r="F211" s="15" t="inlineStr"/>
-      <c r="G211" s="4" t="inlineStr"/>
+      <c r="F211" s="15" t="inlineStr">
+        <is>
+          <t>3.2 Đóng tiền vào ví lái xe</t>
+        </is>
+      </c>
+      <c r="G211" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H211" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23040,8 +23263,16 @@
           <t>Hiển thị thông báo: "Tạo giao dịch đóng tiền thành công."</t>
         </is>
       </c>
-      <c r="F212" s="29" t="inlineStr"/>
-      <c r="G212" s="4" t="inlineStr"/>
+      <c r="F212" s="29" t="inlineStr">
+        <is>
+          <t>Tạo giao dịch đóng tiền thành công.</t>
+        </is>
+      </c>
+      <c r="G212" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H212" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23117,8 +23348,16 @@
           <t>Chuyển đến trang: "3.3 Rút tiền từ ví lái xe"</t>
         </is>
       </c>
-      <c r="F215" s="15" t="inlineStr"/>
-      <c r="G215" s="4" t="inlineStr"/>
+      <c r="F215" s="15" t="inlineStr">
+        <is>
+          <t>3.3 Rút tiền từ ví lái xe</t>
+        </is>
+      </c>
+      <c r="G215" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H215" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23159,8 +23398,16 @@
           <t>Hiển thị thông báo: "Tạo giao dịch rút tiền thành công."</t>
         </is>
       </c>
-      <c r="F216" s="29" t="inlineStr"/>
-      <c r="G216" s="4" t="inlineStr"/>
+      <c r="F216" s="29" t="inlineStr">
+        <is>
+          <t>Tạo giao dịch rút tiền thành công.</t>
+        </is>
+      </c>
+      <c r="G216" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H216" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23236,8 +23483,16 @@
           <t>Chuyển đến trang: "3.4 Xác nhận giao dịch"</t>
         </is>
       </c>
-      <c r="F219" s="15" t="inlineStr"/>
-      <c r="G219" s="4" t="inlineStr"/>
+      <c r="F219" s="15" t="inlineStr">
+        <is>
+          <t>3.4 Xác nhận giao dịch</t>
+        </is>
+      </c>
+      <c r="G219" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H219" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23360,8 +23615,16 @@
           <t>Trường " Tài khoản lái xe" hiển thị đúng tên lái xe đã nhập</t>
         </is>
       </c>
-      <c r="F222" s="29" t="inlineStr"/>
-      <c r="G222" s="4" t="inlineStr"/>
+      <c r="F222" s="29" t="inlineStr">
+        <is>
+          <t>batonnt1</t>
+        </is>
+      </c>
+      <c r="G222" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H222" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23400,8 +23663,16 @@
           <t>Hiện không có trường SDT nên sẽ hiển thị Tài khoản lái xe là: "batonnt1"</t>
         </is>
       </c>
-      <c r="F223" s="29" t="inlineStr"/>
-      <c r="G223" s="4" t="inlineStr"/>
+      <c r="F223" s="29" t="inlineStr">
+        <is>
+          <t>0837393453</t>
+        </is>
+      </c>
+      <c r="G223" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H223" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23476,8 +23747,16 @@
           <t>Mở popup: "VÍ LÁI XE"</t>
         </is>
       </c>
-      <c r="F225" s="29" t="inlineStr"/>
-      <c r="G225" s="4" t="inlineStr"/>
+      <c r="F225" s="29" t="inlineStr">
+        <is>
+          <t>VÍ LÁI XE</t>
+        </is>
+      </c>
+      <c r="G225" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H225" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23514,8 +23793,16 @@
 2. Hiển thị lịch sử mã giao dịch</t>
         </is>
       </c>
-      <c r="F226" s="29" t="inlineStr"/>
-      <c r="G226" s="4" t="inlineStr"/>
+      <c r="F226" s="29" t="inlineStr">
+        <is>
+          <t>Chuyển tới trang: 3.11 Lịch sử thanh toán</t>
+        </is>
+      </c>
+      <c r="G226" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H226" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23551,8 +23838,16 @@
           <t>Hiển thị message: "Xác nhận thành công."</t>
         </is>
       </c>
-      <c r="F227" s="29" t="inlineStr"/>
-      <c r="G227" s="4" t="inlineStr"/>
+      <c r="F227" s="29" t="inlineStr">
+        <is>
+          <t>Xác nhận thành công.</t>
+        </is>
+      </c>
+      <c r="G227" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H227" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23588,8 +23883,16 @@
           <t>Hiển thị message: "Hủy giao dịch thành công."</t>
         </is>
       </c>
-      <c r="F228" s="29" t="inlineStr"/>
-      <c r="G228" s="4" t="inlineStr"/>
+      <c r="F228" s="29" t="inlineStr">
+        <is>
+          <t>Hủy giao dịch thành công.</t>
+        </is>
+      </c>
+      <c r="G228" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H228" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23664,8 +23967,16 @@
           <t>Chuyển đến trang: "3.5 Lịch sử ví tiền"</t>
         </is>
       </c>
-      <c r="F231" s="15" t="inlineStr"/>
-      <c r="G231" s="4" t="inlineStr"/>
+      <c r="F231" s="15" t="inlineStr">
+        <is>
+          <t>3.5 Lịch sử ví tiền</t>
+        </is>
+      </c>
+      <c r="G231" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H231" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23748,8 +24059,16 @@
           <t>Trường "Tên lái xe" hiện thị đúng với "Tên lái xe" đã nhập</t>
         </is>
       </c>
-      <c r="F233" s="29" t="inlineStr"/>
-      <c r="G233" s="4" t="inlineStr"/>
+      <c r="F233" s="29" t="inlineStr">
+        <is>
+          <t>batonnt1</t>
+        </is>
+      </c>
+      <c r="G233" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H233" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24234,8 +24553,17 @@
 2. Hiển thị "Mã cuốc khách"</t>
         </is>
       </c>
-      <c r="F245" s="29" t="inlineStr"/>
-      <c r="G245" s="4" t="inlineStr"/>
+      <c r="F245" s="29" t="inlineStr">
+        <is>
+          <t>Chuyển tới trang: 8.4 Báo cáo doanh thu
+Mã quốc khách: 0011EC37</t>
+        </is>
+      </c>
+      <c r="G245" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H245" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24245,7 +24573,11 @@
       <c r="J245" s="2" t="n"/>
       <c r="K245" s="6" t="n"/>
       <c r="L245" s="2" t="n"/>
-      <c r="M245" s="42" t="inlineStr"/>
+      <c r="M245" s="42" t="inlineStr">
+        <is>
+          <t>Wallet38_LichSuViTien_ChiTiet.png</t>
+        </is>
+      </c>
       <c r="N245" s="42" t="n"/>
     </row>
     <row r="246" ht="75" customHeight="1">
@@ -24403,8 +24735,16 @@
           <t>Chuyển đến trang: "6.1 Danh sách khuyến mại"</t>
         </is>
       </c>
-      <c r="F251" s="15" t="inlineStr"/>
-      <c r="G251" s="4" t="inlineStr"/>
+      <c r="F251" s="15" t="inlineStr">
+        <is>
+          <t>6.1 Danh sách khuyến mại</t>
+        </is>
+      </c>
+      <c r="G251" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H251" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24487,8 +24827,16 @@
           <t>Trường "Tên khuyến mại" hiện thị "Tên khuyến mại "giống với dữ liệu đã nhập"</t>
         </is>
       </c>
-      <c r="F253" s="29" t="inlineStr"/>
-      <c r="G253" s="4" t="inlineStr"/>
+      <c r="F253" s="29" t="inlineStr">
+        <is>
+          <t>Auto_KM_Rieng2243</t>
+        </is>
+      </c>
+      <c r="G253" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H253" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24574,7 +24922,7 @@
       <c r="M254" s="42" t="inlineStr"/>
       <c r="N254" s="42" t="inlineStr">
         <is>
-          <t>Auto_KM_Chung3067</t>
+          <t>Auto_KM_Chung2269</t>
         </is>
       </c>
     </row>
@@ -24651,7 +24999,7 @@
       <c r="M255" s="42" t="inlineStr"/>
       <c r="N255" s="42" t="inlineStr">
         <is>
-          <t>Auto_KM_Rieng3068</t>
+          <t>Auto_KM_Rieng2243</t>
         </is>
       </c>
     </row>
@@ -25097,8 +25445,16 @@
           <t>Chuyển đến trang: "6.2 Danh sách tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F268" s="15" t="inlineStr"/>
-      <c r="G268" s="4" t="inlineStr"/>
+      <c r="F268" s="15" t="inlineStr">
+        <is>
+          <t>6.2 Danh sách tài khoản giới thiệu</t>
+        </is>
+      </c>
+      <c r="G268" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H268" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25191,8 +25547,16 @@
           <t>Trường "Tài khoản" hiện thị: "0913233801"</t>
         </is>
       </c>
-      <c r="F270" s="29" t="inlineStr"/>
-      <c r="G270" s="4" t="inlineStr"/>
+      <c r="F270" s="29" t="inlineStr">
+        <is>
+          <t>03596672277</t>
+        </is>
+      </c>
+      <c r="G270" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H270" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25423,8 +25787,16 @@
 (Tài khoản thêm mới ở ghi chú)</t>
         </is>
       </c>
-      <c r="F275" s="29" t="inlineStr"/>
-      <c r="G275" s="4" t="inlineStr"/>
+      <c r="F275" s="29" t="inlineStr">
+        <is>
+          <t>Lưu tài khoản giới thiệu thành công.</t>
+        </is>
+      </c>
+      <c r="G275" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H275" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25437,7 +25809,7 @@
       <c r="M275" s="42" t="inlineStr"/>
       <c r="N275" s="42" t="inlineStr">
         <is>
-          <t>2100002204</t>
+          <t>2100002279</t>
         </is>
       </c>
     </row>
@@ -25475,8 +25847,16 @@
 (Tài khoản thêm mới ở ghi chú)</t>
         </is>
       </c>
-      <c r="F276" s="29" t="inlineStr"/>
-      <c r="G276" s="4" t="inlineStr"/>
+      <c r="F276" s="29" t="inlineStr">
+        <is>
+          <t>Lưu tài khoản giới thiệu thành công.</t>
+        </is>
+      </c>
+      <c r="G276" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H276" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25489,7 +25869,7 @@
       <c r="M276" s="42" t="inlineStr"/>
       <c r="N276" s="42" t="inlineStr">
         <is>
-          <t>2100002205</t>
+          <t>2100002280</t>
         </is>
       </c>
     </row>
@@ -25523,8 +25903,16 @@
 </t>
         </is>
       </c>
-      <c r="F277" s="29" t="inlineStr"/>
-      <c r="G277" s="4" t="inlineStr"/>
+      <c r="F277" s="29" t="inlineStr">
+        <is>
+          <t>Lưu tài khoản giới thiệu thành công.</t>
+        </is>
+      </c>
+      <c r="G277" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H277" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25565,8 +25953,16 @@
           <t>Hiển thị messsage: "Xóa tài khoản giới thiệu thành công."</t>
         </is>
       </c>
-      <c r="F278" s="29" t="inlineStr"/>
-      <c r="G278" s="4" t="inlineStr"/>
+      <c r="F278" s="29" t="inlineStr">
+        <is>
+          <t>Xóa tài khoản giới thiệu thành công.</t>
+        </is>
+      </c>
+      <c r="G278" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H278" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25662,8 +26058,16 @@
           <t>Chuyển đến trang: "6.3.1 Cài app mới"</t>
         </is>
       </c>
-      <c r="F282" s="29" t="inlineStr"/>
-      <c r="G282" s="4" t="inlineStr"/>
+      <c r="F282" s="29" t="inlineStr">
+        <is>
+          <t>6.3.1 Cài app mới</t>
+        </is>
+      </c>
+      <c r="G282" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H282" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25705,8 +26109,16 @@
           <t>Trường "Tên khuyến mại" hiện thị: Đúng "Tên" đã nhập</t>
         </is>
       </c>
-      <c r="F283" s="29" t="inlineStr"/>
-      <c r="G283" s="4" t="inlineStr"/>
+      <c r="F283" s="29" t="inlineStr">
+        <is>
+          <t>KM cài app mới 1523</t>
+        </is>
+      </c>
+      <c r="G283" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H283" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25782,7 +26194,7 @@
       <c r="M284" s="42" t="inlineStr"/>
       <c r="N284" s="42" t="inlineStr">
         <is>
-          <t>Auto_CaiAppMoi3073</t>
+          <t>Auto_CaiAppMoi2249</t>
         </is>
       </c>
     </row>
@@ -25983,8 +26395,16 @@
           <t>Chuyển đến trang: "6.4.1 BC tổng hợp KM theo công ty"</t>
         </is>
       </c>
-      <c r="F291" s="29" t="inlineStr"/>
-      <c r="G291" s="4" t="inlineStr"/>
+      <c r="F291" s="29" t="inlineStr">
+        <is>
+          <t>6.4.1 BC tổng hợp KM theo công ty</t>
+        </is>
+      </c>
+      <c r="G291" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H291" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26023,8 +26443,16 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Công ty, Mã KM, Tên KM, Phải thu, Phải trả, Chi tiết.</t>
         </is>
       </c>
-      <c r="F292" s="29" t="inlineStr"/>
-      <c r="G292" s="4" t="inlineStr"/>
+      <c r="F292" s="29" t="inlineStr">
+        <is>
+          <t>G7 Taxi Hà Nội</t>
+        </is>
+      </c>
+      <c r="G292" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H292" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26063,7 +26491,11 @@
         </is>
       </c>
       <c r="F293" s="29" t="inlineStr"/>
-      <c r="G293" s="4" t="inlineStr"/>
+      <c r="G293" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H293" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26450,8 +26882,16 @@
           <t>Chuyển đến trang: "6.4.4 BC KM theo tháng"</t>
         </is>
       </c>
-      <c r="F306" s="29" t="inlineStr"/>
-      <c r="G306" s="4" t="inlineStr"/>
+      <c r="F306" s="29" t="inlineStr">
+        <is>
+          <t>6.4.4 BC KM theo tháng</t>
+        </is>
+      </c>
+      <c r="G306" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H306" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26490,8 +26930,16 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Tên khuyến mại, Tổng tiền đã khuyến mại, Tổng số khuyến mại đã sử dụng, Tháng/Năm.</t>
         </is>
       </c>
-      <c r="F307" s="29" t="inlineStr"/>
-      <c r="G307" s="4" t="inlineStr"/>
+      <c r="F307" s="29" t="inlineStr">
+        <is>
+          <t>Km 30k</t>
+        </is>
+      </c>
+      <c r="G307" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H307" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26530,7 +26978,11 @@
         </is>
       </c>
       <c r="F308" s="29" t="inlineStr"/>
-      <c r="G308" s="4" t="inlineStr"/>
+      <c r="G308" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H308" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27394,8 +27846,16 @@
           <t>Chuyển đến trang: "6.11 Danh sách loại tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F336" s="15" t="inlineStr"/>
-      <c r="G336" s="4" t="inlineStr"/>
+      <c r="F336" s="15" t="inlineStr">
+        <is>
+          <t>6.11 Danh sách loại tài khoản giới thiệu</t>
+        </is>
+      </c>
+      <c r="G336" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H336" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27490,7 +27950,7 @@
       <c r="M338" s="42" t="inlineStr"/>
       <c r="N338" s="42" t="inlineStr">
         <is>
-          <t>Auto_account_3074</t>
+          <t>Auto_account_2250</t>
         </is>
       </c>
     </row>
@@ -27596,8 +28056,16 @@
           <t>Chuyển đến trang: "6.12 Danh sách nhóm tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F342" s="15" t="inlineStr"/>
-      <c r="G342" s="4" t="inlineStr"/>
+      <c r="F342" s="15" t="inlineStr">
+        <is>
+          <t>6.12 Danh sách nhóm tài khoản giới thiệu</t>
+        </is>
+      </c>
+      <c r="G342" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H342" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27694,7 +28162,7 @@
       <c r="M344" s="42" t="inlineStr"/>
       <c r="N344" s="42" t="inlineStr">
         <is>
-          <t>Auto_group_3075</t>
+          <t>Auto_group_2251</t>
         </is>
       </c>
     </row>
@@ -27820,8 +28288,16 @@
           <t>Chuyển đến trang: "7.1 Danh sách khách hàng"</t>
         </is>
       </c>
-      <c r="F349" s="15" t="inlineStr"/>
-      <c r="G349" s="4" t="inlineStr"/>
+      <c r="F349" s="15" t="inlineStr">
+        <is>
+          <t>7.1 Danh sách khách hàng</t>
+        </is>
+      </c>
+      <c r="G349" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H349" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27906,8 +28382,16 @@
  "Trần Hà Miên"</t>
         </is>
       </c>
-      <c r="F351" s="29" t="inlineStr"/>
-      <c r="G351" s="4" t="inlineStr"/>
+      <c r="F351" s="29" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G351" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H351" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -28167,7 +28651,7 @@
       <c r="M357" s="42" t="inlineStr"/>
       <c r="N357" s="42" t="inlineStr">
         <is>
-          <t>Auto_customer_3076</t>
+          <t>Auto_customer_2252</t>
         </is>
       </c>
     </row>
@@ -28578,8 +29062,16 @@
           <t>Chuyển đến trang: "7.7.1 Đối tác"</t>
         </is>
       </c>
-      <c r="F370" s="29" t="inlineStr"/>
-      <c r="G370" s="4" t="inlineStr"/>
+      <c r="F370" s="29" t="inlineStr">
+        <is>
+          <t>7.7.1 Đối tác</t>
+        </is>
+      </c>
+      <c r="G370" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H370" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28622,8 +29114,16 @@
           <t>Trường "Tên đối tác" hiện thị: Phòng Marketing - Sale</t>
         </is>
       </c>
-      <c r="F371" s="29" t="inlineStr"/>
-      <c r="G371" s="4" t="inlineStr"/>
+      <c r="F371" s="29" t="inlineStr">
+        <is>
+          <t>TUSINHTUAPP</t>
+        </is>
+      </c>
+      <c r="G371" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H371" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28759,7 +29259,7 @@
       <c r="M374" s="42" t="inlineStr"/>
       <c r="N374" s="42" t="inlineStr">
         <is>
-          <t>Auto_name_partner_3077</t>
+          <t>Auto_name_partner_2253</t>
         </is>
       </c>
     </row>
@@ -28905,8 +29405,16 @@
           <t>Chuyển đến trang: "7.7.2 Hợp đồng"</t>
         </is>
       </c>
-      <c r="F379" s="29" t="inlineStr"/>
-      <c r="G379" s="4" t="inlineStr"/>
+      <c r="F379" s="29" t="inlineStr">
+        <is>
+          <t>7.7.2 Hợp đồng</t>
+        </is>
+      </c>
+      <c r="G379" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H379" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28949,8 +29457,16 @@
           <t>Trường "Mã hợp đồng" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F380" s="29" t="inlineStr"/>
-      <c r="G380" s="4" t="inlineStr"/>
+      <c r="F380" s="29" t="inlineStr">
+        <is>
+          <t>THAODTP3333</t>
+        </is>
+      </c>
+      <c r="G380" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H380" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29126,8 +29642,16 @@
 </t>
         </is>
       </c>
-      <c r="F384" s="29" t="inlineStr"/>
-      <c r="G384" s="4" t="inlineStr"/>
+      <c r="F384" s="29" t="inlineStr">
+        <is>
+          <t>Thêm mới hợp đồng thành công</t>
+        </is>
+      </c>
+      <c r="G384" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H384" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29139,7 +29663,7 @@
       <c r="M384" s="42" t="inlineStr"/>
       <c r="N384" s="42" t="inlineStr">
         <is>
-          <t>Auto2207</t>
+          <t>Auto2282</t>
         </is>
       </c>
     </row>
@@ -29246,8 +29770,16 @@
 </t>
         </is>
       </c>
-      <c r="F387" s="29" t="inlineStr"/>
-      <c r="G387" s="4" t="inlineStr"/>
+      <c r="F387" s="29" t="inlineStr">
+        <is>
+          <t>Xóa hợp đồng thành công</t>
+        </is>
+      </c>
+      <c r="G387" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H387" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29322,8 +29854,16 @@
           <t>Chuyển đến trang: "7.7.3 Quản lý thẻ"</t>
         </is>
       </c>
-      <c r="F390" s="29" t="inlineStr"/>
-      <c r="G390" s="4" t="inlineStr"/>
+      <c r="F390" s="29" t="inlineStr">
+        <is>
+          <t>7.7.3 Quản lý thẻ</t>
+        </is>
+      </c>
+      <c r="G390" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H390" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29406,8 +29946,16 @@
           <t>Trường "Số ĐT" hiện thị: 0972284850</t>
         </is>
       </c>
-      <c r="F392" s="29" t="inlineStr"/>
-      <c r="G392" s="4" t="inlineStr"/>
+      <c r="F392" s="29" t="inlineStr">
+        <is>
+          <t>0999999998</t>
+        </is>
+      </c>
+      <c r="G392" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H392" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29486,8 +30034,16 @@
           <t>Trường " Tên khách hàng" hiện thị: Thái Dương Hoa</t>
         </is>
       </c>
-      <c r="F394" s="29" t="inlineStr"/>
-      <c r="G394" s="4" t="inlineStr"/>
+      <c r="F394" s="29" t="inlineStr">
+        <is>
+          <t>SEC_555</t>
+        </is>
+      </c>
+      <c r="G394" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H394" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30007,8 +30563,16 @@
 </t>
         </is>
       </c>
-      <c r="F407" s="29" t="inlineStr"/>
-      <c r="G407" s="4" t="inlineStr"/>
+      <c r="F407" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật thông tin thẻ thành công</t>
+        </is>
+      </c>
+      <c r="G407" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H407" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30021,7 +30585,7 @@
       <c r="M407" s="42" t="inlineStr"/>
       <c r="N407" s="42" t="inlineStr">
         <is>
-          <t>Auto_2208</t>
+          <t>Auto_2283</t>
         </is>
       </c>
     </row>
@@ -30051,8 +30615,16 @@
 </t>
         </is>
       </c>
-      <c r="F408" s="29" t="inlineStr"/>
-      <c r="G408" s="4" t="inlineStr"/>
+      <c r="F408" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật thông tin thẻ thành công</t>
+        </is>
+      </c>
+      <c r="G408" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H408" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30088,8 +30660,16 @@
           <t>Mở popup: "MÃ QRCODE"</t>
         </is>
       </c>
-      <c r="F409" s="29" t="inlineStr"/>
-      <c r="G409" s="4" t="inlineStr"/>
+      <c r="F409" s="29" t="inlineStr">
+        <is>
+          <t>MÃ QRCODE</t>
+        </is>
+      </c>
+      <c r="G409" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H409" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30128,8 +30708,16 @@
 </t>
         </is>
       </c>
-      <c r="F410" s="29" t="inlineStr"/>
-      <c r="G410" s="4" t="inlineStr"/>
+      <c r="F410" s="29" t="inlineStr">
+        <is>
+          <t>Khóa thẻ thành công!</t>
+        </is>
+      </c>
+      <c r="G410" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H410" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30167,8 +30755,16 @@
 </t>
         </is>
       </c>
-      <c r="F411" s="29" t="inlineStr"/>
-      <c r="G411" s="4" t="inlineStr"/>
+      <c r="F411" s="29" t="inlineStr">
+        <is>
+          <t>Mở khóa thẻ thành công!</t>
+        </is>
+      </c>
+      <c r="G411" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H411" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30288,8 +30884,16 @@
 </t>
         </is>
       </c>
-      <c r="F414" s="29" t="inlineStr"/>
-      <c r="G414" s="4" t="inlineStr"/>
+      <c r="F414" s="29" t="inlineStr">
+        <is>
+          <t>Kích hoạt thẻ thành công</t>
+        </is>
+      </c>
+      <c r="G414" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H414" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30327,8 +30931,16 @@
 </t>
         </is>
       </c>
-      <c r="F415" s="29" t="inlineStr"/>
-      <c r="G415" s="4" t="inlineStr"/>
+      <c r="F415" s="29" t="inlineStr">
+        <is>
+          <t>Xóa thẻ thành công</t>
+        </is>
+      </c>
+      <c r="G415" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H415" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30377,8 +30989,16 @@
 </t>
         </is>
       </c>
-      <c r="F416" s="29" t="inlineStr"/>
-      <c r="G416" s="4" t="inlineStr"/>
+      <c r="F416" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật thông tin thẻ thành công</t>
+        </is>
+      </c>
+      <c r="G416" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H416" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30391,7 +31011,7 @@
       <c r="M416" s="42" t="inlineStr"/>
       <c r="N416" s="42" t="inlineStr">
         <is>
-          <t>Auto_2215</t>
+          <t>Auto_2290</t>
         </is>
       </c>
     </row>
@@ -30419,8 +31039,16 @@
 </t>
         </is>
       </c>
-      <c r="F417" s="29" t="inlineStr"/>
-      <c r="G417" s="4" t="inlineStr"/>
+      <c r="F417" s="29" t="inlineStr">
+        <is>
+          <t>Cấp thẻ dùng 1 lần</t>
+        </is>
+      </c>
+      <c r="G417" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H417" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -30556,7 +31184,7 @@
       <c r="M420" s="42" t="inlineStr"/>
       <c r="N420" s="42" t="inlineStr">
         <is>
-          <t>9999920954365460</t>
+          <t>9999209346400463</t>
         </is>
       </c>
     </row>
@@ -31417,8 +32045,16 @@
           <t>Chuyển đến trang: "7.7.12 Báo cáo cuốc đi thẻ theo lái xe"</t>
         </is>
       </c>
-      <c r="F446" s="29" t="inlineStr"/>
-      <c r="G446" s="4" t="inlineStr"/>
+      <c r="F446" s="29" t="inlineStr">
+        <is>
+          <t>7.7.12 Báo cáo cuốc đi thẻ theo lái xe</t>
+        </is>
+      </c>
+      <c r="G446" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H446" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -31464,8 +32100,16 @@
 (Hiển thị Mã lái xe)</t>
         </is>
       </c>
-      <c r="F447" s="29" t="inlineStr"/>
-      <c r="G447" s="4" t="inlineStr"/>
+      <c r="F447" s="29" t="inlineStr">
+        <is>
+          <t>9999209984075597</t>
+        </is>
+      </c>
+      <c r="G447" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H447" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -31504,7 +32148,11 @@
         </is>
       </c>
       <c r="F448" s="29" t="inlineStr"/>
-      <c r="G448" s="4" t="inlineStr"/>
+      <c r="G448" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H448" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -31540,8 +32188,16 @@
           <t>Hiện thị thông báo: "Cập nhật thành công!"</t>
         </is>
       </c>
-      <c r="F449" s="29" t="inlineStr"/>
-      <c r="G449" s="4" t="inlineStr"/>
+      <c r="F449" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật thành công!</t>
+        </is>
+      </c>
+      <c r="G449" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H449" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -31774,8 +32430,16 @@
           <t>Chuyển đến trang: "7.7.14 Báo cáo giao dịch thẻ"</t>
         </is>
       </c>
-      <c r="F457" s="29" t="inlineStr"/>
-      <c r="G457" s="4" t="inlineStr"/>
+      <c r="F457" s="29" t="inlineStr">
+        <is>
+          <t>7.7.14 Báo cáo giao dịch thẻ</t>
+        </is>
+      </c>
+      <c r="G457" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H457" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32594,8 +33258,16 @@
           <t>Chuyển đến trang: "8.1.0 Báo cáo cuốc khách tổng"</t>
         </is>
       </c>
-      <c r="F476" s="29" t="inlineStr"/>
-      <c r="G476" s="4" t="inlineStr"/>
+      <c r="F476" s="29" t="inlineStr">
+        <is>
+          <t>8.1.0 Báo cáo cuốc khách tổng</t>
+        </is>
+      </c>
+      <c r="G476" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H476" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32642,8 +33314,16 @@
 (Hiển thị Mã Cuốc Khách)</t>
         </is>
       </c>
-      <c r="F477" s="29" t="inlineStr"/>
-      <c r="G477" s="4" t="inlineStr"/>
+      <c r="F477" s="29" t="inlineStr">
+        <is>
+          <t>001180B9</t>
+        </is>
+      </c>
+      <c r="G477" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H477" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32722,7 +33402,11 @@
         </is>
       </c>
       <c r="F479" s="29" t="inlineStr"/>
-      <c r="G479" s="4" t="inlineStr"/>
+      <c r="G479" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="H479" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32732,7 +33416,11 @@
       <c r="J479" s="2" t="n"/>
       <c r="K479" s="2" t="n"/>
       <c r="L479" s="2" t="n"/>
-      <c r="M479" s="42" t="inlineStr"/>
+      <c r="M479" s="42" t="inlineStr">
+        <is>
+          <t>Report04_BaoCaoCuocKhachTong_XuatExcelDayDuThongTin.png</t>
+        </is>
+      </c>
       <c r="N479" s="42" t="n"/>
     </row>
     <row r="480">
@@ -32818,8 +33506,16 @@
           <t>Chuyển đến trang: "8.1.1 Tổng cuốc khách"</t>
         </is>
       </c>
-      <c r="F483" s="29" t="inlineStr"/>
-      <c r="G483" s="4" t="inlineStr"/>
+      <c r="F483" s="29" t="inlineStr">
+        <is>
+          <t>8.1.1 Tổng cuốc khách</t>
+        </is>
+      </c>
+      <c r="G483" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H483" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32829,7 +33525,11 @@
       <c r="J483" s="2" t="n"/>
       <c r="K483" s="2" t="n"/>
       <c r="L483" s="2" t="n"/>
-      <c r="M483" s="42" t="inlineStr"/>
+      <c r="M483" s="42" t="inlineStr">
+        <is>
+          <t>Report05_TongCuocKhach.png</t>
+        </is>
+      </c>
       <c r="N483" s="42" t="n"/>
     </row>
     <row r="484" ht="56.45" customHeight="1">
@@ -32860,8 +33560,16 @@
 (Hiển thị Ngày)</t>
         </is>
       </c>
-      <c r="F484" s="29" t="inlineStr"/>
-      <c r="G484" s="4" t="inlineStr"/>
+      <c r="F484" s="29" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="G484" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H484" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32898,8 +33606,16 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F485" s="29" t="inlineStr"/>
-      <c r="G485" s="4" t="inlineStr"/>
+      <c r="F485" s="29" t="inlineStr">
+        <is>
+          <t>_TongCuocKhach.xls</t>
+        </is>
+      </c>
+      <c r="G485" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H485" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32936,8 +33652,28 @@
           <t>Số lượng cuốc mỗi nguồn = Số lương cuốc màn chi tiết</t>
         </is>
       </c>
-      <c r="F486" s="29" t="inlineStr"/>
-      <c r="G486" s="4" t="inlineStr"/>
+      <c r="F486" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None, 14/14
+, None, 8/8
+, None, 0/0
+, None, 6/6
+, None, 0/0
+, None, 0/0
+, None, 0/0
+, None, 0/0
+, None, 1/1
+, None, 5/5
+, None, 7/7
+, None, 1/1
+</t>
+        </is>
+      </c>
+      <c r="G486" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H486" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32974,8 +33710,28 @@
           <t>Số lượng cuốc mỗi nguồn = Số lương cuốc màn chi tiết</t>
         </is>
       </c>
-      <c r="F487" s="29" t="inlineStr"/>
-      <c r="G487" s="4" t="inlineStr"/>
+      <c r="F487" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None, 47/47
+, None, 21/21
+, None, 0/0
+, None, 12/12
+, None, 0/0
+, None, 0/0
+, None, 0/0
+, None, 0/0
+, None, 4/4
+, None, 1/1
+, None, 42/42
+, None, 0/0
+</t>
+        </is>
+      </c>
+      <c r="G487" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H487" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33679,8 +34435,16 @@
           <t>Chuyển đến trang: "THỐNG KÊ CHI TIẾT CUỐC KHÁCH"</t>
         </is>
       </c>
-      <c r="F510" s="29" t="inlineStr"/>
-      <c r="G510" s="4" t="inlineStr"/>
+      <c r="F510" s="29" t="inlineStr">
+        <is>
+          <t>THỐNG KÊ CHI TIẾT CUỐC KHÁCH</t>
+        </is>
+      </c>
+      <c r="G510" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H510" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33726,8 +34490,16 @@
 (Hiển thị Nguồn)</t>
         </is>
       </c>
-      <c r="F511" s="29" t="inlineStr"/>
-      <c r="G511" s="4" t="inlineStr"/>
+      <c r="F511" s="29" t="inlineStr">
+        <is>
+          <t>Nguồn vãng lai</t>
+        </is>
+      </c>
+      <c r="G511" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H511" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33766,7 +34538,11 @@
         </is>
       </c>
       <c r="F512" s="29" t="inlineStr"/>
-      <c r="G512" s="4" t="inlineStr"/>
+      <c r="G512" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H512" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33842,8 +34618,16 @@
           <t>Chuyển đến trang: "8.1.11 Thống kê cuốc khách theo lái xe "</t>
         </is>
       </c>
-      <c r="F515" s="29" t="inlineStr"/>
-      <c r="G515" s="4" t="inlineStr"/>
+      <c r="F515" s="29" t="inlineStr">
+        <is>
+          <t>8.1.11 Thống kê cuốc khách theo lái xe</t>
+        </is>
+      </c>
+      <c r="G515" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H515" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33886,8 +34670,16 @@
 (Hiển thị Lái xe)</t>
         </is>
       </c>
-      <c r="F516" s="29" t="inlineStr"/>
-      <c r="G516" s="4" t="inlineStr"/>
+      <c r="F516" s="29" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="G516" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H516" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33926,7 +34718,11 @@
         </is>
       </c>
       <c r="F517" s="29" t="inlineStr"/>
-      <c r="G517" s="4" t="inlineStr"/>
+      <c r="G517" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H517" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35173,8 +35969,16 @@
           <t>Chuyển đến trang: "8.4.1 Báo cáo doanh thu theo lái xe"</t>
         </is>
       </c>
-      <c r="F557" s="29" t="inlineStr"/>
-      <c r="G557" s="4" t="inlineStr"/>
+      <c r="F557" s="29" t="inlineStr">
+        <is>
+          <t>8.4.1 Báo cáo doanh thu theo lái xe</t>
+        </is>
+      </c>
+      <c r="G557" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H557" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35214,8 +36018,16 @@
 (Hiển thị Tên lái xe)</t>
         </is>
       </c>
-      <c r="F558" s="29" t="inlineStr"/>
-      <c r="G558" s="4" t="inlineStr"/>
+      <c r="F558" s="29" t="inlineStr">
+        <is>
+          <t>Bui Văn Du</t>
+        </is>
+      </c>
+      <c r="G558" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H558" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35253,7 +36065,11 @@
         </is>
       </c>
       <c r="F559" s="29" t="inlineStr"/>
-      <c r="G559" s="4" t="inlineStr"/>
+      <c r="G559" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="H559" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35263,7 +36079,11 @@
       <c r="J559" s="2" t="n"/>
       <c r="K559" s="2" t="n"/>
       <c r="L559" s="2" t="n"/>
-      <c r="M559" s="42" t="inlineStr"/>
+      <c r="M559" s="42" t="inlineStr">
+        <is>
+          <t>Report49_BaoCaoDoanhThuTheoLaiXe_XuatExcel.png</t>
+        </is>
+      </c>
       <c r="N559" s="42" t="n"/>
     </row>
     <row r="560">
@@ -35329,8 +36149,16 @@
           <t>Chuyển đến trang: "8.4.2 Chi tiết doanh thu từ app lái xe &amp; định vị"</t>
         </is>
       </c>
-      <c r="F562" s="4" t="inlineStr"/>
-      <c r="G562" s="4" t="inlineStr"/>
+      <c r="F562" s="4" t="inlineStr">
+        <is>
+          <t>8.4.2 Chi tiết doanh thu từ app lái xe &amp; định vị</t>
+        </is>
+      </c>
+      <c r="G562" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H562" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35375,8 +36203,16 @@
 (Hiển thị Nguồn cuốc)</t>
         </is>
       </c>
-      <c r="F563" s="29" t="inlineStr"/>
-      <c r="G563" s="4" t="inlineStr"/>
+      <c r="F563" s="29" t="inlineStr">
+        <is>
+          <t>Taxi thông thường</t>
+        </is>
+      </c>
+      <c r="G563" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H563" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35414,7 +36250,11 @@
         </is>
       </c>
       <c r="F564" s="26" t="inlineStr"/>
-      <c r="G564" s="4" t="inlineStr"/>
+      <c r="G564" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="H564" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35424,7 +36264,11 @@
       <c r="J564" s="2" t="n"/>
       <c r="K564" s="2" t="n"/>
       <c r="L564" s="2" t="n"/>
-      <c r="M564" s="42" t="inlineStr"/>
+      <c r="M564" s="42" t="inlineStr">
+        <is>
+          <t>Report52_ChiTietDoanhThuTuApp_XuatExcel.png</t>
+        </is>
+      </c>
       <c r="N564" s="42" t="n"/>
     </row>
     <row r="565" ht="75" customHeight="1">
@@ -35452,7 +36296,11 @@
         </is>
       </c>
       <c r="F565" s="29" t="inlineStr"/>
-      <c r="G565" s="4" t="inlineStr"/>
+      <c r="G565" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="H565" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35462,7 +36310,11 @@
       <c r="J565" s="2" t="n"/>
       <c r="K565" s="2" t="n"/>
       <c r="L565" s="2" t="n"/>
-      <c r="M565" s="42" t="inlineStr"/>
+      <c r="M565" s="42" t="inlineStr">
+        <is>
+          <t>Report53_ChiTietDoanhThuTuApp_XuatExcelFull.png</t>
+        </is>
+      </c>
       <c r="N565" s="42" t="n"/>
     </row>
     <row r="566">
@@ -35528,8 +36380,16 @@
           <t>Chuyển đến trang: "8.4.3 Thanh toán cuốc khách cho lái xe"</t>
         </is>
       </c>
-      <c r="F568" s="29" t="inlineStr"/>
-      <c r="G568" s="4" t="inlineStr"/>
+      <c r="F568" s="29" t="inlineStr">
+        <is>
+          <t>8.4.3 Thanh toán cuốc khách cho lái xe</t>
+        </is>
+      </c>
+      <c r="G568" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H568" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35570,8 +36430,16 @@
 (Hiển thị Tên lái xe)</t>
         </is>
       </c>
-      <c r="F569" s="29" t="inlineStr"/>
-      <c r="G569" s="4" t="inlineStr"/>
+      <c r="F569" s="29" t="inlineStr">
+        <is>
+          <t>batrinh209a</t>
+        </is>
+      </c>
+      <c r="G569" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H569" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35610,7 +36478,11 @@
         </is>
       </c>
       <c r="F570" s="29" t="inlineStr"/>
-      <c r="G570" s="4" t="inlineStr"/>
+      <c r="G570" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H570" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36167,8 +37039,16 @@
           <t>Chuyển đến trang: "8.4.7 Chi tiết doanh thu từ app lái xe"</t>
         </is>
       </c>
-      <c r="F588" s="29" t="inlineStr"/>
-      <c r="G588" s="4" t="inlineStr"/>
+      <c r="F588" s="29" t="inlineStr">
+        <is>
+          <t>8.4.7 Chi tiết doanh thu từ app lái xe</t>
+        </is>
+      </c>
+      <c r="G588" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H588" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36212,8 +37092,16 @@
 (Hiển thị Biển số)</t>
         </is>
       </c>
-      <c r="F589" s="29" t="inlineStr"/>
-      <c r="G589" s="4" t="inlineStr"/>
+      <c r="F589" s="29" t="inlineStr">
+        <is>
+          <t>hoalt209</t>
+        </is>
+      </c>
+      <c r="G589" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H589" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36252,7 +37140,11 @@
         </is>
       </c>
       <c r="F590" s="29" t="inlineStr"/>
-      <c r="G590" s="4" t="inlineStr"/>
+      <c r="G590" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H590" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -37228,8 +38120,16 @@
           <t>Chuyển đến trang: "10.1.1 Danh sách bộ phương pháp điều xe"</t>
         </is>
       </c>
-      <c r="F624" s="29" t="inlineStr"/>
-      <c r="G624" s="4" t="inlineStr"/>
+      <c r="F624" s="29" t="inlineStr">
+        <is>
+          <t>10.1.1 Danh sách bộ phương pháp điều xe</t>
+        </is>
+      </c>
+      <c r="G624" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H624" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -37469,8 +38369,16 @@
           <t>Chuyển đến trang: "10.3.1 Thông tin công ty "</t>
         </is>
       </c>
-      <c r="F633" s="29" t="inlineStr"/>
-      <c r="G633" s="4" t="inlineStr"/>
+      <c r="F633" s="29" t="inlineStr">
+        <is>
+          <t>10.3.1 Thông tin công ty</t>
+        </is>
+      </c>
+      <c r="G633" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H633" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -37528,8 +38436,16 @@
           <t>Hiển thị message: "Cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F634" s="29" t="inlineStr"/>
-      <c r="G634" s="4" t="inlineStr"/>
+      <c r="F634" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật thành công.</t>
+        </is>
+      </c>
+      <c r="G634" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H634" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -37576,8 +38492,16 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ lái xe thành công."</t>
         </is>
       </c>
-      <c r="F635" s="29" t="inlineStr"/>
-      <c r="G635" s="4" t="inlineStr"/>
+      <c r="F635" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật phiên bản đồng bộ lái xe thành công.</t>
+        </is>
+      </c>
+      <c r="G635" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H635" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -37623,8 +38547,16 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ khách hàng thành công."</t>
         </is>
       </c>
-      <c r="F636" s="29" t="inlineStr"/>
-      <c r="G636" s="4" t="inlineStr"/>
+      <c r="F636" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật phiên bản đồng bộ khách hàng thành công.</t>
+        </is>
+      </c>
+      <c r="G636" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H636" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -37737,8 +38669,16 @@
           <t>Chuyển đến trang: "10.3.4 Quản trị nhóm đội"</t>
         </is>
       </c>
-      <c r="F640" s="29" t="inlineStr"/>
-      <c r="G640" s="4" t="inlineStr"/>
+      <c r="F640" s="29" t="inlineStr">
+        <is>
+          <t>10.3.4 Quản trị nhóm đội</t>
+        </is>
+      </c>
+      <c r="G640" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H640" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -37776,8 +38716,16 @@
           <t>Trường "Tên nhóm" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F641" s="29" t="inlineStr"/>
-      <c r="G641" s="4" t="inlineStr"/>
+      <c r="F641" s="29" t="inlineStr">
+        <is>
+          <t>nhóm 1</t>
+        </is>
+      </c>
+      <c r="G641" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H641" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -37815,8 +38763,16 @@
           <t>Trường "Tên hiển thị" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F642" s="29" t="inlineStr"/>
-      <c r="G642" s="4" t="inlineStr"/>
+      <c r="F642" s="29" t="inlineStr">
+        <is>
+          <t>nhóm 1</t>
+        </is>
+      </c>
+      <c r="G642" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H642" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38129,8 +39085,16 @@
           <t>Chuyển đến trang: "10.3.5 Quản trị tên xe"</t>
         </is>
       </c>
-      <c r="F651" s="29" t="inlineStr"/>
-      <c r="G651" s="4" t="inlineStr"/>
+      <c r="F651" s="29" t="inlineStr">
+        <is>
+          <t>10.3.5 Quản trị tên xe</t>
+        </is>
+      </c>
+      <c r="G651" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H651" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38363,8 +39327,16 @@
           <t>Chuyển đến trang: "10.3.6 Quản trị loại xe"</t>
         </is>
       </c>
-      <c r="F658" s="29" t="inlineStr"/>
-      <c r="G658" s="4" t="inlineStr"/>
+      <c r="F658" s="29" t="inlineStr">
+        <is>
+          <t>10.3.6 Quản trị loại xe</t>
+        </is>
+      </c>
+      <c r="G658" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H658" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38734,8 +39706,16 @@
           <t>Chuyển đến trang: "10.5.5 Danh sách tài khoản"</t>
         </is>
       </c>
-      <c r="F668" s="29" t="inlineStr"/>
-      <c r="G668" s="4" t="inlineStr"/>
+      <c r="F668" s="29" t="inlineStr">
+        <is>
+          <t>10.5.5 Danh sách tài khoản</t>
+        </is>
+      </c>
+      <c r="G668" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H668" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38775,8 +39755,16 @@
           <t>Trường "Tên tài khoản" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F669" s="29" t="inlineStr"/>
-      <c r="G669" s="4" t="inlineStr"/>
+      <c r="F669" s="29" t="inlineStr">
+        <is>
+          <t>auto2363</t>
+        </is>
+      </c>
+      <c r="G669" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H669" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38863,8 +39851,16 @@
 (Tài khoản ở mục Ghi chú)</t>
         </is>
       </c>
-      <c r="F671" s="29" t="inlineStr"/>
-      <c r="G671" s="4" t="inlineStr"/>
+      <c r="F671" s="29" t="inlineStr">
+        <is>
+          <t>Tài khoản đã tạo thành công</t>
+        </is>
+      </c>
+      <c r="G671" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H671" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38877,7 +39873,7 @@
       <c r="M671" s="42" t="inlineStr"/>
       <c r="N671" s="42" t="inlineStr">
         <is>
-          <t>auto2212</t>
+          <t>auto2287</t>
         </is>
       </c>
     </row>
@@ -38905,8 +39901,16 @@
           <t>Hiển thị message: "Tài khoản đã thay đổi thành công"</t>
         </is>
       </c>
-      <c r="F672" s="29" t="inlineStr"/>
-      <c r="G672" s="4" t="inlineStr"/>
+      <c r="F672" s="29" t="inlineStr">
+        <is>
+          <t>Tài khoản đã thay đổi thành công</t>
+        </is>
+      </c>
+      <c r="G672" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H672" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38948,8 +39952,16 @@
 3.Lấy mã kích hoạt mới &gt; "Mã kích hoạt được cập nhật thành công"</t>
         </is>
       </c>
-      <c r="F673" s="29" t="inlineStr"/>
-      <c r="G673" s="4" t="inlineStr"/>
+      <c r="F673" s="29" t="inlineStr">
+        <is>
+          <t>Mã kích hoạt được cập nhật thành công</t>
+        </is>
+      </c>
+      <c r="G673" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H673" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38985,8 +39997,16 @@
           <t>Chuyển đến trang: "GÁN VAI TRÒ NGƯỜI DÙNG"</t>
         </is>
       </c>
-      <c r="F674" s="29" t="inlineStr"/>
-      <c r="G674" s="4" t="inlineStr"/>
+      <c r="F674" s="29" t="inlineStr">
+        <is>
+          <t>GÁN VAI TRÒ NGƯỜI DÙNG</t>
+        </is>
+      </c>
+      <c r="G674" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H674" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39023,8 +40043,16 @@
 DANH SÁCH QUYỀN ĐƯỢC GÁN"</t>
         </is>
       </c>
-      <c r="F675" s="29" t="inlineStr"/>
-      <c r="G675" s="4" t="inlineStr"/>
+      <c r="F675" s="29" t="inlineStr">
+        <is>
+          <t>DANH SÁCH QUYỀN ĐƯỢC GÁN</t>
+        </is>
+      </c>
+      <c r="G675" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H675" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39061,8 +40089,16 @@
           <t>Hiển thị message: "Tài khoản đã thay đổi thành công."</t>
         </is>
       </c>
-      <c r="F676" s="29" t="inlineStr"/>
-      <c r="G676" s="4" t="inlineStr"/>
+      <c r="F676" s="29" t="inlineStr">
+        <is>
+          <t>Tài khoản đã thay đổi thành công.</t>
+        </is>
+      </c>
+      <c r="G676" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H676" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39098,8 +40134,16 @@
           <t>Hiển thị message: "Khóa thành công."</t>
         </is>
       </c>
-      <c r="F677" s="29" t="inlineStr"/>
-      <c r="G677" s="4" t="inlineStr"/>
+      <c r="F677" s="29" t="inlineStr">
+        <is>
+          <t>Khóa thành công.</t>
+        </is>
+      </c>
+      <c r="G677" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H677" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39135,8 +40179,16 @@
           <t>Hiển thị message: "Mở khóa thành công."</t>
         </is>
       </c>
-      <c r="F678" s="29" t="inlineStr"/>
-      <c r="G678" s="4" t="inlineStr"/>
+      <c r="F678" s="29" t="inlineStr">
+        <is>
+          <t>Mở khóa thành công.</t>
+        </is>
+      </c>
+      <c r="G678" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H678" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39172,8 +40224,16 @@
           <t>Hiển thị message: "Xóa thành công."</t>
         </is>
       </c>
-      <c r="F679" s="29" t="inlineStr"/>
-      <c r="G679" s="4" t="inlineStr"/>
+      <c r="F679" s="29" t="inlineStr">
+        <is>
+          <t>Xóa thành công.</t>
+        </is>
+      </c>
+      <c r="G679" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H679" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39249,8 +40309,16 @@
           <t>Chuyển đến trang: "10.5.7 Lịch sử tài khoản"</t>
         </is>
       </c>
-      <c r="F682" s="29" t="inlineStr"/>
-      <c r="G682" s="4" t="inlineStr"/>
+      <c r="F682" s="29" t="inlineStr">
+        <is>
+          <t>10.5.7 Lịch sử tài khoản</t>
+        </is>
+      </c>
+      <c r="G682" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H682" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39290,8 +40358,16 @@
           <t>Chuyển đến trang: "LỊCH SỬ HOẠT ĐỘNG"</t>
         </is>
       </c>
-      <c r="F683" s="29" t="inlineStr"/>
-      <c r="G683" s="4" t="inlineStr"/>
+      <c r="F683" s="29" t="inlineStr">
+        <is>
+          <t>LỊCH SỬ HOẠT ĐỘNG</t>
+        </is>
+      </c>
+      <c r="G683" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H683" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39373,8 +40449,16 @@
           <t>Trường "Tên tài khoản" hiển thị: autoba</t>
         </is>
       </c>
-      <c r="F685" s="29" t="inlineStr"/>
-      <c r="G685" s="4" t="inlineStr"/>
+      <c r="F685" s="29" t="inlineStr">
+        <is>
+          <t>autoba</t>
+        </is>
+      </c>
+      <c r="G685" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H685" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39585,8 +40669,16 @@
           <t>Chuyển đến trang: "10.6.1 Cấu hình lái xe"</t>
         </is>
       </c>
-      <c r="F692" s="29" t="inlineStr"/>
-      <c r="G692" s="4" t="inlineStr"/>
+      <c r="F692" s="29" t="inlineStr">
+        <is>
+          <t>10.6.1 Cấu hình lái xe</t>
+        </is>
+      </c>
+      <c r="G692" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H692" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39623,8 +40715,20 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F693" s="29" t="inlineStr"/>
-      <c r="G693" s="4" t="inlineStr"/>
+      <c r="F693" s="29" t="inlineStr">
+        <is>
+          <t>STT: 1
+Tên cấu hình: WALLET
+Giá trị: {"isWallet":true, "min":20000, "isRecharge":true, "isDriverWallet":true, "isDriverRecharge": true,"isCreateCardTrip": true,"requiredPrice": 1, "RechargeType": 3}
+Kiểu dữ liệu: Kiểu chuỗi
+Ghi chú: {"isWallet":true =&gt; Hiện menu ví trên (Ví tài khoản) ,"min":50000, =&gt; Số tiền tối thiểu cho phép nạp "isRecharge":false, =&gt; Hiện nút nạp tiền ở màn hình ví trên hay không "isDriverWallet":true=&gt; Hiện menu ví dưới (Ví tiền mặt)</t>
+        </is>
+      </c>
+      <c r="G693" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H693" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39700,8 +40804,16 @@
           <t>Chuyển đến trang: "10.6.2 Cấu hình khách hàng"</t>
         </is>
       </c>
-      <c r="F696" s="29" t="inlineStr"/>
-      <c r="G696" s="4" t="inlineStr"/>
+      <c r="F696" s="29" t="inlineStr">
+        <is>
+          <t>10.6.2 Cấu hình khách hàng</t>
+        </is>
+      </c>
+      <c r="G696" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H696" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39738,8 +40850,21 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F697" s="29" t="inlineStr"/>
-      <c r="G697" s="4" t="inlineStr"/>
+      <c r="F697" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">STT: 1
+Tên cấu hình: ZOOM_MAP
+Giá trị: {"android": 18, "iOS": 18, "minDistanceToMove": 15}
+Kiểu dữ liệu: Kiểu chuỗi
+Công ty: Cấu hình zoom mặc đinh ở màn hình home (Chỉ áp dụng cho app xamarin)
+Ghi chú: </t>
+        </is>
+      </c>
+      <c r="G697" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H697" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39815,8 +40940,16 @@
           <t>Chuyển đến trang: "10.6.3 Cấu hình quản trị"</t>
         </is>
       </c>
-      <c r="F700" s="29" t="inlineStr"/>
-      <c r="G700" s="4" t="inlineStr"/>
+      <c r="F700" s="29" t="inlineStr">
+        <is>
+          <t>10.6.3 Cấu hình quản trị</t>
+        </is>
+      </c>
+      <c r="G700" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H700" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39853,8 +40986,19 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F701" s="29" t="inlineStr"/>
-      <c r="G701" s="4" t="inlineStr"/>
+      <c r="F701" s="29" t="inlineStr">
+        <is>
+          <t>STT: 1
+Tên cấu hình: YEU_CAU_DOI_MAT_KHAU_THEO_CHU_KY
+Giá trị: False
+Ghi chú: Yêu cầu đổi mật khẩu theo chu kỳ</t>
+        </is>
+      </c>
+      <c r="G701" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H701" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39930,8 +41074,16 @@
           <t>Chuyển đến trang: "10.6.4 Cấu hình server"</t>
         </is>
       </c>
-      <c r="F704" s="29" t="inlineStr"/>
-      <c r="G704" s="4" t="inlineStr"/>
+      <c r="F704" s="29" t="inlineStr">
+        <is>
+          <t>10.6.4 Cấu hình server</t>
+        </is>
+      </c>
+      <c r="G704" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H704" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39968,8 +41120,19 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F705" s="29" t="inlineStr"/>
-      <c r="G705" s="4" t="inlineStr"/>
+      <c r="F705" s="29" t="inlineStr">
+        <is>
+          <t>STT: 1
+Tên cấu hình: YOUR_TRIP_DANG_DUOC_DIEU_HANH_HO_TRO_GOI_XE
+Giá trị: Điều hành đang hỗ trợ đặt xe cho bạn
+Ghi chú: Điều hành đang hỗ trợ đặt xe cho bạn</t>
+        </is>
+      </c>
+      <c r="G705" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H705" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40586,8 +41749,16 @@
           <t>Chuyển đến trang: "10.6.10 Cấu hình hạng thẻ"</t>
         </is>
       </c>
-      <c r="F727" s="29" t="inlineStr"/>
-      <c r="G727" s="4" t="inlineStr"/>
+      <c r="F727" s="29" t="inlineStr">
+        <is>
+          <t>10.6.10 Cấu hình hạng thẻ</t>
+        </is>
+      </c>
+      <c r="G727" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H727" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40624,8 +41795,19 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F728" s="29" t="inlineStr"/>
-      <c r="G728" s="4" t="inlineStr"/>
+      <c r="F728" s="29" t="inlineStr">
+        <is>
+          <t>STT: 1
+Loại thẻ: Hạng vàng
+Màu thẻ: #e3a7ff
+Ghi chú: Thẻ vàng (gold) là loại thẻ tín dụng có hạn mức cao từ trên 50.000.000 đồng, được cấp cho những khách hàng có năng lực tài chính tốt và độ uy tín tín dụng cao. Chủ sở hữu thẻ vàng có cơ hội nhận được nhiều tiện ích và ưu đãi hấp dẫn hơn so với các loại</t>
+        </is>
+      </c>
+      <c r="G728" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H728" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40701,8 +41883,16 @@
           <t>Chuyển đến trang: "10.6.11 Kích hoạt dịch vụ"</t>
         </is>
       </c>
-      <c r="F731" s="29" t="inlineStr"/>
-      <c r="G731" s="4" t="inlineStr"/>
+      <c r="F731" s="29" t="inlineStr">
+        <is>
+          <t>10.6.11 Kích hoạt dịch vụ</t>
+        </is>
+      </c>
+      <c r="G731" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H731" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40832,8 +42022,16 @@
           <t>Chuyển đến trang: "10.7.1 Quản trị thông báo lái xe"</t>
         </is>
       </c>
-      <c r="F736" s="29" t="inlineStr"/>
-      <c r="G736" s="4" t="inlineStr"/>
+      <c r="F736" s="29" t="inlineStr">
+        <is>
+          <t>10.7.1 Quản trị thông báo lái xe</t>
+        </is>
+      </c>
+      <c r="G736" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H736" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40876,8 +42074,16 @@
           <t>Trường "Tiêu đề" hiện thị đúng "Tiêu đề" đã nhập</t>
         </is>
       </c>
-      <c r="F737" s="29" t="inlineStr"/>
-      <c r="G737" s="4" t="inlineStr"/>
+      <c r="F737" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật số dư</t>
+        </is>
+      </c>
+      <c r="G737" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H737" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41467,8 +42673,16 @@
 (Thông báo tạo ở mục ghi chú)</t>
         </is>
       </c>
-      <c r="F752" s="56" t="inlineStr"/>
-      <c r="G752" s="4" t="inlineStr"/>
+      <c r="F752" s="56" t="inlineStr">
+        <is>
+          <t>Thông báo đã tạo thành công.</t>
+        </is>
+      </c>
+      <c r="G752" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H752" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41481,7 +42695,7 @@
       <c r="M752" s="42" t="inlineStr"/>
       <c r="N752" s="67" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_2213</t>
+          <t>Auto_ThongBao_2288</t>
         </is>
       </c>
     </row>
@@ -41509,8 +42723,16 @@
           <t>Hiển thị thông báo: "Thông báo đã được cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F753" s="29" t="inlineStr"/>
-      <c r="G753" s="4" t="inlineStr"/>
+      <c r="F753" s="29" t="inlineStr">
+        <is>
+          <t>Thông báo đã được cập nhật thành công.</t>
+        </is>
+      </c>
+      <c r="G753" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H753" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41546,8 +42768,16 @@
           <t>Mở tab mới, Hiển thị nội dung của thông báo: "Test tạo thông báo theo lái xe"</t>
         </is>
       </c>
-      <c r="F754" s="29" t="inlineStr"/>
-      <c r="G754" s="4" t="inlineStr"/>
+      <c r="F754" s="29" t="inlineStr">
+        <is>
+          <t>Cộng ví tiền mặt khi hoàn thành chuyến thanh toán thẻ. Số dư tài khoản: 6920000đ</t>
+        </is>
+      </c>
+      <c r="G754" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H754" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41583,8 +42813,16 @@
           <t>Chuyển tới trang: "DANH SÁCH LÁI XE ĐÃ ĐỌC THÔNG BÁO"</t>
         </is>
       </c>
-      <c r="F755" s="29" t="inlineStr"/>
-      <c r="G755" s="4" t="inlineStr"/>
+      <c r="F755" s="29" t="inlineStr">
+        <is>
+          <t>DANH SÁCH LÁI XE ĐÃ ĐỌC THÔNG BÁO</t>
+        </is>
+      </c>
+      <c r="G755" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H755" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41620,8 +42858,16 @@
           <t>Hiển thị message: "Xóa thông báo thành công."</t>
         </is>
       </c>
-      <c r="F756" s="29" t="inlineStr"/>
-      <c r="G756" s="4" t="inlineStr"/>
+      <c r="F756" s="29" t="inlineStr">
+        <is>
+          <t>Xóa thông báo thành công.</t>
+        </is>
+      </c>
+      <c r="G756" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H756" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41696,8 +42942,16 @@
           <t>Chuyển đến trang: "10.7.4 Quản trị thông báo lái xe v2"</t>
         </is>
       </c>
-      <c r="F759" s="29" t="inlineStr"/>
-      <c r="G759" s="4" t="inlineStr"/>
+      <c r="F759" s="29" t="inlineStr">
+        <is>
+          <t>10.7.4 Quản trị thông báo lái xe v2</t>
+        </is>
+      </c>
+      <c r="G759" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H759" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41776,8 +43030,16 @@
           <t>Trường "Tiêu đề" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F761" s="29" t="inlineStr"/>
-      <c r="G761" s="4" t="inlineStr"/>
+      <c r="F761" s="29" t="inlineStr">
+        <is>
+          <t>Tb để đến mai mới gửi 0h</t>
+        </is>
+      </c>
+      <c r="G761" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H761" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41815,8 +43077,16 @@
           <t>Trường "Kiểu thông báo" hiện thị: Thông báo</t>
         </is>
       </c>
-      <c r="F762" s="29" t="inlineStr"/>
-      <c r="G762" s="4" t="inlineStr"/>
+      <c r="F762" s="29" t="inlineStr">
+        <is>
+          <t>Thông báo</t>
+        </is>
+      </c>
+      <c r="G762" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H762" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42426,7 +43696,7 @@
       <c r="M777" s="42" t="inlineStr"/>
       <c r="N777" s="42" t="inlineStr">
         <is>
-          <t>Auto_ThongBaoV2_3096</t>
+          <t>Auto_ThongBaoV2_2265</t>
         </is>
       </c>
     </row>
@@ -42735,8 +44005,16 @@
           <t>Chuyển đến trang: "10.10.2 Phụ phí loại hàng hóa"</t>
         </is>
       </c>
-      <c r="F787" s="29" t="inlineStr"/>
-      <c r="G787" s="4" t="inlineStr"/>
+      <c r="F787" s="29" t="inlineStr">
+        <is>
+          <t>10.10.2 Phụ phí loại hàng hóa</t>
+        </is>
+      </c>
+      <c r="G787" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H787" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42858,8 +44136,16 @@
           <t>Hiển thị message: "Lưu loại hàng hóa thành công"</t>
         </is>
       </c>
-      <c r="F790" s="29" t="inlineStr"/>
-      <c r="G790" s="4" t="inlineStr"/>
+      <c r="F790" s="29" t="inlineStr">
+        <is>
+          <t>Lưu loại hàng hóa thành công</t>
+        </is>
+      </c>
+      <c r="G790" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H790" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42937,8 +44223,16 @@
           <t>Hiển thị message: "Xóa loại hàng hóa thành công"</t>
         </is>
       </c>
-      <c r="F792" s="29" t="inlineStr"/>
-      <c r="G792" s="4" t="inlineStr"/>
+      <c r="F792" s="29" t="inlineStr">
+        <is>
+          <t>Xóa loại hàng hóa thành công</t>
+        </is>
+      </c>
+      <c r="G792" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H792" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43018,8 +44312,16 @@
           <t>Chuyển đến trang: "10.10.3 Phụ phí theo thời gian"</t>
         </is>
       </c>
-      <c r="F795" s="29" t="inlineStr"/>
-      <c r="G795" s="4" t="inlineStr"/>
+      <c r="F795" s="29" t="inlineStr">
+        <is>
+          <t>10.10.3 Phụ phí theo thời gian</t>
+        </is>
+      </c>
+      <c r="G795" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H795" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43105,8 +44407,16 @@
           <t>Hiển thị message: "Lưu cấu hình thời gian thành công"</t>
         </is>
       </c>
-      <c r="F797" s="29" t="inlineStr"/>
-      <c r="G797" s="4" t="inlineStr"/>
+      <c r="F797" s="29" t="inlineStr">
+        <is>
+          <t>Lưu cấu hình thời gian thành công</t>
+        </is>
+      </c>
+      <c r="G797" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H797" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43184,8 +44494,16 @@
           <t>Hiển thị message: "Xóa cấu hình thời gian thành công"</t>
         </is>
       </c>
-      <c r="F799" s="29" t="inlineStr"/>
-      <c r="G799" s="4" t="inlineStr"/>
+      <c r="F799" s="29" t="inlineStr">
+        <is>
+          <t>Xóa cấu hình thời gian thành công</t>
+        </is>
+      </c>
+      <c r="G799" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H799" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43264,8 +44582,16 @@
           <t>Chuyển đến trang: "10.10.4 Phụ phí thu hộ"</t>
         </is>
       </c>
-      <c r="F802" s="29" t="inlineStr"/>
-      <c r="G802" s="4" t="inlineStr"/>
+      <c r="F802" s="29" t="inlineStr">
+        <is>
+          <t>10.10.4 Phụ phí thu hộ</t>
+        </is>
+      </c>
+      <c r="G802" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H802" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43467,8 +44793,16 @@
           <t>Hiển thị message: "Lưu phụ phí thành công"</t>
         </is>
       </c>
-      <c r="F807" s="29" t="inlineStr"/>
-      <c r="G807" s="4" t="inlineStr"/>
+      <c r="F807" s="29" t="inlineStr">
+        <is>
+          <t>Lưu phụ phí thành công</t>
+        </is>
+      </c>
+      <c r="G807" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H807" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43546,8 +44880,16 @@
           <t>Hiển thị message: "Xóa phụ phí thành công"</t>
         </is>
       </c>
-      <c r="F809" s="29" t="inlineStr"/>
-      <c r="G809" s="4" t="inlineStr"/>
+      <c r="F809" s="29" t="inlineStr">
+        <is>
+          <t>Xóa phụ phí thành công</t>
+        </is>
+      </c>
+      <c r="G809" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H809" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43626,8 +44968,16 @@
           <t>Chuyển đến trang: "10.10.5 Phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F812" s="29" t="inlineStr"/>
-      <c r="G812" s="4" t="inlineStr"/>
+      <c r="F812" s="29" t="inlineStr">
+        <is>
+          <t>10.10.5 Phụ phí theo thời tiết</t>
+        </is>
+      </c>
+      <c r="G812" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H812" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43715,8 +45065,16 @@
           <t>Hiển thị message: "Lưu phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F814" s="29" t="inlineStr"/>
-      <c r="G814" s="4" t="inlineStr"/>
+      <c r="F814" s="29" t="inlineStr">
+        <is>
+          <t>Lưu phụ phí theo thời tiết</t>
+        </is>
+      </c>
+      <c r="G814" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H814" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43794,8 +45152,16 @@
           <t>Hiển thị message: "Xóa phụ phí theo thời tiết thành công"</t>
         </is>
       </c>
-      <c r="F816" s="29" t="inlineStr"/>
-      <c r="G816" s="4" t="inlineStr"/>
+      <c r="F816" s="29" t="inlineStr">
+        <is>
+          <t>Xóa phụ phí theo thời tiết thành công</t>
+        </is>
+      </c>
+      <c r="G816" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H816" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44240,8 +45606,16 @@
           <t>Chuyển đến trang: "14.1 Quản lý xuất hoá đơn"</t>
         </is>
       </c>
-      <c r="F831" s="29" t="inlineStr"/>
-      <c r="G831" s="4" t="inlineStr"/>
+      <c r="F831" s="29" t="inlineStr">
+        <is>
+          <t>14.1 Quản lý xuất hoá đơn</t>
+        </is>
+      </c>
+      <c r="G831" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H831" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -44365,8 +45739,16 @@
           <t>Trường "Mã cuốc khách" hiện thị đúng Mã cuốc khách đã nhập</t>
         </is>
       </c>
-      <c r="F834" s="29" t="inlineStr"/>
-      <c r="G834" s="4" t="inlineStr"/>
+      <c r="F834" s="29" t="inlineStr">
+        <is>
+          <t>00072F03</t>
+        </is>
+      </c>
+      <c r="G834" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H834" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -45099,8 +46481,16 @@
 2."Cuốc khách không đủ điều kiện xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F852" s="29" t="inlineStr"/>
-      <c r="G852" s="4" t="inlineStr"/>
+      <c r="F852" s="29" t="inlineStr">
+        <is>
+          <t>Cuốc khách không đủ điều kiện xuất hóa đơn</t>
+        </is>
+      </c>
+      <c r="G852" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H852" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -45142,8 +46532,16 @@
           <t>Hiển thị thông báo: "Xác nhận không xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F853" s="29" t="inlineStr"/>
-      <c r="G853" s="4" t="inlineStr"/>
+      <c r="F853" s="29" t="inlineStr">
+        <is>
+          <t>Xác nhận không xuất hóa đơn</t>
+        </is>
+      </c>
+      <c r="G853" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H853" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -45182,8 +46580,16 @@
 2."Cuốc khách không đủ điều kiện xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F854" s="29" t="inlineStr"/>
-      <c r="G854" s="4" t="inlineStr"/>
+      <c r="F854" s="29" t="inlineStr">
+        <is>
+          <t>Thông tin xuất hóa đơn</t>
+        </is>
+      </c>
+      <c r="G854" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H854" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -47392,4091 +48798,6 @@
       <c r="M915" s="42" t="inlineStr"/>
       <c r="N915" s="42" t="n"/>
     </row>
-    <row r="916"/>
-    <row r="917"/>
-    <row r="918"/>
-    <row r="919"/>
-    <row r="920"/>
-    <row r="921"/>
-    <row r="922"/>
-    <row r="923"/>
-    <row r="924"/>
-    <row r="925"/>
-    <row r="926"/>
-    <row r="927"/>
-    <row r="928"/>
-    <row r="929"/>
-    <row r="930"/>
-    <row r="931"/>
-    <row r="932"/>
-    <row r="933"/>
-    <row r="934"/>
-    <row r="935"/>
-    <row r="936"/>
-    <row r="937"/>
-    <row r="938"/>
-    <row r="939"/>
-    <row r="940"/>
-    <row r="941"/>
-    <row r="942"/>
-    <row r="943"/>
-    <row r="944"/>
-    <row r="945"/>
-    <row r="946"/>
-    <row r="947"/>
-    <row r="948"/>
-    <row r="949"/>
-    <row r="950"/>
-    <row r="951"/>
-    <row r="952"/>
-    <row r="953"/>
-    <row r="954"/>
-    <row r="955"/>
-    <row r="956"/>
-    <row r="957"/>
-    <row r="958"/>
-    <row r="959"/>
-    <row r="960"/>
-    <row r="961"/>
-    <row r="962"/>
-    <row r="963"/>
-    <row r="964"/>
-    <row r="965"/>
-    <row r="966"/>
-    <row r="967"/>
-    <row r="968"/>
-    <row r="969"/>
-    <row r="970"/>
-    <row r="971"/>
-    <row r="972"/>
-    <row r="973"/>
-    <row r="974"/>
-    <row r="975"/>
-    <row r="976"/>
-    <row r="977"/>
-    <row r="978"/>
-    <row r="979"/>
-    <row r="980"/>
-    <row r="981"/>
-    <row r="982"/>
-    <row r="983"/>
-    <row r="984"/>
-    <row r="985"/>
-    <row r="986"/>
-    <row r="987"/>
-    <row r="988"/>
-    <row r="989"/>
-    <row r="990"/>
-    <row r="991"/>
-    <row r="992"/>
-    <row r="993"/>
-    <row r="994"/>
-    <row r="995"/>
-    <row r="996"/>
-    <row r="997"/>
-    <row r="998"/>
-    <row r="999"/>
-    <row r="1000"/>
-    <row r="1001"/>
-    <row r="1002"/>
-    <row r="1003"/>
-    <row r="1004"/>
-    <row r="1005"/>
-    <row r="1006"/>
-    <row r="1007"/>
-    <row r="1008"/>
-    <row r="1009"/>
-    <row r="1010"/>
-    <row r="1011"/>
-    <row r="1012"/>
-    <row r="1013"/>
-    <row r="1014"/>
-    <row r="1015"/>
-    <row r="1016"/>
-    <row r="1017"/>
-    <row r="1018"/>
-    <row r="1019"/>
-    <row r="1020"/>
-    <row r="1021"/>
-    <row r="1022"/>
-    <row r="1023"/>
-    <row r="1024"/>
-    <row r="1025"/>
-    <row r="1026"/>
-    <row r="1027"/>
-    <row r="1028"/>
-    <row r="1029"/>
-    <row r="1030"/>
-    <row r="1031"/>
-    <row r="1032"/>
-    <row r="1033"/>
-    <row r="1034"/>
-    <row r="1035"/>
-    <row r="1036"/>
-    <row r="1037"/>
-    <row r="1038"/>
-    <row r="1039"/>
-    <row r="1040"/>
-    <row r="1041"/>
-    <row r="1042"/>
-    <row r="1043"/>
-    <row r="1044"/>
-    <row r="1045"/>
-    <row r="1046"/>
-    <row r="1047"/>
-    <row r="1048"/>
-    <row r="1049"/>
-    <row r="1050"/>
-    <row r="1051"/>
-    <row r="1052"/>
-    <row r="1053"/>
-    <row r="1054"/>
-    <row r="1055"/>
-    <row r="1056"/>
-    <row r="1057"/>
-    <row r="1058"/>
-    <row r="1059"/>
-    <row r="1060"/>
-    <row r="1061"/>
-    <row r="1062"/>
-    <row r="1063"/>
-    <row r="1064"/>
-    <row r="1065"/>
-    <row r="1066"/>
-    <row r="1067"/>
-    <row r="1068"/>
-    <row r="1069"/>
-    <row r="1070"/>
-    <row r="1071"/>
-    <row r="1072"/>
-    <row r="1073"/>
-    <row r="1074"/>
-    <row r="1075"/>
-    <row r="1076"/>
-    <row r="1077"/>
-    <row r="1078"/>
-    <row r="1079"/>
-    <row r="1080"/>
-    <row r="1081"/>
-    <row r="1082"/>
-    <row r="1083"/>
-    <row r="1084"/>
-    <row r="1085"/>
-    <row r="1086"/>
-    <row r="1087"/>
-    <row r="1088"/>
-    <row r="1089"/>
-    <row r="1090"/>
-    <row r="1091"/>
-    <row r="1092"/>
-    <row r="1093"/>
-    <row r="1094"/>
-    <row r="1095"/>
-    <row r="1096"/>
-    <row r="1097"/>
-    <row r="1098"/>
-    <row r="1099"/>
-    <row r="1100"/>
-    <row r="1101"/>
-    <row r="1102"/>
-    <row r="1103"/>
-    <row r="1104"/>
-    <row r="1105"/>
-    <row r="1106"/>
-    <row r="1107"/>
-    <row r="1108"/>
-    <row r="1109"/>
-    <row r="1110"/>
-    <row r="1111"/>
-    <row r="1112"/>
-    <row r="1113"/>
-    <row r="1114"/>
-    <row r="1115"/>
-    <row r="1116"/>
-    <row r="1117"/>
-    <row r="1118"/>
-    <row r="1119"/>
-    <row r="1120"/>
-    <row r="1121"/>
-    <row r="1122"/>
-    <row r="1123"/>
-    <row r="1124"/>
-    <row r="1125"/>
-    <row r="1126"/>
-    <row r="1127"/>
-    <row r="1128"/>
-    <row r="1129"/>
-    <row r="1130"/>
-    <row r="1131"/>
-    <row r="1132"/>
-    <row r="1133"/>
-    <row r="1134"/>
-    <row r="1135"/>
-    <row r="1136"/>
-    <row r="1137"/>
-    <row r="1138"/>
-    <row r="1139"/>
-    <row r="1140"/>
-    <row r="1141"/>
-    <row r="1142"/>
-    <row r="1143"/>
-    <row r="1144"/>
-    <row r="1145"/>
-    <row r="1146"/>
-    <row r="1147"/>
-    <row r="1148"/>
-    <row r="1149"/>
-    <row r="1150"/>
-    <row r="1151"/>
-    <row r="1152"/>
-    <row r="1153"/>
-    <row r="1154"/>
-    <row r="1155"/>
-    <row r="1156"/>
-    <row r="1157"/>
-    <row r="1158"/>
-    <row r="1159"/>
-    <row r="1160"/>
-    <row r="1161"/>
-    <row r="1162"/>
-    <row r="1163"/>
-    <row r="1164"/>
-    <row r="1165"/>
-    <row r="1166"/>
-    <row r="1167"/>
-    <row r="1168"/>
-    <row r="1169"/>
-    <row r="1170"/>
-    <row r="1171"/>
-    <row r="1172"/>
-    <row r="1173"/>
-    <row r="1174"/>
-    <row r="1175"/>
-    <row r="1176"/>
-    <row r="1177"/>
-    <row r="1178"/>
-    <row r="1179"/>
-    <row r="1180"/>
-    <row r="1181"/>
-    <row r="1182"/>
-    <row r="1183"/>
-    <row r="1184"/>
-    <row r="1185"/>
-    <row r="1186"/>
-    <row r="1187"/>
-    <row r="1188"/>
-    <row r="1189"/>
-    <row r="1190"/>
-    <row r="1191"/>
-    <row r="1192"/>
-    <row r="1193"/>
-    <row r="1194"/>
-    <row r="1195"/>
-    <row r="1196"/>
-    <row r="1197"/>
-    <row r="1198"/>
-    <row r="1199"/>
-    <row r="1200"/>
-    <row r="1201"/>
-    <row r="1202"/>
-    <row r="1203"/>
-    <row r="1204"/>
-    <row r="1205"/>
-    <row r="1206"/>
-    <row r="1207"/>
-    <row r="1208"/>
-    <row r="1209"/>
-    <row r="1210"/>
-    <row r="1211"/>
-    <row r="1212"/>
-    <row r="1213"/>
-    <row r="1214"/>
-    <row r="1215"/>
-    <row r="1216"/>
-    <row r="1217"/>
-    <row r="1218"/>
-    <row r="1219"/>
-    <row r="1220"/>
-    <row r="1221"/>
-    <row r="1222"/>
-    <row r="1223"/>
-    <row r="1224"/>
-    <row r="1225"/>
-    <row r="1226"/>
-    <row r="1227"/>
-    <row r="1228"/>
-    <row r="1229"/>
-    <row r="1230"/>
-    <row r="1231"/>
-    <row r="1232"/>
-    <row r="1233"/>
-    <row r="1234"/>
-    <row r="1235"/>
-    <row r="1236"/>
-    <row r="1237"/>
-    <row r="1238"/>
-    <row r="1239"/>
-    <row r="1240"/>
-    <row r="1241"/>
-    <row r="1242"/>
-    <row r="1243"/>
-    <row r="1244"/>
-    <row r="1245"/>
-    <row r="1246"/>
-    <row r="1247"/>
-    <row r="1248"/>
-    <row r="1249"/>
-    <row r="1250"/>
-    <row r="1251"/>
-    <row r="1252"/>
-    <row r="1253"/>
-    <row r="1254"/>
-    <row r="1255"/>
-    <row r="1256"/>
-    <row r="1257"/>
-    <row r="1258"/>
-    <row r="1259"/>
-    <row r="1260"/>
-    <row r="1261"/>
-    <row r="1262"/>
-    <row r="1263"/>
-    <row r="1264"/>
-    <row r="1265"/>
-    <row r="1266"/>
-    <row r="1267"/>
-    <row r="1268"/>
-    <row r="1269"/>
-    <row r="1270"/>
-    <row r="1271"/>
-    <row r="1272"/>
-    <row r="1273"/>
-    <row r="1274"/>
-    <row r="1275"/>
-    <row r="1276"/>
-    <row r="1277"/>
-    <row r="1278"/>
-    <row r="1279"/>
-    <row r="1280"/>
-    <row r="1281"/>
-    <row r="1282"/>
-    <row r="1283"/>
-    <row r="1284"/>
-    <row r="1285"/>
-    <row r="1286"/>
-    <row r="1287"/>
-    <row r="1288"/>
-    <row r="1289"/>
-    <row r="1290"/>
-    <row r="1291"/>
-    <row r="1292"/>
-    <row r="1293"/>
-    <row r="1294"/>
-    <row r="1295"/>
-    <row r="1296"/>
-    <row r="1297"/>
-    <row r="1298"/>
-    <row r="1299"/>
-    <row r="1300"/>
-    <row r="1301"/>
-    <row r="1302"/>
-    <row r="1303"/>
-    <row r="1304"/>
-    <row r="1305"/>
-    <row r="1306"/>
-    <row r="1307"/>
-    <row r="1308"/>
-    <row r="1309"/>
-    <row r="1310"/>
-    <row r="1311"/>
-    <row r="1312"/>
-    <row r="1313"/>
-    <row r="1314"/>
-    <row r="1315"/>
-    <row r="1316"/>
-    <row r="1317"/>
-    <row r="1318"/>
-    <row r="1319"/>
-    <row r="1320"/>
-    <row r="1321"/>
-    <row r="1322"/>
-    <row r="1323"/>
-    <row r="1324"/>
-    <row r="1325"/>
-    <row r="1326"/>
-    <row r="1327"/>
-    <row r="1328"/>
-    <row r="1329"/>
-    <row r="1330"/>
-    <row r="1331"/>
-    <row r="1332"/>
-    <row r="1333"/>
-    <row r="1334"/>
-    <row r="1335"/>
-    <row r="1336"/>
-    <row r="1337"/>
-    <row r="1338"/>
-    <row r="1339"/>
-    <row r="1340"/>
-    <row r="1341"/>
-    <row r="1342"/>
-    <row r="1343"/>
-    <row r="1344"/>
-    <row r="1345"/>
-    <row r="1346"/>
-    <row r="1347"/>
-    <row r="1348"/>
-    <row r="1349"/>
-    <row r="1350"/>
-    <row r="1351"/>
-    <row r="1352"/>
-    <row r="1353"/>
-    <row r="1354"/>
-    <row r="1355"/>
-    <row r="1356"/>
-    <row r="1357"/>
-    <row r="1358"/>
-    <row r="1359"/>
-    <row r="1360"/>
-    <row r="1361"/>
-    <row r="1362"/>
-    <row r="1363"/>
-    <row r="1364"/>
-    <row r="1365"/>
-    <row r="1366"/>
-    <row r="1367"/>
-    <row r="1368"/>
-    <row r="1369"/>
-    <row r="1370"/>
-    <row r="1371"/>
-    <row r="1372"/>
-    <row r="1373"/>
-    <row r="1374"/>
-    <row r="1375"/>
-    <row r="1376"/>
-    <row r="1377"/>
-    <row r="1378"/>
-    <row r="1379"/>
-    <row r="1380"/>
-    <row r="1381"/>
-    <row r="1382"/>
-    <row r="1383"/>
-    <row r="1384"/>
-    <row r="1385"/>
-    <row r="1386"/>
-    <row r="1387"/>
-    <row r="1388"/>
-    <row r="1389"/>
-    <row r="1390"/>
-    <row r="1391"/>
-    <row r="1392"/>
-    <row r="1393"/>
-    <row r="1394"/>
-    <row r="1395"/>
-    <row r="1396"/>
-    <row r="1397"/>
-    <row r="1398"/>
-    <row r="1399"/>
-    <row r="1400"/>
-    <row r="1401"/>
-    <row r="1402"/>
-    <row r="1403"/>
-    <row r="1404"/>
-    <row r="1405"/>
-    <row r="1406"/>
-    <row r="1407"/>
-    <row r="1408"/>
-    <row r="1409"/>
-    <row r="1410"/>
-    <row r="1411"/>
-    <row r="1412"/>
-    <row r="1413"/>
-    <row r="1414"/>
-    <row r="1415"/>
-    <row r="1416"/>
-    <row r="1417"/>
-    <row r="1418"/>
-    <row r="1419"/>
-    <row r="1420"/>
-    <row r="1421"/>
-    <row r="1422"/>
-    <row r="1423"/>
-    <row r="1424"/>
-    <row r="1425"/>
-    <row r="1426"/>
-    <row r="1427"/>
-    <row r="1428"/>
-    <row r="1429"/>
-    <row r="1430"/>
-    <row r="1431"/>
-    <row r="1432"/>
-    <row r="1433"/>
-    <row r="1434"/>
-    <row r="1435"/>
-    <row r="1436"/>
-    <row r="1437"/>
-    <row r="1438"/>
-    <row r="1439"/>
-    <row r="1440"/>
-    <row r="1441"/>
-    <row r="1442"/>
-    <row r="1443"/>
-    <row r="1444"/>
-    <row r="1445"/>
-    <row r="1446"/>
-    <row r="1447"/>
-    <row r="1448"/>
-    <row r="1449"/>
-    <row r="1450"/>
-    <row r="1451"/>
-    <row r="1452"/>
-    <row r="1453"/>
-    <row r="1454"/>
-    <row r="1455"/>
-    <row r="1456"/>
-    <row r="1457"/>
-    <row r="1458"/>
-    <row r="1459"/>
-    <row r="1460"/>
-    <row r="1461"/>
-    <row r="1462"/>
-    <row r="1463"/>
-    <row r="1464"/>
-    <row r="1465"/>
-    <row r="1466"/>
-    <row r="1467"/>
-    <row r="1468"/>
-    <row r="1469"/>
-    <row r="1470"/>
-    <row r="1471"/>
-    <row r="1472"/>
-    <row r="1473"/>
-    <row r="1474"/>
-    <row r="1475"/>
-    <row r="1476"/>
-    <row r="1477"/>
-    <row r="1478"/>
-    <row r="1479"/>
-    <row r="1480"/>
-    <row r="1481"/>
-    <row r="1482"/>
-    <row r="1483"/>
-    <row r="1484"/>
-    <row r="1485"/>
-    <row r="1486"/>
-    <row r="1487"/>
-    <row r="1488"/>
-    <row r="1489"/>
-    <row r="1490"/>
-    <row r="1491"/>
-    <row r="1492"/>
-    <row r="1493"/>
-    <row r="1494"/>
-    <row r="1495"/>
-    <row r="1496"/>
-    <row r="1497"/>
-    <row r="1498"/>
-    <row r="1499"/>
-    <row r="1500"/>
-    <row r="1501"/>
-    <row r="1502"/>
-    <row r="1503"/>
-    <row r="1504"/>
-    <row r="1505"/>
-    <row r="1506"/>
-    <row r="1507"/>
-    <row r="1508"/>
-    <row r="1509"/>
-    <row r="1510"/>
-    <row r="1511"/>
-    <row r="1512"/>
-    <row r="1513"/>
-    <row r="1514"/>
-    <row r="1515"/>
-    <row r="1516"/>
-    <row r="1517"/>
-    <row r="1518"/>
-    <row r="1519"/>
-    <row r="1520"/>
-    <row r="1521"/>
-    <row r="1522"/>
-    <row r="1523"/>
-    <row r="1524"/>
-    <row r="1525"/>
-    <row r="1526"/>
-    <row r="1527"/>
-    <row r="1528"/>
-    <row r="1529"/>
-    <row r="1530"/>
-    <row r="1531"/>
-    <row r="1532"/>
-    <row r="1533"/>
-    <row r="1534"/>
-    <row r="1535"/>
-    <row r="1536"/>
-    <row r="1537"/>
-    <row r="1538"/>
-    <row r="1539"/>
-    <row r="1540"/>
-    <row r="1541"/>
-    <row r="1542"/>
-    <row r="1543"/>
-    <row r="1544"/>
-    <row r="1545"/>
-    <row r="1546"/>
-    <row r="1547"/>
-    <row r="1548"/>
-    <row r="1549"/>
-    <row r="1550"/>
-    <row r="1551"/>
-    <row r="1552"/>
-    <row r="1553"/>
-    <row r="1554"/>
-    <row r="1555"/>
-    <row r="1556"/>
-    <row r="1557"/>
-    <row r="1558"/>
-    <row r="1559"/>
-    <row r="1560"/>
-    <row r="1561"/>
-    <row r="1562"/>
-    <row r="1563"/>
-    <row r="1564"/>
-    <row r="1565"/>
-    <row r="1566"/>
-    <row r="1567"/>
-    <row r="1568"/>
-    <row r="1569"/>
-    <row r="1570"/>
-    <row r="1571"/>
-    <row r="1572"/>
-    <row r="1573"/>
-    <row r="1574"/>
-    <row r="1575"/>
-    <row r="1576"/>
-    <row r="1577"/>
-    <row r="1578"/>
-    <row r="1579"/>
-    <row r="1580"/>
-    <row r="1581"/>
-    <row r="1582"/>
-    <row r="1583"/>
-    <row r="1584"/>
-    <row r="1585"/>
-    <row r="1586"/>
-    <row r="1587"/>
-    <row r="1588"/>
-    <row r="1589"/>
-    <row r="1590"/>
-    <row r="1591"/>
-    <row r="1592"/>
-    <row r="1593"/>
-    <row r="1594"/>
-    <row r="1595"/>
-    <row r="1596"/>
-    <row r="1597"/>
-    <row r="1598"/>
-    <row r="1599"/>
-    <row r="1600"/>
-    <row r="1601"/>
-    <row r="1602"/>
-    <row r="1603"/>
-    <row r="1604"/>
-    <row r="1605"/>
-    <row r="1606"/>
-    <row r="1607"/>
-    <row r="1608"/>
-    <row r="1609"/>
-    <row r="1610"/>
-    <row r="1611"/>
-    <row r="1612"/>
-    <row r="1613"/>
-    <row r="1614"/>
-    <row r="1615"/>
-    <row r="1616"/>
-    <row r="1617"/>
-    <row r="1618"/>
-    <row r="1619"/>
-    <row r="1620"/>
-    <row r="1621"/>
-    <row r="1622"/>
-    <row r="1623"/>
-    <row r="1624"/>
-    <row r="1625"/>
-    <row r="1626"/>
-    <row r="1627"/>
-    <row r="1628"/>
-    <row r="1629"/>
-    <row r="1630"/>
-    <row r="1631"/>
-    <row r="1632"/>
-    <row r="1633"/>
-    <row r="1634"/>
-    <row r="1635"/>
-    <row r="1636"/>
-    <row r="1637"/>
-    <row r="1638"/>
-    <row r="1639"/>
-    <row r="1640"/>
-    <row r="1641"/>
-    <row r="1642"/>
-    <row r="1643"/>
-    <row r="1644"/>
-    <row r="1645"/>
-    <row r="1646"/>
-    <row r="1647"/>
-    <row r="1648"/>
-    <row r="1649"/>
-    <row r="1650"/>
-    <row r="1651"/>
-    <row r="1652"/>
-    <row r="1653"/>
-    <row r="1654"/>
-    <row r="1655"/>
-    <row r="1656"/>
-    <row r="1657"/>
-    <row r="1658"/>
-    <row r="1659"/>
-    <row r="1660"/>
-    <row r="1661"/>
-    <row r="1662"/>
-    <row r="1663"/>
-    <row r="1664"/>
-    <row r="1665"/>
-    <row r="1666"/>
-    <row r="1667"/>
-    <row r="1668"/>
-    <row r="1669"/>
-    <row r="1670"/>
-    <row r="1671"/>
-    <row r="1672"/>
-    <row r="1673"/>
-    <row r="1674"/>
-    <row r="1675"/>
-    <row r="1676"/>
-    <row r="1677"/>
-    <row r="1678"/>
-    <row r="1679"/>
-    <row r="1680"/>
-    <row r="1681"/>
-    <row r="1682"/>
-    <row r="1683"/>
-    <row r="1684"/>
-    <row r="1685"/>
-    <row r="1686"/>
-    <row r="1687"/>
-    <row r="1688"/>
-    <row r="1689"/>
-    <row r="1690"/>
-    <row r="1691"/>
-    <row r="1692"/>
-    <row r="1693"/>
-    <row r="1694"/>
-    <row r="1695"/>
-    <row r="1696"/>
-    <row r="1697"/>
-    <row r="1698"/>
-    <row r="1699"/>
-    <row r="1700"/>
-    <row r="1701"/>
-    <row r="1702"/>
-    <row r="1703"/>
-    <row r="1704"/>
-    <row r="1705"/>
-    <row r="1706"/>
-    <row r="1707"/>
-    <row r="1708"/>
-    <row r="1709"/>
-    <row r="1710"/>
-    <row r="1711"/>
-    <row r="1712"/>
-    <row r="1713"/>
-    <row r="1714"/>
-    <row r="1715"/>
-    <row r="1716"/>
-    <row r="1717"/>
-    <row r="1718"/>
-    <row r="1719"/>
-    <row r="1720"/>
-    <row r="1721"/>
-    <row r="1722"/>
-    <row r="1723"/>
-    <row r="1724"/>
-    <row r="1725"/>
-    <row r="1726"/>
-    <row r="1727"/>
-    <row r="1728"/>
-    <row r="1729"/>
-    <row r="1730"/>
-    <row r="1731"/>
-    <row r="1732"/>
-    <row r="1733"/>
-    <row r="1734"/>
-    <row r="1735"/>
-    <row r="1736"/>
-    <row r="1737"/>
-    <row r="1738"/>
-    <row r="1739"/>
-    <row r="1740"/>
-    <row r="1741"/>
-    <row r="1742"/>
-    <row r="1743"/>
-    <row r="1744"/>
-    <row r="1745"/>
-    <row r="1746"/>
-    <row r="1747"/>
-    <row r="1748"/>
-    <row r="1749"/>
-    <row r="1750"/>
-    <row r="1751"/>
-    <row r="1752"/>
-    <row r="1753"/>
-    <row r="1754"/>
-    <row r="1755"/>
-    <row r="1756"/>
-    <row r="1757"/>
-    <row r="1758"/>
-    <row r="1759"/>
-    <row r="1760"/>
-    <row r="1761"/>
-    <row r="1762"/>
-    <row r="1763"/>
-    <row r="1764"/>
-    <row r="1765"/>
-    <row r="1766"/>
-    <row r="1767"/>
-    <row r="1768"/>
-    <row r="1769"/>
-    <row r="1770"/>
-    <row r="1771"/>
-    <row r="1772"/>
-    <row r="1773"/>
-    <row r="1774"/>
-    <row r="1775"/>
-    <row r="1776"/>
-    <row r="1777"/>
-    <row r="1778"/>
-    <row r="1779"/>
-    <row r="1780"/>
-    <row r="1781"/>
-    <row r="1782"/>
-    <row r="1783"/>
-    <row r="1784"/>
-    <row r="1785"/>
-    <row r="1786"/>
-    <row r="1787"/>
-    <row r="1788"/>
-    <row r="1789"/>
-    <row r="1790"/>
-    <row r="1791"/>
-    <row r="1792"/>
-    <row r="1793"/>
-    <row r="1794"/>
-    <row r="1795"/>
-    <row r="1796"/>
-    <row r="1797"/>
-    <row r="1798"/>
-    <row r="1799"/>
-    <row r="1800"/>
-    <row r="1801"/>
-    <row r="1802"/>
-    <row r="1803"/>
-    <row r="1804"/>
-    <row r="1805"/>
-    <row r="1806"/>
-    <row r="1807"/>
-    <row r="1808"/>
-    <row r="1809"/>
-    <row r="1810"/>
-    <row r="1811"/>
-    <row r="1812"/>
-    <row r="1813"/>
-    <row r="1814"/>
-    <row r="1815"/>
-    <row r="1816"/>
-    <row r="1817"/>
-    <row r="1818"/>
-    <row r="1819"/>
-    <row r="1820"/>
-    <row r="1821"/>
-    <row r="1822"/>
-    <row r="1823"/>
-    <row r="1824"/>
-    <row r="1825"/>
-    <row r="1826"/>
-    <row r="1827"/>
-    <row r="1828"/>
-    <row r="1829"/>
-    <row r="1830"/>
-    <row r="1831"/>
-    <row r="1832"/>
-    <row r="1833"/>
-    <row r="1834"/>
-    <row r="1835"/>
-    <row r="1836"/>
-    <row r="1837"/>
-    <row r="1838"/>
-    <row r="1839"/>
-    <row r="1840"/>
-    <row r="1841"/>
-    <row r="1842"/>
-    <row r="1843"/>
-    <row r="1844"/>
-    <row r="1845"/>
-    <row r="1846"/>
-    <row r="1847"/>
-    <row r="1848"/>
-    <row r="1849"/>
-    <row r="1850"/>
-    <row r="1851"/>
-    <row r="1852"/>
-    <row r="1853"/>
-    <row r="1854"/>
-    <row r="1855"/>
-    <row r="1856"/>
-    <row r="1857"/>
-    <row r="1858"/>
-    <row r="1859"/>
-    <row r="1860"/>
-    <row r="1861"/>
-    <row r="1862"/>
-    <row r="1863"/>
-    <row r="1864"/>
-    <row r="1865"/>
-    <row r="1866"/>
-    <row r="1867"/>
-    <row r="1868"/>
-    <row r="1869"/>
-    <row r="1870"/>
-    <row r="1871"/>
-    <row r="1872"/>
-    <row r="1873"/>
-    <row r="1874"/>
-    <row r="1875"/>
-    <row r="1876"/>
-    <row r="1877"/>
-    <row r="1878"/>
-    <row r="1879"/>
-    <row r="1880"/>
-    <row r="1881"/>
-    <row r="1882"/>
-    <row r="1883"/>
-    <row r="1884"/>
-    <row r="1885"/>
-    <row r="1886"/>
-    <row r="1887"/>
-    <row r="1888"/>
-    <row r="1889"/>
-    <row r="1890"/>
-    <row r="1891"/>
-    <row r="1892"/>
-    <row r="1893"/>
-    <row r="1894"/>
-    <row r="1895"/>
-    <row r="1896"/>
-    <row r="1897"/>
-    <row r="1898"/>
-    <row r="1899"/>
-    <row r="1900"/>
-    <row r="1901"/>
-    <row r="1902"/>
-    <row r="1903"/>
-    <row r="1904"/>
-    <row r="1905"/>
-    <row r="1906"/>
-    <row r="1907"/>
-    <row r="1908"/>
-    <row r="1909"/>
-    <row r="1910"/>
-    <row r="1911"/>
-    <row r="1912"/>
-    <row r="1913"/>
-    <row r="1914"/>
-    <row r="1915"/>
-    <row r="1916"/>
-    <row r="1917"/>
-    <row r="1918"/>
-    <row r="1919"/>
-    <row r="1920"/>
-    <row r="1921"/>
-    <row r="1922"/>
-    <row r="1923"/>
-    <row r="1924"/>
-    <row r="1925"/>
-    <row r="1926"/>
-    <row r="1927"/>
-    <row r="1928"/>
-    <row r="1929"/>
-    <row r="1930"/>
-    <row r="1931"/>
-    <row r="1932"/>
-    <row r="1933"/>
-    <row r="1934"/>
-    <row r="1935"/>
-    <row r="1936"/>
-    <row r="1937"/>
-    <row r="1938"/>
-    <row r="1939"/>
-    <row r="1940"/>
-    <row r="1941"/>
-    <row r="1942"/>
-    <row r="1943"/>
-    <row r="1944"/>
-    <row r="1945"/>
-    <row r="1946"/>
-    <row r="1947"/>
-    <row r="1948"/>
-    <row r="1949"/>
-    <row r="1950"/>
-    <row r="1951"/>
-    <row r="1952"/>
-    <row r="1953"/>
-    <row r="1954"/>
-    <row r="1955"/>
-    <row r="1956"/>
-    <row r="1957"/>
-    <row r="1958"/>
-    <row r="1959"/>
-    <row r="1960"/>
-    <row r="1961"/>
-    <row r="1962"/>
-    <row r="1963"/>
-    <row r="1964"/>
-    <row r="1965"/>
-    <row r="1966"/>
-    <row r="1967"/>
-    <row r="1968"/>
-    <row r="1969"/>
-    <row r="1970"/>
-    <row r="1971"/>
-    <row r="1972"/>
-    <row r="1973"/>
-    <row r="1974"/>
-    <row r="1975"/>
-    <row r="1976"/>
-    <row r="1977"/>
-    <row r="1978"/>
-    <row r="1979"/>
-    <row r="1980"/>
-    <row r="1981"/>
-    <row r="1982"/>
-    <row r="1983"/>
-    <row r="1984"/>
-    <row r="1985"/>
-    <row r="1986"/>
-    <row r="1987"/>
-    <row r="1988"/>
-    <row r="1989"/>
-    <row r="1990"/>
-    <row r="1991"/>
-    <row r="1992"/>
-    <row r="1993"/>
-    <row r="1994"/>
-    <row r="1995"/>
-    <row r="1996"/>
-    <row r="1997"/>
-    <row r="1998"/>
-    <row r="1999"/>
-    <row r="2000"/>
-    <row r="2001"/>
-    <row r="2002"/>
-    <row r="2003"/>
-    <row r="2004"/>
-    <row r="2005"/>
-    <row r="2006"/>
-    <row r="2007"/>
-    <row r="2008"/>
-    <row r="2009"/>
-    <row r="2010"/>
-    <row r="2011"/>
-    <row r="2012"/>
-    <row r="2013"/>
-    <row r="2014"/>
-    <row r="2015"/>
-    <row r="2016"/>
-    <row r="2017"/>
-    <row r="2018"/>
-    <row r="2019"/>
-    <row r="2020"/>
-    <row r="2021"/>
-    <row r="2022"/>
-    <row r="2023"/>
-    <row r="2024"/>
-    <row r="2025"/>
-    <row r="2026"/>
-    <row r="2027"/>
-    <row r="2028"/>
-    <row r="2029"/>
-    <row r="2030"/>
-    <row r="2031"/>
-    <row r="2032"/>
-    <row r="2033"/>
-    <row r="2034"/>
-    <row r="2035"/>
-    <row r="2036"/>
-    <row r="2037"/>
-    <row r="2038"/>
-    <row r="2039"/>
-    <row r="2040"/>
-    <row r="2041"/>
-    <row r="2042"/>
-    <row r="2043"/>
-    <row r="2044"/>
-    <row r="2045"/>
-    <row r="2046"/>
-    <row r="2047"/>
-    <row r="2048"/>
-    <row r="2049"/>
-    <row r="2050"/>
-    <row r="2051"/>
-    <row r="2052"/>
-    <row r="2053"/>
-    <row r="2054"/>
-    <row r="2055"/>
-    <row r="2056"/>
-    <row r="2057"/>
-    <row r="2058"/>
-    <row r="2059"/>
-    <row r="2060"/>
-    <row r="2061"/>
-    <row r="2062"/>
-    <row r="2063"/>
-    <row r="2064"/>
-    <row r="2065"/>
-    <row r="2066"/>
-    <row r="2067"/>
-    <row r="2068"/>
-    <row r="2069"/>
-    <row r="2070"/>
-    <row r="2071"/>
-    <row r="2072"/>
-    <row r="2073"/>
-    <row r="2074"/>
-    <row r="2075"/>
-    <row r="2076"/>
-    <row r="2077"/>
-    <row r="2078"/>
-    <row r="2079"/>
-    <row r="2080"/>
-    <row r="2081"/>
-    <row r="2082"/>
-    <row r="2083"/>
-    <row r="2084"/>
-    <row r="2085"/>
-    <row r="2086"/>
-    <row r="2087"/>
-    <row r="2088"/>
-    <row r="2089"/>
-    <row r="2090"/>
-    <row r="2091"/>
-    <row r="2092"/>
-    <row r="2093"/>
-    <row r="2094"/>
-    <row r="2095"/>
-    <row r="2096"/>
-    <row r="2097"/>
-    <row r="2098"/>
-    <row r="2099"/>
-    <row r="2100"/>
-    <row r="2101"/>
-    <row r="2102"/>
-    <row r="2103"/>
-    <row r="2104"/>
-    <row r="2105"/>
-    <row r="2106"/>
-    <row r="2107"/>
-    <row r="2108"/>
-    <row r="2109"/>
-    <row r="2110"/>
-    <row r="2111"/>
-    <row r="2112"/>
-    <row r="2113"/>
-    <row r="2114"/>
-    <row r="2115"/>
-    <row r="2116"/>
-    <row r="2117"/>
-    <row r="2118"/>
-    <row r="2119"/>
-    <row r="2120"/>
-    <row r="2121"/>
-    <row r="2122"/>
-    <row r="2123"/>
-    <row r="2124"/>
-    <row r="2125"/>
-    <row r="2126"/>
-    <row r="2127"/>
-    <row r="2128"/>
-    <row r="2129"/>
-    <row r="2130"/>
-    <row r="2131"/>
-    <row r="2132"/>
-    <row r="2133"/>
-    <row r="2134"/>
-    <row r="2135"/>
-    <row r="2136"/>
-    <row r="2137"/>
-    <row r="2138"/>
-    <row r="2139"/>
-    <row r="2140"/>
-    <row r="2141"/>
-    <row r="2142"/>
-    <row r="2143"/>
-    <row r="2144"/>
-    <row r="2145"/>
-    <row r="2146"/>
-    <row r="2147"/>
-    <row r="2148"/>
-    <row r="2149"/>
-    <row r="2150"/>
-    <row r="2151"/>
-    <row r="2152"/>
-    <row r="2153"/>
-    <row r="2154"/>
-    <row r="2155"/>
-    <row r="2156"/>
-    <row r="2157"/>
-    <row r="2158"/>
-    <row r="2159"/>
-    <row r="2160"/>
-    <row r="2161"/>
-    <row r="2162"/>
-    <row r="2163"/>
-    <row r="2164"/>
-    <row r="2165"/>
-    <row r="2166"/>
-    <row r="2167"/>
-    <row r="2168"/>
-    <row r="2169"/>
-    <row r="2170"/>
-    <row r="2171"/>
-    <row r="2172"/>
-    <row r="2173"/>
-    <row r="2174"/>
-    <row r="2175"/>
-    <row r="2176"/>
-    <row r="2177"/>
-    <row r="2178"/>
-    <row r="2179"/>
-    <row r="2180"/>
-    <row r="2181"/>
-    <row r="2182"/>
-    <row r="2183"/>
-    <row r="2184"/>
-    <row r="2185"/>
-    <row r="2186"/>
-    <row r="2187"/>
-    <row r="2188"/>
-    <row r="2189"/>
-    <row r="2190"/>
-    <row r="2191"/>
-    <row r="2192"/>
-    <row r="2193"/>
-    <row r="2194"/>
-    <row r="2195"/>
-    <row r="2196"/>
-    <row r="2197"/>
-    <row r="2198"/>
-    <row r="2199"/>
-    <row r="2200"/>
-    <row r="2201"/>
-    <row r="2202"/>
-    <row r="2203"/>
-    <row r="2204"/>
-    <row r="2205"/>
-    <row r="2206"/>
-    <row r="2207"/>
-    <row r="2208"/>
-    <row r="2209"/>
-    <row r="2210"/>
-    <row r="2211"/>
-    <row r="2212"/>
-    <row r="2213"/>
-    <row r="2214"/>
-    <row r="2215"/>
-    <row r="2216"/>
-    <row r="2217"/>
-    <row r="2218"/>
-    <row r="2219"/>
-    <row r="2220"/>
-    <row r="2221"/>
-    <row r="2222"/>
-    <row r="2223"/>
-    <row r="2224"/>
-    <row r="2225"/>
-    <row r="2226"/>
-    <row r="2227"/>
-    <row r="2228"/>
-    <row r="2229"/>
-    <row r="2230"/>
-    <row r="2231"/>
-    <row r="2232"/>
-    <row r="2233"/>
-    <row r="2234"/>
-    <row r="2235"/>
-    <row r="2236"/>
-    <row r="2237"/>
-    <row r="2238"/>
-    <row r="2239"/>
-    <row r="2240"/>
-    <row r="2241"/>
-    <row r="2242"/>
-    <row r="2243"/>
-    <row r="2244"/>
-    <row r="2245"/>
-    <row r="2246"/>
-    <row r="2247"/>
-    <row r="2248"/>
-    <row r="2249"/>
-    <row r="2250"/>
-    <row r="2251"/>
-    <row r="2252"/>
-    <row r="2253"/>
-    <row r="2254"/>
-    <row r="2255"/>
-    <row r="2256"/>
-    <row r="2257"/>
-    <row r="2258"/>
-    <row r="2259"/>
-    <row r="2260"/>
-    <row r="2261"/>
-    <row r="2262"/>
-    <row r="2263"/>
-    <row r="2264"/>
-    <row r="2265"/>
-    <row r="2266"/>
-    <row r="2267"/>
-    <row r="2268"/>
-    <row r="2269"/>
-    <row r="2270"/>
-    <row r="2271"/>
-    <row r="2272"/>
-    <row r="2273"/>
-    <row r="2274"/>
-    <row r="2275"/>
-    <row r="2276"/>
-    <row r="2277"/>
-    <row r="2278"/>
-    <row r="2279"/>
-    <row r="2280"/>
-    <row r="2281"/>
-    <row r="2282"/>
-    <row r="2283"/>
-    <row r="2284"/>
-    <row r="2285"/>
-    <row r="2286"/>
-    <row r="2287"/>
-    <row r="2288"/>
-    <row r="2289"/>
-    <row r="2290"/>
-    <row r="2291"/>
-    <row r="2292"/>
-    <row r="2293"/>
-    <row r="2294"/>
-    <row r="2295"/>
-    <row r="2296"/>
-    <row r="2297"/>
-    <row r="2298"/>
-    <row r="2299"/>
-    <row r="2300"/>
-    <row r="2301"/>
-    <row r="2302"/>
-    <row r="2303"/>
-    <row r="2304"/>
-    <row r="2305"/>
-    <row r="2306"/>
-    <row r="2307"/>
-    <row r="2308"/>
-    <row r="2309"/>
-    <row r="2310"/>
-    <row r="2311"/>
-    <row r="2312"/>
-    <row r="2313"/>
-    <row r="2314"/>
-    <row r="2315"/>
-    <row r="2316"/>
-    <row r="2317"/>
-    <row r="2318"/>
-    <row r="2319"/>
-    <row r="2320"/>
-    <row r="2321"/>
-    <row r="2322"/>
-    <row r="2323"/>
-    <row r="2324"/>
-    <row r="2325"/>
-    <row r="2326"/>
-    <row r="2327"/>
-    <row r="2328"/>
-    <row r="2329"/>
-    <row r="2330"/>
-    <row r="2331"/>
-    <row r="2332"/>
-    <row r="2333"/>
-    <row r="2334"/>
-    <row r="2335"/>
-    <row r="2336"/>
-    <row r="2337"/>
-    <row r="2338"/>
-    <row r="2339"/>
-    <row r="2340"/>
-    <row r="2341"/>
-    <row r="2342"/>
-    <row r="2343"/>
-    <row r="2344"/>
-    <row r="2345"/>
-    <row r="2346"/>
-    <row r="2347"/>
-    <row r="2348"/>
-    <row r="2349"/>
-    <row r="2350"/>
-    <row r="2351"/>
-    <row r="2352"/>
-    <row r="2353"/>
-    <row r="2354"/>
-    <row r="2355"/>
-    <row r="2356"/>
-    <row r="2357"/>
-    <row r="2358"/>
-    <row r="2359"/>
-    <row r="2360"/>
-    <row r="2361"/>
-    <row r="2362"/>
-    <row r="2363"/>
-    <row r="2364"/>
-    <row r="2365"/>
-    <row r="2366"/>
-    <row r="2367"/>
-    <row r="2368"/>
-    <row r="2369"/>
-    <row r="2370"/>
-    <row r="2371"/>
-    <row r="2372"/>
-    <row r="2373"/>
-    <row r="2374"/>
-    <row r="2375"/>
-    <row r="2376"/>
-    <row r="2377"/>
-    <row r="2378"/>
-    <row r="2379"/>
-    <row r="2380"/>
-    <row r="2381"/>
-    <row r="2382"/>
-    <row r="2383"/>
-    <row r="2384"/>
-    <row r="2385"/>
-    <row r="2386"/>
-    <row r="2387"/>
-    <row r="2388"/>
-    <row r="2389"/>
-    <row r="2390"/>
-    <row r="2391"/>
-    <row r="2392"/>
-    <row r="2393"/>
-    <row r="2394"/>
-    <row r="2395"/>
-    <row r="2396"/>
-    <row r="2397"/>
-    <row r="2398"/>
-    <row r="2399"/>
-    <row r="2400"/>
-    <row r="2401"/>
-    <row r="2402"/>
-    <row r="2403"/>
-    <row r="2404"/>
-    <row r="2405"/>
-    <row r="2406"/>
-    <row r="2407"/>
-    <row r="2408"/>
-    <row r="2409"/>
-    <row r="2410"/>
-    <row r="2411"/>
-    <row r="2412"/>
-    <row r="2413"/>
-    <row r="2414"/>
-    <row r="2415"/>
-    <row r="2416"/>
-    <row r="2417"/>
-    <row r="2418"/>
-    <row r="2419"/>
-    <row r="2420"/>
-    <row r="2421"/>
-    <row r="2422"/>
-    <row r="2423"/>
-    <row r="2424"/>
-    <row r="2425"/>
-    <row r="2426"/>
-    <row r="2427"/>
-    <row r="2428"/>
-    <row r="2429"/>
-    <row r="2430"/>
-    <row r="2431"/>
-    <row r="2432"/>
-    <row r="2433"/>
-    <row r="2434"/>
-    <row r="2435"/>
-    <row r="2436"/>
-    <row r="2437"/>
-    <row r="2438"/>
-    <row r="2439"/>
-    <row r="2440"/>
-    <row r="2441"/>
-    <row r="2442"/>
-    <row r="2443"/>
-    <row r="2444"/>
-    <row r="2445"/>
-    <row r="2446"/>
-    <row r="2447"/>
-    <row r="2448"/>
-    <row r="2449"/>
-    <row r="2450"/>
-    <row r="2451"/>
-    <row r="2452"/>
-    <row r="2453"/>
-    <row r="2454"/>
-    <row r="2455"/>
-    <row r="2456"/>
-    <row r="2457"/>
-    <row r="2458"/>
-    <row r="2459"/>
-    <row r="2460"/>
-    <row r="2461"/>
-    <row r="2462"/>
-    <row r="2463"/>
-    <row r="2464"/>
-    <row r="2465"/>
-    <row r="2466"/>
-    <row r="2467"/>
-    <row r="2468"/>
-    <row r="2469"/>
-    <row r="2470"/>
-    <row r="2471"/>
-    <row r="2472"/>
-    <row r="2473"/>
-    <row r="2474"/>
-    <row r="2475"/>
-    <row r="2476"/>
-    <row r="2477"/>
-    <row r="2478"/>
-    <row r="2479"/>
-    <row r="2480"/>
-    <row r="2481"/>
-    <row r="2482"/>
-    <row r="2483"/>
-    <row r="2484"/>
-    <row r="2485"/>
-    <row r="2486"/>
-    <row r="2487"/>
-    <row r="2488"/>
-    <row r="2489"/>
-    <row r="2490"/>
-    <row r="2491"/>
-    <row r="2492"/>
-    <row r="2493"/>
-    <row r="2494"/>
-    <row r="2495"/>
-    <row r="2496"/>
-    <row r="2497"/>
-    <row r="2498"/>
-    <row r="2499"/>
-    <row r="2500"/>
-    <row r="2501"/>
-    <row r="2502"/>
-    <row r="2503"/>
-    <row r="2504"/>
-    <row r="2505"/>
-    <row r="2506"/>
-    <row r="2507"/>
-    <row r="2508"/>
-    <row r="2509"/>
-    <row r="2510"/>
-    <row r="2511"/>
-    <row r="2512"/>
-    <row r="2513"/>
-    <row r="2514"/>
-    <row r="2515"/>
-    <row r="2516"/>
-    <row r="2517"/>
-    <row r="2518"/>
-    <row r="2519"/>
-    <row r="2520"/>
-    <row r="2521"/>
-    <row r="2522"/>
-    <row r="2523"/>
-    <row r="2524"/>
-    <row r="2525"/>
-    <row r="2526"/>
-    <row r="2527"/>
-    <row r="2528"/>
-    <row r="2529"/>
-    <row r="2530"/>
-    <row r="2531"/>
-    <row r="2532"/>
-    <row r="2533"/>
-    <row r="2534"/>
-    <row r="2535"/>
-    <row r="2536"/>
-    <row r="2537"/>
-    <row r="2538"/>
-    <row r="2539"/>
-    <row r="2540"/>
-    <row r="2541"/>
-    <row r="2542"/>
-    <row r="2543"/>
-    <row r="2544"/>
-    <row r="2545"/>
-    <row r="2546"/>
-    <row r="2547"/>
-    <row r="2548"/>
-    <row r="2549"/>
-    <row r="2550"/>
-    <row r="2551"/>
-    <row r="2552"/>
-    <row r="2553"/>
-    <row r="2554"/>
-    <row r="2555"/>
-    <row r="2556"/>
-    <row r="2557"/>
-    <row r="2558"/>
-    <row r="2559"/>
-    <row r="2560"/>
-    <row r="2561"/>
-    <row r="2562"/>
-    <row r="2563"/>
-    <row r="2564"/>
-    <row r="2565"/>
-    <row r="2566"/>
-    <row r="2567"/>
-    <row r="2568"/>
-    <row r="2569"/>
-    <row r="2570"/>
-    <row r="2571"/>
-    <row r="2572"/>
-    <row r="2573"/>
-    <row r="2574"/>
-    <row r="2575"/>
-    <row r="2576"/>
-    <row r="2577"/>
-    <row r="2578"/>
-    <row r="2579"/>
-    <row r="2580"/>
-    <row r="2581"/>
-    <row r="2582"/>
-    <row r="2583"/>
-    <row r="2584"/>
-    <row r="2585"/>
-    <row r="2586"/>
-    <row r="2587"/>
-    <row r="2588"/>
-    <row r="2589"/>
-    <row r="2590"/>
-    <row r="2591"/>
-    <row r="2592"/>
-    <row r="2593"/>
-    <row r="2594"/>
-    <row r="2595"/>
-    <row r="2596"/>
-    <row r="2597"/>
-    <row r="2598"/>
-    <row r="2599"/>
-    <row r="2600"/>
-    <row r="2601"/>
-    <row r="2602"/>
-    <row r="2603"/>
-    <row r="2604"/>
-    <row r="2605"/>
-    <row r="2606"/>
-    <row r="2607"/>
-    <row r="2608"/>
-    <row r="2609"/>
-    <row r="2610"/>
-    <row r="2611"/>
-    <row r="2612"/>
-    <row r="2613"/>
-    <row r="2614"/>
-    <row r="2615"/>
-    <row r="2616"/>
-    <row r="2617"/>
-    <row r="2618"/>
-    <row r="2619"/>
-    <row r="2620"/>
-    <row r="2621"/>
-    <row r="2622"/>
-    <row r="2623"/>
-    <row r="2624"/>
-    <row r="2625"/>
-    <row r="2626"/>
-    <row r="2627"/>
-    <row r="2628"/>
-    <row r="2629"/>
-    <row r="2630"/>
-    <row r="2631"/>
-    <row r="2632"/>
-    <row r="2633"/>
-    <row r="2634"/>
-    <row r="2635"/>
-    <row r="2636"/>
-    <row r="2637"/>
-    <row r="2638"/>
-    <row r="2639"/>
-    <row r="2640"/>
-    <row r="2641"/>
-    <row r="2642"/>
-    <row r="2643"/>
-    <row r="2644"/>
-    <row r="2645"/>
-    <row r="2646"/>
-    <row r="2647"/>
-    <row r="2648"/>
-    <row r="2649"/>
-    <row r="2650"/>
-    <row r="2651"/>
-    <row r="2652"/>
-    <row r="2653"/>
-    <row r="2654"/>
-    <row r="2655"/>
-    <row r="2656"/>
-    <row r="2657"/>
-    <row r="2658"/>
-    <row r="2659"/>
-    <row r="2660"/>
-    <row r="2661"/>
-    <row r="2662"/>
-    <row r="2663"/>
-    <row r="2664"/>
-    <row r="2665"/>
-    <row r="2666"/>
-    <row r="2667"/>
-    <row r="2668"/>
-    <row r="2669"/>
-    <row r="2670"/>
-    <row r="2671"/>
-    <row r="2672"/>
-    <row r="2673"/>
-    <row r="2674"/>
-    <row r="2675"/>
-    <row r="2676"/>
-    <row r="2677"/>
-    <row r="2678"/>
-    <row r="2679"/>
-    <row r="2680"/>
-    <row r="2681"/>
-    <row r="2682"/>
-    <row r="2683"/>
-    <row r="2684"/>
-    <row r="2685"/>
-    <row r="2686"/>
-    <row r="2687"/>
-    <row r="2688"/>
-    <row r="2689"/>
-    <row r="2690"/>
-    <row r="2691"/>
-    <row r="2692"/>
-    <row r="2693"/>
-    <row r="2694"/>
-    <row r="2695"/>
-    <row r="2696"/>
-    <row r="2697"/>
-    <row r="2698"/>
-    <row r="2699"/>
-    <row r="2700"/>
-    <row r="2701"/>
-    <row r="2702"/>
-    <row r="2703"/>
-    <row r="2704"/>
-    <row r="2705"/>
-    <row r="2706"/>
-    <row r="2707"/>
-    <row r="2708"/>
-    <row r="2709"/>
-    <row r="2710"/>
-    <row r="2711"/>
-    <row r="2712"/>
-    <row r="2713"/>
-    <row r="2714"/>
-    <row r="2715"/>
-    <row r="2716"/>
-    <row r="2717"/>
-    <row r="2718"/>
-    <row r="2719"/>
-    <row r="2720"/>
-    <row r="2721"/>
-    <row r="2722"/>
-    <row r="2723"/>
-    <row r="2724"/>
-    <row r="2725"/>
-    <row r="2726"/>
-    <row r="2727"/>
-    <row r="2728"/>
-    <row r="2729"/>
-    <row r="2730"/>
-    <row r="2731"/>
-    <row r="2732"/>
-    <row r="2733"/>
-    <row r="2734"/>
-    <row r="2735"/>
-    <row r="2736"/>
-    <row r="2737"/>
-    <row r="2738"/>
-    <row r="2739"/>
-    <row r="2740"/>
-    <row r="2741"/>
-    <row r="2742"/>
-    <row r="2743"/>
-    <row r="2744"/>
-    <row r="2745"/>
-    <row r="2746"/>
-    <row r="2747"/>
-    <row r="2748"/>
-    <row r="2749"/>
-    <row r="2750"/>
-    <row r="2751"/>
-    <row r="2752"/>
-    <row r="2753"/>
-    <row r="2754"/>
-    <row r="2755"/>
-    <row r="2756"/>
-    <row r="2757"/>
-    <row r="2758"/>
-    <row r="2759"/>
-    <row r="2760"/>
-    <row r="2761"/>
-    <row r="2762"/>
-    <row r="2763"/>
-    <row r="2764"/>
-    <row r="2765"/>
-    <row r="2766"/>
-    <row r="2767"/>
-    <row r="2768"/>
-    <row r="2769"/>
-    <row r="2770"/>
-    <row r="2771"/>
-    <row r="2772"/>
-    <row r="2773"/>
-    <row r="2774"/>
-    <row r="2775"/>
-    <row r="2776"/>
-    <row r="2777"/>
-    <row r="2778"/>
-    <row r="2779"/>
-    <row r="2780"/>
-    <row r="2781"/>
-    <row r="2782"/>
-    <row r="2783"/>
-    <row r="2784"/>
-    <row r="2785"/>
-    <row r="2786"/>
-    <row r="2787"/>
-    <row r="2788"/>
-    <row r="2789"/>
-    <row r="2790"/>
-    <row r="2791"/>
-    <row r="2792"/>
-    <row r="2793"/>
-    <row r="2794"/>
-    <row r="2795"/>
-    <row r="2796"/>
-    <row r="2797"/>
-    <row r="2798"/>
-    <row r="2799"/>
-    <row r="2800"/>
-    <row r="2801"/>
-    <row r="2802"/>
-    <row r="2803"/>
-    <row r="2804"/>
-    <row r="2805"/>
-    <row r="2806"/>
-    <row r="2807"/>
-    <row r="2808"/>
-    <row r="2809"/>
-    <row r="2810"/>
-    <row r="2811"/>
-    <row r="2812"/>
-    <row r="2813"/>
-    <row r="2814"/>
-    <row r="2815"/>
-    <row r="2816"/>
-    <row r="2817"/>
-    <row r="2818"/>
-    <row r="2819"/>
-    <row r="2820"/>
-    <row r="2821"/>
-    <row r="2822"/>
-    <row r="2823"/>
-    <row r="2824"/>
-    <row r="2825"/>
-    <row r="2826"/>
-    <row r="2827"/>
-    <row r="2828"/>
-    <row r="2829"/>
-    <row r="2830"/>
-    <row r="2831"/>
-    <row r="2832"/>
-    <row r="2833"/>
-    <row r="2834"/>
-    <row r="2835"/>
-    <row r="2836"/>
-    <row r="2837"/>
-    <row r="2838"/>
-    <row r="2839"/>
-    <row r="2840"/>
-    <row r="2841"/>
-    <row r="2842"/>
-    <row r="2843"/>
-    <row r="2844"/>
-    <row r="2845"/>
-    <row r="2846"/>
-    <row r="2847"/>
-    <row r="2848"/>
-    <row r="2849"/>
-    <row r="2850"/>
-    <row r="2851"/>
-    <row r="2852"/>
-    <row r="2853"/>
-    <row r="2854"/>
-    <row r="2855"/>
-    <row r="2856"/>
-    <row r="2857"/>
-    <row r="2858"/>
-    <row r="2859"/>
-    <row r="2860"/>
-    <row r="2861"/>
-    <row r="2862"/>
-    <row r="2863"/>
-    <row r="2864"/>
-    <row r="2865"/>
-    <row r="2866"/>
-    <row r="2867"/>
-    <row r="2868"/>
-    <row r="2869"/>
-    <row r="2870"/>
-    <row r="2871"/>
-    <row r="2872"/>
-    <row r="2873"/>
-    <row r="2874"/>
-    <row r="2875"/>
-    <row r="2876"/>
-    <row r="2877"/>
-    <row r="2878"/>
-    <row r="2879"/>
-    <row r="2880"/>
-    <row r="2881"/>
-    <row r="2882"/>
-    <row r="2883"/>
-    <row r="2884"/>
-    <row r="2885"/>
-    <row r="2886"/>
-    <row r="2887"/>
-    <row r="2888"/>
-    <row r="2889"/>
-    <row r="2890"/>
-    <row r="2891"/>
-    <row r="2892"/>
-    <row r="2893"/>
-    <row r="2894"/>
-    <row r="2895"/>
-    <row r="2896"/>
-    <row r="2897"/>
-    <row r="2898"/>
-    <row r="2899"/>
-    <row r="2900"/>
-    <row r="2901"/>
-    <row r="2902"/>
-    <row r="2903"/>
-    <row r="2904"/>
-    <row r="2905"/>
-    <row r="2906"/>
-    <row r="2907"/>
-    <row r="2908"/>
-    <row r="2909"/>
-    <row r="2910"/>
-    <row r="2911"/>
-    <row r="2912"/>
-    <row r="2913"/>
-    <row r="2914"/>
-    <row r="2915"/>
-    <row r="2916"/>
-    <row r="2917"/>
-    <row r="2918"/>
-    <row r="2919"/>
-    <row r="2920"/>
-    <row r="2921"/>
-    <row r="2922"/>
-    <row r="2923"/>
-    <row r="2924"/>
-    <row r="2925"/>
-    <row r="2926"/>
-    <row r="2927"/>
-    <row r="2928"/>
-    <row r="2929"/>
-    <row r="2930"/>
-    <row r="2931"/>
-    <row r="2932"/>
-    <row r="2933"/>
-    <row r="2934"/>
-    <row r="2935"/>
-    <row r="2936"/>
-    <row r="2937"/>
-    <row r="2938"/>
-    <row r="2939"/>
-    <row r="2940"/>
-    <row r="2941"/>
-    <row r="2942"/>
-    <row r="2943"/>
-    <row r="2944"/>
-    <row r="2945"/>
-    <row r="2946"/>
-    <row r="2947"/>
-    <row r="2948"/>
-    <row r="2949"/>
-    <row r="2950"/>
-    <row r="2951"/>
-    <row r="2952"/>
-    <row r="2953"/>
-    <row r="2954"/>
-    <row r="2955"/>
-    <row r="2956"/>
-    <row r="2957"/>
-    <row r="2958"/>
-    <row r="2959"/>
-    <row r="2960"/>
-    <row r="2961"/>
-    <row r="2962"/>
-    <row r="2963"/>
-    <row r="2964"/>
-    <row r="2965"/>
-    <row r="2966"/>
-    <row r="2967"/>
-    <row r="2968"/>
-    <row r="2969"/>
-    <row r="2970"/>
-    <row r="2971"/>
-    <row r="2972"/>
-    <row r="2973"/>
-    <row r="2974"/>
-    <row r="2975"/>
-    <row r="2976"/>
-    <row r="2977"/>
-    <row r="2978"/>
-    <row r="2979"/>
-    <row r="2980"/>
-    <row r="2981"/>
-    <row r="2982"/>
-    <row r="2983"/>
-    <row r="2984"/>
-    <row r="2985"/>
-    <row r="2986"/>
-    <row r="2987"/>
-    <row r="2988"/>
-    <row r="2989"/>
-    <row r="2990"/>
-    <row r="2991"/>
-    <row r="2992"/>
-    <row r="2993"/>
-    <row r="2994"/>
-    <row r="2995"/>
-    <row r="2996"/>
-    <row r="2997"/>
-    <row r="2998"/>
-    <row r="2999"/>
-    <row r="3000"/>
-    <row r="3001"/>
-    <row r="3002"/>
-    <row r="3003"/>
-    <row r="3004"/>
-    <row r="3005"/>
-    <row r="3006"/>
-    <row r="3007"/>
-    <row r="3008"/>
-    <row r="3009"/>
-    <row r="3010"/>
-    <row r="3011"/>
-    <row r="3012"/>
-    <row r="3013"/>
-    <row r="3014"/>
-    <row r="3015"/>
-    <row r="3016"/>
-    <row r="3017"/>
-    <row r="3018"/>
-    <row r="3019"/>
-    <row r="3020"/>
-    <row r="3021"/>
-    <row r="3022"/>
-    <row r="3023"/>
-    <row r="3024"/>
-    <row r="3025"/>
-    <row r="3026"/>
-    <row r="3027"/>
-    <row r="3028"/>
-    <row r="3029"/>
-    <row r="3030"/>
-    <row r="3031"/>
-    <row r="3032"/>
-    <row r="3033"/>
-    <row r="3034"/>
-    <row r="3035"/>
-    <row r="3036"/>
-    <row r="3037"/>
-    <row r="3038"/>
-    <row r="3039"/>
-    <row r="3040"/>
-    <row r="3041"/>
-    <row r="3042"/>
-    <row r="3043"/>
-    <row r="3044"/>
-    <row r="3045"/>
-    <row r="3046"/>
-    <row r="3047"/>
-    <row r="3048"/>
-    <row r="3049"/>
-    <row r="3050"/>
-    <row r="3051"/>
-    <row r="3052"/>
-    <row r="3053"/>
-    <row r="3054"/>
-    <row r="3055"/>
-    <row r="3056"/>
-    <row r="3057"/>
-    <row r="3058"/>
-    <row r="3059"/>
-    <row r="3060"/>
-    <row r="3061"/>
-    <row r="3062"/>
-    <row r="3063"/>
-    <row r="3064"/>
-    <row r="3065"/>
-    <row r="3066"/>
-    <row r="3067"/>
-    <row r="3068"/>
-    <row r="3069"/>
-    <row r="3070"/>
-    <row r="3071"/>
-    <row r="3072"/>
-    <row r="3073"/>
-    <row r="3074"/>
-    <row r="3075"/>
-    <row r="3076"/>
-    <row r="3077"/>
-    <row r="3078"/>
-    <row r="3079"/>
-    <row r="3080"/>
-    <row r="3081"/>
-    <row r="3082"/>
-    <row r="3083"/>
-    <row r="3084"/>
-    <row r="3085"/>
-    <row r="3086"/>
-    <row r="3087"/>
-    <row r="3088"/>
-    <row r="3089"/>
-    <row r="3090"/>
-    <row r="3091"/>
-    <row r="3092"/>
-    <row r="3093"/>
-    <row r="3094"/>
-    <row r="3095"/>
-    <row r="3096"/>
-    <row r="3097"/>
-    <row r="3098"/>
-    <row r="3099"/>
-    <row r="3100"/>
-    <row r="3101"/>
-    <row r="3102"/>
-    <row r="3103"/>
-    <row r="3104"/>
-    <row r="3105"/>
-    <row r="3106"/>
-    <row r="3107"/>
-    <row r="3108"/>
-    <row r="3109"/>
-    <row r="3110"/>
-    <row r="3111"/>
-    <row r="3112"/>
-    <row r="3113"/>
-    <row r="3114"/>
-    <row r="3115"/>
-    <row r="3116"/>
-    <row r="3117"/>
-    <row r="3118"/>
-    <row r="3119"/>
-    <row r="3120"/>
-    <row r="3121"/>
-    <row r="3122"/>
-    <row r="3123"/>
-    <row r="3124"/>
-    <row r="3125"/>
-    <row r="3126"/>
-    <row r="3127"/>
-    <row r="3128"/>
-    <row r="3129"/>
-    <row r="3130"/>
-    <row r="3131"/>
-    <row r="3132"/>
-    <row r="3133"/>
-    <row r="3134"/>
-    <row r="3135"/>
-    <row r="3136"/>
-    <row r="3137"/>
-    <row r="3138"/>
-    <row r="3139"/>
-    <row r="3140"/>
-    <row r="3141"/>
-    <row r="3142"/>
-    <row r="3143"/>
-    <row r="3144"/>
-    <row r="3145"/>
-    <row r="3146"/>
-    <row r="3147"/>
-    <row r="3148"/>
-    <row r="3149"/>
-    <row r="3150"/>
-    <row r="3151"/>
-    <row r="3152"/>
-    <row r="3153"/>
-    <row r="3154"/>
-    <row r="3155"/>
-    <row r="3156"/>
-    <row r="3157"/>
-    <row r="3158"/>
-    <row r="3159"/>
-    <row r="3160"/>
-    <row r="3161"/>
-    <row r="3162"/>
-    <row r="3163"/>
-    <row r="3164"/>
-    <row r="3165"/>
-    <row r="3166"/>
-    <row r="3167"/>
-    <row r="3168"/>
-    <row r="3169"/>
-    <row r="3170"/>
-    <row r="3171"/>
-    <row r="3172"/>
-    <row r="3173"/>
-    <row r="3174"/>
-    <row r="3175"/>
-    <row r="3176"/>
-    <row r="3177"/>
-    <row r="3178"/>
-    <row r="3179"/>
-    <row r="3180"/>
-    <row r="3181"/>
-    <row r="3182"/>
-    <row r="3183"/>
-    <row r="3184"/>
-    <row r="3185"/>
-    <row r="3186"/>
-    <row r="3187"/>
-    <row r="3188"/>
-    <row r="3189"/>
-    <row r="3190"/>
-    <row r="3191"/>
-    <row r="3192"/>
-    <row r="3193"/>
-    <row r="3194"/>
-    <row r="3195"/>
-    <row r="3196"/>
-    <row r="3197"/>
-    <row r="3198"/>
-    <row r="3199"/>
-    <row r="3200"/>
-    <row r="3201"/>
-    <row r="3202"/>
-    <row r="3203"/>
-    <row r="3204"/>
-    <row r="3205"/>
-    <row r="3206"/>
-    <row r="3207"/>
-    <row r="3208"/>
-    <row r="3209"/>
-    <row r="3210"/>
-    <row r="3211"/>
-    <row r="3212"/>
-    <row r="3213"/>
-    <row r="3214"/>
-    <row r="3215"/>
-    <row r="3216"/>
-    <row r="3217"/>
-    <row r="3218"/>
-    <row r="3219"/>
-    <row r="3220"/>
-    <row r="3221"/>
-    <row r="3222"/>
-    <row r="3223"/>
-    <row r="3224"/>
-    <row r="3225"/>
-    <row r="3226"/>
-    <row r="3227"/>
-    <row r="3228"/>
-    <row r="3229"/>
-    <row r="3230"/>
-    <row r="3231"/>
-    <row r="3232"/>
-    <row r="3233"/>
-    <row r="3234"/>
-    <row r="3235"/>
-    <row r="3236"/>
-    <row r="3237"/>
-    <row r="3238"/>
-    <row r="3239"/>
-    <row r="3240"/>
-    <row r="3241"/>
-    <row r="3242"/>
-    <row r="3243"/>
-    <row r="3244"/>
-    <row r="3245"/>
-    <row r="3246"/>
-    <row r="3247"/>
-    <row r="3248"/>
-    <row r="3249"/>
-    <row r="3250"/>
-    <row r="3251"/>
-    <row r="3252"/>
-    <row r="3253"/>
-    <row r="3254"/>
-    <row r="3255"/>
-    <row r="3256"/>
-    <row r="3257"/>
-    <row r="3258"/>
-    <row r="3259"/>
-    <row r="3260"/>
-    <row r="3261"/>
-    <row r="3262"/>
-    <row r="3263"/>
-    <row r="3264"/>
-    <row r="3265"/>
-    <row r="3266"/>
-    <row r="3267"/>
-    <row r="3268"/>
-    <row r="3269"/>
-    <row r="3270"/>
-    <row r="3271"/>
-    <row r="3272"/>
-    <row r="3273"/>
-    <row r="3274"/>
-    <row r="3275"/>
-    <row r="3276"/>
-    <row r="3277"/>
-    <row r="3278"/>
-    <row r="3279"/>
-    <row r="3280"/>
-    <row r="3281"/>
-    <row r="3282"/>
-    <row r="3283"/>
-    <row r="3284"/>
-    <row r="3285"/>
-    <row r="3286"/>
-    <row r="3287"/>
-    <row r="3288"/>
-    <row r="3289"/>
-    <row r="3290"/>
-    <row r="3291"/>
-    <row r="3292"/>
-    <row r="3293"/>
-    <row r="3294"/>
-    <row r="3295"/>
-    <row r="3296"/>
-    <row r="3297"/>
-    <row r="3298"/>
-    <row r="3299"/>
-    <row r="3300"/>
-    <row r="3301"/>
-    <row r="3302"/>
-    <row r="3303"/>
-    <row r="3304"/>
-    <row r="3305"/>
-    <row r="3306"/>
-    <row r="3307"/>
-    <row r="3308"/>
-    <row r="3309"/>
-    <row r="3310"/>
-    <row r="3311"/>
-    <row r="3312"/>
-    <row r="3313"/>
-    <row r="3314"/>
-    <row r="3315"/>
-    <row r="3316"/>
-    <row r="3317"/>
-    <row r="3318"/>
-    <row r="3319"/>
-    <row r="3320"/>
-    <row r="3321"/>
-    <row r="3322"/>
-    <row r="3323"/>
-    <row r="3324"/>
-    <row r="3325"/>
-    <row r="3326"/>
-    <row r="3327"/>
-    <row r="3328"/>
-    <row r="3329"/>
-    <row r="3330"/>
-    <row r="3331"/>
-    <row r="3332"/>
-    <row r="3333"/>
-    <row r="3334"/>
-    <row r="3335"/>
-    <row r="3336"/>
-    <row r="3337"/>
-    <row r="3338"/>
-    <row r="3339"/>
-    <row r="3340"/>
-    <row r="3341"/>
-    <row r="3342"/>
-    <row r="3343"/>
-    <row r="3344"/>
-    <row r="3345"/>
-    <row r="3346"/>
-    <row r="3347"/>
-    <row r="3348"/>
-    <row r="3349"/>
-    <row r="3350"/>
-    <row r="3351"/>
-    <row r="3352"/>
-    <row r="3353"/>
-    <row r="3354"/>
-    <row r="3355"/>
-    <row r="3356"/>
-    <row r="3357"/>
-    <row r="3358"/>
-    <row r="3359"/>
-    <row r="3360"/>
-    <row r="3361"/>
-    <row r="3362"/>
-    <row r="3363"/>
-    <row r="3364"/>
-    <row r="3365"/>
-    <row r="3366"/>
-    <row r="3367"/>
-    <row r="3368"/>
-    <row r="3369"/>
-    <row r="3370"/>
-    <row r="3371"/>
-    <row r="3372"/>
-    <row r="3373"/>
-    <row r="3374"/>
-    <row r="3375"/>
-    <row r="3376"/>
-    <row r="3377"/>
-    <row r="3378"/>
-    <row r="3379"/>
-    <row r="3380"/>
-    <row r="3381"/>
-    <row r="3382"/>
-    <row r="3383"/>
-    <row r="3384"/>
-    <row r="3385"/>
-    <row r="3386"/>
-    <row r="3387"/>
-    <row r="3388"/>
-    <row r="3389"/>
-    <row r="3390"/>
-    <row r="3391"/>
-    <row r="3392"/>
-    <row r="3393"/>
-    <row r="3394"/>
-    <row r="3395"/>
-    <row r="3396"/>
-    <row r="3397"/>
-    <row r="3398"/>
-    <row r="3399"/>
-    <row r="3400"/>
-    <row r="3401"/>
-    <row r="3402"/>
-    <row r="3403"/>
-    <row r="3404"/>
-    <row r="3405"/>
-    <row r="3406"/>
-    <row r="3407"/>
-    <row r="3408"/>
-    <row r="3409"/>
-    <row r="3410"/>
-    <row r="3411"/>
-    <row r="3412"/>
-    <row r="3413"/>
-    <row r="3414"/>
-    <row r="3415"/>
-    <row r="3416"/>
-    <row r="3417"/>
-    <row r="3418"/>
-    <row r="3419"/>
-    <row r="3420"/>
-    <row r="3421"/>
-    <row r="3422"/>
-    <row r="3423"/>
-    <row r="3424"/>
-    <row r="3425"/>
-    <row r="3426"/>
-    <row r="3427"/>
-    <row r="3428"/>
-    <row r="3429"/>
-    <row r="3430"/>
-    <row r="3431"/>
-    <row r="3432"/>
-    <row r="3433"/>
-    <row r="3434"/>
-    <row r="3435"/>
-    <row r="3436"/>
-    <row r="3437"/>
-    <row r="3438"/>
-    <row r="3439"/>
-    <row r="3440"/>
-    <row r="3441"/>
-    <row r="3442"/>
-    <row r="3443"/>
-    <row r="3444"/>
-    <row r="3445"/>
-    <row r="3446"/>
-    <row r="3447"/>
-    <row r="3448"/>
-    <row r="3449"/>
-    <row r="3450"/>
-    <row r="3451"/>
-    <row r="3452"/>
-    <row r="3453"/>
-    <row r="3454"/>
-    <row r="3455"/>
-    <row r="3456"/>
-    <row r="3457"/>
-    <row r="3458"/>
-    <row r="3459"/>
-    <row r="3460"/>
-    <row r="3461"/>
-    <row r="3462"/>
-    <row r="3463"/>
-    <row r="3464"/>
-    <row r="3465"/>
-    <row r="3466"/>
-    <row r="3467"/>
-    <row r="3468"/>
-    <row r="3469"/>
-    <row r="3470"/>
-    <row r="3471"/>
-    <row r="3472"/>
-    <row r="3473"/>
-    <row r="3474"/>
-    <row r="3475"/>
-    <row r="3476"/>
-    <row r="3477"/>
-    <row r="3478"/>
-    <row r="3479"/>
-    <row r="3480"/>
-    <row r="3481"/>
-    <row r="3482"/>
-    <row r="3483"/>
-    <row r="3484"/>
-    <row r="3485"/>
-    <row r="3486"/>
-    <row r="3487"/>
-    <row r="3488"/>
-    <row r="3489"/>
-    <row r="3490"/>
-    <row r="3491"/>
-    <row r="3492"/>
-    <row r="3493"/>
-    <row r="3494"/>
-    <row r="3495"/>
-    <row r="3496"/>
-    <row r="3497"/>
-    <row r="3498"/>
-    <row r="3499"/>
-    <row r="3500"/>
-    <row r="3501"/>
-    <row r="3502"/>
-    <row r="3503"/>
-    <row r="3504"/>
-    <row r="3505"/>
-    <row r="3506"/>
-    <row r="3507"/>
-    <row r="3508"/>
-    <row r="3509"/>
-    <row r="3510"/>
-    <row r="3511"/>
-    <row r="3512"/>
-    <row r="3513"/>
-    <row r="3514"/>
-    <row r="3515"/>
-    <row r="3516"/>
-    <row r="3517"/>
-    <row r="3518"/>
-    <row r="3519"/>
-    <row r="3520"/>
-    <row r="3521"/>
-    <row r="3522"/>
-    <row r="3523"/>
-    <row r="3524"/>
-    <row r="3525"/>
-    <row r="3526"/>
-    <row r="3527"/>
-    <row r="3528"/>
-    <row r="3529"/>
-    <row r="3530"/>
-    <row r="3531"/>
-    <row r="3532"/>
-    <row r="3533"/>
-    <row r="3534"/>
-    <row r="3535"/>
-    <row r="3536"/>
-    <row r="3537"/>
-    <row r="3538"/>
-    <row r="3539"/>
-    <row r="3540"/>
-    <row r="3541"/>
-    <row r="3542"/>
-    <row r="3543"/>
-    <row r="3544"/>
-    <row r="3545"/>
-    <row r="3546"/>
-    <row r="3547"/>
-    <row r="3548"/>
-    <row r="3549"/>
-    <row r="3550"/>
-    <row r="3551"/>
-    <row r="3552"/>
-    <row r="3553"/>
-    <row r="3554"/>
-    <row r="3555"/>
-    <row r="3556"/>
-    <row r="3557"/>
-    <row r="3558"/>
-    <row r="3559"/>
-    <row r="3560"/>
-    <row r="3561"/>
-    <row r="3562"/>
-    <row r="3563"/>
-    <row r="3564"/>
-    <row r="3565"/>
-    <row r="3566"/>
-    <row r="3567"/>
-    <row r="3568"/>
-    <row r="3569"/>
-    <row r="3570"/>
-    <row r="3571"/>
-    <row r="3572"/>
-    <row r="3573"/>
-    <row r="3574"/>
-    <row r="3575"/>
-    <row r="3576"/>
-    <row r="3577"/>
-    <row r="3578"/>
-    <row r="3579"/>
-    <row r="3580"/>
-    <row r="3581"/>
-    <row r="3582"/>
-    <row r="3583"/>
-    <row r="3584"/>
-    <row r="3585"/>
-    <row r="3586"/>
-    <row r="3587"/>
-    <row r="3588"/>
-    <row r="3589"/>
-    <row r="3590"/>
-    <row r="3591"/>
-    <row r="3592"/>
-    <row r="3593"/>
-    <row r="3594"/>
-    <row r="3595"/>
-    <row r="3596"/>
-    <row r="3597"/>
-    <row r="3598"/>
-    <row r="3599"/>
-    <row r="3600"/>
-    <row r="3601"/>
-    <row r="3602"/>
-    <row r="3603"/>
-    <row r="3604"/>
-    <row r="3605"/>
-    <row r="3606"/>
-    <row r="3607"/>
-    <row r="3608"/>
-    <row r="3609"/>
-    <row r="3610"/>
-    <row r="3611"/>
-    <row r="3612"/>
-    <row r="3613"/>
-    <row r="3614"/>
-    <row r="3615"/>
-    <row r="3616"/>
-    <row r="3617"/>
-    <row r="3618"/>
-    <row r="3619"/>
-    <row r="3620"/>
-    <row r="3621"/>
-    <row r="3622"/>
-    <row r="3623"/>
-    <row r="3624"/>
-    <row r="3625"/>
-    <row r="3626"/>
-    <row r="3627"/>
-    <row r="3628"/>
-    <row r="3629"/>
-    <row r="3630"/>
-    <row r="3631"/>
-    <row r="3632"/>
-    <row r="3633"/>
-    <row r="3634"/>
-    <row r="3635"/>
-    <row r="3636"/>
-    <row r="3637"/>
-    <row r="3638"/>
-    <row r="3639"/>
-    <row r="3640"/>
-    <row r="3641"/>
-    <row r="3642"/>
-    <row r="3643"/>
-    <row r="3644"/>
-    <row r="3645"/>
-    <row r="3646"/>
-    <row r="3647"/>
-    <row r="3648"/>
-    <row r="3649"/>
-    <row r="3650"/>
-    <row r="3651"/>
-    <row r="3652"/>
-    <row r="3653"/>
-    <row r="3654"/>
-    <row r="3655"/>
-    <row r="3656"/>
-    <row r="3657"/>
-    <row r="3658"/>
-    <row r="3659"/>
-    <row r="3660"/>
-    <row r="3661"/>
-    <row r="3662"/>
-    <row r="3663"/>
-    <row r="3664"/>
-    <row r="3665"/>
-    <row r="3666"/>
-    <row r="3667"/>
-    <row r="3668"/>
-    <row r="3669"/>
-    <row r="3670"/>
-    <row r="3671"/>
-    <row r="3672"/>
-    <row r="3673"/>
-    <row r="3674"/>
-    <row r="3675"/>
-    <row r="3676"/>
-    <row r="3677"/>
-    <row r="3678"/>
-    <row r="3679"/>
-    <row r="3680"/>
-    <row r="3681"/>
-    <row r="3682"/>
-    <row r="3683"/>
-    <row r="3684"/>
-    <row r="3685"/>
-    <row r="3686"/>
-    <row r="3687"/>
-    <row r="3688"/>
-    <row r="3689"/>
-    <row r="3690"/>
-    <row r="3691"/>
-    <row r="3692"/>
-    <row r="3693"/>
-    <row r="3694"/>
-    <row r="3695"/>
-    <row r="3696"/>
-    <row r="3697"/>
-    <row r="3698"/>
-    <row r="3699"/>
-    <row r="3700"/>
-    <row r="3701"/>
-    <row r="3702"/>
-    <row r="3703"/>
-    <row r="3704"/>
-    <row r="3705"/>
-    <row r="3706"/>
-    <row r="3707"/>
-    <row r="3708"/>
-    <row r="3709"/>
-    <row r="3710"/>
-    <row r="3711"/>
-    <row r="3712"/>
-    <row r="3713"/>
-    <row r="3714"/>
-    <row r="3715"/>
-    <row r="3716"/>
-    <row r="3717"/>
-    <row r="3718"/>
-    <row r="3719"/>
-    <row r="3720"/>
-    <row r="3721"/>
-    <row r="3722"/>
-    <row r="3723"/>
-    <row r="3724"/>
-    <row r="3725"/>
-    <row r="3726"/>
-    <row r="3727"/>
-    <row r="3728"/>
-    <row r="3729"/>
-    <row r="3730"/>
-    <row r="3731"/>
-    <row r="3732"/>
-    <row r="3733"/>
-    <row r="3734"/>
-    <row r="3735"/>
-    <row r="3736"/>
-    <row r="3737"/>
-    <row r="3738"/>
-    <row r="3739"/>
-    <row r="3740"/>
-    <row r="3741"/>
-    <row r="3742"/>
-    <row r="3743"/>
-    <row r="3744"/>
-    <row r="3745"/>
-    <row r="3746"/>
-    <row r="3747"/>
-    <row r="3748"/>
-    <row r="3749"/>
-    <row r="3750"/>
-    <row r="3751"/>
-    <row r="3752"/>
-    <row r="3753"/>
-    <row r="3754"/>
-    <row r="3755"/>
-    <row r="3756"/>
-    <row r="3757"/>
-    <row r="3758"/>
-    <row r="3759"/>
-    <row r="3760"/>
-    <row r="3761"/>
-    <row r="3762"/>
-    <row r="3763"/>
-    <row r="3764"/>
-    <row r="3765"/>
-    <row r="3766"/>
-    <row r="3767"/>
-    <row r="3768"/>
-    <row r="3769"/>
-    <row r="3770"/>
-    <row r="3771"/>
-    <row r="3772"/>
-    <row r="3773"/>
-    <row r="3774"/>
-    <row r="3775"/>
-    <row r="3776"/>
-    <row r="3777"/>
-    <row r="3778"/>
-    <row r="3779"/>
-    <row r="3780"/>
-    <row r="3781"/>
-    <row r="3782"/>
-    <row r="3783"/>
-    <row r="3784"/>
-    <row r="3785"/>
-    <row r="3786"/>
-    <row r="3787"/>
-    <row r="3788"/>
-    <row r="3789"/>
-    <row r="3790"/>
-    <row r="3791"/>
-    <row r="3792"/>
-    <row r="3793"/>
-    <row r="3794"/>
-    <row r="3795"/>
-    <row r="3796"/>
-    <row r="3797"/>
-    <row r="3798"/>
-    <row r="3799"/>
-    <row r="3800"/>
-    <row r="3801"/>
-    <row r="3802"/>
-    <row r="3803"/>
-    <row r="3804"/>
-    <row r="3805"/>
-    <row r="3806"/>
-    <row r="3807"/>
-    <row r="3808"/>
-    <row r="3809"/>
-    <row r="3810"/>
-    <row r="3811"/>
-    <row r="3812"/>
-    <row r="3813"/>
-    <row r="3814"/>
-    <row r="3815"/>
-    <row r="3816"/>
-    <row r="3817"/>
-    <row r="3818"/>
-    <row r="3819"/>
-    <row r="3820"/>
-    <row r="3821"/>
-    <row r="3822"/>
-    <row r="3823"/>
-    <row r="3824"/>
-    <row r="3825"/>
-    <row r="3826"/>
-    <row r="3827"/>
-    <row r="3828"/>
-    <row r="3829"/>
-    <row r="3830"/>
-    <row r="3831"/>
-    <row r="3832"/>
-    <row r="3833"/>
-    <row r="3834"/>
-    <row r="3835"/>
-    <row r="3836"/>
-    <row r="3837"/>
-    <row r="3838"/>
-    <row r="3839"/>
-    <row r="3840"/>
-    <row r="3841"/>
-    <row r="3842"/>
-    <row r="3843"/>
-    <row r="3844"/>
-    <row r="3845"/>
-    <row r="3846"/>
-    <row r="3847"/>
-    <row r="3848"/>
-    <row r="3849"/>
-    <row r="3850"/>
-    <row r="3851"/>
-    <row r="3852"/>
-    <row r="3853"/>
-    <row r="3854"/>
-    <row r="3855"/>
-    <row r="3856"/>
-    <row r="3857"/>
-    <row r="3858"/>
-    <row r="3859"/>
-    <row r="3860"/>
-    <row r="3861"/>
-    <row r="3862"/>
-    <row r="3863"/>
-    <row r="3864"/>
-    <row r="3865"/>
-    <row r="3866"/>
-    <row r="3867"/>
-    <row r="3868"/>
-    <row r="3869"/>
-    <row r="3870"/>
-    <row r="3871"/>
-    <row r="3872"/>
-    <row r="3873"/>
-    <row r="3874"/>
-    <row r="3875"/>
-    <row r="3876"/>
-    <row r="3877"/>
-    <row r="3878"/>
-    <row r="3879"/>
-    <row r="3880"/>
-    <row r="3881"/>
-    <row r="3882"/>
-    <row r="3883"/>
-    <row r="3884"/>
-    <row r="3885"/>
-    <row r="3886"/>
-    <row r="3887"/>
-    <row r="3888"/>
-    <row r="3889"/>
-    <row r="3890"/>
-    <row r="3891"/>
-    <row r="3892"/>
-    <row r="3893"/>
-    <row r="3894"/>
-    <row r="3895"/>
-    <row r="3896"/>
-    <row r="3897"/>
-    <row r="3898"/>
-    <row r="3899"/>
-    <row r="3900"/>
-    <row r="3901"/>
-    <row r="3902"/>
-    <row r="3903"/>
-    <row r="3904"/>
-    <row r="3905"/>
-    <row r="3906"/>
-    <row r="3907"/>
-    <row r="3908"/>
-    <row r="3909"/>
-    <row r="3910"/>
-    <row r="3911"/>
-    <row r="3912"/>
-    <row r="3913"/>
-    <row r="3914"/>
-    <row r="3915"/>
-    <row r="3916"/>
-    <row r="3917"/>
-    <row r="3918"/>
-    <row r="3919"/>
-    <row r="3920"/>
-    <row r="3921"/>
-    <row r="3922"/>
-    <row r="3923"/>
-    <row r="3924"/>
-    <row r="3925"/>
-    <row r="3926"/>
-    <row r="3927"/>
-    <row r="3928"/>
-    <row r="3929"/>
-    <row r="3930"/>
-    <row r="3931"/>
-    <row r="3932"/>
-    <row r="3933"/>
-    <row r="3934"/>
-    <row r="3935"/>
-    <row r="3936"/>
-    <row r="3937"/>
-    <row r="3938"/>
-    <row r="3939"/>
-    <row r="3940"/>
-    <row r="3941"/>
-    <row r="3942"/>
-    <row r="3943"/>
-    <row r="3944"/>
-    <row r="3945"/>
-    <row r="3946"/>
-    <row r="3947"/>
-    <row r="3948"/>
-    <row r="3949"/>
-    <row r="3950"/>
-    <row r="3951"/>
-    <row r="3952"/>
-    <row r="3953"/>
-    <row r="3954"/>
-    <row r="3955"/>
-    <row r="3956"/>
-    <row r="3957"/>
-    <row r="3958"/>
-    <row r="3959"/>
-    <row r="3960"/>
-    <row r="3961"/>
-    <row r="3962"/>
-    <row r="3963"/>
-    <row r="3964"/>
-    <row r="3965"/>
-    <row r="3966"/>
-    <row r="3967"/>
-    <row r="3968"/>
-    <row r="3969"/>
-    <row r="3970"/>
-    <row r="3971"/>
-    <row r="3972"/>
-    <row r="3973"/>
-    <row r="3974"/>
-    <row r="3975"/>
-    <row r="3976"/>
-    <row r="3977"/>
-    <row r="3978"/>
-    <row r="3979"/>
-    <row r="3980"/>
-    <row r="3981"/>
-    <row r="3982"/>
-    <row r="3983"/>
-    <row r="3984"/>
-    <row r="3985"/>
-    <row r="3986"/>
-    <row r="3987"/>
-    <row r="3988"/>
-    <row r="3989"/>
-    <row r="3990"/>
-    <row r="3991"/>
-    <row r="3992"/>
-    <row r="3993"/>
-    <row r="3994"/>
-    <row r="3995"/>
-    <row r="3996"/>
-    <row r="3997"/>
-    <row r="3998"/>
-    <row r="3999"/>
-    <row r="4000"/>
-    <row r="4001"/>
-    <row r="4002"/>
-    <row r="4003"/>
-    <row r="4004"/>
-    <row r="4005"/>
-    <row r="4006"/>
-    <row r="4007"/>
-    <row r="4008"/>
-    <row r="4009"/>
-    <row r="4010"/>
-    <row r="4011"/>
-    <row r="4012"/>
-    <row r="4013"/>
-    <row r="4014"/>
-    <row r="4015"/>
-    <row r="4016"/>
-    <row r="4017"/>
-    <row r="4018"/>
-    <row r="4019"/>
-    <row r="4020"/>
-    <row r="4021"/>
-    <row r="4022"/>
-    <row r="4023"/>
-    <row r="4024"/>
-    <row r="4025"/>
-    <row r="4026"/>
-    <row r="4027"/>
-    <row r="4028"/>
-    <row r="4029"/>
-    <row r="4030"/>
-    <row r="4031"/>
-    <row r="4032"/>
-    <row r="4033"/>
-    <row r="4034"/>
-    <row r="4035"/>
-    <row r="4036"/>
-    <row r="4037"/>
-    <row r="4038"/>
-    <row r="4039"/>
-    <row r="4040"/>
-    <row r="4041"/>
-    <row r="4042"/>
-    <row r="4043"/>
-    <row r="4044"/>
-    <row r="4045"/>
-    <row r="4046"/>
-    <row r="4047"/>
-    <row r="4048"/>
-    <row r="4049"/>
-    <row r="4050"/>
-    <row r="4051"/>
-    <row r="4052"/>
-    <row r="4053"/>
-    <row r="4054"/>
-    <row r="4055"/>
-    <row r="4056"/>
-    <row r="4057"/>
-    <row r="4058"/>
-    <row r="4059"/>
-    <row r="4060"/>
-    <row r="4061"/>
-    <row r="4062"/>
-    <row r="4063"/>
-    <row r="4064"/>
-    <row r="4065"/>
-    <row r="4066"/>
-    <row r="4067"/>
-    <row r="4068"/>
-    <row r="4069"/>
-    <row r="4070"/>
-    <row r="4071"/>
-    <row r="4072"/>
-    <row r="4073"/>
-    <row r="4074"/>
-    <row r="4075"/>
-    <row r="4076"/>
-    <row r="4077"/>
-    <row r="4078"/>
-    <row r="4079"/>
-    <row r="4080"/>
-    <row r="4081"/>
-    <row r="4082"/>
-    <row r="4083"/>
-    <row r="4084"/>
-    <row r="4085"/>
-    <row r="4086"/>
-    <row r="4087"/>
-    <row r="4088"/>
-    <row r="4089"/>
-    <row r="4090"/>
-    <row r="4091"/>
-    <row r="4092"/>
-    <row r="4093"/>
-    <row r="4094"/>
-    <row r="4095"/>
-    <row r="4096"/>
-    <row r="4097"/>
-    <row r="4098"/>
-    <row r="4099"/>
-    <row r="4100"/>
-    <row r="4101"/>
-    <row r="4102"/>
-    <row r="4103"/>
-    <row r="4104"/>
-    <row r="4105"/>
-    <row r="4106"/>
-    <row r="4107"/>
-    <row r="4108"/>
-    <row r="4109"/>
-    <row r="4110"/>
-    <row r="4111"/>
-    <row r="4112"/>
-    <row r="4113"/>
-    <row r="4114"/>
-    <row r="4115"/>
-    <row r="4116"/>
-    <row r="4117"/>
-    <row r="4118"/>
-    <row r="4119"/>
-    <row r="4120"/>
-    <row r="4121"/>
-    <row r="4122"/>
-    <row r="4123"/>
-    <row r="4124"/>
-    <row r="4125"/>
-    <row r="4126"/>
-    <row r="4127"/>
-    <row r="4128"/>
-    <row r="4129"/>
-    <row r="4130"/>
-    <row r="4131"/>
-    <row r="4132"/>
-    <row r="4133"/>
-    <row r="4134"/>
-    <row r="4135"/>
-    <row r="4136"/>
-    <row r="4137"/>
-    <row r="4138"/>
-    <row r="4139"/>
-    <row r="4140"/>
-    <row r="4141"/>
-    <row r="4142"/>
-    <row r="4143"/>
-    <row r="4144"/>
-    <row r="4145"/>
-    <row r="4146"/>
-    <row r="4147"/>
-    <row r="4148"/>
-    <row r="4149"/>
-    <row r="4150"/>
-    <row r="4151"/>
-    <row r="4152"/>
-    <row r="4153"/>
-    <row r="4154"/>
-    <row r="4155"/>
-    <row r="4156"/>
-    <row r="4157"/>
-    <row r="4158"/>
-    <row r="4159"/>
-    <row r="4160"/>
-    <row r="4161"/>
-    <row r="4162"/>
-    <row r="4163"/>
-    <row r="4164"/>
-    <row r="4165"/>
-    <row r="4166"/>
-    <row r="4167"/>
-    <row r="4168"/>
-    <row r="4169"/>
-    <row r="4170"/>
-    <row r="4171"/>
-    <row r="4172"/>
-    <row r="4173"/>
-    <row r="4174"/>
-    <row r="4175"/>
-    <row r="4176"/>
-    <row r="4177"/>
-    <row r="4178"/>
-    <row r="4179"/>
-    <row r="4180"/>
-    <row r="4181"/>
-    <row r="4182"/>
-    <row r="4183"/>
-    <row r="4184"/>
-    <row r="4185"/>
-    <row r="4186"/>
-    <row r="4187"/>
-    <row r="4188"/>
-    <row r="4189"/>
-    <row r="4190"/>
-    <row r="4191"/>
-    <row r="4192"/>
-    <row r="4193"/>
-    <row r="4194"/>
-    <row r="4195"/>
-    <row r="4196"/>
-    <row r="4197"/>
-    <row r="4198"/>
-    <row r="4199"/>
-    <row r="4200"/>
-    <row r="4201"/>
-    <row r="4202"/>
-    <row r="4203"/>
-    <row r="4204"/>
-    <row r="4205"/>
-    <row r="4206"/>
-    <row r="4207"/>
-    <row r="4208"/>
-    <row r="4209"/>
-    <row r="4210"/>
-    <row r="4211"/>
-    <row r="4212"/>
-    <row r="4213"/>
-    <row r="4214"/>
-    <row r="4215"/>
-    <row r="4216"/>
-    <row r="4217"/>
-    <row r="4218"/>
-    <row r="4219"/>
-    <row r="4220"/>
-    <row r="4221"/>
-    <row r="4222"/>
-    <row r="4223"/>
-    <row r="4224"/>
-    <row r="4225"/>
-    <row r="4226"/>
-    <row r="4227"/>
-    <row r="4228"/>
-    <row r="4229"/>
-    <row r="4230"/>
-    <row r="4231"/>
-    <row r="4232"/>
-    <row r="4233"/>
-    <row r="4234"/>
-    <row r="4235"/>
-    <row r="4236"/>
-    <row r="4237"/>
-    <row r="4238"/>
-    <row r="4239"/>
-    <row r="4240"/>
-    <row r="4241"/>
-    <row r="4242"/>
-    <row r="4243"/>
-    <row r="4244"/>
-    <row r="4245"/>
-    <row r="4246"/>
-    <row r="4247"/>
-    <row r="4248"/>
-    <row r="4249"/>
-    <row r="4250"/>
-    <row r="4251"/>
-    <row r="4252"/>
-    <row r="4253"/>
-    <row r="4254"/>
-    <row r="4255"/>
-    <row r="4256"/>
-    <row r="4257"/>
-    <row r="4258"/>
-    <row r="4259"/>
-    <row r="4260"/>
-    <row r="4261"/>
-    <row r="4262"/>
-    <row r="4263"/>
-    <row r="4264"/>
-    <row r="4265"/>
-    <row r="4266"/>
-    <row r="4267"/>
-    <row r="4268"/>
-    <row r="4269"/>
-    <row r="4270"/>
-    <row r="4271"/>
-    <row r="4272"/>
-    <row r="4273"/>
-    <row r="4274"/>
-    <row r="4275"/>
-    <row r="4276"/>
-    <row r="4277"/>
-    <row r="4278"/>
-    <row r="4279"/>
-    <row r="4280"/>
-    <row r="4281"/>
-    <row r="4282"/>
-    <row r="4283"/>
-    <row r="4284"/>
-    <row r="4285"/>
-    <row r="4286"/>
-    <row r="4287"/>
-    <row r="4288"/>
-    <row r="4289"/>
-    <row r="4290"/>
-    <row r="4291"/>
-    <row r="4292"/>
-    <row r="4293"/>
-    <row r="4294"/>
-    <row r="4295"/>
-    <row r="4296"/>
-    <row r="4297"/>
-    <row r="4298"/>
-    <row r="4299"/>
-    <row r="4300"/>
-    <row r="4301"/>
-    <row r="4302"/>
-    <row r="4303"/>
-    <row r="4304"/>
-    <row r="4305"/>
-    <row r="4306"/>
-    <row r="4307"/>
-    <row r="4308"/>
-    <row r="4309"/>
-    <row r="4310"/>
-    <row r="4311"/>
-    <row r="4312"/>
-    <row r="4313"/>
-    <row r="4314"/>
-    <row r="4315"/>
-    <row r="4316"/>
-    <row r="4317"/>
-    <row r="4318"/>
-    <row r="4319"/>
-    <row r="4320"/>
-    <row r="4321"/>
-    <row r="4322"/>
-    <row r="4323"/>
-    <row r="4324"/>
-    <row r="4325"/>
-    <row r="4326"/>
-    <row r="4327"/>
-    <row r="4328"/>
-    <row r="4329"/>
-    <row r="4330"/>
-    <row r="4331"/>
-    <row r="4332"/>
-    <row r="4333"/>
-    <row r="4334"/>
-    <row r="4335"/>
-    <row r="4336"/>
-    <row r="4337"/>
-    <row r="4338"/>
-    <row r="4339"/>
-    <row r="4340"/>
-    <row r="4341"/>
-    <row r="4342"/>
-    <row r="4343"/>
-    <row r="4344"/>
-    <row r="4345"/>
-    <row r="4346"/>
-    <row r="4347"/>
-    <row r="4348"/>
-    <row r="4349"/>
-    <row r="4350"/>
-    <row r="4351"/>
-    <row r="4352"/>
-    <row r="4353"/>
-    <row r="4354"/>
-    <row r="4355"/>
-    <row r="4356"/>
-    <row r="4357"/>
-    <row r="4358"/>
-    <row r="4359"/>
-    <row r="4360"/>
-    <row r="4361"/>
-    <row r="4362"/>
-    <row r="4363"/>
-    <row r="4364"/>
-    <row r="4365"/>
-    <row r="4366"/>
-    <row r="4367"/>
-    <row r="4368"/>
-    <row r="4369"/>
-    <row r="4370"/>
-    <row r="4371"/>
-    <row r="4372"/>
-    <row r="4373"/>
-    <row r="4374"/>
-    <row r="4375"/>
-    <row r="4376"/>
-    <row r="4377"/>
-    <row r="4378"/>
-    <row r="4379"/>
-    <row r="4380"/>
-    <row r="4381"/>
-    <row r="4382"/>
-    <row r="4383"/>
-    <row r="4384"/>
-    <row r="4385"/>
-    <row r="4386"/>
-    <row r="4387"/>
-    <row r="4388"/>
-    <row r="4389"/>
-    <row r="4390"/>
-    <row r="4391"/>
-    <row r="4392"/>
-    <row r="4393"/>
-    <row r="4394"/>
-    <row r="4395"/>
-    <row r="4396"/>
-    <row r="4397"/>
-    <row r="4398"/>
-    <row r="4399"/>
-    <row r="4400"/>
-    <row r="4401"/>
-    <row r="4402"/>
-    <row r="4403"/>
-    <row r="4404"/>
-    <row r="4405"/>
-    <row r="4406"/>
-    <row r="4407"/>
-    <row r="4408"/>
-    <row r="4409"/>
-    <row r="4410"/>
-    <row r="4411"/>
-    <row r="4412"/>
-    <row r="4413"/>
-    <row r="4414"/>
-    <row r="4415"/>
-    <row r="4416"/>
-    <row r="4417"/>
-    <row r="4418"/>
-    <row r="4419"/>
-    <row r="4420"/>
-    <row r="4421"/>
-    <row r="4422"/>
-    <row r="4423"/>
-    <row r="4424"/>
-    <row r="4425"/>
-    <row r="4426"/>
-    <row r="4427"/>
-    <row r="4428"/>
-    <row r="4429"/>
-    <row r="4430"/>
-    <row r="4431"/>
-    <row r="4432"/>
-    <row r="4433"/>
-    <row r="4434"/>
-    <row r="4435"/>
-    <row r="4436"/>
-    <row r="4437"/>
-    <row r="4438"/>
-    <row r="4439"/>
-    <row r="4440"/>
-    <row r="4441"/>
-    <row r="4442"/>
-    <row r="4443"/>
-    <row r="4444"/>
-    <row r="4445"/>
-    <row r="4446"/>
-    <row r="4447"/>
-    <row r="4448"/>
-    <row r="4449"/>
-    <row r="4450"/>
-    <row r="4451"/>
-    <row r="4452"/>
-    <row r="4453"/>
-    <row r="4454"/>
-    <row r="4455"/>
-    <row r="4456"/>
-    <row r="4457"/>
-    <row r="4458"/>
-    <row r="4459"/>
-    <row r="4460"/>
-    <row r="4461"/>
-    <row r="4462"/>
-    <row r="4463"/>
-    <row r="4464"/>
-    <row r="4465"/>
-    <row r="4466"/>
-    <row r="4467"/>
-    <row r="4468"/>
-    <row r="4469"/>
-    <row r="4470"/>
-    <row r="4471"/>
-    <row r="4472"/>
-    <row r="4473"/>
-    <row r="4474"/>
-    <row r="4475"/>
-    <row r="4476"/>
-    <row r="4477"/>
-    <row r="4478"/>
-    <row r="4479"/>
-    <row r="4480"/>
-    <row r="4481"/>
-    <row r="4482"/>
-    <row r="4483"/>
-    <row r="4484"/>
-    <row r="4485"/>
-    <row r="4486"/>
-    <row r="4487"/>
-    <row r="4488"/>
-    <row r="4489"/>
-    <row r="4490"/>
-    <row r="4491"/>
-    <row r="4492"/>
-    <row r="4493"/>
-    <row r="4494"/>
-    <row r="4495"/>
-    <row r="4496"/>
-    <row r="4497"/>
-    <row r="4498"/>
-    <row r="4499"/>
-    <row r="4500"/>
-    <row r="4501"/>
-    <row r="4502"/>
-    <row r="4503"/>
-    <row r="4504"/>
-    <row r="4505"/>
-    <row r="4506"/>
-    <row r="4507"/>
-    <row r="4508"/>
-    <row r="4509"/>
-    <row r="4510"/>
-    <row r="4511"/>
-    <row r="4512"/>
-    <row r="4513"/>
-    <row r="4514"/>
-    <row r="4515"/>
-    <row r="4516"/>
-    <row r="4517"/>
-    <row r="4518"/>
-    <row r="4519"/>
-    <row r="4520"/>
-    <row r="4521"/>
-    <row r="4522"/>
-    <row r="4523"/>
-    <row r="4524"/>
-    <row r="4525"/>
-    <row r="4526"/>
-    <row r="4527"/>
-    <row r="4528"/>
-    <row r="4529"/>
-    <row r="4530"/>
-    <row r="4531"/>
-    <row r="4532"/>
-    <row r="4533"/>
-    <row r="4534"/>
-    <row r="4535"/>
-    <row r="4536"/>
-    <row r="4537"/>
-    <row r="4538"/>
-    <row r="4539"/>
-    <row r="4540"/>
-    <row r="4541"/>
-    <row r="4542"/>
-    <row r="4543"/>
-    <row r="4544"/>
-    <row r="4545"/>
-    <row r="4546"/>
-    <row r="4547"/>
-    <row r="4548"/>
-    <row r="4549"/>
-    <row r="4550"/>
-    <row r="4551"/>
-    <row r="4552"/>
-    <row r="4553"/>
-    <row r="4554"/>
-    <row r="4555"/>
-    <row r="4556"/>
-    <row r="4557"/>
-    <row r="4558"/>
-    <row r="4559"/>
-    <row r="4560"/>
-    <row r="4561"/>
-    <row r="4562"/>
-    <row r="4563"/>
-    <row r="4564"/>
-    <row r="4565"/>
-    <row r="4566"/>
-    <row r="4567"/>
-    <row r="4568"/>
-    <row r="4569"/>
-    <row r="4570"/>
-    <row r="4571"/>
-    <row r="4572"/>
-    <row r="4573"/>
-    <row r="4574"/>
-    <row r="4575"/>
-    <row r="4576"/>
-    <row r="4577"/>
-    <row r="4578"/>
-    <row r="4579"/>
-    <row r="4580"/>
-    <row r="4581"/>
-    <row r="4582"/>
-    <row r="4583"/>
-    <row r="4584"/>
-    <row r="4585"/>
-    <row r="4586"/>
-    <row r="4587"/>
-    <row r="4588"/>
-    <row r="4589"/>
-    <row r="4590"/>
-    <row r="4591"/>
-    <row r="4592"/>
-    <row r="4593"/>
-    <row r="4594"/>
-    <row r="4595"/>
-    <row r="4596"/>
-    <row r="4597"/>
-    <row r="4598"/>
-    <row r="4599"/>
-    <row r="4600"/>
-    <row r="4601"/>
-    <row r="4602"/>
-    <row r="4603"/>
-    <row r="4604"/>
-    <row r="4605"/>
-    <row r="4606"/>
-    <row r="4607"/>
-    <row r="4608"/>
-    <row r="4609"/>
-    <row r="4610"/>
-    <row r="4611"/>
-    <row r="4612"/>
-    <row r="4613"/>
-    <row r="4614"/>
-    <row r="4615"/>
-    <row r="4616"/>
-    <row r="4617"/>
-    <row r="4618"/>
-    <row r="4619"/>
-    <row r="4620"/>
-    <row r="4621"/>
-    <row r="4622"/>
-    <row r="4623"/>
-    <row r="4624"/>
-    <row r="4625"/>
-    <row r="4626"/>
-    <row r="4627"/>
-    <row r="4628"/>
-    <row r="4629"/>
-    <row r="4630"/>
-    <row r="4631"/>
-    <row r="4632"/>
-    <row r="4633"/>
-    <row r="4634"/>
-    <row r="4635"/>
-    <row r="4636"/>
-    <row r="4637"/>
-    <row r="4638"/>
-    <row r="4639"/>
-    <row r="4640"/>
-    <row r="4641"/>
-    <row r="4642"/>
-    <row r="4643"/>
-    <row r="4644"/>
-    <row r="4645"/>
-    <row r="4646"/>
-    <row r="4647"/>
-    <row r="4648"/>
-    <row r="4649"/>
-    <row r="4650"/>
-    <row r="4651"/>
-    <row r="4652"/>
-    <row r="4653"/>
-    <row r="4654"/>
-    <row r="4655"/>
-    <row r="4656"/>
-    <row r="4657"/>
-    <row r="4658"/>
-    <row r="4659"/>
-    <row r="4660"/>
-    <row r="4661"/>
-    <row r="4662"/>
-    <row r="4663"/>
-    <row r="4664"/>
-    <row r="4665"/>
-    <row r="4666"/>
-    <row r="4667"/>
-    <row r="4668"/>
-    <row r="4669"/>
-    <row r="4670"/>
-    <row r="4671"/>
-    <row r="4672"/>
-    <row r="4673"/>
-    <row r="4674"/>
-    <row r="4675"/>
-    <row r="4676"/>
-    <row r="4677"/>
-    <row r="4678"/>
-    <row r="4679"/>
-    <row r="4680"/>
-    <row r="4681"/>
-    <row r="4682"/>
-    <row r="4683"/>
-    <row r="4684"/>
-    <row r="4685"/>
-    <row r="4686"/>
-    <row r="4687"/>
-    <row r="4688"/>
-    <row r="4689"/>
-    <row r="4690"/>
-    <row r="4691"/>
-    <row r="4692"/>
-    <row r="4693"/>
-    <row r="4694"/>
-    <row r="4695"/>
-    <row r="4696"/>
-    <row r="4697"/>
-    <row r="4698"/>
-    <row r="4699"/>
-    <row r="4700"/>
-    <row r="4701"/>
-    <row r="4702"/>
-    <row r="4703"/>
-    <row r="4704"/>
-    <row r="4705"/>
-    <row r="4706"/>
-    <row r="4707"/>
-    <row r="4708"/>
-    <row r="4709"/>
-    <row r="4710"/>
-    <row r="4711"/>
-    <row r="4712"/>
-    <row r="4713"/>
-    <row r="4714"/>
-    <row r="4715"/>
-    <row r="4716"/>
-    <row r="4717"/>
-    <row r="4718"/>
-    <row r="4719"/>
-    <row r="4720"/>
-    <row r="4721"/>
-    <row r="4722"/>
-    <row r="4723"/>
-    <row r="4724"/>
-    <row r="4725"/>
-    <row r="4726"/>
-    <row r="4727"/>
-    <row r="4728"/>
-    <row r="4729"/>
-    <row r="4730"/>
-    <row r="4731"/>
-    <row r="4732"/>
-    <row r="4733"/>
-    <row r="4734"/>
-    <row r="4735"/>
-    <row r="4736"/>
-    <row r="4737"/>
-    <row r="4738"/>
-    <row r="4739"/>
-    <row r="4740"/>
-    <row r="4741"/>
-    <row r="4742"/>
-    <row r="4743"/>
-    <row r="4744"/>
-    <row r="4745"/>
-    <row r="4746"/>
-    <row r="4747"/>
-    <row r="4748"/>
-    <row r="4749"/>
-    <row r="4750"/>
-    <row r="4751"/>
-    <row r="4752"/>
-    <row r="4753"/>
-    <row r="4754"/>
-    <row r="4755"/>
-    <row r="4756"/>
-    <row r="4757"/>
-    <row r="4758"/>
-    <row r="4759"/>
-    <row r="4760"/>
-    <row r="4761"/>
-    <row r="4762"/>
-    <row r="4763"/>
-    <row r="4764"/>
-    <row r="4765"/>
-    <row r="4766"/>
-    <row r="4767"/>
-    <row r="4768"/>
-    <row r="4769"/>
-    <row r="4770"/>
-    <row r="4771"/>
-    <row r="4772"/>
-    <row r="4773"/>
-    <row r="4774"/>
-    <row r="4775"/>
-    <row r="4776"/>
-    <row r="4777"/>
-    <row r="4778"/>
-    <row r="4779"/>
-    <row r="4780"/>
-    <row r="4781"/>
-    <row r="4782"/>
-    <row r="4783"/>
-    <row r="4784"/>
-    <row r="4785"/>
-    <row r="4786"/>
-    <row r="4787"/>
-    <row r="4788"/>
-    <row r="4789"/>
-    <row r="4790"/>
-    <row r="4791"/>
-    <row r="4792"/>
-    <row r="4793"/>
-    <row r="4794"/>
-    <row r="4795"/>
-    <row r="4796"/>
-    <row r="4797"/>
-    <row r="4798"/>
-    <row r="4799"/>
-    <row r="4800"/>
-    <row r="4801"/>
-    <row r="4802"/>
-    <row r="4803"/>
-    <row r="4804"/>
-    <row r="4805"/>
-    <row r="4806"/>
-    <row r="4807"/>
-    <row r="4808"/>
-    <row r="4809"/>
-    <row r="4810"/>
-    <row r="4811"/>
-    <row r="4812"/>
-    <row r="4813"/>
-    <row r="4814"/>
-    <row r="4815"/>
-    <row r="4816"/>
-    <row r="4817"/>
-    <row r="4818"/>
-    <row r="4819"/>
-    <row r="4820"/>
-    <row r="4821"/>
-    <row r="4822"/>
-    <row r="4823"/>
-    <row r="4824"/>
-    <row r="4825"/>
-    <row r="4826"/>
-    <row r="4827"/>
-    <row r="4828"/>
-    <row r="4829"/>
-    <row r="4830"/>
-    <row r="4831"/>
-    <row r="4832"/>
-    <row r="4833"/>
-    <row r="4834"/>
-    <row r="4835"/>
-    <row r="4836"/>
-    <row r="4837"/>
-    <row r="4838"/>
-    <row r="4839"/>
-    <row r="4840"/>
-    <row r="4841"/>
-    <row r="4842"/>
-    <row r="4843"/>
-    <row r="4844"/>
-    <row r="4845"/>
-    <row r="4846"/>
-    <row r="4847"/>
-    <row r="4848"/>
-    <row r="4849"/>
-    <row r="4850"/>
-    <row r="4851"/>
-    <row r="4852"/>
-    <row r="4853"/>
-    <row r="4854"/>
-    <row r="4855"/>
-    <row r="4856"/>
-    <row r="4857"/>
-    <row r="4858"/>
-    <row r="4859"/>
-    <row r="4860"/>
-    <row r="4861"/>
-    <row r="4862"/>
-    <row r="4863"/>
-    <row r="4864"/>
-    <row r="4865"/>
-    <row r="4866"/>
-    <row r="4867"/>
-    <row r="4868"/>
-    <row r="4869"/>
-    <row r="4870"/>
-    <row r="4871"/>
-    <row r="4872"/>
-    <row r="4873"/>
-    <row r="4874"/>
-    <row r="4875"/>
-    <row r="4876"/>
-    <row r="4877"/>
-    <row r="4878"/>
-    <row r="4879"/>
-    <row r="4880"/>
-    <row r="4881"/>
-    <row r="4882"/>
-    <row r="4883"/>
-    <row r="4884"/>
-    <row r="4885"/>
-    <row r="4886"/>
-    <row r="4887"/>
-    <row r="4888"/>
-    <row r="4889"/>
-    <row r="4890"/>
-    <row r="4891"/>
-    <row r="4892"/>
-    <row r="4893"/>
-    <row r="4894"/>
-    <row r="4895"/>
-    <row r="4896"/>
-    <row r="4897"/>
-    <row r="4898"/>
-    <row r="4899"/>
-    <row r="4900"/>
-    <row r="4901"/>
-    <row r="4902"/>
-    <row r="4903"/>
-    <row r="4904"/>
-    <row r="4905"/>
-    <row r="4906"/>
-    <row r="4907"/>
-    <row r="4908"/>
-    <row r="4909"/>
-    <row r="4910"/>
-    <row r="4911"/>
-    <row r="4912"/>
-    <row r="4913"/>
-    <row r="4914"/>
-    <row r="4915"/>
-    <row r="4916"/>
-    <row r="4917"/>
-    <row r="4918"/>
-    <row r="4919"/>
-    <row r="4920"/>
-    <row r="4921"/>
-    <row r="4922"/>
-    <row r="4923"/>
-    <row r="4924"/>
-    <row r="4925"/>
-    <row r="4926"/>
-    <row r="4927"/>
-    <row r="4928"/>
-    <row r="4929"/>
-    <row r="4930"/>
-    <row r="4931"/>
-    <row r="4932"/>
-    <row r="4933"/>
-    <row r="4934"/>
-    <row r="4935"/>
-    <row r="4936"/>
-    <row r="4937"/>
-    <row r="4938"/>
-    <row r="4939"/>
-    <row r="4940"/>
-    <row r="4941"/>
-    <row r="4942"/>
-    <row r="4943"/>
-    <row r="4944"/>
-    <row r="4945"/>
-    <row r="4946"/>
-    <row r="4947"/>
-    <row r="4948"/>
-    <row r="4949"/>
-    <row r="4950"/>
-    <row r="4951"/>
-    <row r="4952"/>
-    <row r="4953"/>
-    <row r="4954"/>
-    <row r="4955"/>
-    <row r="4956"/>
-    <row r="4957"/>
-    <row r="4958"/>
-    <row r="4959"/>
-    <row r="4960"/>
-    <row r="4961"/>
-    <row r="4962"/>
-    <row r="4963"/>
-    <row r="4964"/>
-    <row r="4965"/>
-    <row r="4966"/>
-    <row r="4967"/>
-    <row r="4968"/>
-    <row r="4969"/>
-    <row r="4970"/>
-    <row r="4971"/>
-    <row r="4972"/>
-    <row r="4973"/>
-    <row r="4974"/>
-    <row r="4975"/>
-    <row r="4976"/>
-    <row r="4977"/>
-    <row r="4978"/>
-    <row r="4979"/>
-    <row r="4980"/>
-    <row r="4981"/>
-    <row r="4982"/>
-    <row r="4983"/>
-    <row r="4984"/>
-    <row r="4985"/>
-    <row r="4986"/>
-    <row r="4987"/>
-    <row r="4988"/>
-    <row r="4989"/>
-    <row r="4990"/>
-    <row r="4991"/>
-    <row r="4992"/>
-    <row r="4993"/>
-    <row r="4994"/>
-    <row r="4995"/>
-    <row r="4996"/>
-    <row r="4997"/>
-    <row r="4998"/>
-    <row r="4999"/>
-    <row r="5000"/>
   </sheetData>
   <autoFilter ref="G1:L867"/>
   <mergeCells count="10">

--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="2961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="2962">
   <si>
     <t>WEB STAXI - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -7119,6 +7119,9 @@
   </si>
   <si>
     <t>_ChiTietDoanhThuTuApp.xlsx</t>
+  </si>
+  <si>
+    <t>Report52_ChiTietDoanhThuTuApp_XuatExcel.png</t>
   </si>
   <si>
     <t>Report53</t>
@@ -26150,7 +26153,7 @@
   <dimension ref="A1:AE915"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G12" sqref="G12:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -26167,8 +26170,8 @@
     <col min="13" max="13" width="20.42578125" style="21" customWidth="1"/>
     <col min="14" max="14" width="27.140625" style="21" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="78" customWidth="1"/>
-    <col min="16" max="3113" width="9.140625" style="78" customWidth="1"/>
-    <col min="3114" max="16384" width="9.140625" style="78"/>
+    <col min="16" max="3116" width="9.140625" style="78" customWidth="1"/>
+    <col min="3117" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26267,11 +26270,11 @@
       </c>
       <c r="D4" s="15">
         <f>COUNTIFS(G:G,"Pass",H:H,"x")</f>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="15">
         <f>COUNTIFS(G:G,"Fail",H:H,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="6"/>
@@ -26377,7 +26380,7 @@
       </c>
       <c r="D7" s="15">
         <f>COUNTIFS(G:G,"Pass",K:K,"x")</f>
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E7" s="15">
         <f>COUNTIFS(G:G,"Fail",K:K,"x")</f>
@@ -26409,7 +26412,7 @@
       </c>
       <c r="D8" s="15">
         <f>COUNTIFS(G:G,"Pass",L:L,"x")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="15">
         <f>COUNTIFS(G:G,"Fail",L:L,"x")</f>
@@ -26528,9 +26531,7 @@
       <c r="F12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -26562,9 +26563,7 @@
       <c r="F13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -26596,9 +26595,7 @@
       <c r="F14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -41253,7 +41250,7 @@
         <v>1858</v>
       </c>
       <c r="G564" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H564" s="6" t="s">
         <v>38</v>
@@ -41262,25 +41259,27 @@
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
-      <c r="M564" s="42"/>
+      <c r="M564" s="42" t="s">
+        <v>1859</v>
+      </c>
       <c r="N564" s="42"/>
     </row>
     <row r="565" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="37" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B565" s="29" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C565" s="26"/>
       <c r="D565" s="15" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="E565" s="15" t="s">
         <v>618</v>
       </c>
       <c r="F565" s="29" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="G565" s="4" t="s">
         <v>4</v>
@@ -41313,7 +41312,7 @@
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A567" s="49" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B567" s="49"/>
       <c r="C567" s="50" t="s">
@@ -41333,20 +41332,20 @@
     </row>
     <row r="568" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="37" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B568" s="39" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C568" s="26"/>
       <c r="D568" s="15" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="E568" s="27" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="F568" s="29" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="G568" s="4" t="s">
         <v>4</v>
@@ -41363,14 +41362,14 @@
     </row>
     <row r="569" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="37" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B569" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C569" s="26"/>
       <c r="D569" s="29" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="E569" s="29" t="s">
         <v>1798</v>
@@ -41393,14 +41392,14 @@
     </row>
     <row r="570" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="37" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B570" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C570" s="26"/>
       <c r="D570" s="15" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E570" s="15" t="s">
         <v>170</v>
@@ -41437,7 +41436,7 @@
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A572" s="49" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B572" s="49"/>
       <c r="C572" s="50" t="s">
@@ -41457,20 +41456,20 @@
     </row>
     <row r="573" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="37" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B573" s="39" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C573" s="26"/>
       <c r="D573" s="15" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="E573" s="27" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F573" s="29" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="G573" s="4" t="s">
         <v>4</v>
@@ -41487,20 +41486,20 @@
     </row>
     <row r="574" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="37" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B574" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C574" s="26"/>
       <c r="D574" s="29" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E574" s="29" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F574" s="29" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="G574" s="4" t="s">
         <v>4</v>
@@ -41517,20 +41516,20 @@
     </row>
     <row r="575" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="37" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B575" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C575" s="26"/>
       <c r="D575" s="15" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E575" s="15" t="s">
         <v>170</v>
       </c>
       <c r="F575" s="29" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="G575" s="4" t="s">
         <v>4</v>
@@ -41563,7 +41562,7 @@
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A577" s="49" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B577" s="49"/>
       <c r="C577" s="50" t="s">
@@ -41583,20 +41582,20 @@
     </row>
     <row r="578" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="37" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B578" s="39" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C578" s="26"/>
       <c r="D578" s="15" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="E578" s="27" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="F578" s="29" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="G578" s="4" t="s">
         <v>4</v>
@@ -41613,20 +41612,20 @@
     </row>
     <row r="579" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="37" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B579" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C579" s="26"/>
       <c r="D579" s="29" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E579" s="29" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="F579" s="29" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="G579" s="4" t="s">
         <v>4</v>
@@ -41643,14 +41642,14 @@
     </row>
     <row r="580" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="37" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B580" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C580" s="26"/>
       <c r="D580" s="15" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E580" s="15" t="s">
         <v>170</v>
@@ -41687,7 +41686,7 @@
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A582" s="49" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B582" s="49"/>
       <c r="C582" s="50" t="s">
@@ -41707,20 +41706,20 @@
     </row>
     <row r="583" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="37" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B583" s="39" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C583" s="26"/>
       <c r="D583" s="15" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="E583" s="27" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="F583" s="29" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G583" s="4" t="s">
         <v>4</v>
@@ -41737,20 +41736,20 @@
     </row>
     <row r="584" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="37" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B584" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C584" s="26"/>
       <c r="D584" s="29" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="E584" s="29" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="F584" s="29" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="G584" s="4" t="s">
         <v>4</v>
@@ -41767,14 +41766,14 @@
     </row>
     <row r="585" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="37" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B585" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C585" s="26"/>
       <c r="D585" s="15" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E585" s="15" t="s">
         <v>170</v>
@@ -41811,7 +41810,7 @@
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A587" s="49" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B587" s="49"/>
       <c r="C587" s="50" t="s">
@@ -41831,20 +41830,20 @@
     </row>
     <row r="588" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="37" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B588" s="39" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C588" s="26"/>
       <c r="D588" s="15" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="E588" s="27" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="F588" s="29" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="G588" s="4" t="s">
         <v>4</v>
@@ -41861,20 +41860,20 @@
     </row>
     <row r="589" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="37" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B589" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C589" s="26"/>
       <c r="D589" s="29" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E589" s="29" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="F589" s="29" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="G589" s="4" t="s">
         <v>4</v>
@@ -41891,14 +41890,14 @@
     </row>
     <row r="590" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="37" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B590" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C590" s="26"/>
       <c r="D590" s="15" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="E590" s="15" t="s">
         <v>170</v>
@@ -41935,7 +41934,7 @@
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A592" s="49" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B592" s="49"/>
       <c r="C592" s="50" t="s">
@@ -41955,20 +41954,20 @@
     </row>
     <row r="593" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="37" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B593" s="39" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C593" s="26"/>
       <c r="D593" s="15" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="E593" s="27" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="F593" s="29" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="G593" s="4" t="s">
         <v>4</v>
@@ -41985,20 +41984,20 @@
     </row>
     <row r="594" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="37" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B594" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C594" s="26"/>
       <c r="D594" s="29" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E594" s="29" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F594" s="29" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="G594" s="4" t="s">
         <v>4</v>
@@ -42015,20 +42014,20 @@
     </row>
     <row r="595" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="37" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B595" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C595" s="26"/>
       <c r="D595" s="15" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="E595" s="15" t="s">
         <v>618</v>
       </c>
       <c r="F595" s="29" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="G595" s="4" t="s">
         <v>4</v>
@@ -42061,7 +42060,7 @@
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A597" s="49" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B597" s="49"/>
       <c r="C597" s="50" t="s">
@@ -42081,20 +42080,20 @@
     </row>
     <row r="598" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="37" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B598" s="39" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C598" s="26"/>
       <c r="D598" s="15" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="E598" s="27" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="F598" s="29" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="G598" s="4" t="s">
         <v>4</v>
@@ -42111,20 +42110,20 @@
     </row>
     <row r="599" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="37" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B599" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C599" s="26"/>
       <c r="D599" s="29" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="E599" s="29" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F599" s="29" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="G599" s="4" t="s">
         <v>4</v>
@@ -42141,14 +42140,14 @@
     </row>
     <row r="600" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="37" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B600" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C600" s="26"/>
       <c r="D600" s="15" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="E600" s="15" t="s">
         <v>170</v>
@@ -42184,7 +42183,7 @@
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A602" s="49" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B602" s="49"/>
       <c r="C602" s="50" t="s">
@@ -42204,20 +42203,20 @@
     </row>
     <row r="603" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="37" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B603" s="39" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C603" s="26"/>
       <c r="D603" s="15" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="E603" s="27" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="F603" s="29" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="G603" s="4" t="s">
         <v>4</v>
@@ -42234,20 +42233,20 @@
     </row>
     <row r="604" spans="1:14" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="37" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B604" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C604" s="26"/>
       <c r="D604" s="29" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="E604" s="29" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F604" s="29" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="G604" s="4" t="s">
         <v>4</v>
@@ -42264,20 +42263,20 @@
     </row>
     <row r="605" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="37" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B605" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C605" s="26"/>
       <c r="D605" s="15" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E605" s="15" t="s">
         <v>618</v>
       </c>
       <c r="F605" s="29" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="G605" s="4" t="s">
         <v>5</v>
@@ -42294,20 +42293,20 @@
     </row>
     <row r="606" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="37" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B606" s="47" t="s">
         <v>1679</v>
       </c>
       <c r="C606" s="26"/>
       <c r="D606" s="15" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E606" s="15" t="s">
         <v>1681</v>
       </c>
       <c r="F606" s="29" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="G606" s="4" t="s">
         <v>4</v>
@@ -42324,14 +42323,14 @@
     </row>
     <row r="607" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="37" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B607" s="47" t="s">
         <v>1684</v>
       </c>
       <c r="C607" s="26"/>
       <c r="D607" s="15" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E607" s="15" t="s">
         <v>1681</v>
@@ -42367,7 +42366,7 @@
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A609" s="49" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B609" s="49"/>
       <c r="C609" s="50" t="s">
@@ -42387,20 +42386,20 @@
     </row>
     <row r="610" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="37" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B610" s="39" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C610" s="26"/>
       <c r="D610" s="15" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="E610" s="27" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="F610" s="29" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="G610" s="4" t="s">
         <v>4</v>
@@ -42417,20 +42416,20 @@
     </row>
     <row r="611" spans="1:14" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="37" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B611" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C611" s="26"/>
       <c r="D611" s="29" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E611" s="29" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F611" s="29" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="G611" s="4" t="s">
         <v>4</v>
@@ -42447,20 +42446,20 @@
     </row>
     <row r="612" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="37" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B612" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C612" s="26"/>
       <c r="D612" s="15" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E612" s="15" t="s">
         <v>170</v>
       </c>
       <c r="F612" s="29" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="G612" s="4" t="s">
         <v>4</v>
@@ -42493,7 +42492,7 @@
     </row>
     <row r="614" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="36" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B614" s="35"/>
       <c r="C614" s="18"/>
@@ -42511,17 +42510,17 @@
     </row>
     <row r="615" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="37" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B615" s="47" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="C615" s="26"/>
       <c r="D615" s="15" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E615" s="15" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="F615" s="29"/>
       <c r="G615" s="4"/>
@@ -42535,17 +42534,17 @@
     </row>
     <row r="616" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="37" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B616" s="47" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C616" s="26"/>
       <c r="D616" s="15" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E616" s="15" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="F616" s="29"/>
       <c r="G616" s="4"/>
@@ -42623,7 +42622,7 @@
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A621" s="34" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B621" s="38"/>
       <c r="C621" s="17"/>
@@ -42641,7 +42640,7 @@
     </row>
     <row r="622" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="36" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B622" s="35"/>
       <c r="C622" s="18"/>
@@ -42659,7 +42658,7 @@
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A623" s="49" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B623" s="49"/>
       <c r="C623" s="50" t="s">
@@ -42679,20 +42678,20 @@
     </row>
     <row r="624" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="37" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B624" s="39" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C624" s="26"/>
       <c r="D624" s="15" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E624" s="27" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F624" s="29" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="G624" s="4" t="s">
         <v>4</v>
@@ -42711,20 +42710,20 @@
     </row>
     <row r="625" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="37" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B625" s="37" t="s">
         <v>736</v>
       </c>
       <c r="C625" s="26"/>
       <c r="D625" s="29" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E625" s="29" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="F625" s="29" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="G625" s="4" t="s">
         <v>4</v>
@@ -42741,20 +42740,20 @@
     </row>
     <row r="626" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="37" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B626" s="26" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C626" s="26"/>
       <c r="D626" s="29" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E626" s="29" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F626" s="29" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G626" s="4" t="s">
         <v>4</v>
@@ -42790,7 +42789,7 @@
     <row r="628" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A628" s="37"/>
       <c r="B628" s="26" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C628" s="26"/>
       <c r="D628" s="29"/>
@@ -42841,7 +42840,7 @@
     </row>
     <row r="631" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="36" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B631" s="35"/>
       <c r="C631" s="18"/>
@@ -42859,7 +42858,7 @@
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A632" s="49" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B632" s="49"/>
       <c r="C632" s="50" t="s">
@@ -42879,20 +42878,20 @@
     </row>
     <row r="633" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="37" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B633" s="39" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C633" s="26"/>
       <c r="D633" s="15" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E633" s="27" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F633" s="29" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G633" s="4" t="s">
         <v>4</v>
@@ -42911,17 +42910,17 @@
     </row>
     <row r="634" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="37" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B634" s="37" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C634" s="26"/>
       <c r="D634" s="29" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E634" s="29" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F634" s="29" t="s">
         <v>956</v>
@@ -42941,20 +42940,20 @@
     </row>
     <row r="635" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="37" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B635" s="37" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C635" s="26"/>
       <c r="D635" s="29" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E635" s="29" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F635" s="29" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G635" s="4" t="s">
         <v>4</v>
@@ -42971,20 +42970,20 @@
     </row>
     <row r="636" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="37" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B636" s="37" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C636" s="26"/>
       <c r="D636" s="29" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E636" s="29" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F636" s="29" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G636" s="4" t="s">
         <v>4</v>
@@ -43001,17 +43000,17 @@
     </row>
     <row r="637" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="37" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B637" s="37" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C637" s="26"/>
       <c r="D637" s="29" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E637" s="29" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F637" s="29"/>
       <c r="G637" s="4" t="s">
@@ -43025,7 +43024,7 @@
       </c>
       <c r="L637" s="2"/>
       <c r="M637" s="42" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="N637" s="42"/>
     </row>
@@ -43047,7 +43046,7 @@
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A639" s="49" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B639" s="49"/>
       <c r="C639" s="50" t="s">
@@ -43067,20 +43066,20 @@
     </row>
     <row r="640" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="37" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B640" s="37" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C640" s="26"/>
       <c r="D640" s="29" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E640" s="29" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F640" s="29" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G640" s="4" t="s">
         <v>4</v>
@@ -43097,20 +43096,20 @@
     </row>
     <row r="641" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="37" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B641" s="37" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C641" s="26"/>
       <c r="D641" s="29" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="E641" s="29" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="F641" s="29" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="G641" s="4" t="s">
         <v>4</v>
@@ -43127,20 +43126,20 @@
     </row>
     <row r="642" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="37" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B642" s="37" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C642" s="26"/>
       <c r="D642" s="29" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="E642" s="29" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F642" s="29" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="G642" s="4" t="s">
         <v>4</v>
@@ -43157,20 +43156,20 @@
     </row>
     <row r="643" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="37" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B643" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C643" s="26"/>
       <c r="D643" s="29" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="E643" s="29" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="F643" s="29" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="G643" s="4" t="s">
         <v>4</v>
@@ -43187,20 +43186,20 @@
     </row>
     <row r="644" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="37" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B644" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C644" s="26"/>
       <c r="D644" s="29" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="E644" s="29" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="F644" s="29" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="G644" s="4" t="s">
         <v>4</v>
@@ -43217,20 +43216,20 @@
     </row>
     <row r="645" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="37" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B645" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C645" s="26"/>
       <c r="D645" s="29" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="E645" s="29" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="F645" s="29" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="G645" s="4" t="s">
         <v>4</v>
@@ -43247,20 +43246,20 @@
     </row>
     <row r="646" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="37" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B646" s="37" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="C646" s="26"/>
       <c r="D646" s="29" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="E646" s="29" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="F646" s="29" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="G646" s="4" t="s">
         <v>4</v>
@@ -43277,20 +43276,20 @@
     </row>
     <row r="647" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="37" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B647" s="37" t="s">
         <v>663</v>
       </c>
       <c r="C647" s="26"/>
       <c r="D647" s="29" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="E647" s="29" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="F647" s="29" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="G647" s="4" t="s">
         <v>4</v>
@@ -43307,20 +43306,20 @@
     </row>
     <row r="648" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="37" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B648" s="37" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="C648" s="26"/>
       <c r="D648" s="29" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="E648" s="29" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="F648" s="29" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="G648" s="4" t="s">
         <v>4</v>
@@ -43353,7 +43352,7 @@
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A650" s="49" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B650" s="49"/>
       <c r="C650" s="50" t="s">
@@ -43373,20 +43372,20 @@
     </row>
     <row r="651" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="37" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B651" s="39" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="C651" s="26"/>
       <c r="D651" s="15" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="E651" s="27" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="F651" s="29" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="G651" s="4" t="s">
         <v>4</v>
@@ -43405,20 +43404,20 @@
     </row>
     <row r="652" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="37" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B652" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C652" s="26"/>
       <c r="D652" s="29" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="E652" s="29" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="F652" s="29" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="G652" s="4" t="s">
         <v>4</v>
@@ -43435,20 +43434,20 @@
     </row>
     <row r="653" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="37" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="B653" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C653" s="26"/>
       <c r="D653" s="29" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="E653" s="29" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="F653" s="29" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="G653" s="4" t="s">
         <v>4</v>
@@ -43465,20 +43464,20 @@
     </row>
     <row r="654" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="37" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B654" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C654" s="26"/>
       <c r="D654" s="29" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="E654" s="29" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="F654" s="29" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="G654" s="4" t="s">
         <v>4</v>
@@ -43495,20 +43494,20 @@
     </row>
     <row r="655" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="37" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="B655" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C655" s="26"/>
       <c r="D655" s="29" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="E655" s="29" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="F655" s="29" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="G655" s="4" t="s">
         <v>4</v>
@@ -43541,7 +43540,7 @@
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A657" s="49" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="B657" s="49"/>
       <c r="C657" s="50" t="s">
@@ -43561,20 +43560,20 @@
     </row>
     <row r="658" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="37" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="B658" s="39" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="C658" s="26"/>
       <c r="D658" s="15" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E658" s="27" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="F658" s="29" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="G658" s="4" t="s">
         <v>4</v>
@@ -43593,17 +43592,17 @@
     </row>
     <row r="659" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="37" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="B659" s="37" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C659" s="26"/>
       <c r="D659" s="29" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="E659" s="29" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F659" s="29"/>
       <c r="G659" s="4"/>
@@ -43614,25 +43613,25 @@
       <c r="L659" s="2"/>
       <c r="M659" s="42"/>
       <c r="N659" s="66" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="660" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="37" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="B660" s="37" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C660" s="26"/>
       <c r="D660" s="29" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="E660" s="29" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F660" s="29" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G660" s="4" t="s">
         <v>4</v>
@@ -43649,20 +43648,20 @@
     </row>
     <row r="661" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="37" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="B661" s="37" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C661" s="26"/>
       <c r="D661" s="29" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="E661" s="29" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F661" s="29" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G661" s="4" t="s">
         <v>4</v>
@@ -43679,20 +43678,20 @@
     </row>
     <row r="662" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="37" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="B662" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C662" s="26"/>
       <c r="D662" s="29" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="E662" s="29" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="F662" s="29" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="G662" s="4" t="s">
         <v>4</v>
@@ -43709,20 +43708,20 @@
     </row>
     <row r="663" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="37" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B663" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C663" s="26"/>
       <c r="D663" s="29" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="E663" s="29" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="F663" s="29" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="G663" s="4" t="s">
         <v>4</v>
@@ -43739,17 +43738,17 @@
     </row>
     <row r="664" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="37" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B664" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C664" s="26"/>
       <c r="D664" s="29" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="E664" s="29" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="F664" s="29"/>
       <c r="G664" s="4" t="s">
@@ -43783,7 +43782,7 @@
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A666" s="36" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="B666" s="35"/>
       <c r="C666" s="18"/>
@@ -43801,7 +43800,7 @@
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A667" s="49" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="B667" s="49"/>
       <c r="C667" s="50" t="s">
@@ -43821,20 +43820,20 @@
     </row>
     <row r="668" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="37" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B668" s="39" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="C668" s="26"/>
       <c r="D668" s="15" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="E668" s="27" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="F668" s="29" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="G668" s="4" t="s">
         <v>4</v>
@@ -43853,20 +43852,20 @@
     </row>
     <row r="669" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="37" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="B669" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C669" s="26"/>
       <c r="D669" s="29" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="E669" s="29" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="F669" s="29" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="G669" s="4" t="s">
         <v>4</v>
@@ -43883,14 +43882,14 @@
     </row>
     <row r="670" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="37" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="B670" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C670" s="26"/>
       <c r="D670" s="15" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="E670" s="15" t="s">
         <v>170</v>
@@ -43911,20 +43910,20 @@
     </row>
     <row r="671" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="37" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="B671" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C671" s="26"/>
       <c r="D671" s="29" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="E671" s="29" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="F671" s="29" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="G671" s="4" t="s">
         <v>4</v>
@@ -43938,25 +43937,25 @@
       <c r="L671" s="2"/>
       <c r="M671" s="42"/>
       <c r="N671" s="42" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="672" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="37" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="B672" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C672" s="26"/>
       <c r="D672" s="29" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="E672" s="29" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="F672" s="29" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="G672" s="4" t="s">
         <v>4</v>
@@ -43973,20 +43972,20 @@
     </row>
     <row r="673" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="37" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="B673" s="37" t="s">
         <v>668</v>
       </c>
       <c r="C673" s="26"/>
       <c r="D673" s="29" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="E673" s="29" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="F673" s="29" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="G673" s="4" t="s">
         <v>4</v>
@@ -44003,20 +44002,20 @@
     </row>
     <row r="674" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="37" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B674" s="37" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="C674" s="26"/>
       <c r="D674" s="29" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="E674" s="29" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="F674" s="29" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="G674" s="4" t="s">
         <v>4</v>
@@ -44033,20 +44032,20 @@
     </row>
     <row r="675" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="37" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="B675" s="37" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="C675" s="26"/>
       <c r="D675" s="29" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="E675" s="29" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="F675" s="29" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="G675" s="4" t="s">
         <v>4</v>
@@ -44063,20 +44062,20 @@
     </row>
     <row r="676" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="37" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="B676" s="37" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="C676" s="26"/>
       <c r="D676" s="29" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="E676" s="29" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="F676" s="29" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G676" s="4" t="s">
         <v>4</v>
@@ -44093,20 +44092,20 @@
     </row>
     <row r="677" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="37" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="B677" s="37" t="s">
         <v>476</v>
       </c>
       <c r="C677" s="26"/>
       <c r="D677" s="29" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="E677" s="29" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="F677" s="29" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="G677" s="4" t="s">
         <v>4</v>
@@ -44123,20 +44122,20 @@
     </row>
     <row r="678" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="37" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="B678" s="37" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="C678" s="26"/>
       <c r="D678" s="29" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="E678" s="29" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="F678" s="29" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="G678" s="4" t="s">
         <v>4</v>
@@ -44153,20 +44152,20 @@
     </row>
     <row r="679" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="37" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="B679" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C679" s="26"/>
       <c r="D679" s="29" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="E679" s="29" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="F679" s="29" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G679" s="4" t="s">
         <v>4</v>
@@ -44199,7 +44198,7 @@
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A681" s="49" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="B681" s="49"/>
       <c r="C681" s="50" t="s">
@@ -44219,20 +44218,20 @@
     </row>
     <row r="682" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="37" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="B682" s="39" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="C682" s="26"/>
       <c r="D682" s="15" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="E682" s="27" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="F682" s="29" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G682" s="4" t="s">
         <v>4</v>
@@ -44251,20 +44250,20 @@
     </row>
     <row r="683" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="37" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B683" s="37" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="C683" s="26"/>
       <c r="D683" s="29" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="E683" s="29" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="F683" s="29" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="G683" s="4" t="s">
         <v>4</v>
@@ -44283,20 +44282,20 @@
     </row>
     <row r="684" spans="1:14" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="37" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="B684" s="37" t="s">
         <v>438</v>
       </c>
       <c r="C684" s="26"/>
       <c r="D684" s="29" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="E684" s="29" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="F684" s="55" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="G684" s="4" t="s">
         <v>4</v>
@@ -44313,20 +44312,20 @@
     </row>
     <row r="685" spans="1:14" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="37" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="B685" s="37" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="C685" s="26"/>
       <c r="D685" s="29" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="E685" s="29" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="F685" s="29" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="G685" s="4" t="s">
         <v>4</v>
@@ -44343,20 +44342,20 @@
     </row>
     <row r="686" spans="1:14" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="37" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B686" s="37" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="C686" s="26"/>
       <c r="D686" s="29" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="E686" s="29" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="F686" s="29" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="G686" s="4" t="s">
         <v>4</v>
@@ -44369,26 +44368,26 @@
       </c>
       <c r="L686" s="2"/>
       <c r="M686" s="42" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="N686" s="42"/>
     </row>
     <row r="687" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="37" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="B687" s="37" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="C687" s="26"/>
       <c r="D687" s="29" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="E687" s="29" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="F687" s="29" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="G687" s="4" t="s">
         <v>4</v>
@@ -44405,20 +44404,20 @@
     </row>
     <row r="688" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="37" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="B688" s="37" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="C688" s="26"/>
       <c r="D688" s="29" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="E688" s="29" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="F688" s="29" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G688" s="4" t="s">
         <v>4</v>
@@ -44451,7 +44450,7 @@
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A690" s="36" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B690" s="35"/>
       <c r="C690" s="18"/>
@@ -44469,7 +44468,7 @@
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A691" s="49" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="B691" s="49"/>
       <c r="C691" s="50" t="s">
@@ -44489,20 +44488,20 @@
     </row>
     <row r="692" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="37" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="B692" s="39" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="C692" s="26"/>
       <c r="D692" s="15" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="E692" s="27" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="F692" s="29" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="G692" s="4" t="s">
         <v>4</v>
@@ -44519,20 +44518,20 @@
     </row>
     <row r="693" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="37" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B693" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C693" s="26"/>
       <c r="D693" s="29" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="E693" s="29" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="F693" s="29" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="G693" s="4" t="s">
         <v>4</v>
@@ -44565,7 +44564,7 @@
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A695" s="49" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="B695" s="49"/>
       <c r="C695" s="50" t="s">
@@ -44585,20 +44584,20 @@
     </row>
     <row r="696" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="37" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="B696" s="39" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C696" s="26"/>
       <c r="D696" s="15" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E696" s="27" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="F696" s="29" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="G696" s="4" t="s">
         <v>4</v>
@@ -44615,20 +44614,20 @@
     </row>
     <row r="697" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="37" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="B697" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C697" s="26"/>
       <c r="D697" s="29" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="E697" s="29" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="F697" s="29" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="G697" s="4" t="s">
         <v>4</v>
@@ -44661,7 +44660,7 @@
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A699" s="49" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="B699" s="49"/>
       <c r="C699" s="50" t="s">
@@ -44681,20 +44680,20 @@
     </row>
     <row r="700" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="37" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="B700" s="39" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="C700" s="26"/>
       <c r="D700" s="15" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="E700" s="27" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="F700" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="G700" s="4" t="s">
         <v>4</v>
@@ -44711,20 +44710,20 @@
     </row>
     <row r="701" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="37" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="B701" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C701" s="26"/>
       <c r="D701" s="29" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="E701" s="29" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="F701" s="29" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="G701" s="4" t="s">
         <v>4</v>
@@ -44757,7 +44756,7 @@
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A703" s="49" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="B703" s="49"/>
       <c r="C703" s="50" t="s">
@@ -44777,20 +44776,20 @@
     </row>
     <row r="704" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="37" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="B704" s="39" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="C704" s="26"/>
       <c r="D704" s="15" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="E704" s="27" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="F704" s="29" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="G704" s="4" t="s">
         <v>4</v>
@@ -44807,20 +44806,20 @@
     </row>
     <row r="705" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="37" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="B705" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C705" s="26"/>
       <c r="D705" s="29" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="E705" s="29" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="F705" s="29" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="G705" s="4" t="s">
         <v>4</v>
@@ -44853,7 +44852,7 @@
     </row>
     <row r="707" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A707" s="49" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="B707" s="49"/>
       <c r="C707" s="50" t="s">
@@ -44873,20 +44872,20 @@
     </row>
     <row r="708" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="37" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="B708" s="39" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="C708" s="26"/>
       <c r="D708" s="15" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="E708" s="27" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="F708" s="29" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="G708" s="4" t="s">
         <v>4</v>
@@ -44903,20 +44902,20 @@
     </row>
     <row r="709" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="37" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="B709" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C709" s="26"/>
       <c r="D709" s="29" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="E709" s="29" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="F709" s="29" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="G709" s="4" t="s">
         <v>4</v>
@@ -44930,7 +44929,7 @@
       <c r="L709" s="2"/>
       <c r="M709" s="42"/>
       <c r="N709" s="42" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.3">
@@ -44951,7 +44950,7 @@
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A711" s="49" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="B711" s="49"/>
       <c r="C711" s="50" t="s">
@@ -44971,20 +44970,20 @@
     </row>
     <row r="712" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="37" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="B712" s="39" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="C712" s="26"/>
       <c r="D712" s="15" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="E712" s="27" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="F712" s="29" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="G712" s="4" t="s">
         <v>4</v>
@@ -45001,20 +45000,20 @@
     </row>
     <row r="713" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="37" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="B713" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C713" s="26"/>
       <c r="D713" s="29" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="E713" s="29" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="F713" s="29" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="G713" s="4" t="s">
         <v>4</v>
@@ -45047,7 +45046,7 @@
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A715" s="49" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="B715" s="49"/>
       <c r="C715" s="50" t="s">
@@ -45067,20 +45066,20 @@
     </row>
     <row r="716" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="37" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B716" s="39" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C716" s="26"/>
       <c r="D716" s="15" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="E716" s="27" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="F716" s="29" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="G716" s="4" t="s">
         <v>4</v>
@@ -45097,20 +45096,20 @@
     </row>
     <row r="717" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="37" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="B717" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C717" s="26"/>
       <c r="D717" s="29" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="E717" s="29" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="F717" s="29" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="G717" s="4" t="s">
         <v>4</v>
@@ -45143,7 +45142,7 @@
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A719" s="49" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="B719" s="49"/>
       <c r="C719" s="50" t="s">
@@ -45163,17 +45162,17 @@
     </row>
     <row r="720" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="37" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B720" s="39" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="C720" s="26"/>
       <c r="D720" s="15" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="E720" s="27" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="F720" s="29"/>
       <c r="G720" s="4"/>
@@ -45205,7 +45204,7 @@
     </row>
     <row r="722" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A722" s="49" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="B722" s="49"/>
       <c r="C722" s="50" t="s">
@@ -45225,20 +45224,20 @@
     </row>
     <row r="723" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="37" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="B723" s="39" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="C723" s="26"/>
       <c r="D723" s="15" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="E723" s="27" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="F723" s="29" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="G723" s="4" t="s">
         <v>4</v>
@@ -45255,20 +45254,20 @@
     </row>
     <row r="724" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="37" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="B724" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C724" s="26"/>
       <c r="D724" s="29" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="E724" s="29" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="F724" s="29" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="G724" s="4" t="s">
         <v>4</v>
@@ -45301,7 +45300,7 @@
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A726" s="49" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="B726" s="49"/>
       <c r="C726" s="50" t="s">
@@ -45321,20 +45320,20 @@
     </row>
     <row r="727" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="37" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="B727" s="39" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="C727" s="26"/>
       <c r="D727" s="15" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="E727" s="27" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="F727" s="29" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="G727" s="4" t="s">
         <v>4</v>
@@ -45351,20 +45350,20 @@
     </row>
     <row r="728" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="37" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="B728" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C728" s="26"/>
       <c r="D728" s="29" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="E728" s="29" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="F728" s="29" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="G728" s="4" t="s">
         <v>4</v>
@@ -45397,7 +45396,7 @@
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A730" s="49" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="B730" s="49"/>
       <c r="C730" s="50" t="s">
@@ -45417,20 +45416,20 @@
     </row>
     <row r="731" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="37" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="B731" s="39" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="C731" s="26"/>
       <c r="D731" s="15" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="E731" s="27" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="F731" s="29" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="G731" s="4" t="s">
         <v>4</v>
@@ -45447,17 +45446,17 @@
     </row>
     <row r="732" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="37" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="B732" s="37" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C732" s="26"/>
       <c r="D732" s="29" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="E732" s="29" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="F732" s="29"/>
       <c r="G732" s="4"/>
@@ -45487,7 +45486,7 @@
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A734" s="36" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B734" s="35"/>
       <c r="C734" s="18"/>
@@ -45505,7 +45504,7 @@
     </row>
     <row r="735" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A735" s="49" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="B735" s="49"/>
       <c r="C735" s="50" t="s">
@@ -45525,20 +45524,20 @@
     </row>
     <row r="736" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="37" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="B736" s="39" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="C736" s="26"/>
       <c r="D736" s="15" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="E736" s="27" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="F736" s="29" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="G736" s="4" t="s">
         <v>4</v>
@@ -45557,20 +45556,20 @@
     </row>
     <row r="737" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="37" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="B737" s="37" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="C737" s="26"/>
       <c r="D737" s="15" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="E737" s="29" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="F737" s="29" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="G737" s="4" t="s">
         <v>4</v>
@@ -45587,20 +45586,20 @@
     </row>
     <row r="738" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="37" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="B738" s="37" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="C738" s="26"/>
       <c r="D738" s="15" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="E738" s="29" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="F738" s="29" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="G738" s="4" t="s">
         <v>4</v>
@@ -45617,20 +45616,20 @@
     </row>
     <row r="739" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="37" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="B739" s="37" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="C739" s="26"/>
       <c r="D739" s="15" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="E739" s="29" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="F739" s="29" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="G739" s="4" t="s">
         <v>4</v>
@@ -45647,20 +45646,20 @@
     </row>
     <row r="740" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="37" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="B740" s="37" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="C740" s="26"/>
       <c r="D740" s="15" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="E740" s="29" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="F740" s="29" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="G740" s="4" t="s">
         <v>4</v>
@@ -45677,20 +45676,20 @@
     </row>
     <row r="741" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="37" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="B741" s="37" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="C741" s="26"/>
       <c r="D741" s="15" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="E741" s="29" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="F741" s="29" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="G741" s="4" t="s">
         <v>4</v>
@@ -45707,20 +45706,20 @@
     </row>
     <row r="742" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="37" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="B742" s="37" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="C742" s="26"/>
       <c r="D742" s="15" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="E742" s="29" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F742" s="29" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="G742" s="4" t="s">
         <v>4</v>
@@ -45737,20 +45736,20 @@
     </row>
     <row r="743" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="37" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="B743" s="37" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="C743" s="26"/>
       <c r="D743" s="15" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="E743" s="29" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="F743" s="29" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="G743" s="4" t="s">
         <v>4</v>
@@ -45767,20 +45766,20 @@
     </row>
     <row r="744" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="37" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B744" s="37" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="C744" s="26"/>
       <c r="D744" s="15" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="E744" s="29" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="F744" s="29" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="G744" s="4" t="s">
         <v>4</v>
@@ -45797,20 +45796,20 @@
     </row>
     <row r="745" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="37" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="B745" s="37" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="C745" s="26"/>
       <c r="D745" s="15" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="E745" s="29" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="F745" s="29" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="G745" s="4" t="s">
         <v>4</v>
@@ -45827,20 +45826,20 @@
     </row>
     <row r="746" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="37" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="B746" s="37" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="C746" s="26"/>
       <c r="D746" s="15" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="E746" s="29" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="F746" s="29" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="G746" s="4" t="s">
         <v>4</v>
@@ -45857,20 +45856,20 @@
     </row>
     <row r="747" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="37" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="B747" s="37" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="C747" s="26"/>
       <c r="D747" s="15" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="E747" s="29" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="F747" s="29" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="G747" s="4" t="s">
         <v>4</v>
@@ -45887,20 +45886,20 @@
     </row>
     <row r="748" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="37" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="B748" s="37" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="C748" s="26"/>
       <c r="D748" s="15" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="E748" s="29" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="F748" s="29" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="G748" s="4" t="s">
         <v>4</v>
@@ -45917,20 +45916,20 @@
     </row>
     <row r="749" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="37" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="B749" s="37" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="C749" s="26"/>
       <c r="D749" s="15" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E749" s="29" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="F749" s="29" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="G749" s="4" t="s">
         <v>4</v>
@@ -45947,20 +45946,20 @@
     </row>
     <row r="750" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="37" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="B750" s="37" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="C750" s="26"/>
       <c r="D750" s="29" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E750" s="29" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="F750" s="29" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="G750" s="4" t="s">
         <v>4</v>
@@ -45977,20 +45976,20 @@
     </row>
     <row r="751" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="37" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="B751" s="37" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="C751" s="26"/>
       <c r="D751" s="29" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="E751" s="29" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="F751" s="29" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="G751" s="4" t="s">
         <v>4</v>
@@ -46007,20 +46006,20 @@
     </row>
     <row r="752" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="37" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="B752" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C752" s="26"/>
       <c r="D752" s="29" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="E752" s="29" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="F752" s="56" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="G752" s="4" t="s">
         <v>4</v>
@@ -46034,25 +46033,25 @@
       <c r="L752" s="2"/>
       <c r="M752" s="42"/>
       <c r="N752" s="67" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="753" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="37" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="B753" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C753" s="26"/>
       <c r="D753" s="29" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="E753" s="29" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="F753" s="29" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="G753" s="4" t="s">
         <v>4</v>
@@ -46069,20 +46068,20 @@
     </row>
     <row r="754" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="37" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="B754" s="37" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="C754" s="26"/>
       <c r="D754" s="29" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="E754" s="29" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="F754" s="29" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="G754" s="4" t="s">
         <v>4</v>
@@ -46099,20 +46098,20 @@
     </row>
     <row r="755" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="37" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="B755" s="37" t="s">
         <v>608</v>
       </c>
       <c r="C755" s="26"/>
       <c r="D755" s="29" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="E755" s="29" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="F755" s="29" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="G755" s="4" t="s">
         <v>4</v>
@@ -46129,20 +46128,20 @@
     </row>
     <row r="756" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="37" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="B756" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C756" s="26"/>
       <c r="D756" s="29" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="E756" s="29" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="F756" s="29" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="G756" s="4" t="s">
         <v>4</v>
@@ -46174,7 +46173,7 @@
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A758" s="49" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="B758" s="49"/>
       <c r="C758" s="50" t="s">
@@ -46194,20 +46193,20 @@
     </row>
     <row r="759" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="37" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="B759" s="39" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="C759" s="26"/>
       <c r="D759" s="15" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="E759" s="27" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="F759" s="29" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="G759" s="4" t="s">
         <v>4</v>
@@ -46224,20 +46223,20 @@
     </row>
     <row r="760" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="37" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="B760" s="37" t="s">
         <v>438</v>
       </c>
       <c r="C760" s="26"/>
       <c r="D760" s="15" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="E760" s="29" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="F760" s="76" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="G760" s="4" t="s">
         <v>4</v>
@@ -46254,20 +46253,20 @@
     </row>
     <row r="761" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="37" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="B761" s="37" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="C761" s="26"/>
       <c r="D761" s="15" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="E761" s="29" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="F761" s="29" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="G761" s="4" t="s">
         <v>4</v>
@@ -46284,20 +46283,20 @@
     </row>
     <row r="762" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="37" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="B762" s="37" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="C762" s="26"/>
       <c r="D762" s="15" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="E762" s="29" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="F762" s="29" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="G762" s="4" t="s">
         <v>4</v>
@@ -46314,20 +46313,20 @@
     </row>
     <row r="763" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="37" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="B763" s="37" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C763" s="26"/>
       <c r="D763" s="15" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="E763" s="29" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="F763" s="29" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="G763" s="4" t="s">
         <v>4</v>
@@ -46344,20 +46343,20 @@
     </row>
     <row r="764" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="37" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="B764" s="37" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="C764" s="26"/>
       <c r="D764" s="15" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="E764" s="29" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="F764" s="29" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="G764" s="4" t="s">
         <v>4</v>
@@ -46370,26 +46369,26 @@
       </c>
       <c r="L764" s="2"/>
       <c r="M764" s="42" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="N764" s="42"/>
     </row>
     <row r="765" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="37" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="B765" s="37" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="C765" s="26"/>
       <c r="D765" s="15" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="E765" s="29" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F765" s="29" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="G765" s="4" t="s">
         <v>4</v>
@@ -46406,20 +46405,20 @@
     </row>
     <row r="766" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="37" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="B766" s="37" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="C766" s="26"/>
       <c r="D766" s="15" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="E766" s="29" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="F766" s="29" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="G766" s="4" t="s">
         <v>4</v>
@@ -46432,26 +46431,26 @@
       </c>
       <c r="L766" s="2"/>
       <c r="M766" s="42" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="N766" s="42"/>
     </row>
     <row r="767" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="37" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="B767" s="37" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="C767" s="26"/>
       <c r="D767" s="15" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="E767" s="29" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="F767" s="29" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="G767" s="4" t="s">
         <v>4</v>
@@ -46464,26 +46463,26 @@
       </c>
       <c r="L767" s="2"/>
       <c r="M767" s="42" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="N767" s="42"/>
     </row>
     <row r="768" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="37" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="B768" s="37" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="C768" s="26"/>
       <c r="D768" s="15" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="E768" s="29" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="F768" s="29" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="G768" s="4" t="s">
         <v>4</v>
@@ -46496,26 +46495,26 @@
       </c>
       <c r="L768" s="2"/>
       <c r="M768" s="42" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="N768" s="42"/>
     </row>
     <row r="769" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="37" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="B769" s="37" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="C769" s="26"/>
       <c r="D769" s="15" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="E769" s="29" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="F769" s="29" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="G769" s="4" t="s">
         <v>4</v>
@@ -46532,20 +46531,20 @@
     </row>
     <row r="770" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="37" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="B770" s="37" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="C770" s="26"/>
       <c r="D770" s="15" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="E770" s="29" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="F770" s="29" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="G770" s="4" t="s">
         <v>4</v>
@@ -46558,23 +46557,23 @@
       </c>
       <c r="L770" s="2"/>
       <c r="M770" s="42" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="N770" s="42"/>
     </row>
     <row r="771" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="37" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="B771" s="37" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="C771" s="26"/>
       <c r="D771" s="15" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="E771" s="29" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="F771" s="29"/>
       <c r="G771" s="4"/>
@@ -46587,25 +46586,25 @@
       <c r="L771" s="2"/>
       <c r="M771" s="42"/>
       <c r="N771" s="45" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="772" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="37" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="B772" s="37" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="C772" s="26"/>
       <c r="D772" s="15" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="E772" s="29" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="F772" s="29" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="G772" s="4" t="s">
         <v>4</v>
@@ -46618,23 +46617,23 @@
       </c>
       <c r="L772" s="2"/>
       <c r="M772" s="42" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="N772" s="42"/>
     </row>
     <row r="773" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="37" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="B773" s="37" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="C773" s="26"/>
       <c r="D773" s="15" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="E773" s="29" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F773" s="29"/>
       <c r="G773" s="4"/>
@@ -46650,17 +46649,17 @@
     </row>
     <row r="774" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="37" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="B774" s="37" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="C774" s="26"/>
       <c r="D774" s="15" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="E774" s="29" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="F774" s="29"/>
       <c r="G774" s="4"/>
@@ -46676,17 +46675,17 @@
     </row>
     <row r="775" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="37" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="B775" s="37" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="C775" s="26"/>
       <c r="D775" s="29" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="E775" s="29" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="F775" s="29"/>
       <c r="G775" s="4"/>
@@ -46702,17 +46701,17 @@
     </row>
     <row r="776" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="37" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="B776" s="37" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="C776" s="26"/>
       <c r="D776" s="15" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="E776" s="29" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="F776" s="29"/>
       <c r="G776" s="4"/>
@@ -46728,20 +46727,20 @@
     </row>
     <row r="777" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="37" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="B777" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C777" s="26"/>
       <c r="D777" s="29" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="E777" s="29" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="F777" s="29" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="G777" s="4" t="s">
         <v>4</v>
@@ -46755,25 +46754,25 @@
       <c r="L777" s="2"/>
       <c r="M777" s="42"/>
       <c r="N777" s="42" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="778" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="37" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="B778" s="37" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="C778" s="26"/>
       <c r="D778" s="29" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="E778" s="29" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="F778" s="29" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="G778" s="4" t="s">
         <v>4</v>
@@ -46790,20 +46789,20 @@
     </row>
     <row r="779" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="37" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="B779" s="37" t="s">
         <v>608</v>
       </c>
       <c r="C779" s="26"/>
       <c r="D779" s="29" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="E779" s="29" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="F779" s="29" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="G779" s="4" t="s">
         <v>4</v>
@@ -46820,20 +46819,20 @@
     </row>
     <row r="780" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="37" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="B780" s="37" t="s">
         <v>975</v>
       </c>
       <c r="C780" s="26"/>
       <c r="D780" s="29" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="E780" s="29" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="F780" s="29" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="G780" s="4" t="s">
         <v>4</v>
@@ -46850,17 +46849,17 @@
     </row>
     <row r="781" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="37" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="B781" s="37" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="C781" s="26"/>
       <c r="D781" s="29" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="E781" s="29" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="F781" s="29"/>
       <c r="G781" s="4"/>
@@ -46876,17 +46875,17 @@
     </row>
     <row r="782" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="37" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="B782" s="37" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="C782" s="26"/>
       <c r="D782" s="29" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="E782" s="29" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="F782" s="29"/>
       <c r="G782" s="4"/>
@@ -46902,20 +46901,20 @@
     </row>
     <row r="783" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="37" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="B783" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C783" s="26"/>
       <c r="D783" s="29" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="E783" s="29" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="F783" s="29" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="G783" s="4" t="s">
         <v>4</v>
@@ -46948,7 +46947,7 @@
     </row>
     <row r="785" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A785" s="36" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="B785" s="35"/>
       <c r="C785" s="18"/>
@@ -46966,7 +46965,7 @@
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A786" s="49" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="B786" s="49"/>
       <c r="C786" s="50" t="s">
@@ -46986,20 +46985,20 @@
     </row>
     <row r="787" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="37" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="B787" s="39" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="C787" s="26"/>
       <c r="D787" s="15" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="E787" s="27" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="F787" s="29" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="G787" s="4" t="s">
         <v>4</v>
@@ -47018,20 +47017,20 @@
     </row>
     <row r="788" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="37" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="B788" s="37" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="C788" s="26"/>
       <c r="D788" s="15" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="E788" s="29" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="F788" s="29" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="G788" s="4" t="s">
         <v>4</v>
@@ -47048,14 +47047,14 @@
     </row>
     <row r="789" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="37" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B789" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C789" s="26"/>
       <c r="D789" s="15" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="E789" s="15" t="s">
         <v>170</v>
@@ -47076,20 +47075,20 @@
     </row>
     <row r="790" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="37" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="B790" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C790" s="26"/>
       <c r="D790" s="29" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="E790" s="29" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="F790" s="29" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="G790" s="4" t="s">
         <v>4</v>
@@ -47108,20 +47107,20 @@
     </row>
     <row r="791" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="37" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="B791" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C791" s="26"/>
       <c r="D791" s="29" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="E791" s="29" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="F791" s="29" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="G791" s="4" t="s">
         <v>4</v>
@@ -47138,20 +47137,20 @@
     </row>
     <row r="792" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="37" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B792" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C792" s="26"/>
       <c r="D792" s="29" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E792" s="29" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="F792" s="29" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="G792" s="4" t="s">
         <v>4</v>
@@ -47186,7 +47185,7 @@
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A794" s="49" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="B794" s="49"/>
       <c r="C794" s="50" t="s">
@@ -47206,20 +47205,20 @@
     </row>
     <row r="795" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="37" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="B795" s="39" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="C795" s="26"/>
       <c r="D795" s="15" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="E795" s="27" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="F795" s="29" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="G795" s="4" t="s">
         <v>4</v>
@@ -47238,20 +47237,20 @@
     </row>
     <row r="796" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="37" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="B796" s="37" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="C796" s="26"/>
       <c r="D796" s="15" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="E796" s="29" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="F796" s="29" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="G796" s="4" t="s">
         <v>4</v>
@@ -47268,20 +47267,20 @@
     </row>
     <row r="797" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="37" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="B797" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C797" s="26"/>
       <c r="D797" s="29" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="E797" s="29" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="F797" s="29" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="G797" s="4" t="s">
         <v>4</v>
@@ -47300,20 +47299,20 @@
     </row>
     <row r="798" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="37" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="B798" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C798" s="26"/>
       <c r="D798" s="29" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="E798" s="29" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="F798" s="29" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="G798" s="4" t="s">
         <v>4</v>
@@ -47330,20 +47329,20 @@
     </row>
     <row r="799" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="37" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="B799" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C799" s="26"/>
       <c r="D799" s="29" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="E799" s="29" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="F799" s="29" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="G799" s="4" t="s">
         <v>4</v>
@@ -47377,7 +47376,7 @@
     </row>
     <row r="801" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A801" s="49" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="B801" s="49"/>
       <c r="C801" s="50" t="s">
@@ -47397,20 +47396,20 @@
     </row>
     <row r="802" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="37" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="B802" s="39" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="C802" s="26"/>
       <c r="D802" s="15" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="E802" s="27" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="F802" s="29" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="G802" s="4" t="s">
         <v>4</v>
@@ -47429,20 +47428,20 @@
     </row>
     <row r="803" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="37" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="B803" s="37" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="C803" s="26"/>
       <c r="D803" s="15" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="E803" s="29" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="F803" s="29" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="G803" s="4" t="s">
         <v>4</v>
@@ -47459,20 +47458,20 @@
     </row>
     <row r="804" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="37" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="B804" s="37" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="C804" s="26"/>
       <c r="D804" s="15" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="E804" s="29" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="F804" s="29" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="G804" s="4" t="s">
         <v>4</v>
@@ -47489,20 +47488,20 @@
     </row>
     <row r="805" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="37" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="B805" s="37" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="C805" s="26"/>
       <c r="D805" s="15" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="E805" s="29" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="F805" s="29" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="G805" s="4" t="s">
         <v>4</v>
@@ -47519,20 +47518,20 @@
     </row>
     <row r="806" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="37" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="B806" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C806" s="26"/>
       <c r="D806" s="15" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="E806" s="15" t="s">
         <v>170</v>
       </c>
       <c r="F806" s="29" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="G806" s="4" t="s">
         <v>4</v>
@@ -47549,20 +47548,20 @@
     </row>
     <row r="807" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="37" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="B807" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C807" s="26"/>
       <c r="D807" s="15" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="E807" s="29" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="F807" s="29" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="G807" s="4" t="s">
         <v>4</v>
@@ -47581,20 +47580,20 @@
     </row>
     <row r="808" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="37" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="B808" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C808" s="26"/>
       <c r="D808" s="29" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="E808" s="29" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="F808" s="29" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="G808" s="4" t="s">
         <v>4</v>
@@ -47611,20 +47610,20 @@
     </row>
     <row r="809" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="37" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="B809" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C809" s="26"/>
       <c r="D809" s="29" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="E809" s="29" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="F809" s="29" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="G809" s="4" t="s">
         <v>4</v>
@@ -47658,7 +47657,7 @@
     </row>
     <row r="811" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A811" s="49" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="B811" s="49"/>
       <c r="C811" s="50" t="s">
@@ -47678,20 +47677,20 @@
     </row>
     <row r="812" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="37" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="B812" s="39" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="C812" s="26"/>
       <c r="D812" s="15" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E812" s="27" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="F812" s="29" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="G812" s="4" t="s">
         <v>4</v>
@@ -47710,20 +47709,20 @@
     </row>
     <row r="813" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="37" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="B813" s="37" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="C813" s="26"/>
       <c r="D813" s="15" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="E813" s="29" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="F813" s="29" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="G813" s="4" t="s">
         <v>4</v>
@@ -47742,20 +47741,20 @@
     </row>
     <row r="814" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="37" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="B814" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C814" s="26"/>
       <c r="D814" s="29" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="E814" s="29" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="F814" s="29" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="G814" s="4" t="s">
         <v>4</v>
@@ -47774,20 +47773,20 @@
     </row>
     <row r="815" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="37" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="B815" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C815" s="26"/>
       <c r="D815" s="29" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="E815" s="29" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="F815" s="29" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="G815" s="4" t="s">
         <v>4</v>
@@ -47804,20 +47803,20 @@
     </row>
     <row r="816" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="37" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="B816" s="37" t="s">
         <v>557</v>
       </c>
       <c r="C816" s="26"/>
       <c r="D816" s="29" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="E816" s="29" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="F816" s="29" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="G816" s="4" t="s">
         <v>4</v>
@@ -47852,7 +47851,7 @@
     </row>
     <row r="818" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="34" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="B818" s="38"/>
       <c r="C818" s="17"/>
@@ -47870,7 +47869,7 @@
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A819" s="49" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="B819" s="49"/>
       <c r="C819" s="50" t="s">
@@ -47890,20 +47889,20 @@
     </row>
     <row r="820" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="37" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="B820" s="39" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="C820" s="26"/>
       <c r="D820" s="15" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="E820" s="27" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="F820" s="29" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="G820" s="4" t="s">
         <v>4</v>
@@ -47920,20 +47919,20 @@
     </row>
     <row r="821" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="37" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="B821" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C821" s="26"/>
       <c r="D821" s="29" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="E821" s="29" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F821" s="29" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="G821" s="4" t="s">
         <v>4</v>
@@ -47950,20 +47949,20 @@
     </row>
     <row r="822" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="37" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="B822" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C822" s="26"/>
       <c r="D822" s="15" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E822" s="15" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="F822" s="29" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="G822" s="4" t="s">
         <v>4</v>
@@ -47995,7 +47994,7 @@
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A824" s="49" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="B824" s="49"/>
       <c r="C824" s="50" t="s">
@@ -48015,20 +48014,20 @@
     </row>
     <row r="825" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="37" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="B825" s="39" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="C825" s="26"/>
       <c r="D825" s="15" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="E825" s="27" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="F825" s="29" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="G825" s="4" t="s">
         <v>4</v>
@@ -48045,20 +48044,20 @@
     </row>
     <row r="826" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="37" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="B826" s="37" t="s">
         <v>1068</v>
       </c>
       <c r="C826" s="26"/>
       <c r="D826" s="29" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="E826" s="29" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F826" s="29" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="G826" s="4" t="s">
         <v>4</v>
@@ -48075,14 +48074,14 @@
     </row>
     <row r="827" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="37" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="B827" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C827" s="26"/>
       <c r="D827" s="15" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="E827" s="15" t="s">
         <v>170</v>
@@ -48119,7 +48118,7 @@
     </row>
     <row r="829" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="34" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="B829" s="38"/>
       <c r="C829" s="17"/>
@@ -48137,7 +48136,7 @@
     </row>
     <row r="830" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="36" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="B830" s="35"/>
       <c r="C830" s="18" t="s">
@@ -48157,20 +48156,20 @@
     </row>
     <row r="831" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="37" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="B831" s="39" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="C831" s="26"/>
       <c r="D831" s="15" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="E831" s="27" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="F831" s="29" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="G831" s="4" t="s">
         <v>4</v>
@@ -48189,20 +48188,20 @@
     </row>
     <row r="832" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="37" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="B832" s="37" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="C832" s="26"/>
       <c r="D832" s="29" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="E832" s="29" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="F832" s="29" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="G832" s="4" t="s">
         <v>4</v>
@@ -48219,20 +48218,20 @@
     </row>
     <row r="833" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="37" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="B833" s="37" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="C833" s="26"/>
       <c r="D833" s="29" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="E833" s="29" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="F833" s="29" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="G833" s="4" t="s">
         <v>4</v>
@@ -48249,20 +48248,20 @@
     </row>
     <row r="834" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="37" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="B834" s="37" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="C834" s="26"/>
       <c r="D834" s="29" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="E834" s="29" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="F834" s="29" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="G834" s="4" t="s">
         <v>4</v>
@@ -48279,17 +48278,17 @@
     </row>
     <row r="835" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="37" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="B835" s="37" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="C835" s="26"/>
       <c r="D835" s="29" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="E835" s="29" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="F835" s="29" t="s">
         <v>133</v>
@@ -48304,25 +48303,25 @@
       <c r="L835" s="2"/>
       <c r="M835" s="42"/>
       <c r="N835" s="42" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="836" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="37" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="B836" s="37" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="C836" s="26"/>
       <c r="D836" s="29" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="E836" s="29" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="F836" s="29" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="G836" s="4" t="s">
         <v>4</v>
@@ -48339,17 +48338,17 @@
     </row>
     <row r="837" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="37" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="B837" s="37" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="C837" s="26"/>
       <c r="D837" s="29" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="E837" s="29" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="F837" s="29" t="s">
         <v>133</v>
@@ -48367,20 +48366,20 @@
     </row>
     <row r="838" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="37" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="B838" s="37" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="C838" s="26"/>
       <c r="D838" s="29" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="E838" s="29" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="F838" s="29" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="G838" s="4" t="s">
         <v>4</v>
@@ -48397,17 +48396,17 @@
     </row>
     <row r="839" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="37" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="B839" s="37" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="C839" s="26"/>
       <c r="D839" s="29" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="E839" s="29" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="F839" s="29" t="s">
         <v>133</v>
@@ -48421,23 +48420,23 @@
       </c>
       <c r="L839" s="2"/>
       <c r="M839" s="42" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="N839" s="42"/>
     </row>
     <row r="840" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="37" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="B840" s="37" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="C840" s="26"/>
       <c r="D840" s="29" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="E840" s="29" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="F840" s="29" t="s">
         <v>133</v>
@@ -48451,23 +48450,23 @@
       </c>
       <c r="L840" s="2"/>
       <c r="M840" s="42" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="N840" s="42"/>
     </row>
     <row r="841" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="37" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="B841" s="37" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="C841" s="26"/>
       <c r="D841" s="29" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="E841" s="29" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="F841" s="29" t="s">
         <v>133</v>
@@ -48481,23 +48480,23 @@
       </c>
       <c r="L841" s="2"/>
       <c r="M841" s="42" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="N841" s="42"/>
     </row>
     <row r="842" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="37" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="B842" s="37" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="C842" s="26"/>
       <c r="D842" s="29" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="E842" s="29" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="F842" s="29" t="s">
         <v>133</v>
@@ -48511,23 +48510,23 @@
       </c>
       <c r="L842" s="2"/>
       <c r="M842" s="42" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="N842" s="42"/>
     </row>
     <row r="843" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="37" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="B843" s="37" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="C843" s="26"/>
       <c r="D843" s="29" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="E843" s="29" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="F843" s="29" t="s">
         <v>133</v>
@@ -48541,23 +48540,23 @@
       </c>
       <c r="L843" s="2"/>
       <c r="M843" s="42" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="N843" s="42"/>
     </row>
     <row r="844" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="37" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="B844" s="37" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="C844" s="26"/>
       <c r="D844" s="29" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="E844" s="29" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="F844" s="29" t="s">
         <v>133</v>
@@ -48571,26 +48570,26 @@
       </c>
       <c r="L844" s="2"/>
       <c r="M844" s="42" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="N844" s="42"/>
     </row>
     <row r="845" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="37" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="B845" s="37" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="C845" s="26"/>
       <c r="D845" s="29" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="E845" s="29" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="F845" s="29" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="G845" s="4" t="s">
         <v>4</v>
@@ -48607,17 +48606,17 @@
     </row>
     <row r="846" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="37" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="B846" s="37" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="C846" s="26"/>
       <c r="D846" s="29" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="E846" s="29" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="F846" s="29" t="s">
         <v>133</v>
@@ -48631,23 +48630,23 @@
       </c>
       <c r="L846" s="2"/>
       <c r="M846" s="42" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="N846" s="42"/>
     </row>
     <row r="847" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="37" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="B847" s="37" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="C847" s="26"/>
       <c r="D847" s="29" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="E847" s="29" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="F847" s="29" t="s">
         <v>133</v>
@@ -48661,26 +48660,26 @@
       </c>
       <c r="L847" s="2"/>
       <c r="M847" s="42" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="N847" s="42"/>
     </row>
     <row r="848" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="37" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="B848" s="37" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="C848" s="26"/>
       <c r="D848" s="29" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="E848" s="29" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="F848" s="29" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="G848" s="4" t="s">
         <v>4</v>
@@ -48697,20 +48696,20 @@
     </row>
     <row r="849" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="37" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="B849" s="26" t="s">
         <v>1664</v>
       </c>
       <c r="C849" s="26"/>
       <c r="D849" s="29" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="E849" s="29" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="F849" s="29" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="G849" s="4" t="s">
         <v>4</v>
@@ -48727,17 +48726,17 @@
     </row>
     <row r="850" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="37" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="B850" s="37" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="C850" s="26"/>
       <c r="D850" s="29" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="E850" s="29" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="F850" s="29"/>
       <c r="G850" s="4" t="s">
@@ -48755,20 +48754,20 @@
     </row>
     <row r="851" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="37" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="B851" s="37" t="s">
         <v>812</v>
       </c>
       <c r="C851" s="26"/>
       <c r="D851" s="29" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="E851" s="29" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="F851" s="29" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="G851" s="4" t="s">
         <v>4</v>
@@ -48785,20 +48784,20 @@
     </row>
     <row r="852" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="37" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="B852" s="26" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C852" s="26"/>
       <c r="D852" s="29" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="E852" s="29" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="F852" s="29" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="G852" s="4" t="s">
         <v>4</v>
@@ -48812,25 +48811,25 @@
       <c r="L852" s="2"/>
       <c r="M852" s="42"/>
       <c r="N852" s="77" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="853" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="37" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="B853" s="26" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="C853" s="26"/>
       <c r="D853" s="29" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="E853" s="29" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="F853" s="29" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="G853" s="4" t="s">
         <v>4</v>
@@ -48847,20 +48846,20 @@
     </row>
     <row r="854" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="37" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="B854" s="26" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C854" s="26"/>
       <c r="D854" s="29" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="E854" s="29" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="F854" s="29" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="G854" s="4" t="s">
         <v>4</v>
@@ -48877,20 +48876,20 @@
     </row>
     <row r="855" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="37" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="B855" s="26" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="C855" s="26"/>
       <c r="D855" s="29" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="E855" s="29" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="F855" s="29" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="G855" s="4" t="s">
         <v>4</v>
@@ -48906,20 +48905,20 @@
     </row>
     <row r="856" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="37" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="B856" s="37" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="C856" s="26"/>
       <c r="D856" s="29" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E856" s="29" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="F856" s="29" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="G856" s="4" t="s">
         <v>5</v>
@@ -48932,26 +48931,26 @@
       </c>
       <c r="L856" s="2"/>
       <c r="M856" s="42" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="N856" s="42"/>
     </row>
     <row r="857" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="37" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="B857" s="37" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="C857" s="26"/>
       <c r="D857" s="29" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E857" s="29" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="F857" s="29" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="G857" s="4" t="s">
         <v>5</v>
@@ -48964,26 +48963,26 @@
       </c>
       <c r="L857" s="2"/>
       <c r="M857" s="42" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="N857" s="42"/>
     </row>
     <row r="858" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="37" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="B858" s="37" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="C858" s="26"/>
       <c r="D858" s="29" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E858" s="29" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="F858" s="29" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="G858" s="4" t="s">
         <v>5</v>
@@ -48996,23 +48995,23 @@
       </c>
       <c r="L858" s="2"/>
       <c r="M858" s="42" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="N858" s="42"/>
     </row>
     <row r="859" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="37" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="B859" s="37" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="C859" s="26"/>
       <c r="D859" s="29" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="E859" s="29" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="F859" s="29" t="s">
         <v>133</v>
@@ -49028,26 +49027,26 @@
       </c>
       <c r="L859" s="2"/>
       <c r="M859" s="42" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="N859" s="42"/>
     </row>
     <row r="860" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="37" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="B860" s="37" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="C860" s="26"/>
       <c r="D860" s="29" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="E860" s="29" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="F860" s="29" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="G860" s="4" t="s">
         <v>4</v>
@@ -49064,17 +49063,17 @@
     </row>
     <row r="861" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="37" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="B861" s="37" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="C861" s="26"/>
       <c r="D861" s="29" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="E861" s="29" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="F861" s="29" t="s">
         <v>133</v>
@@ -49090,23 +49089,23 @@
       </c>
       <c r="L861" s="2"/>
       <c r="M861" s="42" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="N861" s="42"/>
     </row>
     <row r="862" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="37" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="B862" s="37" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="C862" s="26"/>
       <c r="D862" s="29" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="E862" s="29" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="F862" s="29" t="s">
         <v>133</v>
@@ -49120,26 +49119,26 @@
       </c>
       <c r="L862" s="2"/>
       <c r="M862" s="42" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="N862" s="42"/>
     </row>
     <row r="863" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="37" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="B863" s="37" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="C863" s="26"/>
       <c r="D863" s="29" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="E863" s="29" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="F863" s="29" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="G863" s="4" t="s">
         <v>4</v>
@@ -49156,17 +49155,17 @@
     </row>
     <row r="864" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="37" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="B864" s="37" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="C864" s="26"/>
       <c r="D864" s="29" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="E864" s="29" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="F864" s="29"/>
       <c r="G864" s="4" t="s">
@@ -49184,17 +49183,17 @@
     </row>
     <row r="865" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="37" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="B865" s="37" t="s">
         <v>1272</v>
       </c>
       <c r="C865" s="29"/>
       <c r="D865" s="29" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="E865" s="29" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="F865" s="29" t="s">
         <v>1654</v>
@@ -49214,20 +49213,20 @@
     </row>
     <row r="866" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="37" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="B866" s="37" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="C866" s="26"/>
       <c r="D866" s="29" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="E866" s="29" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="F866" s="29" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="G866" s="4" t="s">
         <v>4</v>
@@ -49244,17 +49243,17 @@
     </row>
     <row r="867" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="37" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="B867" s="37" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="C867" s="26"/>
       <c r="D867" s="29" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="E867" s="29" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="F867" s="29"/>
       <c r="G867" s="4" t="s">
@@ -49287,7 +49286,7 @@
     </row>
     <row r="869" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="36" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="B869" s="35"/>
       <c r="C869" s="18"/>
@@ -49305,7 +49304,7 @@
     </row>
     <row r="870" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A870" s="49" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="B870" s="49"/>
       <c r="C870" s="50" t="s">
@@ -49325,20 +49324,20 @@
     </row>
     <row r="871" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="37" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="B871" s="37" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="C871" s="26"/>
       <c r="D871" s="29" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E871" s="29" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F871" s="29" t="s">
         <v>2800</v>
-      </c>
-      <c r="E871" s="29" t="s">
-        <v>2801</v>
-      </c>
-      <c r="F871" s="29" t="s">
-        <v>2799</v>
       </c>
       <c r="G871" s="4" t="s">
         <v>4</v>
@@ -49355,20 +49354,20 @@
     </row>
     <row r="872" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="37" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="B872" s="37" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="C872" s="26"/>
       <c r="D872" s="29" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="E872" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F872" s="29" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="G872" s="4" t="s">
         <v>4</v>
@@ -49385,20 +49384,20 @@
     </row>
     <row r="873" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="37" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="B873" s="37" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="C873" s="26"/>
       <c r="D873" s="29" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="E873" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F873" s="29" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="G873" s="4" t="s">
         <v>4</v>
@@ -49415,20 +49414,20 @@
     </row>
     <row r="874" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="37" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="B874" s="37" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="C874" s="26"/>
       <c r="D874" s="29" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="E874" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F874" s="29" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="G874" s="4" t="s">
         <v>4</v>
@@ -49445,20 +49444,20 @@
     </row>
     <row r="875" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="37" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="B875" s="37" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="C875" s="26"/>
       <c r="D875" s="29" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="E875" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F875" s="29" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="G875" s="4" t="s">
         <v>4</v>
@@ -49475,20 +49474,20 @@
     </row>
     <row r="876" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="37" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="B876" s="37" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="C876" s="26"/>
       <c r="D876" s="29" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="E876" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F876" s="29" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="G876" s="4" t="s">
         <v>4</v>
@@ -49505,20 +49504,20 @@
     </row>
     <row r="877" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="37" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="B877" s="37" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="C877" s="26"/>
       <c r="D877" s="29" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="E877" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F877" s="29" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="G877" s="4" t="s">
         <v>4</v>
@@ -49535,20 +49534,20 @@
     </row>
     <row r="878" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="37" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="B878" s="37" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="C878" s="26"/>
       <c r="D878" s="29" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="E878" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F878" s="29" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="G878" s="4" t="s">
         <v>4</v>
@@ -49565,20 +49564,20 @@
     </row>
     <row r="879" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="37" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="B879" s="37" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="C879" s="26"/>
       <c r="D879" s="29" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="E879" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F879" s="29" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="G879" s="4" t="s">
         <v>4</v>
@@ -49595,20 +49594,20 @@
     </row>
     <row r="880" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="37" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="B880" s="37" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="C880" s="26"/>
       <c r="D880" s="29" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E880" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F880" s="29" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="G880" s="4" t="s">
         <v>4</v>
@@ -49625,20 +49624,20 @@
     </row>
     <row r="881" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="37" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="B881" s="37" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="C881" s="26"/>
       <c r="D881" s="29" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="E881" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F881" s="29" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="G881" s="4" t="s">
         <v>4</v>
@@ -49655,20 +49654,20 @@
     </row>
     <row r="882" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="37" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="B882" s="37" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="C882" s="26"/>
       <c r="D882" s="29" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="E882" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F882" s="29" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="G882" s="4" t="s">
         <v>4</v>
@@ -49685,20 +49684,20 @@
     </row>
     <row r="883" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="37" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="B883" s="37" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="C883" s="26"/>
       <c r="D883" s="29" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="E883" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F883" s="29" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="G883" s="4" t="s">
         <v>4</v>
@@ -49715,20 +49714,20 @@
     </row>
     <row r="884" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="37" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="B884" s="37" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="C884" s="26"/>
       <c r="D884" s="29" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="E884" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F884" s="29" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="G884" s="4" t="s">
         <v>4</v>
@@ -49745,20 +49744,20 @@
     </row>
     <row r="885" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="37" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="B885" s="37" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="C885" s="26"/>
       <c r="D885" s="29" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="E885" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F885" s="29" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="G885" s="4" t="s">
         <v>4</v>
@@ -49775,20 +49774,20 @@
     </row>
     <row r="886" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="37" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="B886" s="47" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="C886" s="26"/>
       <c r="D886" s="29" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="E886" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F886" s="29" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="G886" s="4" t="s">
         <v>4</v>
@@ -49805,20 +49804,20 @@
     </row>
     <row r="887" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="37" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="B887" s="37" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="C887" s="26"/>
       <c r="D887" s="29" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="E887" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F887" s="29" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="G887" s="4" t="s">
         <v>4</v>
@@ -49835,20 +49834,20 @@
     </row>
     <row r="888" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="37" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="B888" s="37" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="C888" s="26"/>
       <c r="D888" s="29" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="E888" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F888" s="29" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="G888" s="4" t="s">
         <v>4</v>
@@ -49865,20 +49864,20 @@
     </row>
     <row r="889" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="37" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="B889" s="37" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="C889" s="26"/>
       <c r="D889" s="29" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="E889" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F889" s="29" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="G889" s="4" t="s">
         <v>4</v>
@@ -49895,20 +49894,20 @@
     </row>
     <row r="890" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="37" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="B890" s="37" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="C890" s="26"/>
       <c r="D890" s="29" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="E890" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F890" s="29" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="G890" s="4" t="s">
         <v>4</v>
@@ -49925,20 +49924,20 @@
     </row>
     <row r="891" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="37" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="B891" s="37" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="C891" s="26"/>
       <c r="D891" s="29" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="E891" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F891" s="29" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="G891" s="4" t="s">
         <v>4</v>
@@ -49955,20 +49954,20 @@
     </row>
     <row r="892" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="37" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="B892" s="37" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="C892" s="26"/>
       <c r="D892" s="29" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="E892" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F892" s="29" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="G892" s="4" t="s">
         <v>4</v>
@@ -49985,20 +49984,20 @@
     </row>
     <row r="893" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="37" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="B893" s="47" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="C893" s="26"/>
       <c r="D893" s="29" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="E893" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F893" s="29" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="G893" s="4" t="s">
         <v>4</v>
@@ -50015,20 +50014,20 @@
     </row>
     <row r="894" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="37" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="B894" s="47" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="C894" s="26"/>
       <c r="D894" s="29" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="E894" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F894" s="29" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="G894" s="4" t="s">
         <v>4</v>
@@ -50045,20 +50044,20 @@
     </row>
     <row r="895" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="37" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="B895" s="47" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="C895" s="26"/>
       <c r="D895" s="29" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="E895" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F895" s="29" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="G895" s="4" t="s">
         <v>4</v>
@@ -50075,20 +50074,20 @@
     </row>
     <row r="896" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="37" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="B896" s="37" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="C896" s="26"/>
       <c r="D896" s="29" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="E896" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F896" s="29" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="G896" s="4" t="s">
         <v>4</v>
@@ -50105,20 +50104,20 @@
     </row>
     <row r="897" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="37" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="B897" s="37" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="C897" s="26"/>
       <c r="D897" s="29" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="E897" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F897" s="29" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="G897" s="4" t="s">
         <v>4</v>
@@ -50135,20 +50134,20 @@
     </row>
     <row r="898" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="37" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="B898" s="37" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="C898" s="26"/>
       <c r="D898" s="29" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="E898" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F898" s="29" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="G898" s="4" t="s">
         <v>4</v>
@@ -50165,20 +50164,20 @@
     </row>
     <row r="899" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="37" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="B899" s="37" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="C899" s="26"/>
       <c r="D899" s="29" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="E899" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F899" s="29" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="G899" s="4" t="s">
         <v>4</v>
@@ -50195,20 +50194,20 @@
     </row>
     <row r="900" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="37" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="B900" s="37" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C900" s="26"/>
       <c r="D900" s="29" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="E900" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F900" s="29" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="G900" s="4" t="s">
         <v>4</v>
@@ -50225,20 +50224,20 @@
     </row>
     <row r="901" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="37" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="B901" s="37" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="C901" s="26"/>
       <c r="D901" s="29" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="E901" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F901" s="29" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="G901" s="4" t="s">
         <v>4</v>
@@ -50255,20 +50254,20 @@
     </row>
     <row r="902" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="37" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="B902" s="37" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="C902" s="26"/>
       <c r="D902" s="29" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="E902" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F902" s="29" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="G902" s="4" t="s">
         <v>4</v>
@@ -50285,20 +50284,20 @@
     </row>
     <row r="903" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="37" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="B903" s="37" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="C903" s="26"/>
       <c r="D903" s="29" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="E903" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F903" s="29" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="G903" s="4" t="s">
         <v>4</v>
@@ -50315,20 +50314,20 @@
     </row>
     <row r="904" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="37" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="B904" s="37" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="C904" s="26"/>
       <c r="D904" s="29" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="E904" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F904" s="29" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="G904" s="4" t="s">
         <v>4</v>
@@ -50345,20 +50344,20 @@
     </row>
     <row r="905" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="37" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="B905" s="37" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="C905" s="26"/>
       <c r="D905" s="29" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="E905" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F905" s="29" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="G905" s="4" t="s">
         <v>4</v>
@@ -50375,20 +50374,20 @@
     </row>
     <row r="906" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="37" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="B906" s="37" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="C906" s="26"/>
       <c r="D906" s="29" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="E906" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F906" s="29" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="G906" s="4" t="s">
         <v>4</v>
@@ -50405,20 +50404,20 @@
     </row>
     <row r="907" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="37" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="B907" s="37" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="C907" s="26"/>
       <c r="D907" s="29" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="E907" s="29" t="s">
         <v>395</v>
       </c>
       <c r="F907" s="29" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="G907" s="4" t="s">
         <v>4</v>
@@ -50435,20 +50434,20 @@
     </row>
     <row r="908" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="37" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="B908" s="37" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="C908" s="26"/>
       <c r="D908" s="29" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="E908" s="29" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="F908" s="29" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="G908" s="4" t="s">
         <v>4</v>
@@ -50465,20 +50464,20 @@
     </row>
     <row r="909" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="37" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="B909" s="37" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="C909" s="26"/>
       <c r="D909" s="29" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="E909" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F909" s="29" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="G909" s="4" t="s">
         <v>4</v>
@@ -50495,20 +50494,20 @@
     </row>
     <row r="910" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="37" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="B910" s="37" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="C910" s="26"/>
       <c r="D910" s="29" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="E910" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F910" s="29" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="G910" s="4" t="s">
         <v>4</v>
@@ -50525,20 +50524,20 @@
     </row>
     <row r="911" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="37" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="B911" s="37" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="C911" s="26"/>
       <c r="D911" s="29" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="E911" s="29" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="F911" s="29" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="G911" s="4" t="s">
         <v>4</v>
@@ -50570,7 +50569,7 @@
     </row>
     <row r="913" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A913" s="49" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="B913" s="49"/>
       <c r="C913" s="50" t="s">
@@ -50590,20 +50589,20 @@
     </row>
     <row r="914" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="37" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="B914" s="37" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="C914" s="26"/>
       <c r="D914" s="29" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="E914" s="29" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="F914" s="29" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="G914" s="4" t="s">
         <v>4</v>
@@ -51898,7 +51897,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G871:G912 G914 G831:G868">
+  <conditionalFormatting sqref="G831:G868 G871:G912 G914">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>

--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -15025,7 +15025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE915"/>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A200" sqref="A200"/>
@@ -16004,16 +16004,8 @@
           <t>Chuyển đến trang: "1.2 Xe online"</t>
         </is>
       </c>
-      <c r="F30" s="15" t="inlineStr">
-        <is>
-          <t>1.2 Xe online</t>
-        </is>
-      </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F30" s="15" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr"/>
       <c r="H30" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16055,16 +16047,8 @@
           <t>Trường "Biển số" hiển thị dữ liệu hàng đầu tiên: "Biển số vừa nhập"</t>
         </is>
       </c>
-      <c r="F31" s="15" t="inlineStr">
-        <is>
-          <t>BATONNT</t>
-        </is>
-      </c>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F31" s="15" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16140,16 +16124,8 @@
           <t>Trường "Đang lái" hiển thị dữ liệu hàng đầu tiên: "0945912674"</t>
         </is>
       </c>
-      <c r="F33" s="15" t="inlineStr">
-        <is>
-          <t>batonnt</t>
-        </is>
-      </c>
-      <c r="G33" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F33" s="15" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16608,18 +16584,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F45" s="15" t="inlineStr">
-        <is>
-          <t>Dữ liệu web: Đóng
-Dữ liệu excel: Mất kết nối
- Dòng: J6</t>
-        </is>
-      </c>
-      <c r="G45" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F45" s="15" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16881,16 +16847,8 @@
           <t>Chuyển đến trang: "1.3 Giám sát xe"</t>
         </is>
       </c>
-      <c r="F53" s="15" t="inlineStr">
-        <is>
-          <t>1.3 Giám sát xe</t>
-        </is>
-      </c>
-      <c r="G53" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F53" s="15" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr"/>
       <c r="H53" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16927,16 +16885,8 @@
           <t>Hiển thị xe có mã đàm đã nhập ở map</t>
         </is>
       </c>
-      <c r="F54" s="15" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="G54" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F54" s="15" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr"/>
       <c r="H54" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16972,16 +16922,8 @@
           <t>Hiển thị message: "Lưu thành công!"</t>
         </is>
       </c>
-      <c r="F55" s="15" t="inlineStr">
-        <is>
-          <t>Lưu thành công!</t>
-        </is>
-      </c>
-      <c r="G55" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F55" s="15" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr"/>
       <c r="H55" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17026,16 +16968,8 @@
 2."Hiển thị message: "Lưu thông tin thành công." và load lại trang</t>
         </is>
       </c>
-      <c r="F56" s="15" t="inlineStr">
-        <is>
-          <t>Cập nhật cấu hình khởi động</t>
-        </is>
-      </c>
-      <c r="G56" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F56" s="15" t="inlineStr"/>
+      <c r="G56" s="4" t="inlineStr"/>
       <c r="H56" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17071,16 +17005,8 @@
           <t xml:space="preserve"> Mở popup "Trợ giúp"</t>
         </is>
       </c>
-      <c r="F57" s="15" t="inlineStr">
-        <is>
-          <t>Trợ Giúp</t>
-        </is>
-      </c>
-      <c r="G57" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F57" s="15" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr"/>
       <c r="H57" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17119,16 +17045,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/RedCar.png"</t>
         </is>
       </c>
-      <c r="F58" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/RedCar.png</t>
-        </is>
-      </c>
-      <c r="G58" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F58" s="15" t="inlineStr"/>
+      <c r="G58" s="4" t="inlineStr"/>
       <c r="H58" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17167,16 +17085,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/BlueCar.png"</t>
         </is>
       </c>
-      <c r="F59" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/BlueCar.png</t>
-        </is>
-      </c>
-      <c r="G59" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F59" s="15" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr"/>
       <c r="H59" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17215,16 +17125,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/GreenCar.png"</t>
         </is>
       </c>
-      <c r="F60" s="46" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/GreenCar.png</t>
-        </is>
-      </c>
-      <c r="G60" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F60" s="46" t="inlineStr"/>
+      <c r="G60" s="4" t="inlineStr"/>
       <c r="H60" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17266,16 +17168,8 @@
 "/Content/themes/img/BlueCar.png" </t>
         </is>
       </c>
-      <c r="F61" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/RedCar.png</t>
-        </is>
-      </c>
-      <c r="G61" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F61" s="15" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr"/>
       <c r="H61" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17314,16 +17208,8 @@
           <t>Trống xe</t>
         </is>
       </c>
-      <c r="F62" s="15" t="inlineStr">
-        <is>
-          <t>0/69</t>
-        </is>
-      </c>
-      <c r="G62" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F62" s="15" t="inlineStr"/>
+      <c r="G62" s="4" t="inlineStr"/>
       <c r="H62" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17362,16 +17248,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/WarGreenCar.png"</t>
         </is>
       </c>
-      <c r="F63" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/WarGreenCar.png</t>
-        </is>
-      </c>
-      <c r="G63" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F63" s="15" t="inlineStr"/>
+      <c r="G63" s="4" t="inlineStr"/>
       <c r="H63" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17410,16 +17288,8 @@
           <t>Tất cả xe kết nối</t>
         </is>
       </c>
-      <c r="F64" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/RedCar.png</t>
-        </is>
-      </c>
-      <c r="G64" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F64" s="15" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr"/>
       <c r="H64" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17458,16 +17328,8 @@
           <t>Tất cả xe</t>
         </is>
       </c>
-      <c r="F65" s="15" t="inlineStr">
-        <is>
-          <t>69/69</t>
-        </is>
-      </c>
-      <c r="G65" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F65" s="15" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr"/>
       <c r="H65" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17506,17 +17368,8 @@
           <t>Hiển thị thông tin xe: "205 - 15A26857"</t>
         </is>
       </c>
-      <c r="F66" s="15" t="inlineStr">
-        <is>
-          <t>Biển số tìm kiếm: 205 - 15A26857
-Biển số popup: 205-15A26857</t>
-        </is>
-      </c>
-      <c r="G66" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F66" s="15" t="inlineStr"/>
+      <c r="G66" s="4" t="inlineStr"/>
       <c r="H66" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17556,16 +17409,8 @@
           <t>Mở tab mới với lộ trình xe vừa tìm kiếm, chuyển tới trang: "THEO DÕI LỘ TRÌNH - STAXI"</t>
         </is>
       </c>
-      <c r="F67" s="15" t="inlineStr">
-        <is>
-          <t>THEO DÕI LỘ TRÌNH - STAXI</t>
-        </is>
-      </c>
-      <c r="G67" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F67" s="15" t="inlineStr"/>
+      <c r="G67" s="4" t="inlineStr"/>
       <c r="H67" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17643,11 +17488,7 @@
         </is>
       </c>
       <c r="F70" s="15" t="inlineStr"/>
-      <c r="G70" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G70" s="4" t="inlineStr"/>
       <c r="H70" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17678,16 +17519,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F71" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 15A26611</t>
-        </is>
-      </c>
-      <c r="G71" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F71" s="15" t="inlineStr"/>
+      <c r="G71" s="4" t="inlineStr"/>
       <c r="H71" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17718,17 +17551,8 @@
           <t>So sánh: Popup Hiện trạng, Danh sách giám sát</t>
         </is>
       </c>
-      <c r="F72" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 202
-Danh sách giám sát: 202</t>
-        </is>
-      </c>
-      <c r="G72" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F72" s="15" t="inlineStr"/>
+      <c r="G72" s="4" t="inlineStr"/>
       <c r="H72" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17759,16 +17583,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F73" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 20.97534</t>
-        </is>
-      </c>
-      <c r="G73" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F73" s="15" t="inlineStr"/>
+      <c r="G73" s="4" t="inlineStr"/>
       <c r="H73" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17799,16 +17615,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F74" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 106.5987</t>
-        </is>
-      </c>
-      <c r="G74" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F74" s="15" t="inlineStr"/>
+      <c r="G74" s="4" t="inlineStr"/>
       <c r="H74" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17839,16 +17647,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F75" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: None</t>
-        </is>
-      </c>
-      <c r="G75" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="F75" s="15" t="inlineStr"/>
+      <c r="G75" s="4" t="inlineStr"/>
       <c r="H75" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17883,17 +17683,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F76" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 18:17:48
-Danh sách giám sát: 18:17:48</t>
-        </is>
-      </c>
-      <c r="G76" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F76" s="15" t="inlineStr"/>
+      <c r="G76" s="4" t="inlineStr"/>
       <c r="H76" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17928,17 +17719,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F77" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0
-Danh sách giám sát: 0</t>
-        </is>
-      </c>
-      <c r="G77" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F77" s="15" t="inlineStr"/>
+      <c r="G77" s="4" t="inlineStr"/>
       <c r="H77" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17973,16 +17755,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F78" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 5 chỗ Nguyễn Gia - VIOS</t>
-        </is>
-      </c>
-      <c r="G78" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F78" s="15" t="inlineStr"/>
+      <c r="G78" s="4" t="inlineStr"/>
       <c r="H78" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18013,17 +17787,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F79" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: Sẵn sàng
-Danh sách giám sát: Sẵn sàng</t>
-        </is>
-      </c>
-      <c r="G79" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F79" s="15" t="inlineStr"/>
+      <c r="G79" s="4" t="inlineStr"/>
       <c r="H79" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18054,16 +17819,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F80" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 1 (TTĐH:1;App:0;Vẫy:0)</t>
-        </is>
-      </c>
-      <c r="G80" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F80" s="15" t="inlineStr"/>
+      <c r="G80" s="4" t="inlineStr"/>
       <c r="H80" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18094,16 +17851,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F81" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 185000</t>
-        </is>
-      </c>
-      <c r="G81" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F81" s="15" t="inlineStr"/>
+      <c r="G81" s="4" t="inlineStr"/>
       <c r="H81" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18134,16 +17883,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F82" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: VŨ LONG AN</t>
-        </is>
-      </c>
-      <c r="G82" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F82" s="15" t="inlineStr"/>
+      <c r="G82" s="4" t="inlineStr"/>
       <c r="H82" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18174,16 +17915,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F83" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0866692456</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F83" s="15" t="inlineStr"/>
+      <c r="G83" s="4" t="inlineStr"/>
       <c r="H83" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18214,16 +17947,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F84" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: Kết nối</t>
-        </is>
-      </c>
-      <c r="G84" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F84" s="15" t="inlineStr"/>
+      <c r="G84" s="4" t="inlineStr"/>
       <c r="H84" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18254,16 +17979,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F85" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 609090</t>
-        </is>
-      </c>
-      <c r="G85" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F85" s="15" t="inlineStr"/>
+      <c r="G85" s="4" t="inlineStr"/>
       <c r="H85" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18404,11 +18121,7 @@
         </is>
       </c>
       <c r="F91" s="15" t="inlineStr"/>
-      <c r="G91" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G91" s="4" t="inlineStr"/>
       <c r="H91" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18418,11 +18131,7 @@
       <c r="J91" s="6" t="n"/>
       <c r="K91" s="6" t="n"/>
       <c r="L91" s="4" t="n"/>
-      <c r="M91" s="20" t="inlineStr">
-        <is>
-          <t>Minitor53_GiamSat_LoTrinh_LayDuLieu.png</t>
-        </is>
-      </c>
+      <c r="M91" s="20" t="inlineStr"/>
       <c r="N91" s="20" t="n"/>
     </row>
     <row r="92" ht="37.5" customHeight="1">
@@ -18449,11 +18158,7 @@
         </is>
       </c>
       <c r="F92" s="15" t="inlineStr"/>
-      <c r="G92" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G92" s="4" t="inlineStr"/>
       <c r="H92" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18490,11 +18195,7 @@
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr"/>
-      <c r="G93" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G93" s="4" t="inlineStr"/>
       <c r="H93" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18531,11 +18232,7 @@
         </is>
       </c>
       <c r="F94" s="15" t="inlineStr"/>
-      <c r="G94" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G94" s="4" t="inlineStr"/>
       <c r="H94" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18572,11 +18269,7 @@
         </is>
       </c>
       <c r="F95" s="15" t="inlineStr"/>
-      <c r="G95" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G95" s="4" t="inlineStr"/>
       <c r="H95" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18613,11 +18306,7 @@
         </is>
       </c>
       <c r="F96" s="15" t="inlineStr"/>
-      <c r="G96" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G96" s="4" t="inlineStr"/>
       <c r="H96" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18654,11 +18343,7 @@
         </is>
       </c>
       <c r="F97" s="15" t="inlineStr"/>
-      <c r="G97" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G97" s="4" t="inlineStr"/>
       <c r="H97" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18695,17 +18380,8 @@
 2. Hiển thị: Biển số xe, thời gian</t>
         </is>
       </c>
-      <c r="F98" s="15" t="inlineStr">
-        <is>
-          <t>Biển số xe: Biển số xe: 18H02845
-Thời gian: Từ ngày: 25/01/2026 20:00 Đến ngày: 26/1/2026 18:28</t>
-        </is>
-      </c>
-      <c r="G98" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F98" s="15" t="inlineStr"/>
+      <c r="G98" s="4" t="inlineStr"/>
       <c r="H98" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18741,16 +18417,8 @@
           <t>Tải file Excel chứa danh sách lộ trình xe về máy(chỉ check tải)</t>
         </is>
       </c>
-      <c r="F99" s="15" t="inlineStr">
-        <is>
-          <t>_GiamSat_LoTrinh_XuatExcel.xls</t>
-        </is>
-      </c>
-      <c r="G99" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F99" s="15" t="inlineStr"/>
+      <c r="G99" s="4" t="inlineStr"/>
       <c r="H99" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18786,19 +18454,8 @@
           <t>Hiển thị popup các màu sắc cảnh báo: Cảnh báo, Sẵng sàng, Có khách, Nghỉ KD</t>
         </is>
       </c>
-      <c r="F100" s="15" t="inlineStr">
-        <is>
-          <t>Màu Vàng: Cảnh báo
-Màu đỏ: Sẵn sàng
-Màu xanh dương: Có khách
-Màu đen: Nghỉ KD</t>
-        </is>
-      </c>
-      <c r="G100" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F100" s="15" t="inlineStr"/>
+      <c r="G100" s="4" t="inlineStr"/>
       <c r="H100" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18892,16 +18549,8 @@
           <t>Chuyển đến trang: "1.9 Giám sát xe (nhóm)"</t>
         </is>
       </c>
-      <c r="F104" s="15" t="inlineStr">
-        <is>
-          <t>1.9 Giám sát xe (nhóm)</t>
-        </is>
-      </c>
-      <c r="G104" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F104" s="15" t="inlineStr"/>
+      <c r="G104" s="4" t="inlineStr"/>
       <c r="H104" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19025,16 +18674,8 @@
           <t>Hiển thị các trạng thái: Trực tuyến, Sẵn sàng, Có khách, Bận, Ngừng KD, Mất tín hiệu, Ngoại tuyến</t>
         </is>
       </c>
-      <c r="F107" s="15" t="inlineStr">
-        <is>
-          <t>Trực tuyến, Sẵn sàng, Có khách, Bận, Ngừng KD, Mất tín hiệu, Ngoại tuyến</t>
-        </is>
-      </c>
-      <c r="G107" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F107" s="15" t="inlineStr"/>
+      <c r="G107" s="4" t="inlineStr"/>
       <c r="H107" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19070,23 +18711,8 @@
           <t>Hiển thị tất cả các nhóm của công ty</t>
         </is>
       </c>
-      <c r="F108" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                        Tất cả
-                                            Binhnm Test
-                                            G7TaxiHN-Gán Xe
-                                            G7-Việt Thanh-Gán Xe
-                                            G7-Vĩnh Phúc-Gán Xe
-                                            IT-G7-Gán xe
-                                            IT-G7-Gán Lái
-                                    </t>
-        </is>
-      </c>
-      <c r="G108" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F108" s="15" t="inlineStr"/>
+      <c r="G108" s="4" t="inlineStr"/>
       <c r="H108" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19162,16 +18788,8 @@
           <t>Hiển thị đúng Xe đã nhập ở danh sách và popup Hiện trạng</t>
         </is>
       </c>
-      <c r="F111" s="15" t="inlineStr">
-        <is>
-          <t>30E03908</t>
-        </is>
-      </c>
-      <c r="G111" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F111" s="15" t="inlineStr"/>
+      <c r="G111" s="4" t="inlineStr"/>
       <c r="H111" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19181,11 +18799,7 @@
       <c r="J111" s="6" t="n"/>
       <c r="K111" s="6" t="n"/>
       <c r="L111" s="4" t="n"/>
-      <c r="M111" s="20" t="inlineStr">
-        <is>
-          <t>Minitor68_.png</t>
-        </is>
-      </c>
+      <c r="M111" s="20" t="inlineStr"/>
       <c r="N111" s="20" t="n"/>
     </row>
     <row r="112" ht="75" customHeight="1">
@@ -19206,16 +18820,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F112" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 30E03908</t>
-        </is>
-      </c>
-      <c r="G112" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F112" s="15" t="inlineStr"/>
+      <c r="G112" s="4" t="inlineStr"/>
       <c r="H112" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19246,16 +18852,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F113" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: - 04</t>
-        </is>
-      </c>
-      <c r="G113" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F113" s="15" t="inlineStr"/>
+      <c r="G113" s="4" t="inlineStr"/>
       <c r="H113" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19286,16 +18884,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F114" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 18:31:40 26/01/26</t>
-        </is>
-      </c>
-      <c r="G114" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F114" s="15" t="inlineStr"/>
+      <c r="G114" s="4" t="inlineStr"/>
       <c r="H114" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19326,16 +18916,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F115" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 21.00847</t>
-        </is>
-      </c>
-      <c r="G115" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F115" s="15" t="inlineStr"/>
+      <c r="G115" s="4" t="inlineStr"/>
       <c r="H115" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19366,16 +18948,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F116" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 105.8486</t>
-        </is>
-      </c>
-      <c r="G116" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F116" s="15" t="inlineStr"/>
+      <c r="G116" s="4" t="inlineStr"/>
       <c r="H116" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19406,16 +18980,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F117" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Popup Hiện trạng: </t>
-        </is>
-      </c>
-      <c r="G117" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="F117" s="15" t="inlineStr"/>
+      <c r="G117" s="4" t="inlineStr"/>
       <c r="H117" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19425,11 +18991,7 @@
       <c r="J117" s="6" t="n"/>
       <c r="K117" s="6" t="n"/>
       <c r="L117" s="4" t="n"/>
-      <c r="M117" s="20" t="inlineStr">
-        <is>
-          <t>Minitor74_GiamSatXeNhom_HienTrang_ViTri.png</t>
-        </is>
-      </c>
+      <c r="M117" s="20" t="inlineStr"/>
       <c r="N117" s="20" t="n"/>
     </row>
     <row r="118">
@@ -19450,16 +19012,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F118" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 7</t>
-        </is>
-      </c>
-      <c r="G118" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F118" s="15" t="inlineStr"/>
+      <c r="G118" s="4" t="inlineStr"/>
       <c r="H118" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19490,16 +19044,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F119" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: Lê Minh Tuấn</t>
-        </is>
-      </c>
-      <c r="G119" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F119" s="15" t="inlineStr"/>
+      <c r="G119" s="4" t="inlineStr"/>
       <c r="H119" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19530,16 +19076,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F120" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0947114635</t>
-        </is>
-      </c>
-      <c r="G120" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F120" s="15" t="inlineStr"/>
+      <c r="G120" s="4" t="inlineStr"/>
       <c r="H120" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19570,16 +19108,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F121" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 4 Chỗ - Hyundai i10 Sedan</t>
-        </is>
-      </c>
-      <c r="G121" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F121" s="15" t="inlineStr"/>
+      <c r="G121" s="4" t="inlineStr"/>
       <c r="H121" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19610,16 +19140,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F122" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 54 (TTĐH: 52; App: 2; Vẫy: 0)</t>
-        </is>
-      </c>
-      <c r="G122" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F122" s="15" t="inlineStr"/>
+      <c r="G122" s="4" t="inlineStr"/>
       <c r="H122" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19650,16 +19172,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F123" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 612058</t>
-        </is>
-      </c>
-      <c r="G123" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F123" s="15" t="inlineStr"/>
+      <c r="G123" s="4" t="inlineStr"/>
       <c r="H123" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19754,16 +19268,8 @@
           <t>Chuyển đến trang: "2.1 Xe"</t>
         </is>
       </c>
-      <c r="F127" s="15" t="inlineStr">
-        <is>
-          <t>2.1 Xe</t>
-        </is>
-      </c>
-      <c r="G127" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F127" s="15" t="inlineStr"/>
+      <c r="G127" s="4" t="inlineStr"/>
       <c r="H127" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19845,16 +19351,8 @@
           <t>Hiển thị "Biển số" đã nhập ở đầu danh sách tìm kiếm</t>
         </is>
       </c>
-      <c r="F129" s="15" t="inlineStr">
-        <is>
-          <t>30E68089</t>
-        </is>
-      </c>
-      <c r="G129" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F129" s="15" t="inlineStr"/>
+      <c r="G129" s="4" t="inlineStr"/>
       <c r="H129" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19892,16 +19390,8 @@
           <t>Hiển thị "Số hiệu" đã nhập ở đầu danh sách tìm kiếm</t>
         </is>
       </c>
-      <c r="F130" s="15" t="inlineStr">
-        <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="G130" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F130" s="15" t="inlineStr"/>
+      <c r="G130" s="4" t="inlineStr"/>
       <c r="H130" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20357,16 +19847,8 @@
 (Chỉ check tải)</t>
         </is>
       </c>
-      <c r="F142" s="15" t="inlineStr">
-        <is>
-          <t>xe_LaiXe.xls</t>
-        </is>
-      </c>
-      <c r="G142" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F142" s="15" t="inlineStr"/>
+      <c r="G142" s="4" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -20493,16 +19975,8 @@
 (biển số tạo ở ô ghi chú)</t>
         </is>
       </c>
-      <c r="F145" s="15" t="inlineStr">
-        <is>
-          <t>Thêm mới xe thành công.</t>
-        </is>
-      </c>
-      <c r="G145" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F145" s="15" t="inlineStr"/>
+      <c r="G145" s="4" t="inlineStr"/>
       <c r="H145" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20547,16 +20021,8 @@
           <t>Hiển thị message: "Hủy kết nối hộp đen thành công"</t>
         </is>
       </c>
-      <c r="F146" s="29" t="inlineStr">
-        <is>
-          <t>Hủy kết nối hộp đen thành công</t>
-        </is>
-      </c>
-      <c r="G146" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F146" s="29" t="inlineStr"/>
+      <c r="G146" s="4" t="inlineStr"/>
       <c r="H146" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20593,16 +20059,8 @@
           <t>Hiển thị message: "Kết nối hộp đen thành công"</t>
         </is>
       </c>
-      <c r="F147" s="29" t="inlineStr">
-        <is>
-          <t>Kết nối hộp đen thành công</t>
-        </is>
-      </c>
-      <c r="G147" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F147" s="29" t="inlineStr"/>
+      <c r="G147" s="4" t="inlineStr"/>
       <c r="H147" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20639,16 +20097,8 @@
           <t>Hiển thị message: "Cập nhật trạng thái kết nối đồng hồ thành công"</t>
         </is>
       </c>
-      <c r="F148" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật trạng thái kết nối đồng hồ thành công</t>
-        </is>
-      </c>
-      <c r="G148" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F148" s="29" t="inlineStr"/>
+      <c r="G148" s="4" t="inlineStr"/>
       <c r="H148" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20685,16 +20135,8 @@
           <t>Hiển thị message: "Cập nhật trạng thái kết nối đồng hồ thành công"</t>
         </is>
       </c>
-      <c r="F149" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật trạng thái kết nối đồng hồ thành công</t>
-        </is>
-      </c>
-      <c r="G149" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F149" s="29" t="inlineStr"/>
+      <c r="G149" s="4" t="inlineStr"/>
       <c r="H149" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20809,16 +20251,8 @@
           <t>Hiển thị message: "Khóa xe thành công."</t>
         </is>
       </c>
-      <c r="F152" s="29" t="inlineStr">
-        <is>
-          <t>Khóa xe thành công.</t>
-        </is>
-      </c>
-      <c r="G152" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F152" s="29" t="inlineStr"/>
+      <c r="G152" s="4" t="inlineStr"/>
       <c r="H152" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20855,16 +20289,8 @@
           <t>Hiển thị message: "Mở khóa xe thành công."</t>
         </is>
       </c>
-      <c r="F153" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa xe thành công.</t>
-        </is>
-      </c>
-      <c r="G153" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F153" s="29" t="inlineStr"/>
+      <c r="G153" s="4" t="inlineStr"/>
       <c r="H153" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20901,16 +20327,8 @@
           <t>Hiển thị message: "Cập nhật xe thành công."</t>
         </is>
       </c>
-      <c r="F154" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật xe thành công.</t>
-        </is>
-      </c>
-      <c r="G154" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F154" s="29" t="inlineStr"/>
+      <c r="G154" s="4" t="inlineStr"/>
       <c r="H154" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20947,16 +20365,8 @@
           <t>Hiển thị message: "Xóa xe thành công"</t>
         </is>
       </c>
-      <c r="F155" s="29" t="inlineStr">
-        <is>
-          <t>Xóa xe thành công</t>
-        </is>
-      </c>
-      <c r="G155" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F155" s="29" t="inlineStr"/>
+      <c r="G155" s="4" t="inlineStr"/>
       <c r="H155" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21072,16 +20482,8 @@
           <t>Chuyển đến trang: "2.2 Lái xe"</t>
         </is>
       </c>
-      <c r="F159" s="15" t="inlineStr">
-        <is>
-          <t>2.2 Lái xe</t>
-        </is>
-      </c>
-      <c r="G159" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F159" s="15" t="inlineStr"/>
+      <c r="G159" s="4" t="inlineStr"/>
       <c r="H159" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21201,16 +20603,8 @@
           <t>trường "Biển số" Hiển thị đúng dữ liệu "Biển số" đã nhập</t>
         </is>
       </c>
-      <c r="F162" s="29" t="inlineStr">
-        <is>
-          <t>XE24656</t>
-        </is>
-      </c>
-      <c r="G162" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F162" s="29" t="inlineStr"/>
+      <c r="G162" s="4" t="inlineStr"/>
       <c r="H162" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21326,16 +20720,8 @@
           <t>trường "Số điện thoại" Hiển thị đúng dữ liệu "Số điện thoại" đã nhập</t>
         </is>
       </c>
-      <c r="F165" s="29" t="inlineStr">
-        <is>
-          <t>0967303024</t>
-        </is>
-      </c>
-      <c r="G165" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F165" s="29" t="inlineStr"/>
+      <c r="G165" s="4" t="inlineStr"/>
       <c r="H165" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21525,16 +20911,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F170" s="15" t="inlineStr">
-        <is>
-          <t>_laixe.xls</t>
-        </is>
-      </c>
-      <c r="G170" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F170" s="15" t="inlineStr"/>
+      <c r="G170" s="4" t="inlineStr"/>
       <c r="H170" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21665,16 +21043,8 @@
 (lái xe tạo ở ô ghi chú)</t>
         </is>
       </c>
-      <c r="F173" s="15" t="inlineStr">
-        <is>
-          <t>Thêm mới thành công</t>
-        </is>
-      </c>
-      <c r="G173" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F173" s="15" t="inlineStr"/>
+      <c r="G173" s="4" t="inlineStr"/>
       <c r="H173" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21728,16 +21098,8 @@
           <t>Hiển thị message: "Thêm tài khoản ngân hàng thành công"</t>
         </is>
       </c>
-      <c r="F174" s="15" t="inlineStr">
-        <is>
-          <t>Thêm tài khoản ngân hàng thành công</t>
-        </is>
-      </c>
-      <c r="G174" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F174" s="15" t="inlineStr"/>
+      <c r="G174" s="4" t="inlineStr"/>
       <c r="H174" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21785,16 +21147,8 @@
           <t>Hiển thị message: "Cập nhật lái xe thành công"</t>
         </is>
       </c>
-      <c r="F175" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thành công</t>
-        </is>
-      </c>
-      <c r="G175" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F175" s="29" t="inlineStr"/>
+      <c r="G175" s="4" t="inlineStr"/>
       <c r="H175" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21833,16 +21187,8 @@
           <t>Hiển thị message: "Khóa lái xe thành công."</t>
         </is>
       </c>
-      <c r="F176" s="29" t="inlineStr">
-        <is>
-          <t>Khóa lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G176" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F176" s="29" t="inlineStr"/>
+      <c r="G176" s="4" t="inlineStr"/>
       <c r="H176" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21878,18 +21224,8 @@
           <t>Hiển thị lý do gồm các trường: STT, Lý do khóa, Ngày Khóa</t>
         </is>
       </c>
-      <c r="F177" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Lý do khóa: Trường test khóa xe
-Ngày khóa: 26/01/2026 18:44:34</t>
-        </is>
-      </c>
-      <c r="G177" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F177" s="29" t="inlineStr"/>
+      <c r="G177" s="4" t="inlineStr"/>
       <c r="H177" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21926,16 +21262,8 @@
           <t>Hiển thị message: "Mở khóa lái xe thành công."</t>
         </is>
       </c>
-      <c r="F178" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G178" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F178" s="29" t="inlineStr"/>
+      <c r="G178" s="4" t="inlineStr"/>
       <c r="H178" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21971,16 +21299,8 @@
           <t>Hiển thị message: "Khen thưởng thành công."</t>
         </is>
       </c>
-      <c r="F179" s="29" t="inlineStr">
-        <is>
-          <t>Khen thưởng thành công.</t>
-        </is>
-      </c>
-      <c r="G179" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F179" s="29" t="inlineStr"/>
+      <c r="G179" s="4" t="inlineStr"/>
       <c r="H179" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22016,16 +21336,8 @@
           <t>Hiển thị message: "Gán xe thành công."</t>
         </is>
       </c>
-      <c r="F180" s="29" t="inlineStr">
-        <is>
-          <t>Gán xe thành công</t>
-        </is>
-      </c>
-      <c r="G180" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F180" s="29" t="inlineStr"/>
+      <c r="G180" s="4" t="inlineStr"/>
       <c r="H180" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22062,16 +21374,8 @@
           <t>Hiển thị message: " Mã kích hoạt đã được cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F181" s="29" t="inlineStr">
-        <is>
-          <t>Mã kích hoạt đã được cập nhật thành công.</t>
-        </is>
-      </c>
-      <c r="G181" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F181" s="29" t="inlineStr"/>
+      <c r="G181" s="4" t="inlineStr"/>
       <c r="H181" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22107,16 +21411,8 @@
           <t>Hiển thị message: "Đổi mật khẩu thành công."</t>
         </is>
       </c>
-      <c r="F182" s="29" t="inlineStr">
-        <is>
-          <t>Đổi mật khẩu thành công.</t>
-        </is>
-      </c>
-      <c r="G182" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F182" s="29" t="inlineStr"/>
+      <c r="G182" s="4" t="inlineStr"/>
       <c r="H182" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22288,16 +21584,8 @@
           <t>Hiển thị message: "Xóa lái xe thành công"</t>
         </is>
       </c>
-      <c r="F187" s="29" t="inlineStr">
-        <is>
-          <t>Xóa lái xe thành công</t>
-        </is>
-      </c>
-      <c r="G187" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F187" s="29" t="inlineStr"/>
+      <c r="G187" s="4" t="inlineStr"/>
       <c r="H187" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22687,16 +21975,8 @@
           <t>Chuyển đến trang: "3.1 Danh sách ví lái xe"</t>
         </is>
       </c>
-      <c r="F200" s="15" t="inlineStr">
-        <is>
-          <t>3.1 Danh sách ví lái xe</t>
-        </is>
-      </c>
-      <c r="G200" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F200" s="15" t="inlineStr"/>
+      <c r="G200" s="4" t="inlineStr"/>
       <c r="H200" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22735,18 +22015,8 @@
           <t>Thanh tổng quan gồm các trường: TỔNG SỐ VÍ, SỐ DƯ VÍ TÀI KHOẢN, SỐ DƯ VÍ TIỀN MẶT(không được trống dữ liệu)</t>
         </is>
       </c>
-      <c r="F201" s="29" t="inlineStr">
-        <is>
-          <t>Tổng số ví:: 1
-Số dư ví tài khoản: 14.825.270 ₫
-Số dư ví tiền mặt: 453.200 ₫</t>
-        </is>
-      </c>
-      <c r="G201" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F201" s="29" t="inlineStr"/>
+      <c r="G201" s="4" t="inlineStr"/>
       <c r="H201" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22784,16 +22054,8 @@
           <t>trường "Tên lái xe" Hiển thị đúng dữ liệu "Lái xe" đã nhập</t>
         </is>
       </c>
-      <c r="F202" s="29" t="inlineStr">
-        <is>
-          <t>Phan Văn Khuyên</t>
-        </is>
-      </c>
-      <c r="G202" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F202" s="29" t="inlineStr"/>
+      <c r="G202" s="4" t="inlineStr"/>
       <c r="H202" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22831,16 +22093,8 @@
           <t>trường "Ví lái xe" Hiển thị đúng dữ liệu "SDT" đã nhập</t>
         </is>
       </c>
-      <c r="F203" s="29" t="inlineStr">
-        <is>
-          <t>0335735161</t>
-        </is>
-      </c>
-      <c r="G203" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F203" s="29" t="inlineStr"/>
+      <c r="G203" s="4" t="inlineStr"/>
       <c r="H203" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22968,24 +22222,8 @@
 - Nội dung: Trường test nạp tiền</t>
         </is>
       </c>
-      <c r="F206" s="29" t="inlineStr">
-        <is>
-          <t>Message: Đã lưu lại giao dịch, Chờ xác nhận.
-Số tiền: 1.000.000 VNĐ
-Tên ví: batonnt1
-Dịch vụ: Nạp tiền vào Ví Tài Khoản
-Số tiền: 1.000.000₫
-Nguồn tiền: Quầy thu tại hãng
-Thời gian: 18:50 - 26/01/2026
-Mã giao dịch: 9563
-Nội dung: Trường test nạp tiền</t>
-        </is>
-      </c>
-      <c r="G206" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F206" s="29" t="inlineStr"/>
+      <c r="G206" s="4" t="inlineStr"/>
       <c r="H206" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23032,22 +22270,8 @@
 - Nội dung: Trường test rút tiền</t>
         </is>
       </c>
-      <c r="F207" s="29" t="inlineStr">
-        <is>
-          <t>Message: Đã lưu lại giao dịch, Chờ xác nhận.
-Số tiền: 100 VNĐ
-Dịch vụ: Rút tiền Ví Tiền Mặt
-Nguồn : Rút tại quầy
-Thời gian: 18:51 - 26/01/2026
-Mã giao dịch: 9564
-Nội dung: Trường test rút tiền</t>
-        </is>
-      </c>
-      <c r="G207" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F207" s="29" t="inlineStr"/>
+      <c r="G207" s="4" t="inlineStr"/>
       <c r="H207" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23085,17 +22309,8 @@
 2. Hiển thị Tên lái xe: batonnt1</t>
         </is>
       </c>
-      <c r="F208" s="29" t="inlineStr">
-        <is>
-          <t>Chuyển tới trang: 3.5 Lịch sử ví tiền
-Tên lái xe: batonnt1</t>
-        </is>
-      </c>
-      <c r="G208" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F208" s="29" t="inlineStr"/>
+      <c r="G208" s="4" t="inlineStr"/>
       <c r="H208" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23171,16 +22386,8 @@
           <t>Chuyển đến trang: "3.2 Đóng tiền vào ví lái xe"</t>
         </is>
       </c>
-      <c r="F211" s="15" t="inlineStr">
-        <is>
-          <t>3.2 Đóng tiền vào ví lái xe</t>
-        </is>
-      </c>
-      <c r="G211" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F211" s="15" t="inlineStr"/>
+      <c r="G211" s="4" t="inlineStr"/>
       <c r="H211" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23221,16 +22428,8 @@
           <t>Hiển thị thông báo: "Tạo giao dịch đóng tiền thành công."</t>
         </is>
       </c>
-      <c r="F212" s="29" t="inlineStr">
-        <is>
-          <t>Tạo giao dịch đóng tiền thành công.</t>
-        </is>
-      </c>
-      <c r="G212" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F212" s="29" t="inlineStr"/>
+      <c r="G212" s="4" t="inlineStr"/>
       <c r="H212" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23306,16 +22505,8 @@
           <t>Chuyển đến trang: "3.3 Rút tiền từ ví lái xe"</t>
         </is>
       </c>
-      <c r="F215" s="15" t="inlineStr">
-        <is>
-          <t>3.3 Rút tiền từ ví lái xe</t>
-        </is>
-      </c>
-      <c r="G215" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F215" s="15" t="inlineStr"/>
+      <c r="G215" s="4" t="inlineStr"/>
       <c r="H215" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23356,16 +22547,8 @@
           <t>Hiển thị thông báo: "Tạo giao dịch rút tiền thành công."</t>
         </is>
       </c>
-      <c r="F216" s="29" t="inlineStr">
-        <is>
-          <t>Tạo giao dịch rút tiền thành công.</t>
-        </is>
-      </c>
-      <c r="G216" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F216" s="29" t="inlineStr"/>
+      <c r="G216" s="4" t="inlineStr"/>
       <c r="H216" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23441,16 +22624,8 @@
           <t>Chuyển đến trang: "3.4 Xác nhận giao dịch"</t>
         </is>
       </c>
-      <c r="F219" s="15" t="inlineStr">
-        <is>
-          <t>3.4 Xác nhận giao dịch</t>
-        </is>
-      </c>
-      <c r="G219" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F219" s="15" t="inlineStr"/>
+      <c r="G219" s="4" t="inlineStr"/>
       <c r="H219" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23573,16 +22748,8 @@
           <t>Trường " Tài khoản lái xe" hiển thị đúng tên lái xe đã nhập</t>
         </is>
       </c>
-      <c r="F222" s="29" t="inlineStr">
-        <is>
-          <t>batonnt1</t>
-        </is>
-      </c>
-      <c r="G222" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F222" s="29" t="inlineStr"/>
+      <c r="G222" s="4" t="inlineStr"/>
       <c r="H222" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23621,16 +22788,8 @@
           <t>Hiện không có trường SDT nên sẽ hiển thị Tài khoản lái xe là: "batonnt1"</t>
         </is>
       </c>
-      <c r="F223" s="29" t="inlineStr">
-        <is>
-          <t>0837393453</t>
-        </is>
-      </c>
-      <c r="G223" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F223" s="29" t="inlineStr"/>
+      <c r="G223" s="4" t="inlineStr"/>
       <c r="H223" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23705,16 +22864,8 @@
           <t>Mở popup: "VÍ LÁI XE"</t>
         </is>
       </c>
-      <c r="F225" s="29" t="inlineStr">
-        <is>
-          <t>VÍ LÁI XE</t>
-        </is>
-      </c>
-      <c r="G225" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F225" s="29" t="inlineStr"/>
+      <c r="G225" s="4" t="inlineStr"/>
       <c r="H225" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23751,16 +22902,8 @@
 2. Hiển thị lịch sử mã giao dịch</t>
         </is>
       </c>
-      <c r="F226" s="29" t="inlineStr">
-        <is>
-          <t>Chuyển tới trang: 3.11 Lịch sử thanh toán</t>
-        </is>
-      </c>
-      <c r="G226" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F226" s="29" t="inlineStr"/>
+      <c r="G226" s="4" t="inlineStr"/>
       <c r="H226" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23796,16 +22939,8 @@
           <t>Hiển thị message: "Xác nhận thành công."</t>
         </is>
       </c>
-      <c r="F227" s="29" t="inlineStr">
-        <is>
-          <t>Xác nhận thành công.</t>
-        </is>
-      </c>
-      <c r="G227" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F227" s="29" t="inlineStr"/>
+      <c r="G227" s="4" t="inlineStr"/>
       <c r="H227" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23841,16 +22976,8 @@
           <t>Hiển thị message: "Hủy giao dịch thành công."</t>
         </is>
       </c>
-      <c r="F228" s="29" t="inlineStr">
-        <is>
-          <t>Hủy giao dịch thành công.</t>
-        </is>
-      </c>
-      <c r="G228" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F228" s="29" t="inlineStr"/>
+      <c r="G228" s="4" t="inlineStr"/>
       <c r="H228" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23925,16 +23052,8 @@
           <t>Chuyển đến trang: "3.5 Lịch sử ví tiền"</t>
         </is>
       </c>
-      <c r="F231" s="15" t="inlineStr">
-        <is>
-          <t>3.5 Lịch sử ví tiền</t>
-        </is>
-      </c>
-      <c r="G231" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F231" s="15" t="inlineStr"/>
+      <c r="G231" s="4" t="inlineStr"/>
       <c r="H231" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24017,16 +23136,8 @@
           <t>Trường "Tên lái xe" hiện thị đúng với "Tên lái xe" đã nhập</t>
         </is>
       </c>
-      <c r="F233" s="29" t="inlineStr">
-        <is>
-          <t>batonnt1</t>
-        </is>
-      </c>
-      <c r="G233" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F233" s="29" t="inlineStr"/>
+      <c r="G233" s="4" t="inlineStr"/>
       <c r="H233" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24512,11 +23623,7 @@
         </is>
       </c>
       <c r="F245" s="29" t="inlineStr"/>
-      <c r="G245" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G245" s="4" t="inlineStr"/>
       <c r="H245" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24526,11 +23633,7 @@
       <c r="J245" s="2" t="n"/>
       <c r="K245" s="6" t="n"/>
       <c r="L245" s="2" t="n"/>
-      <c r="M245" s="42" t="inlineStr">
-        <is>
-          <t>Wallet38_LichSuViTien_ChiTiet.png</t>
-        </is>
-      </c>
+      <c r="M245" s="42" t="inlineStr"/>
       <c r="N245" s="42" t="n"/>
     </row>
     <row r="246" ht="75" customHeight="1">
@@ -24688,16 +23791,8 @@
           <t>Chuyển đến trang: "6.1 Danh sách khuyến mại"</t>
         </is>
       </c>
-      <c r="F251" s="15" t="inlineStr">
-        <is>
-          <t>6.1 Danh sách khuyến mại</t>
-        </is>
-      </c>
-      <c r="G251" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F251" s="15" t="inlineStr"/>
+      <c r="G251" s="4" t="inlineStr"/>
       <c r="H251" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24780,16 +23875,8 @@
           <t>Trường "Tên khuyến mại" hiện thị "Tên khuyến mại "giống với dữ liệu đã nhập"</t>
         </is>
       </c>
-      <c r="F253" s="29" t="inlineStr">
-        <is>
-          <t>Auto_KM_Chung3147</t>
-        </is>
-      </c>
-      <c r="G253" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F253" s="29" t="inlineStr"/>
+      <c r="G253" s="4" t="inlineStr"/>
       <c r="H253" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25398,16 +24485,8 @@
           <t>Chuyển đến trang: "6.2 Danh sách tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F268" s="15" t="inlineStr">
-        <is>
-          <t>6.2 Danh sách tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G268" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F268" s="15" t="inlineStr"/>
+      <c r="G268" s="4" t="inlineStr"/>
       <c r="H268" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25500,16 +24579,8 @@
           <t>Trường "Tài khoản" hiện thị: "0913233801"</t>
         </is>
       </c>
-      <c r="F270" s="29" t="inlineStr">
-        <is>
-          <t>03596672293</t>
-        </is>
-      </c>
-      <c r="G270" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F270" s="29" t="inlineStr"/>
+      <c r="G270" s="4" t="inlineStr"/>
       <c r="H270" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25740,16 +24811,8 @@
 (Tài khoản thêm mới ở ghi chú)</t>
         </is>
       </c>
-      <c r="F275" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G275" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F275" s="29" t="inlineStr"/>
+      <c r="G275" s="4" t="inlineStr"/>
       <c r="H275" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25800,16 +24863,8 @@
 (Tài khoản thêm mới ở ghi chú)</t>
         </is>
       </c>
-      <c r="F276" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G276" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F276" s="29" t="inlineStr"/>
+      <c r="G276" s="4" t="inlineStr"/>
       <c r="H276" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25856,16 +24911,8 @@
 </t>
         </is>
       </c>
-      <c r="F277" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G277" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F277" s="29" t="inlineStr"/>
+      <c r="G277" s="4" t="inlineStr"/>
       <c r="H277" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25906,16 +24953,8 @@
           <t>Hiển thị messsage: "Xóa tài khoản giới thiệu thành công."</t>
         </is>
       </c>
-      <c r="F278" s="29" t="inlineStr">
-        <is>
-          <t>Xóa tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G278" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F278" s="29" t="inlineStr"/>
+      <c r="G278" s="4" t="inlineStr"/>
       <c r="H278" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26011,16 +25050,8 @@
           <t>Chuyển đến trang: "6.3.1 Cài app mới"</t>
         </is>
       </c>
-      <c r="F282" s="29" t="inlineStr">
-        <is>
-          <t>6.3.1 Cài app mới</t>
-        </is>
-      </c>
-      <c r="G282" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F282" s="29" t="inlineStr"/>
+      <c r="G282" s="4" t="inlineStr"/>
       <c r="H282" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26062,16 +25093,8 @@
           <t>Trường "Tên khuyến mại" hiện thị: Đúng "Tên" đã nhập</t>
         </is>
       </c>
-      <c r="F283" s="29" t="inlineStr">
-        <is>
-          <t>KM cài app mới 1523</t>
-        </is>
-      </c>
-      <c r="G283" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F283" s="29" t="inlineStr"/>
+      <c r="G283" s="4" t="inlineStr"/>
       <c r="H283" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26348,16 +25371,8 @@
           <t>Chuyển đến trang: "6.4.1 BC tổng hợp KM theo công ty"</t>
         </is>
       </c>
-      <c r="F291" s="29" t="inlineStr">
-        <is>
-          <t>6.4.1 BC tổng hợp KM theo công ty</t>
-        </is>
-      </c>
-      <c r="G291" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F291" s="29" t="inlineStr"/>
+      <c r="G291" s="4" t="inlineStr"/>
       <c r="H291" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26396,16 +25411,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Công ty, Mã KM, Tên KM, Phải thu, Phải trả, Chi tiết.</t>
         </is>
       </c>
-      <c r="F292" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi Hà Nội</t>
-        </is>
-      </c>
-      <c r="G292" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F292" s="29" t="inlineStr"/>
+      <c r="G292" s="4" t="inlineStr"/>
       <c r="H292" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26444,11 +25451,7 @@
         </is>
       </c>
       <c r="F293" s="29" t="inlineStr"/>
-      <c r="G293" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G293" s="4" t="inlineStr"/>
       <c r="H293" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26835,16 +25838,8 @@
           <t>Chuyển đến trang: "6.4.4 BC KM theo tháng"</t>
         </is>
       </c>
-      <c r="F306" s="29" t="inlineStr">
-        <is>
-          <t>6.4.4 BC KM theo tháng</t>
-        </is>
-      </c>
-      <c r="G306" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F306" s="29" t="inlineStr"/>
+      <c r="G306" s="4" t="inlineStr"/>
       <c r="H306" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26883,16 +25878,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Tên khuyến mại, Tổng tiền đã khuyến mại, Tổng số khuyến mại đã sử dụng, Tháng/Năm.</t>
         </is>
       </c>
-      <c r="F307" s="29" t="inlineStr">
-        <is>
-          <t>Km 30k</t>
-        </is>
-      </c>
-      <c r="G307" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F307" s="29" t="inlineStr"/>
+      <c r="G307" s="4" t="inlineStr"/>
       <c r="H307" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26931,11 +25918,7 @@
         </is>
       </c>
       <c r="F308" s="29" t="inlineStr"/>
-      <c r="G308" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G308" s="4" t="inlineStr"/>
       <c r="H308" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27799,16 +26782,8 @@
           <t>Chuyển đến trang: "6.11 Danh sách loại tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F336" s="15" t="inlineStr">
-        <is>
-          <t>6.11 Danh sách loại tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G336" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F336" s="15" t="inlineStr"/>
+      <c r="G336" s="4" t="inlineStr"/>
       <c r="H336" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28009,16 +26984,8 @@
           <t>Chuyển đến trang: "6.12 Danh sách nhóm tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F342" s="15" t="inlineStr">
-        <is>
-          <t>6.12 Danh sách nhóm tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G342" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F342" s="15" t="inlineStr"/>
+      <c r="G342" s="4" t="inlineStr"/>
       <c r="H342" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28241,16 +27208,8 @@
           <t>Chuyển đến trang: "7.1 Danh sách khách hàng"</t>
         </is>
       </c>
-      <c r="F349" s="15" t="inlineStr">
-        <is>
-          <t>7.1 Danh sách khách hàng</t>
-        </is>
-      </c>
-      <c r="G349" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F349" s="15" t="inlineStr"/>
+      <c r="G349" s="4" t="inlineStr"/>
       <c r="H349" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28335,16 +27294,8 @@
  "Trần Hà Miên"</t>
         </is>
       </c>
-      <c r="F351" s="29" t="inlineStr">
-        <is>
-          <t>tr</t>
-        </is>
-      </c>
-      <c r="G351" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F351" s="29" t="inlineStr"/>
+      <c r="G351" s="4" t="inlineStr"/>
       <c r="H351" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -29015,16 +27966,8 @@
           <t>Chuyển đến trang: "7.7.1 Đối tác"</t>
         </is>
       </c>
-      <c r="F370" s="29" t="inlineStr">
-        <is>
-          <t>7.7.1 Đối tác</t>
-        </is>
-      </c>
-      <c r="G370" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F370" s="29" t="inlineStr"/>
+      <c r="G370" s="4" t="inlineStr"/>
       <c r="H370" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29067,16 +28010,8 @@
           <t>Trường "Tên đối tác" hiện thị: Phòng Marketing - Sale</t>
         </is>
       </c>
-      <c r="F371" s="29" t="inlineStr">
-        <is>
-          <t>TUSINHTUAPP</t>
-        </is>
-      </c>
-      <c r="G371" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F371" s="29" t="inlineStr"/>
+      <c r="G371" s="4" t="inlineStr"/>
       <c r="H371" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29358,16 +28293,8 @@
           <t>Chuyển đến trang: "7.7.2 Hợp đồng"</t>
         </is>
       </c>
-      <c r="F379" s="29" t="inlineStr">
-        <is>
-          <t>7.7.2 Hợp đồng</t>
-        </is>
-      </c>
-      <c r="G379" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F379" s="29" t="inlineStr"/>
+      <c r="G379" s="4" t="inlineStr"/>
       <c r="H379" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29410,16 +28337,8 @@
           <t>Trường "Mã hợp đồng" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F380" s="29" t="inlineStr">
-        <is>
-          <t>THAODTP3333</t>
-        </is>
-      </c>
-      <c r="G380" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F380" s="29" t="inlineStr"/>
+      <c r="G380" s="4" t="inlineStr"/>
       <c r="H380" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29595,16 +28514,8 @@
 </t>
         </is>
       </c>
-      <c r="F384" s="29" t="inlineStr">
-        <is>
-          <t>Thêm mới hợp đồng thành công</t>
-        </is>
-      </c>
-      <c r="G384" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F384" s="29" t="inlineStr"/>
+      <c r="G384" s="4" t="inlineStr"/>
       <c r="H384" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29723,16 +28634,8 @@
 </t>
         </is>
       </c>
-      <c r="F387" s="29" t="inlineStr">
-        <is>
-          <t>Xóa hợp đồng thành công</t>
-        </is>
-      </c>
-      <c r="G387" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F387" s="29" t="inlineStr"/>
+      <c r="G387" s="4" t="inlineStr"/>
       <c r="H387" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29807,16 +28710,8 @@
           <t>Chuyển đến trang: "7.7.3 Quản lý thẻ"</t>
         </is>
       </c>
-      <c r="F390" s="29" t="inlineStr">
-        <is>
-          <t>7.7.3 Quản lý thẻ</t>
-        </is>
-      </c>
-      <c r="G390" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F390" s="29" t="inlineStr"/>
+      <c r="G390" s="4" t="inlineStr"/>
       <c r="H390" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29899,16 +28794,8 @@
           <t>Trường "Số ĐT" hiện thị: 0972284850</t>
         </is>
       </c>
-      <c r="F392" s="29" t="inlineStr">
-        <is>
-          <t>0999999998</t>
-        </is>
-      </c>
-      <c r="G392" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F392" s="29" t="inlineStr"/>
+      <c r="G392" s="4" t="inlineStr"/>
       <c r="H392" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29918,11 +28805,7 @@
       <c r="J392" s="2" t="n"/>
       <c r="K392" s="2" t="n"/>
       <c r="L392" s="2" t="n"/>
-      <c r="M392" s="42" t="inlineStr">
-        <is>
-          <t>Customer34_QuanLyThe_SoDienThoai.png</t>
-        </is>
-      </c>
+      <c r="M392" s="42" t="inlineStr"/>
       <c r="N392" s="42" t="n"/>
     </row>
     <row r="393" ht="41.25" customHeight="1">
@@ -29991,16 +28874,8 @@
           <t>Trường " Tên khách hàng" hiện thị: Thái Dương Hoa</t>
         </is>
       </c>
-      <c r="F394" s="29" t="inlineStr">
-        <is>
-          <t>SEC_122346</t>
-        </is>
-      </c>
-      <c r="G394" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F394" s="29" t="inlineStr"/>
+      <c r="G394" s="4" t="inlineStr"/>
       <c r="H394" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30520,16 +29395,8 @@
 </t>
         </is>
       </c>
-      <c r="F407" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thông tin thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G407" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F407" s="29" t="inlineStr"/>
+      <c r="G407" s="4" t="inlineStr"/>
       <c r="H407" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30572,16 +29439,8 @@
 </t>
         </is>
       </c>
-      <c r="F408" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thông tin thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G408" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F408" s="29" t="inlineStr"/>
+      <c r="G408" s="4" t="inlineStr"/>
       <c r="H408" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30617,16 +29476,8 @@
           <t>Mở popup: "MÃ QRCODE"</t>
         </is>
       </c>
-      <c r="F409" s="29" t="inlineStr">
-        <is>
-          <t>MÃ QRCODE</t>
-        </is>
-      </c>
-      <c r="G409" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F409" s="29" t="inlineStr"/>
+      <c r="G409" s="4" t="inlineStr"/>
       <c r="H409" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30665,16 +29516,8 @@
 </t>
         </is>
       </c>
-      <c r="F410" s="29" t="inlineStr">
-        <is>
-          <t>Khóa thẻ thành công!</t>
-        </is>
-      </c>
-      <c r="G410" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F410" s="29" t="inlineStr"/>
+      <c r="G410" s="4" t="inlineStr"/>
       <c r="H410" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30712,16 +29555,8 @@
 </t>
         </is>
       </c>
-      <c r="F411" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa thẻ thành công!</t>
-        </is>
-      </c>
-      <c r="G411" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F411" s="29" t="inlineStr"/>
+      <c r="G411" s="4" t="inlineStr"/>
       <c r="H411" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30841,16 +29676,8 @@
 </t>
         </is>
       </c>
-      <c r="F414" s="29" t="inlineStr">
-        <is>
-          <t>Kích hoạt thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G414" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F414" s="29" t="inlineStr"/>
+      <c r="G414" s="4" t="inlineStr"/>
       <c r="H414" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30888,16 +29715,8 @@
 </t>
         </is>
       </c>
-      <c r="F415" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G415" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F415" s="29" t="inlineStr"/>
+      <c r="G415" s="4" t="inlineStr"/>
       <c r="H415" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30988,16 +29807,8 @@
 </t>
         </is>
       </c>
-      <c r="F417" s="29" t="inlineStr">
-        <is>
-          <t>Cấp thẻ dùng 1 lần</t>
-        </is>
-      </c>
-      <c r="G417" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F417" s="29" t="inlineStr"/>
+      <c r="G417" s="4" t="inlineStr"/>
       <c r="H417" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -31994,16 +30805,8 @@
           <t>Chuyển đến trang: "7.7.12 Báo cáo cuốc đi thẻ theo lái xe"</t>
         </is>
       </c>
-      <c r="F446" s="29" t="inlineStr">
-        <is>
-          <t>7.7.12 Báo cáo cuốc đi thẻ theo lái xe</t>
-        </is>
-      </c>
-      <c r="G446" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F446" s="29" t="inlineStr"/>
+      <c r="G446" s="4" t="inlineStr"/>
       <c r="H446" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32049,16 +30852,8 @@
 (Hiển thị Mã lái xe)</t>
         </is>
       </c>
-      <c r="F447" s="29" t="inlineStr">
-        <is>
-          <t>9999209984075597</t>
-        </is>
-      </c>
-      <c r="G447" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F447" s="29" t="inlineStr"/>
+      <c r="G447" s="4" t="inlineStr"/>
       <c r="H447" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32097,11 +30892,7 @@
         </is>
       </c>
       <c r="F448" s="29" t="inlineStr"/>
-      <c r="G448" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G448" s="4" t="inlineStr"/>
       <c r="H448" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32137,16 +30928,8 @@
           <t>Hiện thị thông báo: "Cập nhật thành công!"</t>
         </is>
       </c>
-      <c r="F449" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thành công!</t>
-        </is>
-      </c>
-      <c r="G449" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F449" s="29" t="inlineStr"/>
+      <c r="G449" s="4" t="inlineStr"/>
       <c r="H449" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32379,16 +31162,8 @@
           <t>Chuyển đến trang: "7.7.14 Báo cáo giao dịch thẻ"</t>
         </is>
       </c>
-      <c r="F457" s="29" t="inlineStr">
-        <is>
-          <t>7.7.14 Báo cáo giao dịch thẻ</t>
-        </is>
-      </c>
-      <c r="G457" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F457" s="29" t="inlineStr"/>
+      <c r="G457" s="4" t="inlineStr"/>
       <c r="H457" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33207,16 +31982,8 @@
           <t>Chuyển đến trang: "8.1.0 Báo cáo cuốc khách tổng"</t>
         </is>
       </c>
-      <c r="F476" s="29" t="inlineStr">
-        <is>
-          <t>8.1.0 Báo cáo cuốc khách tổng</t>
-        </is>
-      </c>
-      <c r="G476" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F476" s="29" t="inlineStr"/>
+      <c r="G476" s="4" t="inlineStr"/>
       <c r="H476" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33263,16 +32030,8 @@
 (Hiển thị Mã Cuốc Khách)</t>
         </is>
       </c>
-      <c r="F477" s="29" t="inlineStr">
-        <is>
-          <t>001180B9</t>
-        </is>
-      </c>
-      <c r="G477" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F477" s="29" t="inlineStr"/>
+      <c r="G477" s="4" t="inlineStr"/>
       <c r="H477" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33312,11 +32071,7 @@
         </is>
       </c>
       <c r="F478" s="29" t="inlineStr"/>
-      <c r="G478" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G478" s="4" t="inlineStr"/>
       <c r="H478" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33354,16 +32109,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F479" s="29" t="inlineStr">
-        <is>
-          <t>_BaoCaoCuocKhachTong_ExcelFull.xlsx</t>
-        </is>
-      </c>
-      <c r="G479" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F479" s="29" t="inlineStr"/>
+      <c r="G479" s="4" t="inlineStr"/>
       <c r="H479" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33459,16 +32206,8 @@
           <t>Chuyển đến trang: "8.1.1 Tổng cuốc khách"</t>
         </is>
       </c>
-      <c r="F483" s="29" t="inlineStr">
-        <is>
-          <t>8.1.1 Tổng cuốc khách</t>
-        </is>
-      </c>
-      <c r="G483" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F483" s="29" t="inlineStr"/>
+      <c r="G483" s="4" t="inlineStr"/>
       <c r="H483" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33509,16 +32248,8 @@
 (Hiển thị Ngày)</t>
         </is>
       </c>
-      <c r="F484" s="29" t="inlineStr">
-        <is>
-          <t>28/10/2025</t>
-        </is>
-      </c>
-      <c r="G484" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F484" s="29" t="inlineStr"/>
+      <c r="G484" s="4" t="inlineStr"/>
       <c r="H484" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33555,16 +32286,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F485" s="29" t="inlineStr">
-        <is>
-          <t>_TongCuocKhach.xls</t>
-        </is>
-      </c>
-      <c r="G485" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F485" s="29" t="inlineStr"/>
+      <c r="G485" s="4" t="inlineStr"/>
       <c r="H485" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33601,28 +32324,8 @@
           <t>Số lượng cuốc mỗi nguồn = Số lương cuốc màn chi tiết</t>
         </is>
       </c>
-      <c r="F486" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-</t>
-        </is>
-      </c>
-      <c r="G486" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F486" s="29" t="inlineStr"/>
+      <c r="G486" s="4" t="inlineStr"/>
       <c r="H486" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33659,28 +32362,8 @@
           <t>Số lượng cuốc mỗi nguồn = Số lương cuốc màn chi tiết</t>
         </is>
       </c>
-      <c r="F487" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None, 6/6
-, None, 3/3
-, None, 0/0
-, None, 3/3
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 1/1
-, None, 5/5
-, None, 0/0
-</t>
-        </is>
-      </c>
-      <c r="G487" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F487" s="29" t="inlineStr"/>
+      <c r="G487" s="4" t="inlineStr"/>
       <c r="H487" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34384,16 +33067,8 @@
           <t>Chuyển đến trang: "THỐNG KÊ CHI TIẾT CUỐC KHÁCH"</t>
         </is>
       </c>
-      <c r="F510" s="29" t="inlineStr">
-        <is>
-          <t>THỐNG KÊ CHI TIẾT CUỐC KHÁCH</t>
-        </is>
-      </c>
-      <c r="G510" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F510" s="29" t="inlineStr"/>
+      <c r="G510" s="4" t="inlineStr"/>
       <c r="H510" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34439,16 +33114,8 @@
 (Hiển thị Nguồn)</t>
         </is>
       </c>
-      <c r="F511" s="29" t="inlineStr">
-        <is>
-          <t>Nguồn vãng lai</t>
-        </is>
-      </c>
-      <c r="G511" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F511" s="29" t="inlineStr"/>
+      <c r="G511" s="4" t="inlineStr"/>
       <c r="H511" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34487,11 +33154,7 @@
         </is>
       </c>
       <c r="F512" s="29" t="inlineStr"/>
-      <c r="G512" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G512" s="4" t="inlineStr"/>
       <c r="H512" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34567,16 +33230,8 @@
           <t>Chuyển đến trang: "8.1.11 Thống kê cuốc khách theo lái xe "</t>
         </is>
       </c>
-      <c r="F515" s="29" t="inlineStr">
-        <is>
-          <t>8.1.11 Thống kê cuốc khách theo lái xe</t>
-        </is>
-      </c>
-      <c r="G515" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F515" s="29" t="inlineStr"/>
+      <c r="G515" s="4" t="inlineStr"/>
       <c r="H515" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34619,16 +33274,8 @@
 (Hiển thị Lái xe)</t>
         </is>
       </c>
-      <c r="F516" s="29" t="inlineStr">
-        <is>
-          <t>batrinh209a</t>
-        </is>
-      </c>
-      <c r="G516" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F516" s="29" t="inlineStr"/>
+      <c r="G516" s="4" t="inlineStr"/>
       <c r="H516" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34667,11 +33314,7 @@
         </is>
       </c>
       <c r="F517" s="29" t="inlineStr"/>
-      <c r="G517" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G517" s="4" t="inlineStr"/>
       <c r="H517" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35918,16 +34561,8 @@
           <t>Chuyển đến trang: "8.4.1 Báo cáo doanh thu theo lái xe"</t>
         </is>
       </c>
-      <c r="F557" s="29" t="inlineStr">
-        <is>
-          <t>8.4.1 Báo cáo doanh thu theo lái xe</t>
-        </is>
-      </c>
-      <c r="G557" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F557" s="29" t="inlineStr"/>
+      <c r="G557" s="4" t="inlineStr"/>
       <c r="H557" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35967,16 +34602,8 @@
 (Hiển thị Tên lái xe)</t>
         </is>
       </c>
-      <c r="F558" s="29" t="inlineStr">
-        <is>
-          <t>Bui Văn Du</t>
-        </is>
-      </c>
-      <c r="G558" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F558" s="29" t="inlineStr"/>
+      <c r="G558" s="4" t="inlineStr"/>
       <c r="H558" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36013,16 +34640,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F559" s="29" t="inlineStr">
-        <is>
-          <t>_BaoCaoDoanhThuTheoLaiXe.xlsx</t>
-        </is>
-      </c>
-      <c r="G559" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F559" s="29" t="inlineStr"/>
+      <c r="G559" s="4" t="inlineStr"/>
       <c r="H559" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36098,16 +34717,8 @@
           <t>Chuyển đến trang: "8.4.2 Chi tiết doanh thu từ app lái xe &amp; định vị"</t>
         </is>
       </c>
-      <c r="F562" s="4" t="inlineStr">
-        <is>
-          <t>8.4.2 Chi tiết doanh thu từ app lái xe &amp; định vị</t>
-        </is>
-      </c>
-      <c r="G562" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F562" s="4" t="inlineStr"/>
+      <c r="G562" s="4" t="inlineStr"/>
       <c r="H562" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36152,16 +34763,8 @@
 (Hiển thị Nguồn cuốc)</t>
         </is>
       </c>
-      <c r="F563" s="29" t="inlineStr">
-        <is>
-          <t>Taxi thông thường</t>
-        </is>
-      </c>
-      <c r="G563" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F563" s="29" t="inlineStr"/>
+      <c r="G563" s="4" t="inlineStr"/>
       <c r="H563" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36198,16 +34801,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F564" s="26" t="inlineStr">
-        <is>
-          <t>_ChiTietDoanhThuTuApp.xlsx</t>
-        </is>
-      </c>
-      <c r="G564" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F564" s="26" t="inlineStr"/>
+      <c r="G564" s="4" t="inlineStr"/>
       <c r="H564" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36244,16 +34839,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F565" s="29" t="inlineStr">
-        <is>
-          <t>_ChiTietDoanhThuTuApp_Full.xlsx</t>
-        </is>
-      </c>
-      <c r="G565" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F565" s="29" t="inlineStr"/>
+      <c r="G565" s="4" t="inlineStr"/>
       <c r="H565" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36329,16 +34916,8 @@
           <t>Chuyển đến trang: "8.4.3 Thanh toán cuốc khách cho lái xe"</t>
         </is>
       </c>
-      <c r="F568" s="29" t="inlineStr">
-        <is>
-          <t>8.4.3 Thanh toán cuốc khách cho lái xe</t>
-        </is>
-      </c>
-      <c r="G568" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F568" s="29" t="inlineStr"/>
+      <c r="G568" s="4" t="inlineStr"/>
       <c r="H568" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36379,16 +34958,8 @@
 (Hiển thị Tên lái xe)</t>
         </is>
       </c>
-      <c r="F569" s="29" t="inlineStr">
-        <is>
-          <t>batrinh209a</t>
-        </is>
-      </c>
-      <c r="G569" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F569" s="29" t="inlineStr"/>
+      <c r="G569" s="4" t="inlineStr"/>
       <c r="H569" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36427,11 +34998,7 @@
         </is>
       </c>
       <c r="F570" s="29" t="inlineStr"/>
-      <c r="G570" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G570" s="4" t="inlineStr"/>
       <c r="H570" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36988,16 +35555,8 @@
           <t>Chuyển đến trang: "8.4.7 Chi tiết doanh thu từ app lái xe"</t>
         </is>
       </c>
-      <c r="F588" s="29" t="inlineStr">
-        <is>
-          <t>8.4.7 Chi tiết doanh thu từ app lái xe</t>
-        </is>
-      </c>
-      <c r="G588" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F588" s="29" t="inlineStr"/>
+      <c r="G588" s="4" t="inlineStr"/>
       <c r="H588" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -37041,16 +35600,8 @@
 (Hiển thị Biển số)</t>
         </is>
       </c>
-      <c r="F589" s="29" t="inlineStr">
-        <is>
-          <t>hoalt209</t>
-        </is>
-      </c>
-      <c r="G589" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F589" s="29" t="inlineStr"/>
+      <c r="G589" s="4" t="inlineStr"/>
       <c r="H589" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -37089,11 +35640,7 @@
         </is>
       </c>
       <c r="F590" s="29" t="inlineStr"/>
-      <c r="G590" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G590" s="4" t="inlineStr"/>
       <c r="H590" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -38069,16 +36616,8 @@
           <t>Chuyển đến trang: "10.1.1 Danh sách bộ phương pháp điều xe"</t>
         </is>
       </c>
-      <c r="F624" s="29" t="inlineStr">
-        <is>
-          <t>10.1.1 Danh sách bộ phương pháp điều xe</t>
-        </is>
-      </c>
-      <c r="G624" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F624" s="29" t="inlineStr"/>
+      <c r="G624" s="4" t="inlineStr"/>
       <c r="H624" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -38318,16 +36857,8 @@
           <t>Chuyển đến trang: "10.3.1 Thông tin công ty "</t>
         </is>
       </c>
-      <c r="F633" s="29" t="inlineStr">
-        <is>
-          <t>10.3.1 Thông tin công ty</t>
-        </is>
-      </c>
-      <c r="G633" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F633" s="29" t="inlineStr"/>
+      <c r="G633" s="4" t="inlineStr"/>
       <c r="H633" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38385,16 +36916,8 @@
           <t>Hiển thị message: "Cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F634" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thành công.</t>
-        </is>
-      </c>
-      <c r="G634" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F634" s="29" t="inlineStr"/>
+      <c r="G634" s="4" t="inlineStr"/>
       <c r="H634" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38441,16 +36964,8 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ lái xe thành công."</t>
         </is>
       </c>
-      <c r="F635" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật phiên bản đồng bộ lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G635" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F635" s="29" t="inlineStr"/>
+      <c r="G635" s="4" t="inlineStr"/>
       <c r="H635" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38496,16 +37011,8 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ khách hàng thành công."</t>
         </is>
       </c>
-      <c r="F636" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật phiên bản đồng bộ khách hàng thành công.</t>
-        </is>
-      </c>
-      <c r="G636" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F636" s="29" t="inlineStr"/>
+      <c r="G636" s="4" t="inlineStr"/>
       <c r="H636" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38618,16 +37125,8 @@
           <t>Chuyển đến trang: "10.3.4 Quản trị nhóm đội"</t>
         </is>
       </c>
-      <c r="F640" s="29" t="inlineStr">
-        <is>
-          <t>10.3.4 Quản trị nhóm đội</t>
-        </is>
-      </c>
-      <c r="G640" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F640" s="29" t="inlineStr"/>
+      <c r="G640" s="4" t="inlineStr"/>
       <c r="H640" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38665,16 +37164,8 @@
           <t>Trường "Tên nhóm" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F641" s="29" t="inlineStr">
-        <is>
-          <t>nhóm 1</t>
-        </is>
-      </c>
-      <c r="G641" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F641" s="29" t="inlineStr"/>
+      <c r="G641" s="4" t="inlineStr"/>
       <c r="H641" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38712,16 +37203,8 @@
           <t>Trường "Tên hiển thị" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F642" s="29" t="inlineStr">
-        <is>
-          <t>nhóm 1</t>
-        </is>
-      </c>
-      <c r="G642" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F642" s="29" t="inlineStr"/>
+      <c r="G642" s="4" t="inlineStr"/>
       <c r="H642" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39034,16 +37517,8 @@
           <t>Chuyển đến trang: "10.3.5 Quản trị tên xe"</t>
         </is>
       </c>
-      <c r="F651" s="29" t="inlineStr">
-        <is>
-          <t>10.3.5 Quản trị tên xe</t>
-        </is>
-      </c>
-      <c r="G651" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F651" s="29" t="inlineStr"/>
+      <c r="G651" s="4" t="inlineStr"/>
       <c r="H651" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39276,16 +37751,8 @@
           <t>Chuyển đến trang: "10.3.6 Quản trị loại xe"</t>
         </is>
       </c>
-      <c r="F658" s="29" t="inlineStr">
-        <is>
-          <t>10.3.6 Quản trị loại xe</t>
-        </is>
-      </c>
-      <c r="G658" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F658" s="29" t="inlineStr"/>
+      <c r="G658" s="4" t="inlineStr"/>
       <c r="H658" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39655,16 +38122,8 @@
           <t>Chuyển đến trang: "10.5.5 Danh sách tài khoản"</t>
         </is>
       </c>
-      <c r="F668" s="29" t="inlineStr">
-        <is>
-          <t>10.5.5 Danh sách tài khoản</t>
-        </is>
-      </c>
-      <c r="G668" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F668" s="29" t="inlineStr"/>
+      <c r="G668" s="4" t="inlineStr"/>
       <c r="H668" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39704,16 +38163,8 @@
           <t>Trường "Tên tài khoản" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F669" s="29" t="inlineStr">
-        <is>
-          <t>auto2363</t>
-        </is>
-      </c>
-      <c r="G669" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F669" s="29" t="inlineStr"/>
+      <c r="G669" s="4" t="inlineStr"/>
       <c r="H669" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39800,16 +38251,8 @@
 (Tài khoản ở mục Ghi chú)</t>
         </is>
       </c>
-      <c r="F671" s="29" t="inlineStr">
-        <is>
-          <t>Tài khoản đã tạo thành công</t>
-        </is>
-      </c>
-      <c r="G671" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F671" s="29" t="inlineStr"/>
+      <c r="G671" s="4" t="inlineStr"/>
       <c r="H671" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39850,16 +38293,8 @@
           <t>Hiển thị message: "Tài khoản đã thay đổi thành công"</t>
         </is>
       </c>
-      <c r="F672" s="29" t="inlineStr">
-        <is>
-          <t>Tài khoản đã thay đổi thành công</t>
-        </is>
-      </c>
-      <c r="G672" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F672" s="29" t="inlineStr"/>
+      <c r="G672" s="4" t="inlineStr"/>
       <c r="H672" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39901,16 +38336,8 @@
 3.Lấy mã kích hoạt mới &gt; "Mã kích hoạt được cập nhật thành công"</t>
         </is>
       </c>
-      <c r="F673" s="29" t="inlineStr">
-        <is>
-          <t>Mã kích hoạt được cập nhật thành công</t>
-        </is>
-      </c>
-      <c r="G673" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F673" s="29" t="inlineStr"/>
+      <c r="G673" s="4" t="inlineStr"/>
       <c r="H673" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39946,16 +38373,8 @@
           <t>Chuyển đến trang: "GÁN VAI TRÒ NGƯỜI DÙNG"</t>
         </is>
       </c>
-      <c r="F674" s="29" t="inlineStr">
-        <is>
-          <t>GÁN VAI TRÒ NGƯỜI DÙNG</t>
-        </is>
-      </c>
-      <c r="G674" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F674" s="29" t="inlineStr"/>
+      <c r="G674" s="4" t="inlineStr"/>
       <c r="H674" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39992,16 +38411,8 @@
 DANH SÁCH QUYỀN ĐƯỢC GÁN"</t>
         </is>
       </c>
-      <c r="F675" s="29" t="inlineStr">
-        <is>
-          <t>DANH SÁCH QUYỀN ĐƯỢC GÁN</t>
-        </is>
-      </c>
-      <c r="G675" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F675" s="29" t="inlineStr"/>
+      <c r="G675" s="4" t="inlineStr"/>
       <c r="H675" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40038,16 +38449,8 @@
           <t>Hiển thị message: "Tài khoản đã thay đổi thành công."</t>
         </is>
       </c>
-      <c r="F676" s="29" t="inlineStr">
-        <is>
-          <t>Tài khoản đã thay đổi thành công.</t>
-        </is>
-      </c>
-      <c r="G676" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F676" s="29" t="inlineStr"/>
+      <c r="G676" s="4" t="inlineStr"/>
       <c r="H676" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40083,16 +38486,8 @@
           <t>Hiển thị message: "Khóa thành công."</t>
         </is>
       </c>
-      <c r="F677" s="29" t="inlineStr">
-        <is>
-          <t>Khóa thành công.</t>
-        </is>
-      </c>
-      <c r="G677" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F677" s="29" t="inlineStr"/>
+      <c r="G677" s="4" t="inlineStr"/>
       <c r="H677" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40128,16 +38523,8 @@
           <t>Hiển thị message: "Mở khóa thành công."</t>
         </is>
       </c>
-      <c r="F678" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa thành công.</t>
-        </is>
-      </c>
-      <c r="G678" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F678" s="29" t="inlineStr"/>
+      <c r="G678" s="4" t="inlineStr"/>
       <c r="H678" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40173,16 +38560,8 @@
           <t>Hiển thị message: "Xóa thành công."</t>
         </is>
       </c>
-      <c r="F679" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thành công.</t>
-        </is>
-      </c>
-      <c r="G679" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F679" s="29" t="inlineStr"/>
+      <c r="G679" s="4" t="inlineStr"/>
       <c r="H679" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40258,16 +38637,8 @@
           <t>Chuyển đến trang: "10.5.7 Lịch sử tài khoản"</t>
         </is>
       </c>
-      <c r="F682" s="29" t="inlineStr">
-        <is>
-          <t>10.5.7 Lịch sử tài khoản</t>
-        </is>
-      </c>
-      <c r="G682" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F682" s="29" t="inlineStr"/>
+      <c r="G682" s="4" t="inlineStr"/>
       <c r="H682" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40307,16 +38678,8 @@
           <t>Chuyển đến trang: "LỊCH SỬ HOẠT ĐỘNG"</t>
         </is>
       </c>
-      <c r="F683" s="29" t="inlineStr">
-        <is>
-          <t>LỊCH SỬ HOẠT ĐỘNG</t>
-        </is>
-      </c>
-      <c r="G683" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F683" s="29" t="inlineStr"/>
+      <c r="G683" s="4" t="inlineStr"/>
       <c r="H683" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40398,16 +38761,8 @@
           <t>Trường "Tên tài khoản" hiển thị: autoba</t>
         </is>
       </c>
-      <c r="F685" s="29" t="inlineStr">
-        <is>
-          <t>autoba</t>
-        </is>
-      </c>
-      <c r="G685" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F685" s="29" t="inlineStr"/>
+      <c r="G685" s="4" t="inlineStr"/>
       <c r="H685" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40618,16 +38973,8 @@
           <t>Chuyển đến trang: "10.6.1 Cấu hình lái xe"</t>
         </is>
       </c>
-      <c r="F692" s="29" t="inlineStr">
-        <is>
-          <t>10.6.1 Cấu hình lái xe</t>
-        </is>
-      </c>
-      <c r="G692" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F692" s="29" t="inlineStr"/>
+      <c r="G692" s="4" t="inlineStr"/>
       <c r="H692" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40664,20 +39011,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F693" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: WALLET
-Giá trị: {"isWallet":true, "min":20000, "isRecharge":true, "isDriverWallet":true, "isDriverRecharge": true,"isCreateCardTrip": true,"requiredPrice": 1, "RechargeType": 3}
-Kiểu dữ liệu: Kiểu chuỗi
-Ghi chú: {"isWallet":true =&gt; Hiện menu ví trên (Ví tài khoản) ,"min":50000, =&gt; Số tiền tối thiểu cho phép nạp "isRecharge":false, =&gt; Hiện nút nạp tiền ở màn hình ví trên hay không "isDriverWallet":true=&gt; Hiện menu ví dưới (Ví tiền mặt)</t>
-        </is>
-      </c>
-      <c r="G693" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F693" s="29" t="inlineStr"/>
+      <c r="G693" s="4" t="inlineStr"/>
       <c r="H693" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40753,16 +39088,8 @@
           <t>Chuyển đến trang: "10.6.2 Cấu hình khách hàng"</t>
         </is>
       </c>
-      <c r="F696" s="29" t="inlineStr">
-        <is>
-          <t>10.6.2 Cấu hình khách hàng</t>
-        </is>
-      </c>
-      <c r="G696" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F696" s="29" t="inlineStr"/>
+      <c r="G696" s="4" t="inlineStr"/>
       <c r="H696" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40799,21 +39126,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F697" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STT: 1
-Tên cấu hình: ZOOM_MAP
-Giá trị: {"android": 18, "iOS": 18, "minDistanceToMove": 15}
-Kiểu dữ liệu: Kiểu chuỗi
-Công ty: Cấu hình zoom mặc đinh ở màn hình home (Chỉ áp dụng cho app xamarin)
-Ghi chú: </t>
-        </is>
-      </c>
-      <c r="G697" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F697" s="29" t="inlineStr"/>
+      <c r="G697" s="4" t="inlineStr"/>
       <c r="H697" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40889,16 +39203,8 @@
           <t>Chuyển đến trang: "10.6.3 Cấu hình quản trị"</t>
         </is>
       </c>
-      <c r="F700" s="29" t="inlineStr">
-        <is>
-          <t>10.6.3 Cấu hình quản trị</t>
-        </is>
-      </c>
-      <c r="G700" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F700" s="29" t="inlineStr"/>
+      <c r="G700" s="4" t="inlineStr"/>
       <c r="H700" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40935,19 +39241,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F701" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: YEU_CAU_DOI_MAT_KHAU_THEO_CHU_KY
-Giá trị: False
-Ghi chú: Yêu cầu đổi mật khẩu theo chu kỳ</t>
-        </is>
-      </c>
-      <c r="G701" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F701" s="29" t="inlineStr"/>
+      <c r="G701" s="4" t="inlineStr"/>
       <c r="H701" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41023,16 +39318,8 @@
           <t>Chuyển đến trang: "10.6.4 Cấu hình server"</t>
         </is>
       </c>
-      <c r="F704" s="29" t="inlineStr">
-        <is>
-          <t>10.6.4 Cấu hình server</t>
-        </is>
-      </c>
-      <c r="G704" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F704" s="29" t="inlineStr"/>
+      <c r="G704" s="4" t="inlineStr"/>
       <c r="H704" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41069,19 +39356,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F705" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: YOUR_TRIP_DANG_DUOC_DIEU_HANH_HO_TRO_GOI_XE
-Giá trị: Điều hành đang hỗ trợ đặt xe cho bạn
-Ghi chú: Điều hành đang hỗ trợ đặt xe cho bạn</t>
-        </is>
-      </c>
-      <c r="G705" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F705" s="29" t="inlineStr"/>
+      <c r="G705" s="4" t="inlineStr"/>
       <c r="H705" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41698,16 +39974,8 @@
           <t>Chuyển đến trang: "10.6.10 Cấu hình hạng thẻ"</t>
         </is>
       </c>
-      <c r="F727" s="29" t="inlineStr">
-        <is>
-          <t>10.6.10 Cấu hình hạng thẻ</t>
-        </is>
-      </c>
-      <c r="G727" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F727" s="29" t="inlineStr"/>
+      <c r="G727" s="4" t="inlineStr"/>
       <c r="H727" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41744,19 +40012,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F728" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Loại thẻ: Hạng vàng
-Màu thẻ: #e3a7ff
-Ghi chú: Thẻ vàng (gold) là loại thẻ tín dụng có hạn mức cao từ trên 50.000.000 đồng, được cấp cho những khách hàng có năng lực tài chính tốt và độ uy tín tín dụng cao. Chủ sở hữu thẻ vàng có cơ hội nhận được nhiều tiện ích và ưu đãi hấp dẫn hơn so với các loại</t>
-        </is>
-      </c>
-      <c r="G728" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F728" s="29" t="inlineStr"/>
+      <c r="G728" s="4" t="inlineStr"/>
       <c r="H728" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41832,16 +40089,8 @@
           <t>Chuyển đến trang: "10.6.11 Kích hoạt dịch vụ"</t>
         </is>
       </c>
-      <c r="F731" s="29" t="inlineStr">
-        <is>
-          <t>10.6.11 Kích hoạt dịch vụ</t>
-        </is>
-      </c>
-      <c r="G731" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F731" s="29" t="inlineStr"/>
+      <c r="G731" s="4" t="inlineStr"/>
       <c r="H731" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41971,16 +40220,8 @@
           <t>Chuyển đến trang: "10.7.1 Quản trị thông báo lái xe"</t>
         </is>
       </c>
-      <c r="F736" s="29" t="inlineStr">
-        <is>
-          <t>10.7.1 Quản trị thông báo lái xe</t>
-        </is>
-      </c>
-      <c r="G736" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F736" s="29" t="inlineStr"/>
+      <c r="G736" s="4" t="inlineStr"/>
       <c r="H736" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42023,16 +40264,8 @@
           <t>Trường "Tiêu đề" hiện thị đúng "Tiêu đề" đã nhập</t>
         </is>
       </c>
-      <c r="F737" s="29" t="inlineStr">
-        <is>
-          <t>Cộng ví tiền mặt khi hoàn thành chuyến thanh toán thẻ. Số dư tài khoản: 498000đ</t>
-        </is>
-      </c>
-      <c r="G737" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F737" s="29" t="inlineStr"/>
+      <c r="G737" s="4" t="inlineStr"/>
       <c r="H737" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42622,16 +40855,8 @@
 (Thông báo tạo ở mục ghi chú)</t>
         </is>
       </c>
-      <c r="F752" s="56" t="inlineStr">
-        <is>
-          <t>Thông báo đã tạo thành công.</t>
-        </is>
-      </c>
-      <c r="G752" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F752" s="56" t="inlineStr"/>
+      <c r="G752" s="4" t="inlineStr"/>
       <c r="H752" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42672,16 +40897,8 @@
           <t>Hiển thị thông báo: "Thông báo đã được cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F753" s="29" t="inlineStr">
-        <is>
-          <t>Thông báo đã được cập nhật thành công.</t>
-        </is>
-      </c>
-      <c r="G753" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F753" s="29" t="inlineStr"/>
+      <c r="G753" s="4" t="inlineStr"/>
       <c r="H753" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42717,16 +40934,8 @@
           <t>Mở tab mới, Hiển thị nội dung của thông báo: "Test tạo thông báo theo lái xe"</t>
         </is>
       </c>
-      <c r="F754" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật số dư</t>
-        </is>
-      </c>
-      <c r="G754" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F754" s="29" t="inlineStr"/>
+      <c r="G754" s="4" t="inlineStr"/>
       <c r="H754" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42762,16 +40971,8 @@
           <t>Chuyển tới trang: "DANH SÁCH LÁI XE ĐÃ ĐỌC THÔNG BÁO"</t>
         </is>
       </c>
-      <c r="F755" s="29" t="inlineStr">
-        <is>
-          <t>DANH SÁCH LÁI XE ĐÃ ĐỌC THÔNG BÁO</t>
-        </is>
-      </c>
-      <c r="G755" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F755" s="29" t="inlineStr"/>
+      <c r="G755" s="4" t="inlineStr"/>
       <c r="H755" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42807,16 +41008,8 @@
           <t>Hiển thị message: "Xóa thông báo thành công."</t>
         </is>
       </c>
-      <c r="F756" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thông báo thành công.</t>
-        </is>
-      </c>
-      <c r="G756" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F756" s="29" t="inlineStr"/>
+      <c r="G756" s="4" t="inlineStr"/>
       <c r="H756" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42891,16 +41084,8 @@
           <t>Chuyển đến trang: "10.7.4 Quản trị thông báo lái xe v2"</t>
         </is>
       </c>
-      <c r="F759" s="29" t="inlineStr">
-        <is>
-          <t>10.7.4 Quản trị thông báo lái xe v2</t>
-        </is>
-      </c>
-      <c r="G759" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F759" s="29" t="inlineStr"/>
+      <c r="G759" s="4" t="inlineStr"/>
       <c r="H759" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42979,16 +41164,8 @@
           <t>Trường "Tiêu đề" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F761" s="29" t="inlineStr">
-        <is>
-          <t>Ví tiền mặt: +20.000đ, hoàn tiền khuyến mãi cuốc khách</t>
-        </is>
-      </c>
-      <c r="G761" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F761" s="29" t="inlineStr"/>
+      <c r="G761" s="4" t="inlineStr"/>
       <c r="H761" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43026,16 +41203,8 @@
           <t>Trường "Kiểu thông báo" hiện thị: Thông báo</t>
         </is>
       </c>
-      <c r="F762" s="29" t="inlineStr">
-        <is>
-          <t>Thông báo</t>
-        </is>
-      </c>
-      <c r="G762" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F762" s="29" t="inlineStr"/>
+      <c r="G762" s="4" t="inlineStr"/>
       <c r="H762" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43954,16 +42123,8 @@
           <t>Chuyển đến trang: "10.10.2 Phụ phí loại hàng hóa"</t>
         </is>
       </c>
-      <c r="F787" s="29" t="inlineStr">
-        <is>
-          <t>10.10.2 Phụ phí loại hàng hóa</t>
-        </is>
-      </c>
-      <c r="G787" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F787" s="29" t="inlineStr"/>
+      <c r="G787" s="4" t="inlineStr"/>
       <c r="H787" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44085,16 +42246,8 @@
           <t>Hiển thị message: "Lưu loại hàng hóa thành công"</t>
         </is>
       </c>
-      <c r="F790" s="29" t="inlineStr">
-        <is>
-          <t>Lưu loại hàng hóa thành công</t>
-        </is>
-      </c>
-      <c r="G790" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F790" s="29" t="inlineStr"/>
+      <c r="G790" s="4" t="inlineStr"/>
       <c r="H790" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44172,16 +42325,8 @@
           <t>Hiển thị message: "Xóa loại hàng hóa thành công"</t>
         </is>
       </c>
-      <c r="F792" s="29" t="inlineStr">
-        <is>
-          <t>Xóa loại hàng hóa thành công</t>
-        </is>
-      </c>
-      <c r="G792" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F792" s="29" t="inlineStr"/>
+      <c r="G792" s="4" t="inlineStr"/>
       <c r="H792" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44261,16 +42406,8 @@
           <t>Chuyển đến trang: "10.10.3 Phụ phí theo thời gian"</t>
         </is>
       </c>
-      <c r="F795" s="29" t="inlineStr">
-        <is>
-          <t>10.10.3 Phụ phí theo thời gian</t>
-        </is>
-      </c>
-      <c r="G795" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F795" s="29" t="inlineStr"/>
+      <c r="G795" s="4" t="inlineStr"/>
       <c r="H795" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44356,16 +42493,8 @@
           <t>Hiển thị message: "Lưu cấu hình thời gian thành công"</t>
         </is>
       </c>
-      <c r="F797" s="29" t="inlineStr">
-        <is>
-          <t>Lưu cấu hình thời gian thành công</t>
-        </is>
-      </c>
-      <c r="G797" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F797" s="29" t="inlineStr"/>
+      <c r="G797" s="4" t="inlineStr"/>
       <c r="H797" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44443,16 +42572,8 @@
           <t>Hiển thị message: "Xóa cấu hình thời gian thành công"</t>
         </is>
       </c>
-      <c r="F799" s="29" t="inlineStr">
-        <is>
-          <t>Xóa cấu hình thời gian thành công</t>
-        </is>
-      </c>
-      <c r="G799" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F799" s="29" t="inlineStr"/>
+      <c r="G799" s="4" t="inlineStr"/>
       <c r="H799" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44531,16 +42652,8 @@
           <t>Chuyển đến trang: "10.10.4 Phụ phí thu hộ"</t>
         </is>
       </c>
-      <c r="F802" s="29" t="inlineStr">
-        <is>
-          <t>10.10.4 Phụ phí thu hộ</t>
-        </is>
-      </c>
-      <c r="G802" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F802" s="29" t="inlineStr"/>
+      <c r="G802" s="4" t="inlineStr"/>
       <c r="H802" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44742,16 +42855,8 @@
           <t>Hiển thị message: "Lưu phụ phí thành công"</t>
         </is>
       </c>
-      <c r="F807" s="29" t="inlineStr">
-        <is>
-          <t>Lưu phụ phí thành công</t>
-        </is>
-      </c>
-      <c r="G807" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F807" s="29" t="inlineStr"/>
+      <c r="G807" s="4" t="inlineStr"/>
       <c r="H807" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44829,16 +42934,8 @@
           <t>Hiển thị message: "Xóa phụ phí thành công"</t>
         </is>
       </c>
-      <c r="F809" s="29" t="inlineStr">
-        <is>
-          <t>Xóa phụ phí thành công</t>
-        </is>
-      </c>
-      <c r="G809" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F809" s="29" t="inlineStr"/>
+      <c r="G809" s="4" t="inlineStr"/>
       <c r="H809" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44917,16 +43014,8 @@
           <t>Chuyển đến trang: "10.10.5 Phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F812" s="29" t="inlineStr">
-        <is>
-          <t>10.10.5 Phụ phí theo thời tiết</t>
-        </is>
-      </c>
-      <c r="G812" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F812" s="29" t="inlineStr"/>
+      <c r="G812" s="4" t="inlineStr"/>
       <c r="H812" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -45014,16 +43103,8 @@
           <t>Hiển thị message: "Lưu phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F814" s="29" t="inlineStr">
-        <is>
-          <t>Lưu phụ phí theo thời tiết</t>
-        </is>
-      </c>
-      <c r="G814" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F814" s="29" t="inlineStr"/>
+      <c r="G814" s="4" t="inlineStr"/>
       <c r="H814" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -45101,16 +43182,8 @@
           <t>Hiển thị message: "Xóa phụ phí theo thời tiết thành công"</t>
         </is>
       </c>
-      <c r="F816" s="29" t="inlineStr">
-        <is>
-          <t>Xóa phụ phí theo thời tiết thành công</t>
-        </is>
-      </c>
-      <c r="G816" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F816" s="29" t="inlineStr"/>
+      <c r="G816" s="4" t="inlineStr"/>
       <c r="H816" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -45555,16 +43628,8 @@
           <t>Chuyển đến trang: "14.1 Quản lý xuất hoá đơn"</t>
         </is>
       </c>
-      <c r="F831" s="29" t="inlineStr">
-        <is>
-          <t>14.1 Quản lý xuất hoá đơn</t>
-        </is>
-      </c>
-      <c r="G831" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F831" s="29" t="inlineStr"/>
+      <c r="G831" s="4" t="inlineStr"/>
       <c r="H831" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -45688,16 +43753,8 @@
           <t>Trường "Mã cuốc khách" hiện thị đúng Mã cuốc khách đã nhập</t>
         </is>
       </c>
-      <c r="F834" s="29" t="inlineStr">
-        <is>
-          <t>00072F03</t>
-        </is>
-      </c>
-      <c r="G834" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F834" s="29" t="inlineStr"/>
+      <c r="G834" s="4" t="inlineStr"/>
       <c r="H834" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -46430,16 +44487,8 @@
 2."Cuốc khách không đủ điều kiện xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F852" s="29" t="inlineStr">
-        <is>
-          <t>Cuốc khách không đủ điều kiện xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G852" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F852" s="29" t="inlineStr"/>
+      <c r="G852" s="4" t="inlineStr"/>
       <c r="H852" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -46481,16 +44530,8 @@
           <t>Hiển thị thông báo: "Xác nhận không xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F853" s="29" t="inlineStr">
-        <is>
-          <t>Xác nhận không xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G853" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F853" s="29" t="inlineStr"/>
+      <c r="G853" s="4" t="inlineStr"/>
       <c r="H853" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -46529,16 +44570,8 @@
 2."Cuốc khách không đủ điều kiện xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F854" s="29" t="inlineStr">
-        <is>
-          <t>Thông tin xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G854" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F854" s="29" t="inlineStr"/>
+      <c r="G854" s="4" t="inlineStr"/>
       <c r="H854" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -48746,6 +46779,431 @@
       <c r="L915" s="2" t="n"/>
       <c r="M915" s="42" t="inlineStr"/>
       <c r="N915" s="42" t="n"/>
+    </row>
+    <row r="916">
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="inlineStr"/>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="F921" t="inlineStr"/>
+      <c r="G921" t="inlineStr"/>
+      <c r="M921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr"/>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="F923" t="inlineStr"/>
+      <c r="G923" t="inlineStr"/>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="F924" t="inlineStr"/>
+      <c r="G924" t="inlineStr"/>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="F925" t="inlineStr"/>
+      <c r="G925" t="inlineStr"/>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="F926" t="inlineStr"/>
+      <c r="G926" t="inlineStr"/>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="inlineStr"/>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="inlineStr"/>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="inlineStr"/>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
+      <c r="M931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
+      <c r="M932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
+      <c r="M933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="inlineStr"/>
+      <c r="M934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="F935" t="inlineStr"/>
+      <c r="G935" t="inlineStr"/>
+      <c r="M935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="F936" t="inlineStr"/>
+      <c r="G936" t="inlineStr"/>
+      <c r="M936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="F937" t="inlineStr"/>
+      <c r="G937" t="inlineStr"/>
+      <c r="M937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="F938" t="inlineStr"/>
+      <c r="G938" t="inlineStr"/>
+      <c r="M938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="inlineStr"/>
+      <c r="M939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="inlineStr"/>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="inlineStr"/>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="F942" t="inlineStr"/>
+      <c r="G942" t="inlineStr"/>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="F943" t="inlineStr"/>
+      <c r="G943" t="inlineStr"/>
+      <c r="M943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="F944" t="inlineStr"/>
+      <c r="G944" t="inlineStr"/>
+      <c r="M944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="F945" t="inlineStr"/>
+      <c r="G945" t="inlineStr"/>
+      <c r="M945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="inlineStr"/>
+      <c r="M946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="F947" t="inlineStr"/>
+      <c r="G947" t="inlineStr"/>
+      <c r="M947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="F948" t="inlineStr"/>
+      <c r="G948" t="inlineStr"/>
+      <c r="M948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="inlineStr"/>
+      <c r="M949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="inlineStr"/>
+      <c r="M950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="F951" t="inlineStr"/>
+      <c r="G951" t="inlineStr"/>
+      <c r="M951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="F952" t="inlineStr"/>
+      <c r="G952" t="inlineStr"/>
+      <c r="M952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="F953" t="inlineStr"/>
+      <c r="G953" t="inlineStr"/>
+      <c r="M953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="F954" t="inlineStr"/>
+      <c r="G954" t="inlineStr"/>
+      <c r="M954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="inlineStr"/>
+      <c r="M955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="F956" t="inlineStr"/>
+      <c r="G956" t="inlineStr"/>
+      <c r="M956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="F957" t="inlineStr"/>
+      <c r="G957" t="inlineStr"/>
+      <c r="M957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="F958" t="inlineStr"/>
+      <c r="G958" t="inlineStr"/>
+      <c r="M958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="F959" t="inlineStr"/>
+      <c r="G959" t="inlineStr"/>
+      <c r="M959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="F960" t="inlineStr"/>
+      <c r="G960" t="inlineStr"/>
+      <c r="M960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="M961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="M962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="F963" t="inlineStr"/>
+      <c r="G963" t="inlineStr"/>
+      <c r="M963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="F964" t="inlineStr"/>
+      <c r="G964" t="inlineStr"/>
+      <c r="M964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="inlineStr"/>
+      <c r="M965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="F966" t="inlineStr"/>
+      <c r="G966" t="inlineStr"/>
+      <c r="M966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="F967" t="inlineStr"/>
+      <c r="G967" t="inlineStr"/>
+      <c r="M967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="F968" t="inlineStr"/>
+      <c r="G968" t="inlineStr"/>
+      <c r="M968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="F969" t="inlineStr"/>
+      <c r="G969" t="inlineStr"/>
+      <c r="M969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="F970" t="inlineStr"/>
+      <c r="G970" t="inlineStr"/>
+      <c r="M970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="inlineStr"/>
+      <c r="M971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="inlineStr"/>
+      <c r="M972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="F973" t="inlineStr"/>
+      <c r="G973" t="inlineStr"/>
+      <c r="M973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="F974" t="inlineStr"/>
+      <c r="G974" t="inlineStr"/>
+      <c r="M974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="F975" t="inlineStr"/>
+      <c r="G975" t="inlineStr"/>
+      <c r="M975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="F976" t="inlineStr"/>
+      <c r="G976" t="inlineStr"/>
+      <c r="M976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="F977" t="inlineStr"/>
+      <c r="G977" t="inlineStr"/>
+      <c r="M977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="F978" t="inlineStr"/>
+      <c r="G978" t="inlineStr"/>
+      <c r="M978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="F979" t="inlineStr"/>
+      <c r="G979" t="inlineStr"/>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="F980" t="inlineStr"/>
+      <c r="G980" t="inlineStr"/>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="F981" t="inlineStr"/>
+      <c r="G981" t="inlineStr"/>
+      <c r="M981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="F982" t="inlineStr"/>
+      <c r="G982" t="inlineStr"/>
+      <c r="M982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="M983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="M984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="inlineStr"/>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr"/>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr"/>
+      <c r="M988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="inlineStr"/>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr"/>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr"/>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr"/>
+      <c r="M992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr"/>
+      <c r="M993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="M994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr"/>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr"/>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="M998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
+      <c r="M999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr"/>
+      <c r="M1000" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="G1:L867"/>

--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -466,14 +466,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -483,9 +486,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15027,15 +15027,15 @@
   </sheetPr>
   <dimension ref="A1:AE915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
     <col width="15.7109375" customWidth="1" style="43" min="1" max="1"/>
     <col width="37.85546875" customWidth="1" style="43" min="2" max="2"/>
-    <col width="18" customWidth="1" style="84" min="3" max="3"/>
+    <col width="18" customWidth="1" style="82" min="3" max="3"/>
     <col width="61.85546875" customWidth="1" style="44" min="4" max="4"/>
     <col width="44.7109375" customWidth="1" style="44" min="5" max="5"/>
     <col width="38.85546875" customWidth="1" style="44" min="6" max="6"/>
@@ -15044,9 +15044,9 @@
     <col width="10.42578125" customWidth="1" style="5" min="12" max="12"/>
     <col width="20.42578125" customWidth="1" style="21" min="13" max="13"/>
     <col width="27.140625" customWidth="1" style="21" min="14" max="14"/>
-    <col width="14.7109375" customWidth="1" style="84" min="15" max="15"/>
-    <col width="9.140625" customWidth="1" style="84" min="16" max="3099"/>
-    <col width="9.140625" customWidth="1" style="84" min="3100" max="16384"/>
+    <col width="14.7109375" customWidth="1" style="82" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" style="82" min="16" max="3103"/>
+    <col width="9.140625" customWidth="1" style="82" min="3104" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -15068,7 +15068,7 @@
       <c r="L1" s="4" t="n"/>
       <c r="M1" s="20" t="n"/>
       <c r="N1" s="20" t="n"/>
-      <c r="O1" s="88" t="n"/>
+      <c r="O1" s="81" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="32" t="n"/>
@@ -15089,7 +15089,7 @@
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="20" t="n"/>
       <c r="N2" s="20" t="n"/>
-      <c r="O2" s="83" t="n"/>
+      <c r="O2" s="85" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="32" t="n"/>
@@ -15114,19 +15114,19 @@
         </is>
       </c>
       <c r="F3" s="16" t="n"/>
-      <c r="G3" s="85" t="n"/>
-      <c r="H3" s="85" t="n"/>
-      <c r="I3" s="85" t="n"/>
-      <c r="J3" s="85" t="n"/>
-      <c r="K3" s="85" t="n"/>
-      <c r="L3" s="86" t="inlineStr">
+      <c r="G3" s="86" t="n"/>
+      <c r="H3" s="86" t="n"/>
+      <c r="I3" s="86" t="n"/>
+      <c r="J3" s="86" t="n"/>
+      <c r="K3" s="86" t="n"/>
+      <c r="L3" s="87" t="inlineStr">
         <is>
           <t>Gọi telegram lỗi nghiêm trọng</t>
         </is>
       </c>
-      <c r="M3" s="87" t="n"/>
-      <c r="N3" s="82" t="n"/>
-      <c r="O3" s="83" t="n"/>
+      <c r="M3" s="88" t="n"/>
+      <c r="N3" s="84" t="n"/>
+      <c r="O3" s="85" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="32" t="n"/>
@@ -15153,18 +15153,18 @@
       <c r="I4" s="6" t="n"/>
       <c r="J4" s="6" t="n"/>
       <c r="K4" s="6" t="n"/>
-      <c r="L4" s="85" t="inlineStr">
+      <c r="L4" s="86" t="inlineStr">
         <is>
           <t>Độ ưu tiên</t>
         </is>
       </c>
-      <c r="M4" s="85" t="inlineStr">
+      <c r="M4" s="86" t="inlineStr">
         <is>
           <t>Số điện thoại(Tag)</t>
         </is>
       </c>
-      <c r="N4" s="82" t="n"/>
-      <c r="O4" s="83" t="n"/>
+      <c r="N4" s="84" t="n"/>
+      <c r="O4" s="85" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="32" t="n"/>
@@ -15194,13 +15194,13 @@
       <c r="L5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="81" t="inlineStr">
+      <c r="M5" s="83" t="inlineStr">
         <is>
           <t>+84 359 667 694(@truongtran1504)</t>
         </is>
       </c>
-      <c r="N5" s="82" t="n"/>
-      <c r="O5" s="83" t="n"/>
+      <c r="N5" s="84" t="n"/>
+      <c r="O5" s="85" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="32" t="n"/>
@@ -15230,13 +15230,13 @@
       <c r="L6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="81" t="inlineStr">
+      <c r="M6" s="83" t="inlineStr">
         <is>
           <t>+84 359 667 694(@truongtran1504)</t>
         </is>
       </c>
-      <c r="N6" s="82" t="n"/>
-      <c r="O6" s="88" t="n"/>
+      <c r="N6" s="84" t="n"/>
+      <c r="O6" s="81" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="32" t="n"/>
@@ -15266,13 +15266,13 @@
       <c r="L7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="81" t="inlineStr">
+      <c r="M7" s="83" t="inlineStr">
         <is>
           <t>+84 359 667 694(@truongtran1506)</t>
         </is>
       </c>
-      <c r="N7" s="82" t="n"/>
-      <c r="O7" s="88" t="n"/>
+      <c r="N7" s="84" t="n"/>
+      <c r="O7" s="81" t="n"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="32" t="n"/>
@@ -15302,7 +15302,7 @@
       <c r="L8" s="4" t="n"/>
       <c r="M8" s="20" t="n"/>
       <c r="N8" s="20" t="n"/>
-      <c r="O8" s="88" t="n"/>
+      <c r="O8" s="81" t="n"/>
     </row>
     <row r="9" ht="75" customFormat="1" customHeight="1" s="14">
       <c r="A9" s="10" t="inlineStr">
@@ -15396,7 +15396,7 @@
       <c r="L10" s="3" t="n"/>
       <c r="M10" s="22" t="inlineStr"/>
       <c r="N10" s="22" t="n"/>
-      <c r="O10" s="88" t="n"/>
+      <c r="O10" s="81" t="n"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="36" t="inlineStr">
@@ -15417,7 +15417,7 @@
       <c r="L11" s="9" t="n"/>
       <c r="M11" s="23" t="inlineStr"/>
       <c r="N11" s="23" t="n"/>
-      <c r="O11" s="88" t="n"/>
+      <c r="O11" s="81" t="n"/>
     </row>
     <row r="12" ht="75" customHeight="1">
       <c r="A12" s="32" t="inlineStr">
@@ -16057,7 +16057,7 @@
       </c>
       <c r="F31" s="15" t="inlineStr">
         <is>
-          <t>BATONNT</t>
+          <t>BAHAIMH</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
@@ -16142,7 +16142,7 @@
       </c>
       <c r="F33" s="15" t="inlineStr">
         <is>
-          <t>batonnt</t>
+          <t>bahaimh</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -16610,8 +16610,8 @@
       </c>
       <c r="F45" s="15" t="inlineStr">
         <is>
-          <t>Dữ liệu web: Đóng
-Dữ liệu excel: Mất kết nối
+          <t>Dữ liệu web: Mở
+Dữ liệu excel: Kết nối tốt
  Dòng: J6</t>
         </is>
       </c>
@@ -16881,16 +16881,8 @@
           <t>Chuyển đến trang: "1.3 Giám sát xe"</t>
         </is>
       </c>
-      <c r="F53" s="15" t="inlineStr">
-        <is>
-          <t>1.3 Giám sát xe</t>
-        </is>
-      </c>
-      <c r="G53" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F53" s="15" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr"/>
       <c r="H53" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17071,16 +17063,8 @@
           <t xml:space="preserve"> Mở popup "Trợ giúp"</t>
         </is>
       </c>
-      <c r="F57" s="15" t="inlineStr">
-        <is>
-          <t>Trợ Giúp</t>
-        </is>
-      </c>
-      <c r="G57" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F57" s="15" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr"/>
       <c r="H57" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17119,16 +17103,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/RedCar.png"</t>
         </is>
       </c>
-      <c r="F58" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/RedCar.png</t>
-        </is>
-      </c>
-      <c r="G58" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F58" s="15" t="inlineStr"/>
+      <c r="G58" s="4" t="inlineStr"/>
       <c r="H58" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17167,16 +17143,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/BlueCar.png"</t>
         </is>
       </c>
-      <c r="F59" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/BlueCar.png</t>
-        </is>
-      </c>
-      <c r="G59" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F59" s="15" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr"/>
       <c r="H59" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17217,14 +17185,10 @@
       </c>
       <c r="F60" s="46" t="inlineStr">
         <is>
-          <t>https://app.staxi.vn/Content/themes/img/GreenCar.png</t>
-        </is>
-      </c>
-      <c r="G60" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+          <t>https://app.staxi.vn/Content/themes/img/WarGreenCar.png</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="inlineStr"/>
       <c r="H60" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17266,16 +17230,8 @@
 "/Content/themes/img/BlueCar.png" </t>
         </is>
       </c>
-      <c r="F61" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/RedCar.png</t>
-        </is>
-      </c>
-      <c r="G61" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F61" s="15" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr"/>
       <c r="H61" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17314,16 +17270,8 @@
           <t>Trống xe</t>
         </is>
       </c>
-      <c r="F62" s="15" t="inlineStr">
-        <is>
-          <t>0/69</t>
-        </is>
-      </c>
-      <c r="G62" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F62" s="15" t="inlineStr"/>
+      <c r="G62" s="4" t="inlineStr"/>
       <c r="H62" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17362,16 +17310,8 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/WarGreenCar.png"</t>
         </is>
       </c>
-      <c r="F63" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/WarGreenCar.png</t>
-        </is>
-      </c>
-      <c r="G63" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F63" s="15" t="inlineStr"/>
+      <c r="G63" s="4" t="inlineStr"/>
       <c r="H63" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17410,16 +17350,8 @@
           <t>Tất cả xe kết nối</t>
         </is>
       </c>
-      <c r="F64" s="15" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/RedCar.png</t>
-        </is>
-      </c>
-      <c r="G64" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F64" s="15" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr"/>
       <c r="H64" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17458,16 +17390,8 @@
           <t>Tất cả xe</t>
         </is>
       </c>
-      <c r="F65" s="15" t="inlineStr">
-        <is>
-          <t>69/69</t>
-        </is>
-      </c>
-      <c r="G65" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F65" s="15" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr"/>
       <c r="H65" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17506,17 +17430,8 @@
           <t>Hiển thị thông tin xe: "205 - 15A26857"</t>
         </is>
       </c>
-      <c r="F66" s="15" t="inlineStr">
-        <is>
-          <t>Biển số tìm kiếm: 205 - 15A26857
-Biển số popup: 205-15A26857</t>
-        </is>
-      </c>
-      <c r="G66" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F66" s="15" t="inlineStr"/>
+      <c r="G66" s="4" t="inlineStr"/>
       <c r="H66" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17556,16 +17471,8 @@
           <t>Mở tab mới với lộ trình xe vừa tìm kiếm, chuyển tới trang: "THEO DÕI LỘ TRÌNH - STAXI"</t>
         </is>
       </c>
-      <c r="F67" s="15" t="inlineStr">
-        <is>
-          <t>THEO DÕI LỘ TRÌNH - STAXI</t>
-        </is>
-      </c>
-      <c r="G67" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F67" s="15" t="inlineStr"/>
+      <c r="G67" s="4" t="inlineStr"/>
       <c r="H67" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17643,11 +17550,7 @@
         </is>
       </c>
       <c r="F70" s="15" t="inlineStr"/>
-      <c r="G70" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G70" s="4" t="inlineStr"/>
       <c r="H70" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17678,16 +17581,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F71" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 15A26611</t>
-        </is>
-      </c>
-      <c r="G71" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F71" s="15" t="inlineStr"/>
+      <c r="G71" s="4" t="inlineStr"/>
       <c r="H71" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17718,17 +17613,8 @@
           <t>So sánh: Popup Hiện trạng, Danh sách giám sát</t>
         </is>
       </c>
-      <c r="F72" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 202
-Danh sách giám sát: 202</t>
-        </is>
-      </c>
-      <c r="G72" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F72" s="15" t="inlineStr"/>
+      <c r="G72" s="4" t="inlineStr"/>
       <c r="H72" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17759,16 +17645,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F73" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 20.97534</t>
-        </is>
-      </c>
-      <c r="G73" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F73" s="15" t="inlineStr"/>
+      <c r="G73" s="4" t="inlineStr"/>
       <c r="H73" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17799,16 +17677,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F74" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 106.5987</t>
-        </is>
-      </c>
-      <c r="G74" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F74" s="15" t="inlineStr"/>
+      <c r="G74" s="4" t="inlineStr"/>
       <c r="H74" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17839,16 +17709,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F75" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: None</t>
-        </is>
-      </c>
-      <c r="G75" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="F75" s="15" t="inlineStr"/>
+      <c r="G75" s="4" t="inlineStr"/>
       <c r="H75" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17883,17 +17745,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F76" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 18:17:48
-Danh sách giám sát: 18:17:48</t>
-        </is>
-      </c>
-      <c r="G76" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F76" s="15" t="inlineStr"/>
+      <c r="G76" s="4" t="inlineStr"/>
       <c r="H76" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17928,17 +17781,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F77" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0
-Danh sách giám sát: 0</t>
-        </is>
-      </c>
-      <c r="G77" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F77" s="15" t="inlineStr"/>
+      <c r="G77" s="4" t="inlineStr"/>
       <c r="H77" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17973,16 +17817,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F78" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 5 chỗ Nguyễn Gia - VIOS</t>
-        </is>
-      </c>
-      <c r="G78" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F78" s="15" t="inlineStr"/>
+      <c r="G78" s="4" t="inlineStr"/>
       <c r="H78" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18013,17 +17849,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F79" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: Sẵn sàng
-Danh sách giám sát: Sẵn sàng</t>
-        </is>
-      </c>
-      <c r="G79" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F79" s="15" t="inlineStr"/>
+      <c r="G79" s="4" t="inlineStr"/>
       <c r="H79" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18054,16 +17881,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F80" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 1 (TTĐH:1;App:0;Vẫy:0)</t>
-        </is>
-      </c>
-      <c r="G80" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F80" s="15" t="inlineStr"/>
+      <c r="G80" s="4" t="inlineStr"/>
       <c r="H80" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18094,16 +17913,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F81" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 185000</t>
-        </is>
-      </c>
-      <c r="G81" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F81" s="15" t="inlineStr"/>
+      <c r="G81" s="4" t="inlineStr"/>
       <c r="H81" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18134,16 +17945,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F82" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: VŨ LONG AN</t>
-        </is>
-      </c>
-      <c r="G82" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F82" s="15" t="inlineStr"/>
+      <c r="G82" s="4" t="inlineStr"/>
       <c r="H82" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18174,16 +17977,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F83" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0866692456</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F83" s="15" t="inlineStr"/>
+      <c r="G83" s="4" t="inlineStr"/>
       <c r="H83" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18214,16 +18009,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F84" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: Kết nối</t>
-        </is>
-      </c>
-      <c r="G84" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F84" s="15" t="inlineStr"/>
+      <c r="G84" s="4" t="inlineStr"/>
       <c r="H84" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18254,16 +18041,8 @@
           <t>Popup Hiện trạng hệ thống: -&gt;Không được trống</t>
         </is>
       </c>
-      <c r="F85" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 609090</t>
-        </is>
-      </c>
-      <c r="G85" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F85" s="15" t="inlineStr"/>
+      <c r="G85" s="4" t="inlineStr"/>
       <c r="H85" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18404,11 +18183,7 @@
         </is>
       </c>
       <c r="F91" s="15" t="inlineStr"/>
-      <c r="G91" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G91" s="4" t="inlineStr"/>
       <c r="H91" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18418,11 +18193,7 @@
       <c r="J91" s="6" t="n"/>
       <c r="K91" s="6" t="n"/>
       <c r="L91" s="4" t="n"/>
-      <c r="M91" s="20" t="inlineStr">
-        <is>
-          <t>Minitor53_GiamSat_LoTrinh_LayDuLieu.png</t>
-        </is>
-      </c>
+      <c r="M91" s="20" t="inlineStr"/>
       <c r="N91" s="20" t="n"/>
     </row>
     <row r="92" ht="37.5" customHeight="1">
@@ -18449,11 +18220,7 @@
         </is>
       </c>
       <c r="F92" s="15" t="inlineStr"/>
-      <c r="G92" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G92" s="4" t="inlineStr"/>
       <c r="H92" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18490,11 +18257,7 @@
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr"/>
-      <c r="G93" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G93" s="4" t="inlineStr"/>
       <c r="H93" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18531,11 +18294,7 @@
         </is>
       </c>
       <c r="F94" s="15" t="inlineStr"/>
-      <c r="G94" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G94" s="4" t="inlineStr"/>
       <c r="H94" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18572,11 +18331,7 @@
         </is>
       </c>
       <c r="F95" s="15" t="inlineStr"/>
-      <c r="G95" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G95" s="4" t="inlineStr"/>
       <c r="H95" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18613,11 +18368,7 @@
         </is>
       </c>
       <c r="F96" s="15" t="inlineStr"/>
-      <c r="G96" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G96" s="4" t="inlineStr"/>
       <c r="H96" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18654,11 +18405,7 @@
         </is>
       </c>
       <c r="F97" s="15" t="inlineStr"/>
-      <c r="G97" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G97" s="4" t="inlineStr"/>
       <c r="H97" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18695,17 +18442,8 @@
 2. Hiển thị: Biển số xe, thời gian</t>
         </is>
       </c>
-      <c r="F98" s="15" t="inlineStr">
-        <is>
-          <t>Biển số xe: Biển số xe: 18H02845
-Thời gian: Từ ngày: 25/01/2026 20:00 Đến ngày: 26/1/2026 18:28</t>
-        </is>
-      </c>
-      <c r="G98" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F98" s="15" t="inlineStr"/>
+      <c r="G98" s="4" t="inlineStr"/>
       <c r="H98" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18741,16 +18479,8 @@
           <t>Tải file Excel chứa danh sách lộ trình xe về máy(chỉ check tải)</t>
         </is>
       </c>
-      <c r="F99" s="15" t="inlineStr">
-        <is>
-          <t>_GiamSat_LoTrinh_XuatExcel.xls</t>
-        </is>
-      </c>
-      <c r="G99" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F99" s="15" t="inlineStr"/>
+      <c r="G99" s="4" t="inlineStr"/>
       <c r="H99" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18786,19 +18516,8 @@
           <t>Hiển thị popup các màu sắc cảnh báo: Cảnh báo, Sẵng sàng, Có khách, Nghỉ KD</t>
         </is>
       </c>
-      <c r="F100" s="15" t="inlineStr">
-        <is>
-          <t>Màu Vàng: Cảnh báo
-Màu đỏ: Sẵn sàng
-Màu xanh dương: Có khách
-Màu đen: Nghỉ KD</t>
-        </is>
-      </c>
-      <c r="G100" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F100" s="15" t="inlineStr"/>
+      <c r="G100" s="4" t="inlineStr"/>
       <c r="H100" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18892,16 +18611,8 @@
           <t>Chuyển đến trang: "1.9 Giám sát xe (nhóm)"</t>
         </is>
       </c>
-      <c r="F104" s="15" t="inlineStr">
-        <is>
-          <t>1.9 Giám sát xe (nhóm)</t>
-        </is>
-      </c>
-      <c r="G104" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F104" s="15" t="inlineStr"/>
+      <c r="G104" s="4" t="inlineStr"/>
       <c r="H104" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19025,16 +18736,8 @@
           <t>Hiển thị các trạng thái: Trực tuyến, Sẵn sàng, Có khách, Bận, Ngừng KD, Mất tín hiệu, Ngoại tuyến</t>
         </is>
       </c>
-      <c r="F107" s="15" t="inlineStr">
-        <is>
-          <t>Trực tuyến, Sẵn sàng, Có khách, Bận, Ngừng KD, Mất tín hiệu, Ngoại tuyến</t>
-        </is>
-      </c>
-      <c r="G107" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F107" s="15" t="inlineStr"/>
+      <c r="G107" s="4" t="inlineStr"/>
       <c r="H107" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19070,23 +18773,8 @@
           <t>Hiển thị tất cả các nhóm của công ty</t>
         </is>
       </c>
-      <c r="F108" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                        Tất cả
-                                            Binhnm Test
-                                            G7TaxiHN-Gán Xe
-                                            G7-Việt Thanh-Gán Xe
-                                            G7-Vĩnh Phúc-Gán Xe
-                                            IT-G7-Gán xe
-                                            IT-G7-Gán Lái
-                                    </t>
-        </is>
-      </c>
-      <c r="G108" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F108" s="15" t="inlineStr"/>
+      <c r="G108" s="4" t="inlineStr"/>
       <c r="H108" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19162,16 +18850,8 @@
           <t>Hiển thị đúng Xe đã nhập ở danh sách và popup Hiện trạng</t>
         </is>
       </c>
-      <c r="F111" s="15" t="inlineStr">
-        <is>
-          <t>30E03908</t>
-        </is>
-      </c>
-      <c r="G111" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F111" s="15" t="inlineStr"/>
+      <c r="G111" s="4" t="inlineStr"/>
       <c r="H111" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19181,11 +18861,7 @@
       <c r="J111" s="6" t="n"/>
       <c r="K111" s="6" t="n"/>
       <c r="L111" s="4" t="n"/>
-      <c r="M111" s="20" t="inlineStr">
-        <is>
-          <t>Minitor68_.png</t>
-        </is>
-      </c>
+      <c r="M111" s="20" t="inlineStr"/>
       <c r="N111" s="20" t="n"/>
     </row>
     <row r="112" ht="75" customHeight="1">
@@ -19206,16 +18882,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F112" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 30E03908</t>
-        </is>
-      </c>
-      <c r="G112" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F112" s="15" t="inlineStr"/>
+      <c r="G112" s="4" t="inlineStr"/>
       <c r="H112" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19246,16 +18914,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F113" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: - 04</t>
-        </is>
-      </c>
-      <c r="G113" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F113" s="15" t="inlineStr"/>
+      <c r="G113" s="4" t="inlineStr"/>
       <c r="H113" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19286,16 +18946,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F114" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 18:31:40 26/01/26</t>
-        </is>
-      </c>
-      <c r="G114" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F114" s="15" t="inlineStr"/>
+      <c r="G114" s="4" t="inlineStr"/>
       <c r="H114" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19326,16 +18978,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F115" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 21.00847</t>
-        </is>
-      </c>
-      <c r="G115" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F115" s="15" t="inlineStr"/>
+      <c r="G115" s="4" t="inlineStr"/>
       <c r="H115" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19366,16 +19010,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F116" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 105.8486</t>
-        </is>
-      </c>
-      <c r="G116" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F116" s="15" t="inlineStr"/>
+      <c r="G116" s="4" t="inlineStr"/>
       <c r="H116" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19406,16 +19042,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F117" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Popup Hiện trạng: </t>
-        </is>
-      </c>
-      <c r="G117" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="F117" s="15" t="inlineStr"/>
+      <c r="G117" s="4" t="inlineStr"/>
       <c r="H117" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19425,11 +19053,7 @@
       <c r="J117" s="6" t="n"/>
       <c r="K117" s="6" t="n"/>
       <c r="L117" s="4" t="n"/>
-      <c r="M117" s="20" t="inlineStr">
-        <is>
-          <t>Minitor74_GiamSatXeNhom_HienTrang_ViTri.png</t>
-        </is>
-      </c>
+      <c r="M117" s="20" t="inlineStr"/>
       <c r="N117" s="20" t="n"/>
     </row>
     <row r="118">
@@ -19450,16 +19074,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F118" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 7</t>
-        </is>
-      </c>
-      <c r="G118" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F118" s="15" t="inlineStr"/>
+      <c r="G118" s="4" t="inlineStr"/>
       <c r="H118" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19490,16 +19106,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F119" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: Lê Minh Tuấn</t>
-        </is>
-      </c>
-      <c r="G119" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F119" s="15" t="inlineStr"/>
+      <c r="G119" s="4" t="inlineStr"/>
       <c r="H119" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19530,16 +19138,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F120" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 0947114635</t>
-        </is>
-      </c>
-      <c r="G120" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F120" s="15" t="inlineStr"/>
+      <c r="G120" s="4" t="inlineStr"/>
       <c r="H120" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19570,16 +19170,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F121" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 4 Chỗ - Hyundai i10 Sedan</t>
-        </is>
-      </c>
-      <c r="G121" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F121" s="15" t="inlineStr"/>
+      <c r="G121" s="4" t="inlineStr"/>
       <c r="H121" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19610,16 +19202,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F122" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 54 (TTĐH: 52; App: 2; Vẫy: 0)</t>
-        </is>
-      </c>
-      <c r="G122" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F122" s="15" t="inlineStr"/>
+      <c r="G122" s="4" t="inlineStr"/>
       <c r="H122" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19650,16 +19234,8 @@
           <t>Trường không được trống</t>
         </is>
       </c>
-      <c r="F123" s="15" t="inlineStr">
-        <is>
-          <t>Popup Hiện trạng: 612058</t>
-        </is>
-      </c>
-      <c r="G123" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F123" s="15" t="inlineStr"/>
+      <c r="G123" s="4" t="inlineStr"/>
       <c r="H123" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19754,16 +19330,8 @@
           <t>Chuyển đến trang: "2.1 Xe"</t>
         </is>
       </c>
-      <c r="F127" s="15" t="inlineStr">
-        <is>
-          <t>2.1 Xe</t>
-        </is>
-      </c>
-      <c r="G127" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F127" s="15" t="inlineStr"/>
+      <c r="G127" s="4" t="inlineStr"/>
       <c r="H127" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19845,16 +19413,8 @@
           <t>Hiển thị "Biển số" đã nhập ở đầu danh sách tìm kiếm</t>
         </is>
       </c>
-      <c r="F129" s="15" t="inlineStr">
-        <is>
-          <t>30E68089</t>
-        </is>
-      </c>
-      <c r="G129" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F129" s="15" t="inlineStr"/>
+      <c r="G129" s="4" t="inlineStr"/>
       <c r="H129" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -19892,16 +19452,8 @@
           <t>Hiển thị "Số hiệu" đã nhập ở đầu danh sách tìm kiếm</t>
         </is>
       </c>
-      <c r="F130" s="15" t="inlineStr">
-        <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="G130" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F130" s="15" t="inlineStr"/>
+      <c r="G130" s="4" t="inlineStr"/>
       <c r="H130" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20357,16 +19909,8 @@
 (Chỉ check tải)</t>
         </is>
       </c>
-      <c r="F142" s="15" t="inlineStr">
-        <is>
-          <t>xe_LaiXe.xls</t>
-        </is>
-      </c>
-      <c r="G142" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F142" s="15" t="inlineStr"/>
+      <c r="G142" s="4" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -20493,16 +20037,8 @@
 (biển số tạo ở ô ghi chú)</t>
         </is>
       </c>
-      <c r="F145" s="15" t="inlineStr">
-        <is>
-          <t>Thêm mới xe thành công.</t>
-        </is>
-      </c>
-      <c r="G145" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F145" s="15" t="inlineStr"/>
+      <c r="G145" s="4" t="inlineStr"/>
       <c r="H145" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20519,7 +20055,7 @@
       <c r="M145" s="20" t="inlineStr"/>
       <c r="N145" s="20" t="inlineStr">
         <is>
-          <t>2024AUTO2291</t>
+          <t>2024AUTO2275</t>
         </is>
       </c>
     </row>
@@ -20547,16 +20083,8 @@
           <t>Hiển thị message: "Hủy kết nối hộp đen thành công"</t>
         </is>
       </c>
-      <c r="F146" s="29" t="inlineStr">
-        <is>
-          <t>Hủy kết nối hộp đen thành công</t>
-        </is>
-      </c>
-      <c r="G146" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F146" s="29" t="inlineStr"/>
+      <c r="G146" s="4" t="inlineStr"/>
       <c r="H146" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20593,16 +20121,8 @@
           <t>Hiển thị message: "Kết nối hộp đen thành công"</t>
         </is>
       </c>
-      <c r="F147" s="29" t="inlineStr">
-        <is>
-          <t>Kết nối hộp đen thành công</t>
-        </is>
-      </c>
-      <c r="G147" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F147" s="29" t="inlineStr"/>
+      <c r="G147" s="4" t="inlineStr"/>
       <c r="H147" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20639,16 +20159,8 @@
           <t>Hiển thị message: "Cập nhật trạng thái kết nối đồng hồ thành công"</t>
         </is>
       </c>
-      <c r="F148" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật trạng thái kết nối đồng hồ thành công</t>
-        </is>
-      </c>
-      <c r="G148" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F148" s="29" t="inlineStr"/>
+      <c r="G148" s="4" t="inlineStr"/>
       <c r="H148" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20685,16 +20197,8 @@
           <t>Hiển thị message: "Cập nhật trạng thái kết nối đồng hồ thành công"</t>
         </is>
       </c>
-      <c r="F149" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật trạng thái kết nối đồng hồ thành công</t>
-        </is>
-      </c>
-      <c r="G149" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F149" s="29" t="inlineStr"/>
+      <c r="G149" s="4" t="inlineStr"/>
       <c r="H149" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20809,16 +20313,8 @@
           <t>Hiển thị message: "Khóa xe thành công."</t>
         </is>
       </c>
-      <c r="F152" s="29" t="inlineStr">
-        <is>
-          <t>Khóa xe thành công.</t>
-        </is>
-      </c>
-      <c r="G152" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F152" s="29" t="inlineStr"/>
+      <c r="G152" s="4" t="inlineStr"/>
       <c r="H152" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20855,16 +20351,8 @@
           <t>Hiển thị message: "Mở khóa xe thành công."</t>
         </is>
       </c>
-      <c r="F153" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa xe thành công.</t>
-        </is>
-      </c>
-      <c r="G153" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F153" s="29" t="inlineStr"/>
+      <c r="G153" s="4" t="inlineStr"/>
       <c r="H153" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20901,16 +20389,8 @@
           <t>Hiển thị message: "Cập nhật xe thành công."</t>
         </is>
       </c>
-      <c r="F154" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật xe thành công.</t>
-        </is>
-      </c>
-      <c r="G154" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F154" s="29" t="inlineStr"/>
+      <c r="G154" s="4" t="inlineStr"/>
       <c r="H154" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -20947,16 +20427,8 @@
           <t>Hiển thị message: "Xóa xe thành công"</t>
         </is>
       </c>
-      <c r="F155" s="29" t="inlineStr">
-        <is>
-          <t>Xóa xe thành công</t>
-        </is>
-      </c>
-      <c r="G155" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F155" s="29" t="inlineStr"/>
+      <c r="G155" s="4" t="inlineStr"/>
       <c r="H155" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21072,16 +20544,8 @@
           <t>Chuyển đến trang: "2.2 Lái xe"</t>
         </is>
       </c>
-      <c r="F159" s="15" t="inlineStr">
-        <is>
-          <t>2.2 Lái xe</t>
-        </is>
-      </c>
-      <c r="G159" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F159" s="15" t="inlineStr"/>
+      <c r="G159" s="4" t="inlineStr"/>
       <c r="H159" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21201,16 +20665,8 @@
           <t>trường "Biển số" Hiển thị đúng dữ liệu "Biển số" đã nhập</t>
         </is>
       </c>
-      <c r="F162" s="29" t="inlineStr">
-        <is>
-          <t>XE24656</t>
-        </is>
-      </c>
-      <c r="G162" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F162" s="29" t="inlineStr"/>
+      <c r="G162" s="4" t="inlineStr"/>
       <c r="H162" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21326,16 +20782,8 @@
           <t>trường "Số điện thoại" Hiển thị đúng dữ liệu "Số điện thoại" đã nhập</t>
         </is>
       </c>
-      <c r="F165" s="29" t="inlineStr">
-        <is>
-          <t>0967303024</t>
-        </is>
-      </c>
-      <c r="G165" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F165" s="29" t="inlineStr"/>
+      <c r="G165" s="4" t="inlineStr"/>
       <c r="H165" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21525,16 +20973,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F170" s="15" t="inlineStr">
-        <is>
-          <t>_laixe.xls</t>
-        </is>
-      </c>
-      <c r="G170" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F170" s="15" t="inlineStr"/>
+      <c r="G170" s="4" t="inlineStr"/>
       <c r="H170" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21665,16 +21105,8 @@
 (lái xe tạo ở ô ghi chú)</t>
         </is>
       </c>
-      <c r="F173" s="15" t="inlineStr">
-        <is>
-          <t>Thêm mới thành công</t>
-        </is>
-      </c>
-      <c r="G173" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F173" s="15" t="inlineStr"/>
+      <c r="G173" s="4" t="inlineStr"/>
       <c r="H173" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21691,7 +21123,7 @@
       <c r="M173" s="20" t="inlineStr"/>
       <c r="N173" s="20" t="inlineStr">
         <is>
-          <t>auto2292</t>
+          <t>auto2276</t>
         </is>
       </c>
     </row>
@@ -21728,16 +21160,8 @@
           <t>Hiển thị message: "Thêm tài khoản ngân hàng thành công"</t>
         </is>
       </c>
-      <c r="F174" s="15" t="inlineStr">
-        <is>
-          <t>Thêm tài khoản ngân hàng thành công</t>
-        </is>
-      </c>
-      <c r="G174" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F174" s="15" t="inlineStr"/>
+      <c r="G174" s="4" t="inlineStr"/>
       <c r="H174" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21785,16 +21209,8 @@
           <t>Hiển thị message: "Cập nhật lái xe thành công"</t>
         </is>
       </c>
-      <c r="F175" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thành công</t>
-        </is>
-      </c>
-      <c r="G175" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F175" s="29" t="inlineStr"/>
+      <c r="G175" s="4" t="inlineStr"/>
       <c r="H175" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21833,16 +21249,8 @@
           <t>Hiển thị message: "Khóa lái xe thành công."</t>
         </is>
       </c>
-      <c r="F176" s="29" t="inlineStr">
-        <is>
-          <t>Khóa lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G176" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F176" s="29" t="inlineStr"/>
+      <c r="G176" s="4" t="inlineStr"/>
       <c r="H176" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21878,18 +21286,8 @@
           <t>Hiển thị lý do gồm các trường: STT, Lý do khóa, Ngày Khóa</t>
         </is>
       </c>
-      <c r="F177" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Lý do khóa: Trường test khóa xe
-Ngày khóa: 26/01/2026 18:44:34</t>
-        </is>
-      </c>
-      <c r="G177" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F177" s="29" t="inlineStr"/>
+      <c r="G177" s="4" t="inlineStr"/>
       <c r="H177" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21926,16 +21324,8 @@
           <t>Hiển thị message: "Mở khóa lái xe thành công."</t>
         </is>
       </c>
-      <c r="F178" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G178" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F178" s="29" t="inlineStr"/>
+      <c r="G178" s="4" t="inlineStr"/>
       <c r="H178" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -21971,16 +21361,8 @@
           <t>Hiển thị message: "Khen thưởng thành công."</t>
         </is>
       </c>
-      <c r="F179" s="29" t="inlineStr">
-        <is>
-          <t>Khen thưởng thành công.</t>
-        </is>
-      </c>
-      <c r="G179" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F179" s="29" t="inlineStr"/>
+      <c r="G179" s="4" t="inlineStr"/>
       <c r="H179" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22016,16 +21398,8 @@
           <t>Hiển thị message: "Gán xe thành công."</t>
         </is>
       </c>
-      <c r="F180" s="29" t="inlineStr">
-        <is>
-          <t>Gán xe thành công</t>
-        </is>
-      </c>
-      <c r="G180" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F180" s="29" t="inlineStr"/>
+      <c r="G180" s="4" t="inlineStr"/>
       <c r="H180" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22062,16 +21436,8 @@
           <t>Hiển thị message: " Mã kích hoạt đã được cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F181" s="29" t="inlineStr">
-        <is>
-          <t>Mã kích hoạt đã được cập nhật thành công.</t>
-        </is>
-      </c>
-      <c r="G181" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F181" s="29" t="inlineStr"/>
+      <c r="G181" s="4" t="inlineStr"/>
       <c r="H181" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22107,16 +21473,8 @@
           <t>Hiển thị message: "Đổi mật khẩu thành công."</t>
         </is>
       </c>
-      <c r="F182" s="29" t="inlineStr">
-        <is>
-          <t>Đổi mật khẩu thành công.</t>
-        </is>
-      </c>
-      <c r="G182" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F182" s="29" t="inlineStr"/>
+      <c r="G182" s="4" t="inlineStr"/>
       <c r="H182" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22288,16 +21646,8 @@
           <t>Hiển thị message: "Xóa lái xe thành công"</t>
         </is>
       </c>
-      <c r="F187" s="29" t="inlineStr">
-        <is>
-          <t>Xóa lái xe thành công</t>
-        </is>
-      </c>
-      <c r="G187" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F187" s="29" t="inlineStr"/>
+      <c r="G187" s="4" t="inlineStr"/>
       <c r="H187" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22687,16 +22037,8 @@
           <t>Chuyển đến trang: "3.1 Danh sách ví lái xe"</t>
         </is>
       </c>
-      <c r="F200" s="15" t="inlineStr">
-        <is>
-          <t>3.1 Danh sách ví lái xe</t>
-        </is>
-      </c>
-      <c r="G200" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F200" s="15" t="inlineStr"/>
+      <c r="G200" s="4" t="inlineStr"/>
       <c r="H200" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22735,18 +22077,8 @@
           <t>Thanh tổng quan gồm các trường: TỔNG SỐ VÍ, SỐ DƯ VÍ TÀI KHOẢN, SỐ DƯ VÍ TIỀN MẶT(không được trống dữ liệu)</t>
         </is>
       </c>
-      <c r="F201" s="29" t="inlineStr">
-        <is>
-          <t>Tổng số ví:: 1
-Số dư ví tài khoản: 14.825.270 ₫
-Số dư ví tiền mặt: 453.200 ₫</t>
-        </is>
-      </c>
-      <c r="G201" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F201" s="29" t="inlineStr"/>
+      <c r="G201" s="4" t="inlineStr"/>
       <c r="H201" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22784,16 +22116,8 @@
           <t>trường "Tên lái xe" Hiển thị đúng dữ liệu "Lái xe" đã nhập</t>
         </is>
       </c>
-      <c r="F202" s="29" t="inlineStr">
-        <is>
-          <t>Phan Văn Khuyên</t>
-        </is>
-      </c>
-      <c r="G202" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F202" s="29" t="inlineStr"/>
+      <c r="G202" s="4" t="inlineStr"/>
       <c r="H202" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22831,16 +22155,8 @@
           <t>trường "Ví lái xe" Hiển thị đúng dữ liệu "SDT" đã nhập</t>
         </is>
       </c>
-      <c r="F203" s="29" t="inlineStr">
-        <is>
-          <t>0335735161</t>
-        </is>
-      </c>
-      <c r="G203" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F203" s="29" t="inlineStr"/>
+      <c r="G203" s="4" t="inlineStr"/>
       <c r="H203" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22968,24 +22284,8 @@
 - Nội dung: Trường test nạp tiền</t>
         </is>
       </c>
-      <c r="F206" s="29" t="inlineStr">
-        <is>
-          <t>Message: Đã lưu lại giao dịch, Chờ xác nhận.
-Số tiền: 1.000.000 VNĐ
-Tên ví: batonnt1
-Dịch vụ: Nạp tiền vào Ví Tài Khoản
-Số tiền: 1.000.000₫
-Nguồn tiền: Quầy thu tại hãng
-Thời gian: 18:50 - 26/01/2026
-Mã giao dịch: 9563
-Nội dung: Trường test nạp tiền</t>
-        </is>
-      </c>
-      <c r="G206" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F206" s="29" t="inlineStr"/>
+      <c r="G206" s="4" t="inlineStr"/>
       <c r="H206" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23032,22 +22332,8 @@
 - Nội dung: Trường test rút tiền</t>
         </is>
       </c>
-      <c r="F207" s="29" t="inlineStr">
-        <is>
-          <t>Message: Đã lưu lại giao dịch, Chờ xác nhận.
-Số tiền: 100 VNĐ
-Dịch vụ: Rút tiền Ví Tiền Mặt
-Nguồn : Rút tại quầy
-Thời gian: 18:51 - 26/01/2026
-Mã giao dịch: 9564
-Nội dung: Trường test rút tiền</t>
-        </is>
-      </c>
-      <c r="G207" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F207" s="29" t="inlineStr"/>
+      <c r="G207" s="4" t="inlineStr"/>
       <c r="H207" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23085,17 +22371,8 @@
 2. Hiển thị Tên lái xe: batonnt1</t>
         </is>
       </c>
-      <c r="F208" s="29" t="inlineStr">
-        <is>
-          <t>Chuyển tới trang: 3.5 Lịch sử ví tiền
-Tên lái xe: batonnt1</t>
-        </is>
-      </c>
-      <c r="G208" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F208" s="29" t="inlineStr"/>
+      <c r="G208" s="4" t="inlineStr"/>
       <c r="H208" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23171,16 +22448,8 @@
           <t>Chuyển đến trang: "3.2 Đóng tiền vào ví lái xe"</t>
         </is>
       </c>
-      <c r="F211" s="15" t="inlineStr">
-        <is>
-          <t>3.2 Đóng tiền vào ví lái xe</t>
-        </is>
-      </c>
-      <c r="G211" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F211" s="15" t="inlineStr"/>
+      <c r="G211" s="4" t="inlineStr"/>
       <c r="H211" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23221,16 +22490,8 @@
           <t>Hiển thị thông báo: "Tạo giao dịch đóng tiền thành công."</t>
         </is>
       </c>
-      <c r="F212" s="29" t="inlineStr">
-        <is>
-          <t>Tạo giao dịch đóng tiền thành công.</t>
-        </is>
-      </c>
-      <c r="G212" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F212" s="29" t="inlineStr"/>
+      <c r="G212" s="4" t="inlineStr"/>
       <c r="H212" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23306,16 +22567,8 @@
           <t>Chuyển đến trang: "3.3 Rút tiền từ ví lái xe"</t>
         </is>
       </c>
-      <c r="F215" s="15" t="inlineStr">
-        <is>
-          <t>3.3 Rút tiền từ ví lái xe</t>
-        </is>
-      </c>
-      <c r="G215" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F215" s="15" t="inlineStr"/>
+      <c r="G215" s="4" t="inlineStr"/>
       <c r="H215" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23356,16 +22609,8 @@
           <t>Hiển thị thông báo: "Tạo giao dịch rút tiền thành công."</t>
         </is>
       </c>
-      <c r="F216" s="29" t="inlineStr">
-        <is>
-          <t>Tạo giao dịch rút tiền thành công.</t>
-        </is>
-      </c>
-      <c r="G216" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F216" s="29" t="inlineStr"/>
+      <c r="G216" s="4" t="inlineStr"/>
       <c r="H216" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23441,16 +22686,8 @@
           <t>Chuyển đến trang: "3.4 Xác nhận giao dịch"</t>
         </is>
       </c>
-      <c r="F219" s="15" t="inlineStr">
-        <is>
-          <t>3.4 Xác nhận giao dịch</t>
-        </is>
-      </c>
-      <c r="G219" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F219" s="15" t="inlineStr"/>
+      <c r="G219" s="4" t="inlineStr"/>
       <c r="H219" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23573,16 +22810,8 @@
           <t>Trường " Tài khoản lái xe" hiển thị đúng tên lái xe đã nhập</t>
         </is>
       </c>
-      <c r="F222" s="29" t="inlineStr">
-        <is>
-          <t>batonnt1</t>
-        </is>
-      </c>
-      <c r="G222" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F222" s="29" t="inlineStr"/>
+      <c r="G222" s="4" t="inlineStr"/>
       <c r="H222" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23621,16 +22850,8 @@
           <t>Hiện không có trường SDT nên sẽ hiển thị Tài khoản lái xe là: "batonnt1"</t>
         </is>
       </c>
-      <c r="F223" s="29" t="inlineStr">
-        <is>
-          <t>0837393453</t>
-        </is>
-      </c>
-      <c r="G223" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F223" s="29" t="inlineStr"/>
+      <c r="G223" s="4" t="inlineStr"/>
       <c r="H223" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23705,16 +22926,8 @@
           <t>Mở popup: "VÍ LÁI XE"</t>
         </is>
       </c>
-      <c r="F225" s="29" t="inlineStr">
-        <is>
-          <t>VÍ LÁI XE</t>
-        </is>
-      </c>
-      <c r="G225" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F225" s="29" t="inlineStr"/>
+      <c r="G225" s="4" t="inlineStr"/>
       <c r="H225" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23751,16 +22964,8 @@
 2. Hiển thị lịch sử mã giao dịch</t>
         </is>
       </c>
-      <c r="F226" s="29" t="inlineStr">
-        <is>
-          <t>Chuyển tới trang: 3.11 Lịch sử thanh toán</t>
-        </is>
-      </c>
-      <c r="G226" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F226" s="29" t="inlineStr"/>
+      <c r="G226" s="4" t="inlineStr"/>
       <c r="H226" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23796,16 +23001,8 @@
           <t>Hiển thị message: "Xác nhận thành công."</t>
         </is>
       </c>
-      <c r="F227" s="29" t="inlineStr">
-        <is>
-          <t>Xác nhận thành công.</t>
-        </is>
-      </c>
-      <c r="G227" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F227" s="29" t="inlineStr"/>
+      <c r="G227" s="4" t="inlineStr"/>
       <c r="H227" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23841,16 +23038,8 @@
           <t>Hiển thị message: "Hủy giao dịch thành công."</t>
         </is>
       </c>
-      <c r="F228" s="29" t="inlineStr">
-        <is>
-          <t>Hủy giao dịch thành công.</t>
-        </is>
-      </c>
-      <c r="G228" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F228" s="29" t="inlineStr"/>
+      <c r="G228" s="4" t="inlineStr"/>
       <c r="H228" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -23925,16 +23114,8 @@
           <t>Chuyển đến trang: "3.5 Lịch sử ví tiền"</t>
         </is>
       </c>
-      <c r="F231" s="15" t="inlineStr">
-        <is>
-          <t>3.5 Lịch sử ví tiền</t>
-        </is>
-      </c>
-      <c r="G231" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F231" s="15" t="inlineStr"/>
+      <c r="G231" s="4" t="inlineStr"/>
       <c r="H231" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24017,16 +23198,8 @@
           <t>Trường "Tên lái xe" hiện thị đúng với "Tên lái xe" đã nhập</t>
         </is>
       </c>
-      <c r="F233" s="29" t="inlineStr">
-        <is>
-          <t>batonnt1</t>
-        </is>
-      </c>
-      <c r="G233" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F233" s="29" t="inlineStr"/>
+      <c r="G233" s="4" t="inlineStr"/>
       <c r="H233" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24512,11 +23685,7 @@
         </is>
       </c>
       <c r="F245" s="29" t="inlineStr"/>
-      <c r="G245" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G245" s="4" t="inlineStr"/>
       <c r="H245" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24526,11 +23695,7 @@
       <c r="J245" s="2" t="n"/>
       <c r="K245" s="6" t="n"/>
       <c r="L245" s="2" t="n"/>
-      <c r="M245" s="42" t="inlineStr">
-        <is>
-          <t>Wallet38_LichSuViTien_ChiTiet.png</t>
-        </is>
-      </c>
+      <c r="M245" s="42" t="inlineStr"/>
       <c r="N245" s="42" t="n"/>
     </row>
     <row r="246" ht="75" customHeight="1">
@@ -24688,16 +23853,8 @@
           <t>Chuyển đến trang: "6.1 Danh sách khuyến mại"</t>
         </is>
       </c>
-      <c r="F251" s="15" t="inlineStr">
-        <is>
-          <t>6.1 Danh sách khuyến mại</t>
-        </is>
-      </c>
-      <c r="G251" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F251" s="15" t="inlineStr"/>
+      <c r="G251" s="4" t="inlineStr"/>
       <c r="H251" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -24780,16 +23937,8 @@
           <t>Trường "Tên khuyến mại" hiện thị "Tên khuyến mại "giống với dữ liệu đã nhập"</t>
         </is>
       </c>
-      <c r="F253" s="29" t="inlineStr">
-        <is>
-          <t>Auto_KM_Chung3147</t>
-        </is>
-      </c>
-      <c r="G253" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F253" s="29" t="inlineStr"/>
+      <c r="G253" s="4" t="inlineStr"/>
       <c r="H253" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25398,16 +24547,8 @@
           <t>Chuyển đến trang: "6.2 Danh sách tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F268" s="15" t="inlineStr">
-        <is>
-          <t>6.2 Danh sách tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G268" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F268" s="15" t="inlineStr"/>
+      <c r="G268" s="4" t="inlineStr"/>
       <c r="H268" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25500,16 +24641,8 @@
           <t>Trường "Tài khoản" hiện thị: "0913233801"</t>
         </is>
       </c>
-      <c r="F270" s="29" t="inlineStr">
-        <is>
-          <t>03596672293</t>
-        </is>
-      </c>
-      <c r="G270" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F270" s="29" t="inlineStr"/>
+      <c r="G270" s="4" t="inlineStr"/>
       <c r="H270" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25740,16 +24873,8 @@
 (Tài khoản thêm mới ở ghi chú)</t>
         </is>
       </c>
-      <c r="F275" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G275" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F275" s="29" t="inlineStr"/>
+      <c r="G275" s="4" t="inlineStr"/>
       <c r="H275" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25762,7 +24887,7 @@
       <c r="M275" s="42" t="inlineStr"/>
       <c r="N275" s="42" t="inlineStr">
         <is>
-          <t>2100002295</t>
+          <t>2100002279</t>
         </is>
       </c>
     </row>
@@ -25800,16 +24925,8 @@
 (Tài khoản thêm mới ở ghi chú)</t>
         </is>
       </c>
-      <c r="F276" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G276" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F276" s="29" t="inlineStr"/>
+      <c r="G276" s="4" t="inlineStr"/>
       <c r="H276" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25822,7 +24939,7 @@
       <c r="M276" s="42" t="inlineStr"/>
       <c r="N276" s="42" t="inlineStr">
         <is>
-          <t>2100002296</t>
+          <t>2100002280</t>
         </is>
       </c>
     </row>
@@ -25856,16 +24973,8 @@
 </t>
         </is>
       </c>
-      <c r="F277" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G277" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F277" s="29" t="inlineStr"/>
+      <c r="G277" s="4" t="inlineStr"/>
       <c r="H277" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25906,16 +25015,8 @@
           <t>Hiển thị messsage: "Xóa tài khoản giới thiệu thành công."</t>
         </is>
       </c>
-      <c r="F278" s="29" t="inlineStr">
-        <is>
-          <t>Xóa tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G278" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F278" s="29" t="inlineStr"/>
+      <c r="G278" s="4" t="inlineStr"/>
       <c r="H278" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26011,16 +25112,8 @@
           <t>Chuyển đến trang: "6.3.1 Cài app mới"</t>
         </is>
       </c>
-      <c r="F282" s="29" t="inlineStr">
-        <is>
-          <t>6.3.1 Cài app mới</t>
-        </is>
-      </c>
-      <c r="G282" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F282" s="29" t="inlineStr"/>
+      <c r="G282" s="4" t="inlineStr"/>
       <c r="H282" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26062,16 +25155,8 @@
           <t>Trường "Tên khuyến mại" hiện thị: Đúng "Tên" đã nhập</t>
         </is>
       </c>
-      <c r="F283" s="29" t="inlineStr">
-        <is>
-          <t>KM cài app mới 1523</t>
-        </is>
-      </c>
-      <c r="G283" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F283" s="29" t="inlineStr"/>
+      <c r="G283" s="4" t="inlineStr"/>
       <c r="H283" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26348,16 +25433,8 @@
           <t>Chuyển đến trang: "6.4.1 BC tổng hợp KM theo công ty"</t>
         </is>
       </c>
-      <c r="F291" s="29" t="inlineStr">
-        <is>
-          <t>6.4.1 BC tổng hợp KM theo công ty</t>
-        </is>
-      </c>
-      <c r="G291" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F291" s="29" t="inlineStr"/>
+      <c r="G291" s="4" t="inlineStr"/>
       <c r="H291" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26396,16 +25473,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Công ty, Mã KM, Tên KM, Phải thu, Phải trả, Chi tiết.</t>
         </is>
       </c>
-      <c r="F292" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi Hà Nội</t>
-        </is>
-      </c>
-      <c r="G292" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F292" s="29" t="inlineStr"/>
+      <c r="G292" s="4" t="inlineStr"/>
       <c r="H292" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26444,11 +25513,7 @@
         </is>
       </c>
       <c r="F293" s="29" t="inlineStr"/>
-      <c r="G293" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G293" s="4" t="inlineStr"/>
       <c r="H293" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26835,16 +25900,8 @@
           <t>Chuyển đến trang: "6.4.4 BC KM theo tháng"</t>
         </is>
       </c>
-      <c r="F306" s="29" t="inlineStr">
-        <is>
-          <t>6.4.4 BC KM theo tháng</t>
-        </is>
-      </c>
-      <c r="G306" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F306" s="29" t="inlineStr"/>
+      <c r="G306" s="4" t="inlineStr"/>
       <c r="H306" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26883,16 +25940,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Tên khuyến mại, Tổng tiền đã khuyến mại, Tổng số khuyến mại đã sử dụng, Tháng/Năm.</t>
         </is>
       </c>
-      <c r="F307" s="29" t="inlineStr">
-        <is>
-          <t>Km 30k</t>
-        </is>
-      </c>
-      <c r="G307" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F307" s="29" t="inlineStr"/>
+      <c r="G307" s="4" t="inlineStr"/>
       <c r="H307" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -26931,11 +25980,7 @@
         </is>
       </c>
       <c r="F308" s="29" t="inlineStr"/>
-      <c r="G308" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G308" s="4" t="inlineStr"/>
       <c r="H308" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27799,16 +26844,8 @@
           <t>Chuyển đến trang: "6.11 Danh sách loại tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F336" s="15" t="inlineStr">
-        <is>
-          <t>6.11 Danh sách loại tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G336" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F336" s="15" t="inlineStr"/>
+      <c r="G336" s="4" t="inlineStr"/>
       <c r="H336" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28009,16 +27046,8 @@
           <t>Chuyển đến trang: "6.12 Danh sách nhóm tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F342" s="15" t="inlineStr">
-        <is>
-          <t>6.12 Danh sách nhóm tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G342" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F342" s="15" t="inlineStr"/>
+      <c r="G342" s="4" t="inlineStr"/>
       <c r="H342" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28241,16 +27270,8 @@
           <t>Chuyển đến trang: "7.1 Danh sách khách hàng"</t>
         </is>
       </c>
-      <c r="F349" s="15" t="inlineStr">
-        <is>
-          <t>7.1 Danh sách khách hàng</t>
-        </is>
-      </c>
-      <c r="G349" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F349" s="15" t="inlineStr"/>
+      <c r="G349" s="4" t="inlineStr"/>
       <c r="H349" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -28335,16 +27356,8 @@
  "Trần Hà Miên"</t>
         </is>
       </c>
-      <c r="F351" s="29" t="inlineStr">
-        <is>
-          <t>tr</t>
-        </is>
-      </c>
-      <c r="G351" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F351" s="29" t="inlineStr"/>
+      <c r="G351" s="4" t="inlineStr"/>
       <c r="H351" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -29015,16 +28028,8 @@
           <t>Chuyển đến trang: "7.7.1 Đối tác"</t>
         </is>
       </c>
-      <c r="F370" s="29" t="inlineStr">
-        <is>
-          <t>7.7.1 Đối tác</t>
-        </is>
-      </c>
-      <c r="G370" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F370" s="29" t="inlineStr"/>
+      <c r="G370" s="4" t="inlineStr"/>
       <c r="H370" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29067,16 +28072,8 @@
           <t>Trường "Tên đối tác" hiện thị: Phòng Marketing - Sale</t>
         </is>
       </c>
-      <c r="F371" s="29" t="inlineStr">
-        <is>
-          <t>TUSINHTUAPP</t>
-        </is>
-      </c>
-      <c r="G371" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F371" s="29" t="inlineStr"/>
+      <c r="G371" s="4" t="inlineStr"/>
       <c r="H371" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29358,16 +28355,8 @@
           <t>Chuyển đến trang: "7.7.2 Hợp đồng"</t>
         </is>
       </c>
-      <c r="F379" s="29" t="inlineStr">
-        <is>
-          <t>7.7.2 Hợp đồng</t>
-        </is>
-      </c>
-      <c r="G379" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F379" s="29" t="inlineStr"/>
+      <c r="G379" s="4" t="inlineStr"/>
       <c r="H379" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29410,16 +28399,8 @@
           <t>Trường "Mã hợp đồng" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F380" s="29" t="inlineStr">
-        <is>
-          <t>THAODTP3333</t>
-        </is>
-      </c>
-      <c r="G380" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F380" s="29" t="inlineStr"/>
+      <c r="G380" s="4" t="inlineStr"/>
       <c r="H380" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29595,16 +28576,8 @@
 </t>
         </is>
       </c>
-      <c r="F384" s="29" t="inlineStr">
-        <is>
-          <t>Thêm mới hợp đồng thành công</t>
-        </is>
-      </c>
-      <c r="G384" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F384" s="29" t="inlineStr"/>
+      <c r="G384" s="4" t="inlineStr"/>
       <c r="H384" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29616,7 +28589,7 @@
       <c r="M384" s="42" t="inlineStr"/>
       <c r="N384" s="42" t="inlineStr">
         <is>
-          <t>Auto2298</t>
+          <t>Auto2282</t>
         </is>
       </c>
     </row>
@@ -29723,16 +28696,8 @@
 </t>
         </is>
       </c>
-      <c r="F387" s="29" t="inlineStr">
-        <is>
-          <t>Xóa hợp đồng thành công</t>
-        </is>
-      </c>
-      <c r="G387" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F387" s="29" t="inlineStr"/>
+      <c r="G387" s="4" t="inlineStr"/>
       <c r="H387" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29807,16 +28772,8 @@
           <t>Chuyển đến trang: "7.7.3 Quản lý thẻ"</t>
         </is>
       </c>
-      <c r="F390" s="29" t="inlineStr">
-        <is>
-          <t>7.7.3 Quản lý thẻ</t>
-        </is>
-      </c>
-      <c r="G390" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F390" s="29" t="inlineStr"/>
+      <c r="G390" s="4" t="inlineStr"/>
       <c r="H390" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29899,16 +28856,8 @@
           <t>Trường "Số ĐT" hiện thị: 0972284850</t>
         </is>
       </c>
-      <c r="F392" s="29" t="inlineStr">
-        <is>
-          <t>0999999998</t>
-        </is>
-      </c>
-      <c r="G392" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F392" s="29" t="inlineStr"/>
+      <c r="G392" s="4" t="inlineStr"/>
       <c r="H392" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -29918,11 +28867,7 @@
       <c r="J392" s="2" t="n"/>
       <c r="K392" s="2" t="n"/>
       <c r="L392" s="2" t="n"/>
-      <c r="M392" s="42" t="inlineStr">
-        <is>
-          <t>Customer34_QuanLyThe_SoDienThoai.png</t>
-        </is>
-      </c>
+      <c r="M392" s="42" t="inlineStr"/>
       <c r="N392" s="42" t="n"/>
     </row>
     <row r="393" ht="41.25" customHeight="1">
@@ -29991,16 +28936,8 @@
           <t>Trường " Tên khách hàng" hiện thị: Thái Dương Hoa</t>
         </is>
       </c>
-      <c r="F394" s="29" t="inlineStr">
-        <is>
-          <t>SEC_122346</t>
-        </is>
-      </c>
-      <c r="G394" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F394" s="29" t="inlineStr"/>
+      <c r="G394" s="4" t="inlineStr"/>
       <c r="H394" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30520,16 +29457,8 @@
 </t>
         </is>
       </c>
-      <c r="F407" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thông tin thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G407" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F407" s="29" t="inlineStr"/>
+      <c r="G407" s="4" t="inlineStr"/>
       <c r="H407" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30542,7 +29471,7 @@
       <c r="M407" s="42" t="inlineStr"/>
       <c r="N407" s="42" t="inlineStr">
         <is>
-          <t>Auto_2305</t>
+          <t>Auto_2283</t>
         </is>
       </c>
     </row>
@@ -30572,16 +29501,8 @@
 </t>
         </is>
       </c>
-      <c r="F408" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thông tin thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G408" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F408" s="29" t="inlineStr"/>
+      <c r="G408" s="4" t="inlineStr"/>
       <c r="H408" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30617,16 +29538,8 @@
           <t>Mở popup: "MÃ QRCODE"</t>
         </is>
       </c>
-      <c r="F409" s="29" t="inlineStr">
-        <is>
-          <t>MÃ QRCODE</t>
-        </is>
-      </c>
-      <c r="G409" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F409" s="29" t="inlineStr"/>
+      <c r="G409" s="4" t="inlineStr"/>
       <c r="H409" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30665,16 +29578,8 @@
 </t>
         </is>
       </c>
-      <c r="F410" s="29" t="inlineStr">
-        <is>
-          <t>Khóa thẻ thành công!</t>
-        </is>
-      </c>
-      <c r="G410" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F410" s="29" t="inlineStr"/>
+      <c r="G410" s="4" t="inlineStr"/>
       <c r="H410" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30712,16 +29617,8 @@
 </t>
         </is>
       </c>
-      <c r="F411" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa thẻ thành công!</t>
-        </is>
-      </c>
-      <c r="G411" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F411" s="29" t="inlineStr"/>
+      <c r="G411" s="4" t="inlineStr"/>
       <c r="H411" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30841,16 +29738,8 @@
 </t>
         </is>
       </c>
-      <c r="F414" s="29" t="inlineStr">
-        <is>
-          <t>Kích hoạt thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G414" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F414" s="29" t="inlineStr"/>
+      <c r="G414" s="4" t="inlineStr"/>
       <c r="H414" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30888,16 +29777,8 @@
 </t>
         </is>
       </c>
-      <c r="F415" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thẻ thành công</t>
-        </is>
-      </c>
-      <c r="G415" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F415" s="29" t="inlineStr"/>
+      <c r="G415" s="4" t="inlineStr"/>
       <c r="H415" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -30960,7 +29841,7 @@
       <c r="M416" s="42" t="inlineStr"/>
       <c r="N416" s="42" t="inlineStr">
         <is>
-          <t>Auto_2290</t>
+          <t>Auto_3149</t>
         </is>
       </c>
     </row>
@@ -30988,16 +29869,8 @@
 </t>
         </is>
       </c>
-      <c r="F417" s="29" t="inlineStr">
-        <is>
-          <t>Cấp thẻ dùng 1 lần</t>
-        </is>
-      </c>
-      <c r="G417" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F417" s="29" t="inlineStr"/>
+      <c r="G417" s="4" t="inlineStr"/>
       <c r="H417" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -31994,16 +30867,8 @@
           <t>Chuyển đến trang: "7.7.12 Báo cáo cuốc đi thẻ theo lái xe"</t>
         </is>
       </c>
-      <c r="F446" s="29" t="inlineStr">
-        <is>
-          <t>7.7.12 Báo cáo cuốc đi thẻ theo lái xe</t>
-        </is>
-      </c>
-      <c r="G446" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F446" s="29" t="inlineStr"/>
+      <c r="G446" s="4" t="inlineStr"/>
       <c r="H446" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32049,16 +30914,8 @@
 (Hiển thị Mã lái xe)</t>
         </is>
       </c>
-      <c r="F447" s="29" t="inlineStr">
-        <is>
-          <t>9999209984075597</t>
-        </is>
-      </c>
-      <c r="G447" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F447" s="29" t="inlineStr"/>
+      <c r="G447" s="4" t="inlineStr"/>
       <c r="H447" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32097,11 +30954,7 @@
         </is>
       </c>
       <c r="F448" s="29" t="inlineStr"/>
-      <c r="G448" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G448" s="4" t="inlineStr"/>
       <c r="H448" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32137,16 +30990,8 @@
           <t>Hiện thị thông báo: "Cập nhật thành công!"</t>
         </is>
       </c>
-      <c r="F449" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thành công!</t>
-        </is>
-      </c>
-      <c r="G449" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F449" s="29" t="inlineStr"/>
+      <c r="G449" s="4" t="inlineStr"/>
       <c r="H449" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32379,16 +31224,8 @@
           <t>Chuyển đến trang: "7.7.14 Báo cáo giao dịch thẻ"</t>
         </is>
       </c>
-      <c r="F457" s="29" t="inlineStr">
-        <is>
-          <t>7.7.14 Báo cáo giao dịch thẻ</t>
-        </is>
-      </c>
-      <c r="G457" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F457" s="29" t="inlineStr"/>
+      <c r="G457" s="4" t="inlineStr"/>
       <c r="H457" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32493,7 +31330,7 @@
       <c r="N459" s="42" t="n"/>
     </row>
     <row r="460">
-      <c r="A460" s="84" t="n"/>
+      <c r="A460" s="82" t="n"/>
       <c r="B460" s="37" t="n"/>
       <c r="C460" s="26" t="n"/>
       <c r="D460" s="15" t="n"/>
@@ -33207,16 +32044,8 @@
           <t>Chuyển đến trang: "8.1.0 Báo cáo cuốc khách tổng"</t>
         </is>
       </c>
-      <c r="F476" s="29" t="inlineStr">
-        <is>
-          <t>8.1.0 Báo cáo cuốc khách tổng</t>
-        </is>
-      </c>
-      <c r="G476" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F476" s="29" t="inlineStr"/>
+      <c r="G476" s="4" t="inlineStr"/>
       <c r="H476" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33263,16 +32092,8 @@
 (Hiển thị Mã Cuốc Khách)</t>
         </is>
       </c>
-      <c r="F477" s="29" t="inlineStr">
-        <is>
-          <t>001180B9</t>
-        </is>
-      </c>
-      <c r="G477" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F477" s="29" t="inlineStr"/>
+      <c r="G477" s="4" t="inlineStr"/>
       <c r="H477" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33312,11 +32133,7 @@
         </is>
       </c>
       <c r="F478" s="29" t="inlineStr"/>
-      <c r="G478" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G478" s="4" t="inlineStr"/>
       <c r="H478" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33354,16 +32171,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F479" s="29" t="inlineStr">
-        <is>
-          <t>_BaoCaoCuocKhachTong_ExcelFull.xlsx</t>
-        </is>
-      </c>
-      <c r="G479" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F479" s="29" t="inlineStr"/>
+      <c r="G479" s="4" t="inlineStr"/>
       <c r="H479" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33459,16 +32268,8 @@
           <t>Chuyển đến trang: "8.1.1 Tổng cuốc khách"</t>
         </is>
       </c>
-      <c r="F483" s="29" t="inlineStr">
-        <is>
-          <t>8.1.1 Tổng cuốc khách</t>
-        </is>
-      </c>
-      <c r="G483" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F483" s="29" t="inlineStr"/>
+      <c r="G483" s="4" t="inlineStr"/>
       <c r="H483" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33509,16 +32310,8 @@
 (Hiển thị Ngày)</t>
         </is>
       </c>
-      <c r="F484" s="29" t="inlineStr">
-        <is>
-          <t>28/10/2025</t>
-        </is>
-      </c>
-      <c r="G484" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F484" s="29" t="inlineStr"/>
+      <c r="G484" s="4" t="inlineStr"/>
       <c r="H484" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33555,16 +32348,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F485" s="29" t="inlineStr">
-        <is>
-          <t>_TongCuocKhach.xls</t>
-        </is>
-      </c>
-      <c r="G485" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F485" s="29" t="inlineStr"/>
+      <c r="G485" s="4" t="inlineStr"/>
       <c r="H485" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33601,28 +32386,8 @@
           <t>Số lượng cuốc mỗi nguồn = Số lương cuốc màn chi tiết</t>
         </is>
       </c>
-      <c r="F486" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-</t>
-        </is>
-      </c>
-      <c r="G486" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F486" s="29" t="inlineStr"/>
+      <c r="G486" s="4" t="inlineStr"/>
       <c r="H486" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -33659,28 +32424,8 @@
           <t>Số lượng cuốc mỗi nguồn = Số lương cuốc màn chi tiết</t>
         </is>
       </c>
-      <c r="F487" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None, 6/6
-, None, 3/3
-, None, 0/0
-, None, 3/3
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 1/1
-, None, 5/5
-, None, 0/0
-</t>
-        </is>
-      </c>
-      <c r="G487" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F487" s="29" t="inlineStr"/>
+      <c r="G487" s="4" t="inlineStr"/>
       <c r="H487" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34384,16 +33129,8 @@
           <t>Chuyển đến trang: "THỐNG KÊ CHI TIẾT CUỐC KHÁCH"</t>
         </is>
       </c>
-      <c r="F510" s="29" t="inlineStr">
-        <is>
-          <t>THỐNG KÊ CHI TIẾT CUỐC KHÁCH</t>
-        </is>
-      </c>
-      <c r="G510" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F510" s="29" t="inlineStr"/>
+      <c r="G510" s="4" t="inlineStr"/>
       <c r="H510" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34439,16 +33176,8 @@
 (Hiển thị Nguồn)</t>
         </is>
       </c>
-      <c r="F511" s="29" t="inlineStr">
-        <is>
-          <t>Nguồn vãng lai</t>
-        </is>
-      </c>
-      <c r="G511" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F511" s="29" t="inlineStr"/>
+      <c r="G511" s="4" t="inlineStr"/>
       <c r="H511" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34487,11 +33216,7 @@
         </is>
       </c>
       <c r="F512" s="29" t="inlineStr"/>
-      <c r="G512" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G512" s="4" t="inlineStr"/>
       <c r="H512" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34567,16 +33292,8 @@
           <t>Chuyển đến trang: "8.1.11 Thống kê cuốc khách theo lái xe "</t>
         </is>
       </c>
-      <c r="F515" s="29" t="inlineStr">
-        <is>
-          <t>8.1.11 Thống kê cuốc khách theo lái xe</t>
-        </is>
-      </c>
-      <c r="G515" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F515" s="29" t="inlineStr"/>
+      <c r="G515" s="4" t="inlineStr"/>
       <c r="H515" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34619,16 +33336,8 @@
 (Hiển thị Lái xe)</t>
         </is>
       </c>
-      <c r="F516" s="29" t="inlineStr">
-        <is>
-          <t>batrinh209a</t>
-        </is>
-      </c>
-      <c r="G516" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F516" s="29" t="inlineStr"/>
+      <c r="G516" s="4" t="inlineStr"/>
       <c r="H516" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34667,11 +33376,7 @@
         </is>
       </c>
       <c r="F517" s="29" t="inlineStr"/>
-      <c r="G517" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G517" s="4" t="inlineStr"/>
       <c r="H517" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35918,16 +34623,8 @@
           <t>Chuyển đến trang: "8.4.1 Báo cáo doanh thu theo lái xe"</t>
         </is>
       </c>
-      <c r="F557" s="29" t="inlineStr">
-        <is>
-          <t>8.4.1 Báo cáo doanh thu theo lái xe</t>
-        </is>
-      </c>
-      <c r="G557" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F557" s="29" t="inlineStr"/>
+      <c r="G557" s="4" t="inlineStr"/>
       <c r="H557" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -35967,16 +34664,8 @@
 (Hiển thị Tên lái xe)</t>
         </is>
       </c>
-      <c r="F558" s="29" t="inlineStr">
-        <is>
-          <t>Bui Văn Du</t>
-        </is>
-      </c>
-      <c r="G558" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F558" s="29" t="inlineStr"/>
+      <c r="G558" s="4" t="inlineStr"/>
       <c r="H558" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36013,16 +34702,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F559" s="29" t="inlineStr">
-        <is>
-          <t>_BaoCaoDoanhThuTheoLaiXe.xlsx</t>
-        </is>
-      </c>
-      <c r="G559" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F559" s="29" t="inlineStr"/>
+      <c r="G559" s="4" t="inlineStr"/>
       <c r="H559" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36098,16 +34779,8 @@
           <t>Chuyển đến trang: "8.4.2 Chi tiết doanh thu từ app lái xe &amp; định vị"</t>
         </is>
       </c>
-      <c r="F562" s="4" t="inlineStr">
-        <is>
-          <t>8.4.2 Chi tiết doanh thu từ app lái xe &amp; định vị</t>
-        </is>
-      </c>
-      <c r="G562" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F562" s="4" t="inlineStr"/>
+      <c r="G562" s="4" t="inlineStr"/>
       <c r="H562" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36152,16 +34825,8 @@
 (Hiển thị Nguồn cuốc)</t>
         </is>
       </c>
-      <c r="F563" s="29" t="inlineStr">
-        <is>
-          <t>Taxi thông thường</t>
-        </is>
-      </c>
-      <c r="G563" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F563" s="29" t="inlineStr"/>
+      <c r="G563" s="4" t="inlineStr"/>
       <c r="H563" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36198,16 +34863,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F564" s="26" t="inlineStr">
-        <is>
-          <t>_ChiTietDoanhThuTuApp.xlsx</t>
-        </is>
-      </c>
-      <c r="G564" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F564" s="26" t="inlineStr"/>
+      <c r="G564" s="4" t="inlineStr"/>
       <c r="H564" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36244,16 +34901,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F565" s="29" t="inlineStr">
-        <is>
-          <t>_ChiTietDoanhThuTuApp_Full.xlsx</t>
-        </is>
-      </c>
-      <c r="G565" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F565" s="29" t="inlineStr"/>
+      <c r="G565" s="4" t="inlineStr"/>
       <c r="H565" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36329,16 +34978,8 @@
           <t>Chuyển đến trang: "8.4.3 Thanh toán cuốc khách cho lái xe"</t>
         </is>
       </c>
-      <c r="F568" s="29" t="inlineStr">
-        <is>
-          <t>8.4.3 Thanh toán cuốc khách cho lái xe</t>
-        </is>
-      </c>
-      <c r="G568" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F568" s="29" t="inlineStr"/>
+      <c r="G568" s="4" t="inlineStr"/>
       <c r="H568" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36379,16 +35020,8 @@
 (Hiển thị Tên lái xe)</t>
         </is>
       </c>
-      <c r="F569" s="29" t="inlineStr">
-        <is>
-          <t>batrinh209a</t>
-        </is>
-      </c>
-      <c r="G569" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F569" s="29" t="inlineStr"/>
+      <c r="G569" s="4" t="inlineStr"/>
       <c r="H569" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36427,11 +35060,7 @@
         </is>
       </c>
       <c r="F570" s="29" t="inlineStr"/>
-      <c r="G570" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G570" s="4" t="inlineStr"/>
       <c r="H570" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -36988,16 +35617,8 @@
           <t>Chuyển đến trang: "8.4.7 Chi tiết doanh thu từ app lái xe"</t>
         </is>
       </c>
-      <c r="F588" s="29" t="inlineStr">
-        <is>
-          <t>8.4.7 Chi tiết doanh thu từ app lái xe</t>
-        </is>
-      </c>
-      <c r="G588" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F588" s="29" t="inlineStr"/>
+      <c r="G588" s="4" t="inlineStr"/>
       <c r="H588" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -37041,16 +35662,8 @@
 (Hiển thị Biển số)</t>
         </is>
       </c>
-      <c r="F589" s="29" t="inlineStr">
-        <is>
-          <t>hoalt209</t>
-        </is>
-      </c>
-      <c r="G589" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F589" s="29" t="inlineStr"/>
+      <c r="G589" s="4" t="inlineStr"/>
       <c r="H589" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -37089,11 +35702,7 @@
         </is>
       </c>
       <c r="F590" s="29" t="inlineStr"/>
-      <c r="G590" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G590" s="4" t="inlineStr"/>
       <c r="H590" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -37266,7 +35875,7 @@
       <c r="N595" s="42" t="n"/>
     </row>
     <row r="596">
-      <c r="A596" s="84" t="n"/>
+      <c r="A596" s="82" t="n"/>
       <c r="B596" s="37" t="n"/>
       <c r="C596" s="26" t="n"/>
       <c r="D596" s="15" t="n"/>
@@ -38069,16 +36678,8 @@
           <t>Chuyển đến trang: "10.1.1 Danh sách bộ phương pháp điều xe"</t>
         </is>
       </c>
-      <c r="F624" s="29" t="inlineStr">
-        <is>
-          <t>10.1.1 Danh sách bộ phương pháp điều xe</t>
-        </is>
-      </c>
-      <c r="G624" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F624" s="29" t="inlineStr"/>
+      <c r="G624" s="4" t="inlineStr"/>
       <c r="H624" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -38318,16 +36919,8 @@
           <t>Chuyển đến trang: "10.3.1 Thông tin công ty "</t>
         </is>
       </c>
-      <c r="F633" s="29" t="inlineStr">
-        <is>
-          <t>10.3.1 Thông tin công ty</t>
-        </is>
-      </c>
-      <c r="G633" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F633" s="29" t="inlineStr"/>
+      <c r="G633" s="4" t="inlineStr"/>
       <c r="H633" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38385,16 +36978,8 @@
           <t>Hiển thị message: "Cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F634" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thành công.</t>
-        </is>
-      </c>
-      <c r="G634" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F634" s="29" t="inlineStr"/>
+      <c r="G634" s="4" t="inlineStr"/>
       <c r="H634" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38441,16 +37026,8 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ lái xe thành công."</t>
         </is>
       </c>
-      <c r="F635" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật phiên bản đồng bộ lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G635" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F635" s="29" t="inlineStr"/>
+      <c r="G635" s="4" t="inlineStr"/>
       <c r="H635" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38496,16 +37073,8 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ khách hàng thành công."</t>
         </is>
       </c>
-      <c r="F636" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật phiên bản đồng bộ khách hàng thành công.</t>
-        </is>
-      </c>
-      <c r="G636" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F636" s="29" t="inlineStr"/>
+      <c r="G636" s="4" t="inlineStr"/>
       <c r="H636" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38618,16 +37187,8 @@
           <t>Chuyển đến trang: "10.3.4 Quản trị nhóm đội"</t>
         </is>
       </c>
-      <c r="F640" s="29" t="inlineStr">
-        <is>
-          <t>10.3.4 Quản trị nhóm đội</t>
-        </is>
-      </c>
-      <c r="G640" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F640" s="29" t="inlineStr"/>
+      <c r="G640" s="4" t="inlineStr"/>
       <c r="H640" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38665,16 +37226,8 @@
           <t>Trường "Tên nhóm" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F641" s="29" t="inlineStr">
-        <is>
-          <t>nhóm 1</t>
-        </is>
-      </c>
-      <c r="G641" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F641" s="29" t="inlineStr"/>
+      <c r="G641" s="4" t="inlineStr"/>
       <c r="H641" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -38712,16 +37265,8 @@
           <t>Trường "Tên hiển thị" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F642" s="29" t="inlineStr">
-        <is>
-          <t>nhóm 1</t>
-        </is>
-      </c>
-      <c r="G642" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F642" s="29" t="inlineStr"/>
+      <c r="G642" s="4" t="inlineStr"/>
       <c r="H642" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39034,16 +37579,8 @@
           <t>Chuyển đến trang: "10.3.5 Quản trị tên xe"</t>
         </is>
       </c>
-      <c r="F651" s="29" t="inlineStr">
-        <is>
-          <t>10.3.5 Quản trị tên xe</t>
-        </is>
-      </c>
-      <c r="G651" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F651" s="29" t="inlineStr"/>
+      <c r="G651" s="4" t="inlineStr"/>
       <c r="H651" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39276,16 +37813,8 @@
           <t>Chuyển đến trang: "10.3.6 Quản trị loại xe"</t>
         </is>
       </c>
-      <c r="F658" s="29" t="inlineStr">
-        <is>
-          <t>10.3.6 Quản trị loại xe</t>
-        </is>
-      </c>
-      <c r="G658" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F658" s="29" t="inlineStr"/>
+      <c r="G658" s="4" t="inlineStr"/>
       <c r="H658" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39655,16 +38184,8 @@
           <t>Chuyển đến trang: "10.5.5 Danh sách tài khoản"</t>
         </is>
       </c>
-      <c r="F668" s="29" t="inlineStr">
-        <is>
-          <t>10.5.5 Danh sách tài khoản</t>
-        </is>
-      </c>
-      <c r="G668" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F668" s="29" t="inlineStr"/>
+      <c r="G668" s="4" t="inlineStr"/>
       <c r="H668" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39704,16 +38225,8 @@
           <t>Trường "Tên tài khoản" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F669" s="29" t="inlineStr">
-        <is>
-          <t>auto2363</t>
-        </is>
-      </c>
-      <c r="G669" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F669" s="29" t="inlineStr"/>
+      <c r="G669" s="4" t="inlineStr"/>
       <c r="H669" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39800,16 +38313,8 @@
 (Tài khoản ở mục Ghi chú)</t>
         </is>
       </c>
-      <c r="F671" s="29" t="inlineStr">
-        <is>
-          <t>Tài khoản đã tạo thành công</t>
-        </is>
-      </c>
-      <c r="G671" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F671" s="29" t="inlineStr"/>
+      <c r="G671" s="4" t="inlineStr"/>
       <c r="H671" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39822,7 +38327,7 @@
       <c r="M671" s="42" t="inlineStr"/>
       <c r="N671" s="42" t="inlineStr">
         <is>
-          <t>auto2302</t>
+          <t>auto2287</t>
         </is>
       </c>
     </row>
@@ -39850,16 +38355,8 @@
           <t>Hiển thị message: "Tài khoản đã thay đổi thành công"</t>
         </is>
       </c>
-      <c r="F672" s="29" t="inlineStr">
-        <is>
-          <t>Tài khoản đã thay đổi thành công</t>
-        </is>
-      </c>
-      <c r="G672" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F672" s="29" t="inlineStr"/>
+      <c r="G672" s="4" t="inlineStr"/>
       <c r="H672" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39901,16 +38398,8 @@
 3.Lấy mã kích hoạt mới &gt; "Mã kích hoạt được cập nhật thành công"</t>
         </is>
       </c>
-      <c r="F673" s="29" t="inlineStr">
-        <is>
-          <t>Mã kích hoạt được cập nhật thành công</t>
-        </is>
-      </c>
-      <c r="G673" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F673" s="29" t="inlineStr"/>
+      <c r="G673" s="4" t="inlineStr"/>
       <c r="H673" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39946,16 +38435,8 @@
           <t>Chuyển đến trang: "GÁN VAI TRÒ NGƯỜI DÙNG"</t>
         </is>
       </c>
-      <c r="F674" s="29" t="inlineStr">
-        <is>
-          <t>GÁN VAI TRÒ NGƯỜI DÙNG</t>
-        </is>
-      </c>
-      <c r="G674" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F674" s="29" t="inlineStr"/>
+      <c r="G674" s="4" t="inlineStr"/>
       <c r="H674" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -39992,16 +38473,8 @@
 DANH SÁCH QUYỀN ĐƯỢC GÁN"</t>
         </is>
       </c>
-      <c r="F675" s="29" t="inlineStr">
-        <is>
-          <t>DANH SÁCH QUYỀN ĐƯỢC GÁN</t>
-        </is>
-      </c>
-      <c r="G675" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F675" s="29" t="inlineStr"/>
+      <c r="G675" s="4" t="inlineStr"/>
       <c r="H675" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40038,16 +38511,8 @@
           <t>Hiển thị message: "Tài khoản đã thay đổi thành công."</t>
         </is>
       </c>
-      <c r="F676" s="29" t="inlineStr">
-        <is>
-          <t>Tài khoản đã thay đổi thành công.</t>
-        </is>
-      </c>
-      <c r="G676" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F676" s="29" t="inlineStr"/>
+      <c r="G676" s="4" t="inlineStr"/>
       <c r="H676" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40083,16 +38548,8 @@
           <t>Hiển thị message: "Khóa thành công."</t>
         </is>
       </c>
-      <c r="F677" s="29" t="inlineStr">
-        <is>
-          <t>Khóa thành công.</t>
-        </is>
-      </c>
-      <c r="G677" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F677" s="29" t="inlineStr"/>
+      <c r="G677" s="4" t="inlineStr"/>
       <c r="H677" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40128,16 +38585,8 @@
           <t>Hiển thị message: "Mở khóa thành công."</t>
         </is>
       </c>
-      <c r="F678" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa thành công.</t>
-        </is>
-      </c>
-      <c r="G678" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F678" s="29" t="inlineStr"/>
+      <c r="G678" s="4" t="inlineStr"/>
       <c r="H678" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40173,16 +38622,8 @@
           <t>Hiển thị message: "Xóa thành công."</t>
         </is>
       </c>
-      <c r="F679" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thành công.</t>
-        </is>
-      </c>
-      <c r="G679" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F679" s="29" t="inlineStr"/>
+      <c r="G679" s="4" t="inlineStr"/>
       <c r="H679" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40258,16 +38699,8 @@
           <t>Chuyển đến trang: "10.5.7 Lịch sử tài khoản"</t>
         </is>
       </c>
-      <c r="F682" s="29" t="inlineStr">
-        <is>
-          <t>10.5.7 Lịch sử tài khoản</t>
-        </is>
-      </c>
-      <c r="G682" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F682" s="29" t="inlineStr"/>
+      <c r="G682" s="4" t="inlineStr"/>
       <c r="H682" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40307,16 +38740,8 @@
           <t>Chuyển đến trang: "LỊCH SỬ HOẠT ĐỘNG"</t>
         </is>
       </c>
-      <c r="F683" s="29" t="inlineStr">
-        <is>
-          <t>LỊCH SỬ HOẠT ĐỘNG</t>
-        </is>
-      </c>
-      <c r="G683" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F683" s="29" t="inlineStr"/>
+      <c r="G683" s="4" t="inlineStr"/>
       <c r="H683" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40398,16 +38823,8 @@
           <t>Trường "Tên tài khoản" hiển thị: autoba</t>
         </is>
       </c>
-      <c r="F685" s="29" t="inlineStr">
-        <is>
-          <t>autoba</t>
-        </is>
-      </c>
-      <c r="G685" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F685" s="29" t="inlineStr"/>
+      <c r="G685" s="4" t="inlineStr"/>
       <c r="H685" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40618,16 +39035,8 @@
           <t>Chuyển đến trang: "10.6.1 Cấu hình lái xe"</t>
         </is>
       </c>
-      <c r="F692" s="29" t="inlineStr">
-        <is>
-          <t>10.6.1 Cấu hình lái xe</t>
-        </is>
-      </c>
-      <c r="G692" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F692" s="29" t="inlineStr"/>
+      <c r="G692" s="4" t="inlineStr"/>
       <c r="H692" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40664,20 +39073,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F693" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: WALLET
-Giá trị: {"isWallet":true, "min":20000, "isRecharge":true, "isDriverWallet":true, "isDriverRecharge": true,"isCreateCardTrip": true,"requiredPrice": 1, "RechargeType": 3}
-Kiểu dữ liệu: Kiểu chuỗi
-Ghi chú: {"isWallet":true =&gt; Hiện menu ví trên (Ví tài khoản) ,"min":50000, =&gt; Số tiền tối thiểu cho phép nạp "isRecharge":false, =&gt; Hiện nút nạp tiền ở màn hình ví trên hay không "isDriverWallet":true=&gt; Hiện menu ví dưới (Ví tiền mặt)</t>
-        </is>
-      </c>
-      <c r="G693" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F693" s="29" t="inlineStr"/>
+      <c r="G693" s="4" t="inlineStr"/>
       <c r="H693" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40753,16 +39150,8 @@
           <t>Chuyển đến trang: "10.6.2 Cấu hình khách hàng"</t>
         </is>
       </c>
-      <c r="F696" s="29" t="inlineStr">
-        <is>
-          <t>10.6.2 Cấu hình khách hàng</t>
-        </is>
-      </c>
-      <c r="G696" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F696" s="29" t="inlineStr"/>
+      <c r="G696" s="4" t="inlineStr"/>
       <c r="H696" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40799,21 +39188,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F697" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STT: 1
-Tên cấu hình: ZOOM_MAP
-Giá trị: {"android": 18, "iOS": 18, "minDistanceToMove": 15}
-Kiểu dữ liệu: Kiểu chuỗi
-Công ty: Cấu hình zoom mặc đinh ở màn hình home (Chỉ áp dụng cho app xamarin)
-Ghi chú: </t>
-        </is>
-      </c>
-      <c r="G697" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F697" s="29" t="inlineStr"/>
+      <c r="G697" s="4" t="inlineStr"/>
       <c r="H697" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40889,16 +39265,8 @@
           <t>Chuyển đến trang: "10.6.3 Cấu hình quản trị"</t>
         </is>
       </c>
-      <c r="F700" s="29" t="inlineStr">
-        <is>
-          <t>10.6.3 Cấu hình quản trị</t>
-        </is>
-      </c>
-      <c r="G700" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F700" s="29" t="inlineStr"/>
+      <c r="G700" s="4" t="inlineStr"/>
       <c r="H700" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -40935,19 +39303,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F701" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: YEU_CAU_DOI_MAT_KHAU_THEO_CHU_KY
-Giá trị: False
-Ghi chú: Yêu cầu đổi mật khẩu theo chu kỳ</t>
-        </is>
-      </c>
-      <c r="G701" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F701" s="29" t="inlineStr"/>
+      <c r="G701" s="4" t="inlineStr"/>
       <c r="H701" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41023,16 +39380,8 @@
           <t>Chuyển đến trang: "10.6.4 Cấu hình server"</t>
         </is>
       </c>
-      <c r="F704" s="29" t="inlineStr">
-        <is>
-          <t>10.6.4 Cấu hình server</t>
-        </is>
-      </c>
-      <c r="G704" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F704" s="29" t="inlineStr"/>
+      <c r="G704" s="4" t="inlineStr"/>
       <c r="H704" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41069,19 +39418,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F705" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: YOUR_TRIP_DANG_DUOC_DIEU_HANH_HO_TRO_GOI_XE
-Giá trị: Điều hành đang hỗ trợ đặt xe cho bạn
-Ghi chú: Điều hành đang hỗ trợ đặt xe cho bạn</t>
-        </is>
-      </c>
-      <c r="G705" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F705" s="29" t="inlineStr"/>
+      <c r="G705" s="4" t="inlineStr"/>
       <c r="H705" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41698,16 +40036,8 @@
           <t>Chuyển đến trang: "10.6.10 Cấu hình hạng thẻ"</t>
         </is>
       </c>
-      <c r="F727" s="29" t="inlineStr">
-        <is>
-          <t>10.6.10 Cấu hình hạng thẻ</t>
-        </is>
-      </c>
-      <c r="G727" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F727" s="29" t="inlineStr"/>
+      <c r="G727" s="4" t="inlineStr"/>
       <c r="H727" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41744,19 +40074,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F728" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Loại thẻ: Hạng vàng
-Màu thẻ: #e3a7ff
-Ghi chú: Thẻ vàng (gold) là loại thẻ tín dụng có hạn mức cao từ trên 50.000.000 đồng, được cấp cho những khách hàng có năng lực tài chính tốt và độ uy tín tín dụng cao. Chủ sở hữu thẻ vàng có cơ hội nhận được nhiều tiện ích và ưu đãi hấp dẫn hơn so với các loại</t>
-        </is>
-      </c>
-      <c r="G728" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F728" s="29" t="inlineStr"/>
+      <c r="G728" s="4" t="inlineStr"/>
       <c r="H728" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41832,16 +40151,8 @@
           <t>Chuyển đến trang: "10.6.11 Kích hoạt dịch vụ"</t>
         </is>
       </c>
-      <c r="F731" s="29" t="inlineStr">
-        <is>
-          <t>10.6.11 Kích hoạt dịch vụ</t>
-        </is>
-      </c>
-      <c r="G731" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F731" s="29" t="inlineStr"/>
+      <c r="G731" s="4" t="inlineStr"/>
       <c r="H731" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -41971,16 +40282,8 @@
           <t>Chuyển đến trang: "10.7.1 Quản trị thông báo lái xe"</t>
         </is>
       </c>
-      <c r="F736" s="29" t="inlineStr">
-        <is>
-          <t>10.7.1 Quản trị thông báo lái xe</t>
-        </is>
-      </c>
-      <c r="G736" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F736" s="29" t="inlineStr"/>
+      <c r="G736" s="4" t="inlineStr"/>
       <c r="H736" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42023,16 +40326,8 @@
           <t>Trường "Tiêu đề" hiện thị đúng "Tiêu đề" đã nhập</t>
         </is>
       </c>
-      <c r="F737" s="29" t="inlineStr">
-        <is>
-          <t>Cộng ví tiền mặt khi hoàn thành chuyến thanh toán thẻ. Số dư tài khoản: 498000đ</t>
-        </is>
-      </c>
-      <c r="G737" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F737" s="29" t="inlineStr"/>
+      <c r="G737" s="4" t="inlineStr"/>
       <c r="H737" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42622,16 +40917,8 @@
 (Thông báo tạo ở mục ghi chú)</t>
         </is>
       </c>
-      <c r="F752" s="56" t="inlineStr">
-        <is>
-          <t>Thông báo đã tạo thành công.</t>
-        </is>
-      </c>
-      <c r="G752" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F752" s="56" t="inlineStr"/>
+      <c r="G752" s="4" t="inlineStr"/>
       <c r="H752" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42644,7 +40931,7 @@
       <c r="M752" s="42" t="inlineStr"/>
       <c r="N752" s="67" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_2303</t>
+          <t>Auto_ThongBao_2288</t>
         </is>
       </c>
     </row>
@@ -42672,16 +40959,8 @@
           <t>Hiển thị thông báo: "Thông báo đã được cập nhật thành công."</t>
         </is>
       </c>
-      <c r="F753" s="29" t="inlineStr">
-        <is>
-          <t>Thông báo đã được cập nhật thành công.</t>
-        </is>
-      </c>
-      <c r="G753" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F753" s="29" t="inlineStr"/>
+      <c r="G753" s="4" t="inlineStr"/>
       <c r="H753" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42717,16 +40996,8 @@
           <t>Mở tab mới, Hiển thị nội dung của thông báo: "Test tạo thông báo theo lái xe"</t>
         </is>
       </c>
-      <c r="F754" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật số dư</t>
-        </is>
-      </c>
-      <c r="G754" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F754" s="29" t="inlineStr"/>
+      <c r="G754" s="4" t="inlineStr"/>
       <c r="H754" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42762,16 +41033,8 @@
           <t>Chuyển tới trang: "DANH SÁCH LÁI XE ĐÃ ĐỌC THÔNG BÁO"</t>
         </is>
       </c>
-      <c r="F755" s="29" t="inlineStr">
-        <is>
-          <t>DANH SÁCH LÁI XE ĐÃ ĐỌC THÔNG BÁO</t>
-        </is>
-      </c>
-      <c r="G755" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F755" s="29" t="inlineStr"/>
+      <c r="G755" s="4" t="inlineStr"/>
       <c r="H755" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42807,16 +41070,8 @@
           <t>Hiển thị message: "Xóa thông báo thành công."</t>
         </is>
       </c>
-      <c r="F756" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thông báo thành công.</t>
-        </is>
-      </c>
-      <c r="G756" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F756" s="29" t="inlineStr"/>
+      <c r="G756" s="4" t="inlineStr"/>
       <c r="H756" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42891,16 +41146,8 @@
           <t>Chuyển đến trang: "10.7.4 Quản trị thông báo lái xe v2"</t>
         </is>
       </c>
-      <c r="F759" s="29" t="inlineStr">
-        <is>
-          <t>10.7.4 Quản trị thông báo lái xe v2</t>
-        </is>
-      </c>
-      <c r="G759" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F759" s="29" t="inlineStr"/>
+      <c r="G759" s="4" t="inlineStr"/>
       <c r="H759" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -42979,16 +41226,8 @@
           <t>Trường "Tiêu đề" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F761" s="29" t="inlineStr">
-        <is>
-          <t>Ví tiền mặt: +20.000đ, hoàn tiền khuyến mãi cuốc khách</t>
-        </is>
-      </c>
-      <c r="G761" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F761" s="29" t="inlineStr"/>
+      <c r="G761" s="4" t="inlineStr"/>
       <c r="H761" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43026,16 +41265,8 @@
           <t>Trường "Kiểu thông báo" hiện thị: Thông báo</t>
         </is>
       </c>
-      <c r="F762" s="29" t="inlineStr">
-        <is>
-          <t>Thông báo</t>
-        </is>
-      </c>
-      <c r="G762" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F762" s="29" t="inlineStr"/>
+      <c r="G762" s="4" t="inlineStr"/>
       <c r="H762" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -43954,16 +42185,8 @@
           <t>Chuyển đến trang: "10.10.2 Phụ phí loại hàng hóa"</t>
         </is>
       </c>
-      <c r="F787" s="29" t="inlineStr">
-        <is>
-          <t>10.10.2 Phụ phí loại hàng hóa</t>
-        </is>
-      </c>
-      <c r="G787" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F787" s="29" t="inlineStr"/>
+      <c r="G787" s="4" t="inlineStr"/>
       <c r="H787" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44085,16 +42308,8 @@
           <t>Hiển thị message: "Lưu loại hàng hóa thành công"</t>
         </is>
       </c>
-      <c r="F790" s="29" t="inlineStr">
-        <is>
-          <t>Lưu loại hàng hóa thành công</t>
-        </is>
-      </c>
-      <c r="G790" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F790" s="29" t="inlineStr"/>
+      <c r="G790" s="4" t="inlineStr"/>
       <c r="H790" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44172,16 +42387,8 @@
           <t>Hiển thị message: "Xóa loại hàng hóa thành công"</t>
         </is>
       </c>
-      <c r="F792" s="29" t="inlineStr">
-        <is>
-          <t>Xóa loại hàng hóa thành công</t>
-        </is>
-      </c>
-      <c r="G792" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F792" s="29" t="inlineStr"/>
+      <c r="G792" s="4" t="inlineStr"/>
       <c r="H792" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44261,16 +42468,8 @@
           <t>Chuyển đến trang: "10.10.3 Phụ phí theo thời gian"</t>
         </is>
       </c>
-      <c r="F795" s="29" t="inlineStr">
-        <is>
-          <t>10.10.3 Phụ phí theo thời gian</t>
-        </is>
-      </c>
-      <c r="G795" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F795" s="29" t="inlineStr"/>
+      <c r="G795" s="4" t="inlineStr"/>
       <c r="H795" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44356,16 +42555,8 @@
           <t>Hiển thị message: "Lưu cấu hình thời gian thành công"</t>
         </is>
       </c>
-      <c r="F797" s="29" t="inlineStr">
-        <is>
-          <t>Lưu cấu hình thời gian thành công</t>
-        </is>
-      </c>
-      <c r="G797" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F797" s="29" t="inlineStr"/>
+      <c r="G797" s="4" t="inlineStr"/>
       <c r="H797" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44443,16 +42634,8 @@
           <t>Hiển thị message: "Xóa cấu hình thời gian thành công"</t>
         </is>
       </c>
-      <c r="F799" s="29" t="inlineStr">
-        <is>
-          <t>Xóa cấu hình thời gian thành công</t>
-        </is>
-      </c>
-      <c r="G799" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F799" s="29" t="inlineStr"/>
+      <c r="G799" s="4" t="inlineStr"/>
       <c r="H799" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44531,16 +42714,8 @@
           <t>Chuyển đến trang: "10.10.4 Phụ phí thu hộ"</t>
         </is>
       </c>
-      <c r="F802" s="29" t="inlineStr">
-        <is>
-          <t>10.10.4 Phụ phí thu hộ</t>
-        </is>
-      </c>
-      <c r="G802" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F802" s="29" t="inlineStr"/>
+      <c r="G802" s="4" t="inlineStr"/>
       <c r="H802" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44742,16 +42917,8 @@
           <t>Hiển thị message: "Lưu phụ phí thành công"</t>
         </is>
       </c>
-      <c r="F807" s="29" t="inlineStr">
-        <is>
-          <t>Lưu phụ phí thành công</t>
-        </is>
-      </c>
-      <c r="G807" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F807" s="29" t="inlineStr"/>
+      <c r="G807" s="4" t="inlineStr"/>
       <c r="H807" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44829,16 +42996,8 @@
           <t>Hiển thị message: "Xóa phụ phí thành công"</t>
         </is>
       </c>
-      <c r="F809" s="29" t="inlineStr">
-        <is>
-          <t>Xóa phụ phí thành công</t>
-        </is>
-      </c>
-      <c r="G809" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F809" s="29" t="inlineStr"/>
+      <c r="G809" s="4" t="inlineStr"/>
       <c r="H809" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -44917,16 +43076,8 @@
           <t>Chuyển đến trang: "10.10.5 Phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F812" s="29" t="inlineStr">
-        <is>
-          <t>10.10.5 Phụ phí theo thời tiết</t>
-        </is>
-      </c>
-      <c r="G812" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F812" s="29" t="inlineStr"/>
+      <c r="G812" s="4" t="inlineStr"/>
       <c r="H812" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -45014,16 +43165,8 @@
           <t>Hiển thị message: "Lưu phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F814" s="29" t="inlineStr">
-        <is>
-          <t>Lưu phụ phí theo thời tiết</t>
-        </is>
-      </c>
-      <c r="G814" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F814" s="29" t="inlineStr"/>
+      <c r="G814" s="4" t="inlineStr"/>
       <c r="H814" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -45101,16 +43244,8 @@
           <t>Hiển thị message: "Xóa phụ phí theo thời tiết thành công"</t>
         </is>
       </c>
-      <c r="F816" s="29" t="inlineStr">
-        <is>
-          <t>Xóa phụ phí theo thời tiết thành công</t>
-        </is>
-      </c>
-      <c r="G816" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F816" s="29" t="inlineStr"/>
+      <c r="G816" s="4" t="inlineStr"/>
       <c r="H816" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -45555,16 +43690,8 @@
           <t>Chuyển đến trang: "14.1 Quản lý xuất hoá đơn"</t>
         </is>
       </c>
-      <c r="F831" s="29" t="inlineStr">
-        <is>
-          <t>14.1 Quản lý xuất hoá đơn</t>
-        </is>
-      </c>
-      <c r="G831" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F831" s="29" t="inlineStr"/>
+      <c r="G831" s="4" t="inlineStr"/>
       <c r="H831" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -45688,16 +43815,8 @@
           <t>Trường "Mã cuốc khách" hiện thị đúng Mã cuốc khách đã nhập</t>
         </is>
       </c>
-      <c r="F834" s="29" t="inlineStr">
-        <is>
-          <t>00072F03</t>
-        </is>
-      </c>
-      <c r="G834" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F834" s="29" t="inlineStr"/>
+      <c r="G834" s="4" t="inlineStr"/>
       <c r="H834" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -46430,16 +44549,8 @@
 2."Cuốc khách không đủ điều kiện xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F852" s="29" t="inlineStr">
-        <is>
-          <t>Cuốc khách không đủ điều kiện xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G852" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F852" s="29" t="inlineStr"/>
+      <c r="G852" s="4" t="inlineStr"/>
       <c r="H852" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -46481,16 +44592,8 @@
           <t>Hiển thị thông báo: "Xác nhận không xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F853" s="29" t="inlineStr">
-        <is>
-          <t>Xác nhận không xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G853" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F853" s="29" t="inlineStr"/>
+      <c r="G853" s="4" t="inlineStr"/>
       <c r="H853" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -46529,16 +44632,8 @@
 2."Cuốc khách không đủ điều kiện xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F854" s="29" t="inlineStr">
-        <is>
-          <t>Thông tin xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G854" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F854" s="29" t="inlineStr"/>
+      <c r="G854" s="4" t="inlineStr"/>
       <c r="H854" s="6" t="inlineStr">
         <is>
           <t>x</t>

--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -15025,7 +15025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE915"/>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
@@ -16004,16 +16004,8 @@
           <t>Chuyển đến trang: "1.2 Xe online"</t>
         </is>
       </c>
-      <c r="F30" s="15" t="inlineStr">
-        <is>
-          <t>1.2 Xe online</t>
-        </is>
-      </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F30" s="15" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr"/>
       <c r="H30" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16055,16 +16047,8 @@
           <t>Trường "Biển số" hiển thị dữ liệu hàng đầu tiên: "Biển số vừa nhập"</t>
         </is>
       </c>
-      <c r="F31" s="15" t="inlineStr">
-        <is>
-          <t>BAHAIMH</t>
-        </is>
-      </c>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F31" s="15" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16140,16 +16124,8 @@
           <t>Trường "Đang lái" hiển thị dữ liệu hàng đầu tiên: "0945912674"</t>
         </is>
       </c>
-      <c r="F33" s="15" t="inlineStr">
-        <is>
-          <t>bahaimh</t>
-        </is>
-      </c>
-      <c r="G33" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F33" s="15" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16608,18 +16584,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F45" s="15" t="inlineStr">
-        <is>
-          <t>Dữ liệu web: Mở
-Dữ liệu excel: Kết nối tốt
- Dòng: J6</t>
-        </is>
-      </c>
-      <c r="G45" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F45" s="15" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16919,16 +16885,8 @@
           <t>Hiển thị xe có mã đàm đã nhập ở map</t>
         </is>
       </c>
-      <c r="F54" s="15" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="G54" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F54" s="15" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr"/>
       <c r="H54" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -16964,16 +16922,8 @@
           <t>Hiển thị message: "Lưu thành công!"</t>
         </is>
       </c>
-      <c r="F55" s="15" t="inlineStr">
-        <is>
-          <t>Lưu thành công!</t>
-        </is>
-      </c>
-      <c r="G55" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F55" s="15" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr"/>
       <c r="H55" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17018,16 +16968,8 @@
 2."Hiển thị message: "Lưu thông tin thành công." và load lại trang</t>
         </is>
       </c>
-      <c r="F56" s="15" t="inlineStr">
-        <is>
-          <t>Cập nhật cấu hình khởi động</t>
-        </is>
-      </c>
-      <c r="G56" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F56" s="15" t="inlineStr"/>
+      <c r="G56" s="4" t="inlineStr"/>
       <c r="H56" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -17183,11 +17125,7 @@
           <t>Ảnh xe tìm kiếm: "/Content/themes/img/GreenCar.png"</t>
         </is>
       </c>
-      <c r="F60" s="46" t="inlineStr">
-        <is>
-          <t>https://app.staxi.vn/Content/themes/img/WarGreenCar.png</t>
-        </is>
-      </c>
+      <c r="F60" s="46" t="inlineStr"/>
       <c r="G60" s="4" t="inlineStr"/>
       <c r="H60" s="6" t="inlineStr">
         <is>
@@ -46841,6 +46779,431 @@
       <c r="L915" s="2" t="n"/>
       <c r="M915" s="42" t="inlineStr"/>
       <c r="N915" s="42" t="n"/>
+    </row>
+    <row r="916">
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="inlineStr"/>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="F921" t="inlineStr"/>
+      <c r="G921" t="inlineStr"/>
+      <c r="M921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr"/>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="F923" t="inlineStr"/>
+      <c r="G923" t="inlineStr"/>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="F924" t="inlineStr"/>
+      <c r="G924" t="inlineStr"/>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="F925" t="inlineStr"/>
+      <c r="G925" t="inlineStr"/>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="F926" t="inlineStr"/>
+      <c r="G926" t="inlineStr"/>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="inlineStr"/>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="inlineStr"/>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="inlineStr"/>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
+      <c r="M931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
+      <c r="M932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
+      <c r="M933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="inlineStr"/>
+      <c r="M934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="F935" t="inlineStr"/>
+      <c r="G935" t="inlineStr"/>
+      <c r="M935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="F936" t="inlineStr"/>
+      <c r="G936" t="inlineStr"/>
+      <c r="M936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="F937" t="inlineStr"/>
+      <c r="G937" t="inlineStr"/>
+      <c r="M937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="F938" t="inlineStr"/>
+      <c r="G938" t="inlineStr"/>
+      <c r="M938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="inlineStr"/>
+      <c r="M939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="inlineStr"/>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="inlineStr"/>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="F942" t="inlineStr"/>
+      <c r="G942" t="inlineStr"/>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="F943" t="inlineStr"/>
+      <c r="G943" t="inlineStr"/>
+      <c r="M943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="F944" t="inlineStr"/>
+      <c r="G944" t="inlineStr"/>
+      <c r="M944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="F945" t="inlineStr"/>
+      <c r="G945" t="inlineStr"/>
+      <c r="M945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="inlineStr"/>
+      <c r="M946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="F947" t="inlineStr"/>
+      <c r="G947" t="inlineStr"/>
+      <c r="M947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="F948" t="inlineStr"/>
+      <c r="G948" t="inlineStr"/>
+      <c r="M948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="inlineStr"/>
+      <c r="M949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="inlineStr"/>
+      <c r="M950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="F951" t="inlineStr"/>
+      <c r="G951" t="inlineStr"/>
+      <c r="M951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="F952" t="inlineStr"/>
+      <c r="G952" t="inlineStr"/>
+      <c r="M952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="F953" t="inlineStr"/>
+      <c r="G953" t="inlineStr"/>
+      <c r="M953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="F954" t="inlineStr"/>
+      <c r="G954" t="inlineStr"/>
+      <c r="M954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="inlineStr"/>
+      <c r="M955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="F956" t="inlineStr"/>
+      <c r="G956" t="inlineStr"/>
+      <c r="M956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="F957" t="inlineStr"/>
+      <c r="G957" t="inlineStr"/>
+      <c r="M957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="F958" t="inlineStr"/>
+      <c r="G958" t="inlineStr"/>
+      <c r="M958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="F959" t="inlineStr"/>
+      <c r="G959" t="inlineStr"/>
+      <c r="M959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="F960" t="inlineStr"/>
+      <c r="G960" t="inlineStr"/>
+      <c r="M960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="M961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="M962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="F963" t="inlineStr"/>
+      <c r="G963" t="inlineStr"/>
+      <c r="M963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="F964" t="inlineStr"/>
+      <c r="G964" t="inlineStr"/>
+      <c r="M964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="inlineStr"/>
+      <c r="M965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="F966" t="inlineStr"/>
+      <c r="G966" t="inlineStr"/>
+      <c r="M966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="F967" t="inlineStr"/>
+      <c r="G967" t="inlineStr"/>
+      <c r="M967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="F968" t="inlineStr"/>
+      <c r="G968" t="inlineStr"/>
+      <c r="M968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="F969" t="inlineStr"/>
+      <c r="G969" t="inlineStr"/>
+      <c r="M969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="F970" t="inlineStr"/>
+      <c r="G970" t="inlineStr"/>
+      <c r="M970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="inlineStr"/>
+      <c r="M971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="inlineStr"/>
+      <c r="M972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="F973" t="inlineStr"/>
+      <c r="G973" t="inlineStr"/>
+      <c r="M973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="F974" t="inlineStr"/>
+      <c r="G974" t="inlineStr"/>
+      <c r="M974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="F975" t="inlineStr"/>
+      <c r="G975" t="inlineStr"/>
+      <c r="M975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="F976" t="inlineStr"/>
+      <c r="G976" t="inlineStr"/>
+      <c r="M976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="F977" t="inlineStr"/>
+      <c r="G977" t="inlineStr"/>
+      <c r="M977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="F978" t="inlineStr"/>
+      <c r="G978" t="inlineStr"/>
+      <c r="M978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="F979" t="inlineStr"/>
+      <c r="G979" t="inlineStr"/>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="F980" t="inlineStr"/>
+      <c r="G980" t="inlineStr"/>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="F981" t="inlineStr"/>
+      <c r="G981" t="inlineStr"/>
+      <c r="M981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="F982" t="inlineStr"/>
+      <c r="G982" t="inlineStr"/>
+      <c r="M982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="M983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="M984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="inlineStr"/>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr"/>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr"/>
+      <c r="M988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="inlineStr"/>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr"/>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr"/>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr"/>
+      <c r="M992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr"/>
+      <c r="M993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="M994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr"/>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr"/>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="M998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
+      <c r="M999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr"/>
+      <c r="M1000" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="G1:L867"/>

--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -15446,16 +15446,8 @@
 Hiển thị text: "Chào mừng đến với trang quản trị hệ thống Staxi"</t>
         </is>
       </c>
-      <c r="F12" s="15" t="inlineStr">
-        <is>
-          <t>Chào mừng đến với trang quản trị hệ thống Staxi</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F12" s="15" t="inlineStr"/>
+      <c r="G12" s="4" t="inlineStr"/>
       <c r="H12" s="6" t="n"/>
       <c r="I12" s="6" t="n"/>
       <c r="J12" s="6" t="n"/>
@@ -15501,16 +15493,8 @@
 tài khoản: "Xin chào: [9348] Taxi Nguyễn Gia [9348]"</t>
         </is>
       </c>
-      <c r="F13" s="15" t="inlineStr">
-        <is>
-          <t>Xin chào: [9348] Taxi Nguyễn Gia [9348]</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F13" s="15" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr"/>
       <c r="H13" s="6" t="n"/>
       <c r="I13" s="6" t="n"/>
       <c r="J13" s="6" t="n"/>
@@ -15556,16 +15540,8 @@
 tài khoản: "Xin chào: [1996] Test 12/10 [1996]"</t>
         </is>
       </c>
-      <c r="F14" s="15" t="inlineStr">
-        <is>
-          <t>Xin chào: [1996] Test 12/10 [1996]</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F14" s="15" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr"/>
       <c r="H14" s="6" t="n"/>
       <c r="I14" s="6" t="n"/>
       <c r="J14" s="6" t="n"/>
@@ -15695,16 +15671,8 @@
           <t>Chuyển tới trang: "THIẾT BỊ GIÁM SÁT HÀNH TRÌNH"</t>
         </is>
       </c>
-      <c r="F19" s="29" t="inlineStr">
-        <is>
-          <t>THIẾT BỊ GIÁM SÁT HÀNH TRÌNH</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F19" s="29" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
       <c r="H19" s="2" t="n"/>
       <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="n"/>
@@ -15739,16 +15707,8 @@
           <t>Chuyển tới trang: "HƯỚNG DẪN SỬ DỤNG"</t>
         </is>
       </c>
-      <c r="F20" s="29" t="inlineStr">
-        <is>
-          <t>HƯỚNG DẪN SỬ DỤNG</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F20" s="29" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
       <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="n"/>
       <c r="J20" s="2" t="n"/>
@@ -15783,16 +15743,8 @@
           <t>Chuyển tới trang: "Tin tức - BA GPS"</t>
         </is>
       </c>
-      <c r="F21" s="29" t="inlineStr">
-        <is>
-          <t>Tin tức - BA GPS</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F21" s="29" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
       <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="n"/>
       <c r="J21" s="2" t="n"/>
@@ -15827,16 +15779,8 @@
           <t>Chuyển tới trang: "Về chúng tôi - BA GPS"</t>
         </is>
       </c>
-      <c r="F22" s="29" t="inlineStr">
-        <is>
-          <t>Về chúng tôi - BA GPS</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F22" s="29" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
       <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="n"/>
       <c r="J22" s="2" t="n"/>
@@ -15871,16 +15815,8 @@
           <t>Chuyển tới trang Google Play hiển thị app: "G7 Taxi"</t>
         </is>
       </c>
-      <c r="F23" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F23" s="29" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr"/>
       <c r="H23" s="2" t="n"/>
       <c r="I23" s="2" t="n"/>
       <c r="J23" s="2" t="n"/>
@@ -15915,16 +15851,8 @@
           <t>Chuyển tới trang App Store hiển thị app: "G7 Taxi"</t>
         </is>
       </c>
-      <c r="F24" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F24" s="29" t="inlineStr"/>
+      <c r="G24" s="4" t="inlineStr"/>
       <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n"/>
@@ -15959,16 +15887,8 @@
           <t>Chuyển tới trang: "GIÁM SÁT HÀNH TRÌNH SỐ 1 VIỆT NAM - BA GPS"</t>
         </is>
       </c>
-      <c r="F25" s="29" t="inlineStr">
-        <is>
-          <t>GIÁM SÁT HÀNH TRÌNH SỐ 1 VIỆT NAM - BA GPS</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F25" s="29" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="2" t="n"/>
       <c r="I25" s="2" t="n"/>
       <c r="J25" s="2" t="n"/>
@@ -16137,7 +16057,7 @@
       </c>
       <c r="F31" s="15" t="inlineStr">
         <is>
-          <t>BA2410</t>
+          <t>BAHAIMH</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
@@ -16222,7 +16142,7 @@
       </c>
       <c r="F33" s="15" t="inlineStr">
         <is>
-          <t>bahlt</t>
+          <t>bahaimh</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -16267,16 +16187,8 @@
           <t>Trường "Thời điểm vào ca" hiển thị dữ liệu hàng đầu tiên: "Ngày hiện tại"</t>
         </is>
       </c>
-      <c r="F34" s="15" t="inlineStr">
-        <is>
-          <t>29/1/2026</t>
-        </is>
-      </c>
-      <c r="G34" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F34" s="15" t="inlineStr"/>
+      <c r="G34" s="4" t="inlineStr"/>
       <c r="I34" s="6" t="n"/>
       <c r="J34" s="6" t="n"/>
       <c r="K34" s="6" t="inlineStr">
@@ -16313,16 +16225,8 @@
           <t>Trường "Thời điểm mất kết nối" hiển thị dữ liệu hàng đầu tiên: "Ngày hiện tại"</t>
         </is>
       </c>
-      <c r="F35" s="15" t="inlineStr">
-        <is>
-          <t>29/1/2026</t>
-        </is>
-      </c>
-      <c r="G35" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F35" s="15" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
       <c r="H35" s="6" t="n"/>
       <c r="I35" s="6" t="n"/>
       <c r="J35" s="6" t="n"/>
@@ -16360,16 +16264,8 @@
 (Không được trống)</t>
         </is>
       </c>
-      <c r="F36" s="15" t="inlineStr">
-        <is>
-          <t>Đóng</t>
-        </is>
-      </c>
-      <c r="G36" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F36" s="15" t="inlineStr"/>
+      <c r="G36" s="4" t="inlineStr"/>
       <c r="H36" s="6" t="n"/>
       <c r="I36" s="6" t="n"/>
       <c r="J36" s="6" t="n"/>
@@ -16406,11 +16302,7 @@
           <t>Trường "Trạng thái kết nối" hiển thị: "Mở"</t>
         </is>
       </c>
-      <c r="F37" s="15" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F37" s="15" t="inlineStr"/>
       <c r="G37" s="4" t="inlineStr"/>
       <c r="H37" s="6" t="n"/>
       <c r="I37" s="6" t="n"/>
@@ -16421,11 +16313,7 @@
         </is>
       </c>
       <c r="L37" s="4" t="n"/>
-      <c r="M37" s="20" t="inlineStr">
-        <is>
-          <t>Minitor08GiamSat_TimKiem_DangVaoCaVaKetNoiTot.png</t>
-        </is>
-      </c>
+      <c r="M37" s="20" t="inlineStr"/>
       <c r="N37" s="20" t="n"/>
     </row>
     <row r="38" ht="38.45" customHeight="1">
@@ -16452,16 +16340,8 @@
           <t>Trường "Trạng thái kết nối" hiển thị: "Đóng"</t>
         </is>
       </c>
-      <c r="F38" s="15" t="inlineStr">
-        <is>
-          <t>Đóng</t>
-        </is>
-      </c>
-      <c r="G38" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F38" s="15" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
       <c r="H38" s="6" t="n"/>
       <c r="I38" s="6" t="n"/>
       <c r="J38" s="6" t="n"/>
@@ -16537,16 +16417,8 @@
 (có hiển thị trường: Phiên bản xe)</t>
         </is>
       </c>
-      <c r="F40" s="15" t="inlineStr">
-        <is>
-          <t>701051/506280</t>
-        </is>
-      </c>
-      <c r="G40" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F40" s="15" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
       <c r="H40" s="6" t="n"/>
       <c r="I40" s="6" t="n"/>
       <c r="J40" s="6" t="n"/>
@@ -16583,16 +16455,8 @@
           <t>Hiển thị tất cả xe đã vào ca</t>
         </is>
       </c>
-      <c r="F41" s="15" t="inlineStr">
-        <is>
-          <t>30A76818</t>
-        </is>
-      </c>
-      <c r="G41" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F41" s="15" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr"/>
       <c r="H41" s="6" t="n"/>
       <c r="I41" s="6" t="n"/>
       <c r="J41" s="6" t="n"/>
@@ -16629,16 +16493,8 @@
           <t>Trường "Hộp đen" hiển thị: "Không khách"</t>
         </is>
       </c>
-      <c r="F42" s="15" t="inlineStr">
-        <is>
-          <t>Không khách</t>
-        </is>
-      </c>
-      <c r="G42" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F42" s="15" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr"/>
       <c r="H42" s="6" t="n"/>
       <c r="I42" s="6" t="n"/>
       <c r="J42" s="6" t="n"/>
@@ -16675,11 +16531,7 @@
           <t>Trường "Hộp đen" hiển thị: "Có khách"</t>
         </is>
       </c>
-      <c r="F43" s="15" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F43" s="15" t="inlineStr"/>
       <c r="G43" s="4" t="inlineStr"/>
       <c r="H43" s="6" t="n"/>
       <c r="I43" s="6" t="n"/>
@@ -16717,11 +16569,7 @@
           <t>Trường "Hộp đen" hiển thị: "Mất kết nối"</t>
         </is>
       </c>
-      <c r="F44" s="15" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F44" s="15" t="inlineStr"/>
       <c r="G44" s="4" t="inlineStr"/>
       <c r="H44" s="6" t="n"/>
       <c r="I44" s="6" t="n"/>
@@ -16807,16 +16655,8 @@
           <t>Hiển thị thông báo: "Bạn chắc nhắn muốn logout các lái xe đã chọn ?"</t>
         </is>
       </c>
-      <c r="F46" s="15" t="inlineStr">
-        <is>
-          <t>Bạn chắc nhắn muốn logout các lái xe đã chọn ?</t>
-        </is>
-      </c>
-      <c r="G46" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F46" s="15" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr"/>
       <c r="H46" s="6" t="n"/>
       <c r="I46" s="6" t="n"/>
       <c r="J46" s="6" t="n"/>
@@ -16853,16 +16693,8 @@
           <t>Hiển thị thông báo: "Bạn chắc nhắn muốn logout các lái xe đã chọn ?"</t>
         </is>
       </c>
-      <c r="F47" s="15" t="inlineStr">
-        <is>
-          <t>Bạn chắc nhắn muốn logout các lái xe đã chọn ?</t>
-        </is>
-      </c>
-      <c r="G47" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F47" s="15" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr"/>
       <c r="H47" s="6" t="n"/>
       <c r="I47" s="6" t="n"/>
       <c r="J47" s="6" t="n"/>
@@ -16899,16 +16731,8 @@
           <t>Hiển thị thông báo: "Bạn chắc nhắn muốn logout các lái xe đã chọn ?"</t>
         </is>
       </c>
-      <c r="F48" s="15" t="inlineStr">
-        <is>
-          <t>Bạn chắc nhắn muốn logout các lái xe đã chọn ?</t>
-        </is>
-      </c>
-      <c r="G48" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F48" s="15" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
       <c r="H48" s="6" t="n"/>
       <c r="I48" s="6" t="n"/>
       <c r="J48" s="6" t="n"/>
@@ -16944,16 +16768,8 @@
           <t>Hiển thị thông báo: "files is null."</t>
         </is>
       </c>
-      <c r="F49" s="15" t="inlineStr">
-        <is>
-          <t>files is null.</t>
-        </is>
-      </c>
-      <c r="G49" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F49" s="15" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr"/>
       <c r="H49" s="6" t="n"/>
       <c r="I49" s="6" t="n"/>
       <c r="J49" s="6" t="n"/>
@@ -16989,16 +16805,8 @@
           <t>Hiển thị thông báo: "Bạn chắc chắn muốn logout lái xe có biển số: xxxxxxxxx."</t>
         </is>
       </c>
-      <c r="F50" s="15" t="inlineStr">
-        <is>
-          <t>Bạn chắc chắn muốn logout lái xe có biển số: 30A76818</t>
-        </is>
-      </c>
-      <c r="G50" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F50" s="15" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr"/>
       <c r="H50" s="6" t="n"/>
       <c r="I50" s="6" t="n"/>
       <c r="J50" s="6" t="n"/>
@@ -17426,7 +17234,11 @@
       <c r="J60" s="6" t="n"/>
       <c r="K60" s="6" t="n"/>
       <c r="L60" s="4" t="n"/>
-      <c r="M60" s="20" t="inlineStr"/>
+      <c r="M60" s="20" t="inlineStr">
+        <is>
+          <t>Minitor29_GiamSatXe_TrangThaiSanSang_.png</t>
+        </is>
+      </c>
       <c r="N60" s="20" t="n"/>
     </row>
     <row r="61" ht="77.25" customHeight="1">
@@ -17767,7 +17579,11 @@
       <c r="J67" s="6" t="n"/>
       <c r="K67" s="6" t="n"/>
       <c r="L67" s="4" t="n"/>
-      <c r="M67" s="20" t="inlineStr"/>
+      <c r="M67" s="20" t="inlineStr">
+        <is>
+          <t>Minitor36_GiamSatXe_LoTrinh_TimKiem.png</t>
+        </is>
+      </c>
       <c r="N67" s="20" t="n"/>
     </row>
     <row r="68">
@@ -17835,7 +17651,11 @@
         </is>
       </c>
       <c r="F70" s="15" t="inlineStr"/>
-      <c r="G70" s="4" t="inlineStr"/>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -18073,8 +17893,8 @@
       </c>
       <c r="F76" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 18:17:48
-Danh sách giám sát: 18:17:48</t>
+          <t>Popup Hiện trạng: 18:17:05
+Danh sách giám sát: 18:17:05</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
@@ -18244,7 +18064,7 @@
       </c>
       <c r="F80" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 1 (TTĐH:1;App:0;Vẫy:0)</t>
+          <t>Popup Hiện trạng: 3 (TTĐH:3;App:0;Vẫy:0)</t>
         </is>
       </c>
       <c r="G80" s="4" t="inlineStr">
@@ -18284,7 +18104,7 @@
       </c>
       <c r="F81" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 185000</t>
+          <t>Popup Hiện trạng: 130000</t>
         </is>
       </c>
       <c r="G81" s="4" t="inlineStr">
@@ -18593,8 +18413,8 @@
       </c>
       <c r="F91" s="15" t="inlineStr">
         <is>
-          <t>Thời gian: 20:00:13
-Trạng thái: Không sẵn sàng
+          <t>Thời gian: 20:00:14
+Trạng thái: Sẵn sàng
 Nguồn: AppLx</t>
         </is>
       </c>
@@ -18885,15 +18705,10 @@
 2. Hiển thị: Biển số xe, thời gian</t>
         </is>
       </c>
-      <c r="F98" s="15" t="inlineStr">
-        <is>
-          <t>Biển số xe: Biển số xe: 18E00314
-Thời gian: Từ ngày: 01/02/2026 20:00 Đến ngày: 2/2/2026 18:27</t>
-        </is>
-      </c>
+      <c r="F98" s="15" t="inlineStr"/>
       <c r="G98" s="4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H98" s="6" t="inlineStr">
@@ -18905,7 +18720,11 @@
       <c r="J98" s="6" t="n"/>
       <c r="K98" s="6" t="n"/>
       <c r="L98" s="4" t="n"/>
-      <c r="M98" s="20" t="inlineStr"/>
+      <c r="M98" s="20" t="inlineStr">
+        <is>
+          <t>Minitor60_GiamSat_LoTrinh_In.png</t>
+        </is>
+      </c>
       <c r="N98" s="20" t="n"/>
     </row>
     <row r="99" ht="37.5" customHeight="1">
@@ -19141,16 +18960,8 @@
           <t>Hiển thị message: "Cập nhật thành công!"</t>
         </is>
       </c>
-      <c r="F105" s="15" t="inlineStr">
-        <is>
-          <t>Cập nhật thành công!</t>
-        </is>
-      </c>
-      <c r="G105" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F105" s="15" t="inlineStr"/>
+      <c r="G105" s="4" t="inlineStr"/>
       <c r="H105" s="6" t="n"/>
       <c r="I105" s="6" t="n"/>
       <c r="J105" s="6" t="n"/>
@@ -19186,16 +18997,8 @@
           <t>Bật popup: "Trợ giúp"</t>
         </is>
       </c>
-      <c r="F106" s="15" t="inlineStr">
-        <is>
-          <t>Trợ giúp</t>
-        </is>
-      </c>
-      <c r="G106" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F106" s="15" t="inlineStr"/>
+      <c r="G106" s="4" t="inlineStr"/>
       <c r="H106" s="6" t="n"/>
       <c r="I106" s="6" t="n"/>
       <c r="J106" s="6" t="n"/>
@@ -19427,11 +19230,7 @@
       <c r="J112" s="6" t="n"/>
       <c r="K112" s="6" t="n"/>
       <c r="L112" s="4" t="n"/>
-      <c r="M112" s="20" t="inlineStr">
-        <is>
-          <t>Minitor69_GiamSatXeNhom_HienTrang_BienSo.png</t>
-        </is>
-      </c>
+      <c r="M112" s="20" t="inlineStr"/>
       <c r="N112" s="20" t="n"/>
     </row>
     <row r="113">
@@ -19494,7 +19293,7 @@
       </c>
       <c r="F114" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 18:30:09 02/02/26</t>
+          <t>Popup Hiện trạng: 18:22:10 05/02/26</t>
         </is>
       </c>
       <c r="G114" s="4" t="inlineStr">
@@ -19534,7 +19333,7 @@
       </c>
       <c r="F115" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 21.06353</t>
+          <t>Popup Hiện trạng: 20.99587</t>
         </is>
       </c>
       <c r="G115" s="4" t="inlineStr">
@@ -19574,7 +19373,7 @@
       </c>
       <c r="F116" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 105.8317</t>
+          <t>Popup Hiện trạng: 105.8444</t>
         </is>
       </c>
       <c r="G116" s="4" t="inlineStr">
@@ -19818,7 +19617,7 @@
       </c>
       <c r="F122" s="15" t="inlineStr">
         <is>
-          <t>Popup Hiện trạng: 1 (TTĐH: 1; App: 0; Vẫy: 0)</t>
+          <t>Popup Hiện trạng: 47 (TTĐH: 47; App: 0; Vẫy: 0)</t>
         </is>
       </c>
       <c r="G122" s="4" t="inlineStr">
@@ -20053,7 +19852,7 @@
       </c>
       <c r="F129" s="15" t="inlineStr">
         <is>
-          <t>30E68063</t>
+          <t>30E68089</t>
         </is>
       </c>
       <c r="G129" s="4" t="inlineStr">
@@ -20100,7 +19899,7 @@
       </c>
       <c r="F130" s="15" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="G130" s="4" t="inlineStr">
@@ -20145,16 +19944,8 @@
           <t>Hiển thị "Đang lái" đã nhập ở đầu danh sách tìm kiếm</t>
         </is>
       </c>
-      <c r="F131" s="15" t="inlineStr">
-        <is>
-          <t>bahlt</t>
-        </is>
-      </c>
-      <c r="G131" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F131" s="15" t="inlineStr"/>
+      <c r="G131" s="4" t="inlineStr"/>
       <c r="H131" s="6" t="n"/>
       <c r="I131" s="6" t="n"/>
       <c r="J131" s="6" t="n"/>
@@ -20191,16 +19982,8 @@
           <t>Hiển thị tất cả Trạng thái tất cả xe</t>
         </is>
       </c>
-      <c r="F132" s="15" t="inlineStr">
-        <is>
-          <t>XEANHNH_209</t>
-        </is>
-      </c>
-      <c r="G132" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F132" s="15" t="inlineStr"/>
+      <c r="G132" s="4" t="inlineStr"/>
       <c r="H132" s="6" t="n"/>
       <c r="I132" s="6" t="n"/>
       <c r="J132" s="6" t="n"/>
@@ -20237,11 +20020,7 @@
           <t>Trường "Trạng thái" hiển thị: "Kết nối tốt"(có thể không có dữ liệu)</t>
         </is>
       </c>
-      <c r="F133" s="15" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F133" s="15" t="inlineStr"/>
       <c r="G133" s="4" t="inlineStr"/>
       <c r="H133" s="6" t="n"/>
       <c r="I133" s="6" t="n"/>
@@ -20279,16 +20058,8 @@
           <t>Trường "Trạng thái" hiển thị: "Mất kết nối"</t>
         </is>
       </c>
-      <c r="F134" s="15" t="inlineStr">
-        <is>
-          <t>Mất kết nối</t>
-        </is>
-      </c>
-      <c r="G134" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F134" s="15" t="inlineStr"/>
+      <c r="G134" s="4" t="inlineStr"/>
       <c r="H134" s="6" t="n"/>
       <c r="I134" s="6" t="n"/>
       <c r="J134" s="6" t="n"/>
@@ -20326,11 +20097,7 @@
         </is>
       </c>
       <c r="F135" s="59" t="inlineStr"/>
-      <c r="G135" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G135" s="4" t="inlineStr"/>
       <c r="H135" s="6" t="n"/>
       <c r="I135" s="6" t="n"/>
       <c r="J135" s="6" t="n"/>
@@ -20367,16 +20134,8 @@
           <t>Trường "Khóa" Không được trống</t>
         </is>
       </c>
-      <c r="F136" s="15" t="inlineStr">
-        <is>
-          <t>Khóa</t>
-        </is>
-      </c>
-      <c r="G136" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F136" s="15" t="inlineStr"/>
+      <c r="G136" s="4" t="inlineStr"/>
       <c r="H136" s="6" t="n"/>
       <c r="I136" s="6" t="n"/>
       <c r="J136" s="6" t="n"/>
@@ -20413,16 +20172,8 @@
           <t>Trường "Mở khóa" hiển thị: "Mở khóa"</t>
         </is>
       </c>
-      <c r="F137" s="15" t="inlineStr">
-        <is>
-          <t>Mở khóa</t>
-        </is>
-      </c>
-      <c r="G137" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F137" s="15" t="inlineStr"/>
+      <c r="G137" s="4" t="inlineStr"/>
       <c r="H137" s="6" t="n"/>
       <c r="I137" s="6" t="n"/>
       <c r="J137" s="6" t="n"/>
@@ -20460,11 +20211,7 @@
         </is>
       </c>
       <c r="F138" s="15" t="inlineStr"/>
-      <c r="G138" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G138" s="4" t="inlineStr"/>
       <c r="H138" s="6" t="n"/>
       <c r="I138" s="6" t="n"/>
       <c r="J138" s="6" t="n"/>
@@ -20501,16 +20248,8 @@
           <t>Hiển thị tất cả xe</t>
         </is>
       </c>
-      <c r="F139" s="15" t="inlineStr">
-        <is>
-          <t>4 Chỗ_All</t>
-        </is>
-      </c>
-      <c r="G139" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F139" s="15" t="inlineStr"/>
+      <c r="G139" s="4" t="inlineStr"/>
       <c r="H139" s="6" t="n"/>
       <c r="I139" s="6" t="n"/>
       <c r="J139" s="6" t="n"/>
@@ -20547,16 +20286,8 @@
           <t>Trường "Loại xe" hiển thị: "1 loại xe vừa chọn"</t>
         </is>
       </c>
-      <c r="F140" s="15" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="G140" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F140" s="15" t="inlineStr"/>
+      <c r="G140" s="4" t="inlineStr"/>
       <c r="H140" s="6" t="n"/>
       <c r="I140" s="6" t="n"/>
       <c r="J140" s="6" t="n"/>
@@ -20677,16 +20408,8 @@
 (Chỉ check tải)</t>
         </is>
       </c>
-      <c r="F143" s="15" t="inlineStr">
-        <is>
-          <t>_xe.xls</t>
-        </is>
-      </c>
-      <c r="G143" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F143" s="15" t="inlineStr"/>
+      <c r="G143" s="4" t="inlineStr"/>
       <c r="H143" s="2" t="n"/>
       <c r="I143" s="6" t="n"/>
       <c r="J143" s="6" t="n"/>
@@ -20723,16 +20446,8 @@
 2.Hiển thị message: "Import xe thành công."</t>
         </is>
       </c>
-      <c r="F144" s="15" t="inlineStr">
-        <is>
-          <t>Số hiệu đã tồn tại trong hệ thống với biển số 30E09187, Loại xe không tồn tại, Tên xe không tồn tại</t>
-        </is>
-      </c>
-      <c r="G144" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F144" s="15" t="inlineStr"/>
+      <c r="G144" s="4" t="inlineStr"/>
       <c r="H144" s="2" t="n"/>
       <c r="I144" s="2" t="n"/>
       <c r="J144" s="6" t="n"/>
@@ -20809,7 +20524,7 @@
       <c r="M145" s="20" t="inlineStr"/>
       <c r="N145" s="20" t="inlineStr">
         <is>
-          <t>2024AUTO2308</t>
+          <t>2024AUTO2404</t>
         </is>
       </c>
     </row>
@@ -21286,11 +21001,7 @@
         </is>
       </c>
       <c r="F156" s="29" t="inlineStr"/>
-      <c r="G156" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G156" s="4" t="inlineStr"/>
       <c r="H156" s="2" t="n"/>
       <c r="I156" s="2" t="n"/>
       <c r="J156" s="2" t="n"/>
@@ -21456,16 +21167,8 @@
           <t>trường "Tên hiển thị" Hiển thị đúng dữ liệu "Lái xe" đã nhập</t>
         </is>
       </c>
-      <c r="F161" s="29" t="inlineStr">
-        <is>
-          <t>tuanha</t>
-        </is>
-      </c>
-      <c r="G161" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F161" s="29" t="inlineStr"/>
+      <c r="G161" s="4" t="inlineStr"/>
       <c r="H161" s="2" t="n"/>
       <c r="I161" s="2" t="n"/>
       <c r="J161" s="2" t="n"/>
@@ -21505,7 +21208,7 @@
       </c>
       <c r="F162" s="29" t="inlineStr">
         <is>
-          <t>30K73737</t>
+          <t>XE24656</t>
         </is>
       </c>
       <c r="G162" s="4" t="inlineStr">
@@ -21550,16 +21253,8 @@
           <t>trường "Số hiệu" Hiển thị đúng dữ liệu "Số hiệu" đã nhập</t>
         </is>
       </c>
-      <c r="F163" s="29" t="inlineStr">
-        <is>
-          <t>73737</t>
-        </is>
-      </c>
-      <c r="G163" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F163" s="29" t="inlineStr"/>
+      <c r="G163" s="4" t="inlineStr"/>
       <c r="H163" s="2" t="n"/>
       <c r="I163" s="2" t="n"/>
       <c r="J163" s="2" t="n"/>
@@ -21597,16 +21292,8 @@
           <t>trường "CCCD" Hiển thị đúng dữ liệu "CCCD" đã nhập</t>
         </is>
       </c>
-      <c r="F164" s="29" t="inlineStr">
-        <is>
-          <t>123456789141</t>
-        </is>
-      </c>
-      <c r="G164" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F164" s="29" t="inlineStr"/>
+      <c r="G164" s="4" t="inlineStr"/>
       <c r="H164" s="2" t="n"/>
       <c r="I164" s="2" t="n"/>
       <c r="J164" s="2" t="n"/>
@@ -21646,7 +21333,7 @@
       </c>
       <c r="F165" s="29" t="inlineStr">
         <is>
-          <t>0984368814</t>
+          <t>0967303024</t>
         </is>
       </c>
       <c r="G165" s="4" t="inlineStr">
@@ -21691,16 +21378,8 @@
           <t>trường "Xe đã gán" Hiển thị đúng dữ liệu "Xe đã gán" đã nhập</t>
         </is>
       </c>
-      <c r="F166" s="29" t="inlineStr">
-        <is>
-          <t>30G67373</t>
-        </is>
-      </c>
-      <c r="G166" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F166" s="29" t="inlineStr"/>
+      <c r="G166" s="4" t="inlineStr"/>
       <c r="H166" s="2" t="n"/>
       <c r="I166" s="2" t="n"/>
       <c r="J166" s="2" t="n"/>
@@ -21737,16 +21416,8 @@
           <t>Trường "Lý do khóa/mở khóa", hiển thị "Chi tiết"</t>
         </is>
       </c>
-      <c r="F167" s="29" t="inlineStr">
-        <is>
-          <t>Chi tiết</t>
-        </is>
-      </c>
-      <c r="G167" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F167" s="29" t="inlineStr"/>
+      <c r="G167" s="4" t="inlineStr"/>
       <c r="H167" s="2" t="n"/>
       <c r="I167" s="2" t="n"/>
       <c r="J167" s="2" t="n"/>
@@ -21783,16 +21454,8 @@
           <t xml:space="preserve"> Trường "Mở Khóa" Hiển thị "icon Mở khóa"</t>
         </is>
       </c>
-      <c r="F168" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa</t>
-        </is>
-      </c>
-      <c r="G168" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F168" s="29" t="inlineStr"/>
+      <c r="G168" s="4" t="inlineStr"/>
       <c r="H168" s="2" t="n"/>
       <c r="I168" s="2" t="n"/>
       <c r="J168" s="2" t="n"/>
@@ -21829,16 +21492,8 @@
           <t>Trường "Khóa" Hiển thị "icon Khóa"</t>
         </is>
       </c>
-      <c r="F169" s="29" t="inlineStr">
-        <is>
-          <t>Khóa</t>
-        </is>
-      </c>
-      <c r="G169" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F169" s="29" t="inlineStr"/>
+      <c r="G169" s="4" t="inlineStr"/>
       <c r="H169" s="2" t="n"/>
       <c r="I169" s="2" t="n"/>
       <c r="J169" s="2" t="n"/>
@@ -21920,16 +21575,8 @@
 (Chỉ check tải)</t>
         </is>
       </c>
-      <c r="F171" s="15" t="inlineStr">
-        <is>
-          <t>_filemaulaixe.xls</t>
-        </is>
-      </c>
-      <c r="G171" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F171" s="15" t="inlineStr"/>
+      <c r="G171" s="4" t="inlineStr"/>
       <c r="H171" s="6" t="n"/>
       <c r="I171" s="6" t="n"/>
       <c r="J171" s="6" t="n"/>
@@ -21965,16 +21612,8 @@
           <t>Hiển thị lỗi upload: "Số điện thoại đã tồn tại trong hệ thống với tài khoản TRANQUANGTRUONG2"</t>
         </is>
       </c>
-      <c r="F172" s="60" t="inlineStr">
-        <is>
-          <t>Bản ghi hợp lệ</t>
-        </is>
-      </c>
-      <c r="G172" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F172" s="60" t="inlineStr"/>
+      <c r="G172" s="4" t="inlineStr"/>
       <c r="H172" s="6" t="n"/>
       <c r="I172" s="6" t="n"/>
       <c r="J172" s="6" t="n"/>
@@ -22057,7 +21696,7 @@
       <c r="M173" s="20" t="inlineStr"/>
       <c r="N173" s="20" t="inlineStr">
         <is>
-          <t>auto2338</t>
+          <t>auto2417</t>
         </is>
       </c>
     </row>
@@ -22248,7 +21887,7 @@
         <is>
           <t>STT: 1
 Lý do khóa: Trường test khóa xe
-Ngày khóa: 02/02/2026 18:51:01</t>
+Ngày khóa: 05/02/2026 18:35:26</t>
         </is>
       </c>
       <c r="G177" s="4" t="inlineStr">
@@ -22382,16 +22021,8 @@
           <t>Hiển thị message: "Gán xe thành công."</t>
         </is>
       </c>
-      <c r="F180" s="29" t="inlineStr">
-        <is>
-          <t>Gán xe thành công</t>
-        </is>
-      </c>
-      <c r="G180" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F180" s="29" t="inlineStr"/>
+      <c r="G180" s="4" t="inlineStr"/>
       <c r="H180" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -22518,16 +22149,8 @@
           <t>Hiển thị các trường: IMEI, Ngày hiệu lực, Mã kích hoạt, Mẫu thiết kế, Hãng sản xuất, Phiên bản, Thiết bị, Mạng</t>
         </is>
       </c>
-      <c r="F183" s="29" t="inlineStr">
-        <is>
-          <t>IMEI, Ngày hiệu lực, Mã kích hoạt, Mẫu thiết kế, Hãng sản xuất, Phiên bản</t>
-        </is>
-      </c>
-      <c r="G183" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F183" s="29" t="inlineStr"/>
+      <c r="G183" s="4" t="inlineStr"/>
       <c r="H183" s="2" t="n"/>
       <c r="I183" s="2" t="n"/>
       <c r="J183" s="2" t="n"/>
@@ -22564,16 +22187,8 @@
 , Tự động nhận cuốc GSM:, Cho phép nhận cuốc Lái hộ, Bật nhận cuốc Lái hộ</t>
         </is>
       </c>
-      <c r="F184" s="29" t="inlineStr">
-        <is>
-          <t>Cấu hình lái xe</t>
-        </is>
-      </c>
-      <c r="G184" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F184" s="29" t="inlineStr"/>
+      <c r="G184" s="4" t="inlineStr"/>
       <c r="H184" s="2" t="n"/>
       <c r="I184" s="2" t="n"/>
       <c r="J184" s="2" t="n"/>
@@ -22720,11 +22335,7 @@
         </is>
       </c>
       <c r="F188" s="29" t="inlineStr"/>
-      <c r="G188" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G188" s="4" t="inlineStr"/>
       <c r="H188" s="2" t="n"/>
       <c r="I188" s="2" t="n"/>
       <c r="J188" s="2" t="n"/>
@@ -23124,8 +22735,8 @@
       <c r="F201" s="29" t="inlineStr">
         <is>
           <t>Tổng số ví:: 1
-Số dư ví tài khoản: 52.289.000 ₫
-Số dư ví tiền mặt: 585.500 ₫</t>
+Số dư ví tài khoản: 14.672.270 ₫
+Số dư ví tiền mặt: 453.200 ₫</t>
         </is>
       </c>
       <c r="G201" s="4" t="inlineStr">
@@ -23172,7 +22783,7 @@
       </c>
       <c r="F202" s="29" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Tài 90</t>
+          <t>Phan Văn Khuyên</t>
         </is>
       </c>
       <c r="G202" s="4" t="inlineStr">
@@ -23219,7 +22830,7 @@
       </c>
       <c r="F203" s="29" t="inlineStr">
         <is>
-          <t>auto376</t>
+          <t>0335735161</t>
         </is>
       </c>
       <c r="G203" s="4" t="inlineStr">
@@ -23264,16 +22875,8 @@
           <t>trường "Số hiệu" Hiển thị đúng dữ liệu "Số hiệu" đã nhập</t>
         </is>
       </c>
-      <c r="F204" s="29" t="inlineStr">
-        <is>
-          <t>2121</t>
-        </is>
-      </c>
-      <c r="G204" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F204" s="29" t="inlineStr"/>
+      <c r="G204" s="4" t="inlineStr"/>
       <c r="H204" s="2" t="n"/>
       <c r="I204" s="2" t="n"/>
       <c r="J204" s="2" t="n"/>
@@ -23311,16 +22914,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F205" s="29" t="inlineStr">
-        <is>
-          <t>_DanhSachViLaiXe.xlsx</t>
-        </is>
-      </c>
-      <c r="G205" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F205" s="29" t="inlineStr"/>
+      <c r="G205" s="4" t="inlineStr"/>
       <c r="H205" s="2" t="n"/>
       <c r="I205" s="2" t="n"/>
       <c r="J205" s="2" t="n"/>
@@ -23378,8 +22973,8 @@
 Dịch vụ: Nạp tiền vào Ví Tài Khoản
 Số tiền: 1.000.000₫
 Nguồn tiền: Quầy thu tại hãng
-Thời gian: 18:58 - 02/02/2026
-Mã giao dịch: 2386
+Thời gian: 18:41 - 05/02/2026
+Mã giao dịch: 9763
 Nội dung: Trường test nạp tiền</t>
         </is>
       </c>
@@ -23440,8 +23035,8 @@
 Số tiền: 100 VNĐ
 Dịch vụ: Rút tiền Ví Tiền Mặt
 Nguồn : Rút tại quầy
-Thời gian: 18:58 - 02/02/2026
-Mã giao dịch: 2387
+Thời gian: 18:42 - 05/02/2026
+Mã giao dịch: 9764
 Nội dung: Trường test rút tiền</t>
         </is>
       </c>
@@ -23487,15 +23082,10 @@
 2. Hiển thị Tên lái xe: batonnt1</t>
         </is>
       </c>
-      <c r="F208" s="29" t="inlineStr">
-        <is>
-          <t>Chuyển tới trang: 3.5 Lịch sử ví tiền
-Tên lái xe: batonnt1</t>
-        </is>
-      </c>
+      <c r="F208" s="29" t="inlineStr"/>
       <c r="G208" s="4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H208" s="6" t="inlineStr">
@@ -23507,7 +23097,11 @@
       <c r="J208" s="2" t="n"/>
       <c r="K208" s="2" t="n"/>
       <c r="L208" s="2" t="n"/>
-      <c r="M208" s="42" t="inlineStr"/>
+      <c r="M208" s="42" t="inlineStr">
+        <is>
+          <t>Wallet09_DanhSachViLaiXe_LichSu.png</t>
+        </is>
+      </c>
       <c r="N208" s="42" t="n"/>
     </row>
     <row r="209">
@@ -23895,16 +23489,8 @@
           <t>Trường "Ngày giao dịch" hiển thị giao dịch là ngày hiện tại</t>
         </is>
       </c>
-      <c r="F220" s="29" t="inlineStr">
-        <is>
-          <t>02/02/2026 19:00:20</t>
-        </is>
-      </c>
-      <c r="G220" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F220" s="29" t="inlineStr"/>
+      <c r="G220" s="4" t="inlineStr"/>
       <c r="H220" s="2" t="n"/>
       <c r="I220" s="2" t="n"/>
       <c r="J220" s="2" t="n"/>
@@ -24033,7 +23619,7 @@
       </c>
       <c r="F223" s="29" t="inlineStr">
         <is>
-          <t>0123666666</t>
+          <t>0837393453</t>
         </is>
       </c>
       <c r="G223" s="4" t="inlineStr">
@@ -24078,16 +23664,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F224" s="29" t="inlineStr">
-        <is>
-          <t>_xacnhangiaodich.xls</t>
-        </is>
-      </c>
-      <c r="G224" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F224" s="29" t="inlineStr"/>
+      <c r="G224" s="4" t="inlineStr"/>
       <c r="H224" s="2" t="n"/>
       <c r="I224" s="2" t="n"/>
       <c r="J224" s="2" t="n"/>
@@ -24437,7 +24015,7 @@
       </c>
       <c r="F233" s="29" t="inlineStr">
         <is>
-          <t>batonnt1</t>
+          <t>Nguyễn Bảo Trung</t>
         </is>
       </c>
       <c r="G233" s="4" t="inlineStr">
@@ -24524,11 +24102,7 @@
         </is>
       </c>
       <c r="F235" s="29" t="inlineStr"/>
-      <c r="G235" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G235" s="4" t="inlineStr"/>
       <c r="H235" s="2" t="n"/>
       <c r="I235" s="2" t="n"/>
       <c r="J235" s="2" t="n"/>
@@ -24538,11 +24112,7 @@
         </is>
       </c>
       <c r="L235" s="2" t="n"/>
-      <c r="M235" s="42" t="inlineStr">
-        <is>
-          <t>Wallet28_LichSuViTien_MaDam.png</t>
-        </is>
-      </c>
+      <c r="M235" s="42" t="inlineStr"/>
       <c r="N235" s="42" t="n"/>
     </row>
     <row r="236" ht="42.75" customHeight="1">
@@ -24571,16 +24141,8 @@
           <t>Trường "Mã giao dịch" hiện thị đúng với "Mã giao dịch" đã nhập</t>
         </is>
       </c>
-      <c r="F236" s="29" t="inlineStr">
-        <is>
-          <t>2388</t>
-        </is>
-      </c>
-      <c r="G236" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F236" s="29" t="inlineStr"/>
+      <c r="G236" s="4" t="inlineStr"/>
       <c r="H236" s="2" t="n"/>
       <c r="I236" s="2" t="n"/>
       <c r="J236" s="2" t="n"/>
@@ -24620,16 +24182,8 @@
           <t>Trường "Loại ví" hiện thị "Ví tài khoản"</t>
         </is>
       </c>
-      <c r="F237" s="29" t="inlineStr">
-        <is>
-          <t>Ví tài khoản</t>
-        </is>
-      </c>
-      <c r="G237" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F237" s="29" t="inlineStr"/>
+      <c r="G237" s="4" t="inlineStr"/>
       <c r="H237" s="2" t="n"/>
       <c r="I237" s="2" t="n"/>
       <c r="J237" s="2" t="n"/>
@@ -24669,16 +24223,8 @@
           <t>Trường "Loại ví" hiện thị "Ví tiền mặt"</t>
         </is>
       </c>
-      <c r="F238" s="29" t="inlineStr">
-        <is>
-          <t>Ví tiền mặt</t>
-        </is>
-      </c>
-      <c r="G238" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F238" s="29" t="inlineStr"/>
+      <c r="G238" s="4" t="inlineStr"/>
       <c r="H238" s="2" t="n"/>
       <c r="I238" s="2" t="n"/>
       <c r="J238" s="2" t="n"/>
@@ -24718,16 +24264,8 @@
           <t>Trường "Hình thức" hiện thị "Nạp tiền"</t>
         </is>
       </c>
-      <c r="F239" s="29" t="inlineStr">
-        <is>
-          <t>Nạp tiền</t>
-        </is>
-      </c>
-      <c r="G239" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F239" s="29" t="inlineStr"/>
+      <c r="G239" s="4" t="inlineStr"/>
       <c r="H239" s="2" t="n"/>
       <c r="I239" s="2" t="n"/>
       <c r="J239" s="2" t="n"/>
@@ -24767,16 +24305,8 @@
           <t>Trường "Hình thức" hiện thị "Rút tiền"</t>
         </is>
       </c>
-      <c r="F240" s="29" t="inlineStr">
-        <is>
-          <t>Rút tiền</t>
-        </is>
-      </c>
-      <c r="G240" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F240" s="29" t="inlineStr"/>
+      <c r="G240" s="4" t="inlineStr"/>
       <c r="H240" s="2" t="n"/>
       <c r="I240" s="2" t="n"/>
       <c r="J240" s="2" t="n"/>
@@ -24856,16 +24386,8 @@
           <t>Trường "Trạng thái" hiện thị "Chưa xác nhận"</t>
         </is>
       </c>
-      <c r="F242" s="29" t="inlineStr">
-        <is>
-          <t>Chưa xác nhận</t>
-        </is>
-      </c>
-      <c r="G242" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F242" s="29" t="inlineStr"/>
+      <c r="G242" s="4" t="inlineStr"/>
       <c r="H242" s="2" t="n"/>
       <c r="I242" s="2" t="n"/>
       <c r="J242" s="2" t="n"/>
@@ -24904,16 +24426,8 @@
           <t>Trường "Trạng thái" hiện thị "Đã xác nhận"</t>
         </is>
       </c>
-      <c r="F243" s="29" t="inlineStr">
-        <is>
-          <t>Đã xác nhận</t>
-        </is>
-      </c>
-      <c r="G243" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F243" s="29" t="inlineStr"/>
+      <c r="G243" s="4" t="inlineStr"/>
       <c r="H243" s="2" t="n"/>
       <c r="I243" s="2" t="n"/>
       <c r="J243" s="2" t="n"/>
@@ -24952,16 +24466,8 @@
           <t>Trường "Trạng thái" hiện thị "Hủy giao dịch"</t>
         </is>
       </c>
-      <c r="F244" s="29" t="inlineStr">
-        <is>
-          <t>Hủy giao dịch</t>
-        </is>
-      </c>
-      <c r="G244" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F244" s="29" t="inlineStr"/>
+      <c r="G244" s="4" t="inlineStr"/>
       <c r="H244" s="2" t="n"/>
       <c r="I244" s="2" t="n"/>
       <c r="J244" s="2" t="n"/>
@@ -25004,7 +24510,7 @@
       <c r="F245" s="29" t="inlineStr">
         <is>
           <t>Chuyển tới trang: 8.4 Báo cáo doanh thu
-Mã quốc khách: 00AEC324</t>
+Mã quốc khách: 00445396</t>
         </is>
       </c>
       <c r="G245" s="4" t="inlineStr">
@@ -25021,11 +24527,7 @@
       <c r="J245" s="2" t="n"/>
       <c r="K245" s="6" t="n"/>
       <c r="L245" s="2" t="n"/>
-      <c r="M245" s="42" t="inlineStr">
-        <is>
-          <t>Wallet38_LichSuViTien_ChiTiet.png</t>
-        </is>
-      </c>
+      <c r="M245" s="42" t="inlineStr"/>
       <c r="N245" s="42" t="n"/>
     </row>
     <row r="246" ht="75" customHeight="1">
@@ -25053,18 +24555,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F246" s="29" t="inlineStr">
-        <is>
-          <t>Dữ liệu web: -
-Dữ liệu excel: 0
- Dòng: N6</t>
-        </is>
-      </c>
-      <c r="G246" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="F246" s="29" t="inlineStr"/>
+      <c r="G246" s="4" t="inlineStr"/>
       <c r="H246" s="2" t="n"/>
       <c r="I246" s="2" t="n"/>
       <c r="J246" s="2" t="n"/>
@@ -25287,7 +24779,7 @@
       </c>
       <c r="F253" s="29" t="inlineStr">
         <is>
-          <t>KM chung 991637</t>
+          <t>Auto_KM_Chung3147</t>
         </is>
       </c>
       <c r="G253" s="4" t="inlineStr">
@@ -25380,7 +24872,7 @@
       <c r="M254" s="42" t="inlineStr"/>
       <c r="N254" s="42" t="inlineStr">
         <is>
-          <t>Auto_KM_Chung2339</t>
+          <t>Auto_KM_Chung2377</t>
         </is>
       </c>
     </row>
@@ -25443,16 +24935,8 @@
 (Khuyến mại tạo ở cột ghi chú)</t>
         </is>
       </c>
-      <c r="F255" s="29" t="inlineStr">
-        <is>
-          <t>Khuyến mại đã được cập nhật thành công</t>
-        </is>
-      </c>
-      <c r="G255" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F255" s="29" t="inlineStr"/>
+      <c r="G255" s="4" t="inlineStr"/>
       <c r="H255" s="6" t="n"/>
       <c r="I255" s="6" t="inlineStr">
         <is>
@@ -25465,7 +24949,7 @@
       <c r="M255" s="42" t="inlineStr"/>
       <c r="N255" s="42" t="inlineStr">
         <is>
-          <t>Auto_KM_Rieng2313</t>
+          <t>Auto_KM_Rieng2352</t>
         </is>
       </c>
     </row>
@@ -25495,11 +24979,7 @@
         </is>
       </c>
       <c r="F256" s="29" t="inlineStr"/>
-      <c r="G256" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G256" s="4" t="inlineStr"/>
       <c r="H256" s="6" t="n"/>
       <c r="I256" s="6" t="inlineStr">
         <is>
@@ -25536,16 +25016,8 @@
           <t>Hiển thị message thông báo: " Khuyến mại đã được cập nhật thành công"</t>
         </is>
       </c>
-      <c r="F257" s="29" t="inlineStr">
-        <is>
-          <t>Khuyến mại đã được cập nhật thành công</t>
-        </is>
-      </c>
-      <c r="G257" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F257" s="29" t="inlineStr"/>
+      <c r="G257" s="4" t="inlineStr"/>
       <c r="H257" s="6" t="n"/>
       <c r="I257" s="6" t="inlineStr">
         <is>
@@ -25581,16 +25053,8 @@
           <t>Hiển thị message thông báo: "Sinh mã khuyến mại thành công."</t>
         </is>
       </c>
-      <c r="F258" s="29" t="inlineStr">
-        <is>
-          <t>Sinh mã khuyến mại thành công.</t>
-        </is>
-      </c>
-      <c r="G258" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F258" s="29" t="inlineStr"/>
+      <c r="G258" s="4" t="inlineStr"/>
       <c r="H258" s="6" t="n"/>
       <c r="I258" s="6" t="inlineStr">
         <is>
@@ -25629,11 +25093,7 @@
         </is>
       </c>
       <c r="F259" s="29" t="inlineStr"/>
-      <c r="G259" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G259" s="4" t="inlineStr"/>
       <c r="H259" s="6" t="n"/>
       <c r="I259" s="6" t="inlineStr">
         <is>
@@ -25643,11 +25103,7 @@
       <c r="J259" s="2" t="n"/>
       <c r="K259" s="2" t="n"/>
       <c r="L259" s="2" t="n"/>
-      <c r="M259" s="42" t="inlineStr">
-        <is>
-          <t>Promotion08_DanhSachKhuyenmai_DangKichHoat.png</t>
-        </is>
-      </c>
+      <c r="M259" s="42" t="inlineStr"/>
       <c r="N259" s="42" t="n"/>
     </row>
     <row r="260" ht="75" customHeight="1">
@@ -25713,16 +25169,8 @@
 DANH SÁCH MÃ KHUYẾN MẠI"</t>
         </is>
       </c>
-      <c r="F261" s="29" t="inlineStr">
-        <is>
-          <t>DANH SÁCH MÃ KHUYẾN MẠI</t>
-        </is>
-      </c>
-      <c r="G261" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F261" s="29" t="inlineStr"/>
+      <c r="G261" s="4" t="inlineStr"/>
       <c r="H261" s="6" t="n"/>
       <c r="I261" s="6" t="inlineStr">
         <is>
@@ -25760,11 +25208,7 @@
         </is>
       </c>
       <c r="F262" s="29" t="inlineStr"/>
-      <c r="G262" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G262" s="4" t="inlineStr"/>
       <c r="H262" s="2" t="n"/>
       <c r="I262" s="6" t="inlineStr">
         <is>
@@ -25800,16 +25244,8 @@
           <t>Chuyển tới trang "6.4.7 BC KM theo cuốc khách"</t>
         </is>
       </c>
-      <c r="F263" s="29" t="inlineStr">
-        <is>
-          <t>6.4.7 BC KM theo cuốc khách</t>
-        </is>
-      </c>
-      <c r="G263" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F263" s="29" t="inlineStr"/>
+      <c r="G263" s="4" t="inlineStr"/>
       <c r="H263" s="2" t="n"/>
       <c r="I263" s="6" t="inlineStr">
         <is>
@@ -25845,16 +25281,8 @@
           <t>Chuyển tới trang "THÊM MỚI KHUYẾN MẠI"</t>
         </is>
       </c>
-      <c r="F264" s="29" t="inlineStr">
-        <is>
-          <t>THÊM MỚI KHUYẾN MẠI</t>
-        </is>
-      </c>
-      <c r="G264" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F264" s="29" t="inlineStr"/>
+      <c r="G264" s="4" t="inlineStr"/>
       <c r="H264" s="2" t="n"/>
       <c r="I264" s="6" t="inlineStr">
         <is>
@@ -25893,11 +25321,7 @@
         </is>
       </c>
       <c r="F265" s="29" t="inlineStr"/>
-      <c r="G265" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G265" s="4" t="inlineStr"/>
       <c r="I265" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -25906,11 +25330,7 @@
       <c r="J265" s="2" t="n"/>
       <c r="K265" s="2" t="n"/>
       <c r="L265" s="2" t="n"/>
-      <c r="M265" s="42" t="inlineStr">
-        <is>
-          <t>Promotion14_DanhSachKhuyenmai_Xoa.png</t>
-        </is>
-      </c>
+      <c r="M265" s="42" t="inlineStr"/>
       <c r="N265" s="42" t="n"/>
     </row>
     <row r="266">
@@ -26079,7 +25499,7 @@
       </c>
       <c r="F270" s="29" t="inlineStr">
         <is>
-          <t>2100002316</t>
+          <t>03596672405</t>
         </is>
       </c>
       <c r="G270" s="4" t="inlineStr">
@@ -26131,16 +25551,8 @@
           <t>Trường "Mã giới thiệu của tôi" hiện thị: "0911294589"</t>
         </is>
       </c>
-      <c r="F271" s="29" t="inlineStr">
-        <is>
-          <t>2100002316</t>
-        </is>
-      </c>
-      <c r="G271" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F271" s="29" t="inlineStr"/>
+      <c r="G271" s="4" t="inlineStr"/>
       <c r="H271" s="2" t="n"/>
       <c r="I271" s="2" t="n"/>
       <c r="J271" s="2" t="n"/>
@@ -26186,11 +25598,7 @@
         </is>
       </c>
       <c r="F272" s="29" t="inlineStr"/>
-      <c r="G272" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G272" s="4" t="inlineStr"/>
       <c r="H272" s="2" t="n"/>
       <c r="I272" s="2" t="n"/>
       <c r="J272" s="2" t="n"/>
@@ -26235,16 +25643,8 @@
           <t>Trường "Loại tài khoản giới thiệu" hiện thị: "Loại tài khoản đã chọn"</t>
         </is>
       </c>
-      <c r="F273" s="29" t="inlineStr">
-        <is>
-          <t>KHACH HANG</t>
-        </is>
-      </c>
-      <c r="G273" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F273" s="29" t="inlineStr"/>
+      <c r="G273" s="4" t="inlineStr"/>
       <c r="H273" s="6" t="n"/>
       <c r="I273" s="2" t="n"/>
       <c r="J273" s="2" t="n"/>
@@ -26254,11 +25654,7 @@
         </is>
       </c>
       <c r="L273" s="2" t="n"/>
-      <c r="M273" s="42" t="inlineStr">
-        <is>
-          <t>Promotion20_DanhSachTaiKhoanGioiThieu_LoaiTaiKhoanGioiThieu.png</t>
-        </is>
-      </c>
+      <c r="M273" s="42" t="inlineStr"/>
       <c r="N273" s="42" t="n"/>
     </row>
     <row r="274" ht="39" customHeight="1">
@@ -26293,16 +25689,8 @@
           <t>Trường "Nhóm tài khoản" hiện thị: "Loại tài khoản đã chọn"</t>
         </is>
       </c>
-      <c r="F274" s="29" t="inlineStr">
-        <is>
-          <t>Nhân viên tiếp thị tháng 12/2023 (tự động xác minh)</t>
-        </is>
-      </c>
-      <c r="G274" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F274" s="29" t="inlineStr"/>
+      <c r="G274" s="4" t="inlineStr"/>
       <c r="H274" s="6" t="n"/>
       <c r="I274" s="2" t="n"/>
       <c r="J274" s="2" t="n"/>
@@ -26312,11 +25700,7 @@
         </is>
       </c>
       <c r="L274" s="2" t="n"/>
-      <c r="M274" s="42" t="inlineStr">
-        <is>
-          <t>Promotion21_DanhSachTaiKhoanGioiThieu_NhomTaiKhoan.png</t>
-        </is>
-      </c>
+      <c r="M274" s="42" t="inlineStr"/>
       <c r="N274" s="42" t="n"/>
     </row>
     <row r="275" ht="61.5" customHeight="1">
@@ -26375,7 +25759,7 @@
       <c r="M275" s="42" t="inlineStr"/>
       <c r="N275" s="42" t="inlineStr">
         <is>
-          <t>2100002315</t>
+          <t>2100002407</t>
         </is>
       </c>
     </row>
@@ -26435,7 +25819,7 @@
       <c r="M276" s="42" t="inlineStr"/>
       <c r="N276" s="42" t="inlineStr">
         <is>
-          <t>2100002316</t>
+          <t>2100002408</t>
         </is>
       </c>
     </row>
@@ -26469,10 +25853,14 @@
 </t>
         </is>
       </c>
-      <c r="F277" s="29" t="inlineStr"/>
+      <c r="F277" s="29" t="inlineStr">
+        <is>
+          <t>Lưu tài khoản giới thiệu thành công.</t>
+        </is>
+      </c>
       <c r="G277" s="4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="H277" s="6" t="inlineStr">
@@ -26484,11 +25872,7 @@
       <c r="J277" s="2" t="n"/>
       <c r="K277" s="2" t="n"/>
       <c r="L277" s="2" t="n"/>
-      <c r="M277" s="42" t="inlineStr">
-        <is>
-          <t>Promotion24_DanhSachTaiKhoanGioiThieu_CapNhat.png</t>
-        </is>
-      </c>
+      <c r="M277" s="42" t="inlineStr"/>
       <c r="N277" s="42" t="n"/>
     </row>
     <row r="278" ht="61.5" customHeight="1">
@@ -26677,7 +26061,7 @@
       </c>
       <c r="F283" s="29" t="inlineStr">
         <is>
-          <t>KM990008</t>
+          <t>Km 7777</t>
         </is>
       </c>
       <c r="G283" s="4" t="inlineStr">
@@ -26746,16 +26130,8 @@
           <t>Hiển thị messsage: "Khuyến mại đã được tạo thành công"</t>
         </is>
       </c>
-      <c r="F284" s="29" t="inlineStr">
-        <is>
-          <t>Khuyến mại đã được cập nhật thành công</t>
-        </is>
-      </c>
-      <c r="G284" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="F284" s="29" t="inlineStr"/>
+      <c r="G284" s="4" t="inlineStr"/>
       <c r="H284" s="2" t="n"/>
       <c r="I284" s="2" t="n"/>
       <c r="J284" s="2" t="n"/>
@@ -26765,14 +26141,10 @@
         </is>
       </c>
       <c r="L284" s="2" t="n"/>
-      <c r="M284" s="42" t="inlineStr">
-        <is>
-          <t>Promotion28_CaiAppMoi_ThemMoi.png</t>
-        </is>
-      </c>
+      <c r="M284" s="42" t="inlineStr"/>
       <c r="N284" s="42" t="inlineStr">
         <is>
-          <t>Auto_CaiAppMoi2346</t>
+          <t>Auto_CaiAppMoi2379</t>
         </is>
       </c>
     </row>
@@ -26801,16 +26173,8 @@
           <t>Hiển thị messsage: "Khuyến mại đã được cập nhật thành công"</t>
         </is>
       </c>
-      <c r="F285" s="29" t="inlineStr">
-        <is>
-          <t>Khuyến mại đã được cập nhật thành công</t>
-        </is>
-      </c>
-      <c r="G285" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F285" s="29" t="inlineStr"/>
+      <c r="G285" s="4" t="inlineStr"/>
       <c r="H285" s="2" t="n"/>
       <c r="I285" s="2" t="n"/>
       <c r="J285" s="2" t="n"/>
@@ -27156,16 +26520,8 @@
           <t>Chuyển đến trang: "6.4.2 BC chi tiết KM theo công ty"</t>
         </is>
       </c>
-      <c r="F296" s="29" t="inlineStr">
-        <is>
-          <t>6.4.2 BC chi tiết KM theo công ty</t>
-        </is>
-      </c>
-      <c r="G296" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F296" s="29" t="inlineStr"/>
+      <c r="G296" s="4" t="inlineStr"/>
       <c r="H296" s="2" t="n"/>
       <c r="I296" s="2" t="n"/>
       <c r="J296" s="2" t="n"/>
@@ -27206,16 +26562,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Công ty, Mã KM, Tên KM, Kiểu KM, Giá trị, Kiểu thời gian KM, Nguồn, Mã đàm, Biển số xe, SĐT, Thời gian đặt cuốc, Địa chỉ đón, Địa chỉ trả, Số tiền cuốc, Số tiền KM, Cuốc khách GPS,  Trạng thái thanh toán.</t>
         </is>
       </c>
-      <c r="F297" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi Hà Nội</t>
-        </is>
-      </c>
-      <c r="G297" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F297" s="29" t="inlineStr"/>
+      <c r="G297" s="4" t="inlineStr"/>
       <c r="H297" s="2" t="n"/>
       <c r="I297" s="2" t="n"/>
       <c r="J297" s="2" t="n"/>
@@ -27254,11 +26602,7 @@
         </is>
       </c>
       <c r="F298" s="29" t="inlineStr"/>
-      <c r="G298" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G298" s="4" t="inlineStr"/>
       <c r="H298" s="2" t="n"/>
       <c r="I298" s="2" t="n"/>
       <c r="J298" s="2" t="n"/>
@@ -27333,16 +26677,8 @@
           <t>Chuyển đến trang: "6.4.3 BC KM theo ngày"</t>
         </is>
       </c>
-      <c r="F301" s="29" t="inlineStr">
-        <is>
-          <t>6.4.3 BC KM theo ngày</t>
-        </is>
-      </c>
-      <c r="G301" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F301" s="29" t="inlineStr"/>
+      <c r="G301" s="4" t="inlineStr"/>
       <c r="H301" s="2" t="n"/>
       <c r="I301" s="2" t="n"/>
       <c r="J301" s="2" t="n"/>
@@ -27381,16 +26717,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Tên khuyến mại, Tổng tiền đã khuyến mại, Tổng số khuyến mại đã sử dụng.</t>
         </is>
       </c>
-      <c r="F302" s="29" t="inlineStr">
-        <is>
-          <t>Giảm 35k khi thanh toán bằng thẻ 2</t>
-        </is>
-      </c>
-      <c r="G302" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F302" s="29" t="inlineStr"/>
+      <c r="G302" s="4" t="inlineStr"/>
       <c r="H302" s="2" t="n"/>
       <c r="I302" s="2" t="n"/>
       <c r="J302" s="2" t="n"/>
@@ -27552,16 +26880,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Tên khuyến mại, Tổng tiền đã khuyến mại, Tổng số khuyến mại đã sử dụng, Tháng/Năm.</t>
         </is>
       </c>
-      <c r="F307" s="29" t="inlineStr">
-        <is>
-          <t>Km 50k</t>
-        </is>
-      </c>
-      <c r="G307" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F307" s="29" t="inlineStr"/>
+      <c r="G307" s="4" t="inlineStr"/>
       <c r="H307" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -27679,16 +26999,8 @@
           <t>Chuyển đến trang: "6.4.5 BC KM theo KH"</t>
         </is>
       </c>
-      <c r="F311" s="29" t="inlineStr">
-        <is>
-          <t>6.4.5 BC KM theo KH</t>
-        </is>
-      </c>
-      <c r="G311" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F311" s="29" t="inlineStr"/>
+      <c r="G311" s="4" t="inlineStr"/>
       <c r="H311" s="2" t="n"/>
       <c r="I311" s="2" t="n"/>
       <c r="J311" s="2" t="n"/>
@@ -27728,16 +27040,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Mã tài khoản, Tổng số khuyến mại đã sử dụng, Tổng tiền đã khuyến mại.</t>
         </is>
       </c>
-      <c r="F312" s="29" t="inlineStr">
-        <is>
-          <t>0346400463</t>
-        </is>
-      </c>
-      <c r="G312" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F312" s="29" t="inlineStr"/>
+      <c r="G312" s="4" t="inlineStr"/>
       <c r="H312" s="2" t="n"/>
       <c r="I312" s="2" t="n"/>
       <c r="J312" s="2" t="n"/>
@@ -27776,11 +27080,7 @@
         </is>
       </c>
       <c r="F313" s="29" t="inlineStr"/>
-      <c r="G313" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G313" s="4" t="inlineStr"/>
       <c r="H313" s="2" t="n"/>
       <c r="I313" s="2" t="n"/>
       <c r="J313" s="2" t="n"/>
@@ -27855,16 +27155,8 @@
           <t>Chuyển đến trang: "6.4.6 BC KM theo LX"</t>
         </is>
       </c>
-      <c r="F316" s="29" t="inlineStr">
-        <is>
-          <t>6.4.6 BC KM theo LX</t>
-        </is>
-      </c>
-      <c r="G316" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F316" s="29" t="inlineStr"/>
+      <c r="G316" s="4" t="inlineStr"/>
       <c r="H316" s="6" t="n"/>
       <c r="I316" s="2" t="n"/>
       <c r="J316" s="2" t="n"/>
@@ -27905,16 +27197,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT, Biển số, Số hiệu, Mã lái xe, Tên lái xe, Tổng số khuyến mại đã sử dụng, Tổng tiền đã khuyến mại.</t>
         </is>
       </c>
-      <c r="F317" s="29" t="inlineStr">
-        <is>
-          <t>BATRINH</t>
-        </is>
-      </c>
-      <c r="G317" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F317" s="29" t="inlineStr"/>
+      <c r="G317" s="4" t="inlineStr"/>
       <c r="H317" s="6" t="n"/>
       <c r="I317" s="2" t="n"/>
       <c r="J317" s="2" t="n"/>
@@ -27953,11 +27237,7 @@
         </is>
       </c>
       <c r="F318" s="29" t="inlineStr"/>
-      <c r="G318" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G318" s="4" t="inlineStr"/>
       <c r="H318" s="6" t="n"/>
       <c r="I318" s="2" t="n"/>
       <c r="J318" s="2" t="n"/>
@@ -28033,16 +27313,8 @@
           <t>Chuyển đến trang: "6.4.7 BC KM theo cuốc khách"</t>
         </is>
       </c>
-      <c r="F321" s="29" t="inlineStr">
-        <is>
-          <t>6.4.7 BC KM theo cuốc khách</t>
-        </is>
-      </c>
-      <c r="G321" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F321" s="29" t="inlineStr"/>
+      <c r="G321" s="4" t="inlineStr"/>
       <c r="H321" s="2" t="n"/>
       <c r="I321" s="2" t="n"/>
       <c r="J321" s="2" t="n"/>
@@ -28085,16 +27357,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT,  SĐT Khách hàng, Biển số, Số hiệu, Tên khuyến mại, Lái xe, Mã khuyến mại, Tiền khuyến mại, Thời gian cuốc đặt, Địa chỉ đón khách, GPS, APP, Tiện ích.</t>
         </is>
       </c>
-      <c r="F322" s="29" t="inlineStr">
-        <is>
-          <t>0379077024</t>
-        </is>
-      </c>
-      <c r="G322" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F322" s="29" t="inlineStr"/>
+      <c r="G322" s="4" t="inlineStr"/>
       <c r="H322" s="2" t="n"/>
       <c r="I322" s="2" t="n"/>
       <c r="J322" s="2" t="n"/>
@@ -28133,11 +27397,7 @@
         </is>
       </c>
       <c r="F323" s="29" t="inlineStr"/>
-      <c r="G323" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G323" s="4" t="inlineStr"/>
       <c r="H323" s="2" t="n"/>
       <c r="I323" s="2" t="n"/>
       <c r="J323" s="2" t="n"/>
@@ -28213,16 +27473,8 @@
           <t>Chuyển đến trang: "6.4.8 BC mã KM chưa sử dụng"</t>
         </is>
       </c>
-      <c r="F326" s="29" t="inlineStr">
-        <is>
-          <t>6.4.8 BC mã KM chưa sử dụng</t>
-        </is>
-      </c>
-      <c r="G326" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F326" s="29" t="inlineStr"/>
+      <c r="G326" s="4" t="inlineStr"/>
       <c r="H326" s="2" t="n"/>
       <c r="I326" s="2" t="n"/>
       <c r="J326" s="2" t="n"/>
@@ -28262,16 +27514,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT,  Mã tài khoản, Tổng số mã khuyến mại chưa sử dụng, Tổng tiền khuyến mại chưa sử dụng.</t>
         </is>
       </c>
-      <c r="F327" s="29" t="inlineStr">
-        <is>
-          <t>0988523636</t>
-        </is>
-      </c>
-      <c r="G327" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F327" s="29" t="inlineStr"/>
+      <c r="G327" s="4" t="inlineStr"/>
       <c r="H327" s="2" t="n"/>
       <c r="I327" s="2" t="n"/>
       <c r="J327" s="2" t="n"/>
@@ -28310,11 +27554,7 @@
         </is>
       </c>
       <c r="F328" s="29" t="inlineStr"/>
-      <c r="G328" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G328" s="4" t="inlineStr"/>
       <c r="H328" s="2" t="n"/>
       <c r="I328" s="2" t="n"/>
       <c r="J328" s="2" t="n"/>
@@ -28390,16 +27630,8 @@
           <t>Chuyển đến trang: "6.4.9 BC tổng hợp tài khoản giới thiệu"</t>
         </is>
       </c>
-      <c r="F331" s="29" t="inlineStr">
-        <is>
-          <t>6.4.9 BC tổng hợp tài khoản giới thiệu</t>
-        </is>
-      </c>
-      <c r="G331" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F331" s="29" t="inlineStr"/>
+      <c r="G331" s="4" t="inlineStr"/>
       <c r="H331" s="2" t="n"/>
       <c r="I331" s="2" t="n"/>
       <c r="J331" s="2" t="n"/>
@@ -28440,16 +27672,8 @@
           <t>Hiển thị dữ liệu trong khoảng Từ ngày Đến ngày và hiển thị các trường: STT,  Ngày, Tổng tài khoản, KHACH HANG, LAI XE, NHAN VIEN…</t>
         </is>
       </c>
-      <c r="F332" s="29" t="inlineStr">
-        <is>
-          <t>30/12/2025</t>
-        </is>
-      </c>
-      <c r="G332" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F332" s="29" t="inlineStr"/>
+      <c r="G332" s="4" t="inlineStr"/>
       <c r="H332" s="2" t="n"/>
       <c r="I332" s="2" t="n"/>
       <c r="J332" s="2" t="n"/>
@@ -28488,11 +27712,7 @@
         </is>
       </c>
       <c r="F333" s="29" t="inlineStr"/>
-      <c r="G333" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G333" s="4" t="inlineStr"/>
       <c r="H333" s="2" t="n"/>
       <c r="I333" s="2" t="n"/>
       <c r="J333" s="2" t="n"/>
@@ -28619,16 +27839,8 @@
           <t>Trường "Tên" hiện thị đúng loại tài khoản đã nhập</t>
         </is>
       </c>
-      <c r="F337" s="29" t="inlineStr">
-        <is>
-          <t>LAI XE</t>
-        </is>
-      </c>
-      <c r="G337" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F337" s="29" t="inlineStr"/>
+      <c r="G337" s="4" t="inlineStr"/>
       <c r="H337" s="2" t="n"/>
       <c r="I337" s="2" t="n"/>
       <c r="J337" s="2" t="n"/>
@@ -28666,16 +27878,8 @@
 </t>
         </is>
       </c>
-      <c r="F338" s="29" t="inlineStr">
-        <is>
-          <t>Lưu loại tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G338" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F338" s="29" t="inlineStr"/>
+      <c r="G338" s="4" t="inlineStr"/>
       <c r="H338" s="2" t="n"/>
       <c r="I338" s="2" t="n"/>
       <c r="J338" s="2" t="n"/>
@@ -28688,7 +27892,7 @@
       <c r="M338" s="42" t="inlineStr"/>
       <c r="N338" s="42" t="inlineStr">
         <is>
-          <t>Auto_account_2320</t>
+          <t>Auto_account_2360</t>
         </is>
       </c>
     </row>
@@ -28717,16 +27921,8 @@
 </t>
         </is>
       </c>
-      <c r="F339" s="29" t="inlineStr">
-        <is>
-          <t>Xóa loại tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G339" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F339" s="29" t="inlineStr"/>
+      <c r="G339" s="4" t="inlineStr"/>
       <c r="H339" s="2" t="n"/>
       <c r="I339" s="2" t="n"/>
       <c r="J339" s="2" t="n"/>
@@ -28853,16 +28049,8 @@
           <t>Trường "Tên" hiện thị đúng tên nhóm đã nhập</t>
         </is>
       </c>
-      <c r="F343" s="29" t="inlineStr">
-        <is>
-          <t>Nhóm lái xe</t>
-        </is>
-      </c>
-      <c r="G343" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F343" s="29" t="inlineStr"/>
+      <c r="G343" s="4" t="inlineStr"/>
       <c r="H343" s="2" t="n"/>
       <c r="I343" s="2" t="n"/>
       <c r="J343" s="2" t="n"/>
@@ -28902,16 +28090,8 @@
 </t>
         </is>
       </c>
-      <c r="F344" s="29" t="inlineStr">
-        <is>
-          <t>Lưu loại tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G344" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F344" s="29" t="inlineStr"/>
+      <c r="G344" s="4" t="inlineStr"/>
       <c r="H344" s="2" t="n"/>
       <c r="I344" s="2" t="n"/>
       <c r="J344" s="2" t="n"/>
@@ -28924,7 +28104,7 @@
       <c r="M344" s="42" t="inlineStr"/>
       <c r="N344" s="42" t="inlineStr">
         <is>
-          <t>Auto_group_2321</t>
+          <t>Auto_group_2361</t>
         </is>
       </c>
     </row>
@@ -28953,16 +28133,8 @@
 </t>
         </is>
       </c>
-      <c r="F345" s="29" t="inlineStr">
-        <is>
-          <t>Xóa loại tài khoản giới thiệu thành công.</t>
-        </is>
-      </c>
-      <c r="G345" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F345" s="29" t="inlineStr"/>
+      <c r="G345" s="4" t="inlineStr"/>
       <c r="H345" s="2" t="n"/>
       <c r="I345" s="2" t="n"/>
       <c r="J345" s="2" t="n"/>
@@ -29154,7 +28326,7 @@
       </c>
       <c r="F351" s="29" t="inlineStr">
         <is>
-          <t>Trọng</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G351" s="4" t="inlineStr">
@@ -29205,16 +28377,8 @@
  "0976911786"</t>
         </is>
       </c>
-      <c r="F352" s="29" t="inlineStr">
-        <is>
-          <t>0963626684</t>
-        </is>
-      </c>
-      <c r="G352" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F352" s="29" t="inlineStr"/>
+      <c r="G352" s="4" t="inlineStr"/>
       <c r="H352" s="6" t="n"/>
       <c r="I352" s="2" t="n"/>
       <c r="J352" s="2" t="n"/>
@@ -29254,16 +28418,8 @@
  "nbngoc1266@gmail.com"</t>
         </is>
       </c>
-      <c r="F353" s="29" t="inlineStr">
-        <is>
-          <t>Auto3056@gmail.com</t>
-        </is>
-      </c>
-      <c r="G353" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F353" s="29" t="inlineStr"/>
+      <c r="G353" s="4" t="inlineStr"/>
       <c r="H353" s="6" t="n"/>
       <c r="I353" s="2" t="n"/>
       <c r="J353" s="2" t="n"/>
@@ -29303,11 +28459,7 @@
         </is>
       </c>
       <c r="F354" s="29" t="inlineStr"/>
-      <c r="G354" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G354" s="4" t="inlineStr"/>
       <c r="H354" s="6" t="n"/>
       <c r="I354" s="2" t="n"/>
       <c r="J354" s="2" t="n"/>
@@ -29317,11 +28469,7 @@
         </is>
       </c>
       <c r="L354" s="2" t="n"/>
-      <c r="M354" s="42" t="inlineStr">
-        <is>
-          <t>Customer06_DanhSachKhachHang_Nhom.png</t>
-        </is>
-      </c>
+      <c r="M354" s="42" t="inlineStr"/>
       <c r="N354" s="42" t="n"/>
     </row>
     <row r="355" ht="36.75" customHeight="1">
@@ -29350,16 +28498,8 @@
  "Hạng đồng"</t>
         </is>
       </c>
-      <c r="F355" s="29" t="inlineStr">
-        <is>
-          <t>Hạng đồng</t>
-        </is>
-      </c>
-      <c r="G355" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F355" s="29" t="inlineStr"/>
+      <c r="G355" s="4" t="inlineStr"/>
       <c r="H355" s="6" t="n"/>
       <c r="I355" s="2" t="n"/>
       <c r="J355" s="2" t="n"/>
@@ -29396,16 +28536,8 @@
 (chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F356" s="29" t="inlineStr">
-        <is>
-          <t>_DanhSachKhachHang.xls</t>
-        </is>
-      </c>
-      <c r="G356" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F356" s="29" t="inlineStr"/>
+      <c r="G356" s="4" t="inlineStr"/>
       <c r="H356" s="6" t="n"/>
       <c r="I356" s="2" t="n"/>
       <c r="J356" s="2" t="n"/>
@@ -29447,16 +28579,8 @@
 </t>
         </is>
       </c>
-      <c r="F357" s="29" t="inlineStr">
-        <is>
-          <t>Khách hàng Auto_customer_2322 đã được thêm mới thành công</t>
-        </is>
-      </c>
-      <c r="G357" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F357" s="29" t="inlineStr"/>
+      <c r="G357" s="4" t="inlineStr"/>
       <c r="H357" s="6" t="n"/>
       <c r="I357" s="2" t="n"/>
       <c r="J357" s="2" t="n"/>
@@ -29469,7 +28593,7 @@
       <c r="M357" s="42" t="inlineStr"/>
       <c r="N357" s="42" t="inlineStr">
         <is>
-          <t>Auto_customer_2322</t>
+          <t>Auto_customer_2362</t>
         </is>
       </c>
     </row>
@@ -29497,16 +28621,8 @@
 </t>
         </is>
       </c>
-      <c r="F358" s="29" t="inlineStr">
-        <is>
-          <t>Khóa tài khoản thành công.</t>
-        </is>
-      </c>
-      <c r="G358" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F358" s="29" t="inlineStr"/>
+      <c r="G358" s="4" t="inlineStr"/>
       <c r="H358" s="6" t="n"/>
       <c r="I358" s="2" t="n"/>
       <c r="J358" s="2" t="n"/>
@@ -29543,16 +28659,8 @@
 </t>
         </is>
       </c>
-      <c r="F359" s="29" t="inlineStr">
-        <is>
-          <t>Mở khóa tài khoản thành công.</t>
-        </is>
-      </c>
-      <c r="G359" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F359" s="29" t="inlineStr"/>
+      <c r="G359" s="4" t="inlineStr"/>
       <c r="H359" s="6" t="n"/>
       <c r="I359" s="2" t="n"/>
       <c r="J359" s="2" t="n"/>
@@ -29590,11 +28698,7 @@
         </is>
       </c>
       <c r="F360" s="29" t="inlineStr"/>
-      <c r="G360" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G360" s="4" t="inlineStr"/>
       <c r="H360" s="6" t="n"/>
       <c r="I360" s="2" t="n"/>
       <c r="J360" s="2" t="n"/>
@@ -29604,11 +28708,7 @@
         </is>
       </c>
       <c r="L360" s="2" t="n"/>
-      <c r="M360" s="42" t="inlineStr">
-        <is>
-          <t>Customer12_DanhSachKhachHang_LayMaKichHoat.png</t>
-        </is>
-      </c>
+      <c r="M360" s="42" t="inlineStr"/>
       <c r="N360" s="42" t="n"/>
     </row>
     <row r="361" ht="42.75" customHeight="1">
@@ -29636,16 +28736,8 @@
 </t>
         </is>
       </c>
-      <c r="F361" s="29" t="inlineStr">
-        <is>
-          <t>Gán nhóm khách hàng thành công!</t>
-        </is>
-      </c>
-      <c r="G361" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F361" s="29" t="inlineStr"/>
+      <c r="G361" s="4" t="inlineStr"/>
       <c r="H361" s="6" t="n"/>
       <c r="I361" s="2" t="n"/>
       <c r="J361" s="2" t="n"/>
@@ -29681,16 +28773,8 @@
           <t>Mở popup: "Thông tin thiết bị"</t>
         </is>
       </c>
-      <c r="F362" s="29" t="inlineStr">
-        <is>
-          <t>Thông tin thiết bị</t>
-        </is>
-      </c>
-      <c r="G362" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F362" s="29" t="inlineStr"/>
+      <c r="G362" s="4" t="inlineStr"/>
       <c r="H362" s="2" t="n"/>
       <c r="I362" s="2" t="n"/>
       <c r="J362" s="2" t="n"/>
@@ -29726,16 +28810,8 @@
           <t>Chuyển đến trang: "BÁO CÁO CHI TIẾT DOANH THU THEO KHÁCH HÀNG"</t>
         </is>
       </c>
-      <c r="F363" s="29" t="inlineStr">
-        <is>
-          <t>BÁO CÁO CHI TIẾT DOANH THU THEO KHÁCH HÀNG</t>
-        </is>
-      </c>
-      <c r="G363" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F363" s="29" t="inlineStr"/>
+      <c r="G363" s="4" t="inlineStr"/>
       <c r="H363" s="2" t="n"/>
       <c r="I363" s="2" t="n"/>
       <c r="J363" s="2" t="n"/>
@@ -29771,16 +28847,8 @@
           <t>Chuyển đến trang: "DANH SÁCH CUỐC KHÁCH HÀNG ĐẶT"</t>
         </is>
       </c>
-      <c r="F364" s="29" t="inlineStr">
-        <is>
-          <t>DANH SÁCH CUỐC KHÁCH HÀNG ĐẶT</t>
-        </is>
-      </c>
-      <c r="G364" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F364" s="29" t="inlineStr"/>
+      <c r="G364" s="4" t="inlineStr"/>
       <c r="H364" s="2" t="n"/>
       <c r="I364" s="2" t="n"/>
       <c r="J364" s="2" t="n"/>
@@ -29816,16 +28884,8 @@
           <t>Chuyển đến trang: "LỊCH SỬ KHÓA TÀI KHOẢN"</t>
         </is>
       </c>
-      <c r="F365" s="29" t="inlineStr">
-        <is>
-          <t>LỊCH SỬ KHÓA TÀI KHOẢN</t>
-        </is>
-      </c>
-      <c r="G365" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F365" s="29" t="inlineStr"/>
+      <c r="G365" s="4" t="inlineStr"/>
       <c r="H365" s="2" t="n"/>
       <c r="I365" s="2" t="n"/>
       <c r="J365" s="2" t="n"/>
@@ -29967,11 +29027,7 @@
         </is>
       </c>
       <c r="L370" s="2" t="n"/>
-      <c r="M370" s="42" t="inlineStr">
-        <is>
-          <t>Customer18_Doitac.png</t>
-        </is>
-      </c>
+      <c r="M370" s="42" t="inlineStr"/>
       <c r="N370" s="42" t="n"/>
     </row>
     <row r="371" ht="40.5" customHeight="1">
@@ -30002,7 +29058,7 @@
       </c>
       <c r="F371" s="29" t="inlineStr">
         <is>
-          <t>DOI TAC MAC DINH</t>
+          <t>TUSINHTUAPP</t>
         </is>
       </c>
       <c r="G371" s="4" t="inlineStr">
@@ -30048,16 +29104,8 @@
           <t>Trường "Số điện thoại" hiện thị: 0987748337</t>
         </is>
       </c>
-      <c r="F372" s="29" t="inlineStr">
-        <is>
-          <t>09700000</t>
-        </is>
-      </c>
-      <c r="G372" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F372" s="29" t="inlineStr"/>
+      <c r="G372" s="4" t="inlineStr"/>
       <c r="I372" s="2" t="n"/>
       <c r="J372" s="2" t="n"/>
       <c r="K372" s="2" t="inlineStr">
@@ -30095,16 +29143,8 @@
           <t>Trường "Mã đối tác" hiện thị: BATHAO</t>
         </is>
       </c>
-      <c r="F373" s="29" t="inlineStr">
-        <is>
-          <t>DTMD</t>
-        </is>
-      </c>
-      <c r="G373" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F373" s="29" t="inlineStr"/>
+      <c r="G373" s="4" t="inlineStr"/>
       <c r="H373" s="2" t="n"/>
       <c r="I373" s="2" t="n"/>
       <c r="J373" s="2" t="n"/>
@@ -30147,16 +29187,8 @@
 </t>
         </is>
       </c>
-      <c r="F374" s="29" t="inlineStr">
-        <is>
-          <t>Thêm mới thông tin đối tác thành công!</t>
-        </is>
-      </c>
-      <c r="G374" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F374" s="29" t="inlineStr"/>
+      <c r="G374" s="4" t="inlineStr"/>
       <c r="H374" s="6" t="n"/>
       <c r="I374" s="2" t="n"/>
       <c r="J374" s="2" t="n"/>
@@ -30169,7 +29201,7 @@
       <c r="M374" s="42" t="inlineStr"/>
       <c r="N374" s="42" t="inlineStr">
         <is>
-          <t>Auto_name_partner_2323</t>
+          <t>Auto_name_partner_2363</t>
         </is>
       </c>
     </row>
@@ -30238,16 +29270,8 @@
 </t>
         </is>
       </c>
-      <c r="F376" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thông tin đối tác thành công!</t>
-        </is>
-      </c>
-      <c r="G376" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F376" s="29" t="inlineStr"/>
+      <c r="G376" s="4" t="inlineStr"/>
       <c r="H376" s="6" t="n"/>
       <c r="I376" s="2" t="n"/>
       <c r="J376" s="2" t="n"/>
@@ -30377,7 +29401,7 @@
       </c>
       <c r="F380" s="29" t="inlineStr">
         <is>
-          <t>SEC0027</t>
+          <t>THAODTP3333</t>
         </is>
       </c>
       <c r="G380" s="4" t="inlineStr">
@@ -30423,16 +29447,8 @@
           <t>Trường "Mã đối tác" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F381" s="29" t="inlineStr">
-        <is>
-          <t>DT388425</t>
-        </is>
-      </c>
-      <c r="G381" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F381" s="29" t="inlineStr"/>
+      <c r="G381" s="4" t="inlineStr"/>
       <c r="H381" s="6" t="n"/>
       <c r="I381" s="2" t="n"/>
       <c r="J381" s="2" t="n"/>
@@ -30471,16 +29487,8 @@
           <t>Trường "Tên đối tác" hiện thị đúng dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F382" s="29" t="inlineStr">
-        <is>
-          <t>TENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDOITACDAI500KYTUTENDdd</t>
-        </is>
-      </c>
-      <c r="G382" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F382" s="29" t="inlineStr"/>
+      <c r="G382" s="4" t="inlineStr"/>
       <c r="H382" s="6" t="n"/>
       <c r="I382" s="2" t="n"/>
       <c r="J382" s="2" t="n"/>
@@ -30518,16 +29526,8 @@
           <t>Trường "Công ty" hiện thị đúng tên công ty đã chọn</t>
         </is>
       </c>
-      <c r="F383" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi Hà Nội</t>
-        </is>
-      </c>
-      <c r="G383" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F383" s="29" t="inlineStr"/>
+      <c r="G383" s="4" t="inlineStr"/>
       <c r="H383" s="6" t="n"/>
       <c r="I383" s="2" t="n"/>
       <c r="J383" s="2" t="n"/>
@@ -30605,7 +29605,7 @@
       <c r="M384" s="42" t="inlineStr"/>
       <c r="N384" s="42" t="inlineStr">
         <is>
-          <t>Auto2327</t>
+          <t>Auto2410</t>
         </is>
       </c>
     </row>
@@ -30635,16 +29635,8 @@
 </t>
         </is>
       </c>
-      <c r="F385" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật hợp đồng thành công</t>
-        </is>
-      </c>
-      <c r="G385" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F385" s="29" t="inlineStr"/>
+      <c r="G385" s="4" t="inlineStr"/>
       <c r="H385" s="6" t="n"/>
       <c r="I385" s="2" t="n"/>
       <c r="J385" s="2" t="n"/>
@@ -30681,16 +29673,8 @@
           <t>Mở popup: "ẢNH HỢP ĐỒNG" hiển thị ảnh: "https://g7test.staxi.vn/Media/Uploads/%E2%80%94Pngtree%E2%80%94car_flag_icon_333837.png"</t>
         </is>
       </c>
-      <c r="F386" s="54" t="inlineStr">
-        <is>
-          <t>https://g7test.staxi.vn/Media/Uploads/%E2%80%94Pngtree%E2%80%94car_flag_icon_333837.png</t>
-        </is>
-      </c>
-      <c r="G386" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F386" s="54" t="inlineStr"/>
+      <c r="G386" s="4" t="inlineStr"/>
       <c r="H386" s="6" t="n"/>
       <c r="I386" s="2" t="n"/>
       <c r="J386" s="2" t="n"/>
@@ -30864,16 +29848,8 @@
           <t>Trường "Số Serial" hiện thị: 9999920975687711</t>
         </is>
       </c>
-      <c r="F391" s="29" t="inlineStr">
-        <is>
-          <t>8880888056842111</t>
-        </is>
-      </c>
-      <c r="G391" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F391" s="29" t="inlineStr"/>
+      <c r="G391" s="4" t="inlineStr"/>
       <c r="H391" s="2" t="n"/>
       <c r="I391" s="2" t="n"/>
       <c r="J391" s="2" t="n"/>
@@ -30914,7 +29890,7 @@
       </c>
       <c r="F392" s="29" t="inlineStr">
         <is>
-          <t>0984075597</t>
+          <t>0999999999</t>
         </is>
       </c>
       <c r="G392" s="4" t="inlineStr">
@@ -30960,16 +29936,8 @@
           <t>Trường "Mã hợp đồng" hiện thị: THAO1311</t>
         </is>
       </c>
-      <c r="F393" s="29" t="inlineStr">
-        <is>
-          <t>7017</t>
-        </is>
-      </c>
-      <c r="G393" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F393" s="29" t="inlineStr"/>
+      <c r="G393" s="4" t="inlineStr"/>
       <c r="H393" s="2" t="n"/>
       <c r="I393" s="2" t="n"/>
       <c r="J393" s="2" t="n"/>
@@ -31010,7 +29978,7 @@
       </c>
       <c r="F394" s="29" t="inlineStr">
         <is>
-          <t>HLT1223</t>
+          <t>Auto_2403</t>
         </is>
       </c>
       <c r="G394" s="4" t="inlineStr">
@@ -31055,16 +30023,8 @@
           <t>Trường "Tên công ty" hiện thị đúng tên công ty đã chọn</t>
         </is>
       </c>
-      <c r="F395" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi Hà Nội</t>
-        </is>
-      </c>
-      <c r="G395" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F395" s="29" t="inlineStr"/>
+      <c r="G395" s="4" t="inlineStr"/>
       <c r="H395" s="2" t="n"/>
       <c r="I395" s="2" t="n"/>
       <c r="J395" s="2" t="n"/>
@@ -31172,16 +30132,8 @@
           <t>Trường "Trạng thái" hiện thị title: "Kích hoạt"(màu xanh lá cây)</t>
         </is>
       </c>
-      <c r="F398" s="29" t="inlineStr">
-        <is>
-          <t>Kích hoạt</t>
-        </is>
-      </c>
-      <c r="G398" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F398" s="29" t="inlineStr"/>
+      <c r="G398" s="4" t="inlineStr"/>
       <c r="H398" s="2" t="n"/>
       <c r="I398" s="2" t="n"/>
       <c r="J398" s="2" t="n"/>
@@ -31219,16 +30171,8 @@
           <t>Trường "Trạng thái" hiện thị title: "Thẻ đã kích hoạt(màu đỏ)</t>
         </is>
       </c>
-      <c r="F399" s="29" t="inlineStr">
-        <is>
-          <t>Thẻ đã kích hoạt</t>
-        </is>
-      </c>
-      <c r="G399" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F399" s="29" t="inlineStr"/>
+      <c r="G399" s="4" t="inlineStr"/>
       <c r="H399" s="2" t="n"/>
       <c r="I399" s="2" t="n"/>
       <c r="J399" s="2" t="n"/>
@@ -31266,16 +30210,8 @@
           <t>Trường "Loại" hiện thị: Trả trước</t>
         </is>
       </c>
-      <c r="F400" s="29" t="inlineStr">
-        <is>
-          <t>Trả trước</t>
-        </is>
-      </c>
-      <c r="G400" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F400" s="29" t="inlineStr"/>
+      <c r="G400" s="4" t="inlineStr"/>
       <c r="H400" s="2" t="n"/>
       <c r="I400" s="2" t="n"/>
       <c r="J400" s="2" t="n"/>
@@ -31313,16 +30249,8 @@
           <t>Trường "Loại" hiện thị: Trả sau</t>
         </is>
       </c>
-      <c r="F401" s="29" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="G401" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F401" s="29" t="inlineStr"/>
+      <c r="G401" s="4" t="inlineStr"/>
       <c r="H401" s="2" t="n"/>
       <c r="I401" s="2" t="n"/>
       <c r="J401" s="2" t="n"/>
@@ -31360,16 +30288,8 @@
           <t>Trường "Đặt hộ" hiện thị: Đã kích hoạt</t>
         </is>
       </c>
-      <c r="F402" s="29" t="inlineStr">
-        <is>
-          <t>Đã kích hoạt</t>
-        </is>
-      </c>
-      <c r="G402" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F402" s="29" t="inlineStr"/>
+      <c r="G402" s="4" t="inlineStr"/>
       <c r="H402" s="2" t="n"/>
       <c r="I402" s="2" t="n"/>
       <c r="J402" s="2" t="n"/>
@@ -31407,16 +30327,8 @@
           <t>Trường "Đặt hộ" hiện thị: Chưa kích hoạt</t>
         </is>
       </c>
-      <c r="F403" s="29" t="inlineStr">
-        <is>
-          <t>Chưa kích hoạt</t>
-        </is>
-      </c>
-      <c r="G403" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F403" s="29" t="inlineStr"/>
+      <c r="G403" s="4" t="inlineStr"/>
       <c r="H403" s="2" t="n"/>
       <c r="I403" s="2" t="inlineStr">
         <is>
@@ -31458,16 +30370,8 @@
 </t>
         </is>
       </c>
-      <c r="F404" s="29" t="inlineStr">
-        <is>
-          <t>Thành công lưu lại: 0 QRCode</t>
-        </is>
-      </c>
-      <c r="G404" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F404" s="29" t="inlineStr"/>
+      <c r="G404" s="4" t="inlineStr"/>
       <c r="H404" s="2" t="n"/>
       <c r="I404" s="2" t="n"/>
       <c r="J404" s="2" t="n"/>
@@ -31504,16 +30408,8 @@
 (chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F405" s="29" t="inlineStr">
-        <is>
-          <t>_QuanLyThe.xlsx</t>
-        </is>
-      </c>
-      <c r="G405" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F405" s="29" t="inlineStr"/>
+      <c r="G405" s="4" t="inlineStr"/>
       <c r="H405" s="2" t="n"/>
       <c r="I405" s="2" t="n"/>
       <c r="J405" s="2" t="n"/>
@@ -31552,11 +30448,7 @@
         </is>
       </c>
       <c r="F406" s="29" t="inlineStr"/>
-      <c r="G406" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G406" s="4" t="inlineStr"/>
       <c r="H406" s="2" t="n"/>
       <c r="I406" s="2" t="n"/>
       <c r="J406" s="2" t="n"/>
@@ -31635,7 +30527,7 @@
       <c r="M407" s="42" t="inlineStr"/>
       <c r="N407" s="42" t="inlineStr">
         <is>
-          <t>Auto_2329</t>
+          <t>Auto_2411</t>
         </is>
       </c>
     </row>
@@ -32039,8 +30931,16 @@
 </t>
         </is>
       </c>
-      <c r="F416" s="29" t="inlineStr"/>
-      <c r="G416" s="4" t="inlineStr"/>
+      <c r="F416" s="29" t="inlineStr">
+        <is>
+          <t>Cập nhật thông tin thẻ thành công</t>
+        </is>
+      </c>
+      <c r="G416" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H416" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -32053,7 +30953,7 @@
       <c r="M416" s="42" t="inlineStr"/>
       <c r="N416" s="42" t="inlineStr">
         <is>
-          <t>Auto_3149</t>
+          <t>Auto_2418</t>
         </is>
       </c>
     </row>
@@ -32126,16 +31026,8 @@
 </t>
         </is>
       </c>
-      <c r="F418" s="29" t="inlineStr">
-        <is>
-          <t>Sao chép thông tin thành công</t>
-        </is>
-      </c>
-      <c r="G418" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F418" s="29" t="inlineStr"/>
+      <c r="G418" s="4" t="inlineStr"/>
       <c r="H418" s="6" t="n"/>
       <c r="I418" s="2" t="n"/>
       <c r="J418" s="2" t="n"/>
@@ -32171,16 +31063,8 @@
           <t>Mở tab mới chuyển tới trang In QRCODE thẻ dùng 1 lần, hiển thị Mã In QRCODE cho thẻ</t>
         </is>
       </c>
-      <c r="F419" s="29" t="inlineStr">
-        <is>
-          <t>9999209984075597</t>
-        </is>
-      </c>
-      <c r="G419" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F419" s="29" t="inlineStr"/>
+      <c r="G419" s="4" t="inlineStr"/>
       <c r="H419" s="6" t="n"/>
       <c r="I419" s="2" t="n"/>
       <c r="J419" s="2" t="n"/>
@@ -32229,16 +31113,8 @@
 </t>
         </is>
       </c>
-      <c r="F420" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật thẻ thành công!</t>
-        </is>
-      </c>
-      <c r="G420" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F420" s="29" t="inlineStr"/>
+      <c r="G420" s="4" t="inlineStr"/>
       <c r="I420" s="2" t="n"/>
       <c r="J420" s="2" t="n"/>
       <c r="K420" s="6" t="inlineStr">
@@ -32250,7 +31126,7 @@
       <c r="M420" s="42" t="inlineStr"/>
       <c r="N420" s="42" t="inlineStr">
         <is>
-          <t>9999209984075597</t>
+          <t>9999992992097925</t>
         </is>
       </c>
     </row>
@@ -32321,16 +31197,8 @@
           <t>Chuyển đến trang: "7.7.4 Chốt công nợ"</t>
         </is>
       </c>
-      <c r="F423" s="29" t="inlineStr">
-        <is>
-          <t>7.7.4 Chốt công nợ</t>
-        </is>
-      </c>
-      <c r="G423" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F423" s="29" t="inlineStr"/>
+      <c r="G423" s="4" t="inlineStr"/>
       <c r="H423" s="6" t="n"/>
       <c r="I423" s="2" t="n"/>
       <c r="J423" s="2" t="n"/>
@@ -32450,11 +31318,7 @@
         </is>
       </c>
       <c r="F426" s="29" t="inlineStr"/>
-      <c r="G426" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G426" s="4" t="inlineStr"/>
       <c r="H426" s="2" t="n"/>
       <c r="I426" s="2" t="n"/>
       <c r="J426" s="2" t="n"/>
@@ -32464,11 +31328,7 @@
         </is>
       </c>
       <c r="L426" s="2" t="n"/>
-      <c r="M426" s="42" t="inlineStr">
-        <is>
-          <t>Customer61_ChotCongNo_TuNgayDenNgay.png</t>
-        </is>
-      </c>
+      <c r="M426" s="42" t="inlineStr"/>
       <c r="N426" s="42" t="n"/>
     </row>
     <row r="427" ht="56.45" customHeight="1">
@@ -32496,11 +31356,7 @@
         </is>
       </c>
       <c r="F427" s="29" t="inlineStr"/>
-      <c r="G427" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G427" s="4" t="inlineStr"/>
       <c r="H427" s="2" t="n"/>
       <c r="I427" s="2" t="n"/>
       <c r="J427" s="2" t="n"/>
@@ -32767,16 +31623,8 @@
           <t>Chuyển đến trang: "7.7.10 Báo cáo chi tiết cuốc khách thẻ "</t>
         </is>
       </c>
-      <c r="F435" s="29" t="inlineStr">
-        <is>
-          <t>7.7.10 Báo cáo chi tiết cuốc khách thẻ</t>
-        </is>
-      </c>
-      <c r="G435" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F435" s="29" t="inlineStr"/>
+      <c r="G435" s="4" t="inlineStr"/>
       <c r="H435" s="2" t="n"/>
       <c r="I435" s="2" t="n"/>
       <c r="J435" s="2" t="n"/>
@@ -32823,16 +31671,8 @@
 (Hiển thị Mã cuốc khách)</t>
         </is>
       </c>
-      <c r="F436" s="29" t="inlineStr">
-        <is>
-          <t>00AEC321</t>
-        </is>
-      </c>
-      <c r="G436" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F436" s="29" t="inlineStr"/>
+      <c r="G436" s="4" t="inlineStr"/>
       <c r="H436" s="2" t="n"/>
       <c r="I436" s="2" t="n"/>
       <c r="J436" s="2" t="n"/>
@@ -32869,16 +31709,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F437" s="29" t="inlineStr">
-        <is>
-          <t>_BaoCaoCHiTietCuocKhachNo_Excel.xlsx</t>
-        </is>
-      </c>
-      <c r="G437" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F437" s="29" t="inlineStr"/>
+      <c r="G437" s="4" t="inlineStr"/>
       <c r="H437" s="2" t="n"/>
       <c r="I437" s="2" t="n"/>
       <c r="J437" s="2" t="n"/>
@@ -32915,16 +31747,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F438" s="29" t="inlineStr">
-        <is>
-          <t>_BaoCaoCHiTietCuocKhachNo_ExcelFull.xlsx</t>
-        </is>
-      </c>
-      <c r="G438" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F438" s="29" t="inlineStr"/>
+      <c r="G438" s="4" t="inlineStr"/>
       <c r="H438" s="2" t="n"/>
       <c r="I438" s="2" t="n"/>
       <c r="J438" s="2" t="n"/>
@@ -33000,16 +31824,8 @@
           <t>Chuyển đến trang: "7.7.11 Báo cáo giao dịch nạp thẻ"</t>
         </is>
       </c>
-      <c r="F441" s="29" t="inlineStr">
-        <is>
-          <t>7.7.11 Báo cáo giao dịch nạp thẻ</t>
-        </is>
-      </c>
-      <c r="G441" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F441" s="29" t="inlineStr"/>
+      <c r="G441" s="4" t="inlineStr"/>
       <c r="H441" s="2" t="n"/>
       <c r="I441" s="2" t="n"/>
       <c r="J441" s="2" t="n"/>
@@ -33055,16 +31871,8 @@
 (Hiển thị Số Serial)</t>
         </is>
       </c>
-      <c r="F442" s="29" t="inlineStr">
-        <is>
-          <t>8880999045480323</t>
-        </is>
-      </c>
-      <c r="G442" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F442" s="29" t="inlineStr"/>
+      <c r="G442" s="4" t="inlineStr"/>
       <c r="H442" s="2" t="n"/>
       <c r="I442" s="2" t="n"/>
       <c r="J442" s="2" t="n"/>
@@ -33102,18 +31910,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F443" s="29" t="inlineStr">
-        <is>
-          <t>Dữ liệu web: 
-Dữ liệu excel: 0
- Dòng: K6</t>
-        </is>
-      </c>
-      <c r="G443" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F443" s="29" t="inlineStr"/>
+      <c r="G443" s="4" t="inlineStr"/>
       <c r="H443" s="2" t="n"/>
       <c r="I443" s="2" t="n"/>
       <c r="J443" s="2" t="n"/>
@@ -33246,7 +32044,7 @@
       </c>
       <c r="F447" s="29" t="inlineStr">
         <is>
-          <t>8880999016579311</t>
+          <t>9999209984075597</t>
         </is>
       </c>
       <c r="G447" s="4" t="inlineStr">
@@ -33291,13 +32089,7 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F448" s="29" t="inlineStr">
-        <is>
-          <t>Dữ liệu web: -
-Dữ liệu excel: None
- Dòng: L6</t>
-        </is>
-      </c>
+      <c r="F448" s="29" t="inlineStr"/>
       <c r="G448" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
@@ -33423,16 +32215,8 @@
           <t>Chuyển đến trang: "7.7.13 Báo cáo tổng hợp khách hàng"</t>
         </is>
       </c>
-      <c r="F452" s="29" t="inlineStr">
-        <is>
-          <t>7.7.13 Báo cáo tổng hợp khách hàng</t>
-        </is>
-      </c>
-      <c r="G452" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F452" s="29" t="inlineStr"/>
+      <c r="G452" s="4" t="inlineStr"/>
       <c r="H452" s="6" t="n"/>
       <c r="I452" s="2" t="n"/>
       <c r="J452" s="2" t="n"/>
@@ -33472,16 +32256,8 @@
 (Hiển thị Ngày đăng ký)</t>
         </is>
       </c>
-      <c r="F453" s="29" t="inlineStr">
-        <is>
-          <t>9:21:0 11/9/2025</t>
-        </is>
-      </c>
-      <c r="G453" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F453" s="29" t="inlineStr"/>
+      <c r="G453" s="4" t="inlineStr"/>
       <c r="H453" s="6" t="n"/>
       <c r="I453" s="2" t="n"/>
       <c r="J453" s="2" t="n"/>
@@ -33520,11 +32296,7 @@
         </is>
       </c>
       <c r="F454" s="29" t="inlineStr"/>
-      <c r="G454" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G454" s="4" t="inlineStr"/>
       <c r="H454" s="6" t="n"/>
       <c r="I454" s="2" t="n"/>
       <c r="J454" s="2" t="n"/>
@@ -33660,16 +32432,8 @@
 (Hiển thị Tên đối tác)</t>
         </is>
       </c>
-      <c r="F458" s="29" t="inlineStr">
-        <is>
-          <t>HD11101</t>
-        </is>
-      </c>
-      <c r="G458" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F458" s="29" t="inlineStr"/>
+      <c r="G458" s="4" t="inlineStr"/>
       <c r="H458" s="6" t="n"/>
       <c r="I458" s="2" t="n"/>
       <c r="J458" s="2" t="n"/>
@@ -33708,11 +32472,7 @@
         </is>
       </c>
       <c r="F459" s="29" t="inlineStr"/>
-      <c r="G459" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G459" s="4" t="inlineStr"/>
       <c r="H459" s="6" t="n"/>
       <c r="I459" s="2" t="n"/>
       <c r="J459" s="2" t="n"/>
@@ -34498,7 +33258,7 @@
       </c>
       <c r="F477" s="29" t="inlineStr">
         <is>
-          <t>00AEC0BC</t>
+          <t>00142B07</t>
         </is>
       </c>
       <c r="G477" s="4" t="inlineStr">
@@ -34544,19 +33304,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F478" s="29" t="inlineStr">
-        <is>
-          <t>Tên cột web: Cước xe (trừ của khách)
-Tên cột excel: Cước xe_x000D_
-(trừ của khách) 
-Dòng: M5</t>
-        </is>
-      </c>
-      <c r="G478" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F478" s="29" t="inlineStr"/>
+      <c r="G478" s="4" t="inlineStr"/>
       <c r="H478" s="6" t="inlineStr">
         <is>
           <t>x</t>
@@ -34594,14 +33343,10 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F479" s="29" t="inlineStr">
-        <is>
-          <t>_BaoCaoCuocKhachTong_ExcelFull.xlsx</t>
-        </is>
-      </c>
+      <c r="F479" s="29" t="inlineStr"/>
       <c r="G479" s="4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H479" s="6" t="inlineStr">
@@ -34613,7 +33358,11 @@
       <c r="J479" s="2" t="n"/>
       <c r="K479" s="2" t="n"/>
       <c r="L479" s="2" t="n"/>
-      <c r="M479" s="42" t="inlineStr"/>
+      <c r="M479" s="42" t="inlineStr">
+        <is>
+          <t>Report04_BaoCaoCuocKhachTong_XuatExcelDayDuThongTin.png</t>
+        </is>
+      </c>
       <c r="N479" s="42" t="n"/>
     </row>
     <row r="480">
@@ -34843,16 +33592,18 @@
       </c>
       <c r="F486" s="29" t="inlineStr">
         <is>
-          <t xml:space="preserve">None, 0/0
+          <t xml:space="preserve">None, 28/28
+, None, 19/19
+, None, 0/0
+, None, 9/9
 , None, 0/0
 , None, 0/0
 , None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
+, None, 4/4
+, None, 4/4
+, None, 3/3
+, None, 16/16
+, None, 1/1
 </t>
         </is>
       </c>
@@ -34899,16 +33650,18 @@
       </c>
       <c r="F487" s="29" t="inlineStr">
         <is>
-          <t xml:space="preserve">None, 0/0
+          <t xml:space="preserve">None, 23/23
+, None, 18/18
+, None, 3/3
+, None, 2/2
 , None, 0/0
 , None, 0/0
 , None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
-, None, 0/0
+, None, 3/3
+, None, 2/2
+, None, 1/1
+, None, 16/16
+, None, 1/1
 </t>
         </is>
       </c>
@@ -34992,16 +33745,8 @@
           <t>Chuyển đến trang: "8.1.4 Tổng cuốc khách theo ngày"</t>
         </is>
       </c>
-      <c r="F490" s="29" t="inlineStr">
-        <is>
-          <t>8.1.4 Tổng cuốc khách theo ngày</t>
-        </is>
-      </c>
-      <c r="G490" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F490" s="29" t="inlineStr"/>
+      <c r="G490" s="4" t="inlineStr"/>
       <c r="H490" s="6" t="n"/>
       <c r="I490" s="2" t="n"/>
       <c r="J490" s="2" t="n"/>
@@ -35042,16 +33787,8 @@
 (Hiển thị Ngày)</t>
         </is>
       </c>
-      <c r="F491" s="29" t="inlineStr">
-        <is>
-          <t>28/10/2025</t>
-        </is>
-      </c>
-      <c r="G491" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F491" s="29" t="inlineStr"/>
+      <c r="G491" s="4" t="inlineStr"/>
       <c r="H491" s="6" t="n"/>
       <c r="I491" s="2" t="n"/>
       <c r="J491" s="2" t="n"/>
@@ -35088,16 +33825,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F492" s="29" t="inlineStr">
-        <is>
-          <t>_TongCuocKhachTheoNgay.xls</t>
-        </is>
-      </c>
-      <c r="G492" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F492" s="29" t="inlineStr"/>
+      <c r="G492" s="4" t="inlineStr"/>
       <c r="H492" s="6" t="n"/>
       <c r="I492" s="2" t="n"/>
       <c r="J492" s="2" t="n"/>
@@ -35173,16 +33902,8 @@
           <t>Chuyển đến trang: "8.1.5 Tổng cuốc khách theo nguồn"</t>
         </is>
       </c>
-      <c r="F495" s="29" t="inlineStr">
-        <is>
-          <t>8.1.5 Tổng cuốc khách theo nguồn</t>
-        </is>
-      </c>
-      <c r="G495" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F495" s="29" t="inlineStr"/>
+      <c r="G495" s="4" t="inlineStr"/>
       <c r="H495" s="2" t="n"/>
       <c r="I495" s="2" t="n"/>
       <c r="J495" s="2" t="n"/>
@@ -35222,16 +33943,8 @@
 (Hiển thị Nguồn)</t>
         </is>
       </c>
-      <c r="F496" s="29" t="inlineStr">
-        <is>
-          <t>Nguồn mobile</t>
-        </is>
-      </c>
-      <c r="G496" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F496" s="29" t="inlineStr"/>
+      <c r="G496" s="4" t="inlineStr"/>
       <c r="H496" s="2" t="n"/>
       <c r="I496" s="2" t="n"/>
       <c r="J496" s="2" t="n"/>
@@ -35346,16 +34059,8 @@
           <t>Chuyển đến trang: "8.1.6 Tổng cuốc khách theo cấu hình"</t>
         </is>
       </c>
-      <c r="F500" s="29" t="inlineStr">
-        <is>
-          <t>8.1.6 Tổng cuốc khách theo cấu hình</t>
-        </is>
-      </c>
-      <c r="G500" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F500" s="29" t="inlineStr"/>
+      <c r="G500" s="4" t="inlineStr"/>
       <c r="H500" s="2" t="n"/>
       <c r="I500" s="2" t="n"/>
       <c r="J500" s="2" t="n"/>
@@ -35395,16 +34100,8 @@
 (Hiển thị Cấu hình)</t>
         </is>
       </c>
-      <c r="F501" s="29" t="inlineStr">
-        <is>
-          <t>Nội thành + Appkh</t>
-        </is>
-      </c>
-      <c r="G501" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F501" s="29" t="inlineStr"/>
+      <c r="G501" s="4" t="inlineStr"/>
       <c r="H501" s="2" t="n"/>
       <c r="I501" s="2" t="n"/>
       <c r="J501" s="2" t="n"/>
@@ -35443,11 +34140,7 @@
         </is>
       </c>
       <c r="F502" s="29" t="inlineStr"/>
-      <c r="G502" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G502" s="4" t="inlineStr"/>
       <c r="H502" s="2" t="n"/>
       <c r="I502" s="2" t="n"/>
       <c r="J502" s="2" t="n"/>
@@ -35523,16 +34216,8 @@
           <t>Chuyển đến trang: "8.1.7 Thống kê cuốc khách yêu thích"</t>
         </is>
       </c>
-      <c r="F505" s="29" t="inlineStr">
-        <is>
-          <t>8.1.7 Thống kê cuốc khách yêu thích</t>
-        </is>
-      </c>
-      <c r="G505" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F505" s="29" t="inlineStr"/>
+      <c r="G505" s="4" t="inlineStr"/>
       <c r="H505" s="2" t="n"/>
       <c r="I505" s="2" t="n"/>
       <c r="J505" s="2" t="n"/>
@@ -35572,16 +34257,8 @@
 (Hiển thị Công ty)</t>
         </is>
       </c>
-      <c r="F506" s="29" t="inlineStr">
-        <is>
-          <t>Tổng cuốc hiện tại</t>
-        </is>
-      </c>
-      <c r="G506" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F506" s="29" t="inlineStr"/>
+      <c r="G506" s="4" t="inlineStr"/>
       <c r="H506" s="2" t="n"/>
       <c r="I506" s="2" t="n"/>
       <c r="J506" s="2" t="n"/>
@@ -35620,11 +34297,7 @@
         </is>
       </c>
       <c r="F507" s="29" t="inlineStr"/>
-      <c r="G507" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G507" s="4" t="inlineStr"/>
       <c r="H507" s="2" t="n"/>
       <c r="I507" s="2" t="n"/>
       <c r="J507" s="2" t="n"/>
@@ -35937,7 +34610,7 @@
       </c>
       <c r="F516" s="29" t="inlineStr">
         <is>
-          <t>bahlt</t>
+          <t>batrinh209a</t>
         </is>
       </c>
       <c r="G516" s="4" t="inlineStr">
@@ -36063,16 +34736,8 @@
           <t>Chuyển đến trang: "8.1.12 Thống kê cuốc khách theo xe"</t>
         </is>
       </c>
-      <c r="F520" s="29" t="inlineStr">
-        <is>
-          <t>8.1.12 Thống kê cuốc khách theo xe</t>
-        </is>
-      </c>
-      <c r="G520" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F520" s="29" t="inlineStr"/>
+      <c r="G520" s="4" t="inlineStr"/>
       <c r="H520" s="2" t="n"/>
       <c r="I520" s="2" t="n"/>
       <c r="J520" s="2" t="n"/>
@@ -36117,11 +34782,7 @@
         </is>
       </c>
       <c r="F521" s="29" t="inlineStr"/>
-      <c r="G521" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G521" s="4" t="inlineStr"/>
       <c r="H521" s="2" t="n"/>
       <c r="I521" s="2" t="n"/>
       <c r="J521" s="2" t="n"/>
@@ -36131,11 +34792,7 @@
         </is>
       </c>
       <c r="L521" s="2" t="n"/>
-      <c r="M521" s="42" t="inlineStr">
-        <is>
-          <t>Report27_ThongKeCuocKhachTheoXe_TimKiem.png</t>
-        </is>
-      </c>
+      <c r="M521" s="42" t="inlineStr"/>
       <c r="N521" s="42" t="n"/>
     </row>
     <row r="522" ht="75" customHeight="1">
@@ -36240,16 +34897,8 @@
           <t>Chuyển đến trang: "8.1.19 Báo cáo tổng cuốc khách Fixed"</t>
         </is>
       </c>
-      <c r="F525" s="29" t="inlineStr">
-        <is>
-          <t>8.1.19 Báo cáo tổng cuốc khách Fixed</t>
-        </is>
-      </c>
-      <c r="G525" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F525" s="29" t="inlineStr"/>
+      <c r="G525" s="4" t="inlineStr"/>
       <c r="H525" s="2" t="n"/>
       <c r="I525" s="2" t="n"/>
       <c r="J525" s="2" t="n"/>
@@ -36292,16 +34941,8 @@
 (Hiển thị Nguồn)</t>
         </is>
       </c>
-      <c r="F526" s="29" t="inlineStr">
-        <is>
-          <t>Nguồn mobile</t>
-        </is>
-      </c>
-      <c r="G526" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F526" s="29" t="inlineStr"/>
+      <c r="G526" s="4" t="inlineStr"/>
       <c r="H526" s="2" t="n"/>
       <c r="I526" s="2" t="n"/>
       <c r="J526" s="2" t="n"/>
@@ -36339,19 +34980,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F527" s="29" t="inlineStr">
-        <is>
-          <t>Tên cột web: Cước xe (trừ của khách)
-Tên cột excel: Cước xe_x000D_
-(trừ của khách) 
-Dòng: L5</t>
-        </is>
-      </c>
-      <c r="G527" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F527" s="29" t="inlineStr"/>
+      <c r="G527" s="4" t="inlineStr"/>
       <c r="H527" s="6" t="n"/>
       <c r="I527" s="2" t="n"/>
       <c r="J527" s="2" t="n"/>
@@ -36461,16 +35091,8 @@
           <t>Chuyển đến trang: "8.3.1 Thống kê đề cử cuốc theo lái xe"</t>
         </is>
       </c>
-      <c r="F531" s="29" t="inlineStr">
-        <is>
-          <t>8.3.1 Thống kê đề cử cuốc theo lái xe</t>
-        </is>
-      </c>
-      <c r="G531" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F531" s="29" t="inlineStr"/>
+      <c r="G531" s="4" t="inlineStr"/>
       <c r="H531" s="2" t="n"/>
       <c r="I531" s="2" t="n"/>
       <c r="J531" s="2" t="n"/>
@@ -36513,16 +35135,8 @@
 (Hiển thị Công ty)</t>
         </is>
       </c>
-      <c r="F532" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi Hà Nội</t>
-        </is>
-      </c>
-      <c r="G532" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F532" s="29" t="inlineStr"/>
+      <c r="G532" s="4" t="inlineStr"/>
       <c r="H532" s="2" t="n"/>
       <c r="I532" s="2" t="n"/>
       <c r="J532" s="2" t="n"/>
@@ -36559,16 +35173,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F533" s="29" t="inlineStr">
-        <is>
-          <t>_ThongKeDeCuCuocTheoLaiXe.xls</t>
-        </is>
-      </c>
-      <c r="G533" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F533" s="29" t="inlineStr"/>
+      <c r="G533" s="4" t="inlineStr"/>
       <c r="H533" s="2" t="n"/>
       <c r="I533" s="2" t="n"/>
       <c r="J533" s="2" t="n"/>
@@ -36644,16 +35250,8 @@
           <t>Chuyển đến trang: "8.3.2 Thống kê chi tiết đề cử theo lái xe"</t>
         </is>
       </c>
-      <c r="F536" s="29" t="inlineStr">
-        <is>
-          <t>8.3.2 Thống kê chi tiết đề cử theo lái xe</t>
-        </is>
-      </c>
-      <c r="G536" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F536" s="29" t="inlineStr"/>
+      <c r="G536" s="4" t="inlineStr"/>
       <c r="H536" s="2" t="n"/>
       <c r="I536" s="2" t="n"/>
       <c r="J536" s="2" t="n"/>
@@ -36697,11 +35295,7 @@
         </is>
       </c>
       <c r="F537" s="29" t="inlineStr"/>
-      <c r="G537" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G537" s="4" t="inlineStr"/>
       <c r="H537" s="2" t="n"/>
       <c r="I537" s="2" t="n"/>
       <c r="J537" s="2" t="n"/>
@@ -36711,11 +35305,7 @@
         </is>
       </c>
       <c r="L537" s="2" t="n"/>
-      <c r="M537" s="42" t="inlineStr">
-        <is>
-          <t>Report36_ThongKeChiTietDeCuTheoLaiXe_TimKiem.png</t>
-        </is>
-      </c>
+      <c r="M537" s="42" t="inlineStr"/>
       <c r="N537" s="42" t="n"/>
     </row>
     <row r="538" ht="75" customHeight="1">
@@ -36744,11 +35334,7 @@
         </is>
       </c>
       <c r="F538" s="29" t="inlineStr"/>
-      <c r="G538" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G538" s="4" t="inlineStr"/>
       <c r="H538" s="2" t="n"/>
       <c r="I538" s="2" t="n"/>
       <c r="J538" s="2" t="n"/>
@@ -37143,16 +35729,8 @@
           <t>Chuyển đến trang: "8.3.5 Thống kê đề cử lái xe theo tháng"</t>
         </is>
       </c>
-      <c r="F551" s="29" t="inlineStr">
-        <is>
-          <t>8.3.5 Thống kê đề cử lái xe theo tháng</t>
-        </is>
-      </c>
-      <c r="G551" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F551" s="29" t="inlineStr"/>
+      <c r="G551" s="4" t="inlineStr"/>
       <c r="H551" s="2" t="n"/>
       <c r="I551" s="2" t="n"/>
       <c r="J551" s="2" t="n"/>
@@ -37194,16 +35772,8 @@
 (Hiển thị Công ty)</t>
         </is>
       </c>
-      <c r="F552" s="29" t="inlineStr">
-        <is>
-          <t>G7 Taxi Hà Nội</t>
-        </is>
-      </c>
-      <c r="G552" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F552" s="29" t="inlineStr"/>
+      <c r="G552" s="4" t="inlineStr"/>
       <c r="H552" s="2" t="n"/>
       <c r="I552" s="2" t="n"/>
       <c r="J552" s="2" t="n"/>
@@ -37240,16 +35810,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F553" s="29" t="inlineStr">
-        <is>
-          <t>_ThongKeDeCuLaiXeTheoThang.xlsx</t>
-        </is>
-      </c>
-      <c r="G553" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F553" s="29" t="inlineStr"/>
+      <c r="G553" s="4" t="inlineStr"/>
       <c r="H553" s="2" t="n"/>
       <c r="I553" s="2" t="n"/>
       <c r="J553" s="2" t="n"/>
@@ -37396,7 +35958,7 @@
       </c>
       <c r="F558" s="29" t="inlineStr">
         <is>
-          <t>Đinh Mạnh Cường 92</t>
+          <t>Bùi Huy Dũng</t>
         </is>
       </c>
       <c r="G558" s="4" t="inlineStr">
@@ -37440,14 +36002,10 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F559" s="29" t="inlineStr">
-        <is>
-          <t>_BaoCaoDoanhThuTheoLaiXe.xlsx</t>
-        </is>
-      </c>
+      <c r="F559" s="29" t="inlineStr"/>
       <c r="G559" s="4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H559" s="6" t="inlineStr">
@@ -37459,7 +36017,11 @@
       <c r="J559" s="2" t="n"/>
       <c r="K559" s="2" t="n"/>
       <c r="L559" s="2" t="n"/>
-      <c r="M559" s="42" t="inlineStr"/>
+      <c r="M559" s="42" t="inlineStr">
+        <is>
+          <t>Report49_BaoCaoDoanhThuTheoLaiXe_XuatExcel.png</t>
+        </is>
+      </c>
       <c r="N559" s="42" t="n"/>
     </row>
     <row r="560">
@@ -37581,7 +36143,7 @@
       </c>
       <c r="F563" s="29" t="inlineStr">
         <is>
-          <t>Cuốc chốt cơ</t>
+          <t>Cuốc thường</t>
         </is>
       </c>
       <c r="G563" s="4" t="inlineStr">
@@ -37625,14 +36187,10 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F564" s="26" t="inlineStr">
-        <is>
-          <t>_ChiTietDoanhThuTuApp.xlsx</t>
-        </is>
-      </c>
+      <c r="F564" s="26" t="inlineStr"/>
       <c r="G564" s="4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H564" s="6" t="inlineStr">
@@ -37644,7 +36202,11 @@
       <c r="J564" s="2" t="n"/>
       <c r="K564" s="2" t="n"/>
       <c r="L564" s="2" t="n"/>
-      <c r="M564" s="42" t="inlineStr"/>
+      <c r="M564" s="42" t="inlineStr">
+        <is>
+          <t>Report52_ChiTietDoanhThuTuApp_XuatExcel.png</t>
+        </is>
+      </c>
       <c r="N564" s="42" t="n"/>
     </row>
     <row r="565" ht="75" customHeight="1">
@@ -37671,14 +36233,10 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F565" s="29" t="inlineStr">
-        <is>
-          <t>_ChiTietDoanhThuTuApp_Full.xlsx</t>
-        </is>
-      </c>
+      <c r="F565" s="29" t="inlineStr"/>
       <c r="G565" s="4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H565" s="6" t="inlineStr">
@@ -37690,7 +36248,11 @@
       <c r="J565" s="2" t="n"/>
       <c r="K565" s="2" t="n"/>
       <c r="L565" s="2" t="n"/>
-      <c r="M565" s="42" t="inlineStr"/>
+      <c r="M565" s="42" t="inlineStr">
+        <is>
+          <t>Report53_ChiTietDoanhThuTuApp_XuatExcelFull.png</t>
+        </is>
+      </c>
       <c r="N565" s="42" t="n"/>
     </row>
     <row r="566">
@@ -37808,7 +36370,7 @@
       </c>
       <c r="F569" s="29" t="inlineStr">
         <is>
-          <t>bahlt</t>
+          <t>batrinh209a</t>
         </is>
       </c>
       <c r="G569" s="4" t="inlineStr">
@@ -37934,16 +36496,8 @@
           <t>Chuyển đến trang: "8.4.4 Chi tiết thanh toán cuốc khách cho lái xe"</t>
         </is>
       </c>
-      <c r="F573" s="29" t="inlineStr">
-        <is>
-          <t>8.4.4 Chi tiết thanh toán cuốc khách cho lái xe</t>
-        </is>
-      </c>
-      <c r="G573" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F573" s="29" t="inlineStr"/>
+      <c r="G573" s="4" t="inlineStr"/>
       <c r="H573" s="2" t="n"/>
       <c r="I573" s="2" t="n"/>
       <c r="J573" s="2" t="n"/>
@@ -37989,11 +36543,7 @@
         </is>
       </c>
       <c r="F574" s="29" t="inlineStr"/>
-      <c r="G574" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G574" s="4" t="inlineStr"/>
       <c r="H574" s="2" t="n"/>
       <c r="I574" s="2" t="n"/>
       <c r="J574" s="2" t="n"/>
@@ -38003,11 +36553,7 @@
         </is>
       </c>
       <c r="L574" s="2" t="n"/>
-      <c r="M574" s="42" t="inlineStr">
-        <is>
-          <t>Report58_ChiTietThanhToanCuocKhachChoLaiXe_TimKiem.png</t>
-        </is>
-      </c>
+      <c r="M574" s="42" t="inlineStr"/>
       <c r="N574" s="42" t="n"/>
     </row>
     <row r="575" ht="75" customHeight="1">
@@ -38035,18 +36581,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F575" s="29" t="inlineStr">
-        <is>
-          <t>Dữ liệu web: 
-Dữ liệu excel: 0
- Dòng: Q6</t>
-        </is>
-      </c>
-      <c r="G575" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F575" s="29" t="inlineStr"/>
+      <c r="G575" s="4" t="inlineStr"/>
       <c r="H575" s="2" t="n"/>
       <c r="I575" s="2" t="n"/>
       <c r="J575" s="2" t="n"/>
@@ -38122,16 +36658,8 @@
           <t>Chuyển đến trang: "8.4.5 Báo cáo doanh thu theo khách hàng"</t>
         </is>
       </c>
-      <c r="F578" s="29" t="inlineStr">
-        <is>
-          <t>8.4.5 Báo cáo doanh thu theo khách hàng</t>
-        </is>
-      </c>
-      <c r="G578" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F578" s="29" t="inlineStr"/>
+      <c r="G578" s="4" t="inlineStr"/>
       <c r="H578" s="6" t="n"/>
       <c r="I578" s="2" t="n"/>
       <c r="J578" s="2" t="n"/>
@@ -38173,16 +36701,8 @@
 (Hiển thị Tên khách hàng)</t>
         </is>
       </c>
-      <c r="F579" s="29" t="inlineStr">
-        <is>
-          <t>0359667694</t>
-        </is>
-      </c>
-      <c r="G579" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F579" s="29" t="inlineStr"/>
+      <c r="G579" s="4" t="inlineStr"/>
       <c r="H579" s="6" t="n"/>
       <c r="I579" s="2" t="n"/>
       <c r="J579" s="2" t="n"/>
@@ -38221,11 +36741,7 @@
         </is>
       </c>
       <c r="F580" s="29" t="inlineStr"/>
-      <c r="G580" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G580" s="4" t="inlineStr"/>
       <c r="H580" s="6" t="n"/>
       <c r="I580" s="2" t="n"/>
       <c r="J580" s="2" t="n"/>
@@ -38301,16 +36817,8 @@
           <t>Chuyển đến trang: "8.4.6 Doanh thu theo nhóm khách hàng"</t>
         </is>
       </c>
-      <c r="F583" s="29" t="inlineStr">
-        <is>
-          <t>8.4.6 Doanh thu theo nhóm khách hàng</t>
-        </is>
-      </c>
-      <c r="G583" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F583" s="29" t="inlineStr"/>
+      <c r="G583" s="4" t="inlineStr"/>
       <c r="H583" s="6" t="n"/>
       <c r="I583" s="2" t="n"/>
       <c r="J583" s="2" t="n"/>
@@ -38353,16 +36861,8 @@
 (Hiển thị Tên khách hàng)</t>
         </is>
       </c>
-      <c r="F584" s="29" t="inlineStr">
-        <is>
-          <t>Trần Quang Truờng</t>
-        </is>
-      </c>
-      <c r="G584" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F584" s="29" t="inlineStr"/>
+      <c r="G584" s="4" t="inlineStr"/>
       <c r="H584" s="6" t="n"/>
       <c r="I584" s="2" t="n"/>
       <c r="J584" s="2" t="n"/>
@@ -38401,11 +36901,7 @@
         </is>
       </c>
       <c r="F585" s="29" t="inlineStr"/>
-      <c r="G585" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G585" s="4" t="inlineStr"/>
       <c r="H585" s="6" t="n"/>
       <c r="I585" s="2" t="n"/>
       <c r="J585" s="2" t="n"/>
@@ -38536,7 +37032,7 @@
       </c>
       <c r="F589" s="29" t="inlineStr">
         <is>
-          <t>auto383</t>
+          <t>hoalt209</t>
         </is>
       </c>
       <c r="G589" s="4" t="inlineStr">
@@ -38662,16 +37158,8 @@
           <t>Chuyển đến trang: "8.4.8 Chi tiết doanh thu từ định vị"</t>
         </is>
       </c>
-      <c r="F593" s="29" t="inlineStr">
-        <is>
-          <t>8.4.8 Chi tiết doanh thu từ định vị</t>
-        </is>
-      </c>
-      <c r="G593" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F593" s="29" t="inlineStr"/>
+      <c r="G593" s="4" t="inlineStr"/>
       <c r="H593" s="2" t="n"/>
       <c r="I593" s="2" t="n"/>
       <c r="J593" s="2" t="n"/>
@@ -38715,11 +37203,7 @@
         </is>
       </c>
       <c r="F594" s="29" t="inlineStr"/>
-      <c r="G594" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G594" s="4" t="inlineStr"/>
       <c r="H594" s="2" t="n"/>
       <c r="I594" s="2" t="n"/>
       <c r="J594" s="2" t="n"/>
@@ -38729,11 +37213,7 @@
         </is>
       </c>
       <c r="L594" s="2" t="n"/>
-      <c r="M594" s="42" t="inlineStr">
-        <is>
-          <t>Report70_ChiTietDoanhThuTuDinhVi_TimKiem.png</t>
-        </is>
-      </c>
+      <c r="M594" s="42" t="inlineStr"/>
       <c r="N594" s="42" t="n"/>
     </row>
     <row r="595" ht="56.25" customHeight="1">
@@ -38760,16 +37240,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F595" s="29" t="inlineStr">
-        <is>
-          <t>_ChiTietDoanhThuTuDinhVi.xls</t>
-        </is>
-      </c>
-      <c r="G595" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F595" s="29" t="inlineStr"/>
+      <c r="G595" s="4" t="inlineStr"/>
       <c r="H595" s="2" t="n"/>
       <c r="I595" s="2" t="n"/>
       <c r="J595" s="2" t="n"/>
@@ -38845,16 +37317,8 @@
           <t>Chuyển đến trang: "8.4.17 Tổng hợp doanh thu lái xe theo ngày"</t>
         </is>
       </c>
-      <c r="F598" s="29" t="inlineStr">
-        <is>
-          <t>8.4.17 Tổng hợp doanh thu lái xe theo ngày</t>
-        </is>
-      </c>
-      <c r="G598" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F598" s="29" t="inlineStr"/>
+      <c r="G598" s="4" t="inlineStr"/>
       <c r="H598" s="2" t="n"/>
       <c r="I598" s="2" t="n"/>
       <c r="J598" s="2" t="n"/>
@@ -38896,16 +37360,8 @@
 (Hiển thị )</t>
         </is>
       </c>
-      <c r="F599" s="29" t="inlineStr">
-        <is>
-          <t>batrinh209a</t>
-        </is>
-      </c>
-      <c r="G599" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F599" s="29" t="inlineStr"/>
+      <c r="G599" s="4" t="inlineStr"/>
       <c r="H599" s="2" t="n"/>
       <c r="I599" s="2" t="n"/>
       <c r="J599" s="2" t="n"/>
@@ -38944,11 +37400,7 @@
         </is>
       </c>
       <c r="F600" s="29" t="inlineStr"/>
-      <c r="G600" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G600" s="4" t="inlineStr"/>
       <c r="H600" s="2" t="n"/>
       <c r="I600" s="2" t="n"/>
       <c r="J600" s="2" t="n"/>
@@ -39023,16 +37475,8 @@
           <t>Chuyển đến trang: "8.8.2 Chi tiết tin nhắn theo ngày"</t>
         </is>
       </c>
-      <c r="F603" s="29" t="inlineStr">
-        <is>
-          <t>8.8.2 Chi tiết tin nhắn theo ngày</t>
-        </is>
-      </c>
-      <c r="G603" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F603" s="29" t="inlineStr"/>
+      <c r="G603" s="4" t="inlineStr"/>
       <c r="H603" s="2" t="n"/>
       <c r="I603" s="2" t="n"/>
       <c r="J603" s="2" t="n"/>
@@ -39073,16 +37517,8 @@
 (Hiển thị )</t>
         </is>
       </c>
-      <c r="F604" s="29" t="inlineStr">
-        <is>
-          <t>02/02/2026</t>
-        </is>
-      </c>
-      <c r="G604" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F604" s="29" t="inlineStr"/>
+      <c r="G604" s="4" t="inlineStr"/>
       <c r="H604" s="2" t="n"/>
       <c r="I604" s="2" t="n"/>
       <c r="J604" s="2" t="n"/>
@@ -39158,11 +37594,7 @@
         </is>
       </c>
       <c r="F606" s="29" t="inlineStr"/>
-      <c r="G606" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G606" s="4" t="inlineStr"/>
       <c r="H606" s="2" t="n"/>
       <c r="I606" s="2" t="n"/>
       <c r="J606" s="2" t="n"/>
@@ -39200,11 +37632,7 @@
         </is>
       </c>
       <c r="F607" s="29" t="inlineStr"/>
-      <c r="G607" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G607" s="4" t="inlineStr"/>
       <c r="H607" s="2" t="n"/>
       <c r="I607" s="2" t="n"/>
       <c r="J607" s="2" t="n"/>
@@ -39279,16 +37707,8 @@
           <t>Chuyển đến trang: "8.8.3 Báo cáo tin nhắn theo ngày"</t>
         </is>
       </c>
-      <c r="F610" s="29" t="inlineStr">
-        <is>
-          <t>8.8.3 Báo cáo tin nhắn theo ngày</t>
-        </is>
-      </c>
-      <c r="G610" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F610" s="29" t="inlineStr"/>
+      <c r="G610" s="4" t="inlineStr"/>
       <c r="H610" s="2" t="n"/>
       <c r="I610" s="2" t="n"/>
       <c r="J610" s="2" t="n"/>
@@ -39330,11 +37750,7 @@
         </is>
       </c>
       <c r="F611" s="29" t="inlineStr"/>
-      <c r="G611" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G611" s="4" t="inlineStr"/>
       <c r="H611" s="2" t="n"/>
       <c r="I611" s="2" t="n"/>
       <c r="J611" s="2" t="n"/>
@@ -39344,11 +37760,7 @@
         </is>
       </c>
       <c r="L611" s="2" t="n"/>
-      <c r="M611" s="42" t="inlineStr">
-        <is>
-          <t>Report79_BaoCaoTinNhanTheoNgay_TimKiem.png</t>
-        </is>
-      </c>
+      <c r="M611" s="42" t="inlineStr"/>
       <c r="N611" s="42" t="n"/>
     </row>
     <row r="612" ht="75" customHeight="1">
@@ -39376,18 +37788,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F612" s="29" t="inlineStr">
-        <is>
-          <t>Dữ liệu web: None
-Dữ liệu excel: 0
- Dòng: I6</t>
-        </is>
-      </c>
-      <c r="G612" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="F612" s="29" t="inlineStr"/>
+      <c r="G612" s="4" t="inlineStr"/>
       <c r="H612" s="2" t="n"/>
       <c r="I612" s="2" t="n"/>
       <c r="J612" s="2" t="n"/>
@@ -39708,16 +38110,8 @@
           <t>Trường "Tên" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F625" s="29" t="inlineStr">
-        <is>
-          <t>Nội thành + Đàm ảo 4km</t>
-        </is>
-      </c>
-      <c r="G625" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F625" s="29" t="inlineStr"/>
+      <c r="G625" s="4" t="inlineStr"/>
       <c r="H625" s="6" t="n"/>
       <c r="I625" s="2" t="n"/>
       <c r="J625" s="2" t="n"/>
@@ -39756,16 +38150,8 @@
           <t>Trường "Phương pháp điều" hiển thị: Điều tuần tự</t>
         </is>
       </c>
-      <c r="F626" s="29" t="inlineStr">
-        <is>
-          <t>Điều tuần tự</t>
-        </is>
-      </c>
-      <c r="G626" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F626" s="29" t="inlineStr"/>
+      <c r="G626" s="4" t="inlineStr"/>
       <c r="H626" s="6" t="n"/>
       <c r="I626" s="2" t="n"/>
       <c r="J626" s="2" t="n"/>
@@ -40145,11 +38531,7 @@
         </is>
       </c>
       <c r="F637" s="29" t="inlineStr"/>
-      <c r="G637" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G637" s="4" t="inlineStr"/>
       <c r="H637" s="2" t="n"/>
       <c r="I637" s="2" t="n"/>
       <c r="J637" s="2" t="n"/>
@@ -40159,11 +38541,7 @@
         </is>
       </c>
       <c r="L637" s="2" t="n"/>
-      <c r="M637" s="42" t="inlineStr">
-        <is>
-          <t>Admin08_ThongTinCongTy_QuayLai.png</t>
-        </is>
-      </c>
+      <c r="M637" s="42" t="inlineStr"/>
       <c r="N637" s="42" t="n"/>
     </row>
     <row r="638">
@@ -40278,7 +38656,7 @@
       </c>
       <c r="F641" s="29" t="inlineStr">
         <is>
-          <t>IT-G7-Gán Lái</t>
+          <t>nhóm 1</t>
         </is>
       </c>
       <c r="G641" s="4" t="inlineStr">
@@ -40325,7 +38703,7 @@
       </c>
       <c r="F642" s="29" t="inlineStr">
         <is>
-          <t>IT-G7-Gán Lái</t>
+          <t>nhóm 1</t>
         </is>
       </c>
       <c r="G642" s="4" t="inlineStr">
@@ -40369,16 +38747,8 @@
           <t>Hiển thị message: "Lưu thông tin thành công."</t>
         </is>
       </c>
-      <c r="F643" s="29" t="inlineStr">
-        <is>
-          <t>Lưu thông tin thành công.</t>
-        </is>
-      </c>
-      <c r="G643" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F643" s="29" t="inlineStr"/>
+      <c r="G643" s="4" t="inlineStr"/>
       <c r="H643" s="2" t="n"/>
       <c r="I643" s="2" t="inlineStr">
         <is>
@@ -40415,16 +38785,8 @@
           <t>Hiển thị message: "Lưu thông tin thành công."</t>
         </is>
       </c>
-      <c r="F644" s="29" t="inlineStr">
-        <is>
-          <t>Lưu thông tin thành công.</t>
-        </is>
-      </c>
-      <c r="G644" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F644" s="29" t="inlineStr"/>
+      <c r="G644" s="4" t="inlineStr"/>
       <c r="H644" s="2" t="n"/>
       <c r="I644" s="2" t="inlineStr">
         <is>
@@ -40461,16 +38823,8 @@
           <t>Hiển thị message: "Xóa thông tin thành công"</t>
         </is>
       </c>
-      <c r="F645" s="29" t="inlineStr">
-        <is>
-          <t>Xóa nhóm thành công.</t>
-        </is>
-      </c>
-      <c r="G645" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F645" s="29" t="inlineStr"/>
+      <c r="G645" s="4" t="inlineStr"/>
       <c r="H645" s="2" t="n"/>
       <c r="I645" s="2" t="inlineStr">
         <is>
@@ -40720,16 +39074,8 @@
           <t>Trường "Tên xe" hiển thị dữ liệu đã nhập</t>
         </is>
       </c>
-      <c r="F652" s="29" t="inlineStr">
-        <is>
-          <t>Wuling Bingo</t>
-        </is>
-      </c>
-      <c r="G652" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F652" s="29" t="inlineStr"/>
+      <c r="G652" s="4" t="inlineStr"/>
       <c r="H652" s="4" t="n"/>
       <c r="I652" s="2" t="n"/>
       <c r="J652" s="2" t="n"/>
@@ -40766,16 +39112,8 @@
           <t>Hiển thị message: "Lưu tên xe thành công."</t>
         </is>
       </c>
-      <c r="F653" s="29" t="inlineStr">
-        <is>
-          <t>Lưu tên xe thành công.</t>
-        </is>
-      </c>
-      <c r="G653" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F653" s="29" t="inlineStr"/>
+      <c r="G653" s="4" t="inlineStr"/>
       <c r="H653" s="4" t="n"/>
       <c r="I653" s="2" t="n"/>
       <c r="J653" s="2" t="n"/>
@@ -40812,16 +39150,8 @@
           <t>Hiển thị message: "Cập nhật tên xe thành công."</t>
         </is>
       </c>
-      <c r="F654" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật tên xe thành công.</t>
-        </is>
-      </c>
-      <c r="G654" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F654" s="29" t="inlineStr"/>
+      <c r="G654" s="4" t="inlineStr"/>
       <c r="H654" s="4" t="n"/>
       <c r="I654" s="2" t="n"/>
       <c r="J654" s="2" t="n"/>
@@ -40858,16 +39188,8 @@
           <t>Hiển thị message: "Xóa tên xe thành công."</t>
         </is>
       </c>
-      <c r="F655" s="29" t="inlineStr">
-        <is>
-          <t>Xóa tên xe thành công.</t>
-        </is>
-      </c>
-      <c r="G655" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F655" s="29" t="inlineStr"/>
+      <c r="G655" s="4" t="inlineStr"/>
       <c r="H655" s="4" t="n"/>
       <c r="I655" s="2" t="n"/>
       <c r="J655" s="2" t="n"/>
@@ -41040,16 +39362,8 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ lái xe thành công."</t>
         </is>
       </c>
-      <c r="F660" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật phiên bản đồng bộ lái xe thành công.</t>
-        </is>
-      </c>
-      <c r="G660" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F660" s="29" t="inlineStr"/>
+      <c r="G660" s="4" t="inlineStr"/>
       <c r="H660" s="2" t="n"/>
       <c r="I660" s="2" t="n"/>
       <c r="J660" s="2" t="n"/>
@@ -41095,16 +39409,8 @@
           <t>Hiển thị message: "Cập nhật phiên bản đồng bộ khách hàng thành công."</t>
         </is>
       </c>
-      <c r="F661" s="29" t="inlineStr">
-        <is>
-          <t>Cập nhật phiên bản đồng bộ khách hàng thành công.</t>
-        </is>
-      </c>
-      <c r="G661" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F661" s="29" t="inlineStr"/>
+      <c r="G661" s="4" t="inlineStr"/>
       <c r="H661" s="2" t="n"/>
       <c r="I661" s="2" t="n"/>
       <c r="J661" s="2" t="n"/>
@@ -41166,16 +39472,8 @@
           <t>Hiển thị loại xe vừa thêm mới: 4  chỗ tiện lợi</t>
         </is>
       </c>
-      <c r="F662" s="29" t="inlineStr">
-        <is>
-          <t>4 Chỗ tiện lợi</t>
-        </is>
-      </c>
-      <c r="G662" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F662" s="29" t="inlineStr"/>
+      <c r="G662" s="4" t="inlineStr"/>
       <c r="H662" s="2" t="n"/>
       <c r="I662" s="2" t="n"/>
       <c r="J662" s="2" t="n"/>
@@ -41212,16 +39510,8 @@
           <t>Hiển thị mô tả vừa cập nhật: "4  chỗ tiện lợi đã sửa"</t>
         </is>
       </c>
-      <c r="F663" s="29" t="inlineStr">
-        <is>
-          <t>4 Chỗ tiện lợi đã sửa</t>
-        </is>
-      </c>
-      <c r="G663" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F663" s="29" t="inlineStr"/>
+      <c r="G663" s="4" t="inlineStr"/>
       <c r="H663" s="2" t="n"/>
       <c r="I663" s="2" t="n"/>
       <c r="J663" s="2" t="n"/>
@@ -41258,11 +39548,7 @@
         </is>
       </c>
       <c r="F664" s="29" t="inlineStr"/>
-      <c r="G664" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G664" s="4" t="inlineStr"/>
       <c r="H664" s="2" t="n"/>
       <c r="I664" s="2" t="n"/>
       <c r="J664" s="2" t="n"/>
@@ -41409,7 +39695,7 @@
       </c>
       <c r="F669" s="29" t="inlineStr">
         <is>
-          <t>auto2093</t>
+          <t>auto2363</t>
         </is>
       </c>
       <c r="G669" s="4" t="inlineStr">
@@ -41454,18 +39740,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F670" s="29" t="inlineStr">
-        <is>
-          <t>Dữ liệu web: 10/09/2025 02:13:00
-Dữ liệu excel: 02/04/2024 11:45:00
- Dòng: H6</t>
-        </is>
-      </c>
-      <c r="G670" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F670" s="29" t="inlineStr"/>
+      <c r="G670" s="4" t="inlineStr"/>
       <c r="H670" s="2" t="n"/>
       <c r="I670" s="2" t="n"/>
       <c r="J670" s="2" t="n"/>
@@ -41535,7 +39811,7 @@
       <c r="M671" s="42" t="inlineStr"/>
       <c r="N671" s="42" t="inlineStr">
         <is>
-          <t>auto2333</t>
+          <t>auto2415</t>
         </is>
       </c>
     </row>
@@ -42072,16 +40348,8 @@
           <t>Trường "Thời gian xảy ra" hiển thị: 10/12/2024</t>
         </is>
       </c>
-      <c r="F684" s="55" t="inlineStr">
-        <is>
-          <t>03/06/2025 20:53</t>
-        </is>
-      </c>
-      <c r="G684" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F684" s="55" t="inlineStr"/>
+      <c r="G684" s="4" t="inlineStr"/>
       <c r="H684" s="2" t="n"/>
       <c r="I684" s="2" t="n"/>
       <c r="J684" s="2" t="n"/>
@@ -42166,16 +40434,8 @@
           <t>Trường "Thông tin" hiển thị: 0835210360</t>
         </is>
       </c>
-      <c r="F686" s="29" t="inlineStr">
-        <is>
-          <t>0835210360</t>
-        </is>
-      </c>
-      <c r="G686" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F686" s="29" t="inlineStr"/>
+      <c r="G686" s="4" t="inlineStr"/>
       <c r="H686" s="2" t="n"/>
       <c r="I686" s="2" t="n"/>
       <c r="J686" s="2" t="n"/>
@@ -42212,16 +40472,8 @@
           <t>Trường "Bảng tác động" hiển thị: Người dùng hệ thống (AdminUser)</t>
         </is>
       </c>
-      <c r="F687" s="29" t="inlineStr">
-        <is>
-          <t>Người dùng hệ thống (AdminUser)</t>
-        </is>
-      </c>
-      <c r="G687" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F687" s="29" t="inlineStr"/>
+      <c r="G687" s="4" t="inlineStr"/>
       <c r="H687" s="2" t="n"/>
       <c r="I687" s="2" t="n"/>
       <c r="J687" s="2" t="n"/>
@@ -42258,16 +40510,8 @@
           <t>Trường "Loại hành động" hiển thị: Sửa</t>
         </is>
       </c>
-      <c r="F688" s="29" t="inlineStr">
-        <is>
-          <t>Sửa</t>
-        </is>
-      </c>
-      <c r="G688" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F688" s="29" t="inlineStr"/>
+      <c r="G688" s="4" t="inlineStr"/>
       <c r="H688" s="2" t="n"/>
       <c r="I688" s="2" t="n"/>
       <c r="J688" s="2" t="n"/>
@@ -42413,7 +40657,7 @@
         <is>
           <t>STT: 1
 Tên cấu hình: WALLET
-Giá trị: {"isWallet":true, "min":0, "isRecharge":true, "RechargeType": 2, "isDriverWallet":true, "isDriverRecharge": true,"isCreateCardTrip": true}
+Giá trị: {"isWallet":true, "min":20000, "isRecharge":true, "isDriverWallet":true, "isDriverRecharge": true,"isCreateCardTrip": true,"requiredPrice": 1, "RechargeType": 3}
 Kiểu dữ liệu: Kiểu chuỗi
 Ghi chú: {"isWallet":true =&gt; Hiện menu ví trên (Ví tài khoản) ,"min":50000, =&gt; Số tiền tối thiểu cho phép nạp "isRecharge":false, =&gt; Hiện nút nạp tiền ở màn hình ví trên hay không "isDriverWallet":true=&gt; Hiện menu ví dưới (Ví tiền mặt)</t>
         </is>
@@ -42550,7 +40794,7 @@
 Tên cấu hình: ZOOM_MAP
 Giá trị: {"android": 18, "iOS": 18, "minDistanceToMove": 15}
 Kiểu dữ liệu: Kiểu chuỗi
-Công ty: 
+Công ty: Cấu hình zoom mặc đinh ở màn hình home (Chỉ áp dụng cho app xamarin)
 Ghi chú: </t>
         </is>
       </c>
@@ -42683,9 +40927,9 @@
       <c r="F701" s="29" t="inlineStr">
         <is>
           <t>STT: 1
-Tên cấu hình: XEM_HOADON
-Giá trị: true
-Ghi chú: Xem hóa đơn điện tử ở BC chi tiết doanh thu</t>
+Tên cấu hình: YEU_CAU_DOI_MAT_KHAU_THEO_CHU_KY
+Giá trị: False
+Ghi chú: Yêu cầu đổi mật khẩu theo chu kỳ</t>
         </is>
       </c>
       <c r="G701" s="4" t="inlineStr">
@@ -42902,16 +41146,8 @@
           <t>Chuyển đến trang: "10.6.5 Cấu hình tin nhắn"</t>
         </is>
       </c>
-      <c r="F708" s="29" t="inlineStr">
-        <is>
-          <t>10.6.5 Cấu hình tin nhắn</t>
-        </is>
-      </c>
-      <c r="G708" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F708" s="29" t="inlineStr"/>
+      <c r="G708" s="4" t="inlineStr"/>
       <c r="H708" s="2" t="n"/>
       <c r="I708" s="2" t="n"/>
       <c r="J708" s="2" t="n"/>
@@ -42948,20 +41184,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F709" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Nhóm tuyến: Sân bay
-Thời điểm: Điều đàm - Lái xe báo hủy cuốc
-Trạng thái: Có gửi
-Ghi chú: Gửi thông báo cho khách hàng khi lái xe báo hủy cuốc cho đàm</t>
-        </is>
-      </c>
-      <c r="G709" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F709" s="29" t="inlineStr"/>
+      <c r="G709" s="4" t="inlineStr"/>
       <c r="H709" s="2" t="n"/>
       <c r="I709" s="2" t="n"/>
       <c r="J709" s="2" t="n"/>
@@ -43041,16 +41265,8 @@
           <t>Chuyển đến trang: "10.6.6 Mẫu tin nhắn"</t>
         </is>
       </c>
-      <c r="F712" s="29" t="inlineStr">
-        <is>
-          <t>10.6.6 Mẫu tin nhắn</t>
-        </is>
-      </c>
-      <c r="G712" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F712" s="29" t="inlineStr"/>
+      <c r="G712" s="4" t="inlineStr"/>
       <c r="H712" s="2" t="n"/>
       <c r="I712" s="2" t="n"/>
       <c r="J712" s="2" t="n"/>
@@ -43087,19 +41303,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F713" s="29" t="inlineStr">
-        <is>
-          <t>STT: 2
-Mã số: 24286
-Nội dung: G7_Taxi: $Param1 la ma kich hoat cua quy khach tren App G7 Taxi
-Tham số: 1</t>
-        </is>
-      </c>
-      <c r="G713" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F713" s="29" t="inlineStr"/>
+      <c r="G713" s="4" t="inlineStr"/>
       <c r="H713" s="2" t="n"/>
       <c r="I713" s="2" t="n"/>
       <c r="J713" s="2" t="n"/>
@@ -43175,16 +41380,8 @@
           <t>Chuyển đến trang: "10.6.7 Cấu hình bản đồ"</t>
         </is>
       </c>
-      <c r="F716" s="29" t="inlineStr">
-        <is>
-          <t>10.6.7 Cấu hình bản đồ</t>
-        </is>
-      </c>
-      <c r="G716" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F716" s="29" t="inlineStr"/>
+      <c r="G716" s="4" t="inlineStr"/>
       <c r="H716" s="2" t="n"/>
       <c r="I716" s="2" t="n"/>
       <c r="J716" s="2" t="n"/>
@@ -43221,19 +41418,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F717" s="29" t="inlineStr">
-        <is>
-          <t>STT: 1
-Tên cấu hình: Map
-Giá trị: 1
-Ghi chú: 1</t>
-        </is>
-      </c>
-      <c r="G717" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F717" s="29" t="inlineStr"/>
+      <c r="G717" s="4" t="inlineStr"/>
       <c r="H717" s="2" t="n"/>
       <c r="I717" s="2" t="n"/>
       <c r="J717" s="2" t="n"/>
@@ -43386,16 +41572,8 @@
           <t>Chuyển đến trang: "10.6.9 Kích hoạt dịch vụ"</t>
         </is>
       </c>
-      <c r="F723" s="29" t="inlineStr">
-        <is>
-          <t>10.6.9 Kích hoạt dịch vụ</t>
-        </is>
-      </c>
-      <c r="G723" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F723" s="29" t="inlineStr"/>
+      <c r="G723" s="4" t="inlineStr"/>
       <c r="H723" s="2" t="n"/>
       <c r="I723" s="2" t="n"/>
       <c r="J723" s="2" t="n"/>
@@ -43432,17 +41610,8 @@
 (Chỉ check view)</t>
         </is>
       </c>
-      <c r="F724" s="29" t="inlineStr">
-        <is>
-          <t>VNPay
-BE</t>
-        </is>
-      </c>
-      <c r="G724" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F724" s="29" t="inlineStr"/>
+      <c r="G724" s="4" t="inlineStr"/>
       <c r="H724" s="2" t="n"/>
       <c r="I724" s="2" t="n"/>
       <c r="J724" s="2" t="n"/>
@@ -43566,10 +41735,10 @@
       </c>
       <c r="F728" s="29" t="inlineStr">
         <is>
-          <t xml:space="preserve">STT: 1
+          <t>STT: 1
 Loại thẻ: Hạng vàng
-Màu thẻ: #eaf037
-Ghi chú: </t>
+Màu thẻ: #e3a7ff
+Ghi chú: Thẻ vàng (gold) là loại thẻ tín dụng có hạn mức cao từ trên 50.000.000 đồng, được cấp cho những khách hàng có năng lực tài chính tốt và độ uy tín tín dụng cao. Chủ sở hữu thẻ vàng có cơ hội nhận được nhiều tiện ích và ưu đãi hấp dẫn hơn so với các loại</t>
         </is>
       </c>
       <c r="G728" s="4" t="inlineStr">
@@ -43845,7 +42014,7 @@
       </c>
       <c r="F737" s="29" t="inlineStr">
         <is>
-          <t>Cộng ví tiền mặt khi hoàn thành chuyến thanh toán thẻ. Số dư tài khoản: 6934000đ</t>
+          <t>Cộng ví tiền mặt khi hoàn thành chuyến thanh toán thẻ. Số dư tài khoản: 34175000đ</t>
         </is>
       </c>
       <c r="G737" s="4" t="inlineStr">
@@ -43891,16 +42060,8 @@
           <t>Click vào tiêu đề hiển thị lái xe: auto383-Đinh Mạnh Cường 92</t>
         </is>
       </c>
-      <c r="F738" s="29" t="inlineStr">
-        <is>
-          <t>auto383-Đinh Mạnh Cường 92</t>
-        </is>
-      </c>
-      <c r="G738" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F738" s="29" t="inlineStr"/>
+      <c r="G738" s="4" t="inlineStr"/>
       <c r="H738" s="2" t="n"/>
       <c r="I738" s="2" t="n"/>
       <c r="J738" s="2" t="n"/>
@@ -43938,16 +42099,8 @@
           <t>Trường "Loại tin" hiện thị: Thông báo</t>
         </is>
       </c>
-      <c r="F739" s="29" t="inlineStr">
-        <is>
-          <t>Thông báo</t>
-        </is>
-      </c>
-      <c r="G739" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F739" s="29" t="inlineStr"/>
+      <c r="G739" s="4" t="inlineStr"/>
       <c r="H739" s="2" t="n"/>
       <c r="I739" s="2" t="n"/>
       <c r="J739" s="2" t="n"/>
@@ -43985,16 +42138,8 @@
           <t>Trường "Loại tin" hiện thị: Tin tức</t>
         </is>
       </c>
-      <c r="F740" s="29" t="inlineStr">
-        <is>
-          <t>Tin tức</t>
-        </is>
-      </c>
-      <c r="G740" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F740" s="29" t="inlineStr"/>
+      <c r="G740" s="4" t="inlineStr"/>
       <c r="H740" s="2" t="n"/>
       <c r="I740" s="2" t="n"/>
       <c r="J740" s="2" t="n"/>
@@ -44032,16 +42177,8 @@
           <t>Trường "Loại tin" hiện thị: Thông báo Notify</t>
         </is>
       </c>
-      <c r="F741" s="29" t="inlineStr">
-        <is>
-          <t>Thông báo Notify</t>
-        </is>
-      </c>
-      <c r="G741" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F741" s="29" t="inlineStr"/>
+      <c r="G741" s="4" t="inlineStr"/>
       <c r="H741" s="2" t="n"/>
       <c r="I741" s="2" t="n"/>
       <c r="J741" s="2" t="n"/>
@@ -44079,16 +42216,8 @@
           <t>Trường "Chu kỳ lặp" hiện thị: Không lặp</t>
         </is>
       </c>
-      <c r="F742" s="29" t="inlineStr">
-        <is>
-          <t>Không lặp</t>
-        </is>
-      </c>
-      <c r="G742" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F742" s="29" t="inlineStr"/>
+      <c r="G742" s="4" t="inlineStr"/>
       <c r="H742" s="2" t="n"/>
       <c r="I742" s="2" t="n"/>
       <c r="J742" s="2" t="n"/>
@@ -44126,16 +42255,8 @@
           <t>Trường "Chu kỳ lặp" hiện thị:  Mỗi ngày</t>
         </is>
       </c>
-      <c r="F743" s="29" t="inlineStr">
-        <is>
-          <t>Mỗi ngày</t>
-        </is>
-      </c>
-      <c r="G743" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F743" s="29" t="inlineStr"/>
+      <c r="G743" s="4" t="inlineStr"/>
       <c r="H743" s="2" t="n"/>
       <c r="I743" s="2" t="n"/>
       <c r="J743" s="2" t="n"/>
@@ -44173,16 +42294,8 @@
           <t>Trường "Chu kỳ lặp" hiện thị:  Mỗi tuần</t>
         </is>
       </c>
-      <c r="F744" s="29" t="inlineStr">
-        <is>
-          <t>Mỗi tuần</t>
-        </is>
-      </c>
-      <c r="G744" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F744" s="29" t="inlineStr"/>
+      <c r="G744" s="4" t="inlineStr"/>
       <c r="H744" s="2" t="n"/>
       <c r="I744" s="2" t="n"/>
       <c r="J744" s="2" t="n"/>
@@ -44220,16 +42333,8 @@
           <t>Trường "Chu kỳ lặp" hiện thị: Mỗi tháng</t>
         </is>
       </c>
-      <c r="F745" s="29" t="inlineStr">
-        <is>
-          <t>Mỗi tháng</t>
-        </is>
-      </c>
-      <c r="G745" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F745" s="29" t="inlineStr"/>
+      <c r="G745" s="4" t="inlineStr"/>
       <c r="H745" s="2" t="n"/>
       <c r="I745" s="2" t="n"/>
       <c r="J745" s="2" t="n"/>
@@ -44267,16 +42372,8 @@
           <t>Click vào tiêu đề thông báo, trường "Gửi theo" hiển thị: Theo Công ty</t>
         </is>
       </c>
-      <c r="F746" s="29" t="inlineStr">
-        <is>
-          <t>Theo Công ty</t>
-        </is>
-      </c>
-      <c r="G746" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F746" s="29" t="inlineStr"/>
+      <c r="G746" s="4" t="inlineStr"/>
       <c r="H746" s="2" t="n"/>
       <c r="I746" s="2" t="n"/>
       <c r="J746" s="2" t="n"/>
@@ -44314,16 +42411,8 @@
           <t>Click vào tiêu đề thông báo, trường "Gửi theo" hiển thị: Theo Nhóm đội</t>
         </is>
       </c>
-      <c r="F747" s="29" t="inlineStr">
-        <is>
-          <t>Theo Nhóm đội</t>
-        </is>
-      </c>
-      <c r="G747" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F747" s="29" t="inlineStr"/>
+      <c r="G747" s="4" t="inlineStr"/>
       <c r="H747" s="2" t="n"/>
       <c r="I747" s="2" t="n"/>
       <c r="J747" s="2" t="n"/>
@@ -44361,16 +42450,8 @@
           <t>Click vào tiêu đề thông báo, trường "Gửi theo" hiển thị: Theo Lái xe</t>
         </is>
       </c>
-      <c r="F748" s="29" t="inlineStr">
-        <is>
-          <t>Theo Lái xe</t>
-        </is>
-      </c>
-      <c r="G748" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F748" s="29" t="inlineStr"/>
+      <c r="G748" s="4" t="inlineStr"/>
       <c r="H748" s="2" t="n"/>
       <c r="I748" s="2" t="n"/>
       <c r="J748" s="2" t="n"/>
@@ -44408,16 +42489,8 @@
           <t>Click vào tiêu đề thông báo, trường "Gửi theo" hiển thị: Theo biển số</t>
         </is>
       </c>
-      <c r="F749" s="29" t="inlineStr">
-        <is>
-          <t>Theo Biển số</t>
-        </is>
-      </c>
-      <c r="G749" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F749" s="29" t="inlineStr"/>
+      <c r="G749" s="4" t="inlineStr"/>
       <c r="H749" s="2" t="n"/>
       <c r="I749" s="2" t="n"/>
       <c r="J749" s="2" t="n"/>
@@ -44455,16 +42528,8 @@
 về máy</t>
         </is>
       </c>
-      <c r="F750" s="29" t="inlineStr">
-        <is>
-          <t>nhap_danh_danh_thong_bao.xlsx</t>
-        </is>
-      </c>
-      <c r="G750" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F750" s="29" t="inlineStr"/>
+      <c r="G750" s="4" t="inlineStr"/>
       <c r="H750" s="2" t="n"/>
       <c r="I750" s="2" t="n"/>
       <c r="J750" s="2" t="n"/>
@@ -44500,11 +42565,7 @@
         </is>
       </c>
       <c r="F751" s="29" t="inlineStr"/>
-      <c r="G751" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G751" s="4" t="inlineStr"/>
       <c r="H751" s="2" t="n"/>
       <c r="I751" s="2" t="n"/>
       <c r="J751" s="2" t="n"/>
@@ -44514,11 +42575,7 @@
         </is>
       </c>
       <c r="L751" s="2" t="n"/>
-      <c r="M751" s="42" t="inlineStr">
-        <is>
-          <t>Admin76_QuanTriThongBaoLaiXe_UploadFile.png</t>
-        </is>
-      </c>
+      <c r="M751" s="42" t="inlineStr"/>
       <c r="N751" s="42" t="n"/>
     </row>
     <row r="752" ht="60.75" customHeight="1">
@@ -44576,7 +42633,7 @@
       <c r="M752" s="42" t="inlineStr"/>
       <c r="N752" s="67" t="inlineStr">
         <is>
-          <t>Auto_ThongBao_2334</t>
+          <t>Auto_ThongBao_2416</t>
         </is>
       </c>
     </row>
@@ -44871,16 +42928,8 @@
           <t>Trường "Ngày bắt đầu - Ngày kết thúc" hiện thị thời gian đã nhập</t>
         </is>
       </c>
-      <c r="F760" s="76" t="inlineStr">
-        <is>
-          <t>22/01/2026</t>
-        </is>
-      </c>
-      <c r="G760" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F760" s="76" t="inlineStr"/>
+      <c r="G760" s="4" t="inlineStr"/>
       <c r="H760" s="2" t="n"/>
       <c r="I760" s="2" t="n"/>
       <c r="J760" s="2" t="n"/>
@@ -44921,7 +42970,7 @@
       </c>
       <c r="F761" s="29" t="inlineStr">
         <is>
-          <t>Ví tài khoản: -11.000đ, hoàn thành cuốc</t>
+          <t>Ví tài khoản: -2.200đ, hoàn thành cuốc</t>
         </is>
       </c>
       <c r="G761" s="4" t="inlineStr">
@@ -45013,16 +43062,8 @@
           <t>Trường "Kiểu thông báo" hiện thị: Tin tức</t>
         </is>
       </c>
-      <c r="F763" s="29" t="inlineStr">
-        <is>
-          <t>Tin tức</t>
-        </is>
-      </c>
-      <c r="G763" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F763" s="29" t="inlineStr"/>
+      <c r="G763" s="4" t="inlineStr"/>
       <c r="H763" s="2" t="n"/>
       <c r="I763" s="2" t="n"/>
       <c r="J763" s="2" t="n"/>
@@ -45061,11 +43102,7 @@
         </is>
       </c>
       <c r="F764" s="29" t="inlineStr"/>
-      <c r="G764" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G764" s="4" t="inlineStr"/>
       <c r="H764" s="2" t="n"/>
       <c r="I764" s="2" t="n"/>
       <c r="J764" s="2" t="n"/>
@@ -45075,11 +43112,7 @@
         </is>
       </c>
       <c r="L764" s="2" t="n"/>
-      <c r="M764" s="42" t="inlineStr">
-        <is>
-          <t>Admin87_QuanTriThongBaoLaiXeV2_ThongbaoNotify.png</t>
-        </is>
-      </c>
+      <c r="M764" s="42" t="inlineStr"/>
       <c r="N764" s="42" t="n"/>
     </row>
     <row r="765" ht="38.45" customHeight="1">
@@ -45107,16 +43140,8 @@
           <t>Trường "Chu kỳ lặp" hiện thị: Không lặp</t>
         </is>
       </c>
-      <c r="F765" s="29" t="inlineStr">
-        <is>
-          <t>Không lặp</t>
-        </is>
-      </c>
-      <c r="G765" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F765" s="29" t="inlineStr"/>
+      <c r="G765" s="4" t="inlineStr"/>
       <c r="H765" s="2" t="n"/>
       <c r="I765" s="2" t="n"/>
       <c r="J765" s="2" t="n"/>
@@ -45155,11 +43180,7 @@
         </is>
       </c>
       <c r="F766" s="29" t="inlineStr"/>
-      <c r="G766" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G766" s="4" t="inlineStr"/>
       <c r="H766" s="2" t="n"/>
       <c r="I766" s="2" t="n"/>
       <c r="J766" s="2" t="n"/>
@@ -45169,11 +43190,7 @@
         </is>
       </c>
       <c r="L766" s="2" t="n"/>
-      <c r="M766" s="42" t="inlineStr">
-        <is>
-          <t>Admin89_QuanTriThongBaoLaiXeV2_MoiNgay.png</t>
-        </is>
-      </c>
+      <c r="M766" s="42" t="inlineStr"/>
       <c r="N766" s="42" t="n"/>
     </row>
     <row r="767" ht="38.45" customHeight="1">
@@ -45202,11 +43219,7 @@
         </is>
       </c>
       <c r="F767" s="29" t="inlineStr"/>
-      <c r="G767" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G767" s="4" t="inlineStr"/>
       <c r="H767" s="2" t="n"/>
       <c r="I767" s="2" t="n"/>
       <c r="J767" s="2" t="n"/>
@@ -45216,11 +43229,7 @@
         </is>
       </c>
       <c r="L767" s="2" t="n"/>
-      <c r="M767" s="42" t="inlineStr">
-        <is>
-          <t>Admin90_QuanTriThongBaoLaiXeV2_MoiTuan.png</t>
-        </is>
-      </c>
+      <c r="M767" s="42" t="inlineStr"/>
       <c r="N767" s="42" t="n"/>
     </row>
     <row r="768" ht="38.45" customHeight="1">
@@ -45249,11 +43258,7 @@
         </is>
       </c>
       <c r="F768" s="29" t="inlineStr"/>
-      <c r="G768" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G768" s="4" t="inlineStr"/>
       <c r="H768" s="2" t="n"/>
       <c r="I768" s="2" t="n"/>
       <c r="J768" s="2" t="n"/>
@@ -45263,11 +43268,7 @@
         </is>
       </c>
       <c r="L768" s="2" t="n"/>
-      <c r="M768" s="42" t="inlineStr">
-        <is>
-          <t>Admin91_QuanTriThongBaoLaiXeV2_MoiThang.png</t>
-        </is>
-      </c>
+      <c r="M768" s="42" t="inlineStr"/>
       <c r="N768" s="42" t="n"/>
     </row>
     <row r="769" ht="38.45" customHeight="1">
@@ -45296,11 +43297,7 @@
         </is>
       </c>
       <c r="F769" s="29" t="inlineStr"/>
-      <c r="G769" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G769" s="4" t="inlineStr"/>
       <c r="H769" s="2" t="n"/>
       <c r="I769" s="2" t="n"/>
       <c r="J769" s="2" t="n"/>
@@ -45310,11 +43307,7 @@
         </is>
       </c>
       <c r="L769" s="2" t="n"/>
-      <c r="M769" s="42" t="inlineStr">
-        <is>
-          <t>Admin92_QuanTriThongBaoLaiXeV2_Chung.png</t>
-        </is>
-      </c>
+      <c r="M769" s="42" t="inlineStr"/>
       <c r="N769" s="42" t="n"/>
     </row>
     <row r="770" ht="38.45" customHeight="1">
@@ -45342,16 +43335,8 @@
           <t>Trường "Nhóm thông báo" hiện thị: Cá nhân</t>
         </is>
       </c>
-      <c r="F770" s="29" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G770" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F770" s="29" t="inlineStr"/>
+      <c r="G770" s="4" t="inlineStr"/>
       <c r="H770" s="2" t="n"/>
       <c r="I770" s="2" t="n"/>
       <c r="J770" s="2" t="n"/>
@@ -45433,11 +43418,7 @@
         </is>
       </c>
       <c r="F772" s="29" t="inlineStr"/>
-      <c r="G772" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G772" s="4" t="inlineStr"/>
       <c r="H772" s="2" t="n"/>
       <c r="I772" s="2" t="n"/>
       <c r="J772" s="2" t="n"/>
@@ -45447,11 +43428,7 @@
         </is>
       </c>
       <c r="L772" s="2" t="n"/>
-      <c r="M772" s="42" t="inlineStr">
-        <is>
-          <t>Admin94_QuanTriThongBaoLaiXeV2_QuanTrong.png</t>
-        </is>
-      </c>
+      <c r="M772" s="42" t="inlineStr"/>
       <c r="N772" s="42" t="n"/>
     </row>
     <row r="773" ht="38.45" customHeight="1">
@@ -45643,16 +43620,8 @@
 (Thông báo tạo ở mục ghi chú)</t>
         </is>
       </c>
-      <c r="F777" s="29" t="inlineStr">
-        <is>
-          <t>Thêm mới thành công!</t>
-        </is>
-      </c>
-      <c r="G777" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F777" s="29" t="inlineStr"/>
+      <c r="G777" s="4" t="inlineStr"/>
       <c r="H777" s="2" t="n"/>
       <c r="I777" s="2" t="n"/>
       <c r="J777" s="2" t="n"/>
@@ -45665,7 +43634,7 @@
       <c r="M777" s="42" t="inlineStr"/>
       <c r="N777" s="42" t="inlineStr">
         <is>
-          <t>Auto_ThongBaoV2_2335</t>
+          <t>Auto_ThongBaoV2_2375</t>
         </is>
       </c>
     </row>
@@ -45692,16 +43661,8 @@
           <t>Chuyển tới trang: "Chi tiết thông báo"</t>
         </is>
       </c>
-      <c r="F778" s="29" t="inlineStr">
-        <is>
-          <t>Chi tiết thông báo</t>
-        </is>
-      </c>
-      <c r="G778" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F778" s="29" t="inlineStr"/>
+      <c r="G778" s="4" t="inlineStr"/>
       <c r="H778" s="2" t="n"/>
       <c r="I778" s="2" t="n"/>
       <c r="J778" s="2" t="n"/>
@@ -45737,16 +43698,8 @@
           <t>Chuyển tới trang: "Chi tiết thông báo", hiển thị tiêu đề: "Auto_ThongBaoV2_xxx"</t>
         </is>
       </c>
-      <c r="F779" s="29" t="inlineStr">
-        <is>
-          <t>Auto_ThongBaoV2_2335</t>
-        </is>
-      </c>
-      <c r="G779" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F779" s="29" t="inlineStr"/>
+      <c r="G779" s="4" t="inlineStr"/>
       <c r="H779" s="2" t="n"/>
       <c r="I779" s="2" t="n"/>
       <c r="J779" s="2" t="n"/>
@@ -45782,16 +43735,8 @@
           <t>Chuyển tới trang: "NHÂN BẢN THÔNG BÁO"</t>
         </is>
       </c>
-      <c r="F780" s="29" t="inlineStr">
-        <is>
-          <t>NHÂN BẢN THÔNG BÁO</t>
-        </is>
-      </c>
-      <c r="G780" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F780" s="29" t="inlineStr"/>
+      <c r="G780" s="4" t="inlineStr"/>
       <c r="H780" s="2" t="n"/>
       <c r="I780" s="2" t="n"/>
       <c r="J780" s="2" t="n"/>
@@ -45901,16 +43846,8 @@
           <t>Hiển thị message: "Xóa thông báo thành công"</t>
         </is>
       </c>
-      <c r="F783" s="29" t="inlineStr">
-        <is>
-          <t>Xóa thông báo thành công</t>
-        </is>
-      </c>
-      <c r="G783" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F783" s="29" t="inlineStr"/>
+      <c r="G783" s="4" t="inlineStr"/>
       <c r="H783" s="2" t="n"/>
       <c r="I783" s="2" t="n"/>
       <c r="J783" s="2" t="n"/>
@@ -46057,16 +43994,8 @@
           <t>Trường "Loại hàng hóa" hiện thị đúng "Hàng hóa" đã nhập</t>
         </is>
       </c>
-      <c r="F788" s="29" t="inlineStr">
-        <is>
-          <t>Hàng cồng kềnh</t>
-        </is>
-      </c>
-      <c r="G788" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F788" s="29" t="inlineStr"/>
+      <c r="G788" s="4" t="inlineStr"/>
       <c r="H788" s="2" t="n"/>
       <c r="I788" s="2" t="n"/>
       <c r="J788" s="2" t="n"/>
@@ -46105,11 +44034,7 @@
         </is>
       </c>
       <c r="F789" s="29" t="inlineStr"/>
-      <c r="G789" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G789" s="4" t="inlineStr"/>
       <c r="H789" s="2" t="n"/>
       <c r="I789" s="2" t="n"/>
       <c r="J789" s="2" t="n"/>
@@ -46199,16 +44124,8 @@
           <t>Hiển thị message: "Lưu loại hàng hóa thành công"</t>
         </is>
       </c>
-      <c r="F791" s="29" t="inlineStr">
-        <is>
-          <t>Lưu loại hàng hóa thành công</t>
-        </is>
-      </c>
-      <c r="G791" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F791" s="29" t="inlineStr"/>
+      <c r="G791" s="4" t="inlineStr"/>
       <c r="H791" s="2" t="n"/>
       <c r="I791" s="2" t="n"/>
       <c r="J791" s="2" t="n"/>
@@ -46333,8 +44250,16 @@
           <t>Chuyển đến trang: "10.10.3 Phụ phí theo thời gian"</t>
         </is>
       </c>
-      <c r="F795" s="29" t="inlineStr"/>
-      <c r="G795" s="4" t="inlineStr"/>
+      <c r="F795" s="29" t="inlineStr">
+        <is>
+          <t>10.10.3 Tăng giá theo thời gian</t>
+        </is>
+      </c>
+      <c r="G795" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="H795" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -46348,7 +44273,11 @@
         </is>
       </c>
       <c r="L795" s="2" t="n"/>
-      <c r="M795" s="42" t="inlineStr"/>
+      <c r="M795" s="42" t="inlineStr">
+        <is>
+          <t>Admin112_PhuPhiTheoThoiGian.png</t>
+        </is>
+      </c>
       <c r="N795" s="42" t="n"/>
     </row>
     <row r="796" ht="59.25" customHeight="1">
@@ -46630,16 +44559,8 @@
           <t>Trường "Giá tiền nhỏ nhất" hiện thị đúng "Giá tiền" đã nhập</t>
         </is>
       </c>
-      <c r="F803" s="29" t="inlineStr">
-        <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="G803" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F803" s="29" t="inlineStr"/>
+      <c r="G803" s="4" t="inlineStr"/>
       <c r="H803" s="2" t="n"/>
       <c r="I803" s="2" t="n"/>
       <c r="J803" s="2" t="n"/>
@@ -46677,16 +44598,8 @@
           <t>Trường "Loại phụ phí" hiện thị: Cố định</t>
         </is>
       </c>
-      <c r="F804" s="29" t="inlineStr">
-        <is>
-          <t>Cố định</t>
-        </is>
-      </c>
-      <c r="G804" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F804" s="29" t="inlineStr"/>
+      <c r="G804" s="4" t="inlineStr"/>
       <c r="H804" s="2" t="n"/>
       <c r="I804" s="2" t="n"/>
       <c r="J804" s="2" t="n"/>
@@ -46724,16 +44637,8 @@
           <t>Trường "Loại phụ phí" hiện thị: Phần trăm</t>
         </is>
       </c>
-      <c r="F805" s="29" t="inlineStr">
-        <is>
-          <t>Phần trăm</t>
-        </is>
-      </c>
-      <c r="G805" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F805" s="29" t="inlineStr"/>
+      <c r="G805" s="4" t="inlineStr"/>
       <c r="H805" s="2" t="n"/>
       <c r="I805" s="2" t="n"/>
       <c r="J805" s="2" t="n"/>
@@ -46771,18 +44676,8 @@
 (Xem file log)</t>
         </is>
       </c>
-      <c r="F806" s="29" t="inlineStr">
-        <is>
-          <t>Tên cột web: Giá tiền lớn nhất
-Tên cột excel: Giá tiền lớn nhất(kg) 
-Dòng: C5</t>
-        </is>
-      </c>
-      <c r="G806" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F806" s="29" t="inlineStr"/>
+      <c r="G806" s="4" t="inlineStr"/>
       <c r="H806" s="2" t="n"/>
       <c r="I806" s="2" t="n"/>
       <c r="J806" s="2" t="n"/>
@@ -46874,16 +44769,8 @@
           <t>Hiển thị message: "Lưu phụ phí thành công"</t>
         </is>
       </c>
-      <c r="F808" s="29" t="inlineStr">
-        <is>
-          <t>Lưu phụ phí thành công</t>
-        </is>
-      </c>
-      <c r="G808" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F808" s="29" t="inlineStr"/>
+      <c r="G808" s="4" t="inlineStr"/>
       <c r="H808" s="2" t="n"/>
       <c r="I808" s="2" t="n"/>
       <c r="J808" s="2" t="n"/>
@@ -47007,8 +44894,16 @@
           <t>Chuyển đến trang: "10.10.5 Phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F812" s="29" t="inlineStr"/>
-      <c r="G812" s="4" t="inlineStr"/>
+      <c r="F812" s="29" t="inlineStr">
+        <is>
+          <t>10.10.5 Tăng giá theo thời tiết</t>
+        </is>
+      </c>
+      <c r="G812" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H812" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -47096,8 +44991,16 @@
           <t>Hiển thị message: "Lưu phụ phí theo thời tiết"</t>
         </is>
       </c>
-      <c r="F814" s="29" t="inlineStr"/>
-      <c r="G814" s="4" t="inlineStr"/>
+      <c r="F814" s="29" t="inlineStr">
+        <is>
+          <t>Lưu phụ phí theo thời tiết</t>
+        </is>
+      </c>
+      <c r="G814" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H814" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -47175,8 +45078,16 @@
           <t>Hiển thị message: "Xóa phụ phí theo thời tiết thành công"</t>
         </is>
       </c>
-      <c r="F816" s="29" t="inlineStr"/>
-      <c r="G816" s="4" t="inlineStr"/>
+      <c r="F816" s="29" t="inlineStr">
+        <is>
+          <t>Xóa phụ phí theo thời tiết thành công</t>
+        </is>
+      </c>
+      <c r="G816" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="H816" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -47276,16 +45187,8 @@
           <t>Chuyển đến trang: "12.1.1 Báo cáo cuốc khách đối tác"</t>
         </is>
       </c>
-      <c r="F820" s="29" t="inlineStr">
-        <is>
-          <t>12.1.1 Báo cáo cuốc khách đối tác</t>
-        </is>
-      </c>
-      <c r="G820" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F820" s="29" t="inlineStr"/>
+      <c r="G820" s="4" t="inlineStr"/>
       <c r="H820" s="2" t="n"/>
       <c r="I820" s="2" t="n"/>
       <c r="J820" s="2" t="n"/>
@@ -47331,16 +45234,8 @@
 (Hiển thị )</t>
         </is>
       </c>
-      <c r="F821" s="29" t="inlineStr">
-        <is>
-          <t>ed605428-06ea-4392-afa5-e8853f306225</t>
-        </is>
-      </c>
-      <c r="G821" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F821" s="29" t="inlineStr"/>
+      <c r="G821" s="4" t="inlineStr"/>
       <c r="H821" s="2" t="n"/>
       <c r="I821" s="2" t="n"/>
       <c r="J821" s="2" t="n"/>
@@ -47378,18 +45273,8 @@
 (Xem file log, chỉ check 16 cột đầu)</t>
         </is>
       </c>
-      <c r="F822" s="29" t="inlineStr">
-        <is>
-          <t>Tên cột web: Thu của khách
-Tên cột excel: None 
-Dòng: None</t>
-        </is>
-      </c>
-      <c r="G822" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="F822" s="29" t="inlineStr"/>
+      <c r="G822" s="4" t="inlineStr"/>
       <c r="H822" s="2" t="n"/>
       <c r="I822" s="2" t="n"/>
       <c r="J822" s="2" t="n"/>
@@ -47464,16 +45349,8 @@
           <t>Chuyển đến trang: "12.1.2 Tổng hợp cuốc khách đối tác"</t>
         </is>
       </c>
-      <c r="F825" s="29" t="inlineStr">
-        <is>
-          <t>12.1.2 Tổng hợp cuốc khách đối tác</t>
-        </is>
-      </c>
-      <c r="G825" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F825" s="29" t="inlineStr"/>
+      <c r="G825" s="4" t="inlineStr"/>
       <c r="H825" s="2" t="n"/>
       <c r="I825" s="2" t="n"/>
       <c r="J825" s="2" t="n"/>
@@ -47520,11 +45397,7 @@
         </is>
       </c>
       <c r="F826" s="29" t="inlineStr"/>
-      <c r="G826" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="G826" s="4" t="inlineStr"/>
       <c r="H826" s="2" t="n"/>
       <c r="I826" s="2" t="n"/>
       <c r="J826" s="2" t="n"/>
@@ -47534,11 +45407,7 @@
         </is>
       </c>
       <c r="L826" s="2" t="n"/>
-      <c r="M826" s="42" t="inlineStr">
-        <is>
-          <t>PartnerTrip05_TongHopCuocKhachDoiTac_TimKiem.png</t>
-        </is>
-      </c>
+      <c r="M826" s="42" t="inlineStr"/>
       <c r="N826" s="42" t="n"/>
     </row>
     <row r="827" ht="56.25" customHeight="1">
@@ -47716,16 +45585,8 @@
           <t>Từ Ngày Đến ngày trùng với dữ liệu nhập</t>
         </is>
       </c>
-      <c r="F832" s="29" t="inlineStr">
-        <is>
-          <t>14:28 12/06/2025</t>
-        </is>
-      </c>
-      <c r="G832" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F832" s="29" t="inlineStr"/>
+      <c r="G832" s="4" t="inlineStr"/>
       <c r="H832" s="6" t="n"/>
       <c r="I832" s="2" t="n"/>
       <c r="J832" s="2" t="n"/>
@@ -47764,16 +45625,8 @@
           <t>Trường "Nguồn cuốc" hiện thị đúng Nguồn cuốc đã chọn</t>
         </is>
       </c>
-      <c r="F833" s="29" t="inlineStr">
-        <is>
-          <t>Nguồn điều hành</t>
-        </is>
-      </c>
-      <c r="G833" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F833" s="29" t="inlineStr"/>
+      <c r="G833" s="4" t="inlineStr"/>
       <c r="H833" s="2" t="n"/>
       <c r="I833" s="2" t="n"/>
       <c r="J833" s="2" t="n"/>
@@ -47814,7 +45667,7 @@
       </c>
       <c r="F834" s="29" t="inlineStr">
         <is>
-          <t>00AEBC2A</t>
+          <t>00072F03</t>
         </is>
       </c>
       <c r="G834" s="4" t="inlineStr">
@@ -47860,11 +45713,7 @@
           <t>Trường "Số điện thoại khách hàng" hiện thị đúng Số điện thoại đã nhập</t>
         </is>
       </c>
-      <c r="F835" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F835" s="29" t="inlineStr"/>
       <c r="G835" s="4" t="inlineStr"/>
       <c r="H835" s="2" t="n"/>
       <c r="I835" s="2" t="n"/>
@@ -47908,16 +45757,8 @@
           <t>Trường "Địa chỉ đón" hiện thị đúng Địa chỉ đón đã nhập</t>
         </is>
       </c>
-      <c r="F836" s="29" t="inlineStr">
-        <is>
-          <t>Khu Lô 14 KĐT Đại Kim P. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
-        </is>
-      </c>
-      <c r="G836" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F836" s="29" t="inlineStr"/>
+      <c r="G836" s="4" t="inlineStr"/>
       <c r="H836" s="2" t="n"/>
       <c r="I836" s="2" t="n"/>
       <c r="J836" s="2" t="n"/>
@@ -47956,11 +45797,7 @@
           <t>Trường "Số hóa đơn" hiện thị đúng Số hóa đơn đã nhập</t>
         </is>
       </c>
-      <c r="F837" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F837" s="29" t="inlineStr"/>
       <c r="G837" s="4" t="inlineStr"/>
       <c r="H837" s="2" t="n"/>
       <c r="I837" s="2" t="n"/>
@@ -48000,16 +45837,8 @@
           <t>Trường "Trạng thái hoá đơn điện tử" hiện thị: "Chưa xử lý"</t>
         </is>
       </c>
-      <c r="F838" s="29" t="inlineStr">
-        <is>
-          <t>Chưa xử lý</t>
-        </is>
-      </c>
-      <c r="G838" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F838" s="29" t="inlineStr"/>
+      <c r="G838" s="4" t="inlineStr"/>
       <c r="H838" s="2" t="n"/>
       <c r="I838" s="2" t="n"/>
       <c r="J838" s="2" t="n"/>
@@ -48048,11 +45877,7 @@
           <t>Trường "Trạng thái hoá đơn điện tử" hiện thị: "Chờ NCC xử lý"</t>
         </is>
       </c>
-      <c r="F839" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F839" s="29" t="inlineStr"/>
       <c r="G839" s="4" t="inlineStr"/>
       <c r="H839" s="2" t="n"/>
       <c r="I839" s="2" t="n"/>
@@ -48063,11 +45888,7 @@
         </is>
       </c>
       <c r="L839" s="2" t="n"/>
-      <c r="M839" s="42" t="inlineStr">
-        <is>
-          <t>Accounting09_QuanLyXuatHoaDon_ChoNCCXuLy.png</t>
-        </is>
-      </c>
+      <c r="M839" s="42" t="inlineStr"/>
       <c r="N839" s="42" t="n"/>
     </row>
     <row r="840" ht="39.75" customHeight="1">
@@ -48096,11 +45917,7 @@
           <t>Trường "Trạng thái hoá đơn điện tử" hiện thị: "Đang xử lý"</t>
         </is>
       </c>
-      <c r="F840" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F840" s="29" t="inlineStr"/>
       <c r="G840" s="4" t="inlineStr"/>
       <c r="H840" s="2" t="n"/>
       <c r="I840" s="2" t="n"/>
@@ -48111,11 +45928,7 @@
         </is>
       </c>
       <c r="L840" s="2" t="n"/>
-      <c r="M840" s="42" t="inlineStr">
-        <is>
-          <t>Accounting10_QuanLyXuatHoaDon_DangXuLy.png</t>
-        </is>
-      </c>
+      <c r="M840" s="42" t="inlineStr"/>
       <c r="N840" s="42" t="n"/>
     </row>
     <row r="841" ht="39.75" customHeight="1">
@@ -48144,11 +45957,7 @@
           <t>Trường "Trạng thái hoá đơn điện tử" hiện thị: "Đã xuất"</t>
         </is>
       </c>
-      <c r="F841" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F841" s="29" t="inlineStr"/>
       <c r="G841" s="4" t="inlineStr"/>
       <c r="H841" s="2" t="n"/>
       <c r="I841" s="2" t="n"/>
@@ -48159,11 +45968,7 @@
         </is>
       </c>
       <c r="L841" s="2" t="n"/>
-      <c r="M841" s="42" t="inlineStr">
-        <is>
-          <t>Accounting11_QuanLyXuatHoaDon_DaXuat.png</t>
-        </is>
-      </c>
+      <c r="M841" s="42" t="inlineStr"/>
       <c r="N841" s="42" t="n"/>
     </row>
     <row r="842" ht="39.75" customHeight="1">
@@ -48192,11 +45997,7 @@
           <t>Trường "Trạng thái hoá đơn điện tử" hiện thị: "Xuất lỗi"</t>
         </is>
       </c>
-      <c r="F842" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F842" s="29" t="inlineStr"/>
       <c r="G842" s="4" t="inlineStr"/>
       <c r="H842" s="2" t="n"/>
       <c r="I842" s="2" t="n"/>
@@ -48207,11 +46008,7 @@
         </is>
       </c>
       <c r="L842" s="2" t="n"/>
-      <c r="M842" s="42" t="inlineStr">
-        <is>
-          <t>Accounting12_QuanLyXuatHoaDon_XuatLoi.png</t>
-        </is>
-      </c>
+      <c r="M842" s="42" t="inlineStr"/>
       <c r="N842" s="42" t="n"/>
     </row>
     <row r="843" ht="39.75" customHeight="1">
@@ -48240,11 +46037,7 @@
           <t>Trường "Trạng thái hoá đơn điện tử" hiện thị: "Gửi lỗi NCC"</t>
         </is>
       </c>
-      <c r="F843" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F843" s="29" t="inlineStr"/>
       <c r="G843" s="4" t="inlineStr"/>
       <c r="H843" s="2" t="n"/>
       <c r="I843" s="2" t="n"/>
@@ -48255,11 +46048,7 @@
         </is>
       </c>
       <c r="L843" s="2" t="n"/>
-      <c r="M843" s="42" t="inlineStr">
-        <is>
-          <t>Accounting13_QuanLyXuatHoaDon_GuiLoiNCC.png</t>
-        </is>
-      </c>
+      <c r="M843" s="42" t="inlineStr"/>
       <c r="N843" s="42" t="n"/>
     </row>
     <row r="844" ht="39.75" customHeight="1">
@@ -48288,11 +46077,7 @@
           <t>Trường "Trạng thái hoá đơn điện tử" hiện thị: "Không xuất"</t>
         </is>
       </c>
-      <c r="F844" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F844" s="29" t="inlineStr"/>
       <c r="G844" s="4" t="inlineStr"/>
       <c r="H844" s="2" t="n"/>
       <c r="I844" s="2" t="n"/>
@@ -48303,11 +46088,7 @@
         </is>
       </c>
       <c r="L844" s="2" t="n"/>
-      <c r="M844" s="42" t="inlineStr">
-        <is>
-          <t>Accounting14_QuanLyXuatHoaDon_KhongXuat.png</t>
-        </is>
-      </c>
+      <c r="M844" s="42" t="inlineStr"/>
       <c r="N844" s="42" t="n"/>
     </row>
     <row r="845" ht="39.75" customHeight="1">
@@ -48336,16 +46117,8 @@
           <t>Trường "Loại hóa đơn" hiện thị: "Khách lẻ"</t>
         </is>
       </c>
-      <c r="F845" s="29" t="inlineStr">
-        <is>
-          <t>Khách lẻ</t>
-        </is>
-      </c>
-      <c r="G845" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F845" s="29" t="inlineStr"/>
+      <c r="G845" s="4" t="inlineStr"/>
       <c r="H845" s="2" t="n"/>
       <c r="I845" s="2" t="n"/>
       <c r="J845" s="2" t="n"/>
@@ -48384,11 +46157,7 @@
           <t>Trường "Loại hóa đơn" hiện thị: "Theo yêu cầu"</t>
         </is>
       </c>
-      <c r="F846" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F846" s="29" t="inlineStr"/>
       <c r="G846" s="4" t="inlineStr"/>
       <c r="H846" s="2" t="n"/>
       <c r="I846" s="2" t="n"/>
@@ -48399,11 +46168,7 @@
         </is>
       </c>
       <c r="L846" s="2" t="n"/>
-      <c r="M846" s="42" t="inlineStr">
-        <is>
-          <t>Accounting16_QuanLyXuatHoaDon_KhackLe.png</t>
-        </is>
-      </c>
+      <c r="M846" s="42" t="inlineStr"/>
       <c r="N846" s="42" t="n"/>
     </row>
     <row r="847" ht="39.75" customHeight="1">
@@ -48432,11 +46197,7 @@
           <t>Trường "Loại hóa đơn" hiện thị: "Cuốc test/lỗi"</t>
         </is>
       </c>
-      <c r="F847" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F847" s="29" t="inlineStr"/>
       <c r="G847" s="4" t="inlineStr"/>
       <c r="H847" s="2" t="n"/>
       <c r="I847" s="2" t="n"/>
@@ -48447,11 +46208,7 @@
         </is>
       </c>
       <c r="L847" s="2" t="n"/>
-      <c r="M847" s="42" t="inlineStr">
-        <is>
-          <t>Accounting17_QuanLyXuatHoaDon_KhackLe.png</t>
-        </is>
-      </c>
+      <c r="M847" s="42" t="inlineStr"/>
       <c r="N847" s="42" t="n"/>
     </row>
     <row r="848" ht="93.75" customHeight="1">
@@ -48480,11 +46237,7 @@
           <t>Trường "Đơn vị quản lý" hiện thị: "LTH - Fast"</t>
         </is>
       </c>
-      <c r="F848" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F848" s="29" t="inlineStr"/>
       <c r="G848" s="4" t="inlineStr"/>
       <c r="H848" s="2" t="n"/>
       <c r="I848" s="2" t="n"/>
@@ -48538,16 +46291,8 @@
           <t>Mở popup: "Bộ lọc nâng cao", và hiển thị đủ các trường</t>
         </is>
       </c>
-      <c r="F849" s="29" t="inlineStr">
-        <is>
-          <t>Bộ lọc nâng cao</t>
-        </is>
-      </c>
-      <c r="G849" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F849" s="29" t="inlineStr"/>
+      <c r="G849" s="4" t="inlineStr"/>
       <c r="H849" s="2" t="n"/>
       <c r="I849" s="2" t="n"/>
       <c r="J849" s="2" t="n"/>
@@ -48585,11 +46330,7 @@
         </is>
       </c>
       <c r="F850" s="29" t="inlineStr"/>
-      <c r="G850" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G850" s="4" t="inlineStr"/>
       <c r="H850" s="2" t="n"/>
       <c r="I850" s="2" t="n"/>
       <c r="J850" s="2" t="n"/>
@@ -48626,16 +46367,8 @@
 (Chỉ check tải, không check dữ liệu)</t>
         </is>
       </c>
-      <c r="F851" s="29" t="inlineStr">
-        <is>
-          <t>_QuanLyXuatHoaDon_Excel.xlsx</t>
-        </is>
-      </c>
-      <c r="G851" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F851" s="29" t="inlineStr"/>
+      <c r="G851" s="4" t="inlineStr"/>
       <c r="H851" s="2" t="n"/>
       <c r="I851" s="2" t="n"/>
       <c r="J851" s="2" t="n"/>
@@ -49007,11 +46740,7 @@
           <t>Mở popup: "Thông tin xuất hóa đơn" không cho nhập</t>
         </is>
       </c>
-      <c r="F859" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F859" s="29" t="inlineStr"/>
       <c r="G859" s="4" t="inlineStr"/>
       <c r="H859" s="2" t="n"/>
       <c r="I859" s="2" t="n"/>
@@ -49048,16 +46777,8 @@
           <t>Mở popup: "Thông tin xuất hóa đơn" và cho nhập</t>
         </is>
       </c>
-      <c r="F860" s="29" t="inlineStr">
-        <is>
-          <t>Thông tin xuất hóa đơn</t>
-        </is>
-      </c>
-      <c r="G860" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F860" s="29" t="inlineStr"/>
+      <c r="G860" s="4" t="inlineStr"/>
       <c r="H860" s="2" t="n"/>
       <c r="I860" s="2" t="n"/>
       <c r="J860" s="2" t="n"/>
@@ -49095,11 +46816,7 @@
 2.Mở popup: "Thông tin xuất hóa đơn"</t>
         </is>
       </c>
-      <c r="F861" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F861" s="29" t="inlineStr"/>
       <c r="G861" s="4" t="inlineStr"/>
       <c r="H861" s="2" t="n"/>
       <c r="I861" s="2" t="n"/>
@@ -49136,11 +46853,7 @@
           <t>Mở trang mới hiển thị Hóa đơn điện tử</t>
         </is>
       </c>
-      <c r="F862" s="29" t="inlineStr">
-        <is>
-          <t>Không có dữ liệu</t>
-        </is>
-      </c>
+      <c r="F862" s="29" t="inlineStr"/>
       <c r="G862" s="4" t="inlineStr"/>
       <c r="H862" s="2" t="n"/>
       <c r="I862" s="2" t="n"/>
@@ -49151,11 +46864,7 @@
         </is>
       </c>
       <c r="L862" s="2" t="n"/>
-      <c r="M862" s="42" t="inlineStr">
-        <is>
-          <t>Accounting32_QuanLyXuatHoaDon_XemHD.png</t>
-        </is>
-      </c>
+      <c r="M862" s="42" t="inlineStr"/>
       <c r="N862" s="42" t="n"/>
     </row>
     <row r="863" ht="37.5" customHeight="1">
@@ -49181,16 +46890,8 @@
           <t>Chuyển tới trang "Biên lai taxi", hiển thị trường: "CẢM ƠN QUÝ KHÁCH ĐÃ SỬ DỤNG DỊCH VỤ!"</t>
         </is>
       </c>
-      <c r="F863" s="29" t="inlineStr">
-        <is>
-          <t>CẢM ƠN QUÝ KHÁCH ĐÃ SỬ DỤNG DỊCH VỤ!</t>
-        </is>
-      </c>
-      <c r="G863" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F863" s="29" t="inlineStr"/>
+      <c r="G863" s="4" t="inlineStr"/>
       <c r="H863" s="2" t="n"/>
       <c r="I863" s="2" t="n"/>
       <c r="J863" s="2" t="n"/>
@@ -49227,11 +46928,7 @@
         </is>
       </c>
       <c r="F864" s="29" t="inlineStr"/>
-      <c r="G864" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G864" s="4" t="inlineStr"/>
       <c r="H864" s="2" t="n"/>
       <c r="I864" s="2" t="n"/>
       <c r="J864" s="2" t="n"/>
@@ -49267,16 +46964,8 @@
           <t>Chuyển tới trang: "8.1.0 Báo cáo cuốc khách tổng"</t>
         </is>
       </c>
-      <c r="F865" s="29" t="inlineStr">
-        <is>
-          <t>8.1.0 Báo cáo cuốc khách tổng</t>
-        </is>
-      </c>
-      <c r="G865" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F865" s="29" t="inlineStr"/>
+      <c r="G865" s="4" t="inlineStr"/>
       <c r="H865" s="2" t="n"/>
       <c r="I865" s="2" t="n"/>
       <c r="J865" s="2" t="n"/>
@@ -49312,16 +47001,8 @@
           <t>Chuyển tới trang: "https://gps.g7taxi.vn/Auth/Auth", hiển thị trường "HOTLINE MUA HÀNG"</t>
         </is>
       </c>
-      <c r="F866" s="29" t="inlineStr">
-        <is>
-          <t>HOTLINE MUA HÀNG</t>
-        </is>
-      </c>
-      <c r="G866" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="F866" s="29" t="inlineStr"/>
+      <c r="G866" s="4" t="inlineStr"/>
       <c r="H866" s="2" t="n"/>
       <c r="I866" s="2" t="n"/>
       <c r="J866" s="2" t="n"/>
@@ -49358,11 +47039,7 @@
         </is>
       </c>
       <c r="F867" s="29" t="inlineStr"/>
-      <c r="G867" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G867" s="4" t="inlineStr"/>
       <c r="H867" s="2" t="n"/>
       <c r="I867" s="2" t="n"/>
       <c r="J867" s="2" t="n"/>

--- a/TAXI_ChecklistForAutoTestSTAXI.xlsx
+++ b/TAXI_ChecklistForAutoTestSTAXI.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="2673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4153" uniqueCount="2673">
   <si>
     <t>WEB STAXI - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -320,7 +320,7 @@
     <t>Trường "Biển số" hiển thị dữ liệu hàng đầu tiên: "Biển số vừa nhập"</t>
   </si>
   <si>
-    <t>BATHAOHN</t>
+    <t>BATHAO7</t>
   </si>
   <si>
     <t>Minitor03</t>
@@ -356,7 +356,7 @@
     <t>Trường "Đang lái" hiển thị dữ liệu hàng đầu tiên: "0945912674"</t>
   </si>
   <si>
-    <t>bathaohn</t>
+    <t>bathao7</t>
   </si>
   <si>
     <t>Minitor05</t>
@@ -649,9 +649,6 @@
   </si>
   <si>
     <t>Success to connect server</t>
-  </si>
-  <si>
-    <t>Minitor24_GiamSatXe_CauHinhIconLoaiXe.png</t>
   </si>
   <si>
     <t>Minitor25</t>
@@ -727,7 +724,7 @@
     <t>Ảnh xe tìm kiếm: "/Content/themes/img/BlueCar.png"</t>
   </si>
   <si>
-    <t>https://app.staxi.vn/Content/themes/img/BlueCar.png</t>
+    <t>Minitor28_GiamSatXe_TrangThaiSanSang_.png</t>
   </si>
   <si>
     <t>Minitor29</t>
@@ -784,7 +781,7 @@
     <t>Trống xe</t>
   </si>
   <si>
-    <t>0/68</t>
+    <t>0/64</t>
   </si>
   <si>
     <t>Minitor32</t>
@@ -803,7 +800,7 @@
     <t>Ảnh xe tìm kiếm: "/Content/themes/img/WarGreenCar.png"</t>
   </si>
   <si>
-    <t>https://app.staxi.vn/Content/themes/img/WarGreenCar.png</t>
+    <t>Minitor32_GiamSatXe_TrangThaiMTD_.png</t>
   </si>
   <si>
     <t>Minitor33</t>
@@ -831,7 +828,7 @@
     <t>Tất cả xe</t>
   </si>
   <si>
-    <t>68/68</t>
+    <t>64/64</t>
   </si>
   <si>
     <t>Minitor35</t>
@@ -923,7 +920,7 @@
     <t>Vĩ độ</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 20.8821</t>
+    <t>Popup Hiện trạng: 20.97532</t>
   </si>
   <si>
     <t>Minitor41</t>
@@ -932,7 +929,7 @@
     <t>Kinh độ</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 106.5921</t>
+    <t>Popup Hiện trạng: 106.5986</t>
   </si>
   <si>
     <t>Minitor42</t>
@@ -941,7 +938,7 @@
     <t>Vị trí</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: Quốc Lộ 10, P. An Dương, TP. Hải Phòng</t>
+    <t>Popup Hiện trạng: Việt Khê, X. Việt Khê, TP. Hải Phòng</t>
   </si>
   <si>
     <t>Case này có sự sai lệch thời gian khoảng 10s</t>
@@ -953,8 +950,8 @@
     <t>Thời gian</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 19:12:04
-Danh sách giám sát: 19:12:04</t>
+    <t>Popup Hiện trạng: 19:10:43
+Danh sách giám sát: 19:10:43</t>
   </si>
   <si>
     <t>Minitor44</t>
@@ -1001,7 +998,7 @@
     <t>Doanh thu</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 318000</t>
+    <t>Popup Hiện trạng: 0</t>
   </si>
   <si>
     <t>Minitor49</t>
@@ -1070,8 +1067,8 @@
     <t>Hiển thị các trường: Thời gian, Trạng thái, Nguồn</t>
   </si>
   <si>
-    <t>Thời gian: 20:32:40
-Trạng thái: Nghỉ KD
+    <t>Thời gian: 20:00:13
+Trạng thái: Không sẵn sàng
 Nguồn: AppLx</t>
   </si>
   <si>
@@ -1147,8 +1144,8 @@
 2. Hiển thị: Biển số xe, thời gian</t>
   </si>
   <si>
-    <t>Biển số xe: Biển số xe: 18H03460
-Thời gian: Từ ngày: 10/02/2026 20:00 Đến ngày: 11/2/2026 19:12</t>
+    <t>Biển số xe: Biển số xe: 29E00249
+Thời gian: Từ ngày: 22/02/2026 20:00 Đến ngày: 23/2/2026 19:12</t>
   </si>
   <si>
     <t>Minitor61</t>
@@ -1311,13 +1308,16 @@
     <t>Popup Hiện trạng: 30E03710</t>
   </si>
   <si>
+    <t>Minitor69_GiamSatXeNhom_HienTrang_BienSo.png</t>
+  </si>
+  <si>
     <t>Minitor70</t>
   </si>
   <si>
     <t>Popup Hiện trạng - Mã Đàm</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: - 03</t>
+    <t>Popup Hiện trạng: - 04</t>
   </si>
   <si>
     <t>Minitor71</t>
@@ -1326,7 +1326,7 @@
     <t>Popup Hiện trạng - Thời gian</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 19:15:22 11/02/26</t>
+    <t>Popup Hiện trạng: 19:15:16 23/02/26</t>
   </si>
   <si>
     <t>Minitor72</t>
@@ -1335,7 +1335,7 @@
     <t>Popup Hiện trạng - Tọa độ(Vĩ độ)</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 20.96011</t>
+    <t>Popup Hiện trạng: 20.97845</t>
   </si>
   <si>
     <t>Minitor73</t>
@@ -1344,7 +1344,7 @@
     <t>Popup Hiện trạng - Tọa độ(Kinh độ)</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 105.8422</t>
+    <t>Popup Hiện trạng: 105.7858</t>
   </si>
   <si>
     <t>Minitor74</t>
@@ -1353,7 +1353,7 @@
     <t>Popup Hiện trạng - Vị trí</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: Ngọc Hồi, P. Hoàng Liệt, TP. Hà Nội</t>
+    <t>Popup Hiện trạng: 27, Trần Phú, P. Hà Đông, TP. Hà Nội</t>
   </si>
   <si>
     <t>Minitor75</t>
@@ -1371,7 +1371,7 @@
     <t>Popup Hiện trạng - Tài xế</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: Đào Văn Sáu</t>
+    <t>Popup Hiện trạng: Lê Minh Tuấn</t>
   </si>
   <si>
     <t>Minitor77</t>
@@ -1380,7 +1380,7 @@
     <t>Popup Hiện trạng - Điện thoại</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 0985619905</t>
+    <t>Popup Hiện trạng: 0947114635</t>
   </si>
   <si>
     <t>Minitor78</t>
@@ -1398,7 +1398,7 @@
     <t>Popup Hiện trạng - Cuốc khách</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 3 (TTĐH: 2; App: 0; Vẫy: 0)</t>
+    <t>Popup Hiện trạng: 0 (TTĐH: 0; App: 0; Vẫy: 0)</t>
   </si>
   <si>
     <t>Minitor80</t>
@@ -1407,7 +1407,7 @@
     <t>Popup Hiện trạng - Phiên bản ứng dụng</t>
   </si>
   <si>
-    <t>Popup Hiện trạng: 612057</t>
+    <t>Popup Hiện trạng: 612058</t>
   </si>
   <si>
     <t>II.XE &amp; LÁI XE</t>
@@ -1706,7 +1706,7 @@
     <t>Thêm mới xe thành công.</t>
   </si>
   <si>
-    <t>2024AUTO2568</t>
+    <t>2024AUTO4001</t>
   </si>
   <si>
     <t>Vehicle20</t>
@@ -2117,7 +2117,7 @@
     <t>Thêm mới thành công</t>
   </si>
   <si>
-    <t>auto2584</t>
+    <t>auto4016</t>
   </si>
   <si>
     <t>Vehicle46</t>
@@ -2197,7 +2197,7 @@
   <si>
     <t>STT: 1
 Lý do khóa: Trường test khóa xe
-Ngày khóa: 11/02/2026 19:31:32</t>
+Ngày khóa: 23/02/2026 19:32:58</t>
   </si>
   <si>
     <t>Vehicle50</t>
@@ -2479,7 +2479,7 @@
   </si>
   <si>
     <t>Tổng số ví:: 1
-Số dư ví tài khoản: 14.162.270 ₫
+Số dư ví tài khoản: 14.060.270 ₫
 Số dư ví tiền mặt: 453.200 ₫</t>
   </si>
   <si>
@@ -2568,8 +2568,8 @@
 Dịch vụ: Nạp tiền vào Ví Tài Khoản
 Số tiền: 1.000.000₫
 Nguồn tiền: Quầy thu tại hãng
-Thời gian: 19:37 - 11/02/2026
-Mã giao dịch: 9902
+Thời gian: 19:39 - 23/02/2026
+Mã giao dịch: 9984
 Nội dung: Trường test nạp tiền</t>
   </si>
   <si>
@@ -2601,8 +2601,8 @@
 Số tiền: 100 VNĐ
 Dịch vụ: Rút tiền Ví Tiền Mặt
 Nguồn : Rút tại quầy
-Thời gian: 19:38 - 11/02/2026
-Mã giao dịch: 9903
+Thời gian: 19:39 - 23/02/2026
+Mã giao dịch: 9985
 Nội dung: Trường test rút tiền</t>
   </si>
   <si>
@@ -3183,7 +3183,7 @@
     <t>Trường "Tên khuyến mại" hiện thị "Tên khuyến mại "giống với dữ liệu đã nhập"</t>
   </si>
   <si>
-    <t>Auto_KM_Chung3147</t>
+    <t>test km</t>
   </si>
   <si>
     <t>Promotion04</t>
@@ -3473,7 +3473,7 @@
     <t>Trường "Tài khoản" hiện thị: "0913233801"</t>
   </si>
   <si>
-    <t>03596672571</t>
+    <t>03596674017</t>
   </si>
   <si>
     <t>Promotion18</t>
@@ -3571,7 +3571,7 @@
     <t>Lưu tài khoản giới thiệu thành công.</t>
   </si>
   <si>
-    <t>2100002573</t>
+    <t>2100004006</t>
   </si>
   <si>
     <t>Promotion23</t>
@@ -3590,7 +3590,7 @@
 -Kích hoạt tài khoản: Bỏ tích chọn(đã bỏ)</t>
   </si>
   <si>
-    <t>2100002574</t>
+    <t>2100004007</t>
   </si>
   <si>
     <t>Promotion24</t>
@@ -4246,7 +4246,7 @@
  "Trần Hà Miên"</t>
   </si>
   <si>
-    <t>Vt</t>
+    <t>H</t>
   </si>
   <si>
     <t>Customer04</t>
@@ -4673,7 +4673,7 @@
     <t>Thêm mới hợp đồng thành công</t>
   </si>
   <si>
-    <t>Auto2576</t>
+    <t>Auto4009</t>
   </si>
   <si>
     <t>Customer29</t>
@@ -4798,7 +4798,7 @@
     <t>Trường " Tên khách hàng" hiện thị: Thái Dương Hoa</t>
   </si>
   <si>
-    <t>Auto_2566</t>
+    <t>Auto_2605</t>
   </si>
   <si>
     <t>Customer37</t>
@@ -5003,7 +5003,7 @@
     <t>Cập nhật thông tin thẻ thành công</t>
   </si>
   <si>
-    <t>Auto_2577</t>
+    <t>Auto_4010</t>
   </si>
   <si>
     <t>Customer50</t>
@@ -5168,7 +5168,7 @@
 </t>
   </si>
   <si>
-    <t>Auto_2585</t>
+    <t>Auto_4019</t>
   </si>
   <si>
     <t>Customer57_2</t>
@@ -6053,41 +6053,26 @@
     <t>Số lượng cuốc mỗi nguồn = Số lương cuốc màn chi tiết</t>
   </si>
   <si>
-    <t xml:space="preserve">None, 14/14
-, None, 8/8
-, None, 2/2
-, None, 4/4
+    <t xml:space="preserve">None, 0/0
 , None, 0/0
 , None, 0/0
 , None, 0/0
-, None, 4/4
-, None, 0/0
-, None, 4/4
-, None, 5/5
-, None, 1/1
-</t>
-  </si>
-  <si>
-    <t>Report07_2</t>
-  </si>
-  <si>
-    <t>Check Số lượng cuốc mỗi nguồn/Số lương cuốc màn chi tiết
-(Ngày hiện tại -2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None, 27/27
-, None, 13/13
-, None, 1/1
-, None, 13/13
 , None, 0/0
 , None, 0/0
 , None, 0/0
-, None, 3/3
-, None, 2/2
-, None, 2/2
-, None, 19/19
-, None, 1/1
+, None, 0/0
+, None, 0/0
+, None, 0/0
+, None, 0/0
+, None, 0/0
 </t>
+  </si>
+  <si>
+    <t>Report07_2</t>
+  </si>
+  <si>
+    <t>Check Số lượng cuốc mỗi nguồn/Số lương cuốc màn chi tiết
+(Ngày hiện tại -2)</t>
   </si>
   <si>
     <t>8.1.4 Tổng cuốc khách theo ngày</t>
@@ -7632,7 +7617,7 @@
     <t>Tài khoản đã tạo thành công</t>
   </si>
   <si>
-    <t>auto2581</t>
+    <t>auto4014</t>
   </si>
   <si>
     <t>Admin25</t>
@@ -8219,7 +8204,7 @@
     <t>Trường "Tiêu đề" hiện thị đúng "Tiêu đề" đã nhập</t>
   </si>
   <si>
-    <t>Cập nhật số dư</t>
+    <t>Cộng ví tiền mặt khi hoàn thành chuyến thanh toán thẻ. Số dư tài khoản: 541000đ</t>
   </si>
   <si>
     <t>Admin63</t>
@@ -8453,7 +8438,7 @@
     <t>Thông báo đã tạo thành công.</t>
   </si>
   <si>
-    <t>Auto_ThongBao_2582</t>
+    <t>Auto_ThongBao_4015</t>
   </si>
   <si>
     <t>Admin78</t>
@@ -8483,7 +8468,7 @@
     <t>Mở tab mới, Hiển thị nội dung của thông báo: "Test tạo thông báo theo lái xe"</t>
   </si>
   <si>
-    <t>Cộng ví tiền mặt khi hoàn thành chuyến thanh toán thẻ. Số dư tài khoản: 11279000đ</t>
+    <t>Cập nhật số dư</t>
   </si>
   <si>
     <t>Admin80</t>
@@ -8560,7 +8545,7 @@
     <t>Trường "Tiêu đề" hiện thị đúng dữ liệu đã nhập</t>
   </si>
   <si>
-    <t>Ví tài khoản: -7.000đ, hoàn thành cuốc</t>
+    <t>Ví tài khoản: -2.000đ, hoàn thành cuốc</t>
   </si>
   <si>
     <t>Admin85</t>
@@ -8980,6 +8965,9 @@
   </si>
   <si>
     <t>21:15</t>
+  </si>
+  <si>
+    <t>Admin114_PhuPhiTheoThoiGian_ThemMoi.png</t>
   </si>
   <si>
     <t>Admin115</t>
@@ -9629,7 +9617,7 @@
 2."Cuốc khách không đủ điều kiện xuất hóa đơn"</t>
   </si>
   <si>
-    <t>Cuốc khách không đủ điều kiện xuất hóa đơn</t>
+    <t>Xác nhận xuất hoá đơn khách lẻ</t>
   </si>
   <si>
     <t>26/05/2025 00:00
@@ -10705,14 +10693,14 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -25211,15 +25199,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="43" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="18" style="79" customWidth="1"/>
+    <col min="3" max="3" width="18" style="80" customWidth="1"/>
     <col min="4" max="4" width="61.85546875" style="44" customWidth="1"/>
     <col min="5" max="5" width="44.7109375" style="44" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" style="44" customWidth="1"/>
@@ -25228,9 +25216,9 @@
     <col min="12" max="12" width="10.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" style="21" customWidth="1"/>
     <col min="14" max="14" width="27.140625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="79" customWidth="1"/>
-    <col min="16" max="3117" width="9.140625" style="79" customWidth="1"/>
-    <col min="3118" max="16384" width="9.140625" style="79"/>
+    <col min="15" max="15" width="14.7109375" style="80" customWidth="1"/>
+    <col min="16" max="3127" width="9.140625" style="80" customWidth="1"/>
+    <col min="3128" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25299,11 +25287,11 @@
         <v>5</v>
       </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="87" t="s">
         <v>6</v>
       </c>
@@ -25329,7 +25317,7 @@
       </c>
       <c r="D4" s="15">
         <f>COUNTIFS(G:G,"Pass",H:H,"x")</f>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E4" s="15">
         <f>COUNTIFS(G:G,"Fail",H:H,"x")</f>
@@ -25341,7 +25329,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="81" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="86" t="s">
@@ -25426,7 +25414,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="83"/>
-      <c r="O6" s="81"/>
+      <c r="O6" s="79"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
@@ -25458,7 +25446,7 @@
         <v>14</v>
       </c>
       <c r="N7" s="83"/>
-      <c r="O7" s="81"/>
+      <c r="O7" s="79"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
@@ -25486,7 +25474,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
-      <c r="O8" s="81"/>
+      <c r="O8" s="79"/>
     </row>
     <row r="9" spans="1:22" s="14" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -25550,7 +25538,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="81"/>
+      <c r="O10" s="79"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
@@ -25569,7 +25557,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="81"/>
+      <c r="O11" s="79"/>
     </row>
     <row r="12" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
@@ -26675,27 +26663,25 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="M55" s="20"/>
       <c r="N55" s="20"/>
     </row>
     <row r="56" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="32" t="s">
         <v>190</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>191</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="F56" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>4</v>
@@ -26712,17 +26698,17 @@
     </row>
     <row r="57" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="4"/>
@@ -26738,20 +26724,20 @@
     </row>
     <row r="58" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="F58" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>4</v>
@@ -26768,21 +26754,19 @@
     </row>
     <row r="59" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>205</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>208</v>
-      </c>
+      <c r="F59" s="15"/>
       <c r="G59" s="4" t="s">
         <v>4</v>
       </c>
@@ -26793,25 +26777,27 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="20"/>
+      <c r="M59" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="N59" s="20"/>
     </row>
     <row r="60" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="32" t="s">
         <v>209</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>210</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="F60" s="46" t="s">
         <v>212</v>
-      </c>
-      <c r="F60" s="46" t="s">
-        <v>213</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>4</v>
@@ -26828,20 +26814,20 @@
     </row>
     <row r="61" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="32" t="s">
         <v>214</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>215</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="F61" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>4</v>
@@ -26858,20 +26844,20 @@
     </row>
     <row r="62" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>219</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="F62" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>4</v>
@@ -26888,20 +26874,20 @@
     </row>
     <row r="63" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="15" t="s">
-        <v>226</v>
-      </c>
       <c r="F63" s="15" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>4</v>
@@ -26913,25 +26899,27 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="20"/>
+      <c r="M63" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="N63" s="20"/>
     </row>
     <row r="64" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>4</v>
@@ -26948,20 +26936,20 @@
     </row>
     <row r="65" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="F65" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>4</v>
@@ -26978,20 +26966,20 @@
     </row>
     <row r="66" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="32" t="s">
         <v>236</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>237</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="F66" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>240</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>4</v>
@@ -27008,20 +26996,20 @@
     </row>
     <row r="67" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="37" t="s">
         <v>241</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>242</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="F67" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>4</v>
@@ -27053,7 +27041,7 @@
     </row>
     <row r="69" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B69" s="40"/>
       <c r="C69" s="28" t="s">
@@ -27073,17 +27061,17 @@
     </row>
     <row r="70" spans="1:14" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" s="32" t="s">
         <v>247</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>248</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E70" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="4" t="s">
@@ -27101,18 +27089,18 @@
     </row>
     <row r="71" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" s="32" t="s">
         <v>251</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>252</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F71" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>4</v>
@@ -27129,18 +27117,18 @@
     </row>
     <row r="72" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="32" t="s">
         <v>255</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>256</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>4</v>
@@ -27157,18 +27145,18 @@
     </row>
     <row r="73" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" s="32" t="s">
         <v>259</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>260</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>4</v>
@@ -27185,18 +27173,18 @@
     </row>
     <row r="74" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" s="32" t="s">
         <v>262</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>263</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>4</v>
@@ -27213,18 +27201,18 @@
     </row>
     <row r="75" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B75" s="32" t="s">
         <v>265</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>266</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>4</v>
@@ -27238,23 +27226,23 @@
       <c r="L75" s="4"/>
       <c r="M75" s="20"/>
       <c r="N75" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="32" t="s">
         <v>269</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>270</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>4</v>
@@ -27268,23 +27256,23 @@
       <c r="L76" s="4"/>
       <c r="M76" s="20"/>
       <c r="N76" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" s="32" t="s">
         <v>272</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>273</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>4</v>
@@ -27298,23 +27286,23 @@
       <c r="L77" s="4"/>
       <c r="M77" s="20"/>
       <c r="N77" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B78" s="32" t="s">
         <v>275</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>276</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>4</v>
@@ -27331,18 +27319,18 @@
     </row>
     <row r="79" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" s="32" t="s">
         <v>278</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>279</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>4</v>
@@ -27359,18 +27347,18 @@
     </row>
     <row r="80" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80" s="37" t="s">
         <v>281</v>
-      </c>
-      <c r="B80" s="37" t="s">
-        <v>282</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>4</v>
@@ -27387,18 +27375,18 @@
     </row>
     <row r="81" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81" s="32" t="s">
         <v>284</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>285</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>4</v>
@@ -27415,18 +27403,18 @@
     </row>
     <row r="82" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="32" t="s">
         <v>287</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>288</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>4</v>
@@ -27443,18 +27431,18 @@
     </row>
     <row r="83" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" s="32" t="s">
         <v>290</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>291</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>4</v>
@@ -27471,18 +27459,18 @@
     </row>
     <row r="84" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="32" t="s">
         <v>293</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>294</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>4</v>
@@ -27499,18 +27487,18 @@
     </row>
     <row r="85" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B85" s="32" t="s">
         <v>296</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>297</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>4</v>
@@ -27542,7 +27530,7 @@
     </row>
     <row r="87" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B87" s="35"/>
       <c r="C87" s="18"/>
@@ -27560,7 +27548,7 @@
     </row>
     <row r="88" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B88" s="35"/>
       <c r="C88" s="18"/>
@@ -27578,7 +27566,7 @@
     </row>
     <row r="89" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B89" s="35"/>
       <c r="C89" s="18"/>
@@ -27596,7 +27584,7 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B90" s="35"/>
       <c r="C90" s="18" t="s">
@@ -27616,20 +27604,20 @@
     </row>
     <row r="91" spans="1:14" ht="160.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="B91" s="39" t="s">
         <v>303</v>
-      </c>
-      <c r="B91" s="39" t="s">
-        <v>304</v>
       </c>
       <c r="C91" s="27"/>
       <c r="D91" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E91" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="F91" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>307</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>4</v>
@@ -27646,17 +27634,17 @@
     </row>
     <row r="92" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" s="32" t="s">
         <v>308</v>
-      </c>
-      <c r="B92" s="32" t="s">
-        <v>309</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" s="15" t="s">
         <v>310</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>311</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="4" t="s">
@@ -27674,17 +27662,17 @@
     </row>
     <row r="93" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" s="32" t="s">
         <v>312</v>
-      </c>
-      <c r="B93" s="32" t="s">
-        <v>313</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="4" t="s">
@@ -27702,17 +27690,17 @@
     </row>
     <row r="94" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="32" t="s">
         <v>315</v>
-      </c>
-      <c r="B94" s="32" t="s">
-        <v>316</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="4" t="s">
@@ -27730,17 +27718,17 @@
     </row>
     <row r="95" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="32" t="s">
         <v>318</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>319</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="4" t="s">
@@ -27758,17 +27746,17 @@
     </row>
     <row r="96" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="B96" s="32" t="s">
         <v>320</v>
-      </c>
-      <c r="B96" s="32" t="s">
-        <v>321</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="4" t="s">
@@ -27786,17 +27774,17 @@
     </row>
     <row r="97" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="B97" s="32" t="s">
         <v>322</v>
-      </c>
-      <c r="B97" s="32" t="s">
-        <v>323</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E97" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>325</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="4" t="s">
@@ -27814,20 +27802,20 @@
     </row>
     <row r="98" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="B98" s="32" t="s">
         <v>326</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>327</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="E98" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="F98" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>4</v>
@@ -27844,20 +27832,20 @@
     </row>
     <row r="99" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" s="32" t="s">
         <v>331</v>
-      </c>
-      <c r="B99" s="32" t="s">
-        <v>332</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E99" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="F99" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>335</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>4</v>
@@ -27874,20 +27862,20 @@
     </row>
     <row r="100" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E100" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="F100" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>339</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>4</v>
@@ -27918,7 +27906,7 @@
     </row>
     <row r="102" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B102" s="35"/>
       <c r="C102" s="18"/>
@@ -27936,7 +27924,7 @@
     </row>
     <row r="103" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B103" s="35"/>
       <c r="C103" s="18" t="s">
@@ -27956,20 +27944,20 @@
     </row>
     <row r="104" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="39" t="s">
         <v>342</v>
-      </c>
-      <c r="B104" s="39" t="s">
-        <v>343</v>
       </c>
       <c r="C104" s="27"/>
       <c r="D104" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E104" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="E104" s="27" t="s">
+      <c r="F104" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>346</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>4</v>
@@ -27988,17 +27976,17 @@
     </row>
     <row r="105" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="39" t="s">
         <v>347</v>
-      </c>
-      <c r="B105" s="39" t="s">
-        <v>348</v>
       </c>
       <c r="C105" s="27"/>
       <c r="D105" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E105" s="27" t="s">
         <v>349</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>350</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="4"/>
@@ -28014,17 +28002,17 @@
     </row>
     <row r="106" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="B106" s="39" t="s">
         <v>351</v>
-      </c>
-      <c r="B106" s="39" t="s">
-        <v>352</v>
       </c>
       <c r="C106" s="27"/>
       <c r="D106" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E106" s="27" t="s">
         <v>353</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>354</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="4"/>
@@ -28040,20 +28028,20 @@
     </row>
     <row r="107" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B107" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C107" s="27"/>
       <c r="D107" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E107" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="E107" s="27" t="s">
+      <c r="F107" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>4</v>
@@ -28070,20 +28058,20 @@
     </row>
     <row r="108" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="B108" s="39" t="s">
         <v>359</v>
-      </c>
-      <c r="B108" s="39" t="s">
-        <v>360</v>
       </c>
       <c r="C108" s="27"/>
       <c r="D108" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E108" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E108" s="27" t="s">
+      <c r="F108" s="15" t="s">
         <v>362</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>363</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>4</v>
@@ -28116,7 +28104,7 @@
     </row>
     <row r="110" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B110" s="40"/>
       <c r="C110" s="58" t="s">
@@ -28136,20 +28124,20 @@
     </row>
     <row r="111" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>366</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E111" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E111" s="15" t="s">
+      <c r="F111" s="15" t="s">
         <v>368</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>369</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>4</v>
@@ -28162,24 +28150,24 @@
       <c r="K111" s="6"/>
       <c r="L111" s="4"/>
       <c r="M111" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N111" s="20"/>
     </row>
     <row r="112" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="B112" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="B112" s="32" t="s">
-        <v>372</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F112" s="15" t="s">
         <v>373</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>374</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>4</v>
@@ -28191,7 +28179,9 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="20"/>
+      <c r="M112" s="20" t="s">
+        <v>374</v>
+      </c>
       <c r="N112" s="20"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -28204,7 +28194,7 @@
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>377</v>
@@ -28232,7 +28222,7 @@
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>380</v>
@@ -28260,7 +28250,7 @@
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F115" s="15" t="s">
         <v>383</v>
@@ -28288,7 +28278,7 @@
       <c r="C116" s="15"/>
       <c r="D116" s="26"/>
       <c r="E116" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>386</v>
@@ -28316,7 +28306,7 @@
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>389</v>
@@ -28344,7 +28334,7 @@
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>392</v>
@@ -28372,7 +28362,7 @@
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>395</v>
@@ -28400,7 +28390,7 @@
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>398</v>
@@ -28428,7 +28418,7 @@
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F121" s="15" t="s">
         <v>401</v>
@@ -28456,7 +28446,7 @@
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F122" s="15" t="s">
         <v>404</v>
@@ -28484,7 +28474,7 @@
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F123" s="15" t="s">
         <v>407</v>
@@ -28886,7 +28876,7 @@
         <v>460</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C139" s="41"/>
       <c r="D139" s="15" t="s">
@@ -31398,8 +31388,12 @@
       <c r="E233" s="29" t="s">
         <v>809</v>
       </c>
-      <c r="F233" s="29"/>
-      <c r="G233" s="4"/>
+      <c r="F233" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H233" s="6" t="s">
         <v>37</v>
       </c>
@@ -37077,7 +37071,7 @@
       <c r="N459" s="42"/>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A460" s="79"/>
+      <c r="A460" s="80"/>
       <c r="B460" s="37"/>
       <c r="C460" s="26"/>
       <c r="D460" s="15"/>
@@ -37746,7 +37740,7 @@
         <v>1558</v>
       </c>
       <c r="F487" s="29" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="G487" s="4" t="s">
         <v>4</v>
@@ -37779,7 +37773,7 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489" s="49" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B489" s="49"/>
       <c r="C489" s="50" t="s">
@@ -37799,17 +37793,17 @@
     </row>
     <row r="490" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="37" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B490" s="39" t="s">
         <v>1564</v>
-      </c>
-      <c r="B490" s="39" t="s">
-        <v>1565</v>
       </c>
       <c r="C490" s="26"/>
       <c r="D490" s="15" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E490" s="27" t="s">
         <v>1566</v>
-      </c>
-      <c r="E490" s="27" t="s">
-        <v>1567</v>
       </c>
       <c r="F490" s="29"/>
       <c r="G490" s="4"/>
@@ -37825,14 +37819,14 @@
     </row>
     <row r="491" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="37" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B491" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C491" s="26"/>
       <c r="D491" s="29" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E491" s="29" t="s">
         <v>1550</v>
@@ -37851,14 +37845,14 @@
     </row>
     <row r="492" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="37" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B492" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C492" s="26"/>
       <c r="D492" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E492" s="15" t="s">
         <v>587</v>
@@ -37893,7 +37887,7 @@
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494" s="49" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B494" s="49"/>
       <c r="C494" s="50" t="s">
@@ -37913,17 +37907,17 @@
     </row>
     <row r="495" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="37" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B495" s="39" t="s">
         <v>1573</v>
-      </c>
-      <c r="B495" s="39" t="s">
-        <v>1574</v>
       </c>
       <c r="C495" s="26"/>
       <c r="D495" s="15" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E495" s="27" t="s">
         <v>1575</v>
-      </c>
-      <c r="E495" s="27" t="s">
-        <v>1576</v>
       </c>
       <c r="F495" s="29"/>
       <c r="G495" s="4"/>
@@ -37939,17 +37933,17 @@
     </row>
     <row r="496" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="37" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B496" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C496" s="26"/>
       <c r="D496" s="29" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E496" s="29" t="s">
         <v>1578</v>
-      </c>
-      <c r="E496" s="29" t="s">
-        <v>1579</v>
       </c>
       <c r="F496" s="29"/>
       <c r="G496" s="4"/>
@@ -37965,14 +37959,14 @@
     </row>
     <row r="497" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="37" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B497" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C497" s="26"/>
       <c r="D497" s="15" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E497" s="15" t="s">
         <v>153</v>
@@ -38007,7 +38001,7 @@
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A499" s="49" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B499" s="49"/>
       <c r="C499" s="50" t="s">
@@ -38027,17 +38021,17 @@
     </row>
     <row r="500" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="37" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B500" s="39" t="s">
         <v>1583</v>
-      </c>
-      <c r="B500" s="39" t="s">
-        <v>1584</v>
       </c>
       <c r="C500" s="26"/>
       <c r="D500" s="15" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E500" s="27" t="s">
         <v>1585</v>
-      </c>
-      <c r="E500" s="27" t="s">
-        <v>1586</v>
       </c>
       <c r="F500" s="29"/>
       <c r="G500" s="4"/>
@@ -38053,17 +38047,17 @@
     </row>
     <row r="501" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="37" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B501" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C501" s="26"/>
       <c r="D501" s="29" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E501" s="29" t="s">
         <v>1588</v>
-      </c>
-      <c r="E501" s="29" t="s">
-        <v>1589</v>
       </c>
       <c r="F501" s="29"/>
       <c r="G501" s="4"/>
@@ -38079,14 +38073,14 @@
     </row>
     <row r="502" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="37" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B502" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C502" s="26"/>
       <c r="D502" s="15" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E502" s="15" t="s">
         <v>153</v>
@@ -38121,7 +38115,7 @@
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504" s="49" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B504" s="49"/>
       <c r="C504" s="50" t="s">
@@ -38141,17 +38135,17 @@
     </row>
     <row r="505" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="37" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B505" s="39" t="s">
         <v>1426</v>
       </c>
       <c r="C505" s="26"/>
       <c r="D505" s="15" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E505" s="27" t="s">
         <v>1594</v>
-      </c>
-      <c r="E505" s="27" t="s">
-        <v>1595</v>
       </c>
       <c r="F505" s="29"/>
       <c r="G505" s="4"/>
@@ -38167,17 +38161,17 @@
     </row>
     <row r="506" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="37" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B506" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C506" s="26"/>
       <c r="D506" s="29" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E506" s="29" t="s">
         <v>1597</v>
-      </c>
-      <c r="E506" s="29" t="s">
-        <v>1598</v>
       </c>
       <c r="F506" s="29"/>
       <c r="G506" s="4"/>
@@ -38193,14 +38187,14 @@
     </row>
     <row r="507" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="37" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B507" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C507" s="26"/>
       <c r="D507" s="15" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E507" s="15" t="s">
         <v>153</v>
@@ -38235,7 +38229,7 @@
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A509" s="49" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B509" s="49"/>
       <c r="C509" s="50" t="s">
@@ -38255,20 +38249,20 @@
     </row>
     <row r="510" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="37" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B510" s="39" t="s">
         <v>1602</v>
-      </c>
-      <c r="B510" s="39" t="s">
-        <v>1603</v>
       </c>
       <c r="C510" s="26"/>
       <c r="D510" s="15" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E510" s="27" t="s">
         <v>1604</v>
       </c>
-      <c r="E510" s="27" t="s">
+      <c r="F510" s="29" t="s">
         <v>1605</v>
-      </c>
-      <c r="F510" s="29" t="s">
-        <v>1606</v>
       </c>
       <c r="G510" s="4" t="s">
         <v>4</v>
@@ -38285,20 +38279,20 @@
     </row>
     <row r="511" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="37" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B511" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C511" s="26"/>
       <c r="D511" s="29" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E511" s="29" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F511" s="29" t="s">
         <v>1608</v>
-      </c>
-      <c r="E511" s="29" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F511" s="29" t="s">
-        <v>1609</v>
       </c>
       <c r="G511" s="4" t="s">
         <v>4</v>
@@ -38315,14 +38309,14 @@
     </row>
     <row r="512" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="37" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B512" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C512" s="26"/>
       <c r="D512" s="15" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E512" s="15" t="s">
         <v>153</v>
@@ -38359,7 +38353,7 @@
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A514" s="49" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B514" s="49"/>
       <c r="C514" s="50" t="s">
@@ -38379,20 +38373,20 @@
     </row>
     <row r="515" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="37" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B515" s="39" t="s">
         <v>1613</v>
-      </c>
-      <c r="B515" s="39" t="s">
-        <v>1614</v>
       </c>
       <c r="C515" s="26"/>
       <c r="D515" s="15" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E515" s="27" t="s">
         <v>1615</v>
       </c>
-      <c r="E515" s="27" t="s">
+      <c r="F515" s="29" t="s">
         <v>1616</v>
-      </c>
-      <c r="F515" s="29" t="s">
-        <v>1617</v>
       </c>
       <c r="G515" s="4" t="s">
         <v>4</v>
@@ -38409,20 +38403,20 @@
     </row>
     <row r="516" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="37" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B516" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C516" s="26"/>
       <c r="D516" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E516" s="29" t="s">
         <v>1619</v>
       </c>
-      <c r="E516" s="29" t="s">
+      <c r="F516" s="29" t="s">
         <v>1620</v>
-      </c>
-      <c r="F516" s="29" t="s">
-        <v>1621</v>
       </c>
       <c r="G516" s="4" t="s">
         <v>4</v>
@@ -38439,14 +38433,14 @@
     </row>
     <row r="517" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="37" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B517" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C517" s="26"/>
       <c r="D517" s="15" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E517" s="15" t="s">
         <v>153</v>
@@ -38483,7 +38477,7 @@
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A519" s="49" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B519" s="49"/>
       <c r="C519" s="50" t="s">
@@ -38503,17 +38497,17 @@
     </row>
     <row r="520" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="37" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B520" s="39" t="s">
         <v>1625</v>
-      </c>
-      <c r="B520" s="39" t="s">
-        <v>1626</v>
       </c>
       <c r="C520" s="26"/>
       <c r="D520" s="15" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E520" s="27" t="s">
         <v>1627</v>
-      </c>
-      <c r="E520" s="27" t="s">
-        <v>1628</v>
       </c>
       <c r="F520" s="29"/>
       <c r="G520" s="4"/>
@@ -38529,17 +38523,17 @@
     </row>
     <row r="521" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="37" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B521" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C521" s="26"/>
       <c r="D521" s="29" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E521" s="29" t="s">
         <v>1630</v>
-      </c>
-      <c r="E521" s="29" t="s">
-        <v>1631</v>
       </c>
       <c r="F521" s="29"/>
       <c r="G521" s="4"/>
@@ -38555,14 +38549,14 @@
     </row>
     <row r="522" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="37" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B522" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C522" s="26"/>
       <c r="D522" s="15" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E522" s="15" t="s">
         <v>153</v>
@@ -38597,7 +38591,7 @@
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A524" s="49" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B524" s="49"/>
       <c r="C524" s="50" t="s">
@@ -38617,17 +38611,17 @@
     </row>
     <row r="525" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="37" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B525" s="39" t="s">
         <v>1635</v>
-      </c>
-      <c r="B525" s="39" t="s">
-        <v>1636</v>
       </c>
       <c r="C525" s="26"/>
       <c r="D525" s="15" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E525" s="27" t="s">
         <v>1637</v>
-      </c>
-      <c r="E525" s="27" t="s">
-        <v>1638</v>
       </c>
       <c r="F525" s="29"/>
       <c r="G525" s="4"/>
@@ -38643,17 +38637,17 @@
     </row>
     <row r="526" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="37" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B526" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C526" s="26"/>
       <c r="D526" s="29" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E526" s="29" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F526" s="29"/>
       <c r="G526" s="4"/>
@@ -38669,14 +38663,14 @@
     </row>
     <row r="527" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="37" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B527" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C527" s="26"/>
       <c r="D527" s="15" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E527" s="15" t="s">
         <v>153</v>
@@ -38700,7 +38694,7 @@
       </c>
       <c r="C528" s="26"/>
       <c r="D528" s="15" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E528" s="15" t="s">
         <v>1434</v>
@@ -38717,7 +38711,7 @@
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A529" s="36" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B529" s="35"/>
       <c r="C529" s="18"/>
@@ -38735,7 +38729,7 @@
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A530" s="49" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B530" s="49"/>
       <c r="C530" s="50" t="s">
@@ -38755,17 +38749,17 @@
     </row>
     <row r="531" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="37" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B531" s="39" t="s">
         <v>1646</v>
-      </c>
-      <c r="B531" s="39" t="s">
-        <v>1647</v>
       </c>
       <c r="C531" s="26"/>
       <c r="D531" s="15" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E531" s="27" t="s">
         <v>1648</v>
-      </c>
-      <c r="E531" s="27" t="s">
-        <v>1649</v>
       </c>
       <c r="F531" s="29"/>
       <c r="G531" s="4"/>
@@ -38781,17 +38775,17 @@
     </row>
     <row r="532" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="37" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B532" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C532" s="26"/>
       <c r="D532" s="29" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E532" s="29" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F532" s="29"/>
       <c r="G532" s="4"/>
@@ -38807,14 +38801,14 @@
     </row>
     <row r="533" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="37" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B533" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C533" s="26"/>
       <c r="D533" s="15" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E533" s="15" t="s">
         <v>587</v>
@@ -38849,7 +38843,7 @@
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A535" s="49" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B535" s="49"/>
       <c r="C535" s="50" t="s">
@@ -38869,17 +38863,17 @@
     </row>
     <row r="536" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="37" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B536" s="39" t="s">
         <v>1655</v>
-      </c>
-      <c r="B536" s="39" t="s">
-        <v>1656</v>
       </c>
       <c r="C536" s="26"/>
       <c r="D536" s="15" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E536" s="27" t="s">
         <v>1657</v>
-      </c>
-      <c r="E536" s="27" t="s">
-        <v>1658</v>
       </c>
       <c r="F536" s="29"/>
       <c r="G536" s="4"/>
@@ -38895,17 +38889,17 @@
     </row>
     <row r="537" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="37" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B537" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C537" s="26"/>
       <c r="D537" s="29" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E537" s="29" t="s">
         <v>1660</v>
-      </c>
-      <c r="E537" s="29" t="s">
-        <v>1661</v>
       </c>
       <c r="F537" s="29"/>
       <c r="G537" s="4"/>
@@ -38921,14 +38915,14 @@
     </row>
     <row r="538" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="37" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B538" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C538" s="26"/>
       <c r="D538" s="15" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E538" s="15" t="s">
         <v>153</v>
@@ -38963,7 +38957,7 @@
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A540" s="49" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B540" s="49"/>
       <c r="C540" s="50" t="s">
@@ -38983,17 +38977,17 @@
     </row>
     <row r="541" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="37" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B541" s="39" t="s">
         <v>1665</v>
-      </c>
-      <c r="B541" s="39" t="s">
-        <v>1666</v>
       </c>
       <c r="C541" s="26"/>
       <c r="D541" s="15" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E541" s="27" t="s">
         <v>1667</v>
-      </c>
-      <c r="E541" s="27" t="s">
-        <v>1668</v>
       </c>
       <c r="F541" s="29"/>
       <c r="G541" s="4"/>
@@ -39004,22 +38998,22 @@
       <c r="L541" s="2"/>
       <c r="M541" s="42"/>
       <c r="N541" s="66" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="542" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="37" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B542" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C542" s="26"/>
       <c r="D542" s="29" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E542" s="29" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F542" s="29"/>
       <c r="G542" s="4"/>
@@ -39030,19 +39024,19 @@
       <c r="L542" s="2"/>
       <c r="M542" s="42"/>
       <c r="N542" s="66" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="543" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="37" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B543" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C543" s="26"/>
       <c r="D543" s="15" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E543" s="15" t="s">
         <v>153</v>
@@ -39056,7 +39050,7 @@
       <c r="L543" s="2"/>
       <c r="M543" s="42"/>
       <c r="N543" s="66" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.3">
@@ -39077,7 +39071,7 @@
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A545" s="49" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B545" s="49"/>
       <c r="C545" s="50" t="s">
@@ -39097,17 +39091,17 @@
     </row>
     <row r="546" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="37" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B546" s="39" t="s">
         <v>1675</v>
-      </c>
-      <c r="B546" s="39" t="s">
-        <v>1676</v>
       </c>
       <c r="C546" s="26"/>
       <c r="D546" s="15" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E546" s="27" t="s">
         <v>1677</v>
-      </c>
-      <c r="E546" s="27" t="s">
-        <v>1678</v>
       </c>
       <c r="F546" s="29"/>
       <c r="G546" s="4"/>
@@ -39118,22 +39112,22 @@
       <c r="L546" s="2"/>
       <c r="M546" s="42"/>
       <c r="N546" s="66" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="547" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="37" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B547" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C547" s="26"/>
       <c r="D547" s="29" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E547" s="29" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F547" s="29"/>
       <c r="G547" s="4"/>
@@ -39144,19 +39138,19 @@
       <c r="L547" s="2"/>
       <c r="M547" s="42"/>
       <c r="N547" s="66" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="548" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="37" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B548" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C548" s="26"/>
       <c r="D548" s="15" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E548" s="15" t="s">
         <v>153</v>
@@ -39170,7 +39164,7 @@
       <c r="L548" s="2"/>
       <c r="M548" s="42"/>
       <c r="N548" s="66" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.3">
@@ -39191,7 +39185,7 @@
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A550" s="49" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B550" s="49"/>
       <c r="C550" s="50" t="s">
@@ -39211,17 +39205,17 @@
     </row>
     <row r="551" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="37" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B551" s="39" t="s">
         <v>1684</v>
-      </c>
-      <c r="B551" s="39" t="s">
-        <v>1685</v>
       </c>
       <c r="C551" s="26"/>
       <c r="D551" s="15" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E551" s="27" t="s">
         <v>1686</v>
-      </c>
-      <c r="E551" s="27" t="s">
-        <v>1687</v>
       </c>
       <c r="F551" s="29"/>
       <c r="G551" s="4"/>
@@ -39237,17 +39231,17 @@
     </row>
     <row r="552" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="37" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B552" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C552" s="26"/>
       <c r="D552" s="29" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E552" s="29" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F552" s="29"/>
       <c r="G552" s="4"/>
@@ -39263,14 +39257,14 @@
     </row>
     <row r="553" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="37" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B553" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C553" s="26"/>
       <c r="D553" s="15" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E553" s="15" t="s">
         <v>587</v>
@@ -39305,7 +39299,7 @@
     </row>
     <row r="555" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="36" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B555" s="35"/>
       <c r="C555" s="18"/>
@@ -39323,7 +39317,7 @@
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A556" s="49" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B556" s="49"/>
       <c r="C556" s="50" t="s">
@@ -39343,20 +39337,20 @@
     </row>
     <row r="557" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="37" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B557" s="39" t="s">
         <v>1694</v>
-      </c>
-      <c r="B557" s="39" t="s">
-        <v>1695</v>
       </c>
       <c r="C557" s="26"/>
       <c r="D557" s="15" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E557" s="27" t="s">
         <v>1696</v>
       </c>
-      <c r="E557" s="27" t="s">
+      <c r="F557" s="29" t="s">
         <v>1697</v>
-      </c>
-      <c r="F557" s="29" t="s">
-        <v>1698</v>
       </c>
       <c r="G557" s="4" t="s">
         <v>4</v>
@@ -39373,20 +39367,20 @@
     </row>
     <row r="558" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="37" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B558" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C558" s="26"/>
       <c r="D558" s="29" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E558" s="29" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F558" s="29" t="s">
         <v>1700</v>
-      </c>
-      <c r="E558" s="29" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F558" s="29" t="s">
-        <v>1701</v>
       </c>
       <c r="G558" s="4" t="s">
         <v>4</v>
@@ -39403,20 +39397,20 @@
     </row>
     <row r="559" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="37" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B559" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C559" s="26"/>
       <c r="D559" s="15" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E559" s="15" t="s">
         <v>587</v>
       </c>
       <c r="F559" s="29" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G559" s="4" t="s">
         <v>4</v>
@@ -39449,7 +39443,7 @@
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A561" s="49" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B561" s="49"/>
       <c r="C561" s="50" t="s">
@@ -39469,20 +39463,20 @@
     </row>
     <row r="562" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="37" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B562" s="39" t="s">
         <v>1706</v>
-      </c>
-      <c r="B562" s="39" t="s">
-        <v>1707</v>
       </c>
       <c r="C562" s="26"/>
       <c r="D562" s="15" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E562" s="27" t="s">
         <v>1708</v>
       </c>
-      <c r="E562" s="27" t="s">
+      <c r="F562" s="4" t="s">
         <v>1709</v>
-      </c>
-      <c r="F562" s="4" t="s">
-        <v>1710</v>
       </c>
       <c r="G562" s="4" t="s">
         <v>4</v>
@@ -39499,20 +39493,20 @@
     </row>
     <row r="563" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="37" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B563" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C563" s="26"/>
       <c r="D563" s="29" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E563" s="29" t="s">
         <v>1712</v>
       </c>
-      <c r="E563" s="29" t="s">
+      <c r="F563" s="29" t="s">
         <v>1713</v>
-      </c>
-      <c r="F563" s="29" t="s">
-        <v>1714</v>
       </c>
       <c r="G563" s="4" t="s">
         <v>4</v>
@@ -39529,20 +39523,20 @@
     </row>
     <row r="564" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="37" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B564" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C564" s="26"/>
       <c r="D564" s="15" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E564" s="15" t="s">
         <v>587</v>
       </c>
       <c r="F564" s="26" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G564" s="4" t="s">
         <v>4</v>
@@ -39559,20 +39553,20 @@
     </row>
     <row r="565" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="37" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B565" s="29" t="s">
         <v>1718</v>
-      </c>
-      <c r="B565" s="29" t="s">
-        <v>1719</v>
       </c>
       <c r="C565" s="26"/>
       <c r="D565" s="15" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E565" s="15" t="s">
         <v>587</v>
       </c>
       <c r="F565" s="29" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="G565" s="4" t="s">
         <v>4</v>
@@ -39605,7 +39599,7 @@
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A567" s="49" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B567" s="49"/>
       <c r="C567" s="50" t="s">
@@ -39625,20 +39619,20 @@
     </row>
     <row r="568" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="37" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B568" s="39" t="s">
         <v>1723</v>
-      </c>
-      <c r="B568" s="39" t="s">
-        <v>1724</v>
       </c>
       <c r="C568" s="26"/>
       <c r="D568" s="15" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E568" s="27" t="s">
         <v>1725</v>
       </c>
-      <c r="E568" s="27" t="s">
+      <c r="F568" s="29" t="s">
         <v>1726</v>
-      </c>
-      <c r="F568" s="29" t="s">
-        <v>1727</v>
       </c>
       <c r="G568" s="4" t="s">
         <v>4</v>
@@ -39655,20 +39649,20 @@
     </row>
     <row r="569" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="37" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B569" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C569" s="26"/>
       <c r="D569" s="29" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E569" s="29" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="F569" s="29" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G569" s="4" t="s">
         <v>4</v>
@@ -39685,14 +39679,14 @@
     </row>
     <row r="570" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="37" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B570" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C570" s="26"/>
       <c r="D570" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E570" s="15" t="s">
         <v>153</v>
@@ -39729,7 +39723,7 @@
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A572" s="49" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B572" s="49"/>
       <c r="C572" s="50" t="s">
@@ -39749,17 +39743,17 @@
     </row>
     <row r="573" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="37" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B573" s="39" t="s">
         <v>1733</v>
-      </c>
-      <c r="B573" s="39" t="s">
-        <v>1734</v>
       </c>
       <c r="C573" s="26"/>
       <c r="D573" s="15" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E573" s="27" t="s">
         <v>1735</v>
-      </c>
-      <c r="E573" s="27" t="s">
-        <v>1736</v>
       </c>
       <c r="F573" s="29"/>
       <c r="G573" s="4"/>
@@ -39775,17 +39769,17 @@
     </row>
     <row r="574" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="37" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B574" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C574" s="26"/>
       <c r="D574" s="29" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E574" s="29" t="s">
         <v>1738</v>
-      </c>
-      <c r="E574" s="29" t="s">
-        <v>1739</v>
       </c>
       <c r="F574" s="29"/>
       <c r="G574" s="4"/>
@@ -39801,14 +39795,14 @@
     </row>
     <row r="575" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="37" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B575" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C575" s="26"/>
       <c r="D575" s="15" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E575" s="15" t="s">
         <v>153</v>
@@ -39843,7 +39837,7 @@
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A577" s="49" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B577" s="49"/>
       <c r="C577" s="50" t="s">
@@ -39863,17 +39857,17 @@
     </row>
     <row r="578" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="37" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B578" s="39" t="s">
         <v>1743</v>
-      </c>
-      <c r="B578" s="39" t="s">
-        <v>1744</v>
       </c>
       <c r="C578" s="26"/>
       <c r="D578" s="15" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E578" s="27" t="s">
         <v>1745</v>
-      </c>
-      <c r="E578" s="27" t="s">
-        <v>1746</v>
       </c>
       <c r="F578" s="29"/>
       <c r="G578" s="4"/>
@@ -39889,17 +39883,17 @@
     </row>
     <row r="579" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="37" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B579" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C579" s="26"/>
       <c r="D579" s="29" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E579" s="29" t="s">
         <v>1748</v>
-      </c>
-      <c r="E579" s="29" t="s">
-        <v>1749</v>
       </c>
       <c r="F579" s="29"/>
       <c r="G579" s="4"/>
@@ -39915,14 +39909,14 @@
     </row>
     <row r="580" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="37" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B580" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C580" s="26"/>
       <c r="D580" s="15" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E580" s="15" t="s">
         <v>153</v>
@@ -39957,7 +39951,7 @@
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A582" s="49" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B582" s="49"/>
       <c r="C582" s="50" t="s">
@@ -39977,17 +39971,17 @@
     </row>
     <row r="583" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="37" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B583" s="39" t="s">
         <v>1753</v>
-      </c>
-      <c r="B583" s="39" t="s">
-        <v>1754</v>
       </c>
       <c r="C583" s="26"/>
       <c r="D583" s="15" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E583" s="27" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F583" s="29"/>
       <c r="G583" s="4"/>
@@ -40003,17 +39997,17 @@
     </row>
     <row r="584" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="37" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B584" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C584" s="26"/>
       <c r="D584" s="29" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E584" s="29" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F584" s="29"/>
       <c r="G584" s="4"/>
@@ -40029,14 +40023,14 @@
     </row>
     <row r="585" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="37" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B585" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C585" s="26"/>
       <c r="D585" s="15" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E585" s="15" t="s">
         <v>153</v>
@@ -40071,7 +40065,7 @@
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A587" s="49" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B587" s="49"/>
       <c r="C587" s="50" t="s">
@@ -40091,20 +40085,20 @@
     </row>
     <row r="588" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="37" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B588" s="39" t="s">
         <v>1761</v>
-      </c>
-      <c r="B588" s="39" t="s">
-        <v>1762</v>
       </c>
       <c r="C588" s="26"/>
       <c r="D588" s="15" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E588" s="27" t="s">
         <v>1763</v>
       </c>
-      <c r="E588" s="27" t="s">
+      <c r="F588" s="29" t="s">
         <v>1764</v>
-      </c>
-      <c r="F588" s="29" t="s">
-        <v>1765</v>
       </c>
       <c r="G588" s="4" t="s">
         <v>4</v>
@@ -40121,20 +40115,20 @@
     </row>
     <row r="589" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="37" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B589" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C589" s="26"/>
       <c r="D589" s="29" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E589" s="29" t="s">
         <v>1767</v>
       </c>
-      <c r="E589" s="29" t="s">
+      <c r="F589" s="29" t="s">
         <v>1768</v>
-      </c>
-      <c r="F589" s="29" t="s">
-        <v>1769</v>
       </c>
       <c r="G589" s="4" t="s">
         <v>4</v>
@@ -40151,14 +40145,14 @@
     </row>
     <row r="590" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="37" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B590" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C590" s="26"/>
       <c r="D590" s="15" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E590" s="15" t="s">
         <v>153</v>
@@ -40195,7 +40189,7 @@
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A592" s="49" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B592" s="49"/>
       <c r="C592" s="50" t="s">
@@ -40215,17 +40209,17 @@
     </row>
     <row r="593" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="37" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B593" s="39" t="s">
         <v>1773</v>
-      </c>
-      <c r="B593" s="39" t="s">
-        <v>1774</v>
       </c>
       <c r="C593" s="26"/>
       <c r="D593" s="15" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E593" s="27" t="s">
         <v>1775</v>
-      </c>
-      <c r="E593" s="27" t="s">
-        <v>1776</v>
       </c>
       <c r="F593" s="29"/>
       <c r="G593" s="4"/>
@@ -40241,17 +40235,17 @@
     </row>
     <row r="594" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="37" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B594" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C594" s="26"/>
       <c r="D594" s="29" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E594" s="29" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F594" s="29"/>
       <c r="G594" s="4"/>
@@ -40267,14 +40261,14 @@
     </row>
     <row r="595" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="37" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B595" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C595" s="26"/>
       <c r="D595" s="15" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E595" s="15" t="s">
         <v>587</v>
@@ -40292,7 +40286,7 @@
       <c r="N595" s="42"/>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A596" s="79"/>
+      <c r="A596" s="80"/>
       <c r="B596" s="37"/>
       <c r="C596" s="26"/>
       <c r="D596" s="15"/>
@@ -40309,7 +40303,7 @@
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A597" s="49" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B597" s="49"/>
       <c r="C597" s="50" t="s">
@@ -40329,17 +40323,17 @@
     </row>
     <row r="598" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="37" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B598" s="39" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C598" s="26"/>
       <c r="D598" s="15" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E598" s="27" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F598" s="29"/>
       <c r="G598" s="4"/>
@@ -40355,17 +40349,17 @@
     </row>
     <row r="599" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="37" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B599" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C599" s="26"/>
       <c r="D599" s="29" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E599" s="29" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F599" s="29"/>
       <c r="G599" s="4"/>
@@ -40381,14 +40375,14 @@
     </row>
     <row r="600" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="37" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B600" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C600" s="26"/>
       <c r="D600" s="15" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E600" s="15" t="s">
         <v>153</v>
@@ -40422,7 +40416,7 @@
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A602" s="49" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B602" s="49"/>
       <c r="C602" s="50" t="s">
@@ -40442,17 +40436,17 @@
     </row>
     <row r="603" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="37" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B603" s="39" t="s">
         <v>1789</v>
-      </c>
-      <c r="B603" s="39" t="s">
-        <v>1790</v>
       </c>
       <c r="C603" s="26"/>
       <c r="D603" s="15" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E603" s="27" t="s">
         <v>1791</v>
-      </c>
-      <c r="E603" s="27" t="s">
-        <v>1792</v>
       </c>
       <c r="F603" s="29"/>
       <c r="G603" s="4"/>
@@ -40468,17 +40462,17 @@
     </row>
     <row r="604" spans="1:14" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="37" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B604" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C604" s="26"/>
       <c r="D604" s="29" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E604" s="29" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F604" s="29"/>
       <c r="G604" s="4"/>
@@ -40494,14 +40488,14 @@
     </row>
     <row r="605" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="37" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B605" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C605" s="26"/>
       <c r="D605" s="15" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E605" s="15" t="s">
         <v>587</v>
@@ -40520,14 +40514,14 @@
     </row>
     <row r="606" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="37" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B606" s="47" t="s">
         <v>1556</v>
       </c>
       <c r="C606" s="26"/>
       <c r="D606" s="15" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E606" s="15" t="s">
         <v>1558</v>
@@ -40546,14 +40540,14 @@
     </row>
     <row r="607" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="37" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B607" s="47" t="s">
         <v>1561</v>
       </c>
       <c r="C607" s="26"/>
       <c r="D607" s="15" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E607" s="15" t="s">
         <v>1558</v>
@@ -40587,7 +40581,7 @@
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A609" s="49" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B609" s="49"/>
       <c r="C609" s="50" t="s">
@@ -40607,17 +40601,17 @@
     </row>
     <row r="610" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="37" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B610" s="39" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C610" s="26"/>
       <c r="D610" s="15" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E610" s="27" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F610" s="29"/>
       <c r="G610" s="4"/>
@@ -40633,17 +40627,17 @@
     </row>
     <row r="611" spans="1:14" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="37" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B611" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C611" s="26"/>
       <c r="D611" s="29" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E611" s="29" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F611" s="29"/>
       <c r="G611" s="4"/>
@@ -40659,14 +40653,14 @@
     </row>
     <row r="612" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="37" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B612" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C612" s="26"/>
       <c r="D612" s="15" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E612" s="15" t="s">
         <v>153</v>
@@ -40701,7 +40695,7 @@
     </row>
     <row r="614" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="36" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B614" s="35"/>
       <c r="C614" s="18"/>
@@ -40719,17 +40713,17 @@
     </row>
     <row r="615" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="37" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B615" s="47" t="s">
         <v>1808</v>
-      </c>
-      <c r="B615" s="47" t="s">
-        <v>1809</v>
       </c>
       <c r="C615" s="26"/>
       <c r="D615" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E615" s="15" t="s">
         <v>1810</v>
-      </c>
-      <c r="E615" s="15" t="s">
-        <v>1811</v>
       </c>
       <c r="F615" s="29"/>
       <c r="G615" s="4"/>
@@ -40743,17 +40737,17 @@
     </row>
     <row r="616" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="37" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B616" s="47" t="s">
         <v>1812</v>
-      </c>
-      <c r="B616" s="47" t="s">
-        <v>1813</v>
       </c>
       <c r="C616" s="26"/>
       <c r="D616" s="15" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E616" s="15" t="s">
         <v>1814</v>
-      </c>
-      <c r="E616" s="15" t="s">
-        <v>1815</v>
       </c>
       <c r="F616" s="29"/>
       <c r="G616" s="4"/>
@@ -40831,7 +40825,7 @@
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A621" s="34" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B621" s="38"/>
       <c r="C621" s="17"/>
@@ -40849,7 +40843,7 @@
     </row>
     <row r="622" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="36" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B622" s="35"/>
       <c r="C622" s="18"/>
@@ -40867,7 +40861,7 @@
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A623" s="49" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B623" s="49"/>
       <c r="C623" s="50" t="s">
@@ -40887,20 +40881,20 @@
     </row>
     <row r="624" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="37" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B624" s="39" t="s">
         <v>1819</v>
-      </c>
-      <c r="B624" s="39" t="s">
-        <v>1820</v>
       </c>
       <c r="C624" s="26"/>
       <c r="D624" s="15" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E624" s="27" t="s">
         <v>1821</v>
       </c>
-      <c r="E624" s="27" t="s">
+      <c r="F624" s="29" t="s">
         <v>1822</v>
-      </c>
-      <c r="F624" s="29" t="s">
-        <v>1823</v>
       </c>
       <c r="G624" s="4" t="s">
         <v>4</v>
@@ -40919,17 +40913,17 @@
     </row>
     <row r="625" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="37" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B625" s="37" t="s">
         <v>703</v>
       </c>
       <c r="C625" s="26"/>
       <c r="D625" s="29" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E625" s="29" t="s">
         <v>1825</v>
-      </c>
-      <c r="E625" s="29" t="s">
-        <v>1826</v>
       </c>
       <c r="F625" s="29"/>
       <c r="G625" s="4"/>
@@ -40945,17 +40939,17 @@
     </row>
     <row r="626" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="37" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B626" s="26" t="s">
         <v>1827</v>
-      </c>
-      <c r="B626" s="26" t="s">
-        <v>1828</v>
       </c>
       <c r="C626" s="26"/>
       <c r="D626" s="29" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E626" s="29" t="s">
         <v>1829</v>
-      </c>
-      <c r="E626" s="29" t="s">
-        <v>1830</v>
       </c>
       <c r="F626" s="29"/>
       <c r="G626" s="4"/>
@@ -40990,7 +40984,7 @@
     <row r="628" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A628" s="37"/>
       <c r="B628" s="26" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C628" s="26"/>
       <c r="D628" s="29"/>
@@ -41041,7 +41035,7 @@
     </row>
     <row r="631" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="36" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B631" s="35"/>
       <c r="C631" s="18"/>
@@ -41059,7 +41053,7 @@
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A632" s="49" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B632" s="49"/>
       <c r="C632" s="50" t="s">
@@ -41079,20 +41073,20 @@
     </row>
     <row r="633" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="37" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B633" s="39" t="s">
         <v>1834</v>
-      </c>
-      <c r="B633" s="39" t="s">
-        <v>1835</v>
       </c>
       <c r="C633" s="26"/>
       <c r="D633" s="15" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E633" s="27" t="s">
         <v>1836</v>
       </c>
-      <c r="E633" s="27" t="s">
+      <c r="F633" s="29" t="s">
         <v>1837</v>
-      </c>
-      <c r="F633" s="29" t="s">
-        <v>1838</v>
       </c>
       <c r="G633" s="4" t="s">
         <v>4</v>
@@ -41111,20 +41105,20 @@
     </row>
     <row r="634" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="37" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B634" s="37" t="s">
         <v>1839</v>
-      </c>
-      <c r="B634" s="37" t="s">
-        <v>1840</v>
       </c>
       <c r="C634" s="26"/>
       <c r="D634" s="29" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E634" s="29" t="s">
         <v>1841</v>
       </c>
-      <c r="E634" s="29" t="s">
+      <c r="F634" s="29" t="s">
         <v>1842</v>
-      </c>
-      <c r="F634" s="29" t="s">
-        <v>1843</v>
       </c>
       <c r="G634" s="4" t="s">
         <v>4</v>
@@ -41141,20 +41135,20 @@
     </row>
     <row r="635" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="37" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B635" s="37" t="s">
         <v>1844</v>
-      </c>
-      <c r="B635" s="37" t="s">
-        <v>1845</v>
       </c>
       <c r="C635" s="26"/>
       <c r="D635" s="29" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E635" s="29" t="s">
         <v>1846</v>
       </c>
-      <c r="E635" s="29" t="s">
+      <c r="F635" s="29" t="s">
         <v>1847</v>
-      </c>
-      <c r="F635" s="29" t="s">
-        <v>1848</v>
       </c>
       <c r="G635" s="4" t="s">
         <v>4</v>
@@ -41171,20 +41165,20 @@
     </row>
     <row r="636" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="37" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B636" s="37" t="s">
         <v>1849</v>
-      </c>
-      <c r="B636" s="37" t="s">
-        <v>1850</v>
       </c>
       <c r="C636" s="26"/>
       <c r="D636" s="29" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E636" s="29" t="s">
         <v>1851</v>
       </c>
-      <c r="E636" s="29" t="s">
+      <c r="F636" s="29" t="s">
         <v>1852</v>
-      </c>
-      <c r="F636" s="29" t="s">
-        <v>1853</v>
       </c>
       <c r="G636" s="4" t="s">
         <v>4</v>
@@ -41201,17 +41195,17 @@
     </row>
     <row r="637" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="37" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B637" s="37" t="s">
         <v>1854</v>
-      </c>
-      <c r="B637" s="37" t="s">
-        <v>1855</v>
       </c>
       <c r="C637" s="26"/>
       <c r="D637" s="29" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E637" s="29" t="s">
         <v>1856</v>
-      </c>
-      <c r="E637" s="29" t="s">
-        <v>1857</v>
       </c>
       <c r="F637" s="29"/>
       <c r="G637" s="4"/>
@@ -41243,7 +41237,7 @@
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A639" s="49" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B639" s="49"/>
       <c r="C639" s="50" t="s">
@@ -41263,20 +41257,20 @@
     </row>
     <row r="640" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="37" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B640" s="37" t="s">
         <v>1859</v>
-      </c>
-      <c r="B640" s="37" t="s">
-        <v>1860</v>
       </c>
       <c r="C640" s="26"/>
       <c r="D640" s="29" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E640" s="29" t="s">
         <v>1861</v>
       </c>
-      <c r="E640" s="29" t="s">
+      <c r="F640" s="29" t="s">
         <v>1862</v>
-      </c>
-      <c r="F640" s="29" t="s">
-        <v>1863</v>
       </c>
       <c r="G640" s="4" t="s">
         <v>4</v>
@@ -41293,20 +41287,20 @@
     </row>
     <row r="641" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="37" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B641" s="37" t="s">
         <v>1864</v>
-      </c>
-      <c r="B641" s="37" t="s">
-        <v>1865</v>
       </c>
       <c r="C641" s="26"/>
       <c r="D641" s="29" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E641" s="29" t="s">
         <v>1866</v>
       </c>
-      <c r="E641" s="29" t="s">
+      <c r="F641" s="29" t="s">
         <v>1867</v>
-      </c>
-      <c r="F641" s="29" t="s">
-        <v>1868</v>
       </c>
       <c r="G641" s="4" t="s">
         <v>4</v>
@@ -41323,20 +41317,20 @@
     </row>
     <row r="642" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="37" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B642" s="37" t="s">
         <v>1869</v>
-      </c>
-      <c r="B642" s="37" t="s">
-        <v>1870</v>
       </c>
       <c r="C642" s="26"/>
       <c r="D642" s="29" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E642" s="29" t="s">
         <v>1871</v>
       </c>
-      <c r="E642" s="29" t="s">
-        <v>1872</v>
-      </c>
       <c r="F642" s="29" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G642" s="4" t="s">
         <v>4</v>
@@ -41353,17 +41347,17 @@
     </row>
     <row r="643" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="37" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B643" s="37" t="s">
         <v>484</v>
       </c>
       <c r="C643" s="26"/>
       <c r="D643" s="29" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E643" s="29" t="s">
         <v>1874</v>
-      </c>
-      <c r="E643" s="29" t="s">
-        <v>1875</v>
       </c>
       <c r="F643" s="29"/>
       <c r="G643" s="4"/>
@@ -41379,17 +41373,17 @@
     </row>
     <row r="644" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="37" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B644" s="37" t="s">
         <v>525</v>
       </c>
       <c r="C644" s="26"/>
       <c r="D644" s="29" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E644" s="29" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="F644" s="29"/>
       <c r="G644" s="4"/>
@@ -41405,17 +41399,17 @@
     </row>
     <row r="645" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="37" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B645" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C645" s="26"/>
       <c r="D645" s="29" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E645" s="29" t="s">
         <v>1879</v>
-      </c>
-      <c r="E645" s="29" t="s">
-        <v>1880</v>
       </c>
       <c r="F645" s="29"/>
       <c r="G645" s="4"/>
@@ -41431,17 +41425,17 @@
     </row>
     <row r="646" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="37" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B646" s="37" t="s">
         <v>1881</v>
-      </c>
-      <c r="B646" s="37" t="s">
-        <v>1882</v>
       </c>
       <c r="C646" s="26"/>
       <c r="D646" s="29" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E646" s="29" t="s">
         <v>1883</v>
-      </c>
-      <c r="E646" s="29" t="s">
-        <v>1884</v>
       </c>
       <c r="F646" s="29"/>
       <c r="G646" s="4"/>
@@ -41457,17 +41451,17 @@
     </row>
     <row r="647" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="37" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B647" s="37" t="s">
         <v>630</v>
       </c>
       <c r="C647" s="26"/>
       <c r="D647" s="29" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E647" s="29" t="s">
         <v>1886</v>
-      </c>
-      <c r="E647" s="29" t="s">
-        <v>1887</v>
       </c>
       <c r="F647" s="29"/>
       <c r="G647" s="4"/>
@@ -41483,17 +41477,17 @@
     </row>
     <row r="648" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="37" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B648" s="37" t="s">
         <v>1888</v>
-      </c>
-      <c r="B648" s="37" t="s">
-        <v>1889</v>
       </c>
       <c r="C648" s="26"/>
       <c r="D648" s="29" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E648" s="29" t="s">
         <v>1890</v>
-      </c>
-      <c r="E648" s="29" t="s">
-        <v>1891</v>
       </c>
       <c r="F648" s="29"/>
       <c r="G648" s="4"/>
@@ -41525,7 +41519,7 @@
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A650" s="49" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B650" s="49"/>
       <c r="C650" s="50" t="s">
@@ -41545,20 +41539,20 @@
     </row>
     <row r="651" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="37" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B651" s="39" t="s">
         <v>1893</v>
-      </c>
-      <c r="B651" s="39" t="s">
-        <v>1894</v>
       </c>
       <c r="C651" s="26"/>
       <c r="D651" s="15" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E651" s="27" t="s">
         <v>1895</v>
       </c>
-      <c r="E651" s="27" t="s">
+      <c r="F651" s="29" t="s">
         <v>1896</v>
-      </c>
-      <c r="F651" s="29" t="s">
-        <v>1897</v>
       </c>
       <c r="G651" s="4" t="s">
         <v>4</v>
@@ -41577,17 +41571,17 @@
     </row>
     <row r="652" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B652" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C652" s="26"/>
       <c r="D652" s="29" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E652" s="29" t="s">
         <v>1899</v>
-      </c>
-      <c r="E652" s="29" t="s">
-        <v>1900</v>
       </c>
       <c r="F652" s="29"/>
       <c r="G652" s="4"/>
@@ -41603,17 +41597,17 @@
     </row>
     <row r="653" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="37" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B653" s="37" t="s">
         <v>484</v>
       </c>
       <c r="C653" s="26"/>
       <c r="D653" s="29" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E653" s="29" t="s">
         <v>1902</v>
-      </c>
-      <c r="E653" s="29" t="s">
-        <v>1903</v>
       </c>
       <c r="F653" s="29"/>
       <c r="G653" s="4"/>
@@ -41629,17 +41623,17 @@
     </row>
     <row r="654" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="37" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B654" s="37" t="s">
         <v>525</v>
       </c>
       <c r="C654" s="26"/>
       <c r="D654" s="29" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E654" s="29" t="s">
         <v>1905</v>
-      </c>
-      <c r="E654" s="29" t="s">
-        <v>1906</v>
       </c>
       <c r="F654" s="29"/>
       <c r="G654" s="4"/>
@@ -41655,17 +41649,17 @@
     </row>
     <row r="655" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B655" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C655" s="26"/>
       <c r="D655" s="29" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E655" s="29" t="s">
         <v>1908</v>
-      </c>
-      <c r="E655" s="29" t="s">
-        <v>1909</v>
       </c>
       <c r="F655" s="29"/>
       <c r="G655" s="4"/>
@@ -41697,7 +41691,7 @@
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A657" s="49" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B657" s="49"/>
       <c r="C657" s="50" t="s">
@@ -41717,20 +41711,20 @@
     </row>
     <row r="658" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="37" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B658" s="39" t="s">
         <v>1911</v>
-      </c>
-      <c r="B658" s="39" t="s">
-        <v>1912</v>
       </c>
       <c r="C658" s="26"/>
       <c r="D658" s="15" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E658" s="27" t="s">
         <v>1913</v>
       </c>
-      <c r="E658" s="27" t="s">
+      <c r="F658" s="29" t="s">
         <v>1914</v>
-      </c>
-      <c r="F658" s="29" t="s">
-        <v>1915</v>
       </c>
       <c r="G658" s="4" t="s">
         <v>4</v>
@@ -41749,17 +41743,17 @@
     </row>
     <row r="659" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="37" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B659" s="37" t="s">
         <v>1916</v>
-      </c>
-      <c r="B659" s="37" t="s">
-        <v>1917</v>
       </c>
       <c r="C659" s="26"/>
       <c r="D659" s="29" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E659" s="29" t="s">
         <v>1918</v>
-      </c>
-      <c r="E659" s="29" t="s">
-        <v>1919</v>
       </c>
       <c r="F659" s="29"/>
       <c r="G659" s="4"/>
@@ -41770,22 +41764,22 @@
       <c r="L659" s="2"/>
       <c r="M659" s="42"/>
       <c r="N659" s="66" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="660" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="37" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B660" s="37" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C660" s="26"/>
       <c r="D660" s="29" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E660" s="29" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F660" s="29"/>
       <c r="G660" s="4"/>
@@ -41801,17 +41795,17 @@
     </row>
     <row r="661" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="37" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B661" s="37" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C661" s="26"/>
       <c r="D661" s="29" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E661" s="29" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="F661" s="29"/>
       <c r="G661" s="4"/>
@@ -41827,17 +41821,17 @@
     </row>
     <row r="662" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="37" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B662" s="37" t="s">
         <v>484</v>
       </c>
       <c r="C662" s="26"/>
       <c r="D662" s="29" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E662" s="29" t="s">
         <v>1926</v>
-      </c>
-      <c r="E662" s="29" t="s">
-        <v>1927</v>
       </c>
       <c r="F662" s="29"/>
       <c r="G662" s="4"/>
@@ -41853,17 +41847,17 @@
     </row>
     <row r="663" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="37" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B663" s="37" t="s">
         <v>525</v>
       </c>
       <c r="C663" s="26"/>
       <c r="D663" s="29" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E663" s="29" t="s">
         <v>1929</v>
-      </c>
-      <c r="E663" s="29" t="s">
-        <v>1930</v>
       </c>
       <c r="F663" s="29"/>
       <c r="G663" s="4"/>
@@ -41879,17 +41873,17 @@
     </row>
     <row r="664" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="37" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B664" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C664" s="26"/>
       <c r="D664" s="29" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E664" s="29" t="s">
         <v>1932</v>
-      </c>
-      <c r="E664" s="29" t="s">
-        <v>1933</v>
       </c>
       <c r="F664" s="29"/>
       <c r="G664" s="4"/>
@@ -41921,7 +41915,7 @@
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A666" s="36" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B666" s="35"/>
       <c r="C666" s="18"/>
@@ -41939,7 +41933,7 @@
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A667" s="49" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B667" s="49"/>
       <c r="C667" s="50" t="s">
@@ -41959,20 +41953,20 @@
     </row>
     <row r="668" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="37" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B668" s="39" t="s">
         <v>1936</v>
-      </c>
-      <c r="B668" s="39" t="s">
-        <v>1937</v>
       </c>
       <c r="C668" s="26"/>
       <c r="D668" s="15" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E668" s="27" t="s">
         <v>1938</v>
       </c>
-      <c r="E668" s="27" t="s">
+      <c r="F668" s="29" t="s">
         <v>1939</v>
-      </c>
-      <c r="F668" s="29" t="s">
-        <v>1940</v>
       </c>
       <c r="G668" s="4" t="s">
         <v>4</v>
@@ -41991,20 +41985,20 @@
     </row>
     <row r="669" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="37" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B669" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="C669" s="26"/>
       <c r="D669" s="29" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E669" s="29" t="s">
         <v>1942</v>
       </c>
-      <c r="E669" s="29" t="s">
+      <c r="F669" s="29" t="s">
         <v>1943</v>
-      </c>
-      <c r="F669" s="29" t="s">
-        <v>1944</v>
       </c>
       <c r="G669" s="4" t="s">
         <v>4</v>
@@ -42021,14 +42015,14 @@
     </row>
     <row r="670" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="37" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B670" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C670" s="26"/>
       <c r="D670" s="15" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E670" s="15" t="s">
         <v>153</v>
@@ -42047,20 +42041,20 @@
     </row>
     <row r="671" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="37" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B671" s="37" t="s">
         <v>484</v>
       </c>
       <c r="C671" s="26"/>
       <c r="D671" s="29" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E671" s="29" t="s">
         <v>1948</v>
       </c>
-      <c r="E671" s="29" t="s">
+      <c r="F671" s="29" t="s">
         <v>1949</v>
-      </c>
-      <c r="F671" s="29" t="s">
-        <v>1950</v>
       </c>
       <c r="G671" s="4" t="s">
         <v>4</v>
@@ -42074,25 +42068,25 @@
       <c r="L671" s="2"/>
       <c r="M671" s="42"/>
       <c r="N671" s="42" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="672" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="37" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B672" s="37" t="s">
         <v>525</v>
       </c>
       <c r="C672" s="26"/>
       <c r="D672" s="29" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E672" s="29" t="s">
         <v>1953</v>
       </c>
-      <c r="E672" s="29" t="s">
+      <c r="F672" s="29" t="s">
         <v>1954</v>
-      </c>
-      <c r="F672" s="29" t="s">
-        <v>1955</v>
       </c>
       <c r="G672" s="4" t="s">
         <v>4</v>
@@ -42109,20 +42103,20 @@
     </row>
     <row r="673" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="37" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B673" s="37" t="s">
         <v>635</v>
       </c>
       <c r="C673" s="26"/>
       <c r="D673" s="29" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E673" s="29" t="s">
         <v>1957</v>
       </c>
-      <c r="E673" s="29" t="s">
+      <c r="F673" s="29" t="s">
         <v>1958</v>
-      </c>
-      <c r="F673" s="29" t="s">
-        <v>1959</v>
       </c>
       <c r="G673" s="4" t="s">
         <v>4</v>
@@ -42139,20 +42133,20 @@
     </row>
     <row r="674" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="37" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B674" s="37" t="s">
         <v>1960</v>
-      </c>
-      <c r="B674" s="37" t="s">
-        <v>1961</v>
       </c>
       <c r="C674" s="26"/>
       <c r="D674" s="29" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E674" s="29" t="s">
         <v>1962</v>
       </c>
-      <c r="E674" s="29" t="s">
+      <c r="F674" s="29" t="s">
         <v>1963</v>
-      </c>
-      <c r="F674" s="29" t="s">
-        <v>1964</v>
       </c>
       <c r="G674" s="4" t="s">
         <v>4</v>
@@ -42169,20 +42163,20 @@
     </row>
     <row r="675" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="37" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B675" s="37" t="s">
         <v>1965</v>
-      </c>
-      <c r="B675" s="37" t="s">
-        <v>1966</v>
       </c>
       <c r="C675" s="26"/>
       <c r="D675" s="29" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E675" s="29" t="s">
         <v>1967</v>
       </c>
-      <c r="E675" s="29" t="s">
+      <c r="F675" s="29" t="s">
         <v>1968</v>
-      </c>
-      <c r="F675" s="29" t="s">
-        <v>1969</v>
       </c>
       <c r="G675" s="4" t="s">
         <v>4</v>
@@ -42199,20 +42193,20 @@
     </row>
     <row r="676" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="37" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B676" s="37" t="s">
         <v>1970</v>
-      </c>
-      <c r="B676" s="37" t="s">
-        <v>1971</v>
       </c>
       <c r="C676" s="26"/>
       <c r="D676" s="29" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E676" s="29" t="s">
         <v>1972</v>
       </c>
-      <c r="E676" s="29" t="s">
+      <c r="F676" s="29" t="s">
         <v>1973</v>
-      </c>
-      <c r="F676" s="29" t="s">
-        <v>1974</v>
       </c>
       <c r="G676" s="4" t="s">
         <v>4</v>
@@ -42229,20 +42223,20 @@
     </row>
     <row r="677" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="37" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B677" s="37" t="s">
         <v>515</v>
       </c>
       <c r="C677" s="26"/>
       <c r="D677" s="29" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E677" s="29" t="s">
         <v>1976</v>
       </c>
-      <c r="E677" s="29" t="s">
+      <c r="F677" s="29" t="s">
         <v>1977</v>
-      </c>
-      <c r="F677" s="29" t="s">
-        <v>1978</v>
       </c>
       <c r="G677" s="4" t="s">
         <v>4</v>
@@ -42259,20 +42253,20 @@
     </row>
     <row r="678" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="37" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B678" s="37" t="s">
         <v>1979</v>
-      </c>
-      <c r="B678" s="37" t="s">
-        <v>1980</v>
       </c>
       <c r="C678" s="26"/>
       <c r="D678" s="29" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E678" s="29" t="s">
         <v>1981</v>
       </c>
-      <c r="E678" s="29" t="s">
+      <c r="F678" s="29" t="s">
         <v>1982</v>
-      </c>
-      <c r="F678" s="29" t="s">
-        <v>1983</v>
       </c>
       <c r="G678" s="4" t="s">
         <v>4</v>
@@ -42289,20 +42283,20 @@
     </row>
     <row r="679" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="37" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B679" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C679" s="26"/>
       <c r="D679" s="29" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E679" s="29" t="s">
         <v>1985</v>
       </c>
-      <c r="E679" s="29" t="s">
+      <c r="F679" s="29" t="s">
         <v>1986</v>
-      </c>
-      <c r="F679" s="29" t="s">
-        <v>1987</v>
       </c>
       <c r="G679" s="4" t="s">
         <v>4</v>
@@ -42335,7 +42329,7 @@
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A681" s="49" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B681" s="49"/>
       <c r="C681" s="50" t="s">
@@ -42355,20 +42349,20 @@
     </row>
     <row r="682" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="37" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B682" s="39" t="s">
         <v>1989</v>
-      </c>
-      <c r="B682" s="39" t="s">
-        <v>1990</v>
       </c>
       <c r="C682" s="26"/>
       <c r="D682" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E682" s="27" t="s">
         <v>1991</v>
       </c>
-      <c r="E682" s="27" t="s">
+      <c r="F682" s="29" t="s">
         <v>1992</v>
-      </c>
-      <c r="F682" s="29" t="s">
-        <v>1993</v>
       </c>
       <c r="G682" s="4" t="s">
         <v>4</v>
@@ -42387,20 +42381,20 @@
     </row>
     <row r="683" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="37" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B683" s="37" t="s">
         <v>1994</v>
-      </c>
-      <c r="B683" s="37" t="s">
-        <v>1995</v>
       </c>
       <c r="C683" s="26"/>
       <c r="D683" s="29" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E683" s="29" t="s">
         <v>1996</v>
       </c>
-      <c r="E683" s="29" t="s">
+      <c r="F683" s="29" t="s">
         <v>1997</v>
-      </c>
-      <c r="F683" s="29" t="s">
-        <v>1998</v>
       </c>
       <c r="G683" s="4" t="s">
         <v>4</v>
@@ -42419,17 +42413,17 @@
     </row>
     <row r="684" spans="1:14" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="37" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B684" s="37" t="s">
         <v>416</v>
       </c>
       <c r="C684" s="26"/>
       <c r="D684" s="29" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E684" s="29" t="s">
         <v>2000</v>
-      </c>
-      <c r="E684" s="29" t="s">
-        <v>2001</v>
       </c>
       <c r="F684" s="55"/>
       <c r="G684" s="4"/>
@@ -42445,20 +42439,20 @@
     </row>
     <row r="685" spans="1:14" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="37" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B685" s="37" t="s">
         <v>2002</v>
-      </c>
-      <c r="B685" s="37" t="s">
-        <v>2003</v>
       </c>
       <c r="C685" s="26"/>
       <c r="D685" s="29" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E685" s="29" t="s">
         <v>2004</v>
       </c>
-      <c r="E685" s="29" t="s">
+      <c r="F685" s="29" t="s">
         <v>2005</v>
-      </c>
-      <c r="F685" s="29" t="s">
-        <v>2006</v>
       </c>
       <c r="G685" s="4" t="s">
         <v>4</v>
@@ -42475,17 +42469,17 @@
     </row>
     <row r="686" spans="1:14" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="37" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B686" s="37" t="s">
         <v>2007</v>
-      </c>
-      <c r="B686" s="37" t="s">
-        <v>2008</v>
       </c>
       <c r="C686" s="26"/>
       <c r="D686" s="29" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E686" s="29" t="s">
         <v>2009</v>
-      </c>
-      <c r="E686" s="29" t="s">
-        <v>2010</v>
       </c>
       <c r="F686" s="29"/>
       <c r="G686" s="4"/>
@@ -42501,17 +42495,17 @@
     </row>
     <row r="687" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="37" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B687" s="37" t="s">
         <v>2011</v>
-      </c>
-      <c r="B687" s="37" t="s">
-        <v>2012</v>
       </c>
       <c r="C687" s="26"/>
       <c r="D687" s="29" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E687" s="29" t="s">
         <v>2013</v>
-      </c>
-      <c r="E687" s="29" t="s">
-        <v>2014</v>
       </c>
       <c r="F687" s="29"/>
       <c r="G687" s="4"/>
@@ -42527,17 +42521,17 @@
     </row>
     <row r="688" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="37" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B688" s="37" t="s">
         <v>2015</v>
-      </c>
-      <c r="B688" s="37" t="s">
-        <v>2016</v>
       </c>
       <c r="C688" s="26"/>
       <c r="D688" s="29" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E688" s="29" t="s">
         <v>2017</v>
-      </c>
-      <c r="E688" s="29" t="s">
-        <v>2018</v>
       </c>
       <c r="F688" s="29"/>
       <c r="G688" s="4"/>
@@ -42569,7 +42563,7 @@
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A690" s="36" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B690" s="35"/>
       <c r="C690" s="18"/>
@@ -42587,7 +42581,7 @@
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A691" s="49" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B691" s="49"/>
       <c r="C691" s="50" t="s">
@@ -42607,20 +42601,20 @@
     </row>
     <row r="692" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="37" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B692" s="39" t="s">
         <v>2021</v>
-      </c>
-      <c r="B692" s="39" t="s">
-        <v>2022</v>
       </c>
       <c r="C692" s="26"/>
       <c r="D692" s="15" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E692" s="27" t="s">
         <v>2023</v>
       </c>
-      <c r="E692" s="27" t="s">
+      <c r="F692" s="29" t="s">
         <v>2024</v>
-      </c>
-      <c r="F692" s="29" t="s">
-        <v>2025</v>
       </c>
       <c r="G692" s="4" t="s">
         <v>4</v>
@@ -42637,20 +42631,20 @@
     </row>
     <row r="693" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="37" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B693" s="37" t="s">
         <v>2026</v>
-      </c>
-      <c r="B693" s="37" t="s">
-        <v>2027</v>
       </c>
       <c r="C693" s="26"/>
       <c r="D693" s="29" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E693" s="29" t="s">
         <v>2028</v>
       </c>
-      <c r="E693" s="29" t="s">
+      <c r="F693" s="29" t="s">
         <v>2029</v>
-      </c>
-      <c r="F693" s="29" t="s">
-        <v>2030</v>
       </c>
       <c r="G693" s="4" t="s">
         <v>4</v>
@@ -42683,7 +42677,7 @@
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A695" s="49" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B695" s="49"/>
       <c r="C695" s="50" t="s">
@@ -42703,20 +42697,20 @@
     </row>
     <row r="696" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="37" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B696" s="39" t="s">
         <v>2032</v>
-      </c>
-      <c r="B696" s="39" t="s">
-        <v>2033</v>
       </c>
       <c r="C696" s="26"/>
       <c r="D696" s="15" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E696" s="27" t="s">
         <v>2034</v>
       </c>
-      <c r="E696" s="27" t="s">
+      <c r="F696" s="29" t="s">
         <v>2035</v>
-      </c>
-      <c r="F696" s="29" t="s">
-        <v>2036</v>
       </c>
       <c r="G696" s="4" t="s">
         <v>4</v>
@@ -42733,20 +42727,20 @@
     </row>
     <row r="697" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="37" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B697" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C697" s="26"/>
       <c r="D697" s="29" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E697" s="29" t="s">
         <v>2038</v>
       </c>
-      <c r="E697" s="29" t="s">
+      <c r="F697" s="29" t="s">
         <v>2039</v>
-      </c>
-      <c r="F697" s="29" t="s">
-        <v>2040</v>
       </c>
       <c r="G697" s="4" t="s">
         <v>4</v>
@@ -42779,7 +42773,7 @@
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A699" s="49" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B699" s="49"/>
       <c r="C699" s="50" t="s">
@@ -42799,20 +42793,20 @@
     </row>
     <row r="700" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="37" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B700" s="39" t="s">
         <v>2042</v>
-      </c>
-      <c r="B700" s="39" t="s">
-        <v>2043</v>
       </c>
       <c r="C700" s="26"/>
       <c r="D700" s="15" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E700" s="27" t="s">
         <v>2044</v>
       </c>
-      <c r="E700" s="27" t="s">
+      <c r="F700" s="29" t="s">
         <v>2045</v>
-      </c>
-      <c r="F700" s="29" t="s">
-        <v>2046</v>
       </c>
       <c r="G700" s="4" t="s">
         <v>4</v>
@@ -42829,20 +42823,20 @@
     </row>
     <row r="701" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="37" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B701" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C701" s="26"/>
       <c r="D701" s="29" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E701" s="29" t="s">
         <v>2048</v>
       </c>
-      <c r="E701" s="29" t="s">
+      <c r="F701" s="29" t="s">
         <v>2049</v>
-      </c>
-      <c r="F701" s="29" t="s">
-        <v>2050</v>
       </c>
       <c r="G701" s="4" t="s">
         <v>4</v>
@@ -42875,7 +42869,7 @@
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A703" s="49" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B703" s="49"/>
       <c r="C703" s="50" t="s">
@@ -42895,20 +42889,20 @@
     </row>
     <row r="704" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="37" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B704" s="39" t="s">
         <v>2052</v>
-      </c>
-      <c r="B704" s="39" t="s">
-        <v>2053</v>
       </c>
       <c r="C704" s="26"/>
       <c r="D704" s="15" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E704" s="27" t="s">
         <v>2054</v>
       </c>
-      <c r="E704" s="27" t="s">
+      <c r="F704" s="29" t="s">
         <v>2055</v>
-      </c>
-      <c r="F704" s="29" t="s">
-        <v>2056</v>
       </c>
       <c r="G704" s="4" t="s">
         <v>4</v>
@@ -42925,20 +42919,20 @@
     </row>
     <row r="705" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="37" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B705" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C705" s="26"/>
       <c r="D705" s="29" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E705" s="29" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F705" s="29" t="s">
         <v>2058</v>
-      </c>
-      <c r="E705" s="29" t="s">
-        <v>2049</v>
-      </c>
-      <c r="F705" s="29" t="s">
-        <v>2059</v>
       </c>
       <c r="G705" s="4" t="s">
         <v>4</v>
@@ -42971,7 +42965,7 @@
     </row>
     <row r="707" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A707" s="49" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B707" s="49"/>
       <c r="C707" s="50" t="s">
@@ -42991,17 +42985,17 @@
     </row>
     <row r="708" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="37" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B708" s="39" t="s">
         <v>2061</v>
-      </c>
-      <c r="B708" s="39" t="s">
-        <v>2062</v>
       </c>
       <c r="C708" s="26"/>
       <c r="D708" s="15" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E708" s="27" t="s">
         <v>2063</v>
-      </c>
-      <c r="E708" s="27" t="s">
-        <v>2064</v>
       </c>
       <c r="F708" s="29"/>
       <c r="G708" s="4"/>
@@ -43017,17 +43011,17 @@
     </row>
     <row r="709" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="37" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B709" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C709" s="26"/>
       <c r="D709" s="29" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E709" s="29" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F709" s="29"/>
       <c r="G709" s="4"/>
@@ -43040,7 +43034,7 @@
       <c r="L709" s="2"/>
       <c r="M709" s="42"/>
       <c r="N709" s="42" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.3">
@@ -43061,7 +43055,7 @@
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A711" s="49" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B711" s="49"/>
       <c r="C711" s="50" t="s">
@@ -43081,17 +43075,17 @@
     </row>
     <row r="712" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="37" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B712" s="39" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C712" s="26"/>
       <c r="D712" s="15" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E712" s="27" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F712" s="29"/>
       <c r="G712" s="4"/>
@@ -43107,17 +43101,17 @@
     </row>
     <row r="713" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="37" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B713" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C713" s="26"/>
       <c r="D713" s="29" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E713" s="29" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F713" s="29"/>
       <c r="G713" s="4"/>
@@ -43149,7 +43143,7 @@
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A715" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B715" s="49"/>
       <c r="C715" s="50" t="s">
@@ -43169,17 +43163,17 @@
     </row>
     <row r="716" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="37" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B716" s="39" t="s">
         <v>2074</v>
-      </c>
-      <c r="B716" s="39" t="s">
-        <v>2075</v>
       </c>
       <c r="C716" s="26"/>
       <c r="D716" s="15" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E716" s="27" t="s">
         <v>2076</v>
-      </c>
-      <c r="E716" s="27" t="s">
-        <v>2077</v>
       </c>
       <c r="F716" s="29"/>
       <c r="G716" s="4"/>
@@ -43195,17 +43189,17 @@
     </row>
     <row r="717" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="37" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B717" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C717" s="26"/>
       <c r="D717" s="29" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E717" s="29" t="s">
         <v>2079</v>
-      </c>
-      <c r="E717" s="29" t="s">
-        <v>2080</v>
       </c>
       <c r="F717" s="29"/>
       <c r="G717" s="4"/>
@@ -43237,7 +43231,7 @@
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A719" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B719" s="49"/>
       <c r="C719" s="50" t="s">
@@ -43257,17 +43251,17 @@
     </row>
     <row r="720" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="37" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B720" s="39" t="s">
         <v>2082</v>
-      </c>
-      <c r="B720" s="39" t="s">
-        <v>2083</v>
       </c>
       <c r="C720" s="26"/>
       <c r="D720" s="15" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E720" s="27" t="s">
         <v>2084</v>
-      </c>
-      <c r="E720" s="27" t="s">
-        <v>2085</v>
       </c>
       <c r="F720" s="29"/>
       <c r="G720" s="4"/>
@@ -43299,7 +43293,7 @@
     </row>
     <row r="722" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A722" s="49" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B722" s="49"/>
       <c r="C722" s="50" t="s">
@@ -43319,17 +43313,17 @@
     </row>
     <row r="723" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="37" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B723" s="39" t="s">
         <v>2087</v>
-      </c>
-      <c r="B723" s="39" t="s">
-        <v>2088</v>
       </c>
       <c r="C723" s="26"/>
       <c r="D723" s="15" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E723" s="27" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F723" s="29"/>
       <c r="G723" s="4"/>
@@ -43345,17 +43339,17 @@
     </row>
     <row r="724" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="37" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B724" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C724" s="26"/>
       <c r="D724" s="29" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E724" s="29" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F724" s="29"/>
       <c r="G724" s="4"/>
@@ -43387,7 +43381,7 @@
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A726" s="49" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B726" s="49"/>
       <c r="C726" s="50" t="s">
@@ -43407,20 +43401,20 @@
     </row>
     <row r="727" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="37" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B727" s="39" t="s">
         <v>2093</v>
-      </c>
-      <c r="B727" s="39" t="s">
-        <v>2094</v>
       </c>
       <c r="C727" s="26"/>
       <c r="D727" s="15" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E727" s="27" t="s">
         <v>2095</v>
       </c>
-      <c r="E727" s="27" t="s">
+      <c r="F727" s="29" t="s">
         <v>2096</v>
-      </c>
-      <c r="F727" s="29" t="s">
-        <v>2097</v>
       </c>
       <c r="G727" s="4" t="s">
         <v>4</v>
@@ -43437,20 +43431,20 @@
     </row>
     <row r="728" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="37" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B728" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C728" s="26"/>
       <c r="D728" s="29" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E728" s="29" t="s">
         <v>2099</v>
       </c>
-      <c r="E728" s="29" t="s">
+      <c r="F728" s="29" t="s">
         <v>2100</v>
-      </c>
-      <c r="F728" s="29" t="s">
-        <v>2101</v>
       </c>
       <c r="G728" s="4" t="s">
         <v>4</v>
@@ -43483,7 +43477,7 @@
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A730" s="49" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B730" s="49"/>
       <c r="C730" s="50" t="s">
@@ -43503,20 +43497,20 @@
     </row>
     <row r="731" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="37" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B731" s="39" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C731" s="26"/>
       <c r="D731" s="15" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E731" s="27" t="s">
         <v>2104</v>
       </c>
-      <c r="E731" s="27" t="s">
+      <c r="F731" s="29" t="s">
         <v>2105</v>
-      </c>
-      <c r="F731" s="29" t="s">
-        <v>2106</v>
       </c>
       <c r="G731" s="4" t="s">
         <v>4</v>
@@ -43533,17 +43527,17 @@
     </row>
     <row r="732" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="37" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B732" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C732" s="26"/>
       <c r="D732" s="29" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E732" s="29" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F732" s="29"/>
       <c r="G732" s="4"/>
@@ -43573,7 +43567,7 @@
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A734" s="36" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B734" s="35"/>
       <c r="C734" s="18"/>
@@ -43591,7 +43585,7 @@
     </row>
     <row r="735" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A735" s="49" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B735" s="49"/>
       <c r="C735" s="50" t="s">
@@ -43611,20 +43605,20 @@
     </row>
     <row r="736" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="37" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B736" s="39" t="s">
         <v>2111</v>
-      </c>
-      <c r="B736" s="39" t="s">
-        <v>2112</v>
       </c>
       <c r="C736" s="26"/>
       <c r="D736" s="15" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E736" s="27" t="s">
         <v>2113</v>
       </c>
-      <c r="E736" s="27" t="s">
+      <c r="F736" s="29" t="s">
         <v>2114</v>
-      </c>
-      <c r="F736" s="29" t="s">
-        <v>2115</v>
       </c>
       <c r="G736" s="4" t="s">
         <v>4</v>
@@ -43643,20 +43637,20 @@
     </row>
     <row r="737" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="37" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B737" s="37" t="s">
         <v>2116</v>
-      </c>
-      <c r="B737" s="37" t="s">
-        <v>2117</v>
       </c>
       <c r="C737" s="26"/>
       <c r="D737" s="15" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E737" s="29" t="s">
         <v>2118</v>
       </c>
-      <c r="E737" s="29" t="s">
+      <c r="F737" s="29" t="s">
         <v>2119</v>
-      </c>
-      <c r="F737" s="29" t="s">
-        <v>2120</v>
       </c>
       <c r="G737" s="4" t="s">
         <v>4</v>
@@ -43673,17 +43667,17 @@
     </row>
     <row r="738" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="37" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B738" s="37" t="s">
         <v>2121</v>
-      </c>
-      <c r="B738" s="37" t="s">
-        <v>2122</v>
       </c>
       <c r="C738" s="26"/>
       <c r="D738" s="15" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E738" s="29" t="s">
         <v>2123</v>
-      </c>
-      <c r="E738" s="29" t="s">
-        <v>2124</v>
       </c>
       <c r="F738" s="29"/>
       <c r="G738" s="4"/>
@@ -43699,17 +43693,17 @@
     </row>
     <row r="739" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="37" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B739" s="37" t="s">
         <v>2125</v>
-      </c>
-      <c r="B739" s="37" t="s">
-        <v>2126</v>
       </c>
       <c r="C739" s="26"/>
       <c r="D739" s="15" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E739" s="29" t="s">
         <v>2127</v>
-      </c>
-      <c r="E739" s="29" t="s">
-        <v>2128</v>
       </c>
       <c r="F739" s="29"/>
       <c r="G739" s="4"/>
@@ -43725,17 +43719,17 @@
     </row>
     <row r="740" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="37" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B740" s="37" t="s">
         <v>2129</v>
-      </c>
-      <c r="B740" s="37" t="s">
-        <v>2130</v>
       </c>
       <c r="C740" s="26"/>
       <c r="D740" s="15" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E740" s="29" t="s">
         <v>2131</v>
-      </c>
-      <c r="E740" s="29" t="s">
-        <v>2132</v>
       </c>
       <c r="F740" s="29"/>
       <c r="G740" s="4"/>
@@ -43751,17 +43745,17 @@
     </row>
     <row r="741" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="37" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B741" s="37" t="s">
         <v>2133</v>
-      </c>
-      <c r="B741" s="37" t="s">
-        <v>2134</v>
       </c>
       <c r="C741" s="26"/>
       <c r="D741" s="15" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E741" s="29" t="s">
         <v>2135</v>
-      </c>
-      <c r="E741" s="29" t="s">
-        <v>2136</v>
       </c>
       <c r="F741" s="29"/>
       <c r="G741" s="4"/>
@@ -43777,17 +43771,17 @@
     </row>
     <row r="742" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="37" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B742" s="37" t="s">
         <v>2137</v>
-      </c>
-      <c r="B742" s="37" t="s">
-        <v>2138</v>
       </c>
       <c r="C742" s="26"/>
       <c r="D742" s="15" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E742" s="29" t="s">
         <v>2139</v>
-      </c>
-      <c r="E742" s="29" t="s">
-        <v>2140</v>
       </c>
       <c r="F742" s="29"/>
       <c r="G742" s="4"/>
@@ -43803,17 +43797,17 @@
     </row>
     <row r="743" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="37" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B743" s="37" t="s">
         <v>2141</v>
-      </c>
-      <c r="B743" s="37" t="s">
-        <v>2142</v>
       </c>
       <c r="C743" s="26"/>
       <c r="D743" s="15" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E743" s="29" t="s">
         <v>2143</v>
-      </c>
-      <c r="E743" s="29" t="s">
-        <v>2144</v>
       </c>
       <c r="F743" s="29"/>
       <c r="G743" s="4"/>
@@ -43829,17 +43823,17 @@
     </row>
     <row r="744" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="37" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B744" s="37" t="s">
         <v>2145</v>
-      </c>
-      <c r="B744" s="37" t="s">
-        <v>2146</v>
       </c>
       <c r="C744" s="26"/>
       <c r="D744" s="15" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E744" s="29" t="s">
         <v>2147</v>
-      </c>
-      <c r="E744" s="29" t="s">
-        <v>2148</v>
       </c>
       <c r="F744" s="29"/>
       <c r="G744" s="4"/>
@@ -43855,17 +43849,17 @@
     </row>
     <row r="745" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="37" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B745" s="37" t="s">
         <v>2149</v>
-      </c>
-      <c r="B745" s="37" t="s">
-        <v>2150</v>
       </c>
       <c r="C745" s="26"/>
       <c r="D745" s="15" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E745" s="29" t="s">
         <v>2151</v>
-      </c>
-      <c r="E745" s="29" t="s">
-        <v>2152</v>
       </c>
       <c r="F745" s="29"/>
       <c r="G745" s="4"/>
@@ -43881,17 +43875,17 @@
     </row>
     <row r="746" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="37" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B746" s="37" t="s">
         <v>2153</v>
-      </c>
-      <c r="B746" s="37" t="s">
-        <v>2154</v>
       </c>
       <c r="C746" s="26"/>
       <c r="D746" s="15" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E746" s="29" t="s">
         <v>2155</v>
-      </c>
-      <c r="E746" s="29" t="s">
-        <v>2156</v>
       </c>
       <c r="F746" s="29"/>
       <c r="G746" s="4"/>
@@ -43907,17 +43901,17 @@
     </row>
     <row r="747" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="37" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B747" s="37" t="s">
         <v>2157</v>
-      </c>
-      <c r="B747" s="37" t="s">
-        <v>2158</v>
       </c>
       <c r="C747" s="26"/>
       <c r="D747" s="15" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E747" s="29" t="s">
         <v>2159</v>
-      </c>
-      <c r="E747" s="29" t="s">
-        <v>2160</v>
       </c>
       <c r="F747" s="29"/>
       <c r="G747" s="4"/>
@@ -43933,17 +43927,17 @@
     </row>
     <row r="748" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="37" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B748" s="37" t="s">
         <v>2161</v>
-      </c>
-      <c r="B748" s="37" t="s">
-        <v>2162</v>
       </c>
       <c r="C748" s="26"/>
       <c r="D748" s="15" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E748" s="29" t="s">
         <v>2163</v>
-      </c>
-      <c r="E748" s="29" t="s">
-        <v>2164</v>
       </c>
       <c r="F748" s="29"/>
       <c r="G748" s="4"/>
@@ -43959,17 +43953,17 @@
     </row>
     <row r="749" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="37" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B749" s="37" t="s">
         <v>2165</v>
-      </c>
-      <c r="B749" s="37" t="s">
-        <v>2166</v>
       </c>
       <c r="C749" s="26"/>
       <c r="D749" s="15" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E749" s="29" t="s">
         <v>2167</v>
-      </c>
-      <c r="E749" s="29" t="s">
-        <v>2168</v>
       </c>
       <c r="F749" s="29"/>
       <c r="G749" s="4"/>
@@ -43985,17 +43979,17 @@
     </row>
     <row r="750" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="37" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B750" s="37" t="s">
         <v>2169</v>
-      </c>
-      <c r="B750" s="37" t="s">
-        <v>2170</v>
       </c>
       <c r="C750" s="26"/>
       <c r="D750" s="29" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E750" s="29" t="s">
         <v>2171</v>
-      </c>
-      <c r="E750" s="29" t="s">
-        <v>2172</v>
       </c>
       <c r="F750" s="29"/>
       <c r="G750" s="4"/>
@@ -44011,17 +44005,17 @@
     </row>
     <row r="751" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="37" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B751" s="37" t="s">
         <v>2173</v>
-      </c>
-      <c r="B751" s="37" t="s">
-        <v>2174</v>
       </c>
       <c r="C751" s="26"/>
       <c r="D751" s="29" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E751" s="29" t="s">
         <v>2175</v>
-      </c>
-      <c r="E751" s="29" t="s">
-        <v>2176</v>
       </c>
       <c r="F751" s="29"/>
       <c r="G751" s="4"/>
@@ -44037,20 +44031,20 @@
     </row>
     <row r="752" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="37" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B752" s="37" t="s">
         <v>484</v>
       </c>
       <c r="C752" s="26"/>
       <c r="D752" s="29" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E752" s="29" t="s">
         <v>2178</v>
       </c>
-      <c r="E752" s="29" t="s">
+      <c r="F752" s="56" t="s">
         <v>2179</v>
-      </c>
-      <c r="F752" s="56" t="s">
-        <v>2180</v>
       </c>
       <c r="G752" s="4" t="s">
         <v>4</v>
@@ -44064,25 +44058,25 @@
       <c r="L752" s="2"/>
       <c r="M752" s="42"/>
       <c r="N752" s="67" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="753" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="37" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B753" s="37" t="s">
         <v>525</v>
       </c>
       <c r="C753" s="26"/>
       <c r="D753" s="29" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E753" s="29" t="s">
         <v>2183</v>
       </c>
-      <c r="E753" s="29" t="s">
+      <c r="F753" s="29" t="s">
         <v>2184</v>
-      </c>
-      <c r="F753" s="29" t="s">
-        <v>2185</v>
       </c>
       <c r="G753" s="4" t="s">
         <v>4</v>
@@ -44099,20 +44093,20 @@
     </row>
     <row r="754" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="37" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B754" s="37" t="s">
         <v>2186</v>
-      </c>
-      <c r="B754" s="37" t="s">
-        <v>2187</v>
       </c>
       <c r="C754" s="26"/>
       <c r="D754" s="29" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E754" s="29" t="s">
         <v>2188</v>
       </c>
-      <c r="E754" s="29" t="s">
+      <c r="F754" s="29" t="s">
         <v>2189</v>
-      </c>
-      <c r="F754" s="29" t="s">
-        <v>2190</v>
       </c>
       <c r="G754" s="4" t="s">
         <v>4</v>
@@ -44129,20 +44123,20 @@
     </row>
     <row r="755" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="37" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B755" s="37" t="s">
         <v>855</v>
       </c>
       <c r="C755" s="26"/>
       <c r="D755" s="29" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E755" s="29" t="s">
         <v>2192</v>
       </c>
-      <c r="E755" s="29" t="s">
+      <c r="F755" s="29" t="s">
         <v>2193</v>
-      </c>
-      <c r="F755" s="29" t="s">
-        <v>2194</v>
       </c>
       <c r="G755" s="4" t="s">
         <v>4</v>
@@ -44159,20 +44153,20 @@
     </row>
     <row r="756" spans="1:14" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="37" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B756" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C756" s="26"/>
       <c r="D756" s="29" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E756" s="29" t="s">
         <v>2196</v>
       </c>
-      <c r="E756" s="29" t="s">
+      <c r="F756" s="29" t="s">
         <v>2197</v>
-      </c>
-      <c r="F756" s="29" t="s">
-        <v>2198</v>
       </c>
       <c r="G756" s="4" t="s">
         <v>4</v>
@@ -44204,7 +44198,7 @@
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A758" s="49" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B758" s="49"/>
       <c r="C758" s="50" t="s">
@@ -44224,20 +44218,20 @@
     </row>
     <row r="759" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="37" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B759" s="39" t="s">
         <v>2200</v>
-      </c>
-      <c r="B759" s="39" t="s">
-        <v>2201</v>
       </c>
       <c r="C759" s="26"/>
       <c r="D759" s="15" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E759" s="27" t="s">
         <v>2202</v>
       </c>
-      <c r="E759" s="27" t="s">
+      <c r="F759" s="29" t="s">
         <v>2203</v>
-      </c>
-      <c r="F759" s="29" t="s">
-        <v>2204</v>
       </c>
       <c r="G759" s="4" t="s">
         <v>4</v>
@@ -44254,17 +44248,17 @@
     </row>
     <row r="760" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="37" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B760" s="37" t="s">
         <v>416</v>
       </c>
       <c r="C760" s="26"/>
       <c r="D760" s="15" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E760" s="29" t="s">
         <v>2206</v>
-      </c>
-      <c r="E760" s="29" t="s">
-        <v>2207</v>
       </c>
       <c r="F760" s="76"/>
       <c r="G760" s="4"/>
@@ -44280,20 +44274,20 @@
     </row>
     <row r="761" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="37" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B761" s="37" t="s">
         <v>2208</v>
-      </c>
-      <c r="B761" s="37" t="s">
-        <v>2209</v>
       </c>
       <c r="C761" s="26"/>
       <c r="D761" s="15" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E761" s="29" t="s">
         <v>2210</v>
       </c>
-      <c r="E761" s="29" t="s">
+      <c r="F761" s="29" t="s">
         <v>2211</v>
-      </c>
-      <c r="F761" s="29" t="s">
-        <v>2212</v>
       </c>
       <c r="G761" s="4" t="s">
         <v>4</v>
@@ -44310,20 +44304,20 @@
     </row>
     <row r="762" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="37" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B762" s="37" t="s">
         <v>2213</v>
-      </c>
-      <c r="B762" s="37" t="s">
-        <v>2214</v>
       </c>
       <c r="C762" s="26"/>
       <c r="D762" s="15" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E762" s="29" t="s">
         <v>2215</v>
       </c>
-      <c r="E762" s="29" t="s">
+      <c r="F762" s="29" t="s">
         <v>2216</v>
-      </c>
-      <c r="F762" s="29" t="s">
-        <v>2217</v>
       </c>
       <c r="G762" s="4" t="s">
         <v>4</v>
@@ -44340,17 +44334,17 @@
     </row>
     <row r="763" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="37" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B763" s="37" t="s">
         <v>2218</v>
-      </c>
-      <c r="B763" s="37" t="s">
-        <v>2219</v>
       </c>
       <c r="C763" s="26"/>
       <c r="D763" s="15" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E763" s="29" t="s">
         <v>2220</v>
-      </c>
-      <c r="E763" s="29" t="s">
-        <v>2221</v>
       </c>
       <c r="F763" s="29"/>
       <c r="G763" s="4"/>
@@ -44366,17 +44360,17 @@
     </row>
     <row r="764" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="37" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B764" s="37" t="s">
         <v>2222</v>
-      </c>
-      <c r="B764" s="37" t="s">
-        <v>2223</v>
       </c>
       <c r="C764" s="26"/>
       <c r="D764" s="15" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E764" s="29" t="s">
         <v>2224</v>
-      </c>
-      <c r="E764" s="29" t="s">
-        <v>2225</v>
       </c>
       <c r="F764" s="29"/>
       <c r="G764" s="4"/>
@@ -44392,17 +44386,17 @@
     </row>
     <row r="765" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="37" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B765" s="37" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C765" s="26"/>
       <c r="D765" s="15" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E765" s="29" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F765" s="29"/>
       <c r="G765" s="4"/>
@@ -44418,17 +44412,17 @@
     </row>
     <row r="766" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="37" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B766" s="37" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C766" s="26"/>
       <c r="D766" s="15" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E766" s="29" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="F766" s="29"/>
       <c r="G766" s="4"/>
@@ -44444,17 +44438,17 @@
     </row>
     <row r="767" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="37" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B767" s="37" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C767" s="26"/>
       <c r="D767" s="15" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E767" s="29" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="F767" s="29"/>
       <c r="G767" s="4"/>
@@ -44470,17 +44464,17 @@
     </row>
     <row r="768" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="37" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B768" s="37" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="C768" s="26"/>
       <c r="D768" s="15" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E768" s="29" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="F768" s="29"/>
       <c r="G768" s="4"/>
@@ -44496,17 +44490,17 @@
     </row>
     <row r="769" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="37" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B769" s="37" t="s">
         <v>2234</v>
-      </c>
-      <c r="B769" s="37" t="s">
-        <v>2235</v>
       </c>
       <c r="C769" s="26"/>
       <c r="D769" s="15" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E769" s="29" t="s">
         <v>2236</v>
-      </c>
-      <c r="E769" s="29" t="s">
-        <v>2237</v>
       </c>
       <c r="F769" s="29"/>
       <c r="G769" s="4"/>
@@ -44522,17 +44516,17 @@
     </row>
     <row r="770" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="37" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B770" s="37" t="s">
         <v>2238</v>
-      </c>
-      <c r="B770" s="37" t="s">
-        <v>2239</v>
       </c>
       <c r="C770" s="26"/>
       <c r="D770" s="15" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E770" s="29" t="s">
         <v>2240</v>
-      </c>
-      <c r="E770" s="29" t="s">
-        <v>2241</v>
       </c>
       <c r="F770" s="29"/>
       <c r="G770" s="4"/>
@@ -44548,17 +44542,17 @@
     </row>
     <row r="771" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="37" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B771" s="37" t="s">
         <v>2242</v>
-      </c>
-      <c r="B771" s="37" t="s">
-        <v>2243</v>
       </c>
       <c r="C771" s="26"/>
       <c r="D771" s="15" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E771" s="29" t="s">
         <v>2244</v>
-      </c>
-      <c r="E771" s="29" t="s">
-        <v>2245</v>
       </c>
       <c r="F771" s="29"/>
       <c r="G771" s="4"/>
@@ -44571,22 +44565,22 @@
       <c r="L771" s="2"/>
       <c r="M771" s="42"/>
       <c r="N771" s="45" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="772" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="37" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B772" s="37" t="s">
         <v>2247</v>
-      </c>
-      <c r="B772" s="37" t="s">
-        <v>2248</v>
       </c>
       <c r="C772" s="26"/>
       <c r="D772" s="15" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E772" s="29" t="s">
         <v>2249</v>
-      </c>
-      <c r="E772" s="29" t="s">
-        <v>2250</v>
       </c>
       <c r="F772" s="29"/>
       <c r="G772" s="4"/>
@@ -44602,17 +44596,17 @@
     </row>
     <row r="773" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B773" s="37" t="s">
         <v>2251</v>
-      </c>
-      <c r="B773" s="37" t="s">
-        <v>2252</v>
       </c>
       <c r="C773" s="26"/>
       <c r="D773" s="15" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E773" s="29" t="s">
         <v>2253</v>
-      </c>
-      <c r="E773" s="29" t="s">
-        <v>2254</v>
       </c>
       <c r="F773" s="29"/>
       <c r="G773" s="4"/>
@@ -44628,17 +44622,17 @@
     </row>
     <row r="774" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="37" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B774" s="37" t="s">
         <v>2255</v>
-      </c>
-      <c r="B774" s="37" t="s">
-        <v>2256</v>
       </c>
       <c r="C774" s="26"/>
       <c r="D774" s="15" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E774" s="29" t="s">
         <v>2257</v>
-      </c>
-      <c r="E774" s="29" t="s">
-        <v>2258</v>
       </c>
       <c r="F774" s="29"/>
       <c r="G774" s="4"/>
@@ -44654,17 +44648,17 @@
     </row>
     <row r="775" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="37" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B775" s="37" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C775" s="26"/>
       <c r="D775" s="29" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E775" s="29" t="s">
         <v>2260</v>
-      </c>
-      <c r="E775" s="29" t="s">
-        <v>2261</v>
       </c>
       <c r="F775" s="29"/>
       <c r="G775" s="4"/>
@@ -44680,17 +44674,17 @@
     </row>
     <row r="776" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="37" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B776" s="37" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C776" s="26"/>
       <c r="D776" s="15" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E776" s="29" t="s">
         <v>2263</v>
-      </c>
-      <c r="E776" s="29" t="s">
-        <v>2264</v>
       </c>
       <c r="F776" s="29"/>
       <c r="G776" s="4"/>
@@ -44706,17 +44700,17 @@
     </row>
     <row r="777" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="37" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B777" s="37" t="s">
         <v>484</v>
       </c>
       <c r="C777" s="26"/>
       <c r="D777" s="29" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E777" s="29" t="s">
         <v>2266</v>
-      </c>
-      <c r="E777" s="29" t="s">
-        <v>2267</v>
       </c>
       <c r="F777" s="29"/>
       <c r="G777" s="4"/>
@@ -44729,22 +44723,22 @@
       <c r="L777" s="2"/>
       <c r="M777" s="42"/>
       <c r="N777" s="42" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="778" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="37" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B778" s="37" t="s">
         <v>2269</v>
-      </c>
-      <c r="B778" s="37" t="s">
-        <v>2270</v>
       </c>
       <c r="C778" s="26"/>
       <c r="D778" s="29" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E778" s="29" t="s">
         <v>2271</v>
-      </c>
-      <c r="E778" s="29" t="s">
-        <v>2272</v>
       </c>
       <c r="F778" s="29"/>
       <c r="G778" s="4"/>
@@ -44760,17 +44754,17 @@
     </row>
     <row r="779" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="37" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B779" s="37" t="s">
         <v>855</v>
       </c>
       <c r="C779" s="26"/>
       <c r="D779" s="29" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E779" s="29" t="s">
         <v>2274</v>
-      </c>
-      <c r="E779" s="29" t="s">
-        <v>2275</v>
       </c>
       <c r="F779" s="29"/>
       <c r="G779" s="4"/>
@@ -44786,17 +44780,17 @@
     </row>
     <row r="780" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="37" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B780" s="37" t="s">
         <v>922</v>
       </c>
       <c r="C780" s="26"/>
       <c r="D780" s="29" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E780" s="29" t="s">
         <v>2277</v>
-      </c>
-      <c r="E780" s="29" t="s">
-        <v>2278</v>
       </c>
       <c r="F780" s="29"/>
       <c r="G780" s="4"/>
@@ -44812,17 +44806,17 @@
     </row>
     <row r="781" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="37" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B781" s="37" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C781" s="26"/>
       <c r="D781" s="29" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E781" s="29" t="s">
         <v>2280</v>
-      </c>
-      <c r="E781" s="29" t="s">
-        <v>2281</v>
       </c>
       <c r="F781" s="29"/>
       <c r="G781" s="4"/>
@@ -44838,17 +44832,17 @@
     </row>
     <row r="782" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="37" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B782" s="37" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C782" s="26"/>
       <c r="D782" s="29" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="E782" s="29" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="F782" s="29"/>
       <c r="G782" s="4"/>
@@ -44864,17 +44858,17 @@
     </row>
     <row r="783" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="37" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B783" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C783" s="26"/>
       <c r="D783" s="29" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E783" s="29" t="s">
         <v>2285</v>
-      </c>
-      <c r="E783" s="29" t="s">
-        <v>2286</v>
       </c>
       <c r="F783" s="29"/>
       <c r="G783" s="4"/>
@@ -44906,7 +44900,7 @@
     </row>
     <row r="785" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A785" s="36" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B785" s="35"/>
       <c r="C785" s="18"/>
@@ -44924,7 +44918,7 @@
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A786" s="49" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B786" s="49"/>
       <c r="C786" s="50" t="s">
@@ -44944,20 +44938,20 @@
     </row>
     <row r="787" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="37" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B787" s="39" t="s">
         <v>2289</v>
-      </c>
-      <c r="B787" s="39" t="s">
-        <v>2290</v>
       </c>
       <c r="C787" s="26"/>
       <c r="D787" s="15" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E787" s="27" t="s">
         <v>2291</v>
       </c>
-      <c r="E787" s="27" t="s">
+      <c r="F787" s="29" t="s">
         <v>2292</v>
-      </c>
-      <c r="F787" s="29" t="s">
-        <v>2293</v>
       </c>
       <c r="G787" s="4" t="s">
         <v>4</v>
@@ -44976,17 +44970,17 @@
     </row>
     <row r="788" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="37" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B788" s="37" t="s">
         <v>2294</v>
-      </c>
-      <c r="B788" s="37" t="s">
-        <v>2295</v>
       </c>
       <c r="C788" s="26"/>
       <c r="D788" s="15" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E788" s="29" t="s">
         <v>2296</v>
-      </c>
-      <c r="E788" s="29" t="s">
-        <v>2297</v>
       </c>
       <c r="F788" s="29"/>
       <c r="G788" s="4"/>
@@ -45002,14 +44996,14 @@
     </row>
     <row r="789" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="37" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B789" s="37" t="s">
         <v>775</v>
       </c>
       <c r="C789" s="26"/>
       <c r="D789" s="15" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E789" s="15" t="s">
         <v>153</v>
@@ -45028,20 +45022,20 @@
     </row>
     <row r="790" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="37" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B790" s="37" t="s">
         <v>484</v>
       </c>
       <c r="C790" s="26"/>
       <c r="D790" s="29" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E790" s="29" t="s">
         <v>2301</v>
       </c>
-      <c r="E790" s="29" t="s">
+      <c r="F790" s="29" t="s">
         <v>2302</v>
-      </c>
-      <c r="F790" s="29" t="s">
-        <v>2303</v>
       </c>
       <c r="G790" s="4" t="s">
         <v>4</v>
@@ -45060,17 +45054,17 @@
     </row>
     <row r="791" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="37" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B791" s="37" t="s">
         <v>525</v>
       </c>
       <c r="C791" s="26"/>
       <c r="D791" s="29" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E791" s="29" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="F791" s="29"/>
       <c r="G791" s="4"/>
@@ -45086,20 +45080,20 @@
     </row>
     <row r="792" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="37" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B792" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C792" s="26"/>
       <c r="D792" s="29" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E792" s="29" t="s">
         <v>2307</v>
       </c>
-      <c r="E792" s="29" t="s">
+      <c r="F792" s="29" t="s">
         <v>2308</v>
-      </c>
-      <c r="F792" s="29" t="s">
-        <v>2309</v>
       </c>
       <c r="G792" s="4" t="s">
         <v>4</v>
@@ -45134,7 +45128,7 @@
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A794" s="49" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B794" s="49"/>
       <c r="C794" s="50" t="s">
@@ -45154,20 +45148,20 @@
     </row>
     <row r="795" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="37" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B795" s="39" t="s">
         <v>2311</v>
-      </c>
-      <c r="B795" s="39" t="s">
-        <v>2312</v>
       </c>
       <c r="C795" s="26"/>
       <c r="D795" s="15" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E795" s="27" t="s">
         <v>2313</v>
       </c>
-      <c r="E795" s="27" t="s">
+      <c r="F795" s="29" t="s">
         <v>2314</v>
-      </c>
-      <c r="F795" s="29" t="s">
-        <v>2315</v>
       </c>
       <c r="G795" s="4" t="s">
         <v>4</v>
@@ -45186,17 +45180,17 @@
     </row>
     <row r="796" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="37" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B796" s="37" t="s">
         <v>2316</v>
-      </c>
-      <c r="B796" s="37" t="s">
-        <v>2317</v>
       </c>
       <c r="C796" s="26"/>
       <c r="D796" s="15" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E796" s="29" t="s">
         <v>2318</v>
-      </c>
-      <c r="E796" s="29" t="s">
-        <v>2319</v>
       </c>
       <c r="F796" s="29"/>
       <c r="G796" s="4"/>
@@ -45212,20 +45206,20 @@
     </row>
     <row r="797" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="37" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B797" s="37" t="s">
         <v>484</v>
       </c>
       <c r="C797" s="26"/>
       <c r="D797" s="29" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E797" s="29" t="s">
         <v>2321</v>
       </c>
-      <c r="E797" s="29" t="s">
+      <c r="F797" s="78" t="s">
         <v>2322</v>
-      </c>
-      <c r="F797" s="78" t="s">
-        <v>2323</v>
       </c>
       <c r="G797" s="4" t="s">
         <v>4</v>
@@ -45239,7 +45233,9 @@
         <v>37</v>
       </c>
       <c r="L797" s="2"/>
-      <c r="M797" s="42"/>
+      <c r="M797" s="42" t="s">
+        <v>2323</v>
+      </c>
       <c r="N797" s="42"/>
     </row>
     <row r="798" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45599,7 +45595,7 @@
         <v>2361</v>
       </c>
       <c r="B812" s="39" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C812" s="26"/>
       <c r="D812" s="15" t="s">
@@ -45836,7 +45832,7 @@
         <v>2386</v>
       </c>
       <c r="E821" s="29" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F821" s="29"/>
       <c r="G821" s="4"/>
@@ -45949,7 +45945,7 @@
         <v>2395</v>
       </c>
       <c r="E826" s="29" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F826" s="29"/>
       <c r="G826" s="4"/>
@@ -47329,7 +47325,7 @@
         <v>2580</v>
       </c>
       <c r="E880" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F880" s="29"/>
       <c r="G880" s="4"/>
@@ -47407,7 +47403,7 @@
         <v>2589</v>
       </c>
       <c r="E883" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F883" s="29"/>
       <c r="G883" s="4"/>
@@ -47433,7 +47429,7 @@
         <v>2592</v>
       </c>
       <c r="E884" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F884" s="29"/>
       <c r="G884" s="4"/>
@@ -47537,7 +47533,7 @@
         <v>2604</v>
       </c>
       <c r="E888" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F888" s="29"/>
       <c r="G888" s="4"/>
@@ -47563,7 +47559,7 @@
         <v>2607</v>
       </c>
       <c r="E889" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F889" s="29"/>
       <c r="G889" s="4"/>
@@ -47589,7 +47585,7 @@
         <v>2610</v>
       </c>
       <c r="E890" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F890" s="29"/>
       <c r="G890" s="4"/>
@@ -47641,7 +47637,7 @@
         <v>2616</v>
       </c>
       <c r="E892" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F892" s="29"/>
       <c r="G892" s="4"/>
@@ -47667,7 +47663,7 @@
         <v>2619</v>
       </c>
       <c r="E893" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F893" s="29"/>
       <c r="G893" s="4"/>
@@ -47693,7 +47689,7 @@
         <v>2622</v>
       </c>
       <c r="E894" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F894" s="29"/>
       <c r="G894" s="4"/>
@@ -47719,7 +47715,7 @@
         <v>2625</v>
       </c>
       <c r="E895" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F895" s="29"/>
       <c r="G895" s="4"/>
@@ -47745,7 +47741,7 @@
         <v>2628</v>
       </c>
       <c r="E896" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F896" s="29"/>
       <c r="G896" s="4"/>
@@ -47771,7 +47767,7 @@
         <v>2631</v>
       </c>
       <c r="E897" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F897" s="29"/>
       <c r="G897" s="4"/>
@@ -47797,7 +47793,7 @@
         <v>2589</v>
       </c>
       <c r="E898" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F898" s="29"/>
       <c r="G898" s="4"/>
@@ -47823,7 +47819,7 @@
         <v>2635</v>
       </c>
       <c r="E899" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F899" s="29"/>
       <c r="G899" s="4"/>
@@ -47849,7 +47845,7 @@
         <v>2638</v>
       </c>
       <c r="E900" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F900" s="29"/>
       <c r="G900" s="4"/>
@@ -47875,7 +47871,7 @@
         <v>2559</v>
       </c>
       <c r="E901" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F901" s="29"/>
       <c r="G901" s="4"/>
@@ -47927,7 +47923,7 @@
         <v>2643</v>
       </c>
       <c r="E903" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F903" s="29"/>
       <c r="G903" s="4"/>
@@ -47953,7 +47949,7 @@
         <v>2646</v>
       </c>
       <c r="E904" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F904" s="29"/>
       <c r="G904" s="4"/>
@@ -47979,7 +47975,7 @@
         <v>2649</v>
       </c>
       <c r="E905" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F905" s="29"/>
       <c r="G905" s="4"/>
@@ -48005,7 +48001,7 @@
         <v>2652</v>
       </c>
       <c r="E906" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F906" s="29"/>
       <c r="G906" s="4"/>
@@ -48031,7 +48027,7 @@
         <v>2655</v>
       </c>
       <c r="E907" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F907" s="29"/>
       <c r="G907" s="4"/>
